--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\일정관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\01.일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="371">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -854,10 +854,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 상호작용 및 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최재연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1307,10 +1303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1322,6 +1314,18 @@
     <t>1-9</t>
   </si>
   <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기획</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1334,11 +1338,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2-10</t>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 씬 플로우 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 UI 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1412,7 +1520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1461,8 +1569,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1820,13 +1934,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2142,6 +2302,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2191,12 +2399,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2617,13 +2819,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>202181</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>91333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2927,13 +3129,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>16393</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3237,13 +3439,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>4795</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>86850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>132569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3299,13 +3501,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>887</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3361,13 +3563,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>24210</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>98016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8257</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>162161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3547,13 +3749,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>17124</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>83169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>267981</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>137512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3671,13 +3873,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>4192</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>78065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3795,13 +3997,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>13325</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>87130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>269515</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>151275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3857,13 +4059,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>252445</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>89571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3919,13 +4121,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>268773</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>92292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>29936</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3981,13 +4183,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6239</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>113105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>257096</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>167448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4043,13 +4245,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>19846</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>270703</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>140233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4105,13 +4307,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>257887</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>108620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4229,13 +4431,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>3108</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>75825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4291,13 +4493,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6913</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>80787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4353,13 +4555,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>16327</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4415,13 +4617,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>244281</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>108621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>168728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4477,13 +4679,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>268774</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>65079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>29937</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4539,13 +4741,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>8961</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>88612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>259818</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>142955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4563,6 +4765,130 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9634</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14610098" y="11962544"/>
+          <a:ext cx="1133365" cy="66170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>253981</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>5798</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15398731" y="2757234"/>
+          <a:ext cx="296103" cy="61693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -4863,11 +5189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AV88"/>
+  <dimension ref="B1:AW94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX69" sqref="AX69"/>
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4893,7 +5219,7 @@
     <col min="41" max="48" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:49" x14ac:dyDescent="0.3">
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -4905,7 +5231,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:49" x14ac:dyDescent="0.3">
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -4923,7 +5249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:49" x14ac:dyDescent="0.3">
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -4938,94 +5264,97 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="124" t="s">
+    <row r="4" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:49" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="107" t="s">
+      <c r="Q5" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="118" t="s">
+      <c r="R5" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="117" t="s">
+      <c r="S5" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115" t="s">
+      <c r="T5" s="131"/>
+      <c r="U5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="116"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="131"/>
+      <c r="AN5" s="131"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="116" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="6" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="119"/>
+    <row r="6" spans="2:49" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="139"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="135"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -5116,24 +5445,25 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
+      <c r="AW6" s="117"/>
     </row>
-    <row r="7" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="121"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="137"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -5169,26 +5499,27 @@
       <c r="AT7" s="58"/>
       <c r="AU7" s="58"/>
       <c r="AV7" s="75"/>
+      <c r="AW7" s="110"/>
     </row>
-    <row r="8" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -5234,26 +5565,27 @@
       <c r="AT8" s="53"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="74"/>
+      <c r="AW8" s="111"/>
     </row>
-    <row r="9" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -5299,26 +5631,27 @@
       <c r="AT9" s="53"/>
       <c r="AU9" s="53"/>
       <c r="AV9" s="74"/>
+      <c r="AW9" s="111"/>
     </row>
-    <row r="10" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -5364,26 +5697,27 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="74"/>
+      <c r="AW10" s="111"/>
     </row>
-    <row r="11" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="110"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -5429,34 +5763,35 @@
       <c r="AT11" s="53"/>
       <c r="AU11" s="53"/>
       <c r="AV11" s="74"/>
+      <c r="AW11" s="111"/>
     </row>
-    <row r="12" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="50" t="s">
         <v>225</v>
-      </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="50" t="s">
-        <v>226</v>
       </c>
       <c r="O12" s="51">
         <v>10.130000000000001</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q12" s="52">
         <v>1</v>
@@ -5494,26 +5829,27 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
       <c r="AV12" s="74"/>
+      <c r="AW12" s="111"/>
     </row>
-    <row r="13" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="110"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -5559,36 +5895,39 @@
       <c r="AT13" s="53"/>
       <c r="AU13" s="53"/>
       <c r="AV13" s="74"/>
+      <c r="AW13" s="111"/>
     </row>
-    <row r="14" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="125" t="s">
         <v>333</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="50" t="s">
+      <c r="P14" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="O14" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q14" s="52"/>
+      <c r="Q14" s="52">
+        <v>1</v>
+      </c>
       <c r="R14" s="81">
         <v>3</v>
       </c>
@@ -5622,34 +5961,35 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
       <c r="AV14" s="74"/>
+      <c r="AW14" s="111"/>
     </row>
-    <row r="15" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="50" t="s">
+      <c r="O15" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="P15" s="51" t="s">
         <v>232</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="P15" s="51" t="s">
-        <v>233</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="81">
@@ -5685,34 +6025,35 @@
       <c r="AT15" s="53"/>
       <c r="AU15" s="53"/>
       <c r="AV15" s="74"/>
+      <c r="AW15" s="111"/>
     </row>
-    <row r="16" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="110"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O16" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="51" t="s">
         <v>242</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>243</v>
       </c>
       <c r="Q16" s="52"/>
       <c r="R16" s="81">
@@ -5747,24 +6088,27 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="6"/>
       <c r="AV16" s="74"/>
+      <c r="AW16" s="111" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="123"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="13"/>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
@@ -5800,26 +6144,27 @@
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="76"/>
+      <c r="AW17" s="112"/>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141"/>
       <c r="N18" s="14" t="s">
         <v>10</v>
       </c>
@@ -5865,26 +6210,27 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="76"/>
+      <c r="AW18" s="112"/>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="15" t="s">
         <v>32</v>
       </c>
@@ -5930,26 +6276,27 @@
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="76"/>
+      <c r="AW19" s="112"/>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="106"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="15" t="s">
         <v>33</v>
       </c>
@@ -5995,26 +6342,27 @@
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="76"/>
+      <c r="AW20" s="112"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
         <v>157</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="106"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="15" t="s">
         <v>34</v>
       </c>
@@ -6060,26 +6408,27 @@
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="76"/>
+      <c r="AW21" s="112"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C22" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="106"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="15" t="s">
         <v>35</v>
       </c>
@@ -6125,26 +6474,27 @@
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="76"/>
+      <c r="AW22" s="112"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="15" t="s">
         <v>37</v>
       </c>
@@ -6190,26 +6540,27 @@
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="76"/>
+      <c r="AW23" s="112"/>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
       <c r="N24" s="15" t="s">
         <v>83</v>
       </c>
@@ -6255,26 +6606,27 @@
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="76"/>
+      <c r="AW24" s="112"/>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
         <v>161</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="15" t="s">
         <v>140</v>
       </c>
@@ -6320,26 +6672,27 @@
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="76"/>
+      <c r="AW25" s="112"/>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="106"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="15" t="s">
         <v>154</v>
       </c>
@@ -6385,59 +6738,50 @@
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="76"/>
+      <c r="AW26" s="112"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B27" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>340</v>
-      </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="84">
-        <v>1</v>
-      </c>
+    <row r="27" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="82"/>
       <c r="S27" s="25"/>
       <c r="T27" s="7"/>
       <c r="U27" s="42"/>
       <c r="V27" s="46"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="11"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
       <c r="AB27" s="42"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="42"/>
       <c r="AJ27" s="46"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
@@ -6448,37 +6792,50 @@
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="76"/>
+      <c r="AW27" s="112"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
+    <row r="28" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="17">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>1</v>
+      </c>
+      <c r="R28" s="84">
+        <v>1</v>
+      </c>
+      <c r="S28" s="26"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="42"/>
       <c r="AC28" s="7"/>
@@ -6501,50 +6858,51 @@
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="76"/>
+      <c r="AW28" s="112"/>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="106"/>
+        <v>42</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
       <c r="N29" s="15" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="O29" s="17">
-        <v>9.2899999999999991</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q29" s="19">
         <v>1</v>
       </c>
       <c r="R29" s="84">
-        <v>1</v>
-      </c>
-      <c r="S29" s="26"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="S29" s="25"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="7"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="7"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
       <c r="AB29" s="42"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -6566,34 +6924,35 @@
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="76"/>
+      <c r="AW29" s="112"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
+        <v>12</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="122"/>
       <c r="N30" s="15" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="O30" s="17">
         <v>10.039999999999999</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="19">
         <v>1</v>
@@ -6607,9 +6966,9 @@
       <c r="V30" s="46"/>
       <c r="W30" s="7"/>
       <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="42"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
@@ -6631,34 +6990,35 @@
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="76"/>
+      <c r="AW30" s="112"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="106"/>
+        <v>93</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
       <c r="N31" s="15" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="O31" s="17">
-        <v>10.039999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="Q31" s="19">
         <v>1</v>
@@ -6671,15 +7031,15 @@
       <c r="U31" s="42"/>
       <c r="V31" s="46"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="9"/>
+      <c r="X31" s="11"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="42"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="42"/>
@@ -6696,40 +7056,41 @@
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="76"/>
+      <c r="AW31" s="112"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="106"/>
+        <v>201</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="122"/>
       <c r="N32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O32" s="17">
-        <v>10.11</v>
+        <v>244</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="Q32" s="19">
         <v>1</v>
       </c>
       <c r="R32" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="25"/>
       <c r="T32" s="7"/>
@@ -6743,9 +7104,9 @@
       <c r="AB32" s="42"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="7"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="9"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="42"/>
       <c r="AJ32" s="46"/>
@@ -6761,37 +7122,38 @@
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="76"/>
+      <c r="AW32" s="112"/>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="106"/>
+        <v>98</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>219</v>
+        <v>99</v>
+      </c>
+      <c r="O33" s="17">
+        <v>10.11</v>
       </c>
       <c r="P33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="Q33" s="19">
-        <v>1</v>
       </c>
       <c r="R33" s="84">
         <v>1</v>
@@ -6808,9 +7170,9 @@
       <c r="AB33" s="42"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="42"/>
       <c r="AJ33" s="46"/>
@@ -6826,40 +7188,41 @@
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="76"/>
+      <c r="AW33" s="112"/>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="106"/>
+        <v>102</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
       <c r="N34" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O34" s="17">
         <v>10.11</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="R34" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="25"/>
       <c r="T34" s="7"/>
@@ -6875,7 +7238,7 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
-      <c r="AG34" s="7"/>
+      <c r="AG34" s="9"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="42"/>
       <c r="AJ34" s="46"/>
@@ -6891,38 +7254,37 @@
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="76"/>
+      <c r="AW34" s="112"/>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="106"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="122"/>
       <c r="N35" s="15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O35" s="17">
-        <v>10.11</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="19" t="s">
-        <v>330</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q35" s="19"/>
       <c r="R35" s="84">
         <v>2</v>
       </c>
@@ -6938,7 +7300,7 @@
       <c r="AB35" s="42"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="9"/>
+      <c r="AE35" s="11"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
       <c r="AH35" s="7"/>
@@ -6956,36 +7318,39 @@
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
       <c r="AV35" s="76"/>
+      <c r="AW35" s="112"/>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="106"/>
+      <c r="D36" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="122"/>
       <c r="N36" s="15" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="O36" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q36" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>1</v>
+      </c>
       <c r="R36" s="84">
         <v>2</v>
       </c>
@@ -7003,7 +7368,7 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
+      <c r="AG36" s="11"/>
       <c r="AH36" s="7"/>
       <c r="AI36" s="42"/>
       <c r="AJ36" s="46"/>
@@ -7019,40 +7384,41 @@
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="76"/>
+      <c r="AW36" s="112"/>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="106"/>
+        <v>145</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="122"/>
       <c r="N37" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O37" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="19">
         <v>1</v>
       </c>
       <c r="R37" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37" s="25"/>
       <c r="T37" s="7"/>
@@ -7068,7 +7434,7 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="9"/>
-      <c r="AG37" s="11"/>
+      <c r="AG37" s="9"/>
       <c r="AH37" s="7"/>
       <c r="AI37" s="42"/>
       <c r="AJ37" s="46"/>
@@ -7084,40 +7450,41 @@
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="76"/>
+      <c r="AW37" s="112"/>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>258</v>
-      </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="106"/>
+        <v>253</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="122"/>
       <c r="N38" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="O38" s="17">
-        <v>10.119999999999999</v>
+        <v>255</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q38" s="19">
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="R38" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="25"/>
       <c r="T38" s="7"/>
@@ -7134,7 +7501,7 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
-      <c r="AH38" s="7"/>
+      <c r="AH38" s="9"/>
       <c r="AI38" s="42"/>
       <c r="AJ38" s="46"/>
       <c r="AK38" s="7"/>
@@ -7149,40 +7516,39 @@
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="76"/>
+      <c r="AW38" s="112"/>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="105" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="106"/>
+        <v>198</v>
+      </c>
+      <c r="D39" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="122"/>
       <c r="N39" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="O39" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="P39" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>330</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="Q39" s="19"/>
       <c r="R39" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39" s="25"/>
       <c r="T39" s="7"/>
@@ -7200,10 +7566,10 @@
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
-      <c r="AI39" s="42"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
@@ -7214,38 +7580,41 @@
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="76"/>
+      <c r="AW39" s="112"/>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
         <v>283</v>
       </c>
       <c r="C40" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="105" t="s">
+      <c r="D40" s="121" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="P40" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="P40" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q40" s="19"/>
+      <c r="Q40" s="19">
+        <v>1</v>
+      </c>
       <c r="R40" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40" s="25"/>
       <c r="T40" s="7"/>
@@ -7260,12 +7629,12 @@
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="11"/>
-      <c r="AF40" s="9"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="9"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="11"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
@@ -7277,38 +7646,37 @@
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="76"/>
+      <c r="AW40" s="112"/>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="105" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="106"/>
+        <v>201</v>
+      </c>
+      <c r="D41" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="122"/>
       <c r="N41" s="15" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Q41" s="19"/>
       <c r="R41" s="84">
         <v>2</v>
       </c>
@@ -7328,9 +7696,9 @@
       <c r="AF41" s="11"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="49"/>
-      <c r="AK41" s="11"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="48"/>
+      <c r="AK41" s="9"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
@@ -7342,38 +7710,41 @@
       <c r="AT41" s="7"/>
       <c r="AU41" s="7"/>
       <c r="AV41" s="76"/>
+      <c r="AW41" s="112"/>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="105" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="106"/>
+      <c r="D42" s="121" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="122"/>
       <c r="N42" s="15" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q42" s="19"/>
+        <v>262</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>1</v>
+      </c>
       <c r="R42" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S42" s="25"/>
       <c r="T42" s="7"/>
@@ -7391,9 +7762,9 @@
       <c r="AF42" s="11"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="9"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="9"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="49"/>
+      <c r="AK42" s="11"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
@@ -7405,40 +7776,41 @@
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
       <c r="AV42" s="76"/>
+      <c r="AW42" s="112"/>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
         <v>286</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="106"/>
+      <c r="D43" s="121" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="122"/>
       <c r="N43" s="15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q43" s="19">
         <v>1</v>
       </c>
       <c r="R43" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43" s="25"/>
       <c r="T43" s="7"/>
@@ -7455,7 +7827,7 @@
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
+      <c r="AH43" s="11"/>
       <c r="AI43" s="45"/>
       <c r="AJ43" s="49"/>
       <c r="AK43" s="11"/>
@@ -7470,34 +7842,35 @@
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
       <c r="AV43" s="76"/>
+      <c r="AW43" s="112"/>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
         <v>287</v>
       </c>
       <c r="C44" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="105" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="106"/>
+      <c r="D44" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="122"/>
       <c r="N44" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="Q44" s="19">
         <v>1</v>
@@ -7535,40 +7908,39 @@
       <c r="AT44" s="7"/>
       <c r="AU44" s="7"/>
       <c r="AV44" s="76"/>
+      <c r="AW44" s="112"/>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
         <v>288</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="106"/>
+        <v>198</v>
+      </c>
+      <c r="D45" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="122"/>
       <c r="N45" s="15" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q45" s="19">
+        <v>326</v>
+      </c>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="84">
         <v>1</v>
-      </c>
-      <c r="R45" s="84">
-        <v>2</v>
       </c>
       <c r="S45" s="25"/>
       <c r="T45" s="7"/>
@@ -7584,11 +7956,11 @@
       <c r="AD45" s="7"/>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="11"/>
-      <c r="AI45" s="45"/>
-      <c r="AJ45" s="49"/>
-      <c r="AK45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="48"/>
+      <c r="AK45" s="9"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
@@ -7600,36 +7972,39 @@
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
       <c r="AV45" s="76"/>
+      <c r="AW45" s="112"/>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
         <v>289</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="105" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="106"/>
+        <v>201</v>
+      </c>
+      <c r="D46" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="122"/>
       <c r="N46" s="15" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q46" s="19"/>
+        <v>281</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>1</v>
+      </c>
       <c r="R46" s="84">
         <v>1</v>
       </c>
@@ -7648,10 +8023,9 @@
       <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="44"/>
+      <c r="AI46" s="9"/>
       <c r="AJ46" s="48"/>
-      <c r="AK46" s="9"/>
+      <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
@@ -7663,58 +8037,48 @@
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
       <c r="AV46" s="76"/>
+      <c r="AW46" s="112"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B47" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="P47" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q47" s="19">
-        <v>1</v>
-      </c>
-      <c r="R47" s="84">
-        <v>1</v>
-      </c>
+    <row r="47" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B47" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="85"/>
       <c r="S47" s="25"/>
       <c r="T47" s="7"/>
       <c r="U47" s="42"/>
       <c r="V47" s="46"/>
       <c r="W47" s="7"/>
-      <c r="X47" s="11"/>
+      <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="42"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="48"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="46"/>
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
@@ -7727,29 +8091,42 @@
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
       <c r="AV47" s="76"/>
+      <c r="AW47" s="112"/>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B48" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="85"/>
+    <row r="48" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B48" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" s="56">
+        <v>10.11</v>
+      </c>
+      <c r="P48" s="56">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Q48" s="79">
+        <v>1</v>
+      </c>
+      <c r="R48" s="86">
+        <v>1</v>
+      </c>
       <c r="S48" s="25"/>
       <c r="T48" s="7"/>
       <c r="U48" s="42"/>
@@ -7762,8 +8139,8 @@
       <c r="AB48" s="42"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
       <c r="AI48" s="42"/>
@@ -7780,34 +8157,35 @@
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
       <c r="AV48" s="76"/>
+      <c r="AW48" s="112"/>
     </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="114"/>
+        <v>167</v>
+      </c>
+      <c r="D49" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="130"/>
       <c r="N49" s="39" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="O49" s="56">
-        <v>10.11</v>
-      </c>
-      <c r="P49" s="56">
-        <v>10.119999999999999</v>
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P49" s="56" t="s">
+        <v>170</v>
       </c>
       <c r="Q49" s="79">
         <v>1</v>
@@ -7827,13 +8205,13 @@
       <c r="AB49" s="42"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="46"/>
-      <c r="AK49" s="7"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="8"/>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
@@ -7845,37 +8223,38 @@
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
       <c r="AV49" s="76"/>
+      <c r="AW49" s="112"/>
     </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="113" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="114"/>
+        <v>311</v>
+      </c>
+      <c r="D50" s="129" t="s">
+        <v>312</v>
+      </c>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="130"/>
       <c r="N50" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="O50" s="56">
-        <v>10.130000000000001</v>
+        <v>314</v>
+      </c>
+      <c r="O50" s="56" t="s">
+        <v>315</v>
       </c>
       <c r="P50" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q50" s="79">
-        <v>1</v>
+        <v>316</v>
+      </c>
+      <c r="Q50" s="79" t="s">
+        <v>329</v>
       </c>
       <c r="R50" s="86">
         <v>1</v>
@@ -7894,10 +8273,10 @@
       <c r="AD50" s="7"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="43"/>
-      <c r="AJ50" s="47"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="49"/>
       <c r="AK50" s="8"/>
       <c r="AL50" s="7"/>
       <c r="AM50" s="7"/>
@@ -7910,37 +8289,38 @@
       <c r="AT50" s="7"/>
       <c r="AU50" s="7"/>
       <c r="AV50" s="76"/>
+      <c r="AW50" s="112"/>
     </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="D51" s="113" t="s">
-        <v>313</v>
-      </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="114"/>
+        <v>129</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="130"/>
       <c r="N51" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="O51" s="56" t="s">
-        <v>316</v>
+        <v>171</v>
+      </c>
+      <c r="O51" s="56">
+        <v>10.17</v>
       </c>
       <c r="P51" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q51" s="79" t="s">
-        <v>330</v>
+        <v>165</v>
+      </c>
+      <c r="Q51" s="104" t="s">
+        <v>329</v>
       </c>
       <c r="R51" s="86">
         <v>1</v>
@@ -7961,12 +8341,12 @@
       <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
       <c r="AH51" s="11"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="49"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="7"/>
-      <c r="AM51" s="7"/>
-      <c r="AN51" s="7"/>
+      <c r="AI51" s="42"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
       <c r="AO51" s="7"/>
       <c r="AP51" s="42"/>
       <c r="AQ51" s="46"/>
@@ -7975,63 +8355,64 @@
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
       <c r="AV51" s="76"/>
+      <c r="AW51" s="112"/>
     </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="113" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="O52" s="56">
-        <v>10.17</v>
-      </c>
-      <c r="P52" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q52" s="104" t="s">
-        <v>330</v>
-      </c>
-      <c r="R52" s="86">
+        <v>130</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" s="17">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="R52" s="84">
         <v>1</v>
       </c>
-      <c r="S52" s="25"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="42"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="9"/>
       <c r="AG52" s="11"/>
       <c r="AH52" s="11"/>
       <c r="AI52" s="42"/>
       <c r="AJ52" s="46"/>
-      <c r="AK52" s="10"/>
-      <c r="AL52" s="10"/>
-      <c r="AM52" s="10"/>
-      <c r="AN52" s="10"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
       <c r="AO52" s="7"/>
       <c r="AP52" s="42"/>
       <c r="AQ52" s="46"/>
@@ -8040,38 +8421,37 @@
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
       <c r="AV52" s="76"/>
+      <c r="AW52" s="112"/>
     </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="106"/>
+        <v>72</v>
+      </c>
+      <c r="D53" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="121"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="122"/>
       <c r="N53" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O53" s="17">
-        <v>10.119999999999999</v>
+        <v>75</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q53" s="19" t="s">
-        <v>272</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Q53" s="19"/>
       <c r="R53" s="84">
         <v>1</v>
       </c>
@@ -8088,16 +8468,16 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-      <c r="AF53" s="9"/>
+      <c r="AF53" s="11"/>
       <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
+      <c r="AH53" s="7"/>
       <c r="AI53" s="42"/>
       <c r="AJ53" s="46"/>
       <c r="AK53" s="11"/>
       <c r="AL53" s="11"/>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
-      <c r="AO53" s="7"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="9"/>
       <c r="AP53" s="42"/>
       <c r="AQ53" s="46"/>
       <c r="AR53" s="7"/>
@@ -8105,34 +8485,33 @@
       <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="76"/>
+      <c r="AW53" s="112"/>
     </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D54" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="121"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="17" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Q54" s="19"/>
       <c r="R54" s="84">
@@ -8151,53 +8530,54 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
       <c r="AI54" s="42"/>
       <c r="AJ54" s="46"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
       <c r="AM54" s="11"/>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
-      <c r="AP54" s="42"/>
-      <c r="AQ54" s="46"/>
-      <c r="AR54" s="7"/>
-      <c r="AS54" s="7"/>
-      <c r="AT54" s="7"/>
+      <c r="AP54" s="45"/>
+      <c r="AQ54" s="49"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
       <c r="AU54" s="7"/>
       <c r="AV54" s="76"/>
+      <c r="AW54" s="112"/>
     </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="106"/>
+        <v>173</v>
+      </c>
+      <c r="D55" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="121"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="122"/>
       <c r="N55" s="15"/>
       <c r="O55" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55" s="27"/>
       <c r="T55" s="11"/>
@@ -8220,45 +8600,46 @@
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="11"/>
-      <c r="AN55" s="9"/>
-      <c r="AO55" s="9"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
       <c r="AP55" s="45"/>
       <c r="AQ55" s="49"/>
-      <c r="AR55" s="11"/>
-      <c r="AS55" s="11"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
       <c r="AT55" s="11"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="76"/>
+      <c r="AW55" s="112"/>
     </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B56" s="36" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="106"/>
+        <v>175</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="122"/>
       <c r="N56" s="15"/>
       <c r="O56" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P56" s="17" t="s">
         <v>294</v>
       </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56" s="27"/>
       <c r="T56" s="11"/>
@@ -8290,43 +8671,36 @@
       <c r="AT56" s="11"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="76"/>
+      <c r="AW56" s="112"/>
     </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B57" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="P57" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="84">
-        <v>1</v>
-      </c>
-      <c r="S57" s="27"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
+    <row r="57" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B57" s="37">
+        <v>5</v>
+      </c>
+      <c r="C57" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="85"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -8341,39 +8715,52 @@
       <c r="AJ57" s="46"/>
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="45"/>
-      <c r="AQ57" s="49"/>
-      <c r="AR57" s="9"/>
-      <c r="AS57" s="9"/>
-      <c r="AT57" s="11"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="42"/>
+      <c r="AQ57" s="46"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="76"/>
+      <c r="AW57" s="112"/>
     </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B58" s="37">
-        <v>5</v>
-      </c>
-      <c r="C58" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="85"/>
+    <row r="58" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B58" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>1</v>
+      </c>
+      <c r="R58" s="84">
+        <v>1</v>
+      </c>
       <c r="S58" s="25"/>
       <c r="T58" s="7"/>
       <c r="U58" s="42"/>
@@ -8386,8 +8773,8 @@
       <c r="AB58" s="42"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="11"/>
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
       <c r="AI58" s="42"/>
@@ -8404,34 +8791,35 @@
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
       <c r="AV58" s="76"/>
+      <c r="AW58" s="112"/>
     </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105"/>
-      <c r="L59" s="105"/>
-      <c r="M59" s="106"/>
+        <v>63</v>
+      </c>
+      <c r="D59" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="121"/>
+      <c r="M59" s="122"/>
       <c r="N59" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O59" s="17">
-        <v>10.11</v>
+        <v>295</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="Q59" s="19">
         <v>1</v>
@@ -8451,13 +8839,13 @@
       <c r="AB59" s="42"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
-      <c r="AE59" s="8"/>
+      <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="46"/>
-      <c r="AK59" s="7"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="43"/>
+      <c r="AJ59" s="47"/>
+      <c r="AK59" s="8"/>
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
@@ -8469,34 +8857,35 @@
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="76"/>
+      <c r="AW59" s="112"/>
     </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="106"/>
+        <v>114</v>
+      </c>
+      <c r="D60" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="121"/>
+      <c r="M60" s="122"/>
       <c r="N60" s="15" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="O60" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="P60" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="P60" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="84">
@@ -8516,13 +8905,13 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="11"/>
       <c r="AF60" s="11"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="43"/>
-      <c r="AJ60" s="47"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="42"/>
+      <c r="AJ60" s="46"/>
       <c r="AK60" s="8"/>
-      <c r="AL60" s="7"/>
-      <c r="AM60" s="7"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
       <c r="AN60" s="7"/>
       <c r="AO60" s="7"/>
       <c r="AP60" s="42"/>
@@ -8532,37 +8921,42 @@
       <c r="AT60" s="7"/>
       <c r="AU60" s="7"/>
       <c r="AV60" s="76"/>
+      <c r="AW60" s="112"/>
     </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105"/>
-      <c r="L61" s="105"/>
-      <c r="M61" s="106"/>
+        <v>112</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="121"/>
+      <c r="L61" s="121"/>
+      <c r="M61" s="122"/>
       <c r="N61" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="O61" s="17" t="s">
-        <v>271</v>
+        <v>68</v>
+      </c>
+      <c r="O61" s="17">
+        <v>10.11</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="84"/>
+        <v>65</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R61" s="84">
+        <v>2</v>
+      </c>
       <c r="S61" s="25"/>
       <c r="T61" s="7"/>
       <c r="U61" s="42"/>
@@ -8575,15 +8969,15 @@
       <c r="AB61" s="42"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
-      <c r="AE61" s="11"/>
+      <c r="AE61" s="9"/>
       <c r="AF61" s="11"/>
-      <c r="AG61" s="11"/>
+      <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
       <c r="AI61" s="42"/>
       <c r="AJ61" s="46"/>
-      <c r="AK61" s="8"/>
-      <c r="AL61" s="8"/>
-      <c r="AM61" s="8"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
       <c r="AP61" s="42"/>
@@ -8593,41 +8987,36 @@
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="76"/>
+      <c r="AW61" s="112"/>
     </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="106"/>
-      <c r="N62" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O62" s="17">
-        <v>10.11</v>
+        <v>183</v>
+      </c>
+      <c r="D62" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="121"/>
+      <c r="L62" s="121"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q62" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R62" s="84">
-        <v>2</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="84"/>
       <c r="S62" s="25"/>
       <c r="T62" s="7"/>
       <c r="U62" s="42"/>
@@ -8640,7 +9029,7 @@
       <c r="AB62" s="42"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
-      <c r="AE62" s="9"/>
+      <c r="AE62" s="11"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
@@ -8649,8 +9038,8 @@
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
-      <c r="AN62" s="7"/>
-      <c r="AO62" s="7"/>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="9"/>
       <c r="AP62" s="42"/>
       <c r="AQ62" s="46"/>
       <c r="AR62" s="7"/>
@@ -8658,35 +9047,42 @@
       <c r="AT62" s="7"/>
       <c r="AU62" s="7"/>
       <c r="AV62" s="76"/>
+      <c r="AW62" s="112"/>
     </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="121"/>
+      <c r="L63" s="121"/>
+      <c r="M63" s="122"/>
+      <c r="N63" s="15" t="s">
+        <v>301</v>
+      </c>
       <c r="O63" s="17" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="84"/>
+        <v>300</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>1</v>
+      </c>
+      <c r="R63" s="84">
+        <v>1</v>
+      </c>
       <c r="S63" s="25"/>
       <c r="T63" s="7"/>
       <c r="U63" s="42"/>
@@ -8703,13 +9099,13 @@
       <c r="AF63" s="11"/>
       <c r="AG63" s="7"/>
       <c r="AH63" s="7"/>
-      <c r="AI63" s="42"/>
-      <c r="AJ63" s="46"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="47"/>
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
-      <c r="AN63" s="9"/>
-      <c r="AO63" s="9"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
       <c r="AP63" s="42"/>
       <c r="AQ63" s="46"/>
       <c r="AR63" s="7"/>
@@ -8717,41 +9113,36 @@
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
       <c r="AV63" s="76"/>
+      <c r="AW63" s="112"/>
     </row>
-    <row r="64" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="15" t="s">
-        <v>302</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="121"/>
+      <c r="L64" s="121"/>
+      <c r="M64" s="122"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="17" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q64" s="19">
-        <v>1</v>
-      </c>
-      <c r="R64" s="84">
-        <v>1</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="84"/>
       <c r="S64" s="25"/>
       <c r="T64" s="7"/>
       <c r="U64" s="42"/>
@@ -8768,12 +9159,12 @@
       <c r="AF64" s="11"/>
       <c r="AG64" s="7"/>
       <c r="AH64" s="7"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="7"/>
-      <c r="AL64" s="7"/>
-      <c r="AM64" s="7"/>
-      <c r="AN64" s="7"/>
+      <c r="AI64" s="42"/>
+      <c r="AJ64" s="46"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
       <c r="AO64" s="7"/>
       <c r="AP64" s="42"/>
       <c r="AQ64" s="46"/>
@@ -8782,35 +9173,40 @@
       <c r="AT64" s="7"/>
       <c r="AU64" s="7"/>
       <c r="AV64" s="76"/>
+      <c r="AW64" s="112"/>
     </row>
-    <row r="65" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="106"/>
-      <c r="N65" s="15"/>
+        <v>198</v>
+      </c>
+      <c r="D65" s="121" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="121"/>
+      <c r="L65" s="121"/>
+      <c r="M65" s="122"/>
+      <c r="N65" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="O65" s="17" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="Q65" s="15"/>
-      <c r="R65" s="84"/>
+      <c r="R65" s="84">
+        <v>1</v>
+      </c>
       <c r="S65" s="25"/>
       <c r="T65" s="7"/>
       <c r="U65" s="42"/>
@@ -8830,10 +9226,10 @@
       <c r="AI65" s="42"/>
       <c r="AJ65" s="46"/>
       <c r="AK65" s="9"/>
-      <c r="AL65" s="9"/>
-      <c r="AM65" s="9"/>
-      <c r="AN65" s="9"/>
-      <c r="AO65" s="7"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="11"/>
       <c r="AP65" s="42"/>
       <c r="AQ65" s="46"/>
       <c r="AR65" s="7"/>
@@ -8841,39 +9237,36 @@
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
       <c r="AV65" s="76"/>
+      <c r="AW65" s="112"/>
     </row>
-    <row r="66" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" s="105" t="s">
-        <v>332</v>
-      </c>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="105"/>
-      <c r="L66" s="105"/>
-      <c r="M66" s="106"/>
-      <c r="N66" s="15" t="s">
-        <v>328</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C66" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="121"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="121"/>
+      <c r="L66" s="121"/>
+      <c r="M66" s="122"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="17" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="P66" s="17" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="Q66" s="15"/>
-      <c r="R66" s="84">
-        <v>1</v>
-      </c>
+      <c r="R66" s="84"/>
       <c r="S66" s="25"/>
       <c r="T66" s="7"/>
       <c r="U66" s="42"/>
@@ -8892,47 +9285,42 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="42"/>
       <c r="AJ66" s="46"/>
-      <c r="AK66" s="9"/>
-      <c r="AL66" s="11"/>
-      <c r="AM66" s="11"/>
-      <c r="AN66" s="11"/>
-      <c r="AO66" s="11"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
       <c r="AP66" s="42"/>
       <c r="AQ66" s="46"/>
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
-      <c r="AT66" s="7"/>
-      <c r="AU66" s="7"/>
-      <c r="AV66" s="76"/>
+      <c r="AT66" s="10"/>
+      <c r="AU66" s="10"/>
+      <c r="AV66" s="102"/>
+      <c r="AW66" s="112"/>
     </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B67" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105"/>
-      <c r="L67" s="105"/>
-      <c r="M67" s="106"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="P67" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="84"/>
+    <row r="67" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B67" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="119"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="85"/>
       <c r="S67" s="25"/>
       <c r="T67" s="7"/>
       <c r="U67" s="42"/>
@@ -8945,8 +9333,8 @@
       <c r="AB67" s="42"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
       <c r="AH67" s="7"/>
       <c r="AI67" s="42"/>
@@ -8960,32 +9348,45 @@
       <c r="AQ67" s="46"/>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
-      <c r="AT67" s="10"/>
-      <c r="AU67" s="10"/>
-      <c r="AV67" s="102"/>
+      <c r="AT67" s="7"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="76"/>
+      <c r="AW67" s="112"/>
     </row>
-    <row r="68" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B68" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="122" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="122"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
-      <c r="M68" s="123"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="85"/>
+    <row r="68" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B68" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O68" s="17">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="P68" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>1</v>
+      </c>
+      <c r="R68" s="84">
+        <v>1</v>
+      </c>
       <c r="S68" s="25"/>
       <c r="T68" s="7"/>
       <c r="U68" s="42"/>
@@ -8998,12 +9399,12 @@
       <c r="AB68" s="42"/>
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="7"/>
-      <c r="AH68" s="7"/>
-      <c r="AI68" s="42"/>
-      <c r="AJ68" s="46"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="45"/>
+      <c r="AJ68" s="49"/>
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
@@ -9016,38 +9417,37 @@
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
       <c r="AV68" s="76"/>
+      <c r="AW68" s="112"/>
     </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="106"/>
+        <v>77</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="121"/>
+      <c r="L69" s="121"/>
+      <c r="M69" s="122"/>
       <c r="N69" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O69" s="17">
-        <v>10.119999999999999</v>
+        <v>320</v>
+      </c>
+      <c r="O69" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q69" s="19">
-        <v>1</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="Q69" s="15"/>
       <c r="R69" s="84">
         <v>1</v>
       </c>
@@ -9063,14 +9463,14 @@
       <c r="AB69" s="42"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="8"/>
-      <c r="AG69" s="8"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
       <c r="AH69" s="11"/>
       <c r="AI69" s="45"/>
       <c r="AJ69" s="49"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
       <c r="AO69" s="7"/>
@@ -9081,45 +9481,42 @@
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
       <c r="AV69" s="76"/>
+      <c r="AW69" s="112"/>
     </row>
-    <row r="70" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="106"/>
-      <c r="N70" s="15" t="s">
-        <v>321</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D70" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="121"/>
+      <c r="K70" s="121"/>
+      <c r="L70" s="121"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="17" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="84">
-        <v>1</v>
-      </c>
-      <c r="S70" s="25"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
@@ -9134,9 +9531,9 @@
       <c r="AJ70" s="49"/>
       <c r="AK70" s="8"/>
       <c r="AL70" s="8"/>
-      <c r="AM70" s="7"/>
-      <c r="AN70" s="7"/>
-      <c r="AO70" s="7"/>
+      <c r="AM70" s="11"/>
+      <c r="AN70" s="11"/>
+      <c r="AO70" s="11"/>
       <c r="AP70" s="42"/>
       <c r="AQ70" s="46"/>
       <c r="AR70" s="7"/>
@@ -9144,32 +9541,33 @@
       <c r="AT70" s="7"/>
       <c r="AU70" s="7"/>
       <c r="AV70" s="76"/>
+      <c r="AW70" s="112"/>
     </row>
-    <row r="71" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
-      <c r="M71" s="106"/>
+        <v>196</v>
+      </c>
+      <c r="D71" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="121"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="121"/>
+      <c r="K71" s="121"/>
+      <c r="L71" s="121"/>
+      <c r="M71" s="122"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="84"/>
@@ -9186,14 +9584,14 @@
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="45"/>
-      <c r="AJ71" s="49"/>
-      <c r="AK71" s="8"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="42"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="7"/>
       <c r="AL71" s="8"/>
-      <c r="AM71" s="11"/>
+      <c r="AM71" s="8"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="11"/>
       <c r="AP71" s="42"/>
@@ -9203,34 +9601,39 @@
       <c r="AT71" s="7"/>
       <c r="AU71" s="7"/>
       <c r="AV71" s="76"/>
+      <c r="AW71" s="112"/>
     </row>
-    <row r="72" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="105"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="105"/>
-      <c r="M72" s="106"/>
-      <c r="N72" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="121"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="121"/>
+      <c r="K72" s="121"/>
+      <c r="L72" s="121"/>
+      <c r="M72" s="122"/>
+      <c r="N72" s="15" t="s">
+        <v>317</v>
+      </c>
       <c r="O72" s="17" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q72" s="19"/>
+        <v>222</v>
+      </c>
+      <c r="Q72" s="19" t="s">
+        <v>318</v>
+      </c>
       <c r="R72" s="84"/>
       <c r="S72" s="27"/>
       <c r="T72" s="11"/>
@@ -9247,12 +9650,12 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="42"/>
-      <c r="AJ72" s="46"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="8"/>
-      <c r="AM72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="47"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
       <c r="AO72" s="11"/>
       <c r="AP72" s="42"/>
@@ -9262,39 +9665,42 @@
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
       <c r="AV72" s="76"/>
+      <c r="AW72" s="112"/>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="105" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="105"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="105"/>
-      <c r="M73" s="106"/>
+        <v>219</v>
+      </c>
+      <c r="D73" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="121"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="121"/>
+      <c r="L73" s="121"/>
+      <c r="M73" s="122"/>
       <c r="N73" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>253</v>
+        <v>221</v>
+      </c>
+      <c r="O73" s="17">
+        <v>10.14</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q73" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R73" s="84"/>
+        <v>222</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>1</v>
+      </c>
+      <c r="R73" s="84">
+        <v>2</v>
+      </c>
       <c r="S73" s="27"/>
       <c r="T73" s="11"/>
       <c r="U73" s="45"/>
@@ -9325,37 +9731,38 @@
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
       <c r="AV73" s="76"/>
+      <c r="AW73" s="112"/>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="106"/>
+        <v>116</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="121" t="s">
+        <v>369</v>
+      </c>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="121"/>
+      <c r="H74" s="121"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="121"/>
+      <c r="K74" s="121"/>
+      <c r="L74" s="121"/>
+      <c r="M74" s="122"/>
       <c r="N74" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O74" s="17">
-        <v>10.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="Q74" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R74" s="84">
         <v>2</v>
@@ -9373,13 +9780,13 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
-      <c r="AG74" s="7"/>
-      <c r="AH74" s="8"/>
-      <c r="AI74" s="43"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="8"/>
-      <c r="AL74" s="7"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="44"/>
+      <c r="AJ74" s="48"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="9"/>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
       <c r="AO74" s="11"/>
@@ -9390,40 +9797,41 @@
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
       <c r="AV74" s="76"/>
+      <c r="AW74" s="112"/>
     </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C75" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="106"/>
+      <c r="D75" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="121"/>
+      <c r="L75" s="121"/>
+      <c r="M75" s="122"/>
       <c r="N75" s="15" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="O75" s="17">
-        <v>10.119999999999999</v>
+        <v>10.15</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="Q75" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R75" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S75" s="27"/>
       <c r="T75" s="11"/>
@@ -9438,12 +9846,12 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
-      <c r="AH75" s="9"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
       <c r="AI75" s="44"/>
-      <c r="AJ75" s="48"/>
-      <c r="AK75" s="9"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="7"/>
       <c r="AL75" s="7"/>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
@@ -9455,40 +9863,39 @@
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
       <c r="AV75" s="76"/>
+      <c r="AW75" s="112"/>
     </row>
-    <row r="76" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="105"/>
-      <c r="M76" s="106"/>
+        <v>322</v>
+      </c>
+      <c r="D76" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="121"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="121"/>
+      <c r="K76" s="121"/>
+      <c r="L76" s="121"/>
+      <c r="M76" s="122"/>
       <c r="N76" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="O76" s="17">
-        <v>10.15</v>
+        <v>324</v>
+      </c>
+      <c r="O76" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q76" s="19">
-        <v>1</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="Q76" s="19"/>
       <c r="R76" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S76" s="27"/>
       <c r="T76" s="11"/>
@@ -9506,10 +9913,10 @@
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
-      <c r="AI76" s="44"/>
+      <c r="AI76" s="45"/>
       <c r="AJ76" s="46"/>
-      <c r="AK76" s="7"/>
-      <c r="AL76" s="7"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="11"/>
@@ -9520,39 +9927,36 @@
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
       <c r="AV76" s="76"/>
+      <c r="AW76" s="112"/>
     </row>
-    <row r="77" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="D77" s="105" t="s">
-        <v>324</v>
-      </c>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="105"/>
-      <c r="K77" s="105"/>
-      <c r="L77" s="105"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="15" t="s">
-        <v>325</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D77" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="122"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="Q77" s="19"/>
-      <c r="R77" s="84">
-        <v>2</v>
-      </c>
+      <c r="R77" s="84"/>
       <c r="S77" s="27"/>
       <c r="T77" s="11"/>
       <c r="U77" s="45"/>
@@ -9569,13 +9973,13 @@
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
       <c r="AH77" s="7"/>
-      <c r="AI77" s="45"/>
+      <c r="AI77" s="42"/>
       <c r="AJ77" s="46"/>
-      <c r="AK77" s="9"/>
-      <c r="AL77" s="9"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
       <c r="AM77" s="11"/>
-      <c r="AN77" s="11"/>
-      <c r="AO77" s="11"/>
+      <c r="AN77" s="9"/>
+      <c r="AO77" s="9"/>
       <c r="AP77" s="42"/>
       <c r="AQ77" s="46"/>
       <c r="AR77" s="7"/>
@@ -9583,32 +9987,33 @@
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
       <c r="AV77" s="76"/>
+      <c r="AW77" s="112"/>
     </row>
-    <row r="78" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="105"/>
-      <c r="M78" s="106"/>
+        <v>201</v>
+      </c>
+      <c r="D78" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="121"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="121"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121"/>
+      <c r="K78" s="121"/>
+      <c r="L78" s="121"/>
+      <c r="M78" s="122"/>
       <c r="N78" s="15"/>
       <c r="O78" s="17" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="Q78" s="19"/>
       <c r="R78" s="84"/>
@@ -9633,41 +10038,42 @@
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="11"/>
-      <c r="AN78" s="9"/>
-      <c r="AO78" s="9"/>
+      <c r="AN78" s="11"/>
+      <c r="AO78" s="11"/>
       <c r="AP78" s="42"/>
       <c r="AQ78" s="46"/>
-      <c r="AR78" s="7"/>
-      <c r="AS78" s="7"/>
+      <c r="AR78" s="9"/>
+      <c r="AS78" s="9"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="76"/>
+      <c r="AW78" s="112"/>
     </row>
-    <row r="79" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="105"/>
-      <c r="K79" s="105"/>
-      <c r="L79" s="105"/>
-      <c r="M79" s="106"/>
+        <v>203</v>
+      </c>
+      <c r="D79" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="121"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="121"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="121"/>
+      <c r="M79" s="122"/>
       <c r="N79" s="15"/>
       <c r="O79" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="84"/>
@@ -9696,37 +10102,38 @@
       <c r="AO79" s="11"/>
       <c r="AP79" s="42"/>
       <c r="AQ79" s="46"/>
-      <c r="AR79" s="9"/>
+      <c r="AR79" s="22"/>
       <c r="AS79" s="9"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
       <c r="AV79" s="76"/>
+      <c r="AW79" s="112"/>
     </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D80" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="105"/>
-      <c r="I80" s="105"/>
-      <c r="J80" s="105"/>
-      <c r="K80" s="105"/>
-      <c r="L80" s="105"/>
-      <c r="M80" s="106"/>
+        <v>205</v>
+      </c>
+      <c r="D80" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="121"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="121"/>
+      <c r="L80" s="121"/>
+      <c r="M80" s="122"/>
       <c r="N80" s="15"/>
       <c r="O80" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q80" s="19"/>
       <c r="R80" s="84"/>
@@ -9755,40 +10162,35 @@
       <c r="AO80" s="11"/>
       <c r="AP80" s="42"/>
       <c r="AQ80" s="46"/>
-      <c r="AR80" s="22"/>
+      <c r="AR80" s="9"/>
       <c r="AS80" s="9"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="76"/>
+      <c r="AW80" s="112"/>
     </row>
-    <row r="81" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B81" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="105"/>
-      <c r="M81" s="106"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="P81" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="84"/>
+    <row r="81" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B81" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="119"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="119"/>
+      <c r="I81" s="119"/>
+      <c r="J81" s="119"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119"/>
+      <c r="M81" s="120"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="105"/>
+      <c r="R81" s="85"/>
       <c r="S81" s="27"/>
       <c r="T81" s="11"/>
       <c r="U81" s="45"/>
@@ -9814,45 +10216,56 @@
       <c r="AO81" s="11"/>
       <c r="AP81" s="42"/>
       <c r="AQ81" s="46"/>
-      <c r="AR81" s="9"/>
-      <c r="AS81" s="9"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
       <c r="AV81" s="76"/>
+      <c r="AW81" s="112"/>
     </row>
-    <row r="82" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B82" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="122" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="122"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="122"/>
-      <c r="L82" s="122"/>
-      <c r="M82" s="123"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="85"/>
-      <c r="S82" s="25"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="42"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
+    <row r="82" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B82" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="D82" s="114" t="s">
+        <v>341</v>
+      </c>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="115"/>
+      <c r="N82" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="O82" s="98" t="s">
+        <v>343</v>
+      </c>
+      <c r="P82" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="99">
+        <v>2</v>
+      </c>
+      <c r="S82" s="27"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="45"/>
+      <c r="V82" s="49"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
       <c r="AB82" s="42"/>
-      <c r="AC82" s="46"/>
+      <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
       <c r="AE82" s="7"/>
       <c r="AF82" s="7"/>
@@ -9860,62 +10273,63 @@
       <c r="AH82" s="7"/>
       <c r="AI82" s="42"/>
       <c r="AJ82" s="46"/>
-      <c r="AK82" s="7"/>
-      <c r="AL82" s="7"/>
-      <c r="AM82" s="7"/>
-      <c r="AN82" s="7"/>
-      <c r="AO82" s="7"/>
+      <c r="AK82" s="8"/>
+      <c r="AL82" s="8"/>
+      <c r="AM82" s="11"/>
+      <c r="AN82" s="11"/>
+      <c r="AO82" s="11"/>
       <c r="AP82" s="42"/>
       <c r="AQ82" s="46"/>
-      <c r="AR82" s="7"/>
-      <c r="AS82" s="7"/>
+      <c r="AR82" s="11"/>
+      <c r="AS82" s="11"/>
       <c r="AT82" s="7"/>
       <c r="AU82" s="7"/>
       <c r="AV82" s="76"/>
+      <c r="AW82" s="112"/>
     </row>
-    <row r="83" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B83" s="96" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="113" t="s">
-        <v>275</v>
-      </c>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113"/>
-      <c r="K83" s="113"/>
-      <c r="L83" s="113"/>
-      <c r="M83" s="114"/>
+        <v>347</v>
+      </c>
+      <c r="C83" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="115"/>
       <c r="N83" s="97" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="O83" s="98" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="P83" s="98" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q83" s="97"/>
+        <v>349</v>
+      </c>
+      <c r="Q83" s="106"/>
       <c r="R83" s="99">
-        <v>1</v>
-      </c>
-      <c r="S83" s="25"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="42"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="S83" s="27"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="49"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
       <c r="AB83" s="42"/>
-      <c r="AC83" s="46"/>
+      <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="7"/>
@@ -9924,57 +10338,60 @@
       <c r="AI83" s="42"/>
       <c r="AJ83" s="46"/>
       <c r="AK83" s="7"/>
-      <c r="AL83" s="7"/>
-      <c r="AM83" s="7"/>
-      <c r="AN83" s="7"/>
-      <c r="AO83" s="7"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="11"/>
+      <c r="AO83" s="11"/>
       <c r="AP83" s="42"/>
       <c r="AQ83" s="46"/>
-      <c r="AR83" s="8"/>
-      <c r="AS83" s="8"/>
-      <c r="AT83" s="8"/>
-      <c r="AU83" s="8"/>
-      <c r="AV83" s="101"/>
+      <c r="AR83" s="11"/>
+      <c r="AS83" s="11"/>
+      <c r="AT83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="76"/>
+      <c r="AW83" s="112"/>
     </row>
-    <row r="84" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B84" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D84" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="P84" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="84"/>
-      <c r="S84" s="25"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
+    <row r="84" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B84" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="115"/>
+      <c r="N84" s="97"/>
+      <c r="O84" s="98" t="s">
+        <v>353</v>
+      </c>
+      <c r="P84" s="98" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q84" s="106"/>
+      <c r="R84" s="99">
+        <v>2</v>
+      </c>
+      <c r="S84" s="27"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="45"/>
+      <c r="V84" s="49"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
       <c r="AA84" s="7"/>
       <c r="AB84" s="42"/>
-      <c r="AC84" s="46"/>
+      <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
       <c r="AE84" s="7"/>
       <c r="AF84" s="7"/>
@@ -9983,57 +10400,52 @@
       <c r="AI84" s="42"/>
       <c r="AJ84" s="46"/>
       <c r="AK84" s="7"/>
-      <c r="AL84" s="7"/>
-      <c r="AM84" s="7"/>
-      <c r="AN84" s="7"/>
-      <c r="AO84" s="7"/>
+      <c r="AL84" s="24"/>
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
       <c r="AP84" s="42"/>
       <c r="AQ84" s="46"/>
-      <c r="AR84" s="8"/>
-      <c r="AS84" s="7"/>
+      <c r="AR84" s="9"/>
+      <c r="AS84" s="9"/>
       <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
       <c r="AV84" s="76"/>
+      <c r="AW84" s="112"/>
     </row>
-    <row r="85" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B85" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D85" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="106"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="P85" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="84"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="42"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
+    <row r="85" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B85" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" s="118" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="119"/>
+      <c r="M85" s="120"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="105"/>
+      <c r="R85" s="85"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="49"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
       <c r="AB85" s="42"/>
-      <c r="AC85" s="46"/>
+      <c r="AC85" s="7"/>
       <c r="AD85" s="7"/>
       <c r="AE85" s="7"/>
       <c r="AF85" s="7"/>
@@ -10042,57 +10454,60 @@
       <c r="AI85" s="42"/>
       <c r="AJ85" s="46"/>
       <c r="AK85" s="7"/>
-      <c r="AL85" s="7"/>
-      <c r="AM85" s="7"/>
-      <c r="AN85" s="7"/>
-      <c r="AO85" s="7"/>
+      <c r="AL85" s="24"/>
+      <c r="AM85" s="24"/>
+      <c r="AN85" s="11"/>
+      <c r="AO85" s="11"/>
       <c r="AP85" s="42"/>
       <c r="AQ85" s="46"/>
-      <c r="AR85" s="8"/>
-      <c r="AS85" s="7"/>
+      <c r="AR85" s="9"/>
+      <c r="AS85" s="9"/>
       <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
       <c r="AV85" s="76"/>
+      <c r="AW85" s="112"/>
     </row>
-    <row r="86" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B86" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="105"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="105"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="105"/>
-      <c r="M86" s="106"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="P86" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="84"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="46"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
+    <row r="86" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B86" s="96" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="109" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="115"/>
+      <c r="N86" s="97"/>
+      <c r="O86" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="P86" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q86" s="106"/>
+      <c r="R86" s="99">
+        <v>1</v>
+      </c>
+      <c r="S86" s="27"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="49"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
       <c r="AA86" s="7"/>
       <c r="AB86" s="42"/>
-      <c r="AC86" s="46"/>
+      <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
       <c r="AE86" s="7"/>
       <c r="AF86" s="7"/>
@@ -10101,57 +10516,60 @@
       <c r="AI86" s="42"/>
       <c r="AJ86" s="46"/>
       <c r="AK86" s="7"/>
-      <c r="AL86" s="7"/>
-      <c r="AM86" s="7"/>
-      <c r="AN86" s="7"/>
-      <c r="AO86" s="7"/>
+      <c r="AL86" s="24"/>
+      <c r="AM86" s="24"/>
+      <c r="AN86" s="11"/>
+      <c r="AO86" s="11"/>
       <c r="AP86" s="42"/>
       <c r="AQ86" s="46"/>
-      <c r="AR86" s="7"/>
-      <c r="AS86" s="8"/>
-      <c r="AT86" s="8"/>
+      <c r="AR86" s="11"/>
+      <c r="AS86" s="11"/>
+      <c r="AT86" s="10"/>
       <c r="AU86" s="7"/>
       <c r="AV86" s="76"/>
+      <c r="AW86" s="112"/>
     </row>
-    <row r="87" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B87" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="105"/>
-      <c r="M87" s="106"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="P87" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="84"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="42"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="C87" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" s="114" t="s">
+        <v>361</v>
+      </c>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="115"/>
+      <c r="N87" s="97"/>
+      <c r="O87" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="P87" s="98" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q87" s="106"/>
+      <c r="R87" s="99">
+        <v>1</v>
+      </c>
+      <c r="S87" s="27"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
       <c r="AA87" s="7"/>
       <c r="AB87" s="42"/>
-      <c r="AC87" s="46"/>
+      <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
@@ -10160,128 +10578,483 @@
       <c r="AI87" s="42"/>
       <c r="AJ87" s="46"/>
       <c r="AK87" s="7"/>
-      <c r="AL87" s="7"/>
-      <c r="AM87" s="7"/>
-      <c r="AN87" s="7"/>
-      <c r="AO87" s="7"/>
+      <c r="AL87" s="24"/>
+      <c r="AM87" s="24"/>
+      <c r="AN87" s="11"/>
+      <c r="AO87" s="11"/>
       <c r="AP87" s="42"/>
       <c r="AQ87" s="46"/>
-      <c r="AR87" s="7"/>
-      <c r="AS87" s="7"/>
-      <c r="AT87" s="8"/>
-      <c r="AU87" s="7"/>
-      <c r="AV87" s="76"/>
+      <c r="AR87" s="11"/>
+      <c r="AS87" s="11"/>
+      <c r="AT87" s="11"/>
+      <c r="AU87" s="8"/>
+      <c r="AV87" s="101"/>
+      <c r="AW87" s="112"/>
     </row>
-    <row r="88" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="95" t="s">
+    <row r="88" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B88" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="119"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="119"/>
+      <c r="G88" s="119"/>
+      <c r="H88" s="119"/>
+      <c r="I88" s="119"/>
+      <c r="J88" s="119"/>
+      <c r="K88" s="119"/>
+      <c r="L88" s="119"/>
+      <c r="M88" s="120"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="42"/>
+      <c r="AC88" s="46"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="42"/>
+      <c r="AJ88" s="46"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="42"/>
+      <c r="AQ88" s="46"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="76"/>
+      <c r="AW88" s="112"/>
+    </row>
+    <row r="89" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B89" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" s="129"/>
+      <c r="F89" s="129"/>
+      <c r="G89" s="129"/>
+      <c r="H89" s="129"/>
+      <c r="I89" s="129"/>
+      <c r="J89" s="129"/>
+      <c r="K89" s="129"/>
+      <c r="L89" s="129"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="O89" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="P89" s="98" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="99">
+        <v>1</v>
+      </c>
+      <c r="S89" s="25"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="42"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="42"/>
+      <c r="AC89" s="46"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="42"/>
+      <c r="AJ89" s="46"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="42"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="8"/>
+      <c r="AS89" s="8"/>
+      <c r="AT89" s="8"/>
+      <c r="AU89" s="8"/>
+      <c r="AV89" s="101"/>
+      <c r="AW89" s="112"/>
+    </row>
+    <row r="90" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B90" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="121"/>
+      <c r="K90" s="121"/>
+      <c r="L90" s="121"/>
+      <c r="M90" s="122"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="P90" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="84"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="42"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="42"/>
+      <c r="AJ90" s="46"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="42"/>
+      <c r="AQ90" s="46"/>
+      <c r="AR90" s="8"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="7"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="76"/>
+      <c r="AW90" s="112"/>
+    </row>
+    <row r="91" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B91" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="121"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="121"/>
+      <c r="K91" s="121"/>
+      <c r="L91" s="121"/>
+      <c r="M91" s="122"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="P91" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="84"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="42"/>
+      <c r="AC91" s="46"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="42"/>
+      <c r="AJ91" s="46"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="42"/>
+      <c r="AQ91" s="46"/>
+      <c r="AR91" s="8"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="76"/>
+      <c r="AW91" s="112"/>
+    </row>
+    <row r="92" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B92" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="121"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="121"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="121"/>
+      <c r="L92" s="121"/>
+      <c r="M92" s="122"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="P92" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="84"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="46"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="42"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="42"/>
+      <c r="AJ92" s="46"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="42"/>
+      <c r="AQ92" s="46"/>
+      <c r="AR92" s="7"/>
+      <c r="AS92" s="8"/>
+      <c r="AT92" s="8"/>
+      <c r="AU92" s="7"/>
+      <c r="AV92" s="76"/>
+      <c r="AW92" s="112"/>
+    </row>
+    <row r="93" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B93" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="121"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="121"/>
+      <c r="L93" s="121"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="P93" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="84"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="46"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="42"/>
+      <c r="AC93" s="46"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="42"/>
+      <c r="AJ93" s="46"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="42"/>
+      <c r="AQ93" s="46"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7"/>
+      <c r="AT93" s="8"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="76"/>
+      <c r="AW93" s="112"/>
+    </row>
+    <row r="94" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="C94" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="D88" s="128" t="s">
+      <c r="D94" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="128"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="128"/>
-      <c r="L88" s="128"/>
-      <c r="M88" s="129"/>
-      <c r="N88" s="67"/>
-      <c r="O88" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="P88" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="88"/>
-      <c r="S88" s="69"/>
-      <c r="T88" s="70"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="72"/>
-      <c r="W88" s="70"/>
-      <c r="X88" s="70"/>
-      <c r="Y88" s="70"/>
-      <c r="Z88" s="70"/>
-      <c r="AA88" s="70"/>
-      <c r="AB88" s="71"/>
-      <c r="AC88" s="72"/>
-      <c r="AD88" s="70"/>
-      <c r="AE88" s="70"/>
-      <c r="AF88" s="70"/>
-      <c r="AG88" s="70"/>
-      <c r="AH88" s="70"/>
-      <c r="AI88" s="71"/>
-      <c r="AJ88" s="72"/>
-      <c r="AK88" s="70"/>
-      <c r="AL88" s="70"/>
-      <c r="AM88" s="70"/>
-      <c r="AN88" s="70"/>
-      <c r="AO88" s="70"/>
-      <c r="AP88" s="71"/>
-      <c r="AQ88" s="72"/>
-      <c r="AR88" s="70"/>
-      <c r="AS88" s="70"/>
-      <c r="AT88" s="70"/>
-      <c r="AU88" s="103"/>
-      <c r="AV88" s="77"/>
+      <c r="E94" s="142"/>
+      <c r="F94" s="142"/>
+      <c r="G94" s="142"/>
+      <c r="H94" s="142"/>
+      <c r="I94" s="142"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="142"/>
+      <c r="L94" s="142"/>
+      <c r="M94" s="143"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="P94" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q94" s="67"/>
+      <c r="R94" s="88"/>
+      <c r="S94" s="69"/>
+      <c r="T94" s="70"/>
+      <c r="U94" s="71"/>
+      <c r="V94" s="72"/>
+      <c r="W94" s="70"/>
+      <c r="X94" s="70"/>
+      <c r="Y94" s="70"/>
+      <c r="Z94" s="70"/>
+      <c r="AA94" s="70"/>
+      <c r="AB94" s="71"/>
+      <c r="AC94" s="72"/>
+      <c r="AD94" s="70"/>
+      <c r="AE94" s="70"/>
+      <c r="AF94" s="70"/>
+      <c r="AG94" s="70"/>
+      <c r="AH94" s="70"/>
+      <c r="AI94" s="71"/>
+      <c r="AJ94" s="72"/>
+      <c r="AK94" s="70"/>
+      <c r="AL94" s="70"/>
+      <c r="AM94" s="70"/>
+      <c r="AN94" s="70"/>
+      <c r="AO94" s="70"/>
+      <c r="AP94" s="71"/>
+      <c r="AQ94" s="72"/>
+      <c r="AR94" s="70"/>
+      <c r="AS94" s="70"/>
+      <c r="AT94" s="70"/>
+      <c r="AU94" s="103"/>
+      <c r="AV94" s="77"/>
+      <c r="AW94" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="99">
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D65:M65"/>
     <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="C67:M67"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D75:M75"/>
     <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="C68:M68"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D72:M72"/>
     <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="C82:M82"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="C88:M88"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D51:M51"/>
     <mergeCell ref="D52:M52"/>
     <mergeCell ref="D53:M53"/>
     <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D50:M50"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D29:M29"/>
     <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="D9:M9"/>
     <mergeCell ref="D18:M18"/>
@@ -10292,12 +11065,11 @@
     <mergeCell ref="D10:M10"/>
     <mergeCell ref="D25:M25"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D27:M27"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D55:M55"/>
     <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
@@ -10307,30 +11079,43 @@
     <mergeCell ref="D21:M21"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D41:M41"/>
     <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="C81:M81"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="C85:M85"/>
+    <mergeCell ref="D31:M31"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D34:M34"/>
     <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
     <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D38:M38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B17 B28 P24:P27 B48 B68 B82 B7 O15:P16 O33 P29:P45 O39:O45 O54 O56:O57 O60:O61 O63:O66 O70:O73 O78:P81 O83:P88 O67:P67 P59:P66 P50:P57 O51 O77 O46:P47 P69:P77 P11:P14 O14 O27" numberStoredAsText="1"/>
+    <ignoredError sqref="B17 B27 P24:P26 B47 B67 B88 B7 O15:P16 O32 P28:P39 O38:O44 O53 O55:O56 O59:O60 O62:O65 O69:O72 O77:P80 O89:P94 O66:P66 P58:P65 P49:P56 O50 O76 O45:P46 P68:P74 P11:P14 O14 B81 O82:P84 B85 O86:P87 P40:P44 P75:P76" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="373">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1430,23 +1430,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>공정률</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1576,7 +1584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1980,13 +1988,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2323,11 +2346,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4306,13 +4332,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>257887</xdr:colOff>
+      <xdr:colOff>271494</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>108620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>32657</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:to>
@@ -4323,7 +4349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14314066" y="7905513"/>
+          <a:off x="14327673" y="8109620"/>
           <a:ext cx="577591" cy="60107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4923,6 +4949,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>15681</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>84129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>144236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15432574" y="15432986"/>
+          <a:ext cx="577591" cy="60107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5189,11 +5277,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AW94"/>
+  <dimension ref="B1:BA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5217,9 +5305,10 @@
     <col min="36" max="36" width="3.5" customWidth="1"/>
     <col min="37" max="40" width="3.5" bestFit="1" customWidth="1"/>
     <col min="41" max="48" width="3.5" customWidth="1"/>
+    <col min="49" max="49" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:53" x14ac:dyDescent="0.3">
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -5231,7 +5320,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:53" x14ac:dyDescent="0.3">
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -5248,8 +5337,17 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
+      <c r="AY2" s="114" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ2" s="114" t="s">
+        <v>369</v>
+      </c>
+      <c r="BA2" s="114" t="s">
+        <v>370</v>
+      </c>
     </row>
-    <row r="3" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:53" x14ac:dyDescent="0.3">
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -5263,98 +5361,114 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
+      <c r="AY3" s="114"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
     </row>
-    <row r="4" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:49" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="138" t="s">
+    <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AY4" s="113">
+        <f>SUM(AW7:AW94)</f>
+        <v>146</v>
+      </c>
+      <c r="AZ4" s="113">
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW18+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW28+AW29+AW30+AW31+AW32+AW36+AW37+AW40+AW42+AW43+AW44+AW46+AW48+AW49+AW58+AW59+AW61+AW63+AW73+AW75+AW76</f>
+        <v>59</v>
+      </c>
+      <c r="BA4" s="113">
+        <f>AZ4/AY4*100</f>
+        <v>40.410958904109592</v>
+      </c>
+    </row>
+    <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="O5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="123" t="s">
+      <c r="Q5" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="134" t="s">
+      <c r="R5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="133" t="s">
+      <c r="S5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131" t="s">
+      <c r="T5" s="132"/>
+      <c r="U5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="131"/>
-      <c r="AN5" s="131"/>
-      <c r="AO5" s="131"/>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="131"/>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="116" t="s">
-        <v>366</v>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="132"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="117" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="6" spans="2:49" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="139"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="135"/>
+    <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="140"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="136"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -5445,25 +5559,25 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="117"/>
+      <c r="AW6" s="118"/>
     </row>
-    <row r="7" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -5501,25 +5615,25 @@
       <c r="AV7" s="75"/>
       <c r="AW7" s="110"/>
     </row>
-    <row r="8" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -5565,27 +5679,29 @@
       <c r="AT8" s="53"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="74"/>
-      <c r="AW8" s="111"/>
+      <c r="AW8" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -5631,27 +5747,29 @@
       <c r="AT9" s="53"/>
       <c r="AU9" s="53"/>
       <c r="AV9" s="74"/>
-      <c r="AW9" s="111"/>
+      <c r="AW9" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="127"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -5697,27 +5815,29 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="74"/>
-      <c r="AW10" s="111"/>
+      <c r="AW10" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
         <v>227</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -5763,27 +5883,29 @@
       <c r="AT11" s="53"/>
       <c r="AU11" s="53"/>
       <c r="AV11" s="74"/>
-      <c r="AW11" s="111"/>
+      <c r="AW11" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
       <c r="N12" s="50" t="s">
         <v>225</v>
       </c>
@@ -5829,27 +5951,29 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
       <c r="AV12" s="74"/>
-      <c r="AW12" s="111"/>
+      <c r="AW12" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -5895,27 +6019,29 @@
       <c r="AT13" s="53"/>
       <c r="AU13" s="53"/>
       <c r="AV13" s="74"/>
-      <c r="AW13" s="111"/>
+      <c r="AW13" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>237</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="126" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -5961,27 +6087,29 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
       <c r="AV14" s="74"/>
-      <c r="AW14" s="111"/>
+      <c r="AW14" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>238</v>
       </c>
       <c r="C15" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="126" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
       <c r="N15" s="50" t="s">
         <v>231</v>
       </c>
@@ -6025,27 +6153,29 @@
       <c r="AT15" s="53"/>
       <c r="AU15" s="53"/>
       <c r="AV15" s="74"/>
-      <c r="AW15" s="111"/>
+      <c r="AW15" s="111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
         <v>336</v>
       </c>
       <c r="C16" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="127"/>
       <c r="N16" s="50" t="s">
         <v>239</v>
       </c>
@@ -6088,27 +6218,27 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="6"/>
       <c r="AV16" s="74"/>
-      <c r="AW16" s="111" t="s">
-        <v>367</v>
+      <c r="AW16" s="111">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="121"/>
       <c r="N17" s="13"/>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
@@ -6144,7 +6274,7 @@
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="76"/>
-      <c r="AW17" s="112"/>
+      <c r="AW17" s="111"/>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
@@ -6153,18 +6283,18 @@
       <c r="C18" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
       <c r="N18" s="14" t="s">
         <v>10</v>
       </c>
@@ -6210,7 +6340,9 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="76"/>
-      <c r="AW18" s="112"/>
+      <c r="AW18" s="111">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
@@ -6219,18 +6351,18 @@
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="123"/>
       <c r="N19" s="15" t="s">
         <v>32</v>
       </c>
@@ -6276,7 +6408,9 @@
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="76"/>
-      <c r="AW19" s="112"/>
+      <c r="AW19" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
@@ -6285,18 +6419,18 @@
       <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="15" t="s">
         <v>33</v>
       </c>
@@ -6342,7 +6476,9 @@
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="76"/>
-      <c r="AW20" s="112"/>
+      <c r="AW20" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
@@ -6351,18 +6487,18 @@
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="15" t="s">
         <v>34</v>
       </c>
@@ -6408,7 +6544,9 @@
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="76"/>
-      <c r="AW21" s="112"/>
+      <c r="AW21" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
@@ -6417,18 +6555,18 @@
       <c r="C22" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="123"/>
       <c r="N22" s="15" t="s">
         <v>35</v>
       </c>
@@ -6474,7 +6612,9 @@
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="76"/>
-      <c r="AW22" s="112"/>
+      <c r="AW22" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
@@ -6483,18 +6623,18 @@
       <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
       <c r="N23" s="15" t="s">
         <v>37</v>
       </c>
@@ -6540,7 +6680,9 @@
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="76"/>
-      <c r="AW23" s="112"/>
+      <c r="AW23" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
@@ -6549,18 +6691,18 @@
       <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="123"/>
       <c r="N24" s="15" t="s">
         <v>83</v>
       </c>
@@ -6606,7 +6748,9 @@
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="76"/>
-      <c r="AW24" s="112"/>
+      <c r="AW24" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
@@ -6615,18 +6759,18 @@
       <c r="C25" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
       <c r="N25" s="15" t="s">
         <v>140</v>
       </c>
@@ -6672,7 +6816,9 @@
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="76"/>
-      <c r="AW25" s="112"/>
+      <c r="AW25" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
@@ -6681,18 +6827,18 @@
       <c r="C26" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="15" t="s">
         <v>154</v>
       </c>
@@ -6738,25 +6884,27 @@
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="76"/>
-      <c r="AW26" s="112"/>
+      <c r="AW26" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="121"/>
       <c r="N27" s="13"/>
       <c r="O27" s="55"/>
       <c r="P27" s="55"/>
@@ -6792,7 +6940,7 @@
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="76"/>
-      <c r="AW27" s="112"/>
+      <c r="AW27" s="111"/>
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B28" s="36" t="s">
@@ -6801,18 +6949,18 @@
       <c r="C28" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="15" t="s">
         <v>10</v>
       </c>
@@ -6858,7 +7006,9 @@
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="76"/>
-      <c r="AW28" s="112"/>
+      <c r="AW28" s="111">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
@@ -6867,18 +7017,18 @@
       <c r="C29" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="15" t="s">
         <v>66</v>
       </c>
@@ -6924,7 +7074,9 @@
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="76"/>
-      <c r="AW29" s="112"/>
+      <c r="AW29" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
@@ -6933,18 +7085,18 @@
       <c r="C30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="15" t="s">
         <v>10</v>
       </c>
@@ -6990,7 +7142,9 @@
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="76"/>
-      <c r="AW30" s="112"/>
+      <c r="AW30" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
@@ -6999,18 +7153,18 @@
       <c r="C31" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="121" t="s">
+      <c r="D31" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="15" t="s">
         <v>95</v>
       </c>
@@ -7056,7 +7210,9 @@
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="76"/>
-      <c r="AW31" s="112"/>
+      <c r="AW31" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
@@ -7065,18 +7221,18 @@
       <c r="C32" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="123"/>
       <c r="N32" s="15" t="s">
         <v>244</v>
       </c>
@@ -7122,7 +7278,9 @@
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="76"/>
-      <c r="AW32" s="112"/>
+      <c r="AW32" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
@@ -7131,18 +7289,18 @@
       <c r="C33" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="123"/>
       <c r="N33" s="15" t="s">
         <v>99</v>
       </c>
@@ -7188,7 +7346,9 @@
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="76"/>
-      <c r="AW33" s="112"/>
+      <c r="AW33" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
@@ -7197,18 +7357,18 @@
       <c r="C34" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="121" t="s">
+      <c r="D34" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="15" t="s">
         <v>104</v>
       </c>
@@ -7254,7 +7414,9 @@
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="76"/>
-      <c r="AW34" s="112"/>
+      <c r="AW34" s="111">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
@@ -7263,18 +7425,18 @@
       <c r="C35" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="123"/>
       <c r="N35" s="15" t="s">
         <v>109</v>
       </c>
@@ -7318,7 +7480,9 @@
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
       <c r="AV35" s="76"/>
-      <c r="AW35" s="112"/>
+      <c r="AW35" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
@@ -7327,18 +7491,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="123"/>
       <c r="N36" s="15" t="s">
         <v>144</v>
       </c>
@@ -7384,7 +7548,9 @@
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="76"/>
-      <c r="AW36" s="112"/>
+      <c r="AW36" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
@@ -7393,18 +7559,18 @@
       <c r="C37" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="D37" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="123"/>
       <c r="N37" s="15" t="s">
         <v>147</v>
       </c>
@@ -7450,7 +7616,9 @@
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="76"/>
-      <c r="AW37" s="112"/>
+      <c r="AW37" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
@@ -7459,18 +7627,18 @@
       <c r="C38" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="121" t="s">
+      <c r="D38" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="123"/>
       <c r="N38" s="15" t="s">
         <v>255</v>
       </c>
@@ -7516,7 +7684,9 @@
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="76"/>
-      <c r="AW38" s="112"/>
+      <c r="AW38" s="111">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
@@ -7525,18 +7695,18 @@
       <c r="C39" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="121" t="s">
+      <c r="D39" s="122" t="s">
         <v>269</v>
       </c>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="123"/>
       <c r="N39" s="15" t="s">
         <v>233</v>
       </c>
@@ -7544,7 +7714,7 @@
         <v>256</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="84">
@@ -7580,7 +7750,9 @@
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="76"/>
-      <c r="AW39" s="112"/>
+      <c r="AW39" s="111">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
@@ -7589,18 +7761,18 @@
       <c r="C40" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="D40" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="123"/>
       <c r="N40" s="15" t="s">
         <v>248</v>
       </c>
@@ -7646,7 +7818,9 @@
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="76"/>
-      <c r="AW40" s="112"/>
+      <c r="AW40" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
@@ -7655,18 +7829,18 @@
       <c r="C41" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="123"/>
       <c r="N41" s="15" t="s">
         <v>233</v>
       </c>
@@ -7710,7 +7884,9 @@
       <c r="AT41" s="7"/>
       <c r="AU41" s="7"/>
       <c r="AV41" s="76"/>
-      <c r="AW41" s="112"/>
+      <c r="AW41" s="111">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
@@ -7719,18 +7895,18 @@
       <c r="C42" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="121" t="s">
+      <c r="D42" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="123"/>
       <c r="N42" s="15" t="s">
         <v>261</v>
       </c>
@@ -7776,7 +7952,9 @@
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
       <c r="AV42" s="76"/>
-      <c r="AW42" s="112"/>
+      <c r="AW42" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
@@ -7785,18 +7963,18 @@
       <c r="C43" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="121" t="s">
+      <c r="D43" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="123"/>
       <c r="N43" s="15" t="s">
         <v>266</v>
       </c>
@@ -7842,7 +8020,9 @@
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
       <c r="AV43" s="76"/>
-      <c r="AW43" s="112"/>
+      <c r="AW43" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
@@ -7851,18 +8031,18 @@
       <c r="C44" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="121" t="s">
+      <c r="D44" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="123"/>
       <c r="N44" s="15" t="s">
         <v>264</v>
       </c>
@@ -7908,7 +8088,9 @@
       <c r="AT44" s="7"/>
       <c r="AU44" s="7"/>
       <c r="AV44" s="76"/>
-      <c r="AW44" s="112"/>
+      <c r="AW44" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
@@ -7917,18 +8099,18 @@
       <c r="C45" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="122" t="s">
         <v>249</v>
       </c>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="123"/>
       <c r="N45" s="15" t="s">
         <v>250</v>
       </c>
@@ -7972,7 +8154,9 @@
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
       <c r="AV45" s="76"/>
-      <c r="AW45" s="112"/>
+      <c r="AW45" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
@@ -7981,18 +8165,18 @@
       <c r="C46" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="123"/>
       <c r="N46" s="15" t="s">
         <v>280</v>
       </c>
@@ -8037,25 +8221,27 @@
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
       <c r="AV46" s="76"/>
-      <c r="AW46" s="112"/>
+      <c r="AW46" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B47" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="121"/>
       <c r="N47" s="38"/>
       <c r="O47" s="41"/>
       <c r="P47" s="41"/>
@@ -8091,7 +8277,7 @@
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
       <c r="AV47" s="76"/>
-      <c r="AW47" s="112"/>
+      <c r="AW47" s="111"/>
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
@@ -8100,18 +8286,18 @@
       <c r="C48" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="129" t="s">
+      <c r="D48" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="131"/>
       <c r="N48" s="39" t="s">
         <v>64</v>
       </c>
@@ -8157,7 +8343,9 @@
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
       <c r="AV48" s="76"/>
-      <c r="AW48" s="112"/>
+      <c r="AW48" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
@@ -8166,18 +8354,18 @@
       <c r="C49" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="129" t="s">
+      <c r="D49" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="131"/>
       <c r="N49" s="39" t="s">
         <v>169</v>
       </c>
@@ -8223,7 +8411,9 @@
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
       <c r="AV49" s="76"/>
-      <c r="AW49" s="112"/>
+      <c r="AW49" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
@@ -8232,18 +8422,18 @@
       <c r="C50" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="D50" s="129" t="s">
+      <c r="D50" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="131"/>
       <c r="N50" s="39" t="s">
         <v>314</v>
       </c>
@@ -8289,7 +8479,9 @@
       <c r="AT50" s="7"/>
       <c r="AU50" s="7"/>
       <c r="AV50" s="76"/>
-      <c r="AW50" s="112"/>
+      <c r="AW50" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
@@ -8298,18 +8490,18 @@
       <c r="C51" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="129" t="s">
+      <c r="D51" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="131"/>
       <c r="N51" s="39" t="s">
         <v>171</v>
       </c>
@@ -8355,7 +8547,9 @@
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
       <c r="AV51" s="76"/>
-      <c r="AW51" s="112"/>
+      <c r="AW51" s="111">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
@@ -8364,18 +8558,18 @@
       <c r="C52" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="121" t="s">
+      <c r="D52" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="123"/>
       <c r="N52" s="15" t="s">
         <v>104</v>
       </c>
@@ -8421,7 +8615,9 @@
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
       <c r="AV52" s="76"/>
-      <c r="AW52" s="112"/>
+      <c r="AW52" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
@@ -8430,18 +8626,18 @@
       <c r="C53" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="121" t="s">
+      <c r="D53" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="123"/>
       <c r="N53" s="15" t="s">
         <v>75</v>
       </c>
@@ -8485,7 +8681,9 @@
       <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="76"/>
-      <c r="AW53" s="112"/>
+      <c r="AW53" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
@@ -8494,18 +8692,18 @@
       <c r="C54" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="121" t="s">
+      <c r="D54" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="121"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="123"/>
       <c r="N54" s="15"/>
       <c r="O54" s="17" t="s">
         <v>290</v>
@@ -8547,7 +8745,9 @@
       <c r="AT54" s="11"/>
       <c r="AU54" s="7"/>
       <c r="AV54" s="76"/>
-      <c r="AW54" s="112"/>
+      <c r="AW54" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
@@ -8556,18 +8756,18 @@
       <c r="C55" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="121" t="s">
+      <c r="D55" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="121"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="123"/>
       <c r="N55" s="15"/>
       <c r="O55" s="17" t="s">
         <v>292</v>
@@ -8609,7 +8809,9 @@
       <c r="AT55" s="11"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="76"/>
-      <c r="AW55" s="112"/>
+      <c r="AW55" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B56" s="36" t="s">
@@ -8618,18 +8820,18 @@
       <c r="C56" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="121" t="s">
+      <c r="D56" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="121"/>
-      <c r="L56" s="121"/>
-      <c r="M56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="123"/>
       <c r="N56" s="15"/>
       <c r="O56" s="17" t="s">
         <v>292</v>
@@ -8671,25 +8873,27 @@
       <c r="AT56" s="11"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="76"/>
-      <c r="AW56" s="112"/>
+      <c r="AW56" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B57" s="37">
         <v>5</v>
       </c>
-      <c r="C57" s="119" t="s">
+      <c r="C57" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="121"/>
       <c r="N57" s="40"/>
       <c r="O57" s="41"/>
       <c r="P57" s="41"/>
@@ -8725,7 +8929,7 @@
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="76"/>
-      <c r="AW57" s="112"/>
+      <c r="AW57" s="111"/>
     </row>
     <row r="58" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B58" s="36" t="s">
@@ -8734,18 +8938,18 @@
       <c r="C58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="121" t="s">
+      <c r="D58" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="123"/>
       <c r="N58" s="15" t="s">
         <v>59</v>
       </c>
@@ -8791,7 +8995,9 @@
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
       <c r="AV58" s="76"/>
-      <c r="AW58" s="112"/>
+      <c r="AW58" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
@@ -8800,18 +9006,18 @@
       <c r="C59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="121" t="s">
+      <c r="D59" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="123"/>
       <c r="N59" s="15" t="s">
         <v>295</v>
       </c>
@@ -8857,7 +9063,9 @@
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="76"/>
-      <c r="AW59" s="112"/>
+      <c r="AW59" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
@@ -8866,18 +9074,18 @@
       <c r="C60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="121" t="s">
+      <c r="D60" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="121"/>
-      <c r="K60" s="121"/>
-      <c r="L60" s="121"/>
-      <c r="M60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="123"/>
       <c r="N60" s="15" t="s">
         <v>319</v>
       </c>
@@ -8921,7 +9129,9 @@
       <c r="AT60" s="7"/>
       <c r="AU60" s="7"/>
       <c r="AV60" s="76"/>
-      <c r="AW60" s="112"/>
+      <c r="AW60" s="111">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
@@ -8930,18 +9140,18 @@
       <c r="C61" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="121" t="s">
+      <c r="D61" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="121"/>
-      <c r="K61" s="121"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="123"/>
       <c r="N61" s="15" t="s">
         <v>68</v>
       </c>
@@ -8987,7 +9197,9 @@
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="76"/>
-      <c r="AW61" s="112"/>
+      <c r="AW61" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
@@ -8996,18 +9208,18 @@
       <c r="C62" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="121" t="s">
+      <c r="D62" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="121"/>
-      <c r="K62" s="121"/>
-      <c r="L62" s="121"/>
-      <c r="M62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="123"/>
       <c r="N62" s="15"/>
       <c r="O62" s="17" t="s">
         <v>240</v>
@@ -9047,7 +9259,9 @@
       <c r="AT62" s="7"/>
       <c r="AU62" s="7"/>
       <c r="AV62" s="76"/>
-      <c r="AW62" s="112"/>
+      <c r="AW62" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
@@ -9056,18 +9270,18 @@
       <c r="C63" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="121"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+      <c r="M63" s="123"/>
       <c r="N63" s="15" t="s">
         <v>301</v>
       </c>
@@ -9113,7 +9327,9 @@
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
       <c r="AV63" s="76"/>
-      <c r="AW63" s="112"/>
+      <c r="AW63" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
@@ -9122,18 +9338,18 @@
       <c r="C64" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="121" t="s">
+      <c r="D64" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="121"/>
-      <c r="J64" s="121"/>
-      <c r="K64" s="121"/>
-      <c r="L64" s="121"/>
-      <c r="M64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="123"/>
       <c r="N64" s="15"/>
       <c r="O64" s="17" t="s">
         <v>222</v>
@@ -9173,7 +9389,9 @@
       <c r="AT64" s="7"/>
       <c r="AU64" s="7"/>
       <c r="AV64" s="76"/>
-      <c r="AW64" s="112"/>
+      <c r="AW64" s="111">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
@@ -9182,18 +9400,18 @@
       <c r="C65" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="121" t="s">
+      <c r="D65" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="121"/>
-      <c r="K65" s="121"/>
-      <c r="L65" s="121"/>
-      <c r="M65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="122"/>
+      <c r="M65" s="123"/>
       <c r="N65" s="15" t="s">
         <v>327</v>
       </c>
@@ -9237,7 +9455,9 @@
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
       <c r="AV65" s="76"/>
-      <c r="AW65" s="112"/>
+      <c r="AW65" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
@@ -9246,18 +9466,18 @@
       <c r="C66" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="121" t="s">
+      <c r="D66" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="121"/>
-      <c r="K66" s="121"/>
-      <c r="L66" s="121"/>
-      <c r="M66" s="122"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="122"/>
+      <c r="M66" s="123"/>
       <c r="N66" s="15"/>
       <c r="O66" s="17" t="s">
         <v>304</v>
@@ -9297,25 +9517,27 @@
       <c r="AT66" s="10"/>
       <c r="AU66" s="10"/>
       <c r="AV66" s="102"/>
-      <c r="AW66" s="112"/>
+      <c r="AW66" s="111">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="119" t="s">
+      <c r="C67" s="120" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
-      <c r="M67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="121"/>
       <c r="N67" s="38"/>
       <c r="O67" s="41"/>
       <c r="P67" s="41"/>
@@ -9351,7 +9573,7 @@
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
       <c r="AV67" s="76"/>
-      <c r="AW67" s="112"/>
+      <c r="AW67" s="111"/>
     </row>
     <row r="68" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
@@ -9360,18 +9582,18 @@
       <c r="C68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="121" t="s">
+      <c r="D68" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="122"/>
+      <c r="M68" s="123"/>
       <c r="N68" s="15" t="s">
         <v>85</v>
       </c>
@@ -9417,7 +9639,9 @@
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
       <c r="AV68" s="76"/>
-      <c r="AW68" s="112"/>
+      <c r="AW68" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
@@ -9426,18 +9650,18 @@
       <c r="C69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="121" t="s">
+      <c r="D69" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="121"/>
-      <c r="K69" s="121"/>
-      <c r="L69" s="121"/>
-      <c r="M69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="123"/>
       <c r="N69" s="15" t="s">
         <v>320</v>
       </c>
@@ -9481,7 +9705,9 @@
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
       <c r="AV69" s="76"/>
-      <c r="AW69" s="112"/>
+      <c r="AW69" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
@@ -9490,18 +9716,18 @@
       <c r="C70" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="121" t="s">
+      <c r="D70" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="121"/>
-      <c r="M70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122"/>
+      <c r="H70" s="122"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="123"/>
       <c r="N70" s="15"/>
       <c r="O70" s="17" t="s">
         <v>222</v>
@@ -9541,7 +9767,9 @@
       <c r="AT70" s="7"/>
       <c r="AU70" s="7"/>
       <c r="AV70" s="76"/>
-      <c r="AW70" s="112"/>
+      <c r="AW70" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
@@ -9550,18 +9778,18 @@
       <c r="C71" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="121" t="s">
+      <c r="D71" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="121"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="121"/>
-      <c r="K71" s="121"/>
-      <c r="L71" s="121"/>
-      <c r="M71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="123"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>302</v>
@@ -9601,7 +9829,9 @@
       <c r="AT71" s="7"/>
       <c r="AU71" s="7"/>
       <c r="AV71" s="76"/>
-      <c r="AW71" s="112"/>
+      <c r="AW71" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
@@ -9610,18 +9840,18 @@
       <c r="C72" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="121" t="s">
+      <c r="D72" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="121"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="121"/>
-      <c r="I72" s="121"/>
-      <c r="J72" s="121"/>
-      <c r="K72" s="121"/>
-      <c r="L72" s="121"/>
-      <c r="M72" s="122"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="122"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="122"/>
+      <c r="M72" s="123"/>
       <c r="N72" s="15" t="s">
         <v>317</v>
       </c>
@@ -9665,7 +9895,9 @@
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
       <c r="AV72" s="76"/>
-      <c r="AW72" s="112"/>
+      <c r="AW72" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
@@ -9674,18 +9906,18 @@
       <c r="C73" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="121" t="s">
+      <c r="D73" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="121"/>
-      <c r="F73" s="121"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="121"/>
-      <c r="K73" s="121"/>
-      <c r="L73" s="121"/>
-      <c r="M73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
+      <c r="M73" s="123"/>
       <c r="N73" s="15" t="s">
         <v>221</v>
       </c>
@@ -9731,7 +9963,9 @@
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
       <c r="AV73" s="76"/>
-      <c r="AW73" s="112"/>
+      <c r="AW73" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
@@ -9740,18 +9974,18 @@
       <c r="C74" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="121" t="s">
-        <v>369</v>
-      </c>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="121"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="121"/>
-      <c r="K74" s="121"/>
-      <c r="L74" s="121"/>
-      <c r="M74" s="122"/>
+      <c r="D74" s="122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="122"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="122"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="122"/>
+      <c r="J74" s="122"/>
+      <c r="K74" s="122"/>
+      <c r="L74" s="122"/>
+      <c r="M74" s="123"/>
       <c r="N74" s="15" t="s">
         <v>217</v>
       </c>
@@ -9759,7 +9993,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q74" s="19">
         <v>0.5</v>
@@ -9797,7 +10031,9 @@
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
       <c r="AV74" s="76"/>
-      <c r="AW74" s="112"/>
+      <c r="AW74" s="111">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
@@ -9806,18 +10042,18 @@
       <c r="C75" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="121" t="s">
+      <c r="D75" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="121"/>
-      <c r="I75" s="121"/>
-      <c r="J75" s="121"/>
-      <c r="K75" s="121"/>
-      <c r="L75" s="121"/>
-      <c r="M75" s="122"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="122"/>
+      <c r="J75" s="122"/>
+      <c r="K75" s="122"/>
+      <c r="L75" s="122"/>
+      <c r="M75" s="123"/>
       <c r="N75" s="15" t="s">
         <v>233</v>
       </c>
@@ -9863,7 +10099,9 @@
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
       <c r="AV75" s="76"/>
-      <c r="AW75" s="112"/>
+      <c r="AW75" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
@@ -9872,18 +10110,18 @@
       <c r="C76" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="D76" s="121" t="s">
+      <c r="D76" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="E76" s="121"/>
-      <c r="F76" s="121"/>
-      <c r="G76" s="121"/>
-      <c r="H76" s="121"/>
-      <c r="I76" s="121"/>
-      <c r="J76" s="121"/>
-      <c r="K76" s="121"/>
-      <c r="L76" s="121"/>
-      <c r="M76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="122"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="122"/>
+      <c r="J76" s="122"/>
+      <c r="K76" s="122"/>
+      <c r="L76" s="122"/>
+      <c r="M76" s="123"/>
       <c r="N76" s="15" t="s">
         <v>324</v>
       </c>
@@ -9893,7 +10131,9 @@
       <c r="P76" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="Q76" s="19"/>
+      <c r="Q76" s="19">
+        <v>1</v>
+      </c>
       <c r="R76" s="84">
         <v>2</v>
       </c>
@@ -9927,7 +10167,9 @@
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
       <c r="AV76" s="76"/>
-      <c r="AW76" s="112"/>
+      <c r="AW76" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
@@ -9936,18 +10178,18 @@
       <c r="C77" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="121" t="s">
+      <c r="D77" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="122"/>
+      <c r="J77" s="122"/>
+      <c r="K77" s="122"/>
+      <c r="L77" s="122"/>
+      <c r="M77" s="123"/>
       <c r="N77" s="15"/>
       <c r="O77" s="17" t="s">
         <v>309</v>
@@ -9987,7 +10229,9 @@
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
       <c r="AV77" s="76"/>
-      <c r="AW77" s="112"/>
+      <c r="AW77" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
@@ -9996,18 +10240,18 @@
       <c r="C78" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D78" s="121" t="s">
+      <c r="D78" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="121"/>
-      <c r="K78" s="121"/>
-      <c r="L78" s="121"/>
-      <c r="M78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="122"/>
+      <c r="H78" s="122"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="122"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="122"/>
+      <c r="M78" s="123"/>
       <c r="N78" s="15"/>
       <c r="O78" s="17" t="s">
         <v>292</v>
@@ -10047,7 +10291,9 @@
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="76"/>
-      <c r="AW78" s="112"/>
+      <c r="AW78" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
@@ -10056,18 +10302,18 @@
       <c r="C79" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="121" t="s">
+      <c r="D79" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="121"/>
-      <c r="F79" s="121"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="121"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="121"/>
-      <c r="K79" s="121"/>
-      <c r="L79" s="121"/>
-      <c r="M79" s="122"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="122"/>
+      <c r="G79" s="122"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="122"/>
+      <c r="J79" s="122"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="122"/>
+      <c r="M79" s="123"/>
       <c r="N79" s="15"/>
       <c r="O79" s="17" t="s">
         <v>292</v>
@@ -10107,7 +10353,9 @@
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
       <c r="AV79" s="76"/>
-      <c r="AW79" s="112"/>
+      <c r="AW79" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
@@ -10116,18 +10364,18 @@
       <c r="C80" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="D80" s="121" t="s">
+      <c r="D80" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="121"/>
-      <c r="F80" s="121"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="121"/>
-      <c r="I80" s="121"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="121"/>
-      <c r="L80" s="121"/>
-      <c r="M80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="122"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="122"/>
+      <c r="M80" s="123"/>
       <c r="N80" s="15"/>
       <c r="O80" s="17" t="s">
         <v>294</v>
@@ -10167,25 +10415,27 @@
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="76"/>
-      <c r="AW80" s="112"/>
+      <c r="AW80" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B81" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C81" s="118" t="s">
+      <c r="C81" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="D81" s="119"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="119"/>
-      <c r="G81" s="119"/>
-      <c r="H81" s="119"/>
-      <c r="I81" s="119"/>
-      <c r="J81" s="119"/>
-      <c r="K81" s="119"/>
-      <c r="L81" s="119"/>
-      <c r="M81" s="120"/>
+      <c r="D81" s="120"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="120"/>
+      <c r="G81" s="120"/>
+      <c r="H81" s="120"/>
+      <c r="I81" s="120"/>
+      <c r="J81" s="120"/>
+      <c r="K81" s="120"/>
+      <c r="L81" s="120"/>
+      <c r="M81" s="121"/>
       <c r="N81" s="38"/>
       <c r="O81" s="41"/>
       <c r="P81" s="41"/>
@@ -10221,7 +10471,7 @@
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
       <c r="AV81" s="76"/>
-      <c r="AW81" s="112"/>
+      <c r="AW81" s="111"/>
     </row>
     <row r="82" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B82" s="96" t="s">
@@ -10230,18 +10480,18 @@
       <c r="C82" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="115"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="115"/>
+      <c r="G82" s="115"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="115"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="115"/>
+      <c r="M82" s="116"/>
       <c r="N82" s="97" t="s">
         <v>342</v>
       </c>
@@ -10285,7 +10535,9 @@
       <c r="AT82" s="7"/>
       <c r="AU82" s="7"/>
       <c r="AV82" s="76"/>
-      <c r="AW82" s="112"/>
+      <c r="AW82" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B83" s="96" t="s">
@@ -10294,18 +10546,18 @@
       <c r="C83" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="115" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
-      <c r="L83" s="114"/>
-      <c r="M83" s="115"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
+      <c r="G83" s="115"/>
+      <c r="H83" s="115"/>
+      <c r="I83" s="115"/>
+      <c r="J83" s="115"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="115"/>
+      <c r="M83" s="116"/>
       <c r="N83" s="97" t="s">
         <v>348</v>
       </c>
@@ -10349,7 +10601,9 @@
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
       <c r="AV83" s="76"/>
-      <c r="AW83" s="112"/>
+      <c r="AW83" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B84" s="96" t="s">
@@ -10358,18 +10612,18 @@
       <c r="C84" s="108" t="s">
         <v>351</v>
       </c>
-      <c r="D84" s="114" t="s">
+      <c r="D84" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="114"/>
-      <c r="M84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="115"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="115"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="115"/>
+      <c r="M84" s="116"/>
       <c r="N84" s="97"/>
       <c r="O84" s="98" t="s">
         <v>353</v>
@@ -10411,25 +10665,27 @@
       <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
       <c r="AV84" s="76"/>
-      <c r="AW84" s="112"/>
+      <c r="AW84" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B85" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C85" s="118" t="s">
+      <c r="C85" s="119" t="s">
         <v>356</v>
       </c>
-      <c r="D85" s="119"/>
-      <c r="E85" s="119"/>
-      <c r="F85" s="119"/>
-      <c r="G85" s="119"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="J85" s="119"/>
-      <c r="K85" s="119"/>
-      <c r="L85" s="119"/>
-      <c r="M85" s="120"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="120"/>
+      <c r="G85" s="120"/>
+      <c r="H85" s="120"/>
+      <c r="I85" s="120"/>
+      <c r="J85" s="120"/>
+      <c r="K85" s="120"/>
+      <c r="L85" s="120"/>
+      <c r="M85" s="121"/>
       <c r="N85" s="38"/>
       <c r="O85" s="41"/>
       <c r="P85" s="41"/>
@@ -10460,12 +10716,12 @@
       <c r="AO85" s="11"/>
       <c r="AP85" s="42"/>
       <c r="AQ85" s="46"/>
-      <c r="AR85" s="9"/>
-      <c r="AS85" s="9"/>
+      <c r="AR85" s="11"/>
+      <c r="AS85" s="11"/>
       <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
       <c r="AV85" s="76"/>
-      <c r="AW85" s="112"/>
+      <c r="AW85" s="111"/>
     </row>
     <row r="86" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B86" s="96" t="s">
@@ -10474,18 +10730,18 @@
       <c r="C86" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="115" t="s">
         <v>360</v>
       </c>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="114"/>
-      <c r="K86" s="114"/>
-      <c r="L86" s="114"/>
-      <c r="M86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="115"/>
+      <c r="J86" s="115"/>
+      <c r="K86" s="115"/>
+      <c r="L86" s="115"/>
+      <c r="M86" s="116"/>
       <c r="N86" s="97"/>
       <c r="O86" s="98" t="s">
         <v>362</v>
@@ -10527,7 +10783,9 @@
       <c r="AT86" s="10"/>
       <c r="AU86" s="7"/>
       <c r="AV86" s="76"/>
-      <c r="AW86" s="112"/>
+      <c r="AW86" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B87" s="96" t="s">
@@ -10536,18 +10794,18 @@
       <c r="C87" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="115"/>
+      <c r="G87" s="115"/>
+      <c r="H87" s="115"/>
+      <c r="I87" s="115"/>
+      <c r="J87" s="115"/>
+      <c r="K87" s="115"/>
+      <c r="L87" s="115"/>
+      <c r="M87" s="116"/>
       <c r="N87" s="97"/>
       <c r="O87" s="98" t="s">
         <v>364</v>
@@ -10589,25 +10847,27 @@
       <c r="AT87" s="11"/>
       <c r="AU87" s="8"/>
       <c r="AV87" s="101"/>
-      <c r="AW87" s="112"/>
+      <c r="AW87" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B88" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="D88" s="119"/>
-      <c r="E88" s="119"/>
-      <c r="F88" s="119"/>
-      <c r="G88" s="119"/>
-      <c r="H88" s="119"/>
-      <c r="I88" s="119"/>
-      <c r="J88" s="119"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="119"/>
-      <c r="M88" s="120"/>
+      <c r="D88" s="120"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="120"/>
+      <c r="G88" s="120"/>
+      <c r="H88" s="120"/>
+      <c r="I88" s="120"/>
+      <c r="J88" s="120"/>
+      <c r="K88" s="120"/>
+      <c r="L88" s="120"/>
+      <c r="M88" s="121"/>
       <c r="N88" s="38"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41"/>
@@ -10643,7 +10903,7 @@
       <c r="AT88" s="7"/>
       <c r="AU88" s="7"/>
       <c r="AV88" s="76"/>
-      <c r="AW88" s="112"/>
+      <c r="AW88" s="111"/>
     </row>
     <row r="89" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B89" s="96" t="s">
@@ -10652,18 +10912,18 @@
       <c r="C89" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="129" t="s">
+      <c r="D89" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
-      <c r="K89" s="129"/>
-      <c r="L89" s="129"/>
-      <c r="M89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="131"/>
       <c r="N89" s="97" t="s">
         <v>275</v>
       </c>
@@ -10707,7 +10967,9 @@
       <c r="AT89" s="8"/>
       <c r="AU89" s="8"/>
       <c r="AV89" s="101"/>
-      <c r="AW89" s="112"/>
+      <c r="AW89" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B90" s="36" t="s">
@@ -10716,18 +10978,18 @@
       <c r="C90" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D90" s="121" t="s">
+      <c r="D90" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="E90" s="121"/>
-      <c r="F90" s="121"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="121"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="121"/>
-      <c r="K90" s="121"/>
-      <c r="L90" s="121"/>
-      <c r="M90" s="122"/>
+      <c r="E90" s="122"/>
+      <c r="F90" s="122"/>
+      <c r="G90" s="122"/>
+      <c r="H90" s="122"/>
+      <c r="I90" s="122"/>
+      <c r="J90" s="122"/>
+      <c r="K90" s="122"/>
+      <c r="L90" s="122"/>
+      <c r="M90" s="123"/>
       <c r="N90" s="15"/>
       <c r="O90" s="17" t="s">
         <v>292</v>
@@ -10767,7 +11029,9 @@
       <c r="AT90" s="7"/>
       <c r="AU90" s="7"/>
       <c r="AV90" s="76"/>
-      <c r="AW90" s="112"/>
+      <c r="AW90" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B91" s="96" t="s">
@@ -10776,18 +11040,18 @@
       <c r="C91" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="121" t="s">
+      <c r="D91" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="E91" s="121"/>
-      <c r="F91" s="121"/>
-      <c r="G91" s="121"/>
-      <c r="H91" s="121"/>
-      <c r="I91" s="121"/>
-      <c r="J91" s="121"/>
-      <c r="K91" s="121"/>
-      <c r="L91" s="121"/>
-      <c r="M91" s="122"/>
+      <c r="E91" s="122"/>
+      <c r="F91" s="122"/>
+      <c r="G91" s="122"/>
+      <c r="H91" s="122"/>
+      <c r="I91" s="122"/>
+      <c r="J91" s="122"/>
+      <c r="K91" s="122"/>
+      <c r="L91" s="122"/>
+      <c r="M91" s="123"/>
       <c r="N91" s="15"/>
       <c r="O91" s="17" t="s">
         <v>276</v>
@@ -10827,7 +11091,9 @@
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
       <c r="AV91" s="76"/>
-      <c r="AW91" s="112"/>
+      <c r="AW91" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B92" s="36" t="s">
@@ -10836,18 +11102,18 @@
       <c r="C92" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D92" s="121" t="s">
+      <c r="D92" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="E92" s="121"/>
-      <c r="F92" s="121"/>
-      <c r="G92" s="121"/>
-      <c r="H92" s="121"/>
-      <c r="I92" s="121"/>
-      <c r="J92" s="121"/>
-      <c r="K92" s="121"/>
-      <c r="L92" s="121"/>
-      <c r="M92" s="122"/>
+      <c r="E92" s="122"/>
+      <c r="F92" s="122"/>
+      <c r="G92" s="122"/>
+      <c r="H92" s="122"/>
+      <c r="I92" s="122"/>
+      <c r="J92" s="122"/>
+      <c r="K92" s="122"/>
+      <c r="L92" s="122"/>
+      <c r="M92" s="123"/>
       <c r="N92" s="15"/>
       <c r="O92" s="17" t="s">
         <v>294</v>
@@ -10887,7 +11153,9 @@
       <c r="AT92" s="8"/>
       <c r="AU92" s="7"/>
       <c r="AV92" s="76"/>
-      <c r="AW92" s="112"/>
+      <c r="AW92" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="96" t="s">
@@ -10896,18 +11164,18 @@
       <c r="C93" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D93" s="121" t="s">
+      <c r="D93" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="E93" s="121"/>
-      <c r="F93" s="121"/>
-      <c r="G93" s="121"/>
-      <c r="H93" s="121"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="121"/>
-      <c r="K93" s="121"/>
-      <c r="L93" s="121"/>
-      <c r="M93" s="122"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="123"/>
       <c r="N93" s="15"/>
       <c r="O93" s="17" t="s">
         <v>304</v>
@@ -10947,7 +11215,9 @@
       <c r="AT93" s="8"/>
       <c r="AU93" s="7"/>
       <c r="AV93" s="76"/>
-      <c r="AW93" s="112"/>
+      <c r="AW93" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="95" t="s">
@@ -10956,18 +11226,18 @@
       <c r="C94" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="D94" s="142" t="s">
+      <c r="D94" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="E94" s="142"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="142"/>
-      <c r="H94" s="142"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="142"/>
-      <c r="K94" s="142"/>
-      <c r="L94" s="142"/>
-      <c r="M94" s="143"/>
+      <c r="E94" s="143"/>
+      <c r="F94" s="143"/>
+      <c r="G94" s="143"/>
+      <c r="H94" s="143"/>
+      <c r="I94" s="143"/>
+      <c r="J94" s="143"/>
+      <c r="K94" s="143"/>
+      <c r="L94" s="143"/>
+      <c r="M94" s="144"/>
       <c r="N94" s="67"/>
       <c r="O94" s="68" t="s">
         <v>242</v>
@@ -11007,14 +11277,12 @@
       <c r="AT94" s="70"/>
       <c r="AU94" s="103"/>
       <c r="AV94" s="77"/>
-      <c r="AW94" s="113"/>
+      <c r="AW94" s="112">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D71:M71"/>
+  <mergeCells count="102">
     <mergeCell ref="D77:M77"/>
     <mergeCell ref="D76:M76"/>
     <mergeCell ref="D70:M70"/>
@@ -11027,6 +11295,20 @@
     <mergeCell ref="D61:M61"/>
     <mergeCell ref="C67:M67"/>
     <mergeCell ref="D68:M68"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="C88:M88"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D89:M89"/>
     <mergeCell ref="D60:M60"/>
     <mergeCell ref="D79:M79"/>
     <mergeCell ref="D80:M80"/>
@@ -11034,22 +11316,9 @@
     <mergeCell ref="D75:M75"/>
     <mergeCell ref="D74:M74"/>
     <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="C88:M88"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D71:M71"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:M6"/>
@@ -11065,8 +11334,7 @@
     <mergeCell ref="D10:M10"/>
     <mergeCell ref="D25:M25"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D15:M15"/>
     <mergeCell ref="D55:M55"/>
     <mergeCell ref="U5:AV5"/>
     <mergeCell ref="D28:M28"/>
@@ -11081,12 +11349,9 @@
     <mergeCell ref="C17:M17"/>
     <mergeCell ref="C27:M27"/>
     <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D46:M46"/>
     <mergeCell ref="D40:M40"/>
     <mergeCell ref="D37:M37"/>
     <mergeCell ref="D36:M36"/>
@@ -11094,6 +11359,11 @@
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="D43:M43"/>
     <mergeCell ref="D39:M39"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="D86:M86"/>
     <mergeCell ref="D87:M87"/>
     <mergeCell ref="AW5:AW6"/>
@@ -11110,6 +11380,11 @@
     <mergeCell ref="D34:M34"/>
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D33:M33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="404">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -712,10 +712,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1스테이지 데이트 코스 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상호작용 가게 리스트 정리(1차 프로토)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -974,207 +970,600 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firebase R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글맵스 API를 이용한 건물 렌더링 기법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS데이터 활용. AR카메라와 맵의 회전각 보정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR 캐릭터 건물 출돌 판별 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressable 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occlusion culling 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleMap API 건물 렌더링 기능 + Occlusion 기능 결합 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 프로토 Gantt 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS 모듈 로직 수정 및 리팩토링, 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>3-15</t>
+  </si>
+  <si>
+    <t>3-16</t>
+  </si>
+  <si>
+    <t>3-17</t>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>3-19</t>
+  </si>
+  <si>
+    <t>10.20.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 리소스 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 씬 플로우 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 UI 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 데이트 시나리오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>AR공간내 오브젝트 가시거리 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>기업미팅 대비 질문 리스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>NavMesh 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-22</t>
   </si>
   <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Firebase R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글맵스 API를 이용한 건물 렌더링 기법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS데이터 활용. AR카메라와 맵의 회전각 보정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR 캐릭터 건물 출돌 판별 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressable 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Occlusion culling 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleMap API 건물 렌더링 기능 + Occlusion 기능 결합 시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 프로토 Gantt 확정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS 모듈 로직 수정 및 리팩토링, 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-12</t>
-  </si>
-  <si>
-    <t>3-13</t>
-  </si>
-  <si>
-    <t>3-14</t>
-  </si>
-  <si>
-    <t>3-15</t>
-  </si>
-  <si>
-    <t>3-16</t>
-  </si>
-  <si>
-    <t>3-17</t>
-  </si>
-  <si>
-    <t>3-18</t>
-  </si>
-  <si>
-    <t>3-19</t>
-  </si>
-  <si>
-    <t>10.20.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
+    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>최재연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1182,279 +1571,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 리소스 확보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-13</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 씬 플로우 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로토타입 UI 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2352,6 +2469,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,25 +2517,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,13 +2714,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>77203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2659,13 +2776,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2721,13 +2838,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>386</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>86711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>12675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>148889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2783,13 +2900,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>82227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1539</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>136920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2845,13 +2962,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>202181</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>91333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3155,13 +3272,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>16393</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3217,13 +3334,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>92121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>29290</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>149598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3279,13 +3396,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>2085</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>67765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3403,13 +3520,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1471</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>75344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>132069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3465,13 +3582,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>4795</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>86850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>132569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3527,13 +3644,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>887</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3589,13 +3706,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>24210</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>98016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8257</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>162161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3713,13 +3830,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>14402</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>265259</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>134790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3775,13 +3892,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>17124</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>83169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>267981</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>137512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3837,13 +3954,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>3609</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>84790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>27569</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>146483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3899,13 +4016,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>4192</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>78065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4023,13 +4140,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>13325</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>87130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>269515</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>151275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4085,13 +4202,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>252445</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>89571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4147,13 +4264,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>268773</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>92292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>29936</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4209,13 +4326,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6239</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>113105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>257096</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>167448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4271,13 +4388,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>19846</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>85890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>270703</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>140233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4333,13 +4450,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>271494</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>108620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4457,13 +4574,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>3108</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>75825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4519,13 +4636,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6913</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>80787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4581,13 +4698,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>16327</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4643,13 +4760,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>244281</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>108621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>168728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4705,13 +4822,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>268774</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>65079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>29937</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4767,13 +4884,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>8961</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>88612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>259818</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4829,13 +4946,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9634</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>83508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4953,13 +5070,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>15681</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>84129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>48986</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>144236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4977,6 +5094,254 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>6238</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>113104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>257095</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>167447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15423131" y="13216783"/>
+          <a:ext cx="250857" cy="54343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5829</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>64939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14062008" y="13780939"/>
+          <a:ext cx="541178" cy="73853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2074</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14602538" y="9105664"/>
+          <a:ext cx="1100105" cy="65550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46262</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14616792" y="14807293"/>
+          <a:ext cx="1118506" cy="54428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5277,11 +5642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA94"/>
+  <dimension ref="B1:BA101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5337,14 +5702,14 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="114" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ2" s="114" t="s">
-        <v>369</v>
-      </c>
-      <c r="BA2" s="114" t="s">
-        <v>370</v>
+      <c r="AY2" s="116" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ2" s="116" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA2" s="116" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.3">
@@ -5361,113 +5726,113 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
-        <f>SUM(AW7:AW94)</f>
-        <v>146</v>
+        <f>SUM(AW7:AW101)</f>
+        <v>152</v>
       </c>
       <c r="AZ4" s="113">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW18+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW28+AW29+AW30+AW31+AW32+AW36+AW37+AW40+AW42+AW43+AW44+AW46+AW48+AW49+AW58+AW59+AW61+AW63+AW73+AW75+AW76</f>
-        <v>59</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW29+AW30+AW31+AW32+AW33+AW37+AW38+AW41+AW43+AW44+AW45+AW47+AW52+AW53+AW62+AW63+AW66+AW68+AW78+AW80+AW81+AW70+AW73+AW46+AW77</f>
+        <v>66</v>
       </c>
       <c r="BA4" s="113">
         <f>AZ4/AY4*100</f>
-        <v>40.410958904109592</v>
+        <v>43.421052631578952</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124" t="s">
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="128" t="s">
+      <c r="O5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="128" t="s">
+      <c r="P5" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="124" t="s">
+      <c r="Q5" s="126" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="134" t="s">
+      <c r="S5" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132" t="s">
+      <c r="T5" s="130"/>
+      <c r="U5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="132"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="132"/>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="117" t="s">
-        <v>372</v>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="131"/>
+      <c r="AW5" s="119" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="140"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="125"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="127"/>
       <c r="R6" s="136"/>
       <c r="S6" s="73">
         <v>29</v>
@@ -5559,11 +5924,11 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="118"/>
+      <c r="AW6" s="120"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="137" t="s">
         <v>21</v>
@@ -5622,18 +5987,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="129"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -5690,18 +6055,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -5753,23 +6118,23 @@
     </row>
     <row r="10" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -5821,23 +6186,23 @@
     </row>
     <row r="11" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -5889,31 +6254,31 @@
     </row>
     <row r="12" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="50" t="s">
         <v>224</v>
-      </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="50" t="s">
-        <v>225</v>
       </c>
       <c r="O12" s="51">
         <v>10.130000000000001</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="52">
         <v>1</v>
@@ -5957,23 +6322,23 @@
     </row>
     <row r="13" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -6025,31 +6390,31 @@
     </row>
     <row r="14" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
+        <v>328</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="52">
         <v>1</v>
@@ -6093,35 +6458,35 @@
     </row>
     <row r="15" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="126" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
+        <v>237</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="50" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" s="31"/>
       <c r="T15" s="53"/>
@@ -6142,9 +6507,9 @@
       <c r="AI15" s="62"/>
       <c r="AJ15" s="63"/>
       <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="6"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="53"/>
       <c r="AO15" s="53"/>
       <c r="AP15" s="62"/>
       <c r="AQ15" s="63"/>
@@ -6159,31 +6524,31 @@
     </row>
     <row r="16" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="127"/>
+        <v>195</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="O16" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="O16" s="51" t="s">
-        <v>241</v>
-      </c>
       <c r="P16" s="51" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="52"/>
       <c r="R16" s="81">
@@ -6210,111 +6575,111 @@
       <c r="AK16" s="53"/>
       <c r="AL16" s="53"/>
       <c r="AM16" s="53"/>
+      <c r="AN16" s="6"/>
       <c r="AO16" s="53"/>
       <c r="AP16" s="62"/>
       <c r="AQ16" s="63"/>
       <c r="AR16" s="53"/>
       <c r="AS16" s="53"/>
       <c r="AT16" s="53"/>
-      <c r="AU16" s="6"/>
+      <c r="AU16" s="53"/>
       <c r="AV16" s="74"/>
       <c r="AW16" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="111"/>
+    <row r="17" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="81">
+        <v>2</v>
+      </c>
+      <c r="S17" s="31"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="16">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P18" s="16">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>1</v>
-      </c>
-      <c r="R18" s="83">
-        <v>1</v>
-      </c>
-      <c r="S18" s="32"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="8"/>
+      <c r="B18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -6340,50 +6705,48 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="76"/>
-      <c r="AW18" s="111">
-        <v>4</v>
-      </c>
+      <c r="AW18" s="111"/>
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="17">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P19" s="17">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="Q19" s="19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="16">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P19" s="16">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q19" s="18">
         <v>1</v>
       </c>
-      <c r="R19" s="84">
+      <c r="R19" s="83">
         <v>1</v>
       </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="8"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -6409,50 +6772,50 @@
       <c r="AU19" s="7"/>
       <c r="AV19" s="76"/>
       <c r="AW19" s="111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
       <c r="N20" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="17">
         <v>10.039999999999999</v>
       </c>
       <c r="P20" s="17">
-        <v>10.050000000000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Q20" s="19">
         <v>1</v>
       </c>
       <c r="R20" s="84">
-        <v>2</v>
-      </c>
-      <c r="S20" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="27"/>
       <c r="T20" s="7"/>
       <c r="U20" s="42"/>
       <c r="V20" s="46"/>
       <c r="W20" s="7"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="42"/>
@@ -6482,47 +6845,47 @@
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="123"/>
+        <v>11</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
       <c r="N21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" s="17">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P21" s="17">
         <v>10.050000000000001</v>
-      </c>
-      <c r="P21" s="17">
-        <v>10.06</v>
       </c>
       <c r="Q21" s="19">
         <v>1</v>
       </c>
       <c r="R21" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="7"/>
       <c r="U21" s="42"/>
       <c r="V21" s="46"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="11"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
       <c r="AB21" s="42"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -6545,30 +6908,30 @@
       <c r="AU21" s="7"/>
       <c r="AV21" s="76"/>
       <c r="AW21" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="122" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="123"/>
+        <v>157</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="125"/>
       <c r="N22" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O22" s="17">
         <v>10.050000000000001</v>
@@ -6580,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="7"/>
@@ -6588,9 +6951,9 @@
       <c r="V22" s="46"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="7"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="11"/>
       <c r="AB22" s="42"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -6618,31 +6981,31 @@
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="123"/>
+        <v>158</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="125"/>
       <c r="N23" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O23" s="17">
-        <v>10.039999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="P23" s="17">
-        <v>10.050000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="Q23" s="19">
         <v>1</v>
@@ -6655,9 +7018,9 @@
       <c r="U23" s="42"/>
       <c r="V23" s="46"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="42"/>
       <c r="AC23" s="7"/>
@@ -6686,47 +7049,47 @@
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="122" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="123"/>
+        <v>11</v>
+      </c>
+      <c r="D24" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="125"/>
       <c r="N24" s="15" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="O24" s="17">
-        <v>10.06</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>55</v>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P24" s="17">
+        <v>10.050000000000001</v>
       </c>
       <c r="Q24" s="19">
         <v>1</v>
       </c>
       <c r="R24" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="25"/>
       <c r="T24" s="7"/>
       <c r="U24" s="42"/>
       <c r="V24" s="46"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
       <c r="AB24" s="42"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
@@ -6754,31 +7117,31 @@
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
+        <v>160</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="125"/>
       <c r="N25" s="15" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="O25" s="17">
-        <v>10.119999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="19">
         <v>1</v>
@@ -6793,13 +7156,13 @@
       <c r="W25" s="7"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="11"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="8"/>
       <c r="AB25" s="42"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="9"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="42"/>
@@ -6822,31 +7185,31 @@
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="123"/>
+        <v>161</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="125"/>
       <c r="N26" s="15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O26" s="17">
-        <v>10.130000000000001</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="19">
         <v>1</v>
@@ -6867,8 +7230,8 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="8"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="42"/>
       <c r="AJ26" s="46"/>
@@ -6889,42 +7252,54 @@
       </c>
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="82"/>
+      <c r="B27" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O27" s="17">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>1</v>
+      </c>
+      <c r="R27" s="84">
+        <v>1</v>
+      </c>
       <c r="S27" s="25"/>
       <c r="T27" s="7"/>
       <c r="U27" s="42"/>
       <c r="V27" s="46"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="42"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="8"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="42"/>
       <c r="AJ27" s="46"/>
@@ -6940,18 +7315,18 @@
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="76"/>
-      <c r="AW27" s="111"/>
+      <c r="AW27" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="122" t="s">
-        <v>48</v>
-      </c>
+      <c r="B28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="122"/>
       <c r="E28" s="122"/>
       <c r="F28" s="122"/>
       <c r="G28" s="122"/>
@@ -6961,29 +7336,19 @@
       <c r="K28" s="122"/>
       <c r="L28" s="122"/>
       <c r="M28" s="123"/>
-      <c r="N28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="17">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>1</v>
-      </c>
-      <c r="R28" s="84">
-        <v>1</v>
-      </c>
-      <c r="S28" s="26"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="42"/>
       <c r="AC28" s="7"/>
@@ -7006,53 +7371,51 @@
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="76"/>
-      <c r="AW28" s="111">
-        <v>7</v>
-      </c>
+      <c r="AW28" s="111"/>
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="122" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="123"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="125"/>
       <c r="N29" s="15" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="O29" s="17">
-        <v>10.039999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="19">
         <v>1</v>
       </c>
       <c r="R29" s="84">
-        <v>2</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="7"/>
       <c r="AB29" s="42"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -7075,36 +7438,36 @@
       <c r="AU29" s="7"/>
       <c r="AV29" s="76"/>
       <c r="AW29" s="111">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="122" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="123"/>
+        <v>42</v>
+      </c>
+      <c r="D30" s="124" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="125"/>
       <c r="N30" s="15" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="O30" s="17">
         <v>10.039999999999999</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="19">
         <v>1</v>
@@ -7118,9 +7481,9 @@
       <c r="V30" s="46"/>
       <c r="W30" s="7"/>
       <c r="X30" s="9"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
       <c r="AB30" s="42"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
@@ -7148,31 +7511,31 @@
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="123"/>
+        <v>12</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="125"/>
       <c r="N31" s="15" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="O31" s="17">
-        <v>10.11</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="19">
         <v>1</v>
@@ -7185,15 +7548,15 @@
       <c r="U31" s="42"/>
       <c r="V31" s="46"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="11"/>
+      <c r="X31" s="9"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="42"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="42"/>
@@ -7211,42 +7574,42 @@
       <c r="AU31" s="7"/>
       <c r="AV31" s="76"/>
       <c r="AW31" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="123"/>
+        <v>93</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="125"/>
       <c r="N32" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>218</v>
+        <v>95</v>
+      </c>
+      <c r="O32" s="17">
+        <v>10.11</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="19">
         <v>1</v>
       </c>
       <c r="R32" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="25"/>
       <c r="T32" s="7"/>
@@ -7260,9 +7623,9 @@
       <c r="AB32" s="42"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="42"/>
       <c r="AJ32" s="46"/>
@@ -7279,39 +7642,39 @@
       <c r="AU32" s="7"/>
       <c r="AV32" s="76"/>
       <c r="AW32" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="123"/>
+        <v>200</v>
+      </c>
+      <c r="D33" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="125"/>
       <c r="N33" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O33" s="17">
-        <v>10.11</v>
+        <v>243</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>1</v>
       </c>
       <c r="R33" s="84">
         <v>1</v>
@@ -7328,9 +7691,9 @@
       <c r="AB33" s="42"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="7"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="9"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="42"/>
       <c r="AJ33" s="46"/>
@@ -7347,42 +7710,42 @@
       <c r="AU33" s="7"/>
       <c r="AV33" s="76"/>
       <c r="AW33" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="123"/>
+        <v>98</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="125"/>
       <c r="N34" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O34" s="17">
         <v>10.11</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="R34" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="25"/>
       <c r="T34" s="7"/>
@@ -7398,7 +7761,7 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
+      <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="42"/>
       <c r="AJ34" s="46"/>
@@ -7415,38 +7778,40 @@
       <c r="AU34" s="7"/>
       <c r="AV34" s="76"/>
       <c r="AW34" s="111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="123"/>
+        <v>102</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="125"/>
       <c r="N35" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O35" s="17">
-        <v>10.119999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q35" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="R35" s="84">
         <v>2</v>
       </c>
@@ -7462,7 +7827,7 @@
       <c r="AB35" s="42"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="11"/>
+      <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
       <c r="AH35" s="7"/>
@@ -7481,40 +7846,38 @@
       <c r="AU35" s="7"/>
       <c r="AV35" s="76"/>
       <c r="AW35" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="123"/>
+      <c r="D36" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="125"/>
       <c r="N36" s="15" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="O36" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q36" s="19">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q36" s="19"/>
       <c r="R36" s="84">
         <v>2</v>
       </c>
@@ -7532,7 +7895,7 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="9"/>
-      <c r="AG36" s="11"/>
+      <c r="AG36" s="9"/>
       <c r="AH36" s="7"/>
       <c r="AI36" s="42"/>
       <c r="AJ36" s="46"/>
@@ -7549,42 +7912,42 @@
       <c r="AU36" s="7"/>
       <c r="AV36" s="76"/>
       <c r="AW36" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="122" t="s">
-        <v>257</v>
-      </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="123"/>
+        <v>98</v>
+      </c>
+      <c r="D37" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="125"/>
       <c r="N37" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O37" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="19">
         <v>1</v>
       </c>
       <c r="R37" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37" s="25"/>
       <c r="T37" s="7"/>
@@ -7600,7 +7963,7 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
+      <c r="AG37" s="11"/>
       <c r="AH37" s="7"/>
       <c r="AI37" s="42"/>
       <c r="AJ37" s="46"/>
@@ -7617,42 +7980,42 @@
       <c r="AU37" s="7"/>
       <c r="AV37" s="76"/>
       <c r="AW37" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" s="122" t="s">
-        <v>254</v>
-      </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="123"/>
+        <v>145</v>
+      </c>
+      <c r="D38" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="125"/>
       <c r="N38" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>256</v>
+        <v>147</v>
+      </c>
+      <c r="O38" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>329</v>
+        <v>138</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>1</v>
       </c>
       <c r="R38" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38" s="25"/>
       <c r="T38" s="7"/>
@@ -7669,7 +8032,7 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
+      <c r="AH38" s="7"/>
       <c r="AI38" s="42"/>
       <c r="AJ38" s="46"/>
       <c r="AK38" s="7"/>
@@ -7685,40 +8048,42 @@
       <c r="AU38" s="7"/>
       <c r="AV38" s="76"/>
       <c r="AW38" s="111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="123"/>
+        <v>251</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="125"/>
       <c r="N39" s="15" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q39" s="19"/>
+        <v>250</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="R39" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" s="25"/>
       <c r="T39" s="7"/>
@@ -7736,10 +8101,10 @@
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="9"/>
+      <c r="AI39" s="42"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
@@ -7751,42 +8116,40 @@
       <c r="AU39" s="7"/>
       <c r="AV39" s="76"/>
       <c r="AW39" s="111">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="122" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="123"/>
+        <v>197</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="125"/>
       <c r="N40" s="15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q40" s="19">
+        <v>362</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="84">
         <v>1</v>
-      </c>
-      <c r="R40" s="84">
-        <v>2</v>
       </c>
       <c r="S40" s="25"/>
       <c r="T40" s="7"/>
@@ -7801,13 +8164,13 @@
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
+      <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="49"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
@@ -7819,38 +8182,40 @@
       <c r="AU40" s="7"/>
       <c r="AV40" s="76"/>
       <c r="AW40" s="111">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="123"/>
+        <v>197</v>
+      </c>
+      <c r="D41" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="125"/>
       <c r="N41" s="15" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q41" s="19"/>
+        <v>268</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>1</v>
+      </c>
       <c r="R41" s="84">
         <v>2</v>
       </c>
@@ -7870,9 +8235,9 @@
       <c r="AF41" s="11"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="9"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="11"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
@@ -7885,42 +8250,40 @@
       <c r="AU41" s="7"/>
       <c r="AV41" s="76"/>
       <c r="AW41" s="111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="122" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="123"/>
+        <v>200</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="125"/>
       <c r="N42" s="15" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q42" s="19">
-        <v>1</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="Q42" s="19"/>
       <c r="R42" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="25"/>
       <c r="T42" s="7"/>
@@ -7938,9 +8301,9 @@
       <c r="AF42" s="11"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="9"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="11"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="9"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
@@ -7953,42 +8316,42 @@
       <c r="AU42" s="7"/>
       <c r="AV42" s="76"/>
       <c r="AW42" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="122" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="123"/>
+        <v>200</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="125"/>
       <c r="N43" s="15" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43" s="19">
         <v>1</v>
       </c>
       <c r="R43" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43" s="25"/>
       <c r="T43" s="7"/>
@@ -8005,7 +8368,7 @@
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="9"/>
-      <c r="AH43" s="11"/>
+      <c r="AH43" s="9"/>
       <c r="AI43" s="45"/>
       <c r="AJ43" s="49"/>
       <c r="AK43" s="11"/>
@@ -8021,36 +8384,36 @@
       <c r="AU43" s="7"/>
       <c r="AV43" s="76"/>
       <c r="AW43" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="123"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="125"/>
       <c r="N44" s="15" t="s">
         <v>264</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="Q44" s="19">
         <v>1</v>
@@ -8094,35 +8457,37 @@
     </row>
     <row r="45" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="122" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="123"/>
+        <v>200</v>
+      </c>
+      <c r="D45" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="125"/>
       <c r="N45" s="15" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q45" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>1</v>
+      </c>
       <c r="R45" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45" s="25"/>
       <c r="T45" s="7"/>
@@ -8138,11 +8503,11 @@
       <c r="AD45" s="7"/>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="49"/>
+      <c r="AK45" s="11"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
@@ -8155,36 +8520,36 @@
       <c r="AU45" s="7"/>
       <c r="AV45" s="76"/>
       <c r="AW45" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="122" t="s">
-        <v>279</v>
-      </c>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="123"/>
+        <v>197</v>
+      </c>
+      <c r="D46" s="124" t="s">
+        <v>394</v>
+      </c>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="125"/>
       <c r="N46" s="15" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="19">
         <v>1</v>
@@ -8207,9 +8572,10 @@
       <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AI46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="44"/>
       <c r="AJ46" s="48"/>
-      <c r="AK46" s="7"/>
+      <c r="AK46" s="9"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
@@ -8226,45 +8592,56 @@
       </c>
     </row>
     <row r="47" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B47" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="85"/>
+      <c r="B47" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>1</v>
+      </c>
+      <c r="R47" s="84">
+        <v>1</v>
+      </c>
       <c r="S47" s="25"/>
       <c r="T47" s="7"/>
       <c r="U47" s="42"/>
       <c r="V47" s="46"/>
       <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="11"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="42"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="46"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="48"/>
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
@@ -8277,40 +8654,40 @@
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
       <c r="AV47" s="76"/>
-      <c r="AW47" s="111"/>
+      <c r="AW47" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="O48" s="56">
-        <v>10.11</v>
-      </c>
-      <c r="P48" s="56">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="Q48" s="79">
-        <v>1</v>
-      </c>
-      <c r="R48" s="86">
+        <v>383</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" s="124" t="s">
+        <v>381</v>
+      </c>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="84">
         <v>1</v>
       </c>
       <c r="S48" s="25"/>
@@ -8318,22 +8695,21 @@
       <c r="U48" s="42"/>
       <c r="V48" s="46"/>
       <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
+      <c r="X48" s="11"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="42"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="46"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="49"/>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
-      <c r="AM48" s="7"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="11"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
       <c r="AP48" s="42"/>
@@ -8344,41 +8720,39 @@
       <c r="AU48" s="7"/>
       <c r="AV48" s="76"/>
       <c r="AW48" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="O49" s="56">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="P49" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q49" s="79">
-        <v>1</v>
-      </c>
-      <c r="R49" s="86">
+        <v>388</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49" s="124" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="84">
         <v>1</v>
       </c>
       <c r="S49" s="25"/>
@@ -8386,7 +8760,7 @@
       <c r="U49" s="42"/>
       <c r="V49" s="46"/>
       <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
+      <c r="X49" s="11"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
@@ -8395,13 +8769,12 @@
       <c r="AD49" s="7"/>
       <c r="AE49" s="11"/>
       <c r="AF49" s="11"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="43"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="7"/>
-      <c r="AM49" s="7"/>
+      <c r="AG49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="49"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="11"/>
       <c r="AN49" s="7"/>
       <c r="AO49" s="7"/>
       <c r="AP49" s="42"/>
@@ -8412,41 +8785,39 @@
       <c r="AU49" s="7"/>
       <c r="AV49" s="76"/>
       <c r="AW49" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>311</v>
-      </c>
-      <c r="D50" s="130" t="s">
-        <v>312</v>
-      </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="O50" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="P50" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q50" s="79" t="s">
-        <v>329</v>
-      </c>
-      <c r="R50" s="86">
+        <v>397</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="D50" s="124" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="84">
         <v>1</v>
       </c>
       <c r="S50" s="25"/>
@@ -8454,7 +8825,7 @@
       <c r="U50" s="42"/>
       <c r="V50" s="46"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
+      <c r="X50" s="11"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
@@ -8464,12 +8835,11 @@
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="45"/>
+      <c r="AI50" s="11"/>
       <c r="AJ50" s="49"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="11"/>
       <c r="AN50" s="7"/>
       <c r="AO50" s="7"/>
       <c r="AP50" s="42"/>
@@ -8484,39 +8854,27 @@
       </c>
     </row>
     <row r="51" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B51" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="130" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="O51" s="56">
-        <v>10.17</v>
-      </c>
-      <c r="P51" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q51" s="104" t="s">
-        <v>329</v>
-      </c>
-      <c r="R51" s="86">
-        <v>1</v>
-      </c>
+      <c r="B51" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="85"/>
       <c r="S51" s="25"/>
       <c r="T51" s="7"/>
       <c r="U51" s="42"/>
@@ -8529,16 +8887,16 @@
       <c r="AB51" s="42"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
       <c r="AI51" s="42"/>
       <c r="AJ51" s="46"/>
-      <c r="AK51" s="10"/>
-      <c r="AL51" s="10"/>
-      <c r="AM51" s="10"/>
-      <c r="AN51" s="10"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
       <c r="AP51" s="42"/>
       <c r="AQ51" s="46"/>
@@ -8547,64 +8905,62 @@
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
       <c r="AV51" s="76"/>
-      <c r="AW51" s="111">
-        <v>4</v>
-      </c>
+      <c r="AW51" s="111"/>
     </row>
     <row r="52" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O52" s="17">
+        <v>57</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="O52" s="56">
+        <v>10.11</v>
+      </c>
+      <c r="P52" s="56">
         <v>10.119999999999999</v>
       </c>
-      <c r="P52" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="R52" s="84">
+      <c r="Q52" s="79">
         <v>1</v>
       </c>
-      <c r="S52" s="27"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
+      <c r="R52" s="86">
+        <v>1</v>
+      </c>
+      <c r="S52" s="25"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="42"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
       <c r="AI52" s="42"/>
       <c r="AJ52" s="46"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="11"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
       <c r="AO52" s="7"/>
@@ -8616,64 +8972,66 @@
       <c r="AU52" s="7"/>
       <c r="AV52" s="76"/>
       <c r="AW52" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="123"/>
-      <c r="N53" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="84">
+        <v>177</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="115"/>
+      <c r="N53" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="O53" s="56">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P53" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" s="79">
         <v>1</v>
       </c>
-      <c r="S53" s="27"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
+      <c r="R53" s="86">
+        <v>1</v>
+      </c>
+      <c r="S53" s="25"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="42"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
+      <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="42"/>
-      <c r="AJ53" s="46"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="9"/>
-      <c r="AO53" s="9"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="43"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
       <c r="AP53" s="42"/>
       <c r="AQ53" s="46"/>
       <c r="AR53" s="7"/>
@@ -8687,159 +9045,171 @@
     </row>
     <row r="54" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="P54" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="84">
+        <v>128</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="O54" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="P54" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q54" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="R54" s="86">
         <v>1</v>
       </c>
-      <c r="S54" s="27"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="42"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
-      <c r="AH54" s="7"/>
-      <c r="AI54" s="42"/>
-      <c r="AJ54" s="46"/>
-      <c r="AK54" s="7"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="45"/>
+      <c r="AJ54" s="49"/>
+      <c r="AK54" s="8"/>
       <c r="AL54" s="7"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="9"/>
-      <c r="AO54" s="9"/>
-      <c r="AP54" s="45"/>
-      <c r="AQ54" s="49"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
       <c r="AU54" s="7"/>
       <c r="AV54" s="76"/>
       <c r="AW54" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="P55" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="84">
-        <v>2</v>
-      </c>
-      <c r="S55" s="27"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
+        <v>129</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O55" s="56">
+        <v>10.17</v>
+      </c>
+      <c r="P55" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q55" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="R55" s="86">
+        <v>1</v>
+      </c>
+      <c r="S55" s="25"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="42"/>
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7"/>
-      <c r="AH55" s="7"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
       <c r="AI55" s="42"/>
       <c r="AJ55" s="46"/>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="45"/>
-      <c r="AQ55" s="49"/>
-      <c r="AR55" s="9"/>
-      <c r="AS55" s="9"/>
-      <c r="AT55" s="11"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="42"/>
+      <c r="AQ55" s="46"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="76"/>
       <c r="AW55" s="111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B56" s="36" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="122" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="17" t="s">
-        <v>292</v>
+        <v>70</v>
+      </c>
+      <c r="D56" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O56" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q56" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="Q56" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="R56" s="84">
         <v>1</v>
       </c>
@@ -8856,55 +9226,65 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7"/>
-      <c r="AH56" s="7"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
       <c r="AI56" s="42"/>
       <c r="AJ56" s="46"/>
-      <c r="AK56" s="7"/>
-      <c r="AL56" s="7"/>
-      <c r="AM56" s="11"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="45"/>
-      <c r="AQ56" s="49"/>
-      <c r="AR56" s="9"/>
-      <c r="AS56" s="9"/>
-      <c r="AT56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="42"/>
+      <c r="AQ56" s="46"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="76"/>
       <c r="AW56" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B57" s="37">
-        <v>5</v>
-      </c>
-      <c r="C57" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="85"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
+      <c r="B57" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="84">
+        <v>1</v>
+      </c>
+      <c r="S57" s="27"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -8912,16 +9292,16 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="42"/>
       <c r="AJ57" s="46"/>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="7"/>
-      <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="9"/>
       <c r="AP57" s="42"/>
       <c r="AQ57" s="46"/>
       <c r="AR57" s="7"/>
@@ -8929,138 +9309,132 @@
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="76"/>
-      <c r="AW57" s="111"/>
+      <c r="AW57" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B58" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O58" s="17">
-        <v>10.11</v>
+        <v>178</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q58" s="19">
-        <v>1</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="Q58" s="19"/>
       <c r="R58" s="84">
         <v>1</v>
       </c>
-      <c r="S58" s="25"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
       <c r="AB58" s="42"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
-      <c r="AE58" s="8"/>
-      <c r="AF58" s="11"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
       <c r="AI58" s="42"/>
       <c r="AJ58" s="46"/>
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
-      <c r="AM58" s="7"/>
-      <c r="AN58" s="7"/>
-      <c r="AO58" s="7"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="46"/>
-      <c r="AR58" s="7"/>
-      <c r="AS58" s="7"/>
-      <c r="AT58" s="7"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="45"/>
+      <c r="AQ58" s="49"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
       <c r="AU58" s="7"/>
       <c r="AV58" s="76"/>
       <c r="AW58" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="15" t="s">
-        <v>295</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="125"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="17" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q59" s="19">
-        <v>1</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="Q59" s="19"/>
       <c r="R59" s="84">
-        <v>1</v>
-      </c>
-      <c r="S59" s="25"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="S59" s="27"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
       <c r="AB59" s="42"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
-      <c r="AH59" s="8"/>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="8"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="42"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
-      <c r="AM59" s="7"/>
-      <c r="AN59" s="7"/>
-      <c r="AO59" s="7"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="46"/>
-      <c r="AR59" s="7"/>
-      <c r="AS59" s="7"/>
-      <c r="AT59" s="7"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="45"/>
+      <c r="AQ59" s="49"/>
+      <c r="AR59" s="9"/>
+      <c r="AS59" s="9"/>
+      <c r="AT59" s="11"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="76"/>
       <c r="AW59" s="111">
@@ -9069,80 +9443,76 @@
     </row>
     <row r="60" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="122" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="15" t="s">
-        <v>319</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="125"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="17" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="84">
         <v>1</v>
       </c>
-      <c r="S60" s="25"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
       <c r="AB60" s="42"/>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
       <c r="AI60" s="42"/>
       <c r="AJ60" s="46"/>
-      <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
-      <c r="AM60" s="8"/>
-      <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="46"/>
-      <c r="AR60" s="7"/>
-      <c r="AS60" s="7"/>
-      <c r="AT60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="45"/>
+      <c r="AQ60" s="49"/>
+      <c r="AR60" s="9"/>
+      <c r="AS60" s="9"/>
+      <c r="AT60" s="11"/>
       <c r="AU60" s="7"/>
       <c r="AV60" s="76"/>
       <c r="AW60" s="111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B61" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="122" t="s">
-        <v>79</v>
-      </c>
+      <c r="B61" s="37">
+        <v>5</v>
+      </c>
+      <c r="C61" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="122"/>
       <c r="E61" s="122"/>
       <c r="F61" s="122"/>
       <c r="G61" s="122"/>
@@ -9152,21 +9522,11 @@
       <c r="K61" s="122"/>
       <c r="L61" s="122"/>
       <c r="M61" s="123"/>
-      <c r="N61" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O61" s="17">
-        <v>10.11</v>
-      </c>
-      <c r="P61" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q61" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R61" s="84">
-        <v>2</v>
-      </c>
+      <c r="N61" s="40"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="85"/>
       <c r="S61" s="25"/>
       <c r="T61" s="7"/>
       <c r="U61" s="42"/>
@@ -9179,8 +9539,8 @@
       <c r="AB61" s="42"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="11"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
       <c r="AI61" s="42"/>
@@ -9197,38 +9557,42 @@
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="76"/>
-      <c r="AW61" s="111">
-        <v>1</v>
-      </c>
+      <c r="AW61" s="111"/>
     </row>
     <row r="62" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" s="122" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
-      <c r="M62" s="123"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="17" t="s">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="125"/>
+      <c r="N62" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O62" s="17">
+        <v>10.11</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="84"/>
+        <v>65</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>1</v>
+      </c>
+      <c r="R62" s="84">
+        <v>1</v>
+      </c>
       <c r="S62" s="25"/>
       <c r="T62" s="7"/>
       <c r="U62" s="42"/>
@@ -9241,7 +9605,7 @@
       <c r="AB62" s="42"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
-      <c r="AE62" s="11"/>
+      <c r="AE62" s="8"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
@@ -9250,8 +9614,8 @@
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
-      <c r="AN62" s="9"/>
-      <c r="AO62" s="9"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
       <c r="AP62" s="42"/>
       <c r="AQ62" s="46"/>
       <c r="AR62" s="7"/>
@@ -9260,36 +9624,36 @@
       <c r="AU62" s="7"/>
       <c r="AV62" s="76"/>
       <c r="AW62" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="122" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="122"/>
-      <c r="M63" s="123"/>
+        <v>63</v>
+      </c>
+      <c r="D63" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="125"/>
       <c r="N63" s="15" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O63" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="Q63" s="19">
         <v>1</v>
@@ -9312,10 +9676,10 @@
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
       <c r="AG63" s="7"/>
-      <c r="AH63" s="7"/>
+      <c r="AH63" s="8"/>
       <c r="AI63" s="43"/>
       <c r="AJ63" s="47"/>
-      <c r="AK63" s="7"/>
+      <c r="AK63" s="8"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
@@ -9333,32 +9697,36 @@
     </row>
     <row r="64" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="122"/>
-      <c r="M64" s="123"/>
-      <c r="N64" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="124" t="s">
+        <v>369</v>
+      </c>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="125"/>
+      <c r="N64" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="O64" s="17" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="84"/>
+        <v>295</v>
+      </c>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="84">
+        <v>1</v>
+      </c>
       <c r="S64" s="25"/>
       <c r="T64" s="7"/>
       <c r="U64" s="42"/>
@@ -9373,14 +9741,14 @@
       <c r="AD64" s="7"/>
       <c r="AE64" s="11"/>
       <c r="AF64" s="11"/>
-      <c r="AG64" s="7"/>
+      <c r="AG64" s="11"/>
       <c r="AH64" s="7"/>
       <c r="AI64" s="42"/>
       <c r="AJ64" s="46"/>
-      <c r="AK64" s="9"/>
-      <c r="AL64" s="9"/>
-      <c r="AM64" s="9"/>
-      <c r="AN64" s="9"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="8"/>
+      <c r="AN64" s="7"/>
       <c r="AO64" s="7"/>
       <c r="AP64" s="42"/>
       <c r="AQ64" s="46"/>
@@ -9390,40 +9758,40 @@
       <c r="AU64" s="7"/>
       <c r="AV64" s="76"/>
       <c r="AW64" s="111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="122" t="s">
-        <v>331</v>
-      </c>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="122"/>
-      <c r="M65" s="123"/>
+        <v>112</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D65" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="125"/>
       <c r="N65" s="15" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="O65" s="17" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q65" s="15"/>
+        <v>374</v>
+      </c>
+      <c r="Q65" s="19"/>
       <c r="R65" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="7"/>
@@ -9439,15 +9807,15 @@
       <c r="AD65" s="7"/>
       <c r="AE65" s="11"/>
       <c r="AF65" s="11"/>
-      <c r="AG65" s="7"/>
+      <c r="AG65" s="11"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="42"/>
       <c r="AJ65" s="46"/>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
-      <c r="AN65" s="11"/>
-      <c r="AO65" s="11"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
       <c r="AP65" s="42"/>
       <c r="AQ65" s="46"/>
       <c r="AR65" s="7"/>
@@ -9456,37 +9824,43 @@
       <c r="AU65" s="7"/>
       <c r="AV65" s="76"/>
       <c r="AW65" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="122" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="122"/>
-      <c r="M66" s="123"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="17" t="s">
-        <v>304</v>
+        <v>113</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="125"/>
+      <c r="N66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O66" s="17">
+        <v>10.11</v>
       </c>
       <c r="P66" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="84"/>
+        <v>65</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R66" s="84">
+        <v>2</v>
+      </c>
       <c r="S66" s="25"/>
       <c r="T66" s="7"/>
       <c r="U66" s="42"/>
@@ -9499,7 +9873,7 @@
       <c r="AB66" s="42"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
-      <c r="AE66" s="11"/>
+      <c r="AE66" s="9"/>
       <c r="AF66" s="11"/>
       <c r="AG66" s="7"/>
       <c r="AH66" s="7"/>
@@ -9514,35 +9888,41 @@
       <c r="AQ66" s="46"/>
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
-      <c r="AT66" s="10"/>
-      <c r="AU66" s="10"/>
-      <c r="AV66" s="102"/>
+      <c r="AT66" s="7"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="76"/>
       <c r="AW66" s="111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B67" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="120" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="120"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120"/>
-      <c r="M67" s="121"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="85"/>
+      <c r="B67" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="125"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="P67" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="84"/>
       <c r="S67" s="25"/>
       <c r="T67" s="7"/>
       <c r="U67" s="42"/>
@@ -9555,8 +9935,8 @@
       <c r="AB67" s="42"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
       <c r="AG67" s="7"/>
       <c r="AH67" s="7"/>
       <c r="AI67" s="42"/>
@@ -9564,8 +9944,8 @@
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
-      <c r="AN67" s="7"/>
-      <c r="AO67" s="7"/>
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="9"/>
       <c r="AP67" s="42"/>
       <c r="AQ67" s="46"/>
       <c r="AR67" s="7"/>
@@ -9573,35 +9953,37 @@
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
       <c r="AV67" s="76"/>
-      <c r="AW67" s="111"/>
+      <c r="AW67" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
-      <c r="M68" s="123"/>
+        <v>184</v>
+      </c>
+      <c r="D68" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="124"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="125"/>
       <c r="N68" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O68" s="17">
-        <v>10.119999999999999</v>
+        <v>299</v>
+      </c>
+      <c r="O68" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Q68" s="19">
         <v>1</v>
@@ -9622,11 +10004,11 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="11"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="11"/>
-      <c r="AI68" s="45"/>
-      <c r="AJ68" s="49"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="47"/>
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
@@ -9645,31 +10027,31 @@
     </row>
     <row r="69" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="122"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="122"/>
-      <c r="M69" s="123"/>
+        <v>191</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="125"/>
       <c r="N69" s="15" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="O69" s="17" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q69" s="15"/>
       <c r="R69" s="84">
@@ -9687,16 +10069,16 @@
       <c r="AB69" s="42"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
+      <c r="AE69" s="11"/>
       <c r="AF69" s="11"/>
-      <c r="AG69" s="11"/>
-      <c r="AH69" s="11"/>
-      <c r="AI69" s="45"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="8"/>
-      <c r="AL69" s="8"/>
-      <c r="AM69" s="7"/>
-      <c r="AN69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="42"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="9"/>
+      <c r="AN69" s="9"/>
       <c r="AO69" s="7"/>
       <c r="AP69" s="42"/>
       <c r="AQ69" s="46"/>
@@ -9706,57 +10088,63 @@
       <c r="AU69" s="7"/>
       <c r="AV69" s="76"/>
       <c r="AW69" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="E70" s="122"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122"/>
-      <c r="H70" s="122"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="123"/>
-      <c r="N70" s="15"/>
+        <v>308</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="O70" s="17" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="45"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
+        <v>326</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>1</v>
+      </c>
+      <c r="R70" s="84">
+        <v>1</v>
+      </c>
+      <c r="S70" s="25"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
       <c r="AB70" s="42"/>
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
-      <c r="AE70" s="7"/>
+      <c r="AE70" s="11"/>
       <c r="AF70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
-      <c r="AI70" s="45"/>
-      <c r="AJ70" s="49"/>
-      <c r="AK70" s="8"/>
-      <c r="AL70" s="8"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="42"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="11"/>
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="11"/>
@@ -9768,81 +10156,79 @@
       <c r="AU70" s="7"/>
       <c r="AV70" s="76"/>
       <c r="AW70" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="122" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="123"/>
+        <v>375</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="125"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>302</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q71" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="Q71" s="15"/>
       <c r="R71" s="84"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="45"/>
-      <c r="V71" s="49"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
       <c r="AB71" s="42"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="7"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
       <c r="AG71" s="7"/>
       <c r="AH71" s="7"/>
       <c r="AI71" s="42"/>
       <c r="AJ71" s="46"/>
       <c r="AK71" s="7"/>
-      <c r="AL71" s="8"/>
-      <c r="AM71" s="8"/>
-      <c r="AN71" s="11"/>
-      <c r="AO71" s="11"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+      <c r="AO71" s="7"/>
       <c r="AP71" s="42"/>
       <c r="AQ71" s="46"/>
       <c r="AR71" s="7"/>
       <c r="AS71" s="7"/>
-      <c r="AT71" s="7"/>
-      <c r="AU71" s="7"/>
-      <c r="AV71" s="76"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="102"/>
       <c r="AW71" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B72" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" s="122" t="s">
-        <v>193</v>
-      </c>
+      <c r="B72" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="122"/>
       <c r="E72" s="122"/>
       <c r="F72" s="122"/>
       <c r="G72" s="122"/>
@@ -9852,25 +10238,17 @@
       <c r="K72" s="122"/>
       <c r="L72" s="122"/>
       <c r="M72" s="123"/>
-      <c r="N72" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="P72" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q72" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="R72" s="84"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="45"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="85"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
@@ -9880,14 +10258,14 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
-      <c r="AH72" s="8"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="8"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="42"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="7"/>
       <c r="AL72" s="7"/>
-      <c r="AM72" s="11"/>
-      <c r="AN72" s="11"/>
-      <c r="AO72" s="11"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
       <c r="AP72" s="42"/>
       <c r="AQ72" s="46"/>
       <c r="AR72" s="7"/>
@@ -9895,67 +10273,65 @@
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
       <c r="AV72" s="76"/>
-      <c r="AW72" s="111">
-        <v>2</v>
-      </c>
+      <c r="AW72" s="111"/>
     </row>
     <row r="73" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="122" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="122"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="122"/>
-      <c r="L73" s="122"/>
-      <c r="M73" s="123"/>
+        <v>63</v>
+      </c>
+      <c r="D73" s="124" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="125"/>
       <c r="N73" s="15" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="O73" s="17">
-        <v>10.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="19">
         <v>1</v>
       </c>
       <c r="R73" s="84">
-        <v>2</v>
-      </c>
-      <c r="S73" s="27"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="45"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="S73" s="25"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
       <c r="AB73" s="42"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7"/>
-      <c r="AH73" s="8"/>
-      <c r="AI73" s="43"/>
-      <c r="AJ73" s="47"/>
-      <c r="AK73" s="8"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="45"/>
+      <c r="AJ73" s="49"/>
+      <c r="AK73" s="7"/>
       <c r="AL73" s="7"/>
-      <c r="AM73" s="11"/>
-      <c r="AN73" s="11"/>
-      <c r="AO73" s="11"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
       <c r="AP73" s="42"/>
       <c r="AQ73" s="46"/>
       <c r="AR73" s="7"/>
@@ -9969,44 +10345,42 @@
     </row>
     <row r="74" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="122" t="s">
-        <v>367</v>
-      </c>
-      <c r="E74" s="122"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="122"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="122"/>
-      <c r="L74" s="122"/>
-      <c r="M74" s="123"/>
+        <v>69</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="125"/>
       <c r="N74" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="O74" s="17">
-        <v>10.119999999999999</v>
+        <v>316</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q74" s="19">
-        <v>0.5</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="Q74" s="15"/>
       <c r="R74" s="84">
-        <v>2</v>
-      </c>
-      <c r="S74" s="27"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="45"/>
-      <c r="V74" s="49"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="S74" s="25"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
@@ -10014,16 +10388,16 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
-      <c r="AF74" s="9"/>
-      <c r="AG74" s="9"/>
-      <c r="AH74" s="9"/>
-      <c r="AI74" s="44"/>
-      <c r="AJ74" s="48"/>
-      <c r="AK74" s="9"/>
-      <c r="AL74" s="9"/>
-      <c r="AM74" s="11"/>
-      <c r="AN74" s="11"/>
-      <c r="AO74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="45"/>
+      <c r="AJ74" s="49"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+      <c r="AO74" s="7"/>
       <c r="AP74" s="42"/>
       <c r="AQ74" s="46"/>
       <c r="AR74" s="7"/>
@@ -10032,43 +10406,37 @@
       <c r="AU74" s="7"/>
       <c r="AV74" s="76"/>
       <c r="AW74" s="111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D75" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="122"/>
-      <c r="M75" s="123"/>
-      <c r="N75" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="O75" s="17">
-        <v>10.15</v>
+        <v>120</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="125"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q75" s="19">
-        <v>1</v>
-      </c>
-      <c r="R75" s="84">
-        <v>1</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="84"/>
       <c r="S75" s="27"/>
       <c r="T75" s="11"/>
       <c r="U75" s="45"/>
@@ -10082,13 +10450,13 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
-      <c r="AG75" s="7"/>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="44"/>
-      <c r="AJ75" s="46"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="45"/>
+      <c r="AJ75" s="49"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="11"/>
@@ -10100,43 +10468,37 @@
       <c r="AU75" s="7"/>
       <c r="AV75" s="76"/>
       <c r="AW75" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="D76" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
-      <c r="M76" s="123"/>
-      <c r="N76" s="15" t="s">
-        <v>324</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="124"/>
+      <c r="J76" s="124"/>
+      <c r="K76" s="124"/>
+      <c r="L76" s="124"/>
+      <c r="M76" s="125"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="17" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q76" s="19">
-        <v>1</v>
-      </c>
-      <c r="R76" s="84">
-        <v>2</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="84"/>
       <c r="S76" s="27"/>
       <c r="T76" s="11"/>
       <c r="U76" s="45"/>
@@ -10153,11 +10515,11 @@
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
-      <c r="AI76" s="45"/>
+      <c r="AI76" s="42"/>
       <c r="AJ76" s="46"/>
-      <c r="AK76" s="9"/>
-      <c r="AL76" s="9"/>
-      <c r="AM76" s="11"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="8"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="11"/>
       <c r="AP76" s="42"/>
@@ -10173,32 +10535,38 @@
     </row>
     <row r="77" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="122" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
-      <c r="L77" s="122"/>
-      <c r="M77" s="123"/>
-      <c r="N77" s="15"/>
+        <v>122</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="124"/>
+      <c r="F77" s="124"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="124"/>
+      <c r="J77" s="124"/>
+      <c r="K77" s="124"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="125"/>
+      <c r="N77" s="15" t="s">
+        <v>344</v>
+      </c>
       <c r="O77" s="17" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="84"/>
+        <v>221</v>
+      </c>
+      <c r="Q77" s="19">
+        <v>1</v>
+      </c>
+      <c r="R77" s="84">
+        <v>2</v>
+      </c>
       <c r="S77" s="27"/>
       <c r="T77" s="11"/>
       <c r="U77" s="45"/>
@@ -10214,14 +10582,14 @@
       <c r="AE77" s="7"/>
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
-      <c r="AH77" s="7"/>
-      <c r="AI77" s="42"/>
-      <c r="AJ77" s="46"/>
-      <c r="AK77" s="7"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="8"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="11"/>
-      <c r="AN77" s="9"/>
-      <c r="AO77" s="9"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="11"/>
       <c r="AP77" s="42"/>
       <c r="AQ77" s="46"/>
       <c r="AR77" s="7"/>
@@ -10235,32 +10603,38 @@
     </row>
     <row r="78" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="122" t="s">
-        <v>202</v>
-      </c>
-      <c r="E78" s="122"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="122"/>
-      <c r="M78" s="123"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="17" t="s">
-        <v>292</v>
+        <v>123</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="125"/>
+      <c r="N78" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="O78" s="17">
+        <v>10.14</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="84"/>
+        <v>221</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>1</v>
+      </c>
+      <c r="R78" s="84">
+        <v>2</v>
+      </c>
       <c r="S78" s="27"/>
       <c r="T78" s="11"/>
       <c r="U78" s="45"/>
@@ -10276,18 +10650,18 @@
       <c r="AE78" s="7"/>
       <c r="AF78" s="7"/>
       <c r="AG78" s="7"/>
-      <c r="AH78" s="7"/>
-      <c r="AI78" s="42"/>
-      <c r="AJ78" s="46"/>
-      <c r="AK78" s="7"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="8"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
       <c r="AO78" s="11"/>
       <c r="AP78" s="42"/>
       <c r="AQ78" s="46"/>
-      <c r="AR78" s="9"/>
-      <c r="AS78" s="9"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="76"/>
@@ -10297,32 +10671,38 @@
     </row>
     <row r="79" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="122"/>
-      <c r="F79" s="122"/>
-      <c r="G79" s="122"/>
-      <c r="H79" s="122"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="122"/>
-      <c r="M79" s="123"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="17" t="s">
-        <v>292</v>
+        <v>197</v>
+      </c>
+      <c r="D79" s="124" t="s">
+        <v>363</v>
+      </c>
+      <c r="E79" s="124"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="125"/>
+      <c r="N79" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="O79" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="84"/>
+        <v>364</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="R79" s="84">
+        <v>2</v>
+      </c>
       <c r="S79" s="27"/>
       <c r="T79" s="11"/>
       <c r="U79" s="45"/>
@@ -10336,55 +10716,61 @@
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
-      <c r="AG79" s="7"/>
-      <c r="AH79" s="7"/>
-      <c r="AI79" s="42"/>
-      <c r="AJ79" s="46"/>
-      <c r="AK79" s="7"/>
-      <c r="AL79" s="7"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="44"/>
+      <c r="AJ79" s="48"/>
+      <c r="AK79" s="9"/>
+      <c r="AL79" s="9"/>
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
       <c r="AO79" s="11"/>
       <c r="AP79" s="42"/>
       <c r="AQ79" s="46"/>
-      <c r="AR79" s="22"/>
-      <c r="AS79" s="9"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
       <c r="AV79" s="76"/>
       <c r="AW79" s="111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
-        <v>321</v>
+        <v>117</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="E80" s="122"/>
-      <c r="F80" s="122"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="122"/>
-      <c r="L80" s="122"/>
-      <c r="M80" s="123"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="17" t="s">
-        <v>294</v>
+        <v>197</v>
+      </c>
+      <c r="D80" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="124"/>
+      <c r="J80" s="124"/>
+      <c r="K80" s="124"/>
+      <c r="L80" s="124"/>
+      <c r="M80" s="125"/>
+      <c r="N80" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="O80" s="17">
+        <v>10.15</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="84"/>
+        <v>233</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>1</v>
+      </c>
+      <c r="R80" s="84">
+        <v>1</v>
+      </c>
       <c r="S80" s="27"/>
       <c r="T80" s="11"/>
       <c r="U80" s="45"/>
@@ -10401,7 +10787,7 @@
       <c r="AF80" s="7"/>
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
-      <c r="AI80" s="42"/>
+      <c r="AI80" s="44"/>
       <c r="AJ80" s="46"/>
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
@@ -10410,37 +10796,49 @@
       <c r="AO80" s="11"/>
       <c r="AP80" s="42"/>
       <c r="AQ80" s="46"/>
-      <c r="AR80" s="9"/>
-      <c r="AS80" s="9"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="76"/>
       <c r="AW80" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B81" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="C81" s="119" t="s">
-        <v>338</v>
-      </c>
-      <c r="D81" s="120"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="120"/>
-      <c r="G81" s="120"/>
-      <c r="H81" s="120"/>
-      <c r="I81" s="120"/>
-      <c r="J81" s="120"/>
-      <c r="K81" s="120"/>
-      <c r="L81" s="120"/>
-      <c r="M81" s="121"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
-      <c r="Q81" s="105"/>
-      <c r="R81" s="85"/>
+      <c r="B81" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="124" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" s="124"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="125"/>
+      <c r="N81" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="O81" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>1</v>
+      </c>
+      <c r="R81" s="84">
+        <v>2</v>
+      </c>
       <c r="S81" s="27"/>
       <c r="T81" s="11"/>
       <c r="U81" s="45"/>
@@ -10457,53 +10855,55 @@
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
       <c r="AH81" s="7"/>
-      <c r="AI81" s="42"/>
+      <c r="AI81" s="45"/>
       <c r="AJ81" s="46"/>
-      <c r="AK81" s="7"/>
-      <c r="AL81" s="7"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="9"/>
       <c r="AM81" s="11"/>
       <c r="AN81" s="11"/>
       <c r="AO81" s="11"/>
       <c r="AP81" s="42"/>
       <c r="AQ81" s="46"/>
-      <c r="AR81" s="11"/>
-      <c r="AS81" s="11"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7"/>
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
       <c r="AV81" s="76"/>
-      <c r="AW81" s="111"/>
+      <c r="AW81" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B82" s="96" t="s">
-        <v>339</v>
-      </c>
-      <c r="C82" s="107" t="s">
-        <v>340</v>
-      </c>
-      <c r="D82" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="116"/>
-      <c r="N82" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="O82" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="P82" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q82" s="106"/>
-      <c r="R82" s="99">
-        <v>2</v>
+      <c r="B82" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D82" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="124"/>
+      <c r="J82" s="124"/>
+      <c r="K82" s="124"/>
+      <c r="L82" s="124"/>
+      <c r="M82" s="125"/>
+      <c r="N82" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="84">
+        <v>1</v>
       </c>
       <c r="S82" s="27"/>
       <c r="T82" s="11"/>
@@ -10521,55 +10921,55 @@
       <c r="AF82" s="7"/>
       <c r="AG82" s="7"/>
       <c r="AH82" s="7"/>
-      <c r="AI82" s="42"/>
+      <c r="AI82" s="45"/>
       <c r="AJ82" s="46"/>
-      <c r="AK82" s="8"/>
-      <c r="AL82" s="8"/>
+      <c r="AK82" s="11"/>
+      <c r="AL82" s="9"/>
       <c r="AM82" s="11"/>
       <c r="AN82" s="11"/>
       <c r="AO82" s="11"/>
       <c r="AP82" s="42"/>
       <c r="AQ82" s="46"/>
-      <c r="AR82" s="11"/>
-      <c r="AS82" s="11"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
       <c r="AT82" s="7"/>
       <c r="AU82" s="7"/>
       <c r="AV82" s="76"/>
       <c r="AW82" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B83" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="C83" s="107" t="s">
-        <v>345</v>
-      </c>
-      <c r="D83" s="115" t="s">
-        <v>346</v>
-      </c>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="115"/>
-      <c r="K83" s="115"/>
-      <c r="L83" s="115"/>
-      <c r="M83" s="116"/>
-      <c r="N83" s="97" t="s">
-        <v>348</v>
-      </c>
-      <c r="O83" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="P83" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q83" s="106"/>
-      <c r="R83" s="99">
-        <v>2</v>
+      <c r="B83" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="D83" s="124" t="s">
+        <v>399</v>
+      </c>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
+      <c r="J83" s="124"/>
+      <c r="K83" s="124"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="125"/>
+      <c r="N83" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="P83" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="84">
+        <v>1</v>
       </c>
       <c r="S83" s="27"/>
       <c r="T83" s="11"/>
@@ -10587,54 +10987,52 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
-      <c r="AI83" s="42"/>
+      <c r="AI83" s="45"/>
       <c r="AJ83" s="46"/>
-      <c r="AK83" s="7"/>
-      <c r="AL83" s="8"/>
-      <c r="AM83" s="8"/>
+      <c r="AK83" s="11"/>
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="9"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="11"/>
       <c r="AP83" s="42"/>
       <c r="AQ83" s="46"/>
-      <c r="AR83" s="11"/>
-      <c r="AS83" s="11"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
       <c r="AV83" s="76"/>
       <c r="AW83" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B84" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="C84" s="108" t="s">
-        <v>351</v>
-      </c>
-      <c r="D84" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="115"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="115"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
-      <c r="M84" s="116"/>
-      <c r="N84" s="97"/>
-      <c r="O84" s="98" t="s">
-        <v>353</v>
-      </c>
-      <c r="P84" s="98" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="99">
-        <v>2</v>
-      </c>
+      <c r="B84" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="124"/>
+      <c r="J84" s="124"/>
+      <c r="K84" s="124"/>
+      <c r="L84" s="124"/>
+      <c r="M84" s="125"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="P84" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="84"/>
       <c r="S84" s="27"/>
       <c r="T84" s="11"/>
       <c r="U84" s="45"/>
@@ -10654,14 +11052,14 @@
       <c r="AI84" s="42"/>
       <c r="AJ84" s="46"/>
       <c r="AK84" s="7"/>
-      <c r="AL84" s="24"/>
-      <c r="AM84" s="24"/>
-      <c r="AN84" s="11"/>
-      <c r="AO84" s="11"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="9"/>
+      <c r="AO84" s="9"/>
       <c r="AP84" s="42"/>
       <c r="AQ84" s="46"/>
-      <c r="AR84" s="9"/>
-      <c r="AS84" s="9"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="7"/>
       <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
       <c r="AV84" s="76"/>
@@ -10670,27 +11068,33 @@
       </c>
     </row>
     <row r="85" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B85" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="C85" s="119" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
-      <c r="G85" s="120"/>
-      <c r="H85" s="120"/>
-      <c r="I85" s="120"/>
-      <c r="J85" s="120"/>
-      <c r="K85" s="120"/>
-      <c r="L85" s="120"/>
-      <c r="M85" s="121"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="105"/>
-      <c r="R85" s="85"/>
+      <c r="B85" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+      <c r="J85" s="124"/>
+      <c r="K85" s="124"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="125"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="P85" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="84"/>
       <c r="S85" s="27"/>
       <c r="T85" s="11"/>
       <c r="U85" s="45"/>
@@ -10710,49 +11114,49 @@
       <c r="AI85" s="42"/>
       <c r="AJ85" s="46"/>
       <c r="AK85" s="7"/>
-      <c r="AL85" s="24"/>
-      <c r="AM85" s="24"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="11"/>
       <c r="AN85" s="11"/>
       <c r="AO85" s="11"/>
       <c r="AP85" s="42"/>
       <c r="AQ85" s="46"/>
-      <c r="AR85" s="11"/>
-      <c r="AS85" s="11"/>
+      <c r="AR85" s="9"/>
+      <c r="AS85" s="9"/>
       <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
       <c r="AV85" s="76"/>
-      <c r="AW85" s="111"/>
+      <c r="AW85" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B86" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="C86" s="109" t="s">
-        <v>359</v>
-      </c>
-      <c r="D86" s="115" t="s">
-        <v>360</v>
-      </c>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="115"/>
-      <c r="L86" s="115"/>
-      <c r="M86" s="116"/>
-      <c r="N86" s="97"/>
-      <c r="O86" s="98" t="s">
-        <v>362</v>
-      </c>
-      <c r="P86" s="98" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q86" s="106"/>
-      <c r="R86" s="99">
-        <v>1</v>
-      </c>
+      <c r="B86" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="124"/>
+      <c r="K86" s="124"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="125"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="P86" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="84"/>
       <c r="S86" s="27"/>
       <c r="T86" s="11"/>
       <c r="U86" s="45"/>
@@ -10772,51 +11176,49 @@
       <c r="AI86" s="42"/>
       <c r="AJ86" s="46"/>
       <c r="AK86" s="7"/>
-      <c r="AL86" s="24"/>
-      <c r="AM86" s="24"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="11"/>
       <c r="AN86" s="11"/>
       <c r="AO86" s="11"/>
       <c r="AP86" s="42"/>
       <c r="AQ86" s="46"/>
-      <c r="AR86" s="11"/>
-      <c r="AS86" s="11"/>
-      <c r="AT86" s="10"/>
+      <c r="AR86" s="22"/>
+      <c r="AS86" s="9"/>
+      <c r="AT86" s="7"/>
       <c r="AU86" s="7"/>
       <c r="AV86" s="76"/>
       <c r="AW86" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B87" s="96" t="s">
-        <v>358</v>
-      </c>
-      <c r="C87" s="107" t="s">
-        <v>340</v>
-      </c>
-      <c r="D87" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="E87" s="115"/>
-      <c r="F87" s="115"/>
-      <c r="G87" s="115"/>
-      <c r="H87" s="115"/>
-      <c r="I87" s="115"/>
-      <c r="J87" s="115"/>
-      <c r="K87" s="115"/>
-      <c r="L87" s="115"/>
-      <c r="M87" s="116"/>
-      <c r="N87" s="97"/>
-      <c r="O87" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="P87" s="98" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q87" s="106"/>
-      <c r="R87" s="99">
-        <v>1</v>
-      </c>
+      <c r="B87" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="124"/>
+      <c r="K87" s="124"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="125"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="P87" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="84"/>
       <c r="S87" s="27"/>
       <c r="T87" s="11"/>
       <c r="U87" s="45"/>
@@ -10836,54 +11238,54 @@
       <c r="AI87" s="42"/>
       <c r="AJ87" s="46"/>
       <c r="AK87" s="7"/>
-      <c r="AL87" s="24"/>
-      <c r="AM87" s="24"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="11"/>
       <c r="AN87" s="11"/>
       <c r="AO87" s="11"/>
       <c r="AP87" s="42"/>
       <c r="AQ87" s="46"/>
-      <c r="AR87" s="11"/>
-      <c r="AS87" s="11"/>
-      <c r="AT87" s="11"/>
-      <c r="AU87" s="8"/>
-      <c r="AV87" s="101"/>
+      <c r="AR87" s="9"/>
+      <c r="AS87" s="9"/>
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="76"/>
       <c r="AW87" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B88" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="120"/>
-      <c r="E88" s="120"/>
-      <c r="F88" s="120"/>
-      <c r="G88" s="120"/>
-      <c r="H88" s="120"/>
-      <c r="I88" s="120"/>
-      <c r="J88" s="120"/>
-      <c r="K88" s="120"/>
-      <c r="L88" s="120"/>
-      <c r="M88" s="121"/>
+        <v>333</v>
+      </c>
+      <c r="C88" s="121" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
+      <c r="G88" s="122"/>
+      <c r="H88" s="122"/>
+      <c r="I88" s="122"/>
+      <c r="J88" s="122"/>
+      <c r="K88" s="122"/>
+      <c r="L88" s="122"/>
+      <c r="M88" s="123"/>
       <c r="N88" s="38"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41"/>
-      <c r="Q88" s="38"/>
+      <c r="Q88" s="105"/>
       <c r="R88" s="85"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="42"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="49"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
       <c r="AB88" s="42"/>
-      <c r="AC88" s="46"/>
+      <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
       <c r="AE88" s="7"/>
       <c r="AF88" s="7"/>
@@ -10893,13 +11295,13 @@
       <c r="AJ88" s="46"/>
       <c r="AK88" s="7"/>
       <c r="AL88" s="7"/>
-      <c r="AM88" s="7"/>
-      <c r="AN88" s="7"/>
-      <c r="AO88" s="7"/>
+      <c r="AM88" s="11"/>
+      <c r="AN88" s="11"/>
+      <c r="AO88" s="11"/>
       <c r="AP88" s="42"/>
       <c r="AQ88" s="46"/>
-      <c r="AR88" s="7"/>
-      <c r="AS88" s="7"/>
+      <c r="AR88" s="11"/>
+      <c r="AS88" s="11"/>
       <c r="AT88" s="7"/>
       <c r="AU88" s="7"/>
       <c r="AV88" s="76"/>
@@ -10907,47 +11309,47 @@
     </row>
     <row r="89" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B89" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" s="100" t="s">
-        <v>235</v>
-      </c>
-      <c r="D89" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="E89" s="130"/>
-      <c r="F89" s="130"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="130"/>
-      <c r="L89" s="130"/>
-      <c r="M89" s="131"/>
+        <v>335</v>
+      </c>
+      <c r="C89" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" s="117"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="117"/>
+      <c r="L89" s="117"/>
+      <c r="M89" s="118"/>
       <c r="N89" s="97" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="O89" s="98" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="P89" s="98" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q89" s="97"/>
+        <v>340</v>
+      </c>
+      <c r="Q89" s="106"/>
       <c r="R89" s="99">
-        <v>1</v>
-      </c>
-      <c r="S89" s="25"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="42"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="S89" s="27"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="49"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="7"/>
       <c r="AB89" s="42"/>
-      <c r="AC89" s="46"/>
+      <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
@@ -10955,61 +11357,65 @@
       <c r="AH89" s="7"/>
       <c r="AI89" s="42"/>
       <c r="AJ89" s="46"/>
-      <c r="AK89" s="7"/>
-      <c r="AL89" s="7"/>
-      <c r="AM89" s="7"/>
-      <c r="AN89" s="7"/>
-      <c r="AO89" s="7"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="11"/>
+      <c r="AN89" s="11"/>
+      <c r="AO89" s="11"/>
       <c r="AP89" s="42"/>
       <c r="AQ89" s="46"/>
-      <c r="AR89" s="8"/>
-      <c r="AS89" s="8"/>
-      <c r="AT89" s="8"/>
-      <c r="AU89" s="8"/>
-      <c r="AV89" s="101"/>
+      <c r="AR89" s="11"/>
+      <c r="AS89" s="11"/>
+      <c r="AT89" s="7"/>
+      <c r="AU89" s="7"/>
+      <c r="AV89" s="76"/>
       <c r="AW89" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B90" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="122" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="122"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="122"/>
-      <c r="L90" s="122"/>
-      <c r="M90" s="123"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="P90" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="84"/>
-      <c r="S90" s="25"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="42"/>
-      <c r="V90" s="46"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
+      <c r="B90" s="96" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" s="107" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="117"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="117"/>
+      <c r="L90" s="117"/>
+      <c r="M90" s="118"/>
+      <c r="N90" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="O90" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="P90" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q90" s="106"/>
+      <c r="R90" s="99">
+        <v>2</v>
+      </c>
+      <c r="S90" s="27"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
       <c r="AB90" s="42"/>
-      <c r="AC90" s="46"/>
+      <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
       <c r="AE90" s="7"/>
       <c r="AF90" s="7"/>
@@ -11018,60 +11424,62 @@
       <c r="AI90" s="42"/>
       <c r="AJ90" s="46"/>
       <c r="AK90" s="7"/>
-      <c r="AL90" s="7"/>
-      <c r="AM90" s="7"/>
-      <c r="AN90" s="7"/>
-      <c r="AO90" s="7"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="11"/>
+      <c r="AO90" s="11"/>
       <c r="AP90" s="42"/>
       <c r="AQ90" s="46"/>
-      <c r="AR90" s="8"/>
-      <c r="AS90" s="7"/>
+      <c r="AR90" s="11"/>
+      <c r="AS90" s="11"/>
       <c r="AT90" s="7"/>
       <c r="AU90" s="7"/>
       <c r="AV90" s="76"/>
       <c r="AW90" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B91" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91" s="122" t="s">
-        <v>211</v>
-      </c>
-      <c r="E91" s="122"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="122"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="122"/>
-      <c r="L91" s="122"/>
-      <c r="M91" s="123"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="P91" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="84"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="42"/>
-      <c r="V91" s="46"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="C91" s="108" t="s">
+        <v>347</v>
+      </c>
+      <c r="D91" s="117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
+      <c r="I91" s="117"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="117"/>
+      <c r="L91" s="117"/>
+      <c r="M91" s="118"/>
+      <c r="N91" s="97"/>
+      <c r="O91" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="P91" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q91" s="106"/>
+      <c r="R91" s="99">
+        <v>2</v>
+      </c>
+      <c r="S91" s="27"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="49"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
       <c r="AB91" s="42"/>
-      <c r="AC91" s="46"/>
+      <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
@@ -11080,31 +11488,29 @@
       <c r="AI91" s="42"/>
       <c r="AJ91" s="46"/>
       <c r="AK91" s="7"/>
-      <c r="AL91" s="7"/>
-      <c r="AM91" s="7"/>
-      <c r="AN91" s="7"/>
-      <c r="AO91" s="7"/>
+      <c r="AL91" s="24"/>
+      <c r="AM91" s="24"/>
+      <c r="AN91" s="11"/>
+      <c r="AO91" s="11"/>
       <c r="AP91" s="42"/>
       <c r="AQ91" s="46"/>
-      <c r="AR91" s="8"/>
-      <c r="AS91" s="7"/>
+      <c r="AR91" s="9"/>
+      <c r="AS91" s="9"/>
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
       <c r="AV91" s="76"/>
       <c r="AW91" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B92" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="122" t="s">
-        <v>213</v>
-      </c>
+      <c r="B92" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C92" s="121" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="122"/>
       <c r="E92" s="122"/>
       <c r="F92" s="122"/>
       <c r="G92" s="122"/>
@@ -11114,26 +11520,22 @@
       <c r="K92" s="122"/>
       <c r="L92" s="122"/>
       <c r="M92" s="123"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="P92" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="84"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="42"/>
-      <c r="V92" s="46"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="105"/>
+      <c r="R92" s="85"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="49"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
       <c r="AB92" s="42"/>
-      <c r="AC92" s="46"/>
+      <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
@@ -11142,60 +11544,60 @@
       <c r="AI92" s="42"/>
       <c r="AJ92" s="46"/>
       <c r="AK92" s="7"/>
-      <c r="AL92" s="7"/>
-      <c r="AM92" s="7"/>
-      <c r="AN92" s="7"/>
-      <c r="AO92" s="7"/>
+      <c r="AL92" s="24"/>
+      <c r="AM92" s="24"/>
+      <c r="AN92" s="11"/>
+      <c r="AO92" s="11"/>
       <c r="AP92" s="42"/>
       <c r="AQ92" s="46"/>
-      <c r="AR92" s="7"/>
-      <c r="AS92" s="8"/>
-      <c r="AT92" s="8"/>
+      <c r="AR92" s="11"/>
+      <c r="AS92" s="11"/>
+      <c r="AT92" s="7"/>
       <c r="AU92" s="7"/>
       <c r="AV92" s="76"/>
-      <c r="AW92" s="111">
-        <v>2</v>
-      </c>
+      <c r="AW92" s="111"/>
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D93" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" s="122"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="122"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="122"/>
-      <c r="L93" s="122"/>
-      <c r="M93" s="123"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="P93" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="84"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="42"/>
-      <c r="V93" s="46"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
+        <v>353</v>
+      </c>
+      <c r="C93" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" s="117" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="117"/>
+      <c r="I93" s="117"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="117"/>
+      <c r="L93" s="117"/>
+      <c r="M93" s="118"/>
+      <c r="N93" s="97"/>
+      <c r="O93" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="P93" s="98" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q93" s="106"/>
+      <c r="R93" s="99">
+        <v>1</v>
+      </c>
+      <c r="S93" s="27"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="49"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
       <c r="AB93" s="42"/>
-      <c r="AC93" s="46"/>
+      <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
@@ -11204,193 +11606,632 @@
       <c r="AI93" s="42"/>
       <c r="AJ93" s="46"/>
       <c r="AK93" s="7"/>
-      <c r="AL93" s="7"/>
-      <c r="AM93" s="7"/>
-      <c r="AN93" s="7"/>
-      <c r="AO93" s="7"/>
+      <c r="AL93" s="24"/>
+      <c r="AM93" s="24"/>
+      <c r="AN93" s="11"/>
+      <c r="AO93" s="11"/>
       <c r="AP93" s="42"/>
       <c r="AQ93" s="46"/>
-      <c r="AR93" s="7"/>
-      <c r="AS93" s="7"/>
-      <c r="AT93" s="8"/>
+      <c r="AR93" s="11"/>
+      <c r="AS93" s="11"/>
+      <c r="AT93" s="10"/>
       <c r="AU93" s="7"/>
       <c r="AV93" s="76"/>
       <c r="AW93" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="95" t="s">
+    <row r="94" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B94" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="C94" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94" s="117" t="s">
+        <v>357</v>
+      </c>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="117"/>
+      <c r="I94" s="117"/>
+      <c r="J94" s="117"/>
+      <c r="K94" s="117"/>
+      <c r="L94" s="117"/>
+      <c r="M94" s="118"/>
+      <c r="N94" s="97"/>
+      <c r="O94" s="98" t="s">
+        <v>360</v>
+      </c>
+      <c r="P94" s="98" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q94" s="106"/>
+      <c r="R94" s="99">
+        <v>1</v>
+      </c>
+      <c r="S94" s="27"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="49"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="42"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7"/>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="42"/>
+      <c r="AJ94" s="46"/>
+      <c r="AK94" s="7"/>
+      <c r="AL94" s="24"/>
+      <c r="AM94" s="24"/>
+      <c r="AN94" s="11"/>
+      <c r="AO94" s="11"/>
+      <c r="AP94" s="42"/>
+      <c r="AQ94" s="46"/>
+      <c r="AR94" s="11"/>
+      <c r="AS94" s="11"/>
+      <c r="AT94" s="11"/>
+      <c r="AU94" s="8"/>
+      <c r="AV94" s="101"/>
+      <c r="AW94" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B95" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="122"/>
+      <c r="E95" s="122"/>
+      <c r="F95" s="122"/>
+      <c r="G95" s="122"/>
+      <c r="H95" s="122"/>
+      <c r="I95" s="122"/>
+      <c r="J95" s="122"/>
+      <c r="K95" s="122"/>
+      <c r="L95" s="122"/>
+      <c r="M95" s="123"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="85"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="42"/>
+      <c r="AC95" s="46"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="7"/>
+      <c r="AH95" s="7"/>
+      <c r="AI95" s="42"/>
+      <c r="AJ95" s="46"/>
+      <c r="AK95" s="7"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+      <c r="AO95" s="7"/>
+      <c r="AP95" s="42"/>
+      <c r="AQ95" s="46"/>
+      <c r="AR95" s="7"/>
+      <c r="AS95" s="7"/>
+      <c r="AT95" s="7"/>
+      <c r="AU95" s="7"/>
+      <c r="AV95" s="76"/>
+      <c r="AW95" s="111"/>
+    </row>
+    <row r="96" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B96" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="114" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="114"/>
+      <c r="J96" s="114"/>
+      <c r="K96" s="114"/>
+      <c r="L96" s="114"/>
+      <c r="M96" s="115"/>
+      <c r="N96" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="O96" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="P96" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q96" s="97"/>
+      <c r="R96" s="99">
+        <v>1</v>
+      </c>
+      <c r="S96" s="25"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="46"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="42"/>
+      <c r="AJ96" s="46"/>
+      <c r="AK96" s="7"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="42"/>
+      <c r="AQ96" s="46"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="101"/>
+      <c r="AW96" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B97" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="124"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="124"/>
+      <c r="J97" s="124"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="125"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="P97" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="84"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="42"/>
+      <c r="AC97" s="46"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="42"/>
+      <c r="AJ97" s="46"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="42"/>
+      <c r="AQ97" s="46"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="7"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="76"/>
+      <c r="AW97" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B98" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="124"/>
+      <c r="F98" s="124"/>
+      <c r="G98" s="124"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="124"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="124"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="125"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="P98" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="84"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="42"/>
+      <c r="AC98" s="46"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="7"/>
+      <c r="AI98" s="42"/>
+      <c r="AJ98" s="46"/>
+      <c r="AK98" s="7"/>
+      <c r="AL98" s="7"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="7"/>
+      <c r="AO98" s="7"/>
+      <c r="AP98" s="42"/>
+      <c r="AQ98" s="46"/>
+      <c r="AR98" s="8"/>
+      <c r="AS98" s="7"/>
+      <c r="AT98" s="7"/>
+      <c r="AU98" s="7"/>
+      <c r="AV98" s="76"/>
+      <c r="AW98" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B99" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="124"/>
+      <c r="J99" s="124"/>
+      <c r="K99" s="124"/>
+      <c r="L99" s="124"/>
+      <c r="M99" s="125"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="P99" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="84"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="42"/>
+      <c r="AC99" s="46"/>
+      <c r="AD99" s="7"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="7"/>
+      <c r="AG99" s="7"/>
+      <c r="AH99" s="7"/>
+      <c r="AI99" s="42"/>
+      <c r="AJ99" s="46"/>
+      <c r="AK99" s="7"/>
+      <c r="AL99" s="7"/>
+      <c r="AM99" s="7"/>
+      <c r="AN99" s="7"/>
+      <c r="AO99" s="7"/>
+      <c r="AP99" s="42"/>
+      <c r="AQ99" s="46"/>
+      <c r="AR99" s="7"/>
+      <c r="AS99" s="8"/>
+      <c r="AT99" s="8"/>
+      <c r="AU99" s="7"/>
+      <c r="AV99" s="76"/>
+      <c r="AW99" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B100" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="124"/>
+      <c r="F100" s="124"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="124"/>
+      <c r="J100" s="124"/>
+      <c r="K100" s="124"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="125"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="P100" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="84"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="42"/>
+      <c r="AC100" s="46"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="42"/>
+      <c r="AJ100" s="46"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="42"/>
+      <c r="AQ100" s="46"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="8"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="76"/>
+      <c r="AW100" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C94" s="87" t="s">
+      <c r="C101" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D94" s="143" t="s">
-        <v>216</v>
-      </c>
-      <c r="E94" s="143"/>
-      <c r="F94" s="143"/>
-      <c r="G94" s="143"/>
-      <c r="H94" s="143"/>
-      <c r="I94" s="143"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="143"/>
-      <c r="L94" s="143"/>
-      <c r="M94" s="144"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="P94" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q94" s="67"/>
-      <c r="R94" s="88"/>
-      <c r="S94" s="69"/>
-      <c r="T94" s="70"/>
-      <c r="U94" s="71"/>
-      <c r="V94" s="72"/>
-      <c r="W94" s="70"/>
-      <c r="X94" s="70"/>
-      <c r="Y94" s="70"/>
-      <c r="Z94" s="70"/>
-      <c r="AA94" s="70"/>
-      <c r="AB94" s="71"/>
-      <c r="AC94" s="72"/>
-      <c r="AD94" s="70"/>
-      <c r="AE94" s="70"/>
-      <c r="AF94" s="70"/>
-      <c r="AG94" s="70"/>
-      <c r="AH94" s="70"/>
-      <c r="AI94" s="71"/>
-      <c r="AJ94" s="72"/>
-      <c r="AK94" s="70"/>
-      <c r="AL94" s="70"/>
-      <c r="AM94" s="70"/>
-      <c r="AN94" s="70"/>
-      <c r="AO94" s="70"/>
-      <c r="AP94" s="71"/>
-      <c r="AQ94" s="72"/>
-      <c r="AR94" s="70"/>
-      <c r="AS94" s="70"/>
-      <c r="AT94" s="70"/>
-      <c r="AU94" s="103"/>
-      <c r="AV94" s="77"/>
-      <c r="AW94" s="112">
+      <c r="E101" s="143"/>
+      <c r="F101" s="143"/>
+      <c r="G101" s="143"/>
+      <c r="H101" s="143"/>
+      <c r="I101" s="143"/>
+      <c r="J101" s="143"/>
+      <c r="K101" s="143"/>
+      <c r="L101" s="143"/>
+      <c r="M101" s="144"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="P101" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="88"/>
+      <c r="S101" s="69"/>
+      <c r="T101" s="70"/>
+      <c r="U101" s="71"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="70"/>
+      <c r="X101" s="70"/>
+      <c r="Y101" s="70"/>
+      <c r="Z101" s="70"/>
+      <c r="AA101" s="70"/>
+      <c r="AB101" s="71"/>
+      <c r="AC101" s="72"/>
+      <c r="AD101" s="70"/>
+      <c r="AE101" s="70"/>
+      <c r="AF101" s="70"/>
+      <c r="AG101" s="70"/>
+      <c r="AH101" s="70"/>
+      <c r="AI101" s="71"/>
+      <c r="AJ101" s="72"/>
+      <c r="AK101" s="70"/>
+      <c r="AL101" s="70"/>
+      <c r="AM101" s="70"/>
+      <c r="AN101" s="70"/>
+      <c r="AO101" s="70"/>
+      <c r="AP101" s="71"/>
+      <c r="AQ101" s="72"/>
+      <c r="AR101" s="70"/>
+      <c r="AS101" s="70"/>
+      <c r="AT101" s="70"/>
+      <c r="AU101" s="103"/>
+      <c r="AV101" s="77"/>
+      <c r="AW101" s="112">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="109">
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="C95:M95"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D87:M87"/>
     <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D70:M70"/>
     <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="C67:M67"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="C57:M57"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="C88:M88"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D59:M59"/>
     <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D71:M71"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D29:M29"/>
     <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D25:M25"/>
     <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D18:M18"/>
     <mergeCell ref="D19:M19"/>
     <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D24:M24"/>
     <mergeCell ref="D11:M11"/>
     <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D26:M26"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D16:M16"/>
     <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D8:M8"/>
     <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D21:M21"/>
     <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D34:M34"/>
     <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D53:M53"/>
     <mergeCell ref="AY2:AY3"/>
     <mergeCell ref="AZ2:AZ3"/>
     <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D94:M94"/>
     <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="C81:M81"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="C85:M85"/>
-    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="C88:M88"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="C92:M92"/>
+    <mergeCell ref="D32:M32"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D63:M63"/>
     <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
     <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D42:M42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B17 B27 P24:P26 B47 B67 B88 B7 O15:P16 O32 P28:P39 O38:O44 O53 O55:O56 O59:O60 O62:O65 O69:O72 O77:P80 O89:P94 O66:P66 P58:P65 P49:P56 O50 O76 O45:P46 P68:P74 P11:P14 O14 B81 O82:P84 B85 O86:P87 P40:P44 P75:P76" numberStoredAsText="1"/>
+    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B95 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O96:P101 O71:P71 P65:P70 P53:P60 O54 O81:O83 O46:P47 P11:P15 O14:O15 B88 O89:P91 B92 O93:P94 P29:P45 P73:P83 P62:P64 O48:P50" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="408">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1378,6 +1378,179 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 데이트 시나리오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>AR공간내 오브젝트 가시거리 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>기업미팅 대비 질문 리스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMesh 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>최재연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>8-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1386,15 +1559,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 QA</t>
+    <t>8-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 TC 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1402,176 +1587,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 데이트 시나리오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-14</t>
-  </si>
-  <si>
-    <t>AR공간내 오브젝트 가시거리 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-21</t>
-  </si>
-  <si>
-    <t>기업미팅 대비 질문 리스트 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NavMesh 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-22</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-15</t>
-  </si>
-  <si>
-    <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2126,7 +2142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2469,12 +2485,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2493,73 +2578,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5642,11 +5661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA101"/>
+  <dimension ref="B1:BA102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5702,14 +5721,14 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="116" t="s">
-        <v>367</v>
-      </c>
-      <c r="AZ2" s="116" t="s">
-        <v>365</v>
-      </c>
-      <c r="BA2" s="116" t="s">
-        <v>366</v>
+      <c r="AY2" s="139" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ2" s="139" t="s">
+        <v>359</v>
+      </c>
+      <c r="BA2" s="139" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.3">
@@ -5726,14 +5745,14 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="116"/>
-      <c r="BA3" s="116"/>
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="139"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
-        <f>SUM(AW7:AW101)</f>
-        <v>152</v>
+        <f>SUM(AW7:AW102)</f>
+        <v>153</v>
       </c>
       <c r="AZ4" s="113">
         <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW29+AW30+AW31+AW32+AW33+AW37+AW38+AW41+AW43+AW44+AW45+AW47+AW52+AW53+AW62+AW63+AW66+AW68+AW78+AW80+AW81+AW70+AW73+AW46+AW77</f>
@@ -5741,29 +5760,29 @@
       </c>
       <c r="BA4" s="113">
         <f>AZ4/AY4*100</f>
-        <v>43.421052631578952</v>
+        <v>43.137254901960787</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="126" t="s">
+      <c r="C5" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="133" t="s">
@@ -5772,7 +5791,7 @@
       <c r="P5" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="126" t="s">
+      <c r="Q5" s="124" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="135" t="s">
@@ -5812,27 +5831,27 @@
       <c r="AT5" s="130"/>
       <c r="AU5" s="130"/>
       <c r="AV5" s="131"/>
-      <c r="AW5" s="119" t="s">
-        <v>368</v>
+      <c r="AW5" s="142" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="140"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
       <c r="O6" s="134"/>
       <c r="P6" s="134"/>
-      <c r="Q6" s="127"/>
+      <c r="Q6" s="125"/>
       <c r="R6" s="136"/>
       <c r="S6" s="73">
         <v>29</v>
@@ -5924,7 +5943,7 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="120"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
@@ -5987,18 +6006,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="129"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -6055,18 +6074,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="129"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -6123,18 +6142,18 @@
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="129"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="127"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -6191,18 +6210,18 @@
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="129"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -6259,18 +6278,18 @@
       <c r="C12" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="129"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
       <c r="N12" s="50" t="s">
         <v>224</v>
       </c>
@@ -6327,18 +6346,18 @@
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="129"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -6395,18 +6414,18 @@
       <c r="C14" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="129"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -6461,28 +6480,28 @@
         <v>237</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>389</v>
-      </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="129"/>
+        <v>370</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
       <c r="N15" s="50" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="81">
@@ -6529,18 +6548,18 @@
       <c r="C16" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="129"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="127"/>
       <c r="N16" s="50" t="s">
         <v>230</v>
       </c>
@@ -6590,23 +6609,23 @@
     </row>
     <row r="17" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="129"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
       <c r="N17" s="50" t="s">
         <v>238</v>
       </c>
@@ -6657,19 +6676,19 @@
       <c r="B18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="123"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="117"/>
       <c r="N18" s="13"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
@@ -6714,18 +6733,18 @@
       <c r="C19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="142"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="129"/>
       <c r="N19" s="14" t="s">
         <v>10</v>
       </c>
@@ -6782,18 +6801,18 @@
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="125"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
       <c r="N20" s="15" t="s">
         <v>32</v>
       </c>
@@ -6850,18 +6869,18 @@
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
       <c r="N21" s="15" t="s">
         <v>33</v>
       </c>
@@ -6918,18 +6937,18 @@
       <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="125"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
       <c r="N22" s="15" t="s">
         <v>34</v>
       </c>
@@ -6986,18 +7005,18 @@
       <c r="C23" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="125"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
       <c r="N23" s="15" t="s">
         <v>35</v>
       </c>
@@ -7054,18 +7073,18 @@
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="125"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
       <c r="N24" s="15" t="s">
         <v>37</v>
       </c>
@@ -7122,18 +7141,18 @@
       <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="125"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
       <c r="N25" s="15" t="s">
         <v>83</v>
       </c>
@@ -7190,18 +7209,18 @@
       <c r="C26" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
       <c r="N26" s="15" t="s">
         <v>140</v>
       </c>
@@ -7258,18 +7277,18 @@
       <c r="C27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="125"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="15" t="s">
         <v>154</v>
       </c>
@@ -7323,19 +7342,19 @@
       <c r="B28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="123"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
       <c r="N28" s="13"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -7380,18 +7399,18 @@
       <c r="C29" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="125"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
@@ -7448,18 +7467,18 @@
       <c r="C30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="125"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
       <c r="N30" s="15" t="s">
         <v>66</v>
       </c>
@@ -7516,18 +7535,18 @@
       <c r="C31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="125"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -7584,18 +7603,18 @@
       <c r="C32" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="124" t="s">
+      <c r="D32" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="125"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
       <c r="N32" s="15" t="s">
         <v>95</v>
       </c>
@@ -7652,18 +7671,18 @@
       <c r="C33" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="125"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="115"/>
       <c r="N33" s="15" t="s">
         <v>243</v>
       </c>
@@ -7720,18 +7739,18 @@
       <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="124" t="s">
+      <c r="D34" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="125"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
       <c r="N34" s="15" t="s">
         <v>99</v>
       </c>
@@ -7788,18 +7807,18 @@
       <c r="C35" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="124" t="s">
+      <c r="D35" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="125"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="115"/>
       <c r="N35" s="15" t="s">
         <v>104</v>
       </c>
@@ -7856,18 +7875,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="124" t="s">
+      <c r="D36" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="125"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="115"/>
       <c r="N36" s="15" t="s">
         <v>109</v>
       </c>
@@ -7922,18 +7941,18 @@
       <c r="C37" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="124" t="s">
+      <c r="D37" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="125"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="115"/>
       <c r="N37" s="15" t="s">
         <v>144</v>
       </c>
@@ -7990,18 +8009,18 @@
       <c r="C38" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="124" t="s">
+      <c r="D38" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="125"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="115"/>
       <c r="N38" s="15" t="s">
         <v>147</v>
       </c>
@@ -8058,18 +8077,18 @@
       <c r="C39" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="124" t="s">
+      <c r="D39" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="125"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="115"/>
       <c r="N39" s="15" t="s">
         <v>253</v>
       </c>
@@ -8126,18 +8145,18 @@
       <c r="C40" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="114" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="125"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="115"/>
       <c r="N40" s="15" t="s">
         <v>232</v>
       </c>
@@ -8145,7 +8164,7 @@
         <v>254</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="84">
@@ -8192,18 +8211,18 @@
       <c r="C41" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="125"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="115"/>
       <c r="N41" s="15" t="s">
         <v>247</v>
       </c>
@@ -8260,18 +8279,18 @@
       <c r="C42" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="124" t="s">
+      <c r="D42" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="125"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="115"/>
       <c r="N42" s="15" t="s">
         <v>232</v>
       </c>
@@ -8326,18 +8345,18 @@
       <c r="C43" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="124" t="s">
+      <c r="D43" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="125"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="115"/>
       <c r="N43" s="15" t="s">
         <v>259</v>
       </c>
@@ -8394,18 +8413,18 @@
       <c r="C44" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="124" t="s">
+      <c r="D44" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="125"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="115"/>
       <c r="N44" s="15" t="s">
         <v>264</v>
       </c>
@@ -8462,18 +8481,18 @@
       <c r="C45" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="124" t="s">
+      <c r="D45" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="125"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
       <c r="N45" s="15" t="s">
         <v>262</v>
       </c>
@@ -8530,18 +8549,18 @@
       <c r="C46" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="124" t="s">
-        <v>394</v>
-      </c>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="125"/>
+      <c r="D46" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="115"/>
       <c r="N46" s="15" t="s">
         <v>248</v>
       </c>
@@ -8598,18 +8617,18 @@
       <c r="C47" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="124" t="s">
+      <c r="D47" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="125"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="115"/>
       <c r="N47" s="15" t="s">
         <v>278</v>
       </c>
@@ -8660,31 +8679,31 @@
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C48" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>375</v>
+      </c>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="D48" s="124" t="s">
+      <c r="O48" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="P48" s="17" t="s">
         <v>381</v>
-      </c>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="P48" s="17" t="s">
-        <v>387</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="84">
@@ -8725,31 +8744,31 @@
     </row>
     <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>384</v>
-      </c>
-      <c r="D49" s="124" t="s">
-        <v>385</v>
-      </c>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="125"/>
+        <v>378</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>379</v>
+      </c>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="115"/>
       <c r="N49" s="15" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="84">
@@ -8790,31 +8809,31 @@
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="D50" s="124" t="s">
-        <v>395</v>
-      </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="125"/>
+        <v>387</v>
+      </c>
+      <c r="D50" s="114" t="s">
+        <v>389</v>
+      </c>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="115"/>
       <c r="N50" s="15" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="84">
@@ -8857,19 +8876,19 @@
       <c r="B51" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="122" t="s">
+      <c r="C51" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="123"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="117"/>
       <c r="N51" s="38"/>
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
@@ -8914,18 +8933,18 @@
       <c r="C52" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="115"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="119"/>
       <c r="N52" s="39" t="s">
         <v>64</v>
       </c>
@@ -8982,18 +9001,18 @@
       <c r="C53" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D53" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="115"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="119"/>
       <c r="N53" s="39" t="s">
         <v>169</v>
       </c>
@@ -9050,18 +9069,18 @@
       <c r="C54" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="D54" s="114" t="s">
+      <c r="D54" s="118" t="s">
         <v>310</v>
       </c>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="115"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="119"/>
       <c r="N54" s="39" t="s">
         <v>312</v>
       </c>
@@ -9118,18 +9137,18 @@
       <c r="C55" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="114" t="s">
+      <c r="D55" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="115"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="119"/>
       <c r="N55" s="39" t="s">
         <v>171</v>
       </c>
@@ -9186,18 +9205,18 @@
       <c r="C56" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="124" t="s">
+      <c r="D56" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="125"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="115"/>
       <c r="N56" s="15" t="s">
         <v>104</v>
       </c>
@@ -9254,18 +9273,18 @@
       <c r="C57" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="124" t="s">
+      <c r="D57" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="125"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="114"/>
+      <c r="L57" s="114"/>
+      <c r="M57" s="115"/>
       <c r="N57" s="15" t="s">
         <v>75</v>
       </c>
@@ -9320,18 +9339,18 @@
       <c r="C58" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="124" t="s">
+      <c r="D58" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="125"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="115"/>
       <c r="N58" s="15"/>
       <c r="O58" s="17" t="s">
         <v>288</v>
@@ -9384,18 +9403,18 @@
       <c r="C59" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="124" t="s">
+      <c r="D59" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="125"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="115"/>
       <c r="N59" s="15"/>
       <c r="O59" s="17" t="s">
         <v>290</v>
@@ -9448,18 +9467,18 @@
       <c r="C60" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="124" t="s">
+      <c r="D60" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="124"/>
-      <c r="J60" s="124"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="125"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="115"/>
       <c r="N60" s="15"/>
       <c r="O60" s="17" t="s">
         <v>290</v>
@@ -9509,19 +9528,19 @@
       <c r="B61" s="37">
         <v>5</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="123"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="117"/>
       <c r="N61" s="40"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41"/>
@@ -9566,18 +9585,18 @@
       <c r="C62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="124" t="s">
+      <c r="D62" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="125"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="115"/>
       <c r="N62" s="15" t="s">
         <v>59</v>
       </c>
@@ -9634,18 +9653,18 @@
       <c r="C63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="124" t="s">
+      <c r="D63" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="125"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="115"/>
       <c r="N63" s="15" t="s">
         <v>293</v>
       </c>
@@ -9702,18 +9721,18 @@
       <c r="C64" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="124" t="s">
-        <v>369</v>
-      </c>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="124"/>
-      <c r="M64" s="125"/>
+      <c r="D64" s="114" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="115"/>
       <c r="N64" s="15" t="s">
         <v>315</v>
       </c>
@@ -9766,28 +9785,28 @@
         <v>112</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D65" s="124" t="s">
-        <v>371</v>
-      </c>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="124"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="124"/>
-      <c r="M65" s="125"/>
+        <v>364</v>
+      </c>
+      <c r="D65" s="114" t="s">
+        <v>365</v>
+      </c>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="115"/>
       <c r="N65" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O65" s="17" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="84">
@@ -9834,18 +9853,18 @@
       <c r="C66" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="124" t="s">
+      <c r="D66" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="125"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="115"/>
       <c r="N66" s="15" t="s">
         <v>68</v>
       </c>
@@ -9902,18 +9921,18 @@
       <c r="C67" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="124" t="s">
+      <c r="D67" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="125"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="115"/>
       <c r="N67" s="15"/>
       <c r="O67" s="17" t="s">
         <v>239</v>
@@ -9964,18 +9983,18 @@
       <c r="C68" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="124" t="s">
+      <c r="D68" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="124"/>
-      <c r="K68" s="124"/>
-      <c r="L68" s="124"/>
-      <c r="M68" s="125"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="115"/>
       <c r="N68" s="15" t="s">
         <v>299</v>
       </c>
@@ -10032,20 +10051,20 @@
       <c r="C69" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="124" t="s">
+      <c r="D69" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="125"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="115"/>
       <c r="N69" s="15" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="O69" s="17" t="s">
         <v>221</v>
@@ -10098,18 +10117,18 @@
       <c r="C70" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="124" t="s">
+      <c r="D70" s="114" t="s">
         <v>327</v>
       </c>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="125"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="115"/>
       <c r="N70" s="15" t="s">
         <v>323</v>
       </c>
@@ -10161,23 +10180,23 @@
     </row>
     <row r="71" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C71" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="124" t="s">
+      <c r="D71" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="125"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="114"/>
+      <c r="L71" s="114"/>
+      <c r="M71" s="115"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>302</v>
@@ -10225,19 +10244,19 @@
       <c r="B72" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="122" t="s">
+      <c r="C72" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="122"/>
-      <c r="E72" s="122"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="122"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
-      <c r="L72" s="122"/>
-      <c r="M72" s="123"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="116"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="116"/>
+      <c r="K72" s="116"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="117"/>
       <c r="N72" s="38"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41"/>
@@ -10282,18 +10301,18 @@
       <c r="C73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="124" t="s">
+      <c r="D73" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="124"/>
-      <c r="M73" s="125"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
+      <c r="J73" s="114"/>
+      <c r="K73" s="114"/>
+      <c r="L73" s="114"/>
+      <c r="M73" s="115"/>
       <c r="N73" s="15" t="s">
         <v>85</v>
       </c>
@@ -10350,18 +10369,18 @@
       <c r="C74" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="124" t="s">
+      <c r="D74" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="125"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="115"/>
       <c r="N74" s="15" t="s">
         <v>316</v>
       </c>
@@ -10416,18 +10435,18 @@
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="124" t="s">
+      <c r="D75" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
-      <c r="M75" s="125"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="115"/>
       <c r="N75" s="15"/>
       <c r="O75" s="17" t="s">
         <v>221</v>
@@ -10478,18 +10497,18 @@
       <c r="C76" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="124" t="s">
+      <c r="D76" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="124"/>
-      <c r="M76" s="125"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="114"/>
+      <c r="L76" s="114"/>
+      <c r="M76" s="115"/>
       <c r="N76" s="15"/>
       <c r="O76" s="17" t="s">
         <v>300</v>
@@ -10540,18 +10559,18 @@
       <c r="C77" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="124" t="s">
+      <c r="D77" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="124"/>
-      <c r="M77" s="125"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="115"/>
       <c r="N77" s="15" t="s">
         <v>344</v>
       </c>
@@ -10608,18 +10627,18 @@
       <c r="C78" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D78" s="124" t="s">
+      <c r="D78" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="125"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="115"/>
       <c r="N78" s="15" t="s">
         <v>220</v>
       </c>
@@ -10676,18 +10695,18 @@
       <c r="C79" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="124" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="124"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="124"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="124"/>
-      <c r="M79" s="125"/>
+      <c r="D79" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="115"/>
       <c r="N79" s="15" t="s">
         <v>216</v>
       </c>
@@ -10695,7 +10714,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q79" s="19">
         <v>0.5</v>
@@ -10744,18 +10763,18 @@
       <c r="C80" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D80" s="124" t="s">
+      <c r="D80" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
-      <c r="L80" s="124"/>
-      <c r="M80" s="125"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="114"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="115"/>
       <c r="N80" s="15" t="s">
         <v>232</v>
       </c>
@@ -10812,18 +10831,18 @@
       <c r="C81" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="D81" s="124" t="s">
+      <c r="D81" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="124"/>
-      <c r="J81" s="124"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
-      <c r="M81" s="125"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="115"/>
       <c r="N81" s="15" t="s">
         <v>320</v>
       </c>
@@ -10878,28 +10897,28 @@
         <v>124</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="D82" s="124" t="s">
-        <v>377</v>
-      </c>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="124"/>
-      <c r="K82" s="124"/>
-      <c r="L82" s="124"/>
-      <c r="M82" s="125"/>
+        <v>370</v>
+      </c>
+      <c r="D82" s="114" t="s">
+        <v>371</v>
+      </c>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="115"/>
       <c r="N82" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O82" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="84">
@@ -10944,28 +10963,28 @@
         <v>125</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="D83" s="124" t="s">
-        <v>399</v>
-      </c>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
-      <c r="G83" s="124"/>
-      <c r="H83" s="124"/>
-      <c r="I83" s="124"/>
-      <c r="J83" s="124"/>
-      <c r="K83" s="124"/>
-      <c r="L83" s="124"/>
-      <c r="M83" s="125"/>
+        <v>392</v>
+      </c>
+      <c r="D83" s="114" t="s">
+        <v>393</v>
+      </c>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="115"/>
       <c r="N83" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="84">
@@ -11012,18 +11031,18 @@
       <c r="C84" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="124" t="s">
+      <c r="D84" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="124"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="124"/>
-      <c r="K84" s="124"/>
-      <c r="L84" s="124"/>
-      <c r="M84" s="125"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="115"/>
       <c r="N84" s="15"/>
       <c r="O84" s="17" t="s">
         <v>307</v>
@@ -11074,18 +11093,18 @@
       <c r="C85" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="124" t="s">
+      <c r="D85" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="124"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="124"/>
-      <c r="K85" s="124"/>
-      <c r="L85" s="124"/>
-      <c r="M85" s="125"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="115"/>
       <c r="N85" s="15"/>
       <c r="O85" s="17" t="s">
         <v>290</v>
@@ -11131,23 +11150,23 @@
     </row>
     <row r="86" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B86" s="36" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C86" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="124" t="s">
+      <c r="D86" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
-      <c r="J86" s="124"/>
-      <c r="K86" s="124"/>
-      <c r="L86" s="124"/>
-      <c r="M86" s="125"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="115"/>
       <c r="N86" s="15"/>
       <c r="O86" s="17" t="s">
         <v>290</v>
@@ -11193,23 +11212,23 @@
     </row>
     <row r="87" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B87" s="36" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C87" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="124" t="s">
+      <c r="D87" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="124"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="124"/>
-      <c r="K87" s="124"/>
-      <c r="L87" s="124"/>
-      <c r="M87" s="125"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="115"/>
       <c r="N87" s="15"/>
       <c r="O87" s="17" t="s">
         <v>292</v>
@@ -11257,19 +11276,19 @@
       <c r="B88" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="121" t="s">
+      <c r="C88" s="144" t="s">
         <v>334</v>
       </c>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="122"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="122"/>
-      <c r="L88" s="122"/>
-      <c r="M88" s="123"/>
+      <c r="D88" s="116"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="116"/>
+      <c r="H88" s="116"/>
+      <c r="I88" s="116"/>
+      <c r="J88" s="116"/>
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="117"/>
       <c r="N88" s="38"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41"/>
@@ -11314,18 +11333,18 @@
       <c r="C89" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="D89" s="117" t="s">
+      <c r="D89" s="140" t="s">
         <v>337</v>
       </c>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="117"/>
-      <c r="L89" s="117"/>
-      <c r="M89" s="118"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="140"/>
+      <c r="J89" s="140"/>
+      <c r="K89" s="140"/>
+      <c r="L89" s="140"/>
+      <c r="M89" s="141"/>
       <c r="N89" s="97" t="s">
         <v>338</v>
       </c>
@@ -11380,18 +11399,18 @@
       <c r="C90" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="D90" s="117" t="s">
+      <c r="D90" s="140" t="s">
         <v>342</v>
       </c>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="117"/>
-      <c r="L90" s="117"/>
-      <c r="M90" s="118"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="140"/>
+      <c r="K90" s="140"/>
+      <c r="L90" s="140"/>
+      <c r="M90" s="141"/>
       <c r="N90" s="97" t="s">
         <v>344</v>
       </c>
@@ -11446,18 +11465,18 @@
       <c r="C91" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="D91" s="117" t="s">
+      <c r="D91" s="140" t="s">
         <v>348</v>
       </c>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="117"/>
-      <c r="H91" s="117"/>
-      <c r="I91" s="117"/>
-      <c r="J91" s="117"/>
-      <c r="K91" s="117"/>
-      <c r="L91" s="117"/>
-      <c r="M91" s="118"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
+      <c r="H91" s="140"/>
+      <c r="I91" s="140"/>
+      <c r="J91" s="140"/>
+      <c r="K91" s="140"/>
+      <c r="L91" s="140"/>
+      <c r="M91" s="141"/>
       <c r="N91" s="97"/>
       <c r="O91" s="98" t="s">
         <v>349</v>
@@ -11507,19 +11526,19 @@
       <c r="B92" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C92" s="121" t="s">
+      <c r="C92" s="144" t="s">
         <v>352</v>
       </c>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="122"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="122"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="122"/>
-      <c r="L92" s="122"/>
-      <c r="M92" s="123"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="116"/>
+      <c r="I92" s="116"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="116"/>
+      <c r="M92" s="117"/>
       <c r="N92" s="38"/>
       <c r="O92" s="41"/>
       <c r="P92" s="41"/>
@@ -11559,29 +11578,29 @@
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="C93" s="109" t="s">
-        <v>355</v>
-      </c>
-      <c r="D93" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
-      <c r="G93" s="117"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="117"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="117"/>
-      <c r="M93" s="118"/>
+        <v>398</v>
+      </c>
+      <c r="C93" s="145" t="s">
+        <v>401</v>
+      </c>
+      <c r="D93" s="118" t="s">
+        <v>402</v>
+      </c>
+      <c r="E93" s="118"/>
+      <c r="F93" s="118"/>
+      <c r="G93" s="118"/>
+      <c r="H93" s="118"/>
+      <c r="I93" s="118"/>
+      <c r="J93" s="118"/>
+      <c r="K93" s="118"/>
+      <c r="L93" s="118"/>
+      <c r="M93" s="119"/>
       <c r="N93" s="97"/>
       <c r="O93" s="98" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="P93" s="98" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="Q93" s="106"/>
       <c r="R93" s="99">
@@ -11614,8 +11633,8 @@
       <c r="AQ93" s="46"/>
       <c r="AR93" s="11"/>
       <c r="AS93" s="11"/>
-      <c r="AT93" s="10"/>
-      <c r="AU93" s="7"/>
+      <c r="AT93" s="8"/>
+      <c r="AU93" s="8"/>
       <c r="AV93" s="76"/>
       <c r="AW93" s="111">
         <v>1</v>
@@ -11623,29 +11642,29 @@
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B94" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" s="140" t="s">
         <v>354</v>
       </c>
-      <c r="C94" s="107" t="s">
-        <v>336</v>
-      </c>
-      <c r="D94" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
-      <c r="G94" s="117"/>
-      <c r="H94" s="117"/>
-      <c r="I94" s="117"/>
-      <c r="J94" s="117"/>
-      <c r="K94" s="117"/>
-      <c r="L94" s="117"/>
-      <c r="M94" s="118"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="140"/>
+      <c r="H94" s="140"/>
+      <c r="I94" s="140"/>
+      <c r="J94" s="140"/>
+      <c r="K94" s="140"/>
+      <c r="L94" s="140"/>
+      <c r="M94" s="141"/>
       <c r="N94" s="97"/>
       <c r="O94" s="98" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="P94" s="98" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="Q94" s="106"/>
       <c r="R94" s="99">
@@ -11679,45 +11698,53 @@
       <c r="AR94" s="11"/>
       <c r="AS94" s="11"/>
       <c r="AT94" s="11"/>
-      <c r="AU94" s="8"/>
-      <c r="AV94" s="101"/>
+      <c r="AU94" s="7"/>
+      <c r="AV94" s="102"/>
       <c r="AW94" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B95" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="122"/>
-      <c r="H95" s="122"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="122"/>
-      <c r="L95" s="122"/>
-      <c r="M95" s="123"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="85"/>
-      <c r="S95" s="25"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="42"/>
-      <c r="V95" s="46"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
+      <c r="B95" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" s="140" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="140"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="140"/>
+      <c r="H95" s="140"/>
+      <c r="I95" s="140"/>
+      <c r="J95" s="140"/>
+      <c r="K95" s="140"/>
+      <c r="L95" s="140"/>
+      <c r="M95" s="141"/>
+      <c r="N95" s="97"/>
+      <c r="O95" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="P95" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q95" s="106"/>
+      <c r="R95" s="99">
+        <v>1</v>
+      </c>
+      <c r="S95" s="27"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="45"/>
+      <c r="V95" s="49"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
       <c r="AB95" s="42"/>
-      <c r="AC95" s="46"/>
+      <c r="AC95" s="7"/>
       <c r="AD95" s="7"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
@@ -11726,51 +11753,43 @@
       <c r="AI95" s="42"/>
       <c r="AJ95" s="46"/>
       <c r="AK95" s="7"/>
-      <c r="AL95" s="7"/>
-      <c r="AM95" s="7"/>
-      <c r="AN95" s="7"/>
-      <c r="AO95" s="7"/>
+      <c r="AL95" s="24"/>
+      <c r="AM95" s="24"/>
+      <c r="AN95" s="11"/>
+      <c r="AO95" s="11"/>
       <c r="AP95" s="42"/>
       <c r="AQ95" s="46"/>
-      <c r="AR95" s="7"/>
-      <c r="AS95" s="7"/>
-      <c r="AT95" s="7"/>
-      <c r="AU95" s="7"/>
+      <c r="AR95" s="11"/>
+      <c r="AS95" s="11"/>
+      <c r="AT95" s="11"/>
+      <c r="AU95" s="11"/>
       <c r="AV95" s="76"/>
-      <c r="AW95" s="111"/>
+      <c r="AW95" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B96" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="C96" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" s="114" t="s">
-        <v>272</v>
-      </c>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="114"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="115"/>
-      <c r="N96" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="O96" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="P96" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q96" s="97"/>
-      <c r="R96" s="99">
-        <v>1</v>
-      </c>
+      <c r="B96" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="116"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="116"/>
+      <c r="H96" s="116"/>
+      <c r="I96" s="116"/>
+      <c r="J96" s="116"/>
+      <c r="K96" s="116"/>
+      <c r="L96" s="116"/>
+      <c r="M96" s="117"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="85"/>
       <c r="S96" s="25"/>
       <c r="T96" s="7"/>
       <c r="U96" s="42"/>
@@ -11796,43 +11815,45 @@
       <c r="AO96" s="7"/>
       <c r="AP96" s="42"/>
       <c r="AQ96" s="46"/>
-      <c r="AR96" s="8"/>
-      <c r="AS96" s="8"/>
-      <c r="AT96" s="8"/>
-      <c r="AU96" s="8"/>
-      <c r="AV96" s="101"/>
-      <c r="AW96" s="111">
-        <v>2</v>
-      </c>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7"/>
+      <c r="AT96" s="7"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="76"/>
+      <c r="AW96" s="111"/>
     </row>
     <row r="97" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B97" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="124" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="124"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="124"/>
-      <c r="H97" s="124"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="124"/>
-      <c r="K97" s="124"/>
-      <c r="L97" s="124"/>
-      <c r="M97" s="125"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="P97" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="84"/>
+      <c r="B97" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="119"/>
+      <c r="N97" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="O97" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="P97" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="99">
+        <v>1</v>
+      </c>
       <c r="S97" s="25"/>
       <c r="T97" s="7"/>
       <c r="U97" s="42"/>
@@ -11859,36 +11880,36 @@
       <c r="AP97" s="42"/>
       <c r="AQ97" s="46"/>
       <c r="AR97" s="8"/>
-      <c r="AS97" s="7"/>
-      <c r="AT97" s="7"/>
-      <c r="AU97" s="7"/>
-      <c r="AV97" s="76"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="101"/>
       <c r="AW97" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B98" s="96" t="s">
-        <v>134</v>
+      <c r="B98" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D98" s="124" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="124"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="124"/>
-      <c r="H98" s="124"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
-      <c r="L98" s="124"/>
-      <c r="M98" s="125"/>
+        <v>208</v>
+      </c>
+      <c r="D98" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="114"/>
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="114"/>
+      <c r="J98" s="114"/>
+      <c r="K98" s="114"/>
+      <c r="L98" s="114"/>
+      <c r="M98" s="115"/>
       <c r="N98" s="15"/>
       <c r="O98" s="17" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="P98" s="17" t="s">
         <v>290</v>
@@ -11930,30 +11951,30 @@
       </c>
     </row>
     <row r="99" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B99" s="36" t="s">
-        <v>135</v>
+      <c r="B99" s="96" t="s">
+        <v>134</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" s="124" t="s">
-        <v>212</v>
-      </c>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="124"/>
-      <c r="H99" s="124"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="124"/>
-      <c r="K99" s="124"/>
-      <c r="L99" s="124"/>
-      <c r="M99" s="125"/>
+        <v>195</v>
+      </c>
+      <c r="D99" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="114"/>
+      <c r="F99" s="114"/>
+      <c r="G99" s="114"/>
+      <c r="H99" s="114"/>
+      <c r="I99" s="114"/>
+      <c r="J99" s="114"/>
+      <c r="K99" s="114"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="115"/>
       <c r="N99" s="15"/>
       <c r="O99" s="17" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="P99" s="17" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Q99" s="15"/>
       <c r="R99" s="84"/>
@@ -11982,40 +12003,40 @@
       <c r="AO99" s="7"/>
       <c r="AP99" s="42"/>
       <c r="AQ99" s="46"/>
-      <c r="AR99" s="7"/>
-      <c r="AS99" s="8"/>
-      <c r="AT99" s="8"/>
+      <c r="AR99" s="8"/>
+      <c r="AS99" s="7"/>
+      <c r="AT99" s="7"/>
       <c r="AU99" s="7"/>
       <c r="AV99" s="76"/>
       <c r="AW99" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B100" s="96" t="s">
-        <v>136</v>
+      <c r="B100" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="124" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="124"/>
-      <c r="H100" s="124"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="124"/>
-      <c r="K100" s="124"/>
-      <c r="L100" s="124"/>
-      <c r="M100" s="125"/>
+        <v>211</v>
+      </c>
+      <c r="D100" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" s="114"/>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114"/>
+      <c r="J100" s="114"/>
+      <c r="K100" s="114"/>
+      <c r="L100" s="114"/>
+      <c r="M100" s="115"/>
       <c r="N100" s="15"/>
       <c r="O100" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="P100" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="P100" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="Q100" s="15"/>
       <c r="R100" s="84"/>
@@ -12045,169 +12066,147 @@
       <c r="AP100" s="42"/>
       <c r="AQ100" s="46"/>
       <c r="AR100" s="7"/>
-      <c r="AS100" s="7"/>
+      <c r="AS100" s="8"/>
       <c r="AT100" s="8"/>
       <c r="AU100" s="7"/>
       <c r="AV100" s="76"/>
       <c r="AW100" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="95" t="s">
+    <row r="101" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B101" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" s="114"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114"/>
+      <c r="J101" s="114"/>
+      <c r="K101" s="114"/>
+      <c r="L101" s="114"/>
+      <c r="M101" s="115"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="P101" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="84"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="42"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="42"/>
+      <c r="AC101" s="46"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="7"/>
+      <c r="AH101" s="7"/>
+      <c r="AI101" s="42"/>
+      <c r="AJ101" s="46"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="7"/>
+      <c r="AN101" s="7"/>
+      <c r="AO101" s="7"/>
+      <c r="AP101" s="42"/>
+      <c r="AQ101" s="46"/>
+      <c r="AR101" s="7"/>
+      <c r="AS101" s="7"/>
+      <c r="AT101" s="8"/>
+      <c r="AU101" s="7"/>
+      <c r="AV101" s="76"/>
+      <c r="AW101" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="87" t="s">
+      <c r="C102" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="D101" s="143" t="s">
+      <c r="D102" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="E101" s="143"/>
-      <c r="F101" s="143"/>
-      <c r="G101" s="143"/>
-      <c r="H101" s="143"/>
-      <c r="I101" s="143"/>
-      <c r="J101" s="143"/>
-      <c r="K101" s="143"/>
-      <c r="L101" s="143"/>
-      <c r="M101" s="144"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="68" t="s">
+      <c r="E102" s="120"/>
+      <c r="F102" s="120"/>
+      <c r="G102" s="120"/>
+      <c r="H102" s="120"/>
+      <c r="I102" s="120"/>
+      <c r="J102" s="120"/>
+      <c r="K102" s="120"/>
+      <c r="L102" s="120"/>
+      <c r="M102" s="121"/>
+      <c r="N102" s="67"/>
+      <c r="O102" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="P101" s="68" t="s">
+      <c r="P102" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="Q101" s="67"/>
-      <c r="R101" s="88"/>
-      <c r="S101" s="69"/>
-      <c r="T101" s="70"/>
-      <c r="U101" s="71"/>
-      <c r="V101" s="72"/>
-      <c r="W101" s="70"/>
-      <c r="X101" s="70"/>
-      <c r="Y101" s="70"/>
-      <c r="Z101" s="70"/>
-      <c r="AA101" s="70"/>
-      <c r="AB101" s="71"/>
-      <c r="AC101" s="72"/>
-      <c r="AD101" s="70"/>
-      <c r="AE101" s="70"/>
-      <c r="AF101" s="70"/>
-      <c r="AG101" s="70"/>
-      <c r="AH101" s="70"/>
-      <c r="AI101" s="71"/>
-      <c r="AJ101" s="72"/>
-      <c r="AK101" s="70"/>
-      <c r="AL101" s="70"/>
-      <c r="AM101" s="70"/>
-      <c r="AN101" s="70"/>
-      <c r="AO101" s="70"/>
-      <c r="AP101" s="71"/>
-      <c r="AQ101" s="72"/>
-      <c r="AR101" s="70"/>
-      <c r="AS101" s="70"/>
-      <c r="AT101" s="70"/>
-      <c r="AU101" s="103"/>
-      <c r="AV101" s="77"/>
-      <c r="AW101" s="112">
+      <c r="Q102" s="67"/>
+      <c r="R102" s="88"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="70"/>
+      <c r="U102" s="71"/>
+      <c r="V102" s="72"/>
+      <c r="W102" s="70"/>
+      <c r="X102" s="70"/>
+      <c r="Y102" s="70"/>
+      <c r="Z102" s="70"/>
+      <c r="AA102" s="70"/>
+      <c r="AB102" s="71"/>
+      <c r="AC102" s="72"/>
+      <c r="AD102" s="70"/>
+      <c r="AE102" s="70"/>
+      <c r="AF102" s="70"/>
+      <c r="AG102" s="70"/>
+      <c r="AH102" s="70"/>
+      <c r="AI102" s="71"/>
+      <c r="AJ102" s="72"/>
+      <c r="AK102" s="70"/>
+      <c r="AL102" s="70"/>
+      <c r="AM102" s="70"/>
+      <c r="AN102" s="70"/>
+      <c r="AO102" s="70"/>
+      <c r="AP102" s="71"/>
+      <c r="AQ102" s="72"/>
+      <c r="AR102" s="70"/>
+      <c r="AS102" s="70"/>
+      <c r="AT102" s="70"/>
+      <c r="AU102" s="103"/>
+      <c r="AV102" s="77"/>
+      <c r="AW102" s="112">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="C72:M72"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D101:M101"/>
-    <mergeCell ref="C95:M95"/>
-    <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D100:M100"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D50:M50"/>
+  <mergeCells count="110">
+    <mergeCell ref="D93:M93"/>
     <mergeCell ref="D53:M53"/>
     <mergeCell ref="AY2:AY3"/>
     <mergeCell ref="AZ2:AZ3"/>
     <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D93:M93"/>
     <mergeCell ref="D94:M94"/>
+    <mergeCell ref="D95:M95"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="C88:M88"/>
     <mergeCell ref="D89:M89"/>
@@ -12226,12 +12225,97 @@
     <mergeCell ref="D46:M46"/>
     <mergeCell ref="D39:M39"/>
     <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D102:M102"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B95 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O96:P101 O71:P71 P65:P70 P53:P60 O54 O81:O83 O46:P47 P11:P15 O14:O15 B88 O89:P91 B92 O93:P94 P29:P45 P73:P83 P62:P64 O48:P50" numberStoredAsText="1"/>
+    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B96 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O97:P102 O71:P71 P65:P70 P53:P60 O54 O81:O83 O46:P47 P11:P15 O14:O15 B88 O89:P91 B92 P29:P45 P73:P83 P62:P64 O48:P50 O93:P95" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -2485,100 +2485,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5664,8 +5664,8 @@
   <dimension ref="B1:BA102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5721,13 +5721,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="139" t="s">
+      <c r="AY2" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="AZ2" s="139" t="s">
+      <c r="AZ2" s="117" t="s">
         <v>359</v>
       </c>
-      <c r="BA2" s="139" t="s">
+      <c r="BA2" s="117" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5745,9 +5745,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
+      <c r="AY3" s="117"/>
+      <c r="AZ3" s="117"/>
+      <c r="BA3" s="117"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
@@ -5764,95 +5764,95 @@
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="124" t="s">
+      <c r="C5" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124" t="s">
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="133" t="s">
+      <c r="P5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="124" t="s">
+      <c r="Q5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="135" t="s">
+      <c r="R5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="132" t="s">
+      <c r="S5" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130" t="s">
+      <c r="T5" s="131"/>
+      <c r="U5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="130"/>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="142" t="s">
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="131"/>
+      <c r="AN5" s="131"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="120" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="123"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="136"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="137"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -5943,25 +5943,25 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="143"/>
+      <c r="AW6" s="121"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -6006,18 +6006,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="130"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -6074,18 +6074,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="127"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -6142,18 +6142,18 @@
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="130"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -6210,18 +6210,18 @@
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="130"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -6278,18 +6278,18 @@
       <c r="C12" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="130"/>
       <c r="N12" s="50" t="s">
         <v>224</v>
       </c>
@@ -6346,18 +6346,18 @@
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="130"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -6414,18 +6414,18 @@
       <c r="C14" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="129" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="130"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -6482,18 +6482,18 @@
       <c r="C15" s="90" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="129" t="s">
         <v>383</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="130"/>
       <c r="N15" s="50" t="s">
         <v>384</v>
       </c>
@@ -6548,18 +6548,18 @@
       <c r="C16" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="127"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="130"/>
       <c r="N16" s="50" t="s">
         <v>230</v>
       </c>
@@ -6614,18 +6614,18 @@
       <c r="C17" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="130"/>
       <c r="N17" s="50" t="s">
         <v>238</v>
       </c>
@@ -6676,19 +6676,19 @@
       <c r="B18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="117"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="13"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
@@ -6733,18 +6733,18 @@
       <c r="C19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="143"/>
       <c r="N19" s="14" t="s">
         <v>10</v>
       </c>
@@ -6801,18 +6801,18 @@
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
       <c r="N20" s="15" t="s">
         <v>32</v>
       </c>
@@ -6869,18 +6869,18 @@
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
       <c r="N21" s="15" t="s">
         <v>33</v>
       </c>
@@ -6937,18 +6937,18 @@
       <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="126"/>
       <c r="N22" s="15" t="s">
         <v>34</v>
       </c>
@@ -7005,18 +7005,18 @@
       <c r="C23" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
       <c r="N23" s="15" t="s">
         <v>35</v>
       </c>
@@ -7073,18 +7073,18 @@
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
       <c r="N24" s="15" t="s">
         <v>37</v>
       </c>
@@ -7141,18 +7141,18 @@
       <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="15" t="s">
         <v>83</v>
       </c>
@@ -7209,18 +7209,18 @@
       <c r="C26" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
       <c r="N26" s="15" t="s">
         <v>140</v>
       </c>
@@ -7277,18 +7277,18 @@
       <c r="C27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
       <c r="N27" s="15" t="s">
         <v>154</v>
       </c>
@@ -7342,19 +7342,19 @@
       <c r="B28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="13"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -7399,18 +7399,18 @@
       <c r="C29" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
@@ -7467,18 +7467,18 @@
       <c r="C30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="115"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="15" t="s">
         <v>66</v>
       </c>
@@ -7535,18 +7535,18 @@
       <c r="C31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -7603,18 +7603,18 @@
       <c r="C32" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="15" t="s">
         <v>95</v>
       </c>
@@ -7671,18 +7671,18 @@
       <c r="C33" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="115"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="15" t="s">
         <v>243</v>
       </c>
@@ -7739,18 +7739,18 @@
       <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="126"/>
       <c r="N34" s="15" t="s">
         <v>99</v>
       </c>
@@ -7807,18 +7807,18 @@
       <c r="C35" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="115"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="126"/>
       <c r="N35" s="15" t="s">
         <v>104</v>
       </c>
@@ -7875,18 +7875,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="115"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="126"/>
       <c r="N36" s="15" t="s">
         <v>109</v>
       </c>
@@ -7941,18 +7941,18 @@
       <c r="C37" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="115"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="126"/>
       <c r="N37" s="15" t="s">
         <v>144</v>
       </c>
@@ -8009,18 +8009,18 @@
       <c r="C38" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="115"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="126"/>
       <c r="N38" s="15" t="s">
         <v>147</v>
       </c>
@@ -8077,18 +8077,18 @@
       <c r="C39" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="115"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="15" t="s">
         <v>253</v>
       </c>
@@ -8145,18 +8145,18 @@
       <c r="C40" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="115"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="126"/>
       <c r="N40" s="15" t="s">
         <v>232</v>
       </c>
@@ -8211,18 +8211,18 @@
       <c r="C41" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="115"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="126"/>
       <c r="N41" s="15" t="s">
         <v>247</v>
       </c>
@@ -8279,18 +8279,18 @@
       <c r="C42" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="115"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="126"/>
       <c r="N42" s="15" t="s">
         <v>232</v>
       </c>
@@ -8345,18 +8345,18 @@
       <c r="C43" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="115"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="126"/>
       <c r="N43" s="15" t="s">
         <v>259</v>
       </c>
@@ -8413,18 +8413,18 @@
       <c r="C44" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="115"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="126"/>
       <c r="N44" s="15" t="s">
         <v>264</v>
       </c>
@@ -8481,18 +8481,18 @@
       <c r="C45" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="125" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="126"/>
       <c r="N45" s="15" t="s">
         <v>262</v>
       </c>
@@ -8549,18 +8549,18 @@
       <c r="C46" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="115"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="126"/>
       <c r="N46" s="15" t="s">
         <v>248</v>
       </c>
@@ -8617,18 +8617,18 @@
       <c r="C47" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="114" t="s">
+      <c r="D47" s="125" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="115"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="126"/>
       <c r="N47" s="15" t="s">
         <v>278</v>
       </c>
@@ -8684,18 +8684,18 @@
       <c r="C48" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="D48" s="114" t="s">
+      <c r="D48" s="125" t="s">
         <v>375</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="115"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="126"/>
       <c r="N48" s="15" t="s">
         <v>376</v>
       </c>
@@ -8749,18 +8749,18 @@
       <c r="C49" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="D49" s="114" t="s">
+      <c r="D49" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="115"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="126"/>
       <c r="N49" s="15" t="s">
         <v>380</v>
       </c>
@@ -8814,18 +8814,18 @@
       <c r="C50" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="125" t="s">
         <v>389</v>
       </c>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="115"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="126"/>
       <c r="N50" s="15" t="s">
         <v>390</v>
       </c>
@@ -8876,19 +8876,19 @@
       <c r="B51" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="116" t="s">
+      <c r="C51" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="117"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="124"/>
       <c r="N51" s="38"/>
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
@@ -8933,18 +8933,18 @@
       <c r="C52" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="118" t="s">
+      <c r="D52" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="119"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="116"/>
       <c r="N52" s="39" t="s">
         <v>64</v>
       </c>
@@ -9001,18 +9001,18 @@
       <c r="C53" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="118" t="s">
+      <c r="D53" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="119"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="116"/>
       <c r="N53" s="39" t="s">
         <v>169</v>
       </c>
@@ -9069,18 +9069,18 @@
       <c r="C54" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="D54" s="118" t="s">
+      <c r="D54" s="115" t="s">
         <v>310</v>
       </c>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="119"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="116"/>
       <c r="N54" s="39" t="s">
         <v>312</v>
       </c>
@@ -9137,18 +9137,18 @@
       <c r="C55" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="118" t="s">
+      <c r="D55" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="119"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="116"/>
       <c r="N55" s="39" t="s">
         <v>171</v>
       </c>
@@ -9205,18 +9205,18 @@
       <c r="C56" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D56" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="115"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="126"/>
       <c r="N56" s="15" t="s">
         <v>104</v>
       </c>
@@ -9273,18 +9273,18 @@
       <c r="C57" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="115"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="126"/>
       <c r="N57" s="15" t="s">
         <v>75</v>
       </c>
@@ -9339,18 +9339,18 @@
       <c r="C58" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D58" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="115"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="126"/>
       <c r="N58" s="15"/>
       <c r="O58" s="17" t="s">
         <v>288</v>
@@ -9403,18 +9403,18 @@
       <c r="C59" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D59" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="115"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="125"/>
+      <c r="L59" s="125"/>
+      <c r="M59" s="126"/>
       <c r="N59" s="15"/>
       <c r="O59" s="17" t="s">
         <v>290</v>
@@ -9467,18 +9467,18 @@
       <c r="C60" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="115"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="125"/>
+      <c r="M60" s="126"/>
       <c r="N60" s="15"/>
       <c r="O60" s="17" t="s">
         <v>290</v>
@@ -9528,19 +9528,19 @@
       <c r="B61" s="37">
         <v>5</v>
       </c>
-      <c r="C61" s="116" t="s">
+      <c r="C61" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="116"/>
-      <c r="M61" s="117"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="123"/>
+      <c r="M61" s="124"/>
       <c r="N61" s="40"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41"/>
@@ -9585,18 +9585,18 @@
       <c r="C62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="115"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="125"/>
+      <c r="M62" s="126"/>
       <c r="N62" s="15" t="s">
         <v>59</v>
       </c>
@@ -9653,18 +9653,18 @@
       <c r="C63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="115"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="125"/>
+      <c r="L63" s="125"/>
+      <c r="M63" s="126"/>
       <c r="N63" s="15" t="s">
         <v>293</v>
       </c>
@@ -9721,18 +9721,18 @@
       <c r="C64" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="114" t="s">
+      <c r="D64" s="125" t="s">
         <v>363</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="114"/>
-      <c r="M64" s="115"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="125"/>
+      <c r="L64" s="125"/>
+      <c r="M64" s="126"/>
       <c r="N64" s="15" t="s">
         <v>315</v>
       </c>
@@ -9787,18 +9787,18 @@
       <c r="C65" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D65" s="114" t="s">
+      <c r="D65" s="125" t="s">
         <v>365</v>
       </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="115"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="125"/>
+      <c r="L65" s="125"/>
+      <c r="M65" s="126"/>
       <c r="N65" s="15" t="s">
         <v>366</v>
       </c>
@@ -9853,18 +9853,18 @@
       <c r="C66" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114"/>
-      <c r="L66" s="114"/>
-      <c r="M66" s="115"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="125"/>
+      <c r="L66" s="125"/>
+      <c r="M66" s="126"/>
       <c r="N66" s="15" t="s">
         <v>68</v>
       </c>
@@ -9921,18 +9921,18 @@
       <c r="C67" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="115"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="125"/>
+      <c r="M67" s="126"/>
       <c r="N67" s="15"/>
       <c r="O67" s="17" t="s">
         <v>239</v>
@@ -9983,18 +9983,18 @@
       <c r="C68" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="114" t="s">
+      <c r="D68" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
-      <c r="L68" s="114"/>
-      <c r="M68" s="115"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="125"/>
+      <c r="L68" s="125"/>
+      <c r="M68" s="126"/>
       <c r="N68" s="15" t="s">
         <v>299</v>
       </c>
@@ -10051,18 +10051,18 @@
       <c r="C69" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="114" t="s">
+      <c r="D69" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="115"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="125"/>
+      <c r="M69" s="126"/>
       <c r="N69" s="15" t="s">
         <v>376</v>
       </c>
@@ -10117,18 +10117,18 @@
       <c r="C70" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D70" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="114"/>
-      <c r="M70" s="115"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
+      <c r="M70" s="126"/>
       <c r="N70" s="15" t="s">
         <v>323</v>
       </c>
@@ -10185,18 +10185,18 @@
       <c r="C71" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="114"/>
-      <c r="J71" s="114"/>
-      <c r="K71" s="114"/>
-      <c r="L71" s="114"/>
-      <c r="M71" s="115"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="125"/>
+      <c r="M71" s="126"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>302</v>
@@ -10244,19 +10244,19 @@
       <c r="B72" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="116"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="116"/>
-      <c r="I72" s="116"/>
-      <c r="J72" s="116"/>
-      <c r="K72" s="116"/>
-      <c r="L72" s="116"/>
-      <c r="M72" s="117"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="124"/>
       <c r="N72" s="38"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41"/>
@@ -10301,18 +10301,18 @@
       <c r="C73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
-      <c r="J73" s="114"/>
-      <c r="K73" s="114"/>
-      <c r="L73" s="114"/>
-      <c r="M73" s="115"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="125"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="125"/>
+      <c r="M73" s="126"/>
       <c r="N73" s="15" t="s">
         <v>85</v>
       </c>
@@ -10369,18 +10369,18 @@
       <c r="C74" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="115"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="125"/>
+      <c r="J74" s="125"/>
+      <c r="K74" s="125"/>
+      <c r="L74" s="125"/>
+      <c r="M74" s="126"/>
       <c r="N74" s="15" t="s">
         <v>316</v>
       </c>
@@ -10435,18 +10435,18 @@
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="115"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="125"/>
+      <c r="M75" s="126"/>
       <c r="N75" s="15"/>
       <c r="O75" s="17" t="s">
         <v>221</v>
@@ -10497,18 +10497,18 @@
       <c r="C76" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="114" t="s">
+      <c r="D76" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="114"/>
-      <c r="L76" s="114"/>
-      <c r="M76" s="115"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="125"/>
+      <c r="K76" s="125"/>
+      <c r="L76" s="125"/>
+      <c r="M76" s="126"/>
       <c r="N76" s="15"/>
       <c r="O76" s="17" t="s">
         <v>300</v>
@@ -10559,18 +10559,18 @@
       <c r="C77" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="114" t="s">
+      <c r="D77" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="115"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="125"/>
+      <c r="M77" s="126"/>
       <c r="N77" s="15" t="s">
         <v>344</v>
       </c>
@@ -10627,18 +10627,18 @@
       <c r="C78" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D78" s="125" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="115"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="125"/>
+      <c r="L78" s="125"/>
+      <c r="M78" s="126"/>
       <c r="N78" s="15" t="s">
         <v>220</v>
       </c>
@@ -10695,18 +10695,18 @@
       <c r="C79" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="114" t="s">
+      <c r="D79" s="125" t="s">
         <v>357</v>
       </c>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="115"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="125"/>
+      <c r="K79" s="125"/>
+      <c r="L79" s="125"/>
+      <c r="M79" s="126"/>
       <c r="N79" s="15" t="s">
         <v>216</v>
       </c>
@@ -10763,18 +10763,18 @@
       <c r="C80" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="114"/>
-      <c r="K80" s="114"/>
-      <c r="L80" s="114"/>
-      <c r="M80" s="115"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="125"/>
+      <c r="L80" s="125"/>
+      <c r="M80" s="126"/>
       <c r="N80" s="15" t="s">
         <v>232</v>
       </c>
@@ -10831,18 +10831,18 @@
       <c r="C81" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="D81" s="114" t="s">
+      <c r="D81" s="125" t="s">
         <v>319</v>
       </c>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="114"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="115"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="125"/>
+      <c r="K81" s="125"/>
+      <c r="L81" s="125"/>
+      <c r="M81" s="126"/>
       <c r="N81" s="15" t="s">
         <v>320</v>
       </c>
@@ -10899,18 +10899,18 @@
       <c r="C82" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="115"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="125"/>
+      <c r="L82" s="125"/>
+      <c r="M82" s="126"/>
       <c r="N82" s="15" t="s">
         <v>372</v>
       </c>
@@ -10965,18 +10965,18 @@
       <c r="C83" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="125" t="s">
         <v>393</v>
       </c>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
-      <c r="L83" s="114"/>
-      <c r="M83" s="115"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="125"/>
+      <c r="I83" s="125"/>
+      <c r="J83" s="125"/>
+      <c r="K83" s="125"/>
+      <c r="L83" s="125"/>
+      <c r="M83" s="126"/>
       <c r="N83" s="15" t="s">
         <v>395</v>
       </c>
@@ -11031,18 +11031,18 @@
       <c r="C84" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="114" t="s">
+      <c r="D84" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="114"/>
-      <c r="M84" s="115"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="125"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="125"/>
+      <c r="K84" s="125"/>
+      <c r="L84" s="125"/>
+      <c r="M84" s="126"/>
       <c r="N84" s="15"/>
       <c r="O84" s="17" t="s">
         <v>307</v>
@@ -11093,18 +11093,18 @@
       <c r="C85" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="114" t="s">
+      <c r="D85" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="115"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="125"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="125"/>
+      <c r="K85" s="125"/>
+      <c r="L85" s="125"/>
+      <c r="M85" s="126"/>
       <c r="N85" s="15"/>
       <c r="O85" s="17" t="s">
         <v>290</v>
@@ -11155,18 +11155,18 @@
       <c r="C86" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="114"/>
-      <c r="K86" s="114"/>
-      <c r="L86" s="114"/>
-      <c r="M86" s="115"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="125"/>
+      <c r="L86" s="125"/>
+      <c r="M86" s="126"/>
       <c r="N86" s="15"/>
       <c r="O86" s="17" t="s">
         <v>290</v>
@@ -11217,18 +11217,18 @@
       <c r="C87" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="115"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="125"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="125"/>
+      <c r="I87" s="125"/>
+      <c r="J87" s="125"/>
+      <c r="K87" s="125"/>
+      <c r="L87" s="125"/>
+      <c r="M87" s="126"/>
       <c r="N87" s="15"/>
       <c r="O87" s="17" t="s">
         <v>292</v>
@@ -11276,19 +11276,19 @@
       <c r="B88" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="144" t="s">
+      <c r="C88" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
-      <c r="G88" s="116"/>
-      <c r="H88" s="116"/>
-      <c r="I88" s="116"/>
-      <c r="J88" s="116"/>
-      <c r="K88" s="116"/>
-      <c r="L88" s="116"/>
-      <c r="M88" s="117"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="123"/>
+      <c r="H88" s="123"/>
+      <c r="I88" s="123"/>
+      <c r="J88" s="123"/>
+      <c r="K88" s="123"/>
+      <c r="L88" s="123"/>
+      <c r="M88" s="124"/>
       <c r="N88" s="38"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41"/>
@@ -11333,18 +11333,18 @@
       <c r="C89" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="D89" s="140" t="s">
+      <c r="D89" s="118" t="s">
         <v>337</v>
       </c>
-      <c r="E89" s="140"/>
-      <c r="F89" s="140"/>
-      <c r="G89" s="140"/>
-      <c r="H89" s="140"/>
-      <c r="I89" s="140"/>
-      <c r="J89" s="140"/>
-      <c r="K89" s="140"/>
-      <c r="L89" s="140"/>
-      <c r="M89" s="141"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="118"/>
+      <c r="K89" s="118"/>
+      <c r="L89" s="118"/>
+      <c r="M89" s="119"/>
       <c r="N89" s="97" t="s">
         <v>338</v>
       </c>
@@ -11399,18 +11399,18 @@
       <c r="C90" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="D90" s="140" t="s">
+      <c r="D90" s="118" t="s">
         <v>342</v>
       </c>
-      <c r="E90" s="140"/>
-      <c r="F90" s="140"/>
-      <c r="G90" s="140"/>
-      <c r="H90" s="140"/>
-      <c r="I90" s="140"/>
-      <c r="J90" s="140"/>
-      <c r="K90" s="140"/>
-      <c r="L90" s="140"/>
-      <c r="M90" s="141"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="118"/>
+      <c r="K90" s="118"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="119"/>
       <c r="N90" s="97" t="s">
         <v>344</v>
       </c>
@@ -11465,18 +11465,18 @@
       <c r="C91" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="D91" s="140" t="s">
+      <c r="D91" s="118" t="s">
         <v>348</v>
       </c>
-      <c r="E91" s="140"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="140"/>
-      <c r="H91" s="140"/>
-      <c r="I91" s="140"/>
-      <c r="J91" s="140"/>
-      <c r="K91" s="140"/>
-      <c r="L91" s="140"/>
-      <c r="M91" s="141"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="119"/>
       <c r="N91" s="97"/>
       <c r="O91" s="98" t="s">
         <v>349</v>
@@ -11526,19 +11526,19 @@
       <c r="B92" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C92" s="144" t="s">
+      <c r="C92" s="122" t="s">
         <v>352</v>
       </c>
-      <c r="D92" s="116"/>
-      <c r="E92" s="116"/>
-      <c r="F92" s="116"/>
-      <c r="G92" s="116"/>
-      <c r="H92" s="116"/>
-      <c r="I92" s="116"/>
-      <c r="J92" s="116"/>
-      <c r="K92" s="116"/>
-      <c r="L92" s="116"/>
-      <c r="M92" s="117"/>
+      <c r="D92" s="123"/>
+      <c r="E92" s="123"/>
+      <c r="F92" s="123"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="123"/>
+      <c r="K92" s="123"/>
+      <c r="L92" s="123"/>
+      <c r="M92" s="124"/>
       <c r="N92" s="38"/>
       <c r="O92" s="41"/>
       <c r="P92" s="41"/>
@@ -11580,21 +11580,21 @@
       <c r="B93" s="96" t="s">
         <v>398</v>
       </c>
-      <c r="C93" s="145" t="s">
+      <c r="C93" s="114" t="s">
         <v>401</v>
       </c>
-      <c r="D93" s="118" t="s">
+      <c r="D93" s="115" t="s">
         <v>402</v>
       </c>
-      <c r="E93" s="118"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="118"/>
-      <c r="H93" s="118"/>
-      <c r="I93" s="118"/>
-      <c r="J93" s="118"/>
-      <c r="K93" s="118"/>
-      <c r="L93" s="118"/>
-      <c r="M93" s="119"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="115"/>
+      <c r="G93" s="115"/>
+      <c r="H93" s="115"/>
+      <c r="I93" s="115"/>
+      <c r="J93" s="115"/>
+      <c r="K93" s="115"/>
+      <c r="L93" s="115"/>
+      <c r="M93" s="116"/>
       <c r="N93" s="97"/>
       <c r="O93" s="98" t="s">
         <v>406</v>
@@ -11647,18 +11647,18 @@
       <c r="C94" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="140" t="s">
+      <c r="D94" s="118" t="s">
         <v>354</v>
       </c>
-      <c r="E94" s="140"/>
-      <c r="F94" s="140"/>
-      <c r="G94" s="140"/>
-      <c r="H94" s="140"/>
-      <c r="I94" s="140"/>
-      <c r="J94" s="140"/>
-      <c r="K94" s="140"/>
-      <c r="L94" s="140"/>
-      <c r="M94" s="141"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="118"/>
+      <c r="H94" s="118"/>
+      <c r="I94" s="118"/>
+      <c r="J94" s="118"/>
+      <c r="K94" s="118"/>
+      <c r="L94" s="118"/>
+      <c r="M94" s="119"/>
       <c r="N94" s="97"/>
       <c r="O94" s="98" t="s">
         <v>275</v>
@@ -11711,18 +11711,18 @@
       <c r="C95" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="D95" s="140" t="s">
+      <c r="D95" s="118" t="s">
         <v>355</v>
       </c>
-      <c r="E95" s="140"/>
-      <c r="F95" s="140"/>
-      <c r="G95" s="140"/>
-      <c r="H95" s="140"/>
-      <c r="I95" s="140"/>
-      <c r="J95" s="140"/>
-      <c r="K95" s="140"/>
-      <c r="L95" s="140"/>
-      <c r="M95" s="141"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="118"/>
+      <c r="G95" s="118"/>
+      <c r="H95" s="118"/>
+      <c r="I95" s="118"/>
+      <c r="J95" s="118"/>
+      <c r="K95" s="118"/>
+      <c r="L95" s="118"/>
+      <c r="M95" s="119"/>
       <c r="N95" s="97"/>
       <c r="O95" s="98" t="s">
         <v>403</v>
@@ -11772,19 +11772,19 @@
       <c r="B96" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="116" t="s">
+      <c r="C96" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="116"/>
-      <c r="E96" s="116"/>
-      <c r="F96" s="116"/>
-      <c r="G96" s="116"/>
-      <c r="H96" s="116"/>
-      <c r="I96" s="116"/>
-      <c r="J96" s="116"/>
-      <c r="K96" s="116"/>
-      <c r="L96" s="116"/>
-      <c r="M96" s="117"/>
+      <c r="D96" s="123"/>
+      <c r="E96" s="123"/>
+      <c r="F96" s="123"/>
+      <c r="G96" s="123"/>
+      <c r="H96" s="123"/>
+      <c r="I96" s="123"/>
+      <c r="J96" s="123"/>
+      <c r="K96" s="123"/>
+      <c r="L96" s="123"/>
+      <c r="M96" s="124"/>
       <c r="N96" s="38"/>
       <c r="O96" s="41"/>
       <c r="P96" s="41"/>
@@ -11829,18 +11829,18 @@
       <c r="C97" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="D97" s="118" t="s">
+      <c r="D97" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="E97" s="118"/>
-      <c r="F97" s="118"/>
-      <c r="G97" s="118"/>
-      <c r="H97" s="118"/>
-      <c r="I97" s="118"/>
-      <c r="J97" s="118"/>
-      <c r="K97" s="118"/>
-      <c r="L97" s="118"/>
-      <c r="M97" s="119"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="115"/>
+      <c r="G97" s="115"/>
+      <c r="H97" s="115"/>
+      <c r="I97" s="115"/>
+      <c r="J97" s="115"/>
+      <c r="K97" s="115"/>
+      <c r="L97" s="115"/>
+      <c r="M97" s="116"/>
       <c r="N97" s="97" t="s">
         <v>273</v>
       </c>
@@ -11895,18 +11895,18 @@
       <c r="C98" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="114" t="s">
+      <c r="D98" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="114"/>
-      <c r="J98" s="114"/>
-      <c r="K98" s="114"/>
-      <c r="L98" s="114"/>
-      <c r="M98" s="115"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="125"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="125"/>
+      <c r="L98" s="125"/>
+      <c r="M98" s="126"/>
       <c r="N98" s="15"/>
       <c r="O98" s="17" t="s">
         <v>290</v>
@@ -11957,18 +11957,18 @@
       <c r="C99" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="114" t="s">
+      <c r="D99" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
-      <c r="G99" s="114"/>
-      <c r="H99" s="114"/>
-      <c r="I99" s="114"/>
-      <c r="J99" s="114"/>
-      <c r="K99" s="114"/>
-      <c r="L99" s="114"/>
-      <c r="M99" s="115"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="125"/>
+      <c r="I99" s="125"/>
+      <c r="J99" s="125"/>
+      <c r="K99" s="125"/>
+      <c r="L99" s="125"/>
+      <c r="M99" s="126"/>
       <c r="N99" s="15"/>
       <c r="O99" s="17" t="s">
         <v>274</v>
@@ -12019,18 +12019,18 @@
       <c r="C100" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="114" t="s">
+      <c r="D100" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="114"/>
-      <c r="J100" s="114"/>
-      <c r="K100" s="114"/>
-      <c r="L100" s="114"/>
-      <c r="M100" s="115"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="125"/>
+      <c r="I100" s="125"/>
+      <c r="J100" s="125"/>
+      <c r="K100" s="125"/>
+      <c r="L100" s="125"/>
+      <c r="M100" s="126"/>
       <c r="N100" s="15"/>
       <c r="O100" s="17" t="s">
         <v>292</v>
@@ -12081,18 +12081,18 @@
       <c r="C101" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="114" t="s">
+      <c r="D101" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="114"/>
-      <c r="I101" s="114"/>
-      <c r="J101" s="114"/>
-      <c r="K101" s="114"/>
-      <c r="L101" s="114"/>
-      <c r="M101" s="115"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="125"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="125"/>
+      <c r="L101" s="125"/>
+      <c r="M101" s="126"/>
       <c r="N101" s="15"/>
       <c r="O101" s="17" t="s">
         <v>302</v>
@@ -12143,18 +12143,18 @@
       <c r="C102" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="D102" s="120" t="s">
+      <c r="D102" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="120"/>
-      <c r="F102" s="120"/>
-      <c r="G102" s="120"/>
-      <c r="H102" s="120"/>
-      <c r="I102" s="120"/>
-      <c r="J102" s="120"/>
-      <c r="K102" s="120"/>
-      <c r="L102" s="120"/>
-      <c r="M102" s="121"/>
+      <c r="E102" s="144"/>
+      <c r="F102" s="144"/>
+      <c r="G102" s="144"/>
+      <c r="H102" s="144"/>
+      <c r="I102" s="144"/>
+      <c r="J102" s="144"/>
+      <c r="K102" s="144"/>
+      <c r="L102" s="144"/>
+      <c r="M102" s="145"/>
       <c r="N102" s="67"/>
       <c r="O102" s="68" t="s">
         <v>241</v>
@@ -12200,6 +12200,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D102:M102"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D50:M50"/>
     <mergeCell ref="D93:M93"/>
     <mergeCell ref="D53:M53"/>
     <mergeCell ref="AY2:AY3"/>
@@ -12224,92 +12310,6 @@
     <mergeCell ref="D17:M17"/>
     <mergeCell ref="D46:M46"/>
     <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D102:M102"/>
-    <mergeCell ref="C96:M96"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D100:M100"/>
-    <mergeCell ref="D101:M101"/>
-    <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="C72:M72"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="C61:M61"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="411">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1224,11 +1224,201 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박수현</t>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 씬 플로우 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 UI 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 데이트 시나리오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 기획서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1236,14 +1426,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6-13</t>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10</t>
   </si>
   <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
+    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1255,7 +1453,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.17</t>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>AR공간내 오브젝트 가시거리 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>기업미팅 대비 질문 리스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMesh 모듈화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1263,19 +1513,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>최재연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1283,66 +1555,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 씬 플로우 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
+    <t>1차 프로토 TC 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1350,91 +1591,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로토타입 UI 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 데이트 시나리오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
+    <t>박재성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1442,152 +1599,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-14</t>
-  </si>
-  <si>
-    <t>AR공간내 오브젝트 가시거리 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-21</t>
-  </si>
-  <si>
-    <t>기업미팅 대비 질문 리스트 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NavMesh 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-22</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-15</t>
-  </si>
-  <si>
-    <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 TC 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2142,7 +2154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2487,6 +2499,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -5338,13 +5353,13 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>16328</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:rowOff>70756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>46262</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>125185</xdr:rowOff>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5353,8 +5368,194 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14616792" y="14807293"/>
-          <a:ext cx="1118506" cy="54428"/>
+          <a:off x="14616792" y="15623720"/>
+          <a:ext cx="1072244" cy="51709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>11152</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15700188" y="15443941"/>
+          <a:ext cx="614776" cy="54595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>258802</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>84198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15403552" y="15024841"/>
+          <a:ext cx="614776" cy="54595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>261523</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>59705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>59870</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15406273" y="15204455"/>
+          <a:ext cx="614776" cy="54595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5664,8 +5865,8 @@
   <dimension ref="B1:BA102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="6" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5721,14 +5922,14 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="117" t="s">
-        <v>361</v>
-      </c>
-      <c r="AZ2" s="117" t="s">
+      <c r="AY2" s="118" t="s">
         <v>359</v>
       </c>
-      <c r="BA2" s="117" t="s">
-        <v>360</v>
+      <c r="AZ2" s="118" t="s">
+        <v>357</v>
+      </c>
+      <c r="BA2" s="118" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.3">
@@ -5745,9 +5946,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="117"/>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="117"/>
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="118"/>
+      <c r="BA3" s="118"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
@@ -5755,104 +5956,104 @@
         <v>153</v>
       </c>
       <c r="AZ4" s="113">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW29+AW30+AW31+AW32+AW33+AW37+AW38+AW41+AW43+AW44+AW45+AW47+AW52+AW53+AW62+AW63+AW66+AW68+AW78+AW80+AW81+AW70+AW73+AW46+AW77</f>
-        <v>66</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW29+AW30+AW31+AW32+AW33+AW37+AW38+AW41+AW43+AW44+AW45+AW47+AW52+AW53+AW62+AW63+AW66+AW68+AW78+AW80+AW81+AW70+AW73+AW46+AW77+AW76+AW74+AW75</f>
+        <v>72</v>
       </c>
       <c r="BA4" s="113">
         <f>AZ4/AY4*100</f>
-        <v>43.137254901960787</v>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="127" t="s">
+      <c r="C5" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="134" t="s">
+      <c r="O5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="134" t="s">
+      <c r="P5" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="127" t="s">
+      <c r="Q5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="136" t="s">
+      <c r="R5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="133" t="s">
+      <c r="S5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131" t="s">
+      <c r="T5" s="132"/>
+      <c r="U5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="131"/>
-      <c r="AN5" s="131"/>
-      <c r="AO5" s="131"/>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="131"/>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="120" t="s">
-        <v>362</v>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="132"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="121" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="141"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="137"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="138"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -5943,25 +6144,25 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="121"/>
+      <c r="AW6" s="122"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -6006,18 +6207,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -6074,18 +6275,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="131"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -6142,18 +6343,18 @@
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="131"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -6210,18 +6411,18 @@
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="131"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -6278,18 +6479,18 @@
       <c r="C12" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="50" t="s">
         <v>224</v>
       </c>
@@ -6346,18 +6547,18 @@
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -6412,28 +6613,28 @@
         <v>236</v>
       </c>
       <c r="C14" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="130" t="s">
         <v>328</v>
       </c>
-      <c r="D14" s="129" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="P14" s="51" t="s">
         <v>330</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>331</v>
       </c>
       <c r="Q14" s="52">
         <v>1</v>
@@ -6480,28 +6681,28 @@
         <v>237</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" s="129" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="130"/>
+        <v>368</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="50" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="81">
@@ -6543,23 +6744,23 @@
     </row>
     <row r="16" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="131"/>
       <c r="N16" s="50" t="s">
         <v>230</v>
       </c>
@@ -6609,23 +6810,23 @@
     </row>
     <row r="17" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="131"/>
       <c r="N17" s="50" t="s">
         <v>238</v>
       </c>
@@ -6676,19 +6877,19 @@
       <c r="B18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
       <c r="N18" s="13"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
@@ -6733,18 +6934,18 @@
       <c r="C19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="144"/>
       <c r="N19" s="14" t="s">
         <v>10</v>
       </c>
@@ -6801,18 +7002,18 @@
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
       <c r="N20" s="15" t="s">
         <v>32</v>
       </c>
@@ -6869,18 +7070,18 @@
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
       <c r="N21" s="15" t="s">
         <v>33</v>
       </c>
@@ -6937,18 +7138,18 @@
       <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
       <c r="N22" s="15" t="s">
         <v>34</v>
       </c>
@@ -7005,18 +7206,18 @@
       <c r="C23" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
       <c r="N23" s="15" t="s">
         <v>35</v>
       </c>
@@ -7073,18 +7274,18 @@
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
       <c r="N24" s="15" t="s">
         <v>37</v>
       </c>
@@ -7141,18 +7342,18 @@
       <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
       <c r="N25" s="15" t="s">
         <v>83</v>
       </c>
@@ -7209,18 +7410,18 @@
       <c r="C26" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
       <c r="N26" s="15" t="s">
         <v>140</v>
       </c>
@@ -7277,18 +7478,18 @@
       <c r="C27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="127"/>
       <c r="N27" s="15" t="s">
         <v>154</v>
       </c>
@@ -7342,19 +7543,19 @@
       <c r="B28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125"/>
       <c r="N28" s="13"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -7399,18 +7600,18 @@
       <c r="C29" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="127"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
@@ -7467,18 +7668,18 @@
       <c r="C30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
       <c r="N30" s="15" t="s">
         <v>66</v>
       </c>
@@ -7535,18 +7736,18 @@
       <c r="C31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="125" t="s">
+      <c r="D31" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="127"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -7603,18 +7804,18 @@
       <c r="C32" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="127"/>
       <c r="N32" s="15" t="s">
         <v>95</v>
       </c>
@@ -7671,18 +7872,18 @@
       <c r="C33" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="127"/>
       <c r="N33" s="15" t="s">
         <v>243</v>
       </c>
@@ -7739,18 +7940,18 @@
       <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
       <c r="N34" s="15" t="s">
         <v>99</v>
       </c>
@@ -7807,18 +8008,18 @@
       <c r="C35" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="127"/>
       <c r="N35" s="15" t="s">
         <v>104</v>
       </c>
@@ -7829,7 +8030,7 @@
         <v>106</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R35" s="84">
         <v>2</v>
@@ -7875,18 +8076,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="125" t="s">
+      <c r="D36" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="127"/>
       <c r="N36" s="15" t="s">
         <v>109</v>
       </c>
@@ -7941,18 +8142,18 @@
       <c r="C37" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="127"/>
       <c r="N37" s="15" t="s">
         <v>144</v>
       </c>
@@ -8009,18 +8210,18 @@
       <c r="C38" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="125" t="s">
+      <c r="D38" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="127"/>
       <c r="N38" s="15" t="s">
         <v>147</v>
       </c>
@@ -8077,18 +8278,18 @@
       <c r="C39" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="127"/>
       <c r="N39" s="15" t="s">
         <v>253</v>
       </c>
@@ -8099,7 +8300,7 @@
         <v>250</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R39" s="84">
         <v>2</v>
@@ -8145,18 +8346,18 @@
       <c r="C40" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="127"/>
       <c r="N40" s="15" t="s">
         <v>232</v>
       </c>
@@ -8164,7 +8365,7 @@
         <v>254</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="84">
@@ -8211,18 +8412,18 @@
       <c r="C41" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="125" t="s">
+      <c r="D41" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="127"/>
       <c r="N41" s="15" t="s">
         <v>247</v>
       </c>
@@ -8279,18 +8480,18 @@
       <c r="C42" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="127"/>
       <c r="N42" s="15" t="s">
         <v>232</v>
       </c>
@@ -8345,18 +8546,18 @@
       <c r="C43" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="125" t="s">
+      <c r="D43" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="127"/>
       <c r="N43" s="15" t="s">
         <v>259</v>
       </c>
@@ -8413,18 +8614,18 @@
       <c r="C44" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="125" t="s">
+      <c r="D44" s="126" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="127"/>
       <c r="N44" s="15" t="s">
         <v>264</v>
       </c>
@@ -8481,18 +8682,18 @@
       <c r="C45" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="125" t="s">
+      <c r="D45" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="127"/>
       <c r="N45" s="15" t="s">
         <v>262</v>
       </c>
@@ -8549,18 +8750,18 @@
       <c r="C46" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="125" t="s">
-        <v>388</v>
-      </c>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="126"/>
+      <c r="D46" s="126" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="127"/>
       <c r="N46" s="15" t="s">
         <v>248</v>
       </c>
@@ -8568,7 +8769,7 @@
         <v>249</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="19">
         <v>1</v>
@@ -8617,18 +8818,18 @@
       <c r="C47" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="125" t="s">
+      <c r="D47" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="127"/>
       <c r="N47" s="15" t="s">
         <v>278</v>
       </c>
@@ -8679,31 +8880,31 @@
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="D48" s="125" t="s">
-        <v>375</v>
-      </c>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="126"/>
+        <v>368</v>
+      </c>
+      <c r="D48" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="127"/>
       <c r="N48" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="84">
@@ -8744,31 +8945,31 @@
     </row>
     <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C49" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49" s="126" t="s">
+        <v>377</v>
+      </c>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="127"/>
+      <c r="N49" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D49" s="125" t="s">
-        <v>379</v>
-      </c>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="126"/>
-      <c r="N49" s="15" t="s">
-        <v>380</v>
-      </c>
       <c r="O49" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="84">
@@ -8809,31 +9010,31 @@
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C50" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50" s="126" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D50" s="125" t="s">
-        <v>389</v>
-      </c>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="15" t="s">
-        <v>390</v>
-      </c>
       <c r="O50" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="84">
@@ -8876,19 +9077,19 @@
       <c r="B51" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="125"/>
       <c r="N51" s="38"/>
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
@@ -8933,18 +9134,18 @@
       <c r="C52" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="115" t="s">
+      <c r="D52" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="117"/>
       <c r="N52" s="39" t="s">
         <v>64</v>
       </c>
@@ -9001,18 +9202,18 @@
       <c r="C53" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="115" t="s">
+      <c r="D53" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="117"/>
       <c r="N53" s="39" t="s">
         <v>169</v>
       </c>
@@ -9069,29 +9270,29 @@
       <c r="C54" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="D54" s="115" t="s">
+      <c r="D54" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="117"/>
       <c r="N54" s="39" t="s">
         <v>312</v>
       </c>
       <c r="O54" s="56" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="P54" s="56" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
       <c r="Q54" s="79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R54" s="86">
         <v>1</v>
@@ -9114,9 +9315,8 @@
       <c r="AH54" s="11"/>
       <c r="AI54" s="45"/>
       <c r="AJ54" s="49"/>
-      <c r="AK54" s="8"/>
       <c r="AL54" s="7"/>
-      <c r="AM54" s="7"/>
+      <c r="AM54" s="8"/>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
       <c r="AP54" s="42"/>
@@ -9137,18 +9337,18 @@
       <c r="C55" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="115" t="s">
+      <c r="D55" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="117"/>
       <c r="N55" s="39" t="s">
         <v>171</v>
       </c>
@@ -9159,7 +9359,7 @@
         <v>165</v>
       </c>
       <c r="Q55" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R55" s="86">
         <v>1</v>
@@ -9205,18 +9405,18 @@
       <c r="C56" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="125" t="s">
+      <c r="D56" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="127"/>
       <c r="N56" s="15" t="s">
         <v>104</v>
       </c>
@@ -9273,18 +9473,18 @@
       <c r="C57" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="D57" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="125"/>
-      <c r="L57" s="125"/>
-      <c r="M57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="127"/>
       <c r="N57" s="15" t="s">
         <v>75</v>
       </c>
@@ -9339,18 +9539,18 @@
       <c r="C58" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="125" t="s">
+      <c r="D58" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="127"/>
       <c r="N58" s="15"/>
       <c r="O58" s="17" t="s">
         <v>288</v>
@@ -9403,18 +9603,18 @@
       <c r="C59" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="125" t="s">
+      <c r="D59" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="127"/>
       <c r="N59" s="15"/>
       <c r="O59" s="17" t="s">
         <v>290</v>
@@ -9467,18 +9667,18 @@
       <c r="C60" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="125" t="s">
+      <c r="D60" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
-      <c r="M60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="127"/>
       <c r="N60" s="15"/>
       <c r="O60" s="17" t="s">
         <v>290</v>
@@ -9528,19 +9728,19 @@
       <c r="B61" s="37">
         <v>5</v>
       </c>
-      <c r="C61" s="123" t="s">
+      <c r="C61" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="125"/>
       <c r="N61" s="40"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41"/>
@@ -9585,18 +9785,18 @@
       <c r="C62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="125" t="s">
+      <c r="D62" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="125"/>
-      <c r="L62" s="125"/>
-      <c r="M62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
+      <c r="M62" s="127"/>
       <c r="N62" s="15" t="s">
         <v>59</v>
       </c>
@@ -9653,18 +9853,18 @@
       <c r="C63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="125" t="s">
+      <c r="D63" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="125"/>
-      <c r="M63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
+      <c r="M63" s="127"/>
       <c r="N63" s="15" t="s">
         <v>293</v>
       </c>
@@ -9721,20 +9921,20 @@
       <c r="C64" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="125" t="s">
-        <v>363</v>
-      </c>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="126"/>
+      <c r="D64" s="126" t="s">
+        <v>361</v>
+      </c>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="127"/>
       <c r="N64" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O64" s="17" t="s">
         <v>268</v>
@@ -9785,28 +9985,28 @@
         <v>112</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D65" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
+      <c r="M65" s="127"/>
+      <c r="N65" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="D65" s="125" t="s">
+      <c r="O65" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="125"/>
-      <c r="M65" s="126"/>
-      <c r="N65" s="15" t="s">
+      <c r="P65" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="O65" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="P65" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="84">
@@ -9853,18 +10053,18 @@
       <c r="C66" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="125" t="s">
+      <c r="D66" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="125"/>
-      <c r="M66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="127"/>
       <c r="N66" s="15" t="s">
         <v>68</v>
       </c>
@@ -9921,18 +10121,18 @@
       <c r="C67" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="125" t="s">
+      <c r="D67" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="125"/>
-      <c r="M67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
+      <c r="M67" s="127"/>
       <c r="N67" s="15"/>
       <c r="O67" s="17" t="s">
         <v>239</v>
@@ -9983,18 +10183,18 @@
       <c r="C68" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="125" t="s">
+      <c r="D68" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="125"/>
-      <c r="J68" s="125"/>
-      <c r="K68" s="125"/>
-      <c r="L68" s="125"/>
-      <c r="M68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="127"/>
       <c r="N68" s="15" t="s">
         <v>299</v>
       </c>
@@ -10051,20 +10251,20 @@
       <c r="C69" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="125" t="s">
+      <c r="D69" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="125"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="125"/>
-      <c r="M69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
+      <c r="M69" s="127"/>
       <c r="N69" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O69" s="17" t="s">
         <v>221</v>
@@ -10117,26 +10317,26 @@
       <c r="C70" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="125" t="s">
-        <v>327</v>
-      </c>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="126"/>
+      <c r="D70" s="126" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="127"/>
       <c r="N70" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="O70" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="O70" s="17" t="s">
-        <v>324</v>
-      </c>
       <c r="P70" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q70" s="19">
         <v>1</v>
@@ -10180,23 +10380,23 @@
     </row>
     <row r="71" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C71" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="125" t="s">
+      <c r="D71" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="125"/>
-      <c r="M71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
+      <c r="M71" s="127"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>302</v>
@@ -10244,19 +10444,19 @@
       <c r="B72" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="123"/>
-      <c r="I72" s="123"/>
-      <c r="J72" s="123"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="123"/>
-      <c r="M72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="124"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="125"/>
       <c r="N72" s="38"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41"/>
@@ -10301,18 +10501,18 @@
       <c r="C73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="125" t="s">
+      <c r="D73" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="125"/>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="125"/>
-      <c r="L73" s="125"/>
-      <c r="M73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="126"/>
+      <c r="M73" s="127"/>
       <c r="N73" s="15" t="s">
         <v>85</v>
       </c>
@@ -10369,20 +10569,20 @@
       <c r="C74" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="125" t="s">
+      <c r="D74" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="125"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="125"/>
-      <c r="K74" s="125"/>
-      <c r="L74" s="125"/>
-      <c r="M74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="126"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="126"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="126"/>
+      <c r="M74" s="127"/>
       <c r="N74" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O74" s="17" t="s">
         <v>268</v>
@@ -10390,7 +10590,9 @@
       <c r="P74" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="Q74" s="15"/>
+      <c r="Q74" s="19">
+        <v>1</v>
+      </c>
       <c r="R74" s="84">
         <v>1</v>
       </c>
@@ -10435,27 +10637,33 @@
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="125" t="s">
+      <c r="D75" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="125"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="126"/>
-      <c r="N75" s="15"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="127"/>
+      <c r="N75" s="15" t="s">
+        <v>406</v>
+      </c>
       <c r="O75" s="17" t="s">
         <v>221</v>
       </c>
       <c r="P75" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="84"/>
+      <c r="Q75" s="19">
+        <v>1</v>
+      </c>
+      <c r="R75" s="84">
+        <v>1</v>
+      </c>
       <c r="S75" s="27"/>
       <c r="T75" s="11"/>
       <c r="U75" s="45"/>
@@ -10497,27 +10705,33 @@
       <c r="C76" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="125" t="s">
+      <c r="D76" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="125"/>
-      <c r="F76" s="125"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
-      <c r="K76" s="125"/>
-      <c r="L76" s="125"/>
-      <c r="M76" s="126"/>
-      <c r="N76" s="15"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="127"/>
+      <c r="N76" s="15" t="s">
+        <v>405</v>
+      </c>
       <c r="O76" s="17" t="s">
         <v>300</v>
       </c>
       <c r="P76" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="84"/>
+      <c r="Q76" s="19">
+        <v>1</v>
+      </c>
+      <c r="R76" s="84">
+        <v>1</v>
+      </c>
       <c r="S76" s="27"/>
       <c r="T76" s="11"/>
       <c r="U76" s="45"/>
@@ -10559,20 +10773,20 @@
       <c r="C77" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="125" t="s">
+      <c r="D77" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="E77" s="125"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="125"/>
-      <c r="M77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="127"/>
       <c r="N77" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O77" s="17" t="s">
         <v>250</v>
@@ -10627,18 +10841,18 @@
       <c r="C78" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D78" s="125" t="s">
+      <c r="D78" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="125"/>
-      <c r="F78" s="125"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="125"/>
-      <c r="J78" s="125"/>
-      <c r="K78" s="125"/>
-      <c r="L78" s="125"/>
-      <c r="M78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="127"/>
       <c r="N78" s="15" t="s">
         <v>220</v>
       </c>
@@ -10695,18 +10909,18 @@
       <c r="C79" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="125" t="s">
-        <v>357</v>
-      </c>
-      <c r="E79" s="125"/>
-      <c r="F79" s="125"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="125"/>
-      <c r="J79" s="125"/>
-      <c r="K79" s="125"/>
-      <c r="L79" s="125"/>
-      <c r="M79" s="126"/>
+      <c r="D79" s="126" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="126"/>
+      <c r="M79" s="127"/>
       <c r="N79" s="15" t="s">
         <v>216</v>
       </c>
@@ -10714,7 +10928,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q79" s="19">
         <v>0.5</v>
@@ -10763,18 +10977,18 @@
       <c r="C80" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D80" s="125" t="s">
+      <c r="D80" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="E80" s="125"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="125"/>
-      <c r="J80" s="125"/>
-      <c r="K80" s="125"/>
-      <c r="L80" s="125"/>
-      <c r="M80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="126"/>
+      <c r="M80" s="127"/>
       <c r="N80" s="15" t="s">
         <v>232</v>
       </c>
@@ -10829,28 +11043,28 @@
         <v>118</v>
       </c>
       <c r="C81" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="126" t="s">
         <v>318</v>
       </c>
-      <c r="D81" s="125" t="s">
+      <c r="E81" s="126"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="126"/>
+      <c r="J81" s="126"/>
+      <c r="K81" s="126"/>
+      <c r="L81" s="126"/>
+      <c r="M81" s="127"/>
+      <c r="N81" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="125"/>
-      <c r="J81" s="125"/>
-      <c r="K81" s="125"/>
-      <c r="L81" s="125"/>
-      <c r="M81" s="126"/>
-      <c r="N81" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="O81" s="17" t="s">
         <v>313</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q81" s="19">
         <v>1</v>
@@ -10897,28 +11111,28 @@
         <v>124</v>
       </c>
       <c r="C82" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="127"/>
+      <c r="N82" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="D82" s="125" t="s">
+      <c r="O82" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
-      <c r="J82" s="125"/>
-      <c r="K82" s="125"/>
-      <c r="L82" s="125"/>
-      <c r="M82" s="126"/>
-      <c r="N82" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>373</v>
-      </c>
       <c r="P82" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="84">
@@ -10963,28 +11177,28 @@
         <v>125</v>
       </c>
       <c r="C83" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="D83" s="126" t="s">
+        <v>390</v>
+      </c>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="126"/>
+      <c r="L83" s="126"/>
+      <c r="M83" s="127"/>
+      <c r="N83" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="D83" s="125" t="s">
+      <c r="O83" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E83" s="125"/>
-      <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
-      <c r="J83" s="125"/>
-      <c r="K83" s="125"/>
-      <c r="L83" s="125"/>
-      <c r="M83" s="126"/>
-      <c r="N83" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>396</v>
-      </c>
       <c r="P83" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="84">
@@ -11031,18 +11245,18 @@
       <c r="C84" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="125" t="s">
+      <c r="D84" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="125"/>
-      <c r="F84" s="125"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="125"/>
-      <c r="J84" s="125"/>
-      <c r="K84" s="125"/>
-      <c r="L84" s="125"/>
-      <c r="M84" s="126"/>
+      <c r="E84" s="126"/>
+      <c r="F84" s="126"/>
+      <c r="G84" s="126"/>
+      <c r="H84" s="126"/>
+      <c r="I84" s="126"/>
+      <c r="J84" s="126"/>
+      <c r="K84" s="126"/>
+      <c r="L84" s="126"/>
+      <c r="M84" s="127"/>
       <c r="N84" s="15"/>
       <c r="O84" s="17" t="s">
         <v>307</v>
@@ -11088,23 +11302,23 @@
     </row>
     <row r="85" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B85" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C85" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="125" t="s">
+      <c r="D85" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="125"/>
-      <c r="J85" s="125"/>
-      <c r="K85" s="125"/>
-      <c r="L85" s="125"/>
-      <c r="M85" s="126"/>
+      <c r="E85" s="126"/>
+      <c r="F85" s="126"/>
+      <c r="G85" s="126"/>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="126"/>
+      <c r="L85" s="126"/>
+      <c r="M85" s="127"/>
       <c r="N85" s="15"/>
       <c r="O85" s="17" t="s">
         <v>290</v>
@@ -11150,23 +11364,23 @@
     </row>
     <row r="86" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B86" s="36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C86" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="125" t="s">
+      <c r="D86" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
-      <c r="J86" s="125"/>
-      <c r="K86" s="125"/>
-      <c r="L86" s="125"/>
-      <c r="M86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
+      <c r="M86" s="127"/>
       <c r="N86" s="15"/>
       <c r="O86" s="17" t="s">
         <v>290</v>
@@ -11212,23 +11426,23 @@
     </row>
     <row r="87" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B87" s="36" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C87" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="125" t="s">
+      <c r="D87" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="125"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
-      <c r="J87" s="125"/>
-      <c r="K87" s="125"/>
-      <c r="L87" s="125"/>
-      <c r="M87" s="126"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
+      <c r="G87" s="126"/>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126"/>
+      <c r="J87" s="126"/>
+      <c r="K87" s="126"/>
+      <c r="L87" s="126"/>
+      <c r="M87" s="127"/>
       <c r="N87" s="15"/>
       <c r="O87" s="17" t="s">
         <v>292</v>
@@ -11274,21 +11488,21 @@
     </row>
     <row r="88" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B88" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="123" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123"/>
-      <c r="I88" s="123"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="123"/>
-      <c r="L88" s="123"/>
-      <c r="M88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
+      <c r="J88" s="124"/>
+      <c r="K88" s="124"/>
+      <c r="L88" s="124"/>
+      <c r="M88" s="125"/>
       <c r="N88" s="38"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41"/>
@@ -11328,31 +11542,31 @@
     </row>
     <row r="89" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B89" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="C89" s="107" t="s">
+      <c r="D89" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="D89" s="118" t="s">
+      <c r="E89" s="119"/>
+      <c r="F89" s="119"/>
+      <c r="G89" s="119"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="119"/>
+      <c r="J89" s="119"/>
+      <c r="K89" s="119"/>
+      <c r="L89" s="119"/>
+      <c r="M89" s="120"/>
+      <c r="N89" s="97" t="s">
         <v>337</v>
       </c>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118"/>
-      <c r="M89" s="119"/>
-      <c r="N89" s="97" t="s">
+      <c r="O89" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="O89" s="98" t="s">
-        <v>339</v>
-      </c>
       <c r="P89" s="98" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q89" s="106"/>
       <c r="R89" s="99">
@@ -11378,7 +11592,7 @@
       <c r="AJ89" s="46"/>
       <c r="AK89" s="8"/>
       <c r="AL89" s="8"/>
-      <c r="AM89" s="11"/>
+      <c r="AM89" s="8"/>
       <c r="AN89" s="11"/>
       <c r="AO89" s="11"/>
       <c r="AP89" s="42"/>
@@ -11394,31 +11608,31 @@
     </row>
     <row r="90" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B90" s="96" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="D90" s="119" t="s">
+        <v>341</v>
+      </c>
+      <c r="E90" s="119"/>
+      <c r="F90" s="119"/>
+      <c r="G90" s="119"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="120"/>
+      <c r="N90" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="107" t="s">
-        <v>341</v>
-      </c>
-      <c r="D90" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="118"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="118"/>
-      <c r="L90" s="118"/>
-      <c r="M90" s="119"/>
-      <c r="N90" s="97" t="s">
+      <c r="O90" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="P90" s="98" t="s">
         <v>344</v>
-      </c>
-      <c r="O90" s="98" t="s">
-        <v>340</v>
-      </c>
-      <c r="P90" s="98" t="s">
-        <v>345</v>
       </c>
       <c r="Q90" s="106"/>
       <c r="R90" s="99">
@@ -11460,29 +11674,29 @@
     </row>
     <row r="91" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B91" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="108" t="s">
+      <c r="D91" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="D91" s="118" t="s">
-        <v>348</v>
-      </c>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="118"/>
-      <c r="L91" s="118"/>
-      <c r="M91" s="119"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="119"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="119"/>
+      <c r="J91" s="119"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="120"/>
       <c r="N91" s="97"/>
       <c r="O91" s="98" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="P91" s="98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q91" s="106"/>
       <c r="R91" s="99">
@@ -11508,9 +11722,9 @@
       <c r="AJ91" s="46"/>
       <c r="AK91" s="7"/>
       <c r="AL91" s="24"/>
-      <c r="AM91" s="24"/>
-      <c r="AN91" s="11"/>
-      <c r="AO91" s="11"/>
+      <c r="AM91" s="115"/>
+      <c r="AN91" s="9"/>
+      <c r="AO91" s="9"/>
       <c r="AP91" s="42"/>
       <c r="AQ91" s="46"/>
       <c r="AR91" s="9"/>
@@ -11524,21 +11738,21 @@
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B92" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" s="122" t="s">
-        <v>352</v>
-      </c>
-      <c r="D92" s="123"/>
-      <c r="E92" s="123"/>
-      <c r="F92" s="123"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="123"/>
-      <c r="I92" s="123"/>
-      <c r="J92" s="123"/>
-      <c r="K92" s="123"/>
-      <c r="L92" s="123"/>
-      <c r="M92" s="124"/>
+        <v>349</v>
+      </c>
+      <c r="C92" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+      <c r="J92" s="124"/>
+      <c r="K92" s="124"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="125"/>
       <c r="N92" s="38"/>
       <c r="O92" s="41"/>
       <c r="P92" s="41"/>
@@ -11578,29 +11792,29 @@
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C93" s="114" t="s">
-        <v>401</v>
-      </c>
-      <c r="D93" s="115" t="s">
-        <v>402</v>
-      </c>
-      <c r="E93" s="115"/>
-      <c r="F93" s="115"/>
-      <c r="G93" s="115"/>
-      <c r="H93" s="115"/>
-      <c r="I93" s="115"/>
-      <c r="J93" s="115"/>
-      <c r="K93" s="115"/>
-      <c r="L93" s="115"/>
-      <c r="M93" s="116"/>
+      <c r="D93" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
+      <c r="H93" s="116"/>
+      <c r="I93" s="116"/>
+      <c r="J93" s="116"/>
+      <c r="K93" s="116"/>
+      <c r="L93" s="116"/>
+      <c r="M93" s="117"/>
       <c r="N93" s="97"/>
       <c r="O93" s="98" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P93" s="98" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q93" s="106"/>
       <c r="R93" s="99">
@@ -11642,29 +11856,29 @@
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B94" s="96" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C94" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="D94" s="118" t="s">
-        <v>354</v>
-      </c>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="118"/>
-      <c r="H94" s="118"/>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-      <c r="M94" s="119"/>
+        <v>351</v>
+      </c>
+      <c r="D94" s="119" t="s">
+        <v>352</v>
+      </c>
+      <c r="E94" s="119"/>
+      <c r="F94" s="119"/>
+      <c r="G94" s="119"/>
+      <c r="H94" s="119"/>
+      <c r="I94" s="119"/>
+      <c r="J94" s="119"/>
+      <c r="K94" s="119"/>
+      <c r="L94" s="119"/>
+      <c r="M94" s="120"/>
       <c r="N94" s="97"/>
       <c r="O94" s="98" t="s">
         <v>275</v>
       </c>
       <c r="P94" s="98" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q94" s="106"/>
       <c r="R94" s="99">
@@ -11706,29 +11920,29 @@
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B95" s="96" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C95" s="107" t="s">
-        <v>336</v>
-      </c>
-      <c r="D95" s="118" t="s">
-        <v>355</v>
-      </c>
-      <c r="E95" s="118"/>
-      <c r="F95" s="118"/>
-      <c r="G95" s="118"/>
-      <c r="H95" s="118"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="118"/>
-      <c r="K95" s="118"/>
-      <c r="L95" s="118"/>
-      <c r="M95" s="119"/>
+        <v>335</v>
+      </c>
+      <c r="D95" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="E95" s="119"/>
+      <c r="F95" s="119"/>
+      <c r="G95" s="119"/>
+      <c r="H95" s="119"/>
+      <c r="I95" s="119"/>
+      <c r="J95" s="119"/>
+      <c r="K95" s="119"/>
+      <c r="L95" s="119"/>
+      <c r="M95" s="120"/>
       <c r="N95" s="97"/>
       <c r="O95" s="98" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P95" s="98" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q95" s="106"/>
       <c r="R95" s="99">
@@ -11772,19 +11986,19 @@
       <c r="B96" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="123" t="s">
+      <c r="C96" s="124" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="123"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="123"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="123"/>
-      <c r="I96" s="123"/>
-      <c r="J96" s="123"/>
-      <c r="K96" s="123"/>
-      <c r="L96" s="123"/>
-      <c r="M96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="124"/>
+      <c r="J96" s="124"/>
+      <c r="K96" s="124"/>
+      <c r="L96" s="124"/>
+      <c r="M96" s="125"/>
       <c r="N96" s="38"/>
       <c r="O96" s="41"/>
       <c r="P96" s="41"/>
@@ -11829,18 +12043,18 @@
       <c r="C97" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="D97" s="115" t="s">
+      <c r="D97" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="E97" s="115"/>
-      <c r="F97" s="115"/>
-      <c r="G97" s="115"/>
-      <c r="H97" s="115"/>
-      <c r="I97" s="115"/>
-      <c r="J97" s="115"/>
-      <c r="K97" s="115"/>
-      <c r="L97" s="115"/>
-      <c r="M97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
+      <c r="H97" s="116"/>
+      <c r="I97" s="116"/>
+      <c r="J97" s="116"/>
+      <c r="K97" s="116"/>
+      <c r="L97" s="116"/>
+      <c r="M97" s="117"/>
       <c r="N97" s="97" t="s">
         <v>273</v>
       </c>
@@ -11895,18 +12109,18 @@
       <c r="C98" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="125" t="s">
+      <c r="D98" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="E98" s="125"/>
-      <c r="F98" s="125"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="125"/>
-      <c r="J98" s="125"/>
-      <c r="K98" s="125"/>
-      <c r="L98" s="125"/>
-      <c r="M98" s="126"/>
+      <c r="E98" s="126"/>
+      <c r="F98" s="126"/>
+      <c r="G98" s="126"/>
+      <c r="H98" s="126"/>
+      <c r="I98" s="126"/>
+      <c r="J98" s="126"/>
+      <c r="K98" s="126"/>
+      <c r="L98" s="126"/>
+      <c r="M98" s="127"/>
       <c r="N98" s="15"/>
       <c r="O98" s="17" t="s">
         <v>290</v>
@@ -11957,18 +12171,18 @@
       <c r="C99" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="125" t="s">
+      <c r="D99" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="125"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="125"/>
-      <c r="J99" s="125"/>
-      <c r="K99" s="125"/>
-      <c r="L99" s="125"/>
-      <c r="M99" s="126"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="126"/>
+      <c r="G99" s="126"/>
+      <c r="H99" s="126"/>
+      <c r="I99" s="126"/>
+      <c r="J99" s="126"/>
+      <c r="K99" s="126"/>
+      <c r="L99" s="126"/>
+      <c r="M99" s="127"/>
       <c r="N99" s="15"/>
       <c r="O99" s="17" t="s">
         <v>274</v>
@@ -12019,18 +12233,18 @@
       <c r="C100" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="125" t="s">
+      <c r="D100" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="125"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="125"/>
-      <c r="J100" s="125"/>
-      <c r="K100" s="125"/>
-      <c r="L100" s="125"/>
-      <c r="M100" s="126"/>
+      <c r="E100" s="126"/>
+      <c r="F100" s="126"/>
+      <c r="G100" s="126"/>
+      <c r="H100" s="126"/>
+      <c r="I100" s="126"/>
+      <c r="J100" s="126"/>
+      <c r="K100" s="126"/>
+      <c r="L100" s="126"/>
+      <c r="M100" s="127"/>
       <c r="N100" s="15"/>
       <c r="O100" s="17" t="s">
         <v>292</v>
@@ -12081,18 +12295,18 @@
       <c r="C101" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="125" t="s">
+      <c r="D101" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="E101" s="125"/>
-      <c r="F101" s="125"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="125"/>
-      <c r="J101" s="125"/>
-      <c r="K101" s="125"/>
-      <c r="L101" s="125"/>
-      <c r="M101" s="126"/>
+      <c r="E101" s="126"/>
+      <c r="F101" s="126"/>
+      <c r="G101" s="126"/>
+      <c r="H101" s="126"/>
+      <c r="I101" s="126"/>
+      <c r="J101" s="126"/>
+      <c r="K101" s="126"/>
+      <c r="L101" s="126"/>
+      <c r="M101" s="127"/>
       <c r="N101" s="15"/>
       <c r="O101" s="17" t="s">
         <v>302</v>
@@ -12143,18 +12357,18 @@
       <c r="C102" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="D102" s="144" t="s">
+      <c r="D102" s="145" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="144"/>
-      <c r="F102" s="144"/>
-      <c r="G102" s="144"/>
-      <c r="H102" s="144"/>
-      <c r="I102" s="144"/>
-      <c r="J102" s="144"/>
-      <c r="K102" s="144"/>
-      <c r="L102" s="144"/>
-      <c r="M102" s="145"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="145"/>
+      <c r="G102" s="145"/>
+      <c r="H102" s="145"/>
+      <c r="I102" s="145"/>
+      <c r="J102" s="145"/>
+      <c r="K102" s="145"/>
+      <c r="L102" s="145"/>
+      <c r="M102" s="146"/>
       <c r="N102" s="67"/>
       <c r="O102" s="68" t="s">
         <v>241</v>
@@ -12315,7 +12529,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B96 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O97:P102 O71:P71 P65:P70 P53:P60 O54 O81:O83 O46:P47 P11:P15 O14:O15 B88 O89:P91 B92 P29:P45 P73:P83 P62:P64 O48:P50 O93:P95" numberStoredAsText="1"/>
+    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B96 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O97:P102 O71:P71 P65:P70 P53:P54 O81:O83 O46:P47 P11:P15 O14:O15 B88 O90:P90 B92 P29:P45 P73:P83 P62:P64 O48:P50 O93:P95 O91:P91 O89:P89 P55:P60 O54" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="407">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1322,23 +1322,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 UI 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 데이트 시나리오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기획</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI 씬 플로우 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
+    <t>1스테이지 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1346,27 +1414,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>5-10</t>
   </si>
   <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로토타입 UI 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
+    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>AR공간내 오브젝트 가시거리 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1374,19 +1459,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1차 프로토 완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>기업미팅 대비 질문 리스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMesh 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>최재연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1394,23 +1515,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 데이트 시나리오</t>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1418,7 +1535,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1스테이지 기획서</t>
+    <t>1차 프로토 TC 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1426,7 +1563,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.17</t>
+    <t>김효진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1434,59 +1571,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-14</t>
-  </si>
-  <si>
-    <t>AR공간내 오브젝트 가시거리 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-21</t>
-  </si>
-  <si>
-    <t>기업미팅 대비 질문 리스트 작성</t>
+    <t>박재성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1494,112 +1579,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NavMesh 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-22</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 거리가 되면 하단 대사, UI, 선택지 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-15</t>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 TC 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2503,12 +2487,81 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,75 +2578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5596,6 +5580,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>10238</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="직사각형 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15699274" y="2990614"/>
+          <a:ext cx="577591" cy="60107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5862,11 +5908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA102"/>
+  <dimension ref="B1:BA101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <pane ySplit="6" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AY80" sqref="AY80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5922,14 +5968,14 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="118" t="s">
-        <v>359</v>
-      </c>
-      <c r="AZ2" s="118" t="s">
-        <v>357</v>
-      </c>
-      <c r="BA2" s="118" t="s">
-        <v>358</v>
+      <c r="AY2" s="141" t="s">
+        <v>354</v>
+      </c>
+      <c r="AZ2" s="141" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA2" s="141" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.3">
@@ -5946,44 +5992,44 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="118"/>
-      <c r="AZ3" s="118"/>
-      <c r="BA3" s="118"/>
+      <c r="AY3" s="141"/>
+      <c r="AZ3" s="141"/>
+      <c r="BA3" s="141"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
-        <f>SUM(AW7:AW102)</f>
-        <v>153</v>
+        <f>SUM(AW7:AW101)</f>
+        <v>151</v>
       </c>
       <c r="AZ4" s="113">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW29+AW30+AW31+AW32+AW33+AW37+AW38+AW41+AW43+AW44+AW45+AW47+AW52+AW53+AW62+AW63+AW66+AW68+AW78+AW80+AW81+AW70+AW73+AW46+AW77+AW76+AW74+AW75</f>
-        <v>72</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW19+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW29+AW30+AW31+AW32+AW33+AW37+AW38+AW41+AW43+AW44+AW45+AW47+AW52+AW53+AW62+AW63+AW66+AW68+AW78+AW80+AW81+AW70+AW73+AW46+AW77+AW76+AW74+AW75+AW15</f>
+        <v>73</v>
       </c>
       <c r="BA4" s="113">
         <f>AZ4/AY4*100</f>
-        <v>47.058823529411761</v>
+        <v>48.344370860927157</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128" t="s">
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="135" t="s">
@@ -5992,7 +6038,7 @@
       <c r="P5" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="128" t="s">
+      <c r="Q5" s="126" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="137" t="s">
@@ -6032,27 +6078,27 @@
       <c r="AT5" s="132"/>
       <c r="AU5" s="132"/>
       <c r="AV5" s="133"/>
-      <c r="AW5" s="121" t="s">
-        <v>360</v>
+      <c r="AW5" s="144" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="142"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
       <c r="O6" s="136"/>
       <c r="P6" s="136"/>
-      <c r="Q6" s="129"/>
+      <c r="Q6" s="127"/>
       <c r="R6" s="138"/>
       <c r="S6" s="73">
         <v>29</v>
@@ -6144,7 +6190,7 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="122"/>
+      <c r="AW6" s="145"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
@@ -6207,18 +6253,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="131"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="129"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -6275,18 +6321,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="131"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -6343,18 +6389,18 @@
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="131"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -6411,18 +6457,18 @@
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="131"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -6479,18 +6525,18 @@
       <c r="C12" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="131"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="50" t="s">
         <v>224</v>
       </c>
@@ -6547,18 +6593,18 @@
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="131"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -6615,18 +6661,18 @@
       <c r="C14" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="128" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -6681,30 +6727,32 @@
         <v>237</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>368</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="131"/>
+        <v>363</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="50" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q15" s="52"/>
+        <v>377</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>1</v>
+      </c>
       <c r="R15" s="81">
         <v>1</v>
       </c>
@@ -6749,18 +6797,18 @@
       <c r="C16" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="131"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="50" t="s">
         <v>230</v>
       </c>
@@ -6810,23 +6858,23 @@
     </row>
     <row r="17" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="130" t="s">
+      <c r="D17" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="50" t="s">
         <v>238</v>
       </c>
@@ -6877,19 +6925,19 @@
       <c r="B18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="13"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
@@ -6934,18 +6982,18 @@
       <c r="C19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="144"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="14" t="s">
         <v>10</v>
       </c>
@@ -7002,18 +7050,18 @@
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
       <c r="N20" s="15" t="s">
         <v>32</v>
       </c>
@@ -7070,18 +7118,18 @@
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
       <c r="N21" s="15" t="s">
         <v>33</v>
       </c>
@@ -7138,18 +7186,18 @@
       <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="D22" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
       <c r="N22" s="15" t="s">
         <v>34</v>
       </c>
@@ -7206,18 +7254,18 @@
       <c r="C23" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="117"/>
       <c r="N23" s="15" t="s">
         <v>35</v>
       </c>
@@ -7274,18 +7322,18 @@
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
       <c r="N24" s="15" t="s">
         <v>37</v>
       </c>
@@ -7342,18 +7390,18 @@
       <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="117"/>
       <c r="N25" s="15" t="s">
         <v>83</v>
       </c>
@@ -7410,18 +7458,18 @@
       <c r="C26" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="117"/>
       <c r="N26" s="15" t="s">
         <v>140</v>
       </c>
@@ -7478,18 +7526,18 @@
       <c r="C27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="117"/>
       <c r="N27" s="15" t="s">
         <v>154</v>
       </c>
@@ -7543,19 +7591,19 @@
       <c r="B28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="13"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -7600,18 +7648,18 @@
       <c r="C29" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="126" t="s">
+      <c r="D29" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="127"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="117"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
@@ -7668,18 +7716,18 @@
       <c r="C30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="117"/>
       <c r="N30" s="15" t="s">
         <v>66</v>
       </c>
@@ -7736,18 +7784,18 @@
       <c r="C31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -7804,18 +7852,18 @@
       <c r="C32" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="126" t="s">
+      <c r="D32" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="127"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="117"/>
       <c r="N32" s="15" t="s">
         <v>95</v>
       </c>
@@ -7872,18 +7920,18 @@
       <c r="C33" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="117"/>
       <c r="N33" s="15" t="s">
         <v>243</v>
       </c>
@@ -7940,18 +7988,18 @@
       <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="117"/>
       <c r="N34" s="15" t="s">
         <v>99</v>
       </c>
@@ -8008,18 +8056,18 @@
       <c r="C35" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="126" t="s">
+      <c r="D35" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="127"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="117"/>
       <c r="N35" s="15" t="s">
         <v>104</v>
       </c>
@@ -8076,18 +8124,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="127"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="117"/>
       <c r="N36" s="15" t="s">
         <v>109</v>
       </c>
@@ -8142,18 +8190,18 @@
       <c r="C37" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="126" t="s">
+      <c r="D37" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="127"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="117"/>
       <c r="N37" s="15" t="s">
         <v>144</v>
       </c>
@@ -8210,18 +8258,18 @@
       <c r="C38" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="126" t="s">
+      <c r="D38" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="127"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="117"/>
       <c r="N38" s="15" t="s">
         <v>147</v>
       </c>
@@ -8278,18 +8326,18 @@
       <c r="C39" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="127"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="117"/>
       <c r="N39" s="15" t="s">
         <v>253</v>
       </c>
@@ -8346,18 +8394,18 @@
       <c r="C40" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="127"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="117"/>
       <c r="N40" s="15" t="s">
         <v>232</v>
       </c>
@@ -8365,7 +8413,7 @@
         <v>254</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="84">
@@ -8412,18 +8460,18 @@
       <c r="C41" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="127"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="117"/>
       <c r="N41" s="15" t="s">
         <v>247</v>
       </c>
@@ -8480,18 +8528,18 @@
       <c r="C42" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="126" t="s">
+      <c r="D42" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="127"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="117"/>
       <c r="N42" s="15" t="s">
         <v>232</v>
       </c>
@@ -8546,18 +8594,18 @@
       <c r="C43" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="126" t="s">
+      <c r="D43" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="127"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="117"/>
       <c r="N43" s="15" t="s">
         <v>259</v>
       </c>
@@ -8614,18 +8662,18 @@
       <c r="C44" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="126" t="s">
+      <c r="D44" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="127"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="117"/>
       <c r="N44" s="15" t="s">
         <v>264</v>
       </c>
@@ -8682,18 +8730,18 @@
       <c r="C45" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="127"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="117"/>
       <c r="N45" s="15" t="s">
         <v>262</v>
       </c>
@@ -8750,18 +8798,18 @@
       <c r="C46" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="126" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="127"/>
+      <c r="D46" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="117"/>
       <c r="N46" s="15" t="s">
         <v>248</v>
       </c>
@@ -8818,18 +8866,18 @@
       <c r="C47" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="126" t="s">
+      <c r="D47" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="127"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="117"/>
       <c r="N47" s="15" t="s">
         <v>278</v>
       </c>
@@ -8880,31 +8928,31 @@
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C48" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D48" s="116" t="s">
         <v>368</v>
       </c>
-      <c r="D48" s="126" t="s">
-        <v>373</v>
-      </c>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="127"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="117"/>
       <c r="N48" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="P48" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="P48" s="17" t="s">
-        <v>379</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="84">
@@ -8945,31 +8993,31 @@
     </row>
     <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" s="126" t="s">
-        <v>377</v>
-      </c>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="127"/>
+        <v>371</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>372</v>
+      </c>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="117"/>
       <c r="N49" s="15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="84">
@@ -9010,31 +9058,31 @@
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>384</v>
-      </c>
-      <c r="D50" s="126" t="s">
-        <v>386</v>
-      </c>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="127"/>
+        <v>379</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="117"/>
       <c r="N50" s="15" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="84">
@@ -9077,19 +9125,19 @@
       <c r="B51" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="124" t="s">
+      <c r="C51" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="125"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="119"/>
       <c r="N51" s="38"/>
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
@@ -9134,18 +9182,18 @@
       <c r="C52" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="116" t="s">
+      <c r="D52" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="117"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="121"/>
       <c r="N52" s="39" t="s">
         <v>64</v>
       </c>
@@ -9202,18 +9250,18 @@
       <c r="C53" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="116" t="s">
+      <c r="D53" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="117"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="121"/>
       <c r="N53" s="39" t="s">
         <v>169</v>
       </c>
@@ -9270,26 +9318,26 @@
       <c r="C54" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="D54" s="116" t="s">
+      <c r="D54" s="120" t="s">
         <v>310</v>
       </c>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="117"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="121"/>
       <c r="N54" s="39" t="s">
         <v>312</v>
       </c>
       <c r="O54" s="56" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P54" s="56" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q54" s="79" t="s">
         <v>324</v>
@@ -9337,18 +9385,18 @@
       <c r="C55" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="116" t="s">
+      <c r="D55" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="117"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="121"/>
       <c r="N55" s="39" t="s">
         <v>171</v>
       </c>
@@ -9405,18 +9453,18 @@
       <c r="C56" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="126" t="s">
+      <c r="D56" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="127"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="117"/>
       <c r="N56" s="15" t="s">
         <v>104</v>
       </c>
@@ -9473,18 +9521,18 @@
       <c r="C57" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="126" t="s">
+      <c r="D57" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="127"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="117"/>
       <c r="N57" s="15" t="s">
         <v>75</v>
       </c>
@@ -9539,18 +9587,18 @@
       <c r="C58" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="126" t="s">
+      <c r="D58" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="127"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="117"/>
       <c r="N58" s="15"/>
       <c r="O58" s="17" t="s">
         <v>288</v>
@@ -9603,18 +9651,18 @@
       <c r="C59" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="126" t="s">
+      <c r="D59" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="127"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="117"/>
       <c r="N59" s="15"/>
       <c r="O59" s="17" t="s">
         <v>290</v>
@@ -9667,18 +9715,18 @@
       <c r="C60" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="126" t="s">
+      <c r="D60" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="127"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="117"/>
       <c r="N60" s="15"/>
       <c r="O60" s="17" t="s">
         <v>290</v>
@@ -9728,19 +9776,19 @@
       <c r="B61" s="37">
         <v>5</v>
       </c>
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="125"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="119"/>
       <c r="N61" s="40"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41"/>
@@ -9785,18 +9833,18 @@
       <c r="C62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="126" t="s">
+      <c r="D62" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="127"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="116"/>
+      <c r="M62" s="117"/>
       <c r="N62" s="15" t="s">
         <v>59</v>
       </c>
@@ -9853,18 +9901,18 @@
       <c r="C63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="126" t="s">
+      <c r="D63" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-      <c r="M63" s="127"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="117"/>
       <c r="N63" s="15" t="s">
         <v>293</v>
       </c>
@@ -9921,18 +9969,18 @@
       <c r="C64" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="126" t="s">
-        <v>361</v>
-      </c>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="126"/>
-      <c r="M64" s="127"/>
+      <c r="D64" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="117"/>
       <c r="N64" s="15" t="s">
         <v>314</v>
       </c>
@@ -9985,28 +10033,28 @@
         <v>112</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D65" s="126" t="s">
-        <v>363</v>
-      </c>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
-      <c r="M65" s="127"/>
+        <v>357</v>
+      </c>
+      <c r="D65" s="116" t="s">
+        <v>358</v>
+      </c>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="117"/>
       <c r="N65" s="15" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O65" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="84">
@@ -10053,18 +10101,18 @@
       <c r="C66" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="126" t="s">
+      <c r="D66" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
-      <c r="M66" s="127"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+      <c r="L66" s="116"/>
+      <c r="M66" s="117"/>
       <c r="N66" s="15" t="s">
         <v>68</v>
       </c>
@@ -10121,18 +10169,18 @@
       <c r="C67" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="126" t="s">
+      <c r="D67" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
-      <c r="M67" s="127"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="116"/>
+      <c r="K67" s="116"/>
+      <c r="L67" s="116"/>
+      <c r="M67" s="117"/>
       <c r="N67" s="15"/>
       <c r="O67" s="17" t="s">
         <v>239</v>
@@ -10183,18 +10231,18 @@
       <c r="C68" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="126" t="s">
+      <c r="D68" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="127"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="117"/>
       <c r="N68" s="15" t="s">
         <v>299</v>
       </c>
@@ -10251,20 +10299,20 @@
       <c r="C69" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="126" t="s">
+      <c r="D69" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
-      <c r="M69" s="127"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+      <c r="L69" s="116"/>
+      <c r="M69" s="117"/>
       <c r="N69" s="15" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O69" s="17" t="s">
         <v>221</v>
@@ -10317,18 +10365,18 @@
       <c r="C70" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="126" t="s">
+      <c r="D70" s="116" t="s">
         <v>326</v>
       </c>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-      <c r="M70" s="127"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="116"/>
+      <c r="H70" s="116"/>
+      <c r="I70" s="116"/>
+      <c r="J70" s="116"/>
+      <c r="K70" s="116"/>
+      <c r="L70" s="116"/>
+      <c r="M70" s="117"/>
       <c r="N70" s="15" t="s">
         <v>322</v>
       </c>
@@ -10380,23 +10428,23 @@
     </row>
     <row r="71" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C71" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="126" t="s">
+      <c r="D71" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
-      <c r="M71" s="127"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="116"/>
+      <c r="I71" s="116"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="116"/>
+      <c r="M71" s="117"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>302</v>
@@ -10444,19 +10492,19 @@
       <c r="B72" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="124" t="s">
+      <c r="C72" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="124"/>
-      <c r="M72" s="125"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="118"/>
+      <c r="J72" s="118"/>
+      <c r="K72" s="118"/>
+      <c r="L72" s="118"/>
+      <c r="M72" s="119"/>
       <c r="N72" s="38"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41"/>
@@ -10501,18 +10549,18 @@
       <c r="C73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="126" t="s">
+      <c r="D73" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="127"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="117"/>
       <c r="N73" s="15" t="s">
         <v>85</v>
       </c>
@@ -10569,18 +10617,18 @@
       <c r="C74" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="126" t="s">
+      <c r="D74" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-      <c r="M74" s="127"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="116"/>
+      <c r="H74" s="116"/>
+      <c r="I74" s="116"/>
+      <c r="J74" s="116"/>
+      <c r="K74" s="116"/>
+      <c r="L74" s="116"/>
+      <c r="M74" s="117"/>
       <c r="N74" s="15" t="s">
         <v>315</v>
       </c>
@@ -10637,20 +10685,20 @@
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="126" t="s">
+      <c r="D75" s="116" t="s">
         <v>194</v>
       </c>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="126"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="127"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="116"/>
+      <c r="H75" s="116"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="116"/>
+      <c r="K75" s="116"/>
+      <c r="L75" s="116"/>
+      <c r="M75" s="117"/>
       <c r="N75" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="O75" s="17" t="s">
         <v>221</v>
@@ -10705,20 +10753,20 @@
       <c r="C76" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="126" t="s">
+      <c r="D76" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="127"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="117"/>
       <c r="N76" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O76" s="17" t="s">
         <v>300</v>
@@ -10773,20 +10821,20 @@
       <c r="C77" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="126" t="s">
+      <c r="D77" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="127"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="116"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
+      <c r="M77" s="117"/>
       <c r="N77" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O77" s="17" t="s">
         <v>250</v>
@@ -10841,18 +10889,18 @@
       <c r="C78" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D78" s="126" t="s">
+      <c r="D78" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="127"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="116"/>
+      <c r="M78" s="117"/>
       <c r="N78" s="15" t="s">
         <v>220</v>
       </c>
@@ -10909,18 +10957,18 @@
       <c r="C79" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="126" t="s">
-        <v>355</v>
-      </c>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="126"/>
-      <c r="M79" s="127"/>
+      <c r="D79" s="116" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="117"/>
       <c r="N79" s="15" t="s">
         <v>216</v>
       </c>
@@ -10928,7 +10976,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q79" s="19">
         <v>0.5</v>
@@ -10977,18 +11025,18 @@
       <c r="C80" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D80" s="126" t="s">
+      <c r="D80" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
-      <c r="M80" s="127"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="116"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="117"/>
       <c r="N80" s="15" t="s">
         <v>232</v>
       </c>
@@ -11045,18 +11093,18 @@
       <c r="C81" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="D81" s="126" t="s">
+      <c r="D81" s="116" t="s">
         <v>318</v>
       </c>
-      <c r="E81" s="126"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="126"/>
-      <c r="J81" s="126"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="126"/>
-      <c r="M81" s="127"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="116"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="116"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="117"/>
       <c r="N81" s="15" t="s">
         <v>319</v>
       </c>
@@ -11111,28 +11159,28 @@
         <v>124</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="D82" s="126" t="s">
-        <v>369</v>
-      </c>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
-      <c r="M82" s="127"/>
+        <v>363</v>
+      </c>
+      <c r="D82" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="116"/>
+      <c r="M82" s="117"/>
       <c r="N82" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O82" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="84">
@@ -11177,28 +11225,28 @@
         <v>125</v>
       </c>
       <c r="C83" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D83" s="116" t="s">
+        <v>385</v>
+      </c>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="117"/>
+      <c r="N83" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="P83" s="17" t="s">
         <v>389</v>
-      </c>
-      <c r="D83" s="126" t="s">
-        <v>390</v>
-      </c>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="126"/>
-      <c r="I83" s="126"/>
-      <c r="J83" s="126"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="126"/>
-      <c r="M83" s="127"/>
-      <c r="N83" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="P83" s="17" t="s">
-        <v>394</v>
       </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="84">
@@ -11245,18 +11293,18 @@
       <c r="C84" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="126" t="s">
+      <c r="D84" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="126"/>
-      <c r="J84" s="126"/>
-      <c r="K84" s="126"/>
-      <c r="L84" s="126"/>
-      <c r="M84" s="127"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="116"/>
+      <c r="H84" s="116"/>
+      <c r="I84" s="116"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="116"/>
+      <c r="L84" s="116"/>
+      <c r="M84" s="117"/>
       <c r="N84" s="15"/>
       <c r="O84" s="17" t="s">
         <v>307</v>
@@ -11307,18 +11355,18 @@
       <c r="C85" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="126" t="s">
+      <c r="D85" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="126"/>
-      <c r="K85" s="126"/>
-      <c r="L85" s="126"/>
-      <c r="M85" s="127"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="116"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
+      <c r="M85" s="117"/>
       <c r="N85" s="15"/>
       <c r="O85" s="17" t="s">
         <v>290</v>
@@ -11364,23 +11412,23 @@
     </row>
     <row r="86" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B86" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C86" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="126" t="s">
+      <c r="D86" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
-      <c r="M86" s="127"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="117"/>
       <c r="N86" s="15"/>
       <c r="O86" s="17" t="s">
         <v>290</v>
@@ -11426,23 +11474,23 @@
     </row>
     <row r="87" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B87" s="36" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C87" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="126" t="s">
+      <c r="D87" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="126"/>
-      <c r="K87" s="126"/>
-      <c r="L87" s="126"/>
-      <c r="M87" s="127"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="116"/>
+      <c r="J87" s="116"/>
+      <c r="K87" s="116"/>
+      <c r="L87" s="116"/>
+      <c r="M87" s="117"/>
       <c r="N87" s="15"/>
       <c r="O87" s="17" t="s">
         <v>292</v>
@@ -11490,19 +11538,19 @@
       <c r="B88" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="123" t="s">
+      <c r="C88" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="124"/>
-      <c r="I88" s="124"/>
-      <c r="J88" s="124"/>
-      <c r="K88" s="124"/>
-      <c r="L88" s="124"/>
-      <c r="M88" s="125"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+      <c r="M88" s="119"/>
       <c r="N88" s="38"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41"/>
@@ -11547,18 +11595,18 @@
       <c r="C89" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="D89" s="119" t="s">
+      <c r="D89" s="142" t="s">
         <v>336</v>
       </c>
-      <c r="E89" s="119"/>
-      <c r="F89" s="119"/>
-      <c r="G89" s="119"/>
-      <c r="H89" s="119"/>
-      <c r="I89" s="119"/>
-      <c r="J89" s="119"/>
-      <c r="K89" s="119"/>
-      <c r="L89" s="119"/>
-      <c r="M89" s="120"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="142"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="142"/>
+      <c r="L89" s="142"/>
+      <c r="M89" s="143"/>
       <c r="N89" s="97" t="s">
         <v>337</v>
       </c>
@@ -11566,7 +11614,7 @@
         <v>338</v>
       </c>
       <c r="P89" s="98" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q89" s="106"/>
       <c r="R89" s="99">
@@ -11608,31 +11656,31 @@
     </row>
     <row r="90" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B90" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" s="108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="142" t="s">
         <v>342</v>
       </c>
-      <c r="C90" s="107" t="s">
-        <v>340</v>
-      </c>
-      <c r="D90" s="119" t="s">
-        <v>341</v>
-      </c>
-      <c r="E90" s="119"/>
-      <c r="F90" s="119"/>
-      <c r="G90" s="119"/>
-      <c r="H90" s="119"/>
-      <c r="I90" s="119"/>
-      <c r="J90" s="119"/>
-      <c r="K90" s="119"/>
-      <c r="L90" s="119"/>
-      <c r="M90" s="120"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="142"/>
+      <c r="H90" s="142"/>
+      <c r="I90" s="142"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="142"/>
+      <c r="L90" s="142"/>
+      <c r="M90" s="143"/>
       <c r="N90" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="O90" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="P90" s="98" t="s">
         <v>343</v>
-      </c>
-      <c r="O90" s="98" t="s">
-        <v>339</v>
-      </c>
-      <c r="P90" s="98" t="s">
-        <v>344</v>
       </c>
       <c r="Q90" s="106"/>
       <c r="R90" s="99">
@@ -11657,14 +11705,14 @@
       <c r="AI90" s="42"/>
       <c r="AJ90" s="46"/>
       <c r="AK90" s="7"/>
-      <c r="AL90" s="8"/>
-      <c r="AM90" s="8"/>
-      <c r="AN90" s="11"/>
-      <c r="AO90" s="11"/>
+      <c r="AL90" s="24"/>
+      <c r="AM90" s="115"/>
+      <c r="AN90" s="9"/>
+      <c r="AO90" s="9"/>
       <c r="AP90" s="42"/>
       <c r="AQ90" s="46"/>
-      <c r="AR90" s="11"/>
-      <c r="AS90" s="11"/>
+      <c r="AR90" s="9"/>
+      <c r="AS90" s="9"/>
       <c r="AT90" s="7"/>
       <c r="AU90" s="7"/>
       <c r="AV90" s="76"/>
@@ -11673,35 +11721,27 @@
       </c>
     </row>
     <row r="91" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B91" s="96" t="s">
+      <c r="B91" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" s="146" t="s">
         <v>345</v>
       </c>
-      <c r="C91" s="108" t="s">
-        <v>346</v>
-      </c>
-      <c r="D91" s="119" t="s">
-        <v>347</v>
-      </c>
-      <c r="E91" s="119"/>
-      <c r="F91" s="119"/>
-      <c r="G91" s="119"/>
-      <c r="H91" s="119"/>
-      <c r="I91" s="119"/>
-      <c r="J91" s="119"/>
-      <c r="K91" s="119"/>
-      <c r="L91" s="119"/>
-      <c r="M91" s="120"/>
-      <c r="N91" s="97"/>
-      <c r="O91" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="P91" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q91" s="106"/>
-      <c r="R91" s="99">
-        <v>2</v>
-      </c>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="119"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="85"/>
       <c r="S91" s="27"/>
       <c r="T91" s="11"/>
       <c r="U91" s="45"/>
@@ -11722,42 +11762,48 @@
       <c r="AJ91" s="46"/>
       <c r="AK91" s="7"/>
       <c r="AL91" s="24"/>
-      <c r="AM91" s="115"/>
-      <c r="AN91" s="9"/>
-      <c r="AO91" s="9"/>
+      <c r="AM91" s="24"/>
+      <c r="AN91" s="11"/>
+      <c r="AO91" s="11"/>
       <c r="AP91" s="42"/>
       <c r="AQ91" s="46"/>
-      <c r="AR91" s="9"/>
-      <c r="AS91" s="9"/>
+      <c r="AR91" s="11"/>
+      <c r="AS91" s="11"/>
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
       <c r="AV91" s="76"/>
-      <c r="AW91" s="111">
-        <v>2</v>
-      </c>
+      <c r="AW91" s="111"/>
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B92" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="C92" s="123" t="s">
-        <v>350</v>
-      </c>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="124"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="124"/>
-      <c r="K92" s="124"/>
-      <c r="L92" s="124"/>
-      <c r="M92" s="125"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="105"/>
-      <c r="R92" s="85"/>
+      <c r="B92" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="C92" s="114" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="120" t="s">
+        <v>394</v>
+      </c>
+      <c r="E92" s="120"/>
+      <c r="F92" s="120"/>
+      <c r="G92" s="120"/>
+      <c r="H92" s="120"/>
+      <c r="I92" s="120"/>
+      <c r="J92" s="120"/>
+      <c r="K92" s="120"/>
+      <c r="L92" s="120"/>
+      <c r="M92" s="121"/>
+      <c r="N92" s="97"/>
+      <c r="O92" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="P92" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q92" s="106"/>
+      <c r="R92" s="99">
+        <v>1</v>
+      </c>
       <c r="S92" s="27"/>
       <c r="T92" s="11"/>
       <c r="U92" s="45"/>
@@ -11785,36 +11831,38 @@
       <c r="AQ92" s="46"/>
       <c r="AR92" s="11"/>
       <c r="AS92" s="11"/>
-      <c r="AT92" s="7"/>
-      <c r="AU92" s="7"/>
+      <c r="AT92" s="8"/>
+      <c r="AU92" s="8"/>
       <c r="AV92" s="76"/>
-      <c r="AW92" s="111"/>
+      <c r="AW92" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="96" t="s">
-        <v>395</v>
-      </c>
-      <c r="C93" s="114" t="s">
-        <v>398</v>
-      </c>
-      <c r="D93" s="116" t="s">
-        <v>399</v>
-      </c>
-      <c r="E93" s="116"/>
-      <c r="F93" s="116"/>
-      <c r="G93" s="116"/>
-      <c r="H93" s="116"/>
-      <c r="I93" s="116"/>
-      <c r="J93" s="116"/>
-      <c r="K93" s="116"/>
-      <c r="L93" s="116"/>
-      <c r="M93" s="117"/>
+        <v>391</v>
+      </c>
+      <c r="C93" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" s="142" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" s="142"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
+      <c r="I93" s="142"/>
+      <c r="J93" s="142"/>
+      <c r="K93" s="142"/>
+      <c r="L93" s="142"/>
+      <c r="M93" s="143"/>
       <c r="N93" s="97"/>
       <c r="O93" s="98" t="s">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="P93" s="98" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q93" s="106"/>
       <c r="R93" s="99">
@@ -11847,38 +11895,38 @@
       <c r="AQ93" s="46"/>
       <c r="AR93" s="11"/>
       <c r="AS93" s="11"/>
-      <c r="AT93" s="8"/>
-      <c r="AU93" s="8"/>
-      <c r="AV93" s="76"/>
+      <c r="AT93" s="11"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="102"/>
       <c r="AW93" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B94" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="C94" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="D94" s="119" t="s">
-        <v>352</v>
-      </c>
-      <c r="E94" s="119"/>
-      <c r="F94" s="119"/>
-      <c r="G94" s="119"/>
-      <c r="H94" s="119"/>
-      <c r="I94" s="119"/>
-      <c r="J94" s="119"/>
-      <c r="K94" s="119"/>
-      <c r="L94" s="119"/>
-      <c r="M94" s="120"/>
+        <v>392</v>
+      </c>
+      <c r="C94" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="D94" s="142" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="142"/>
+      <c r="F94" s="142"/>
+      <c r="G94" s="142"/>
+      <c r="H94" s="142"/>
+      <c r="I94" s="142"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="142"/>
+      <c r="L94" s="142"/>
+      <c r="M94" s="143"/>
       <c r="N94" s="97"/>
       <c r="O94" s="98" t="s">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="P94" s="98" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q94" s="106"/>
       <c r="R94" s="99">
@@ -11912,53 +11960,45 @@
       <c r="AR94" s="11"/>
       <c r="AS94" s="11"/>
       <c r="AT94" s="11"/>
-      <c r="AU94" s="7"/>
-      <c r="AV94" s="102"/>
+      <c r="AU94" s="11"/>
+      <c r="AV94" s="76"/>
       <c r="AW94" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B95" s="96" t="s">
-        <v>397</v>
-      </c>
-      <c r="C95" s="107" t="s">
-        <v>335</v>
-      </c>
-      <c r="D95" s="119" t="s">
-        <v>353</v>
-      </c>
-      <c r="E95" s="119"/>
-      <c r="F95" s="119"/>
-      <c r="G95" s="119"/>
-      <c r="H95" s="119"/>
-      <c r="I95" s="119"/>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
-      <c r="M95" s="120"/>
-      <c r="N95" s="97"/>
-      <c r="O95" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="P95" s="98" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q95" s="106"/>
-      <c r="R95" s="99">
-        <v>1</v>
-      </c>
-      <c r="S95" s="27"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="45"/>
-      <c r="V95" s="49"/>
-      <c r="W95" s="11"/>
-      <c r="X95" s="11"/>
+      <c r="B95" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="118"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="118"/>
+      <c r="G95" s="118"/>
+      <c r="H95" s="118"/>
+      <c r="I95" s="118"/>
+      <c r="J95" s="118"/>
+      <c r="K95" s="118"/>
+      <c r="L95" s="118"/>
+      <c r="M95" s="119"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="85"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
       <c r="AB95" s="42"/>
-      <c r="AC95" s="7"/>
+      <c r="AC95" s="46"/>
       <c r="AD95" s="7"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
@@ -11967,43 +12007,51 @@
       <c r="AI95" s="42"/>
       <c r="AJ95" s="46"/>
       <c r="AK95" s="7"/>
-      <c r="AL95" s="24"/>
-      <c r="AM95" s="24"/>
-      <c r="AN95" s="11"/>
-      <c r="AO95" s="11"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+      <c r="AO95" s="7"/>
       <c r="AP95" s="42"/>
       <c r="AQ95" s="46"/>
-      <c r="AR95" s="11"/>
-      <c r="AS95" s="11"/>
-      <c r="AT95" s="11"/>
-      <c r="AU95" s="11"/>
+      <c r="AR95" s="7"/>
+      <c r="AS95" s="7"/>
+      <c r="AT95" s="7"/>
+      <c r="AU95" s="7"/>
       <c r="AV95" s="76"/>
-      <c r="AW95" s="111">
-        <v>2</v>
-      </c>
+      <c r="AW95" s="111"/>
     </row>
     <row r="96" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B96" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="124"/>
-      <c r="H96" s="124"/>
-      <c r="I96" s="124"/>
-      <c r="J96" s="124"/>
-      <c r="K96" s="124"/>
-      <c r="L96" s="124"/>
-      <c r="M96" s="125"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="38"/>
-      <c r="R96" s="85"/>
+      <c r="B96" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" s="120"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="120"/>
+      <c r="I96" s="120"/>
+      <c r="J96" s="120"/>
+      <c r="K96" s="120"/>
+      <c r="L96" s="120"/>
+      <c r="M96" s="121"/>
+      <c r="N96" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="O96" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="P96" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q96" s="97"/>
+      <c r="R96" s="99">
+        <v>1</v>
+      </c>
       <c r="S96" s="25"/>
       <c r="T96" s="7"/>
       <c r="U96" s="42"/>
@@ -12029,22 +12077,24 @@
       <c r="AO96" s="7"/>
       <c r="AP96" s="42"/>
       <c r="AQ96" s="46"/>
-      <c r="AR96" s="7"/>
-      <c r="AS96" s="7"/>
-      <c r="AT96" s="7"/>
-      <c r="AU96" s="7"/>
-      <c r="AV96" s="76"/>
-      <c r="AW96" s="111"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="101"/>
+      <c r="AW96" s="111">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B97" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="C97" s="100" t="s">
-        <v>234</v>
+      <c r="B97" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="D97" s="116" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="E97" s="116"/>
       <c r="F97" s="116"/>
@@ -12055,19 +12105,15 @@
       <c r="K97" s="116"/>
       <c r="L97" s="116"/>
       <c r="M97" s="117"/>
-      <c r="N97" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="O97" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="P97" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q97" s="97"/>
-      <c r="R97" s="99">
-        <v>1</v>
-      </c>
+      <c r="N97" s="15"/>
+      <c r="O97" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="P97" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="84"/>
       <c r="S97" s="25"/>
       <c r="T97" s="7"/>
       <c r="U97" s="42"/>
@@ -12094,36 +12140,36 @@
       <c r="AP97" s="42"/>
       <c r="AQ97" s="46"/>
       <c r="AR97" s="8"/>
-      <c r="AS97" s="8"/>
-      <c r="AT97" s="8"/>
-      <c r="AU97" s="8"/>
-      <c r="AV97" s="101"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="7"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="76"/>
       <c r="AW97" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B98" s="36" t="s">
-        <v>271</v>
+      <c r="B98" s="96" t="s">
+        <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="126"/>
-      <c r="F98" s="126"/>
-      <c r="G98" s="126"/>
-      <c r="H98" s="126"/>
-      <c r="I98" s="126"/>
-      <c r="J98" s="126"/>
-      <c r="K98" s="126"/>
-      <c r="L98" s="126"/>
-      <c r="M98" s="127"/>
+        <v>195</v>
+      </c>
+      <c r="D98" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="116"/>
+      <c r="H98" s="116"/>
+      <c r="I98" s="116"/>
+      <c r="J98" s="116"/>
+      <c r="K98" s="116"/>
+      <c r="L98" s="116"/>
+      <c r="M98" s="117"/>
       <c r="N98" s="15"/>
       <c r="O98" s="17" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="P98" s="17" t="s">
         <v>290</v>
@@ -12165,30 +12211,30 @@
       </c>
     </row>
     <row r="99" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B99" s="96" t="s">
-        <v>134</v>
+      <c r="B99" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="126" t="s">
-        <v>210</v>
-      </c>
-      <c r="E99" s="126"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-      <c r="M99" s="127"/>
+        <v>211</v>
+      </c>
+      <c r="D99" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="117"/>
       <c r="N99" s="15"/>
       <c r="O99" s="17" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="P99" s="17" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q99" s="15"/>
       <c r="R99" s="84"/>
@@ -12217,40 +12263,40 @@
       <c r="AO99" s="7"/>
       <c r="AP99" s="42"/>
       <c r="AQ99" s="46"/>
-      <c r="AR99" s="8"/>
-      <c r="AS99" s="7"/>
-      <c r="AT99" s="7"/>
+      <c r="AR99" s="7"/>
+      <c r="AS99" s="8"/>
+      <c r="AT99" s="8"/>
       <c r="AU99" s="7"/>
       <c r="AV99" s="76"/>
       <c r="AW99" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B100" s="36" t="s">
-        <v>135</v>
+      <c r="B100" s="96" t="s">
+        <v>136</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D100" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="E100" s="126"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="126"/>
-      <c r="H100" s="126"/>
-      <c r="I100" s="126"/>
-      <c r="J100" s="126"/>
-      <c r="K100" s="126"/>
-      <c r="L100" s="126"/>
-      <c r="M100" s="127"/>
+        <v>195</v>
+      </c>
+      <c r="D100" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116"/>
+      <c r="J100" s="116"/>
+      <c r="K100" s="116"/>
+      <c r="L100" s="116"/>
+      <c r="M100" s="117"/>
       <c r="N100" s="15"/>
       <c r="O100" s="17" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P100" s="17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q100" s="15"/>
       <c r="R100" s="84"/>
@@ -12280,140 +12326,171 @@
       <c r="AP100" s="42"/>
       <c r="AQ100" s="46"/>
       <c r="AR100" s="7"/>
-      <c r="AS100" s="8"/>
+      <c r="AS100" s="7"/>
       <c r="AT100" s="8"/>
       <c r="AU100" s="7"/>
       <c r="AV100" s="76"/>
       <c r="AW100" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B101" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D101" s="126" t="s">
-        <v>213</v>
-      </c>
-      <c r="E101" s="126"/>
-      <c r="F101" s="126"/>
-      <c r="G101" s="126"/>
-      <c r="H101" s="126"/>
-      <c r="I101" s="126"/>
-      <c r="J101" s="126"/>
-      <c r="K101" s="126"/>
-      <c r="L101" s="126"/>
-      <c r="M101" s="127"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="P101" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="84"/>
-      <c r="S101" s="25"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="42"/>
-      <c r="V101" s="46"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
-      <c r="Z101" s="7"/>
-      <c r="AA101" s="7"/>
-      <c r="AB101" s="42"/>
-      <c r="AC101" s="46"/>
-      <c r="AD101" s="7"/>
-      <c r="AE101" s="7"/>
-      <c r="AF101" s="7"/>
-      <c r="AG101" s="7"/>
-      <c r="AH101" s="7"/>
-      <c r="AI101" s="42"/>
-      <c r="AJ101" s="46"/>
-      <c r="AK101" s="7"/>
-      <c r="AL101" s="7"/>
-      <c r="AM101" s="7"/>
-      <c r="AN101" s="7"/>
-      <c r="AO101" s="7"/>
-      <c r="AP101" s="42"/>
-      <c r="AQ101" s="46"/>
-      <c r="AR101" s="7"/>
-      <c r="AS101" s="7"/>
-      <c r="AT101" s="8"/>
-      <c r="AU101" s="7"/>
-      <c r="AV101" s="76"/>
-      <c r="AW101" s="111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="95" t="s">
+    <row r="101" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C102" s="87" t="s">
+      <c r="C101" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="D102" s="145" t="s">
+      <c r="D101" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="145"/>
-      <c r="F102" s="145"/>
-      <c r="G102" s="145"/>
-      <c r="H102" s="145"/>
-      <c r="I102" s="145"/>
-      <c r="J102" s="145"/>
-      <c r="K102" s="145"/>
-      <c r="L102" s="145"/>
-      <c r="M102" s="146"/>
-      <c r="N102" s="67"/>
-      <c r="O102" s="68" t="s">
+      <c r="E101" s="122"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="122"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="122"/>
+      <c r="K101" s="122"/>
+      <c r="L101" s="122"/>
+      <c r="M101" s="123"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="P102" s="68" t="s">
+      <c r="P101" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="Q102" s="67"/>
-      <c r="R102" s="88"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="70"/>
-      <c r="U102" s="71"/>
-      <c r="V102" s="72"/>
-      <c r="W102" s="70"/>
-      <c r="X102" s="70"/>
-      <c r="Y102" s="70"/>
-      <c r="Z102" s="70"/>
-      <c r="AA102" s="70"/>
-      <c r="AB102" s="71"/>
-      <c r="AC102" s="72"/>
-      <c r="AD102" s="70"/>
-      <c r="AE102" s="70"/>
-      <c r="AF102" s="70"/>
-      <c r="AG102" s="70"/>
-      <c r="AH102" s="70"/>
-      <c r="AI102" s="71"/>
-      <c r="AJ102" s="72"/>
-      <c r="AK102" s="70"/>
-      <c r="AL102" s="70"/>
-      <c r="AM102" s="70"/>
-      <c r="AN102" s="70"/>
-      <c r="AO102" s="70"/>
-      <c r="AP102" s="71"/>
-      <c r="AQ102" s="72"/>
-      <c r="AR102" s="70"/>
-      <c r="AS102" s="70"/>
-      <c r="AT102" s="70"/>
-      <c r="AU102" s="103"/>
-      <c r="AV102" s="77"/>
-      <c r="AW102" s="112">
+      <c r="Q101" s="67"/>
+      <c r="R101" s="88"/>
+      <c r="S101" s="69"/>
+      <c r="T101" s="70"/>
+      <c r="U101" s="71"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="70"/>
+      <c r="X101" s="70"/>
+      <c r="Y101" s="70"/>
+      <c r="Z101" s="70"/>
+      <c r="AA101" s="70"/>
+      <c r="AB101" s="71"/>
+      <c r="AC101" s="72"/>
+      <c r="AD101" s="70"/>
+      <c r="AE101" s="70"/>
+      <c r="AF101" s="70"/>
+      <c r="AG101" s="70"/>
+      <c r="AH101" s="70"/>
+      <c r="AI101" s="71"/>
+      <c r="AJ101" s="72"/>
+      <c r="AK101" s="70"/>
+      <c r="AL101" s="70"/>
+      <c r="AM101" s="70"/>
+      <c r="AN101" s="70"/>
+      <c r="AO101" s="70"/>
+      <c r="AP101" s="71"/>
+      <c r="AQ101" s="72"/>
+      <c r="AR101" s="70"/>
+      <c r="AS101" s="70"/>
+      <c r="AT101" s="70"/>
+      <c r="AU101" s="103"/>
+      <c r="AV101" s="77"/>
+      <c r="AW101" s="112">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="109">
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="C88:M88"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="C91:M91"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="C95:M95"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D65:M65"/>
     <mergeCell ref="D84:M84"/>
     <mergeCell ref="D81:M81"/>
     <mergeCell ref="D75:M75"/>
@@ -12430,106 +12507,12 @@
     <mergeCell ref="D62:M62"/>
     <mergeCell ref="D82:M82"/>
     <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D102:M102"/>
-    <mergeCell ref="C96:M96"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D100:M100"/>
-    <mergeCell ref="D101:M101"/>
-    <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="C88:M88"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="C92:M92"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D39:M39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B96 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O97:P102 O71:P71 P65:P70 P53:P54 O81:O83 O46:P47 P11:P15 O14:O15 B88 O90:P90 B92 P29:P45 P73:P83 P62:P64 O48:P50 O93:P95 O91:P91 O89:P89 P55:P60 O54" numberStoredAsText="1"/>
+    <ignoredError sqref="B18 B28 P25:P27 B51 B72 B95 B7 O16:P17 O33 O39:O45 O57 O59:O60 O63:O65 O67:O70 O74:O77 O84:P87 O96:P101 O71:P71 P65:P70 P53:P54 O81:O83 O46:P47 P11:P15 O14:O15 B88 B91 P29:P45 P73:P83 P62:P64 O48:P50 O92:P94 O90:P90 O89:P89 P55:P60 O54" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="432">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1591,10 +1591,6 @@
   </si>
   <si>
     <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2585,12 +2581,87 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2608,81 +2679,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6247,13 +6243,13 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>29653</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>76243</xdr:rowOff>
+      <xdr:rowOff>89850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>13700</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>140388</xdr:rowOff>
+      <xdr:rowOff>153995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6262,7 +6258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15718689" y="18078493"/>
+          <a:off x="15718689" y="17887993"/>
           <a:ext cx="256190" cy="64145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6614,6 +6610,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>4796</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>100459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="직사각형 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15693832" y="17694495"/>
+          <a:ext cx="784418" cy="49220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6884,7 +6942,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6942,13 +7000,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="118" t="s">
+      <c r="AY2" s="143" t="s">
         <v>351</v>
       </c>
-      <c r="AZ2" s="118" t="s">
+      <c r="AZ2" s="143" t="s">
         <v>349</v>
       </c>
-      <c r="BA2" s="118" t="s">
+      <c r="BA2" s="143" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6966,9 +7024,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="118"/>
-      <c r="AZ3" s="118"/>
-      <c r="BA3" s="118"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="143"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
@@ -6976,16 +7034,16 @@
         <v>157</v>
       </c>
       <c r="AZ4" s="113">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW55+AW56+AW65+AW66+AW69+AW72+AW83+AW85+AW86+AW75+AW78+AW48+AW82+AW81+AW79+AW80+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW88+AW37+AW41+AW67+AW68+AW84</f>
-        <v>98</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW55+AW56+AW65+AW66+AW69+AW72+AW83+AW85+AW86+AW75+AW78+AW48+AW82+AW81+AW79+AW80+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW88+AW37+AW41+AW67+AW68+AW84+AW87</f>
+        <v>99</v>
       </c>
       <c r="BA4" s="113">
         <f>AZ4/AY4*100</f>
-        <v>62.420382165605091</v>
+        <v>63.057324840764331</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="126" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="128" t="s">
@@ -7006,58 +7064,58 @@
       <c r="N5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="135" t="s">
+      <c r="O5" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="135" t="s">
+      <c r="P5" s="137" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="137" t="s">
+      <c r="R5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="134" t="s">
+      <c r="S5" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132" t="s">
+      <c r="T5" s="134"/>
+      <c r="U5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="132"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="132"/>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="121" t="s">
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="146" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="142"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="129"/>
       <c r="D6" s="129"/>
       <c r="E6" s="129"/>
@@ -7070,10 +7128,10 @@
       <c r="L6" s="129"/>
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
       <c r="Q6" s="129"/>
-      <c r="R6" s="138"/>
+      <c r="R6" s="140"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -7164,25 +7222,25 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="122"/>
+      <c r="AW6" s="147"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -7467,9 +7525,9 @@
       <c r="Y11" s="53"/>
       <c r="Z11" s="53"/>
       <c r="AA11" s="54"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
       <c r="AE11" s="54"/>
       <c r="AF11" s="53"/>
       <c r="AG11" s="53"/>
@@ -7897,13 +7955,13 @@
     </row>
     <row r="18" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>405</v>
       </c>
       <c r="D18" s="130" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" s="130"/>
       <c r="F18" s="130"/>
@@ -7915,13 +7973,13 @@
       <c r="L18" s="130"/>
       <c r="M18" s="131"/>
       <c r="N18" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="O18" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="P18" s="51" t="s">
         <v>417</v>
-      </c>
-      <c r="P18" s="51" t="s">
-        <v>418</v>
       </c>
       <c r="Q18" s="52">
         <v>1</v>
@@ -7966,19 +8024,19 @@
       <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="121"/>
       <c r="N19" s="13"/>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
@@ -8023,18 +8081,18 @@
       <c r="C20" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="144"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
       <c r="N20" s="14" t="s">
         <v>10</v>
       </c>
@@ -8091,18 +8149,18 @@
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
       <c r="N21" s="15" t="s">
         <v>32</v>
       </c>
@@ -8159,18 +8217,18 @@
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="D22" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
       <c r="N22" s="15" t="s">
         <v>33</v>
       </c>
@@ -8227,18 +8285,18 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="119"/>
       <c r="N23" s="15" t="s">
         <v>34</v>
       </c>
@@ -8295,18 +8353,18 @@
       <c r="C24" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="119"/>
       <c r="N24" s="15" t="s">
         <v>35</v>
       </c>
@@ -8363,18 +8421,18 @@
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="119"/>
       <c r="N25" s="15" t="s">
         <v>37</v>
       </c>
@@ -8431,18 +8489,18 @@
       <c r="C26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="15" t="s">
         <v>83</v>
       </c>
@@ -8499,18 +8557,18 @@
       <c r="C27" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
       <c r="N27" s="15" t="s">
         <v>139</v>
       </c>
@@ -8567,18 +8625,18 @@
       <c r="C28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="127"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="15" t="s">
         <v>153</v>
       </c>
@@ -8630,31 +8688,31 @@
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="D29" s="126" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="127"/>
+      <c r="D29" s="118" t="s">
+        <v>410</v>
+      </c>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
       <c r="N29" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="P29" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="Q29" s="19">
         <v>1</v>
@@ -8700,19 +8758,19 @@
       <c r="B30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="125"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="121"/>
       <c r="N30" s="13"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
@@ -8757,18 +8815,18 @@
       <c r="C31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="119"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -8825,18 +8883,18 @@
       <c r="C32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="126" t="s">
+      <c r="D32" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="127"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="119"/>
       <c r="N32" s="15" t="s">
         <v>66</v>
       </c>
@@ -8893,18 +8951,18 @@
       <c r="C33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="119"/>
       <c r="N33" s="15" t="s">
         <v>10</v>
       </c>
@@ -8961,18 +9019,18 @@
       <c r="C34" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="119"/>
       <c r="N34" s="15" t="s">
         <v>95</v>
       </c>
@@ -9029,18 +9087,18 @@
       <c r="C35" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="126" t="s">
+      <c r="D35" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="127"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="119"/>
       <c r="N35" s="15" t="s">
         <v>242</v>
       </c>
@@ -9097,18 +9155,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="127"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="119"/>
       <c r="N36" s="15" t="s">
         <v>99</v>
       </c>
@@ -9165,18 +9223,18 @@
       <c r="C37" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="126" t="s">
+      <c r="D37" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="127"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
       <c r="N37" s="15" t="s">
         <v>104</v>
       </c>
@@ -9233,18 +9291,18 @@
       <c r="C38" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="126" t="s">
+      <c r="D38" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="127"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="119"/>
       <c r="N38" s="15" t="s">
         <v>109</v>
       </c>
@@ -9301,18 +9359,18 @@
       <c r="C39" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="127"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="119"/>
       <c r="N39" s="15" t="s">
         <v>143</v>
       </c>
@@ -9369,18 +9427,18 @@
       <c r="C40" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="127"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="119"/>
       <c r="N40" s="15" t="s">
         <v>146</v>
       </c>
@@ -9437,18 +9495,18 @@
       <c r="C41" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="127"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="119"/>
       <c r="N41" s="15" t="s">
         <v>252</v>
       </c>
@@ -9505,18 +9563,18 @@
       <c r="C42" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="126" t="s">
+      <c r="D42" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="127"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="118"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="119"/>
       <c r="N42" s="15" t="s">
         <v>231</v>
       </c>
@@ -9571,18 +9629,18 @@
       <c r="C43" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="126" t="s">
+      <c r="D43" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="127"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="119"/>
       <c r="N43" s="15" t="s">
         <v>246</v>
       </c>
@@ -9639,18 +9697,18 @@
       <c r="C44" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="126" t="s">
+      <c r="D44" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="127"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="119"/>
       <c r="N44" s="15" t="s">
         <v>231</v>
       </c>
@@ -9707,18 +9765,18 @@
       <c r="C45" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="127"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="119"/>
       <c r="N45" s="15" t="s">
         <v>258</v>
       </c>
@@ -9775,18 +9833,18 @@
       <c r="C46" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="126" t="s">
+      <c r="D46" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="127"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
       <c r="N46" s="15" t="s">
         <v>263</v>
       </c>
@@ -9843,18 +9901,18 @@
       <c r="C47" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="126" t="s">
+      <c r="D47" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="127"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="119"/>
       <c r="N47" s="15" t="s">
         <v>261</v>
       </c>
@@ -9911,18 +9969,18 @@
       <c r="C48" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="126" t="s">
+      <c r="D48" s="118" t="s">
         <v>377</v>
       </c>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="127"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="119"/>
       <c r="N48" s="15" t="s">
         <v>247</v>
       </c>
@@ -9979,18 +10037,18 @@
       <c r="C49" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="126" t="s">
+      <c r="D49" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="127"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="119"/>
       <c r="N49" s="15" t="s">
         <v>276</v>
       </c>
@@ -10046,18 +10104,18 @@
       <c r="C50" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="D50" s="126" t="s">
+      <c r="D50" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="127"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="119"/>
       <c r="N50" s="15" t="s">
         <v>366</v>
       </c>
@@ -10113,18 +10171,18 @@
       <c r="C51" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="D51" s="126" t="s">
+      <c r="D51" s="118" t="s">
         <v>369</v>
       </c>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="127"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="119"/>
       <c r="N51" s="15" t="s">
         <v>370</v>
       </c>
@@ -10178,18 +10236,18 @@
       <c r="C52" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="D52" s="126" t="s">
+      <c r="D52" s="118" t="s">
         <v>378</v>
       </c>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="127"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="119"/>
       <c r="N52" s="15" t="s">
         <v>379</v>
       </c>
@@ -10245,18 +10303,18 @@
       <c r="C53" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="D53" s="126" t="s">
+      <c r="D53" s="118" t="s">
         <v>400</v>
       </c>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="127"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="119"/>
       <c r="N53" s="15" t="s">
         <v>401</v>
       </c>
@@ -10309,19 +10367,19 @@
       <c r="B54" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="124" t="s">
+      <c r="C54" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="125"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="121"/>
       <c r="N54" s="38"/>
       <c r="O54" s="41"/>
       <c r="P54" s="41"/>
@@ -10366,18 +10424,18 @@
       <c r="C55" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="116" t="s">
+      <c r="D55" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="117"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="123"/>
       <c r="N55" s="39" t="s">
         <v>64</v>
       </c>
@@ -10434,18 +10492,18 @@
       <c r="C56" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="117"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="123"/>
       <c r="N56" s="39" t="s">
         <v>168</v>
       </c>
@@ -10502,18 +10560,18 @@
       <c r="C57" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116"/>
-      <c r="M57" s="117"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="123"/>
       <c r="N57" s="39" t="s">
         <v>309</v>
       </c>
@@ -10569,18 +10627,18 @@
       <c r="C58" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="116" t="s">
+      <c r="D58" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="117"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="123"/>
       <c r="N58" s="39" t="s">
         <v>170</v>
       </c>
@@ -10637,18 +10695,18 @@
       <c r="C59" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="126" t="s">
+      <c r="D59" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="127"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="119"/>
       <c r="N59" s="15" t="s">
         <v>104</v>
       </c>
@@ -10705,18 +10763,18 @@
       <c r="C60" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="126" t="s">
+      <c r="D60" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="127"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="118"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="119"/>
       <c r="N60" s="15" t="s">
         <v>75</v>
       </c>
@@ -10771,18 +10829,18 @@
       <c r="C61" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="126" t="s">
+      <c r="D61" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="127"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="119"/>
       <c r="N61" s="15"/>
       <c r="O61" s="17" t="s">
         <v>286</v>
@@ -10835,18 +10893,18 @@
       <c r="C62" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="126" t="s">
+      <c r="D62" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="127"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="119"/>
       <c r="N62" s="15"/>
       <c r="O62" s="17" t="s">
         <v>288</v>
@@ -10899,18 +10957,18 @@
       <c r="C63" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="126" t="s">
+      <c r="D63" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-      <c r="M63" s="127"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="118"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="119"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
         <v>288</v>
@@ -10960,19 +11018,19 @@
       <c r="B64" s="37">
         <v>5</v>
       </c>
-      <c r="C64" s="124" t="s">
+      <c r="C64" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="124"/>
-      <c r="M64" s="125"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="120"/>
+      <c r="M64" s="121"/>
       <c r="N64" s="40"/>
       <c r="O64" s="41"/>
       <c r="P64" s="41"/>
@@ -11017,18 +11075,18 @@
       <c r="C65" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="126" t="s">
+      <c r="D65" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
-      <c r="M65" s="127"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="118"/>
+      <c r="K65" s="118"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="119"/>
       <c r="N65" s="15" t="s">
         <v>59</v>
       </c>
@@ -11085,18 +11143,18 @@
       <c r="C66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="126" t="s">
+      <c r="D66" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
-      <c r="M66" s="127"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="118"/>
+      <c r="L66" s="118"/>
+      <c r="M66" s="119"/>
       <c r="N66" s="15" t="s">
         <v>291</v>
       </c>
@@ -11153,18 +11211,18 @@
       <c r="C67" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="126" t="s">
+      <c r="D67" s="118" t="s">
         <v>353</v>
       </c>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
-      <c r="M67" s="127"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="118"/>
+      <c r="K67" s="118"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="119"/>
       <c r="N67" s="15" t="s">
         <v>311</v>
       </c>
@@ -11221,18 +11279,18 @@
       <c r="C68" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D68" s="126" t="s">
+      <c r="D68" s="118" t="s">
         <v>355</v>
       </c>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="127"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="118"/>
+      <c r="K68" s="118"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="119"/>
       <c r="N68" s="15" t="s">
         <v>356</v>
       </c>
@@ -11289,18 +11347,18 @@
       <c r="C69" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="126" t="s">
+      <c r="D69" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
-      <c r="M69" s="127"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="119"/>
       <c r="N69" s="15" t="s">
         <v>68</v>
       </c>
@@ -11355,28 +11413,28 @@
         <v>115</v>
       </c>
       <c r="C70" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="118"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="118"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D70" s="126" t="s">
-        <v>420</v>
-      </c>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="15" t="s">
-        <v>422</v>
-      </c>
       <c r="O70" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q70" s="15"/>
       <c r="R70" s="84">
@@ -11423,18 +11481,18 @@
       <c r="C71" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="126" t="s">
+      <c r="D71" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
-      <c r="M71" s="127"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="118"/>
+      <c r="J71" s="118"/>
+      <c r="K71" s="118"/>
+      <c r="L71" s="118"/>
+      <c r="M71" s="119"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>238</v>
@@ -11485,18 +11543,18 @@
       <c r="C72" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="126" t="s">
+      <c r="D72" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-      <c r="M72" s="127"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="118"/>
+      <c r="J72" s="118"/>
+      <c r="K72" s="118"/>
+      <c r="L72" s="118"/>
+      <c r="M72" s="119"/>
       <c r="N72" s="15" t="s">
         <v>297</v>
       </c>
@@ -11553,26 +11611,26 @@
       <c r="C73" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="D73" s="126" t="s">
+      <c r="D73" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="118"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="118"/>
+      <c r="L73" s="118"/>
+      <c r="M73" s="119"/>
+      <c r="N73" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="15" t="s">
+      <c r="O73" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="P73" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>427</v>
       </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="84">
@@ -11619,24 +11677,24 @@
       <c r="C74" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="126" t="s">
+      <c r="D74" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-      <c r="M74" s="127"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+      <c r="J74" s="118"/>
+      <c r="K74" s="118"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="119"/>
       <c r="N74" s="15"/>
       <c r="O74" s="17" t="s">
         <v>164</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="84">
@@ -11678,23 +11736,23 @@
     </row>
     <row r="75" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C75" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="126" t="s">
+      <c r="D75" s="118" t="s">
         <v>323</v>
       </c>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="126"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="127"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="118"/>
+      <c r="J75" s="118"/>
+      <c r="K75" s="118"/>
+      <c r="L75" s="118"/>
+      <c r="M75" s="119"/>
       <c r="N75" s="15" t="s">
         <v>319</v>
       </c>
@@ -11746,23 +11804,23 @@
     </row>
     <row r="76" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="126" t="s">
+      <c r="D76" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="127"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="K76" s="118"/>
+      <c r="L76" s="118"/>
+      <c r="M76" s="119"/>
       <c r="N76" s="15"/>
       <c r="O76" s="17" t="s">
         <v>299</v>
@@ -11810,19 +11868,19 @@
       <c r="B77" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="124" t="s">
+      <c r="C77" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="124"/>
-      <c r="M77" s="125"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="120"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="121"/>
       <c r="N77" s="38"/>
       <c r="O77" s="41"/>
       <c r="P77" s="41"/>
@@ -11867,18 +11925,18 @@
       <c r="C78" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="126" t="s">
+      <c r="D78" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="127"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="119"/>
       <c r="N78" s="15" t="s">
         <v>85</v>
       </c>
@@ -11935,18 +11993,18 @@
       <c r="C79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="126" t="s">
+      <c r="D79" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="126"/>
-      <c r="M79" s="127"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="118"/>
+      <c r="M79" s="119"/>
       <c r="N79" s="15" t="s">
         <v>312</v>
       </c>
@@ -12003,18 +12061,18 @@
       <c r="C80" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="126" t="s">
+      <c r="D80" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
-      <c r="M80" s="127"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="118"/>
+      <c r="J80" s="118"/>
+      <c r="K80" s="118"/>
+      <c r="L80" s="118"/>
+      <c r="M80" s="119"/>
       <c r="N80" s="15" t="s">
         <v>393</v>
       </c>
@@ -12071,18 +12129,18 @@
       <c r="C81" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="126" t="s">
+      <c r="D81" s="118" t="s">
         <v>195</v>
       </c>
-      <c r="E81" s="126"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="126"/>
-      <c r="J81" s="126"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="126"/>
-      <c r="M81" s="127"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+      <c r="J81" s="118"/>
+      <c r="K81" s="118"/>
+      <c r="L81" s="118"/>
+      <c r="M81" s="119"/>
       <c r="N81" s="15" t="s">
         <v>392</v>
       </c>
@@ -12139,18 +12197,18 @@
       <c r="C82" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="126" t="s">
+      <c r="D82" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
-      <c r="M82" s="127"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="118"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="118"/>
+      <c r="M82" s="119"/>
       <c r="N82" s="15" t="s">
         <v>336</v>
       </c>
@@ -12207,18 +12265,18 @@
       <c r="C83" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D83" s="126" t="s">
+      <c r="D83" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="126"/>
-      <c r="I83" s="126"/>
-      <c r="J83" s="126"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="126"/>
-      <c r="M83" s="127"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="118"/>
+      <c r="J83" s="118"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="118"/>
+      <c r="M83" s="119"/>
       <c r="N83" s="15" t="s">
         <v>219</v>
       </c>
@@ -12275,18 +12333,18 @@
       <c r="C84" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="126" t="s">
+      <c r="D84" s="118" t="s">
         <v>347</v>
       </c>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="126"/>
-      <c r="J84" s="126"/>
-      <c r="K84" s="126"/>
-      <c r="L84" s="126"/>
-      <c r="M84" s="127"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="118"/>
+      <c r="K84" s="118"/>
+      <c r="L84" s="118"/>
+      <c r="M84" s="119"/>
       <c r="N84" s="15" t="s">
         <v>215</v>
       </c>
@@ -12343,18 +12401,18 @@
       <c r="C85" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D85" s="126" t="s">
+      <c r="D85" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="126"/>
-      <c r="K85" s="126"/>
-      <c r="L85" s="126"/>
-      <c r="M85" s="127"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="118"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118"/>
+      <c r="M85" s="119"/>
       <c r="N85" s="15" t="s">
         <v>231</v>
       </c>
@@ -12411,18 +12469,18 @@
       <c r="C86" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="D86" s="126" t="s">
+      <c r="D86" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
-      <c r="M86" s="127"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+      <c r="J86" s="118"/>
+      <c r="K86" s="118"/>
+      <c r="L86" s="118"/>
+      <c r="M86" s="119"/>
       <c r="N86" s="15" t="s">
         <v>316</v>
       </c>
@@ -12479,18 +12537,18 @@
       <c r="C87" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="126" t="s">
+      <c r="D87" s="118" t="s">
         <v>361</v>
       </c>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="126"/>
-      <c r="K87" s="126"/>
-      <c r="L87" s="126"/>
-      <c r="M87" s="127"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="118"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="118"/>
+      <c r="J87" s="118"/>
+      <c r="K87" s="118"/>
+      <c r="L87" s="118"/>
+      <c r="M87" s="119"/>
       <c r="N87" s="15" t="s">
         <v>362</v>
       </c>
@@ -12500,7 +12558,9 @@
       <c r="P87" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="Q87" s="19"/>
+      <c r="Q87" s="19">
+        <v>1</v>
+      </c>
       <c r="R87" s="84">
         <v>1</v>
       </c>
@@ -12545,26 +12605,26 @@
       <c r="C88" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="D88" s="126" t="s">
+      <c r="D88" s="118" t="s">
         <v>406</v>
       </c>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
-      <c r="G88" s="126"/>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="126"/>
-      <c r="K88" s="126"/>
-      <c r="L88" s="126"/>
-      <c r="M88" s="127"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+      <c r="M88" s="119"/>
       <c r="N88" s="15" t="s">
         <v>408</v>
       </c>
       <c r="O88" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="P88" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="P88" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="Q88" s="19">
         <v>1</v>
@@ -12612,18 +12672,18 @@
       <c r="C89" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D89" s="126" t="s">
+      <c r="D89" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="E89" s="126"/>
-      <c r="F89" s="126"/>
-      <c r="G89" s="126"/>
-      <c r="H89" s="126"/>
-      <c r="I89" s="126"/>
-      <c r="J89" s="126"/>
-      <c r="K89" s="126"/>
-      <c r="L89" s="126"/>
-      <c r="M89" s="127"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="118"/>
+      <c r="K89" s="118"/>
+      <c r="L89" s="118"/>
+      <c r="M89" s="119"/>
       <c r="N89" s="15"/>
       <c r="O89" s="17" t="s">
         <v>304</v>
@@ -12674,26 +12734,26 @@
       <c r="C90" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="D90" s="126" t="s">
-        <v>429</v>
-      </c>
-      <c r="E90" s="126"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="126"/>
-      <c r="H90" s="126"/>
-      <c r="I90" s="126"/>
-      <c r="J90" s="126"/>
-      <c r="K90" s="126"/>
-      <c r="L90" s="126"/>
-      <c r="M90" s="127"/>
+      <c r="D90" s="118" t="s">
+        <v>428</v>
+      </c>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="118"/>
+      <c r="K90" s="118"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="119"/>
       <c r="N90" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q90" s="19"/>
       <c r="R90" s="84">
@@ -12740,18 +12800,18 @@
       <c r="C91" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D91" s="126" t="s">
+      <c r="D91" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="E91" s="126"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="126"/>
-      <c r="J91" s="126"/>
-      <c r="K91" s="126"/>
-      <c r="L91" s="126"/>
-      <c r="M91" s="127"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="119"/>
       <c r="N91" s="15"/>
       <c r="O91" s="17" t="s">
         <v>288</v>
@@ -12802,18 +12862,18 @@
       <c r="C92" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="126" t="s">
+      <c r="D92" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="E92" s="126"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="126"/>
-      <c r="H92" s="126"/>
-      <c r="I92" s="126"/>
-      <c r="J92" s="126"/>
-      <c r="K92" s="126"/>
-      <c r="L92" s="126"/>
-      <c r="M92" s="127"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="118"/>
+      <c r="H92" s="118"/>
+      <c r="I92" s="118"/>
+      <c r="J92" s="118"/>
+      <c r="K92" s="118"/>
+      <c r="L92" s="118"/>
+      <c r="M92" s="119"/>
       <c r="N92" s="15"/>
       <c r="O92" s="17" t="s">
         <v>288</v>
@@ -12859,23 +12919,23 @@
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C93" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D93" s="126" t="s">
+      <c r="D93" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="E93" s="126"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="126"/>
-      <c r="H93" s="126"/>
-      <c r="I93" s="126"/>
-      <c r="J93" s="126"/>
-      <c r="K93" s="126"/>
-      <c r="L93" s="126"/>
-      <c r="M93" s="127"/>
+      <c r="E93" s="118"/>
+      <c r="F93" s="118"/>
+      <c r="G93" s="118"/>
+      <c r="H93" s="118"/>
+      <c r="I93" s="118"/>
+      <c r="J93" s="118"/>
+      <c r="K93" s="118"/>
+      <c r="L93" s="118"/>
+      <c r="M93" s="119"/>
       <c r="N93" s="15"/>
       <c r="O93" s="17" t="s">
         <v>290</v>
@@ -12923,19 +12983,19 @@
       <c r="B94" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="C94" s="123" t="s">
+      <c r="C94" s="148" t="s">
         <v>330</v>
       </c>
-      <c r="D94" s="124"/>
-      <c r="E94" s="124"/>
-      <c r="F94" s="124"/>
-      <c r="G94" s="124"/>
-      <c r="H94" s="124"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="124"/>
-      <c r="K94" s="124"/>
-      <c r="L94" s="124"/>
-      <c r="M94" s="125"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="120"/>
+      <c r="G94" s="120"/>
+      <c r="H94" s="120"/>
+      <c r="I94" s="120"/>
+      <c r="J94" s="120"/>
+      <c r="K94" s="120"/>
+      <c r="L94" s="120"/>
+      <c r="M94" s="121"/>
       <c r="N94" s="38"/>
       <c r="O94" s="41"/>
       <c r="P94" s="41"/>
@@ -12980,18 +13040,18 @@
       <c r="C95" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="D95" s="119" t="s">
+      <c r="D95" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="119"/>
-      <c r="F95" s="119"/>
-      <c r="G95" s="119"/>
-      <c r="H95" s="119"/>
-      <c r="I95" s="119"/>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
-      <c r="M95" s="120"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="144"/>
+      <c r="G95" s="144"/>
+      <c r="H95" s="144"/>
+      <c r="I95" s="144"/>
+      <c r="J95" s="144"/>
+      <c r="K95" s="144"/>
+      <c r="L95" s="144"/>
+      <c r="M95" s="145"/>
       <c r="N95" s="97" t="s">
         <v>334</v>
       </c>
@@ -13046,18 +13106,18 @@
       <c r="C96" s="108" t="s">
         <v>338</v>
       </c>
-      <c r="D96" s="119" t="s">
+      <c r="D96" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="E96" s="119"/>
-      <c r="F96" s="119"/>
-      <c r="G96" s="119"/>
-      <c r="H96" s="119"/>
-      <c r="I96" s="119"/>
-      <c r="J96" s="119"/>
-      <c r="K96" s="119"/>
-      <c r="L96" s="119"/>
-      <c r="M96" s="120"/>
+      <c r="E96" s="144"/>
+      <c r="F96" s="144"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="144"/>
+      <c r="I96" s="144"/>
+      <c r="J96" s="144"/>
+      <c r="K96" s="144"/>
+      <c r="L96" s="144"/>
+      <c r="M96" s="145"/>
       <c r="N96" s="97" t="s">
         <v>398</v>
       </c>
@@ -13109,19 +13169,19 @@
       <c r="B97" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C97" s="123" t="s">
+      <c r="C97" s="148" t="s">
         <v>342</v>
       </c>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="124"/>
-      <c r="H97" s="124"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="124"/>
-      <c r="K97" s="124"/>
-      <c r="L97" s="124"/>
-      <c r="M97" s="125"/>
+      <c r="D97" s="120"/>
+      <c r="E97" s="120"/>
+      <c r="F97" s="120"/>
+      <c r="G97" s="120"/>
+      <c r="H97" s="120"/>
+      <c r="I97" s="120"/>
+      <c r="J97" s="120"/>
+      <c r="K97" s="120"/>
+      <c r="L97" s="120"/>
+      <c r="M97" s="121"/>
       <c r="N97" s="38"/>
       <c r="O97" s="41"/>
       <c r="P97" s="41"/>
@@ -13166,18 +13226,18 @@
       <c r="C98" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="D98" s="116" t="s">
+      <c r="D98" s="122" t="s">
         <v>386</v>
       </c>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="116"/>
-      <c r="H98" s="116"/>
-      <c r="I98" s="116"/>
-      <c r="J98" s="116"/>
-      <c r="K98" s="116"/>
-      <c r="L98" s="116"/>
-      <c r="M98" s="117"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="122"/>
+      <c r="G98" s="122"/>
+      <c r="H98" s="122"/>
+      <c r="I98" s="122"/>
+      <c r="J98" s="122"/>
+      <c r="K98" s="122"/>
+      <c r="L98" s="122"/>
+      <c r="M98" s="123"/>
       <c r="N98" s="97"/>
       <c r="O98" s="98" t="s">
         <v>390</v>
@@ -13230,18 +13290,18 @@
       <c r="C99" s="109" t="s">
         <v>343</v>
       </c>
-      <c r="D99" s="119" t="s">
+      <c r="D99" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="E99" s="119"/>
-      <c r="F99" s="119"/>
-      <c r="G99" s="119"/>
-      <c r="H99" s="119"/>
-      <c r="I99" s="119"/>
-      <c r="J99" s="119"/>
-      <c r="K99" s="119"/>
-      <c r="L99" s="119"/>
-      <c r="M99" s="120"/>
+      <c r="E99" s="144"/>
+      <c r="F99" s="144"/>
+      <c r="G99" s="144"/>
+      <c r="H99" s="144"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="144"/>
+      <c r="K99" s="144"/>
+      <c r="L99" s="144"/>
+      <c r="M99" s="145"/>
       <c r="N99" s="97"/>
       <c r="O99" s="98" t="s">
         <v>273</v>
@@ -13294,18 +13354,18 @@
       <c r="C100" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="D100" s="119" t="s">
+      <c r="D100" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="E100" s="119"/>
-      <c r="F100" s="119"/>
-      <c r="G100" s="119"/>
-      <c r="H100" s="119"/>
-      <c r="I100" s="119"/>
-      <c r="J100" s="119"/>
-      <c r="K100" s="119"/>
-      <c r="L100" s="119"/>
-      <c r="M100" s="120"/>
+      <c r="E100" s="144"/>
+      <c r="F100" s="144"/>
+      <c r="G100" s="144"/>
+      <c r="H100" s="144"/>
+      <c r="I100" s="144"/>
+      <c r="J100" s="144"/>
+      <c r="K100" s="144"/>
+      <c r="L100" s="144"/>
+      <c r="M100" s="145"/>
       <c r="N100" s="97"/>
       <c r="O100" s="98" t="s">
         <v>387</v>
@@ -13355,19 +13415,19 @@
       <c r="B101" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="124" t="s">
+      <c r="C101" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="124"/>
-      <c r="H101" s="124"/>
-      <c r="I101" s="124"/>
-      <c r="J101" s="124"/>
-      <c r="K101" s="124"/>
-      <c r="L101" s="124"/>
-      <c r="M101" s="125"/>
+      <c r="D101" s="120"/>
+      <c r="E101" s="120"/>
+      <c r="F101" s="120"/>
+      <c r="G101" s="120"/>
+      <c r="H101" s="120"/>
+      <c r="I101" s="120"/>
+      <c r="J101" s="120"/>
+      <c r="K101" s="120"/>
+      <c r="L101" s="120"/>
+      <c r="M101" s="121"/>
       <c r="N101" s="38"/>
       <c r="O101" s="41"/>
       <c r="P101" s="41"/>
@@ -13412,18 +13472,18 @@
       <c r="C102" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="D102" s="116" t="s">
+      <c r="D102" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="E102" s="116"/>
-      <c r="F102" s="116"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="116"/>
-      <c r="I102" s="116"/>
-      <c r="J102" s="116"/>
-      <c r="K102" s="116"/>
-      <c r="L102" s="116"/>
-      <c r="M102" s="117"/>
+      <c r="E102" s="122"/>
+      <c r="F102" s="122"/>
+      <c r="G102" s="122"/>
+      <c r="H102" s="122"/>
+      <c r="I102" s="122"/>
+      <c r="J102" s="122"/>
+      <c r="K102" s="122"/>
+      <c r="L102" s="122"/>
+      <c r="M102" s="123"/>
       <c r="N102" s="97" t="s">
         <v>271</v>
       </c>
@@ -13478,18 +13538,18 @@
       <c r="C103" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D103" s="126" t="s">
+      <c r="D103" s="118" t="s">
         <v>208</v>
       </c>
-      <c r="E103" s="126"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="126"/>
-      <c r="H103" s="126"/>
-      <c r="I103" s="126"/>
-      <c r="J103" s="126"/>
-      <c r="K103" s="126"/>
-      <c r="L103" s="126"/>
-      <c r="M103" s="127"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="118"/>
+      <c r="H103" s="118"/>
+      <c r="I103" s="118"/>
+      <c r="J103" s="118"/>
+      <c r="K103" s="118"/>
+      <c r="L103" s="118"/>
+      <c r="M103" s="119"/>
       <c r="N103" s="15"/>
       <c r="O103" s="17" t="s">
         <v>288</v>
@@ -13540,18 +13600,18 @@
       <c r="C104" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D104" s="126" t="s">
+      <c r="D104" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="E104" s="126"/>
-      <c r="F104" s="126"/>
-      <c r="G104" s="126"/>
-      <c r="H104" s="126"/>
-      <c r="I104" s="126"/>
-      <c r="J104" s="126"/>
-      <c r="K104" s="126"/>
-      <c r="L104" s="126"/>
-      <c r="M104" s="127"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="118"/>
+      <c r="H104" s="118"/>
+      <c r="I104" s="118"/>
+      <c r="J104" s="118"/>
+      <c r="K104" s="118"/>
+      <c r="L104" s="118"/>
+      <c r="M104" s="119"/>
       <c r="N104" s="15"/>
       <c r="O104" s="17" t="s">
         <v>272</v>
@@ -13602,18 +13662,18 @@
       <c r="C105" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="126" t="s">
+      <c r="D105" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="E105" s="126"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="126"/>
-      <c r="J105" s="126"/>
-      <c r="K105" s="126"/>
-      <c r="L105" s="126"/>
-      <c r="M105" s="127"/>
+      <c r="E105" s="118"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="118"/>
+      <c r="H105" s="118"/>
+      <c r="I105" s="118"/>
+      <c r="J105" s="118"/>
+      <c r="K105" s="118"/>
+      <c r="L105" s="118"/>
+      <c r="M105" s="119"/>
       <c r="N105" s="15"/>
       <c r="O105" s="17" t="s">
         <v>290</v>
@@ -13664,18 +13724,18 @@
       <c r="C106" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D106" s="126" t="s">
+      <c r="D106" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="E106" s="126"/>
-      <c r="F106" s="126"/>
-      <c r="G106" s="126"/>
-      <c r="H106" s="126"/>
-      <c r="I106" s="126"/>
-      <c r="J106" s="126"/>
-      <c r="K106" s="126"/>
-      <c r="L106" s="126"/>
-      <c r="M106" s="127"/>
+      <c r="E106" s="118"/>
+      <c r="F106" s="118"/>
+      <c r="G106" s="118"/>
+      <c r="H106" s="118"/>
+      <c r="I106" s="118"/>
+      <c r="J106" s="118"/>
+      <c r="K106" s="118"/>
+      <c r="L106" s="118"/>
+      <c r="M106" s="119"/>
       <c r="N106" s="15"/>
       <c r="O106" s="17" t="s">
         <v>299</v>
@@ -13726,18 +13786,18 @@
       <c r="C107" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="145" t="s">
+      <c r="D107" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E107" s="145"/>
-      <c r="F107" s="145"/>
-      <c r="G107" s="145"/>
-      <c r="H107" s="145"/>
-      <c r="I107" s="145"/>
-      <c r="J107" s="145"/>
-      <c r="K107" s="145"/>
-      <c r="L107" s="145"/>
-      <c r="M107" s="146"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="124"/>
+      <c r="G107" s="124"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="124"/>
+      <c r="J107" s="124"/>
+      <c r="K107" s="124"/>
+      <c r="L107" s="124"/>
+      <c r="M107" s="125"/>
       <c r="N107" s="67"/>
       <c r="O107" s="68" t="s">
         <v>240</v>
@@ -13783,25 +13843,78 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="C77:M77"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="C64:M64"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="C94:M94"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="C97:M97"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D18:M18"/>
     <mergeCell ref="D58:M58"/>
     <mergeCell ref="D59:M59"/>
     <mergeCell ref="D60:M60"/>
@@ -13826,84 +13939,31 @@
     <mergeCell ref="D81:M81"/>
     <mergeCell ref="D62:M62"/>
     <mergeCell ref="D68:M68"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D100:M100"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="C94:M94"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="C97:M97"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="C77:M77"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="C64:M64"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D73:M73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19 B30 P26:P28 B54 B77 B101 B7 O16:P17 O35 O41:O47 O60 O62:O63 O66:O68 O79:O82 O91:P93 O102:P107 O75:P76 O86:O87 P11:P15 O14:O15 B94 B97 P31:P47 P78:P87 O48:P52 O98:P100 O96:P96 P56:P63 O57 P65:P69 O71:P72 O89:P89 O95" numberStoredAsText="1"/>
+    <ignoredError sqref="B19 B30 P26:P29 B54 B77 B101 B7 O16:P17 O35 O41:O47 O60 O62:O63 O66:O68 O79:O82 O91:P93 O102:P107 O75:P76 O86:O88 P11:P15 O14:O15 B94 B97 P31:P47 P78:P88 O48:P52 O98:P100 O96:P96 P56:P63 O57 P65:P70 O71:P72 O89:P89 O95:P95 O18:P18 O29 O53:P53 O70 O73:P74 O90:P90" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="437">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1287,10 +1287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1679,6 +1675,29 @@
   <si>
     <t>10.24</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ 사운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 사운드 리스트 작성/ 리소스 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7</t>
   </si>
 </sst>
 </file>
@@ -2587,97 +2606,97 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -6938,11 +6957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA107"/>
+  <dimension ref="B1:BA109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7000,14 +7019,14 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="143" t="s">
-        <v>351</v>
-      </c>
-      <c r="AZ2" s="143" t="s">
+      <c r="AY2" s="120" t="s">
+        <v>350</v>
+      </c>
+      <c r="AZ2" s="120" t="s">
+        <v>348</v>
+      </c>
+      <c r="BA2" s="120" t="s">
         <v>349</v>
-      </c>
-      <c r="BA2" s="143" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.3">
@@ -7024,13 +7043,13 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="143"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="120"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="113">
-        <f>SUM(AW7:AW107)</f>
+        <f>SUM(AW7:AW109)</f>
         <v>157</v>
       </c>
       <c r="AZ4" s="113">
@@ -7043,25 +7062,25 @@
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128" t="s">
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="137" t="s">
@@ -7070,7 +7089,7 @@
       <c r="P5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="128" t="s">
+      <c r="Q5" s="130" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="139" t="s">
@@ -7110,27 +7129,27 @@
       <c r="AT5" s="134"/>
       <c r="AU5" s="134"/>
       <c r="AV5" s="135"/>
-      <c r="AW5" s="146" t="s">
-        <v>352</v>
+      <c r="AW5" s="123" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
       <c r="O6" s="138"/>
       <c r="P6" s="138"/>
-      <c r="Q6" s="129"/>
+      <c r="Q6" s="131"/>
       <c r="R6" s="140"/>
       <c r="S6" s="73">
         <v>29</v>
@@ -7222,7 +7241,7 @@
       <c r="AV6" s="74">
         <v>28</v>
       </c>
-      <c r="AW6" s="147"/>
+      <c r="AW6" s="124"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
@@ -7285,18 +7304,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -7353,18 +7372,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -7421,18 +7440,18 @@
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="133"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -7489,18 +7508,18 @@
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="133"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -7557,18 +7576,18 @@
       <c r="C12" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="133"/>
       <c r="N12" s="50" t="s">
         <v>223</v>
       </c>
@@ -7625,18 +7644,18 @@
       <c r="C13" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="133"/>
       <c r="N13" s="50" t="s">
         <v>149</v>
       </c>
@@ -7693,18 +7712,18 @@
       <c r="C14" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="133"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -7759,28 +7778,28 @@
         <v>236</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>360</v>
-      </c>
-      <c r="D15" s="130" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="132" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="P15" s="51" t="s">
         <v>373</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="50" t="s">
-        <v>395</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="P15" s="51" t="s">
-        <v>374</v>
       </c>
       <c r="Q15" s="52">
         <v>1</v>
@@ -7829,18 +7848,18 @@
       <c r="C16" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="133"/>
       <c r="N16" s="50" t="s">
         <v>229</v>
       </c>
@@ -7890,23 +7909,23 @@
     </row>
     <row r="17" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="130" t="s">
+      <c r="D17" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="50" t="s">
         <v>237</v>
       </c>
@@ -7955,31 +7974,31 @@
     </row>
     <row r="18" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>405</v>
-      </c>
-      <c r="D18" s="130" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>413</v>
+      </c>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="50" t="s">
+      <c r="O18" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="P18" s="51" t="s">
         <v>416</v>
-      </c>
-      <c r="P18" s="51" t="s">
-        <v>417</v>
       </c>
       <c r="Q18" s="52">
         <v>1</v>
@@ -8024,19 +8043,19 @@
       <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
       <c r="N19" s="13"/>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
@@ -8081,18 +8100,18 @@
       <c r="C20" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="146"/>
       <c r="N20" s="14" t="s">
         <v>10</v>
       </c>
@@ -8149,18 +8168,18 @@
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="119"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="15" t="s">
         <v>32</v>
       </c>
@@ -8217,18 +8236,18 @@
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="15" t="s">
         <v>33</v>
       </c>
@@ -8285,18 +8304,18 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="119"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="15" t="s">
         <v>34</v>
       </c>
@@ -8353,18 +8372,18 @@
       <c r="C24" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="119"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
       <c r="N24" s="15" t="s">
         <v>35</v>
       </c>
@@ -8421,18 +8440,18 @@
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="119"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
       <c r="N25" s="15" t="s">
         <v>37</v>
       </c>
@@ -8489,18 +8508,18 @@
       <c r="C26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="119"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="15" t="s">
         <v>83</v>
       </c>
@@ -8557,18 +8576,18 @@
       <c r="C27" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
       <c r="N27" s="15" t="s">
         <v>139</v>
       </c>
@@ -8625,18 +8644,18 @@
       <c r="C28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="119"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="15" t="s">
         <v>153</v>
       </c>
@@ -8688,31 +8707,31 @@
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="128" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="118" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="15" t="s">
+      <c r="O29" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="P29" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="Q29" s="19">
         <v>1</v>
@@ -8758,19 +8777,19 @@
       <c r="B30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="121"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
       <c r="N30" s="13"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
@@ -8815,18 +8834,18 @@
       <c r="C31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="119"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -8883,18 +8902,18 @@
       <c r="C32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="119"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="15" t="s">
         <v>66</v>
       </c>
@@ -8951,18 +8970,18 @@
       <c r="C33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="119"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="15" t="s">
         <v>10</v>
       </c>
@@ -9019,18 +9038,18 @@
       <c r="C34" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="15" t="s">
         <v>95</v>
       </c>
@@ -9087,18 +9106,18 @@
       <c r="C35" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="118" t="s">
+      <c r="D35" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="119"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="129"/>
       <c r="N35" s="15" t="s">
         <v>242</v>
       </c>
@@ -9155,18 +9174,18 @@
       <c r="C36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="118" t="s">
+      <c r="D36" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="119"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="15" t="s">
         <v>99</v>
       </c>
@@ -9223,18 +9242,18 @@
       <c r="C37" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="118" t="s">
+      <c r="D37" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="119"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="129"/>
       <c r="N37" s="15" t="s">
         <v>104</v>
       </c>
@@ -9291,18 +9310,18 @@
       <c r="C38" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="118" t="s">
+      <c r="D38" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="119"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="129"/>
       <c r="N38" s="15" t="s">
         <v>109</v>
       </c>
@@ -9359,18 +9378,18 @@
       <c r="C39" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="118" t="s">
+      <c r="D39" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="119"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="129"/>
       <c r="N39" s="15" t="s">
         <v>143</v>
       </c>
@@ -9427,18 +9446,18 @@
       <c r="C40" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="128" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="119"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="129"/>
       <c r="N40" s="15" t="s">
         <v>146</v>
       </c>
@@ -9495,18 +9514,18 @@
       <c r="C41" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="119"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="129"/>
       <c r="N41" s="15" t="s">
         <v>252</v>
       </c>
@@ -9563,18 +9582,18 @@
       <c r="C42" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="118" t="s">
+      <c r="D42" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="119"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="129"/>
       <c r="N42" s="15" t="s">
         <v>231</v>
       </c>
@@ -9582,7 +9601,7 @@
         <v>253</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="84">
@@ -9629,18 +9648,18 @@
       <c r="C43" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="119"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="129"/>
       <c r="N43" s="15" t="s">
         <v>246</v>
       </c>
@@ -9697,18 +9716,18 @@
       <c r="C44" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="118" t="s">
+      <c r="D44" s="128" t="s">
         <v>255</v>
       </c>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="119"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="129"/>
       <c r="N44" s="15" t="s">
         <v>231</v>
       </c>
@@ -9765,18 +9784,18 @@
       <c r="C45" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="118" t="s">
+      <c r="D45" s="128" t="s">
         <v>257</v>
       </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="119"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="129"/>
       <c r="N45" s="15" t="s">
         <v>258</v>
       </c>
@@ -9833,18 +9852,18 @@
       <c r="C46" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="118" t="s">
+      <c r="D46" s="128" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="119"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="129"/>
       <c r="N46" s="15" t="s">
         <v>263</v>
       </c>
@@ -9901,18 +9920,18 @@
       <c r="C47" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="118" t="s">
+      <c r="D47" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="119"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="129"/>
       <c r="N47" s="15" t="s">
         <v>261</v>
       </c>
@@ -9969,18 +9988,18 @@
       <c r="C48" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="118" t="s">
-        <v>377</v>
-      </c>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="119"/>
+      <c r="D48" s="128" t="s">
+        <v>376</v>
+      </c>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="129"/>
       <c r="N48" s="15" t="s">
         <v>247</v>
       </c>
@@ -10037,18 +10056,18 @@
       <c r="C49" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="118" t="s">
+      <c r="D49" s="128" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="119"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="129"/>
       <c r="N49" s="15" t="s">
         <v>276</v>
       </c>
@@ -10099,31 +10118,31 @@
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="D50" s="118" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="15" t="s">
-        <v>366</v>
-      </c>
       <c r="O50" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q50" s="19">
         <v>1</v>
@@ -10166,31 +10185,31 @@
     </row>
     <row r="51" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C51" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="128" t="s">
         <v>368</v>
       </c>
-      <c r="D51" s="118" t="s">
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="15" t="s">
-        <v>370</v>
-      </c>
       <c r="O51" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q51" s="19"/>
       <c r="R51" s="84">
@@ -10231,31 +10250,31 @@
     </row>
     <row r="52" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="D52" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="128" t="s">
+        <v>377</v>
+      </c>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="15" t="s">
-        <v>379</v>
-      </c>
       <c r="O52" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q52" s="19">
         <v>1</v>
@@ -10298,31 +10317,31 @@
     </row>
     <row r="53" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C53" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="D53" s="118" t="s">
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="15" t="s">
+      <c r="O53" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="O53" s="17" t="s">
+      <c r="P53" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="Q53" s="19">
         <v>1</v>
@@ -10367,19 +10386,19 @@
       <c r="B54" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="120" t="s">
+      <c r="C54" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="121"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="127"/>
       <c r="N54" s="38"/>
       <c r="O54" s="41"/>
       <c r="P54" s="41"/>
@@ -10424,18 +10443,18 @@
       <c r="C55" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="122" t="s">
+      <c r="D55" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="123"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="119"/>
       <c r="N55" s="39" t="s">
         <v>64</v>
       </c>
@@ -10492,18 +10511,18 @@
       <c r="C56" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D56" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="123"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="118"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="119"/>
       <c r="N56" s="39" t="s">
         <v>168</v>
       </c>
@@ -10560,26 +10579,26 @@
       <c r="C57" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="D57" s="122" t="s">
+      <c r="D57" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="123"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="119"/>
       <c r="N57" s="39" t="s">
         <v>309</v>
       </c>
       <c r="O57" s="56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P57" s="56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q57" s="79" t="s">
         <v>321</v>
@@ -10627,18 +10646,18 @@
       <c r="C58" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="122" t="s">
+      <c r="D58" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="123"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="119"/>
       <c r="N58" s="39" t="s">
         <v>170</v>
       </c>
@@ -10695,18 +10714,18 @@
       <c r="C59" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="118" t="s">
+      <c r="D59" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="119"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="129"/>
       <c r="N59" s="15" t="s">
         <v>104</v>
       </c>
@@ -10763,18 +10782,18 @@
       <c r="C60" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="118" t="s">
+      <c r="D60" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="119"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
+      <c r="M60" s="129"/>
       <c r="N60" s="15" t="s">
         <v>75</v>
       </c>
@@ -10829,18 +10848,18 @@
       <c r="C61" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="118" t="s">
+      <c r="D61" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="119"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="128"/>
+      <c r="M61" s="129"/>
       <c r="N61" s="15"/>
       <c r="O61" s="17" t="s">
         <v>286</v>
@@ -10893,18 +10912,18 @@
       <c r="C62" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="118" t="s">
+      <c r="D62" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="119"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="128"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="128"/>
+      <c r="M62" s="129"/>
       <c r="N62" s="15"/>
       <c r="O62" s="17" t="s">
         <v>288</v>
@@ -10957,18 +10976,18 @@
       <c r="C63" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="118" t="s">
+      <c r="D63" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="119"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="128"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="129"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
         <v>288</v>
@@ -11018,19 +11037,19 @@
       <c r="B64" s="37">
         <v>5</v>
       </c>
-      <c r="C64" s="120" t="s">
+      <c r="C64" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="120"/>
-      <c r="K64" s="120"/>
-      <c r="L64" s="120"/>
-      <c r="M64" s="121"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="127"/>
       <c r="N64" s="40"/>
       <c r="O64" s="41"/>
       <c r="P64" s="41"/>
@@ -11075,18 +11094,18 @@
       <c r="C65" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="118" t="s">
+      <c r="D65" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="119"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
+      <c r="M65" s="129"/>
       <c r="N65" s="15" t="s">
         <v>59</v>
       </c>
@@ -11143,18 +11162,18 @@
       <c r="C66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="118" t="s">
+      <c r="D66" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="119"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="129"/>
       <c r="N66" s="15" t="s">
         <v>291</v>
       </c>
@@ -11211,18 +11230,18 @@
       <c r="C67" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="118" t="s">
-        <v>353</v>
-      </c>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118"/>
-      <c r="M67" s="119"/>
+      <c r="D67" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="129"/>
       <c r="N67" s="15" t="s">
         <v>311</v>
       </c>
@@ -11277,28 +11296,28 @@
         <v>112</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" s="128" t="s">
         <v>354</v>
       </c>
-      <c r="D68" s="118" t="s">
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="15" t="s">
+      <c r="O68" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="O68" s="17" t="s">
+      <c r="P68" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="P68" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="Q68" s="19">
         <v>1</v>
@@ -11347,18 +11366,18 @@
       <c r="C69" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="118" t="s">
+      <c r="D69" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="119"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="129"/>
       <c r="N69" s="15" t="s">
         <v>68</v>
       </c>
@@ -11413,28 +11432,28 @@
         <v>115</v>
       </c>
       <c r="C70" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" s="128" t="s">
+        <v>418</v>
+      </c>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="128"/>
+      <c r="M70" s="129"/>
+      <c r="N70" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="118"/>
-      <c r="I70" s="118"/>
-      <c r="J70" s="118"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="15" t="s">
-        <v>421</v>
-      </c>
       <c r="O70" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q70" s="15"/>
       <c r="R70" s="84">
@@ -11481,18 +11500,18 @@
       <c r="C71" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="118" t="s">
+      <c r="D71" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="118"/>
-      <c r="I71" s="118"/>
-      <c r="J71" s="118"/>
-      <c r="K71" s="118"/>
-      <c r="L71" s="118"/>
-      <c r="M71" s="119"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="129"/>
       <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
         <v>238</v>
@@ -11543,18 +11562,18 @@
       <c r="C72" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="118" t="s">
+      <c r="D72" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="118"/>
-      <c r="I72" s="118"/>
-      <c r="J72" s="118"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="118"/>
-      <c r="M72" s="119"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="128"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="128"/>
+      <c r="M72" s="129"/>
       <c r="N72" s="15" t="s">
         <v>297</v>
       </c>
@@ -11609,28 +11628,28 @@
         <v>305</v>
       </c>
       <c r="C73" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="D73" s="118" t="s">
+        <v>404</v>
+      </c>
+      <c r="D73" s="128" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118"/>
-      <c r="M73" s="119"/>
-      <c r="N73" s="15" t="s">
+      <c r="O73" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="P73" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="84">
@@ -11672,29 +11691,29 @@
     </row>
     <row r="74" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C74" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="118" t="s">
+      <c r="D74" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
-      <c r="K74" s="118"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="119"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="128"/>
+      <c r="K74" s="128"/>
+      <c r="L74" s="128"/>
+      <c r="M74" s="129"/>
       <c r="N74" s="15"/>
       <c r="O74" s="17" t="s">
         <v>164</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="84">
@@ -11736,23 +11755,23 @@
     </row>
     <row r="75" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C75" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="118" t="s">
+      <c r="D75" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="118"/>
-      <c r="K75" s="118"/>
-      <c r="L75" s="118"/>
-      <c r="M75" s="119"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="128"/>
+      <c r="K75" s="128"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="129"/>
       <c r="N75" s="15" t="s">
         <v>319</v>
       </c>
@@ -11804,23 +11823,23 @@
     </row>
     <row r="76" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C76" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="118" t="s">
+      <c r="D76" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="118"/>
-      <c r="K76" s="118"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="119"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="128"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="128"/>
+      <c r="M76" s="129"/>
       <c r="N76" s="15"/>
       <c r="O76" s="17" t="s">
         <v>299</v>
@@ -11868,19 +11887,19 @@
       <c r="B77" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="120" t="s">
+      <c r="C77" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="120"/>
-      <c r="E77" s="120"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="120"/>
-      <c r="H77" s="120"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="120"/>
-      <c r="K77" s="120"/>
-      <c r="L77" s="120"/>
-      <c r="M77" s="121"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="127"/>
       <c r="N77" s="38"/>
       <c r="O77" s="41"/>
       <c r="P77" s="41"/>
@@ -11925,18 +11944,18 @@
       <c r="C78" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="118" t="s">
+      <c r="D78" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="119"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="128"/>
+      <c r="J78" s="128"/>
+      <c r="K78" s="128"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="129"/>
       <c r="N78" s="15" t="s">
         <v>85</v>
       </c>
@@ -11993,18 +12012,18 @@
       <c r="C79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="118" t="s">
+      <c r="D79" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="119"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="128"/>
+      <c r="G79" s="128"/>
+      <c r="H79" s="128"/>
+      <c r="I79" s="128"/>
+      <c r="J79" s="128"/>
+      <c r="K79" s="128"/>
+      <c r="L79" s="128"/>
+      <c r="M79" s="129"/>
       <c r="N79" s="15" t="s">
         <v>312</v>
       </c>
@@ -12061,20 +12080,20 @@
       <c r="C80" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="118" t="s">
+      <c r="D80" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
-      <c r="K80" s="118"/>
-      <c r="L80" s="118"/>
-      <c r="M80" s="119"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="128"/>
+      <c r="K80" s="128"/>
+      <c r="L80" s="128"/>
+      <c r="M80" s="129"/>
       <c r="N80" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O80" s="17" t="s">
         <v>220</v>
@@ -12129,20 +12148,20 @@
       <c r="C81" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="118" t="s">
+      <c r="D81" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="119"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="128"/>
+      <c r="J81" s="128"/>
+      <c r="K81" s="128"/>
+      <c r="L81" s="128"/>
+      <c r="M81" s="129"/>
       <c r="N81" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O81" s="17" t="s">
         <v>298</v>
@@ -12197,20 +12216,20 @@
       <c r="C82" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="118" t="s">
+      <c r="D82" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="118"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="118"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="119"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="128"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="128"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="129"/>
       <c r="N82" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O82" s="17" t="s">
         <v>249</v>
@@ -12265,18 +12284,18 @@
       <c r="C83" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D83" s="118" t="s">
+      <c r="D83" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="118"/>
-      <c r="J83" s="118"/>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118"/>
-      <c r="M83" s="119"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="128"/>
+      <c r="G83" s="128"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="128"/>
+      <c r="K83" s="128"/>
+      <c r="L83" s="128"/>
+      <c r="M83" s="129"/>
       <c r="N83" s="15" t="s">
         <v>219</v>
       </c>
@@ -12333,18 +12352,18 @@
       <c r="C84" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="118" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118"/>
-      <c r="M84" s="119"/>
+      <c r="D84" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
+      <c r="G84" s="128"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="128"/>
+      <c r="K84" s="128"/>
+      <c r="L84" s="128"/>
+      <c r="M84" s="129"/>
       <c r="N84" s="15" t="s">
         <v>215</v>
       </c>
@@ -12352,7 +12371,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q84" s="19">
         <v>1</v>
@@ -12401,18 +12420,18 @@
       <c r="C85" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D85" s="118" t="s">
+      <c r="D85" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="E85" s="118"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="119"/>
+      <c r="E85" s="128"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="128"/>
+      <c r="J85" s="128"/>
+      <c r="K85" s="128"/>
+      <c r="L85" s="128"/>
+      <c r="M85" s="129"/>
       <c r="N85" s="15" t="s">
         <v>231</v>
       </c>
@@ -12469,18 +12488,18 @@
       <c r="C86" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="D86" s="118" t="s">
+      <c r="D86" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="118"/>
-      <c r="L86" s="118"/>
-      <c r="M86" s="119"/>
+      <c r="E86" s="128"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="128"/>
+      <c r="K86" s="128"/>
+      <c r="L86" s="128"/>
+      <c r="M86" s="129"/>
       <c r="N86" s="15" t="s">
         <v>316</v>
       </c>
@@ -12535,28 +12554,28 @@
         <v>124</v>
       </c>
       <c r="C87" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" s="128" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="118" t="s">
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="128"/>
+      <c r="J87" s="128"/>
+      <c r="K87" s="128"/>
+      <c r="L87" s="128"/>
+      <c r="M87" s="129"/>
+      <c r="N87" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="118"/>
-      <c r="H87" s="118"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="118"/>
-      <c r="L87" s="118"/>
-      <c r="M87" s="119"/>
-      <c r="N87" s="15" t="s">
+      <c r="O87" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="O87" s="17" t="s">
-        <v>363</v>
-      </c>
       <c r="P87" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q87" s="19">
         <v>1</v>
@@ -12603,28 +12622,28 @@
         <v>131</v>
       </c>
       <c r="C88" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="D88" s="128" t="s">
         <v>405</v>
       </c>
-      <c r="D88" s="118" t="s">
-        <v>406</v>
-      </c>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118"/>
-      <c r="M88" s="119"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
+      <c r="K88" s="128"/>
+      <c r="L88" s="128"/>
+      <c r="M88" s="129"/>
       <c r="N88" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O88" s="17" t="s">
         <v>298</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q88" s="19">
         <v>1</v>
@@ -12672,18 +12691,18 @@
       <c r="C89" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D89" s="118" t="s">
+      <c r="D89" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118"/>
-      <c r="M89" s="119"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="129"/>
       <c r="N89" s="15"/>
       <c r="O89" s="17" t="s">
         <v>304</v>
@@ -12729,31 +12748,31 @@
     </row>
     <row r="90" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B90" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C90" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="D90" s="118" t="s">
-        <v>428</v>
-      </c>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="118"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="118"/>
-      <c r="L90" s="118"/>
-      <c r="M90" s="119"/>
+        <v>404</v>
+      </c>
+      <c r="D90" s="128" t="s">
+        <v>427</v>
+      </c>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="128"/>
+      <c r="J90" s="128"/>
+      <c r="K90" s="128"/>
+      <c r="L90" s="128"/>
+      <c r="M90" s="129"/>
       <c r="N90" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q90" s="19"/>
       <c r="R90" s="84">
@@ -12795,23 +12814,23 @@
     </row>
     <row r="91" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B91" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C91" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D91" s="118" t="s">
+      <c r="D91" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="118"/>
-      <c r="L91" s="118"/>
-      <c r="M91" s="119"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="128"/>
+      <c r="J91" s="128"/>
+      <c r="K91" s="128"/>
+      <c r="L91" s="128"/>
+      <c r="M91" s="129"/>
       <c r="N91" s="15"/>
       <c r="O91" s="17" t="s">
         <v>288</v>
@@ -12857,23 +12876,23 @@
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B92" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C92" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="118" t="s">
+      <c r="D92" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="E92" s="118"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="118"/>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118"/>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118"/>
-      <c r="M92" s="119"/>
+      <c r="E92" s="128"/>
+      <c r="F92" s="128"/>
+      <c r="G92" s="128"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="128"/>
+      <c r="J92" s="128"/>
+      <c r="K92" s="128"/>
+      <c r="L92" s="128"/>
+      <c r="M92" s="129"/>
       <c r="N92" s="15"/>
       <c r="O92" s="17" t="s">
         <v>288</v>
@@ -12919,23 +12938,23 @@
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C93" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D93" s="118" t="s">
+      <c r="D93" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="E93" s="118"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="118"/>
-      <c r="H93" s="118"/>
-      <c r="I93" s="118"/>
-      <c r="J93" s="118"/>
-      <c r="K93" s="118"/>
-      <c r="L93" s="118"/>
-      <c r="M93" s="119"/>
+      <c r="E93" s="128"/>
+      <c r="F93" s="128"/>
+      <c r="G93" s="128"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="128"/>
+      <c r="J93" s="128"/>
+      <c r="K93" s="128"/>
+      <c r="L93" s="128"/>
+      <c r="M93" s="129"/>
       <c r="N93" s="15"/>
       <c r="O93" s="17" t="s">
         <v>290</v>
@@ -12983,19 +13002,19 @@
       <c r="B94" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="C94" s="148" t="s">
-        <v>330</v>
-      </c>
-      <c r="D94" s="120"/>
-      <c r="E94" s="120"/>
-      <c r="F94" s="120"/>
-      <c r="G94" s="120"/>
-      <c r="H94" s="120"/>
-      <c r="I94" s="120"/>
-      <c r="J94" s="120"/>
-      <c r="K94" s="120"/>
-      <c r="L94" s="120"/>
-      <c r="M94" s="121"/>
+      <c r="C94" s="125" t="s">
+        <v>431</v>
+      </c>
+      <c r="D94" s="126"/>
+      <c r="E94" s="126"/>
+      <c r="F94" s="126"/>
+      <c r="G94" s="126"/>
+      <c r="H94" s="126"/>
+      <c r="I94" s="126"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="126"/>
+      <c r="M94" s="127"/>
       <c r="N94" s="38"/>
       <c r="O94" s="41"/>
       <c r="P94" s="41"/>
@@ -13035,28 +13054,28 @@
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B95" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="C95" s="107" t="s">
+      <c r="D95" s="121" t="s">
         <v>332</v>
       </c>
-      <c r="D95" s="144" t="s">
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="121"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="121"/>
+      <c r="K95" s="121"/>
+      <c r="L95" s="121"/>
+      <c r="M95" s="122"/>
+      <c r="N95" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="144"/>
-      <c r="F95" s="144"/>
-      <c r="G95" s="144"/>
-      <c r="H95" s="144"/>
-      <c r="I95" s="144"/>
-      <c r="J95" s="144"/>
-      <c r="K95" s="144"/>
-      <c r="L95" s="144"/>
-      <c r="M95" s="145"/>
-      <c r="N95" s="97" t="s">
+      <c r="O95" s="98" t="s">
         <v>334</v>
-      </c>
-      <c r="O95" s="98" t="s">
-        <v>335</v>
       </c>
       <c r="P95" s="98" t="s">
         <v>164</v>
@@ -13101,31 +13120,31 @@
     </row>
     <row r="96" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B96" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="108" t="s">
         <v>337</v>
       </c>
-      <c r="C96" s="108" t="s">
+      <c r="D96" s="121" t="s">
         <v>338</v>
       </c>
-      <c r="D96" s="144" t="s">
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="121"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="121"/>
+      <c r="K96" s="121"/>
+      <c r="L96" s="121"/>
+      <c r="M96" s="122"/>
+      <c r="N96" s="97" t="s">
+        <v>397</v>
+      </c>
+      <c r="O96" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="P96" s="98" t="s">
         <v>339</v>
-      </c>
-      <c r="E96" s="144"/>
-      <c r="F96" s="144"/>
-      <c r="G96" s="144"/>
-      <c r="H96" s="144"/>
-      <c r="I96" s="144"/>
-      <c r="J96" s="144"/>
-      <c r="K96" s="144"/>
-      <c r="L96" s="144"/>
-      <c r="M96" s="145"/>
-      <c r="N96" s="97" t="s">
-        <v>398</v>
-      </c>
-      <c r="O96" s="98" t="s">
-        <v>394</v>
-      </c>
-      <c r="P96" s="98" t="s">
-        <v>340</v>
       </c>
       <c r="Q96" s="106"/>
       <c r="R96" s="99">
@@ -13166,27 +13185,29 @@
       </c>
     </row>
     <row r="97" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B97" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="C97" s="148" t="s">
-        <v>342</v>
-      </c>
-      <c r="D97" s="120"/>
-      <c r="E97" s="120"/>
-      <c r="F97" s="120"/>
-      <c r="G97" s="120"/>
-      <c r="H97" s="120"/>
-      <c r="I97" s="120"/>
-      <c r="J97" s="120"/>
-      <c r="K97" s="120"/>
-      <c r="L97" s="120"/>
-      <c r="M97" s="121"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="105"/>
-      <c r="R97" s="85"/>
+      <c r="B97" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="107" t="s">
+        <v>432</v>
+      </c>
+      <c r="D97" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="121"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="121"/>
+      <c r="K97" s="121"/>
+      <c r="L97" s="121"/>
+      <c r="M97" s="122"/>
+      <c r="N97" s="97"/>
+      <c r="O97" s="98"/>
+      <c r="P97" s="98"/>
+      <c r="Q97" s="106"/>
+      <c r="R97" s="99"/>
       <c r="S97" s="27"/>
       <c r="T97" s="11"/>
       <c r="U97" s="45"/>
@@ -13208,10 +13229,10 @@
       <c r="AK97" s="7"/>
       <c r="AL97" s="24"/>
       <c r="AM97" s="24"/>
-      <c r="AN97" s="11"/>
+      <c r="AN97" s="8"/>
       <c r="AO97" s="11"/>
-      <c r="AP97" s="42"/>
-      <c r="AQ97" s="46"/>
+      <c r="AP97" s="45"/>
+      <c r="AQ97" s="49"/>
       <c r="AR97" s="11"/>
       <c r="AS97" s="11"/>
       <c r="AT97" s="7"/>
@@ -13221,34 +13242,28 @@
     </row>
     <row r="98" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B98" s="96" t="s">
-        <v>382</v>
-      </c>
-      <c r="C98" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="D98" s="122" t="s">
-        <v>386</v>
-      </c>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="122"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="122"/>
-      <c r="L98" s="122"/>
-      <c r="M98" s="123"/>
+        <v>436</v>
+      </c>
+      <c r="C98" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="D98" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="121"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="121"/>
+      <c r="L98" s="121"/>
+      <c r="M98" s="122"/>
       <c r="N98" s="97"/>
-      <c r="O98" s="98" t="s">
-        <v>390</v>
-      </c>
-      <c r="P98" s="98" t="s">
-        <v>391</v>
-      </c>
+      <c r="O98" s="98"/>
+      <c r="P98" s="98"/>
       <c r="Q98" s="106"/>
-      <c r="R98" s="99">
-        <v>1</v>
-      </c>
+      <c r="R98" s="99"/>
       <c r="S98" s="27"/>
       <c r="T98" s="11"/>
       <c r="U98" s="45"/>
@@ -13272,47 +13287,37 @@
       <c r="AM98" s="24"/>
       <c r="AN98" s="11"/>
       <c r="AO98" s="11"/>
-      <c r="AP98" s="42"/>
-      <c r="AQ98" s="46"/>
+      <c r="AP98" s="45"/>
+      <c r="AQ98" s="49"/>
       <c r="AR98" s="11"/>
       <c r="AS98" s="11"/>
-      <c r="AT98" s="8"/>
-      <c r="AU98" s="8"/>
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="9"/>
       <c r="AV98" s="76"/>
-      <c r="AW98" s="111">
-        <v>1</v>
-      </c>
+      <c r="AW98" s="111"/>
     </row>
     <row r="99" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B99" s="96" t="s">
-        <v>383</v>
-      </c>
-      <c r="C99" s="109" t="s">
-        <v>343</v>
-      </c>
-      <c r="D99" s="144" t="s">
-        <v>344</v>
-      </c>
-      <c r="E99" s="144"/>
-      <c r="F99" s="144"/>
-      <c r="G99" s="144"/>
-      <c r="H99" s="144"/>
-      <c r="I99" s="144"/>
-      <c r="J99" s="144"/>
-      <c r="K99" s="144"/>
-      <c r="L99" s="144"/>
-      <c r="M99" s="145"/>
-      <c r="N99" s="97"/>
-      <c r="O99" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="P99" s="98" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q99" s="106"/>
-      <c r="R99" s="99">
-        <v>1</v>
-      </c>
+      <c r="B99" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="126"/>
+      <c r="G99" s="126"/>
+      <c r="H99" s="126"/>
+      <c r="I99" s="126"/>
+      <c r="J99" s="126"/>
+      <c r="K99" s="126"/>
+      <c r="L99" s="126"/>
+      <c r="M99" s="127"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="105"/>
+      <c r="R99" s="85"/>
       <c r="S99" s="27"/>
       <c r="T99" s="11"/>
       <c r="U99" s="45"/>
@@ -13340,38 +13345,36 @@
       <c r="AQ99" s="46"/>
       <c r="AR99" s="11"/>
       <c r="AS99" s="11"/>
-      <c r="AT99" s="11"/>
+      <c r="AT99" s="7"/>
       <c r="AU99" s="7"/>
-      <c r="AV99" s="102"/>
-      <c r="AW99" s="111">
-        <v>1</v>
-      </c>
+      <c r="AV99" s="76"/>
+      <c r="AW99" s="111"/>
     </row>
     <row r="100" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B100" s="96" t="s">
+        <v>381</v>
+      </c>
+      <c r="C100" s="114" t="s">
         <v>384</v>
       </c>
-      <c r="C100" s="107" t="s">
-        <v>332</v>
-      </c>
-      <c r="D100" s="144" t="s">
-        <v>345</v>
-      </c>
-      <c r="E100" s="144"/>
-      <c r="F100" s="144"/>
-      <c r="G100" s="144"/>
-      <c r="H100" s="144"/>
-      <c r="I100" s="144"/>
-      <c r="J100" s="144"/>
-      <c r="K100" s="144"/>
-      <c r="L100" s="144"/>
-      <c r="M100" s="145"/>
+      <c r="D100" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="118"/>
+      <c r="H100" s="118"/>
+      <c r="I100" s="118"/>
+      <c r="J100" s="118"/>
+      <c r="K100" s="118"/>
+      <c r="L100" s="118"/>
+      <c r="M100" s="119"/>
       <c r="N100" s="97"/>
       <c r="O100" s="98" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P100" s="98" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q100" s="106"/>
       <c r="R100" s="99">
@@ -13404,46 +13407,54 @@
       <c r="AQ100" s="46"/>
       <c r="AR100" s="11"/>
       <c r="AS100" s="11"/>
-      <c r="AT100" s="11"/>
-      <c r="AU100" s="11"/>
+      <c r="AT100" s="8"/>
+      <c r="AU100" s="8"/>
       <c r="AV100" s="76"/>
       <c r="AW100" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B101" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="120" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="120"/>
-      <c r="E101" s="120"/>
-      <c r="F101" s="120"/>
-      <c r="G101" s="120"/>
-      <c r="H101" s="120"/>
-      <c r="I101" s="120"/>
-      <c r="J101" s="120"/>
-      <c r="K101" s="120"/>
-      <c r="L101" s="120"/>
-      <c r="M101" s="121"/>
-      <c r="N101" s="38"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="38"/>
-      <c r="R101" s="85"/>
-      <c r="S101" s="25"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="42"/>
-      <c r="V101" s="46"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
+      <c r="B101" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="109" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="121"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="121"/>
+      <c r="K101" s="121"/>
+      <c r="L101" s="121"/>
+      <c r="M101" s="122"/>
+      <c r="N101" s="97"/>
+      <c r="O101" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="P101" s="98" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q101" s="106"/>
+      <c r="R101" s="99">
+        <v>1</v>
+      </c>
+      <c r="S101" s="27"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="45"/>
+      <c r="V101" s="49"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
       <c r="AB101" s="42"/>
-      <c r="AC101" s="46"/>
+      <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
       <c r="AE101" s="7"/>
       <c r="AF101" s="7"/>
@@ -13452,62 +13463,62 @@
       <c r="AI101" s="42"/>
       <c r="AJ101" s="46"/>
       <c r="AK101" s="7"/>
-      <c r="AL101" s="7"/>
-      <c r="AM101" s="7"/>
-      <c r="AN101" s="7"/>
-      <c r="AO101" s="7"/>
+      <c r="AL101" s="24"/>
+      <c r="AM101" s="24"/>
+      <c r="AN101" s="11"/>
+      <c r="AO101" s="11"/>
       <c r="AP101" s="42"/>
       <c r="AQ101" s="46"/>
-      <c r="AR101" s="7"/>
-      <c r="AS101" s="7"/>
-      <c r="AT101" s="7"/>
+      <c r="AR101" s="11"/>
+      <c r="AS101" s="11"/>
+      <c r="AT101" s="11"/>
       <c r="AU101" s="7"/>
-      <c r="AV101" s="76"/>
-      <c r="AW101" s="111"/>
+      <c r="AV101" s="102"/>
+      <c r="AW101" s="111">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B102" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="C102" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="D102" s="122" t="s">
-        <v>270</v>
-      </c>
-      <c r="E102" s="122"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="122"/>
-      <c r="H102" s="122"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="122"/>
-      <c r="L102" s="122"/>
-      <c r="M102" s="123"/>
-      <c r="N102" s="97" t="s">
-        <v>271</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C102" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" s="121" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="121"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121"/>
+      <c r="K102" s="121"/>
+      <c r="L102" s="121"/>
+      <c r="M102" s="122"/>
+      <c r="N102" s="97"/>
       <c r="O102" s="98" t="s">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="P102" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q102" s="97"/>
+        <v>387</v>
+      </c>
+      <c r="Q102" s="106"/>
       <c r="R102" s="99">
         <v>1</v>
       </c>
-      <c r="S102" s="25"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="42"/>
-      <c r="V102" s="46"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="7"/>
+      <c r="S102" s="27"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="45"/>
+      <c r="V102" s="49"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
       <c r="AA102" s="7"/>
       <c r="AB102" s="42"/>
-      <c r="AC102" s="46"/>
+      <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
@@ -13516,49 +13527,43 @@
       <c r="AI102" s="42"/>
       <c r="AJ102" s="46"/>
       <c r="AK102" s="7"/>
-      <c r="AL102" s="7"/>
-      <c r="AM102" s="7"/>
-      <c r="AN102" s="7"/>
-      <c r="AO102" s="7"/>
+      <c r="AL102" s="24"/>
+      <c r="AM102" s="24"/>
+      <c r="AN102" s="11"/>
+      <c r="AO102" s="11"/>
       <c r="AP102" s="42"/>
       <c r="AQ102" s="46"/>
-      <c r="AR102" s="8"/>
-      <c r="AS102" s="8"/>
-      <c r="AT102" s="8"/>
-      <c r="AU102" s="8"/>
-      <c r="AV102" s="101"/>
+      <c r="AR102" s="11"/>
+      <c r="AS102" s="11"/>
+      <c r="AT102" s="11"/>
+      <c r="AU102" s="11"/>
+      <c r="AV102" s="76"/>
       <c r="AW102" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B103" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="E103" s="118"/>
-      <c r="F103" s="118"/>
-      <c r="G103" s="118"/>
-      <c r="H103" s="118"/>
-      <c r="I103" s="118"/>
-      <c r="J103" s="118"/>
-      <c r="K103" s="118"/>
-      <c r="L103" s="118"/>
-      <c r="M103" s="119"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="P103" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="84"/>
+      <c r="B103" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="126"/>
+      <c r="E103" s="126"/>
+      <c r="F103" s="126"/>
+      <c r="G103" s="126"/>
+      <c r="H103" s="126"/>
+      <c r="I103" s="126"/>
+      <c r="J103" s="126"/>
+      <c r="K103" s="126"/>
+      <c r="L103" s="126"/>
+      <c r="M103" s="127"/>
+      <c r="N103" s="38"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="85"/>
       <c r="S103" s="25"/>
       <c r="T103" s="7"/>
       <c r="U103" s="42"/>
@@ -13584,24 +13589,22 @@
       <c r="AO103" s="7"/>
       <c r="AP103" s="42"/>
       <c r="AQ103" s="46"/>
-      <c r="AR103" s="8"/>
+      <c r="AR103" s="7"/>
       <c r="AS103" s="7"/>
       <c r="AT103" s="7"/>
       <c r="AU103" s="7"/>
       <c r="AV103" s="76"/>
-      <c r="AW103" s="111">
-        <v>1</v>
-      </c>
+      <c r="AW103" s="111"/>
     </row>
     <row r="104" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B104" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>194</v>
+        <v>268</v>
+      </c>
+      <c r="C104" s="100" t="s">
+        <v>233</v>
       </c>
       <c r="D104" s="118" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="E104" s="118"/>
       <c r="F104" s="118"/>
@@ -13612,15 +13615,19 @@
       <c r="K104" s="118"/>
       <c r="L104" s="118"/>
       <c r="M104" s="119"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="17" t="s">
+      <c r="N104" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="O104" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="P104" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="84"/>
+      <c r="P104" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q104" s="97"/>
+      <c r="R104" s="99">
+        <v>1</v>
+      </c>
       <c r="S104" s="25"/>
       <c r="T104" s="7"/>
       <c r="U104" s="42"/>
@@ -13647,39 +13654,39 @@
       <c r="AP104" s="42"/>
       <c r="AQ104" s="46"/>
       <c r="AR104" s="8"/>
-      <c r="AS104" s="7"/>
-      <c r="AT104" s="7"/>
-      <c r="AU104" s="7"/>
-      <c r="AV104" s="76"/>
+      <c r="AS104" s="8"/>
+      <c r="AT104" s="8"/>
+      <c r="AU104" s="8"/>
+      <c r="AV104" s="101"/>
       <c r="AW104" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B105" s="36" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" s="118" t="s">
-        <v>211</v>
-      </c>
-      <c r="E105" s="118"/>
-      <c r="F105" s="118"/>
-      <c r="G105" s="118"/>
-      <c r="H105" s="118"/>
-      <c r="I105" s="118"/>
-      <c r="J105" s="118"/>
-      <c r="K105" s="118"/>
-      <c r="L105" s="118"/>
-      <c r="M105" s="119"/>
+        <v>207</v>
+      </c>
+      <c r="D105" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" s="128"/>
+      <c r="F105" s="128"/>
+      <c r="G105" s="128"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="128"/>
+      <c r="J105" s="128"/>
+      <c r="K105" s="128"/>
+      <c r="L105" s="128"/>
+      <c r="M105" s="129"/>
       <c r="N105" s="15"/>
       <c r="O105" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P105" s="17" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Q105" s="15"/>
       <c r="R105" s="84"/>
@@ -13708,40 +13715,40 @@
       <c r="AO105" s="7"/>
       <c r="AP105" s="42"/>
       <c r="AQ105" s="46"/>
-      <c r="AR105" s="7"/>
-      <c r="AS105" s="8"/>
-      <c r="AT105" s="8"/>
+      <c r="AR105" s="8"/>
+      <c r="AS105" s="7"/>
+      <c r="AT105" s="7"/>
       <c r="AU105" s="7"/>
       <c r="AV105" s="76"/>
       <c r="AW105" s="111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B106" s="96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D106" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="E106" s="118"/>
-      <c r="F106" s="118"/>
-      <c r="G106" s="118"/>
-      <c r="H106" s="118"/>
-      <c r="I106" s="118"/>
-      <c r="J106" s="118"/>
-      <c r="K106" s="118"/>
-      <c r="L106" s="118"/>
-      <c r="M106" s="119"/>
+      <c r="D106" s="128" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="128"/>
+      <c r="F106" s="128"/>
+      <c r="G106" s="128"/>
+      <c r="H106" s="128"/>
+      <c r="I106" s="128"/>
+      <c r="J106" s="128"/>
+      <c r="K106" s="128"/>
+      <c r="L106" s="128"/>
+      <c r="M106" s="129"/>
       <c r="N106" s="15"/>
       <c r="O106" s="17" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="P106" s="17" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="Q106" s="15"/>
       <c r="R106" s="84"/>
@@ -13770,175 +13777,205 @@
       <c r="AO106" s="7"/>
       <c r="AP106" s="42"/>
       <c r="AQ106" s="46"/>
-      <c r="AR106" s="7"/>
+      <c r="AR106" s="8"/>
       <c r="AS106" s="7"/>
-      <c r="AT106" s="8"/>
+      <c r="AT106" s="7"/>
       <c r="AU106" s="7"/>
       <c r="AV106" s="76"/>
       <c r="AW106" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="95" t="s">
+    <row r="107" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B107" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="128"/>
+      <c r="F107" s="128"/>
+      <c r="G107" s="128"/>
+      <c r="H107" s="128"/>
+      <c r="I107" s="128"/>
+      <c r="J107" s="128"/>
+      <c r="K107" s="128"/>
+      <c r="L107" s="128"/>
+      <c r="M107" s="129"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="P107" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="84"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="46"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="46"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7"/>
+      <c r="AF107" s="7"/>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="7"/>
+      <c r="AI107" s="42"/>
+      <c r="AJ107" s="46"/>
+      <c r="AK107" s="7"/>
+      <c r="AL107" s="7"/>
+      <c r="AM107" s="7"/>
+      <c r="AN107" s="7"/>
+      <c r="AO107" s="7"/>
+      <c r="AP107" s="42"/>
+      <c r="AQ107" s="46"/>
+      <c r="AR107" s="7"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="7"/>
+      <c r="AV107" s="76"/>
+      <c r="AW107" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B108" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="128"/>
+      <c r="F108" s="128"/>
+      <c r="G108" s="128"/>
+      <c r="H108" s="128"/>
+      <c r="I108" s="128"/>
+      <c r="J108" s="128"/>
+      <c r="K108" s="128"/>
+      <c r="L108" s="128"/>
+      <c r="M108" s="129"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="P108" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="84"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="42"/>
+      <c r="V108" s="46"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="42"/>
+      <c r="AC108" s="46"/>
+      <c r="AD108" s="7"/>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7"/>
+      <c r="AH108" s="7"/>
+      <c r="AI108" s="42"/>
+      <c r="AJ108" s="46"/>
+      <c r="AK108" s="7"/>
+      <c r="AL108" s="7"/>
+      <c r="AM108" s="7"/>
+      <c r="AN108" s="7"/>
+      <c r="AO108" s="7"/>
+      <c r="AP108" s="42"/>
+      <c r="AQ108" s="46"/>
+      <c r="AR108" s="7"/>
+      <c r="AS108" s="7"/>
+      <c r="AT108" s="8"/>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="76"/>
+      <c r="AW108" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C109" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="124" t="s">
+      <c r="D109" s="147" t="s">
         <v>214</v>
       </c>
-      <c r="E107" s="124"/>
-      <c r="F107" s="124"/>
-      <c r="G107" s="124"/>
-      <c r="H107" s="124"/>
-      <c r="I107" s="124"/>
-      <c r="J107" s="124"/>
-      <c r="K107" s="124"/>
-      <c r="L107" s="124"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="67"/>
-      <c r="O107" s="68" t="s">
+      <c r="E109" s="147"/>
+      <c r="F109" s="147"/>
+      <c r="G109" s="147"/>
+      <c r="H109" s="147"/>
+      <c r="I109" s="147"/>
+      <c r="J109" s="147"/>
+      <c r="K109" s="147"/>
+      <c r="L109" s="147"/>
+      <c r="M109" s="148"/>
+      <c r="N109" s="67"/>
+      <c r="O109" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="P107" s="68" t="s">
+      <c r="P109" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="Q107" s="67"/>
-      <c r="R107" s="88"/>
-      <c r="S107" s="69"/>
-      <c r="T107" s="70"/>
-      <c r="U107" s="71"/>
-      <c r="V107" s="72"/>
-      <c r="W107" s="70"/>
-      <c r="X107" s="70"/>
-      <c r="Y107" s="70"/>
-      <c r="Z107" s="70"/>
-      <c r="AA107" s="70"/>
-      <c r="AB107" s="71"/>
-      <c r="AC107" s="72"/>
-      <c r="AD107" s="70"/>
-      <c r="AE107" s="70"/>
-      <c r="AF107" s="70"/>
-      <c r="AG107" s="70"/>
-      <c r="AH107" s="70"/>
-      <c r="AI107" s="71"/>
-      <c r="AJ107" s="72"/>
-      <c r="AK107" s="70"/>
-      <c r="AL107" s="70"/>
-      <c r="AM107" s="70"/>
-      <c r="AN107" s="70"/>
-      <c r="AO107" s="70"/>
-      <c r="AP107" s="71"/>
-      <c r="AQ107" s="72"/>
-      <c r="AR107" s="70"/>
-      <c r="AS107" s="70"/>
-      <c r="AT107" s="70"/>
-      <c r="AU107" s="103"/>
-      <c r="AV107" s="77"/>
-      <c r="AW107" s="112">
+      <c r="Q109" s="67"/>
+      <c r="R109" s="88"/>
+      <c r="S109" s="69"/>
+      <c r="T109" s="70"/>
+      <c r="U109" s="71"/>
+      <c r="V109" s="72"/>
+      <c r="W109" s="70"/>
+      <c r="X109" s="70"/>
+      <c r="Y109" s="70"/>
+      <c r="Z109" s="70"/>
+      <c r="AA109" s="70"/>
+      <c r="AB109" s="71"/>
+      <c r="AC109" s="72"/>
+      <c r="AD109" s="70"/>
+      <c r="AE109" s="70"/>
+      <c r="AF109" s="70"/>
+      <c r="AG109" s="70"/>
+      <c r="AH109" s="70"/>
+      <c r="AI109" s="71"/>
+      <c r="AJ109" s="72"/>
+      <c r="AK109" s="70"/>
+      <c r="AL109" s="70"/>
+      <c r="AM109" s="70"/>
+      <c r="AN109" s="70"/>
+      <c r="AO109" s="70"/>
+      <c r="AP109" s="71"/>
+      <c r="AQ109" s="72"/>
+      <c r="AR109" s="70"/>
+      <c r="AS109" s="70"/>
+      <c r="AT109" s="70"/>
+      <c r="AU109" s="103"/>
+      <c r="AV109" s="77"/>
+      <c r="AW109" s="112">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="117">
+    <mergeCell ref="D97:M97"/>
     <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D100:M100"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="C94:M94"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="C97:M97"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D107:M107"/>
-    <mergeCell ref="C101:M101"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="D105:M105"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D102:M102"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D68:M68"/>
     <mergeCell ref="D90:M90"/>
     <mergeCell ref="D89:M89"/>
     <mergeCell ref="D86:M86"/>
@@ -13958,12 +13995,108 @@
     <mergeCell ref="D88:M88"/>
     <mergeCell ref="D70:M70"/>
     <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D109:M109"/>
+    <mergeCell ref="C103:M103"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D107:M107"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="D102:M102"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="C94:M94"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="C99:M99"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D44:M44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19 B30 P26:P29 B54 B77 B101 B7 O16:P17 O35 O41:O47 O60 O62:O63 O66:O68 O79:O82 O91:P93 O102:P107 O75:P76 O86:O88 P11:P15 O14:O15 B94 B97 P31:P47 P78:P88 O48:P52 O98:P100 O96:P96 P56:P63 O57 P65:P70 O71:P72 O89:P89 O95:P95 O18:P18 O29 O53:P53 O70 O73:P74 O90:P90" numberStoredAsText="1"/>
+    <ignoredError sqref="B19 B30 P26:P29 B54 B77 B103 B7 O16:P17 O35 O41:O47 O60 O62:O63 O66:O68 O79:O82 O91:P93 O104:P109 O75:P76 O86:O88 P11:P15 O14:O15 B94 B99 P31:P47 P78:P88 O48:P52 O100:P102 O96:P96 P56:P63 O57 P65:P70 O71:P72 O89:P89 O95:P95 O18:P18 O29 O53:P53 O70 O73:P74 O90:P90" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -2718,10 +2718,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2730,29 +2742,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2764,12 +2776,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2799,29 +2805,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7006,13 +7006,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>18768</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>78965</xdr:rowOff>
+      <xdr:rowOff>78966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>2815</xdr:colOff>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>143110</xdr:rowOff>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7021,8 +7021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16252089" y="19509965"/>
-          <a:ext cx="256190" cy="64145"/>
+          <a:off x="16252089" y="19509966"/>
+          <a:ext cx="266982" cy="57106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7068,13 +7068,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>7882</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>95293</xdr:rowOff>
+      <xdr:rowOff>95294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>264072</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>159438</xdr:rowOff>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7083,8 +7083,70 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16241203" y="19730400"/>
-          <a:ext cx="256190" cy="64145"/>
+          <a:off x="16241203" y="19730401"/>
+          <a:ext cx="277868" cy="54386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266416</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>81687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="직사각형 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16499737" y="19920901"/>
+          <a:ext cx="305083" cy="54386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7394,8 +7456,8 @@
   <dimension ref="B1:BA115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7453,13 +7515,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="139" t="s">
+      <c r="AY2" s="120" t="s">
         <v>342</v>
       </c>
-      <c r="AZ2" s="139" t="s">
+      <c r="AZ2" s="120" t="s">
         <v>340</v>
       </c>
-      <c r="BA2" s="139" t="s">
+      <c r="BA2" s="120" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7477,9 +7539,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="120"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="107">
@@ -7487,104 +7549,104 @@
         <v>162</v>
       </c>
       <c r="AZ4" s="107">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW56+AW57+AW67+AW68+AW71+AW74+AW88+AW90+AW91+AW80+AW83+AW48+AW87+AW86+AW84+AW85+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW93+AW37+AW41+AW69+AW70+AW89+AW92+AW16+AW100+AW96+AW97</f>
-        <v>106</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW56+AW57+AW67+AW68+AW71+AW74+AW88+AW90+AW91+AW80+AW83+AW48+AW87+AW86+AW84+AW85+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW93+AW37+AW41+AW69+AW70+AW89+AW92+AW16+AW100+AW96+AW97+AW98</f>
+        <v>107</v>
       </c>
       <c r="BA4" s="107">
         <f>AZ4/AY4*100</f>
-        <v>65.432098765432102</v>
+        <v>66.049382716049394</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="124" t="s">
+      <c r="C5" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="133" t="s">
+      <c r="P5" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="124" t="s">
+      <c r="Q5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="135" t="s">
+      <c r="R5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="132" t="s">
+      <c r="S5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130" t="s">
+      <c r="T5" s="132"/>
+      <c r="U5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="130"/>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="140" t="s">
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="132"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="123" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="123"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="136"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="138"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -7675,25 +7737,25 @@
       <c r="AV6" s="94">
         <v>28</v>
       </c>
-      <c r="AW6" s="141"/>
+      <c r="AW6" s="124"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -7728,7 +7790,7 @@
       <c r="AS7" s="58"/>
       <c r="AT7" s="58"/>
       <c r="AU7" s="58"/>
-      <c r="AV7" s="144"/>
+      <c r="AV7" s="113"/>
       <c r="AW7" s="104"/>
     </row>
     <row r="8" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7738,18 +7800,18 @@
       <c r="C8" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -7806,18 +7868,18 @@
       <c r="C9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="127"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="131"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -7874,18 +7936,18 @@
       <c r="C10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="131"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -7942,18 +8004,18 @@
       <c r="C11" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="131"/>
       <c r="N11" s="50" t="s">
         <v>89</v>
       </c>
@@ -8010,18 +8072,18 @@
       <c r="C12" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="50" t="s">
         <v>219</v>
       </c>
@@ -8078,18 +8140,18 @@
       <c r="C13" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="50" t="s">
         <v>148</v>
       </c>
@@ -8146,18 +8208,18 @@
       <c r="C14" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -8214,18 +8276,18 @@
       <c r="C15" s="86" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="130" t="s">
         <v>364</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="50" t="s">
         <v>385</v>
       </c>
@@ -8282,18 +8344,18 @@
       <c r="C16" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="127"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="131"/>
       <c r="N16" s="50" t="s">
         <v>225</v>
       </c>
@@ -8350,18 +8412,18 @@
       <c r="C17" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="131"/>
       <c r="N17" s="50" t="s">
         <v>233</v>
       </c>
@@ -8415,18 +8477,18 @@
       <c r="C18" s="86" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="130" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
       <c r="N18" s="50" t="s">
         <v>403</v>
       </c>
@@ -8479,19 +8541,19 @@
       <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="117"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
       <c r="N19" s="13"/>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
@@ -8526,7 +8588,7 @@
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
-      <c r="AV19" s="145"/>
+      <c r="AV19" s="114"/>
       <c r="AW19" s="105"/>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.3">
@@ -8536,18 +8598,18 @@
       <c r="C20" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="144"/>
       <c r="N20" s="14" t="s">
         <v>10</v>
       </c>
@@ -8592,7 +8654,7 @@
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
-      <c r="AV20" s="145"/>
+      <c r="AV20" s="114"/>
       <c r="AW20" s="105">
         <v>4</v>
       </c>
@@ -8604,18 +8666,18 @@
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
       <c r="N21" s="15" t="s">
         <v>32</v>
       </c>
@@ -8660,7 +8722,7 @@
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
-      <c r="AV21" s="145"/>
+      <c r="AV21" s="114"/>
       <c r="AW21" s="105">
         <v>2</v>
       </c>
@@ -8672,18 +8734,18 @@
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
       <c r="N22" s="15" t="s">
         <v>33</v>
       </c>
@@ -8728,7 +8790,7 @@
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
-      <c r="AV22" s="145"/>
+      <c r="AV22" s="114"/>
       <c r="AW22" s="105">
         <v>2</v>
       </c>
@@ -8740,18 +8802,18 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="119"/>
       <c r="N23" s="15" t="s">
         <v>34</v>
       </c>
@@ -8796,7 +8858,7 @@
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
-      <c r="AV23" s="145"/>
+      <c r="AV23" s="114"/>
       <c r="AW23" s="105">
         <v>1</v>
       </c>
@@ -8808,18 +8870,18 @@
       <c r="C24" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="119"/>
       <c r="N24" s="15" t="s">
         <v>35</v>
       </c>
@@ -8864,7 +8926,7 @@
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
-      <c r="AV24" s="145"/>
+      <c r="AV24" s="114"/>
       <c r="AW24" s="105">
         <v>1</v>
       </c>
@@ -8876,18 +8938,18 @@
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="119"/>
       <c r="N25" s="15" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +8994,7 @@
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
-      <c r="AV25" s="145"/>
+      <c r="AV25" s="114"/>
       <c r="AW25" s="105">
         <v>1</v>
       </c>
@@ -8944,18 +9006,18 @@
       <c r="C26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="15" t="s">
         <v>83</v>
       </c>
@@ -9000,7 +9062,7 @@
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
-      <c r="AV26" s="145"/>
+      <c r="AV26" s="114"/>
       <c r="AW26" s="105">
         <v>1</v>
       </c>
@@ -9012,18 +9074,18 @@
       <c r="C27" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
       <c r="N27" s="15" t="s">
         <v>138</v>
       </c>
@@ -9068,7 +9130,7 @@
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
-      <c r="AV27" s="145"/>
+      <c r="AV27" s="114"/>
       <c r="AW27" s="105">
         <v>1</v>
       </c>
@@ -9080,18 +9142,18 @@
       <c r="C28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="15" t="s">
         <v>152</v>
       </c>
@@ -9136,7 +9198,7 @@
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
-      <c r="AV28" s="145"/>
+      <c r="AV28" s="114"/>
       <c r="AW28" s="105">
         <v>1</v>
       </c>
@@ -9148,18 +9210,18 @@
       <c r="C29" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="118" t="s">
         <v>398</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
       <c r="N29" s="15" t="s">
         <v>400</v>
       </c>
@@ -9204,7 +9266,7 @@
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
-      <c r="AV29" s="145"/>
+      <c r="AV29" s="114"/>
       <c r="AW29" s="105">
         <v>1</v>
       </c>
@@ -9213,19 +9275,19 @@
       <c r="B30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="117"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
       <c r="N30" s="13"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
@@ -9260,7 +9322,7 @@
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
-      <c r="AV30" s="145"/>
+      <c r="AV30" s="114"/>
       <c r="AW30" s="105"/>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.3">
@@ -9270,18 +9332,18 @@
       <c r="C31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="119"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -9326,7 +9388,7 @@
       <c r="AS31" s="7"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
-      <c r="AV31" s="145"/>
+      <c r="AV31" s="114"/>
       <c r="AW31" s="105">
         <v>7</v>
       </c>
@@ -9338,18 +9400,18 @@
       <c r="C32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="119"/>
       <c r="N32" s="15" t="s">
         <v>66</v>
       </c>
@@ -9394,7 +9456,7 @@
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
-      <c r="AV32" s="145"/>
+      <c r="AV32" s="114"/>
       <c r="AW32" s="105">
         <v>1</v>
       </c>
@@ -9406,18 +9468,18 @@
       <c r="C33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="115"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="119"/>
       <c r="N33" s="15" t="s">
         <v>10</v>
       </c>
@@ -9462,7 +9524,7 @@
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
-      <c r="AV33" s="145"/>
+      <c r="AV33" s="114"/>
       <c r="AW33" s="105">
         <v>1</v>
       </c>
@@ -9474,18 +9536,18 @@
       <c r="C34" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="119"/>
       <c r="N34" s="15" t="s">
         <v>94</v>
       </c>
@@ -9530,7 +9592,7 @@
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
-      <c r="AV34" s="145"/>
+      <c r="AV34" s="114"/>
       <c r="AW34" s="105">
         <v>2</v>
       </c>
@@ -9542,18 +9604,18 @@
       <c r="C35" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="118" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="115"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="119"/>
       <c r="N35" s="15" t="s">
         <v>238</v>
       </c>
@@ -9598,7 +9660,7 @@
       <c r="AS35" s="7"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
-      <c r="AV35" s="145"/>
+      <c r="AV35" s="114"/>
       <c r="AW35" s="105">
         <v>1</v>
       </c>
@@ -9610,18 +9672,18 @@
       <c r="C36" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="115"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="119"/>
       <c r="N36" s="15" t="s">
         <v>98</v>
       </c>
@@ -9666,7 +9728,7 @@
       <c r="AS36" s="7"/>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
-      <c r="AV36" s="145"/>
+      <c r="AV36" s="114"/>
       <c r="AW36" s="105">
         <v>2</v>
       </c>
@@ -9678,18 +9740,18 @@
       <c r="C37" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="115"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
       <c r="N37" s="15" t="s">
         <v>103</v>
       </c>
@@ -9734,7 +9796,7 @@
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
-      <c r="AV37" s="145"/>
+      <c r="AV37" s="114"/>
       <c r="AW37" s="105">
         <v>3</v>
       </c>
@@ -9746,18 +9808,18 @@
       <c r="C38" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="115"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="119"/>
       <c r="N38" s="15" t="s">
         <v>108</v>
       </c>
@@ -9802,7 +9864,7 @@
       <c r="AS38" s="7"/>
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
-      <c r="AV38" s="145"/>
+      <c r="AV38" s="114"/>
       <c r="AW38" s="105">
         <v>2</v>
       </c>
@@ -9814,18 +9876,18 @@
       <c r="C39" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="115"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="119"/>
       <c r="N39" s="15" t="s">
         <v>142</v>
       </c>
@@ -9870,7 +9932,7 @@
       <c r="AS39" s="7"/>
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
-      <c r="AV39" s="145"/>
+      <c r="AV39" s="114"/>
       <c r="AW39" s="105">
         <v>1</v>
       </c>
@@ -9882,18 +9944,18 @@
       <c r="C40" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="115"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="119"/>
       <c r="N40" s="15" t="s">
         <v>145</v>
       </c>
@@ -9938,7 +10000,7 @@
       <c r="AS40" s="7"/>
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
-      <c r="AV40" s="145"/>
+      <c r="AV40" s="114"/>
       <c r="AW40" s="105">
         <v>2</v>
       </c>
@@ -9950,18 +10012,18 @@
       <c r="C41" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="115"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="119"/>
       <c r="N41" s="15" t="s">
         <v>248</v>
       </c>
@@ -10006,7 +10068,7 @@
       <c r="AS41" s="7"/>
       <c r="AT41" s="7"/>
       <c r="AU41" s="7"/>
-      <c r="AV41" s="145"/>
+      <c r="AV41" s="114"/>
       <c r="AW41" s="105">
         <v>3</v>
       </c>
@@ -10018,18 +10080,18 @@
       <c r="C42" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="115"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="118"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="119"/>
       <c r="N42" s="15" t="s">
         <v>227</v>
       </c>
@@ -10072,7 +10134,7 @@
       <c r="AS42" s="7"/>
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
-      <c r="AV42" s="145"/>
+      <c r="AV42" s="114"/>
       <c r="AW42" s="105">
         <v>5</v>
       </c>
@@ -10084,18 +10146,18 @@
       <c r="C43" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="115"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="119"/>
       <c r="N43" s="15" t="s">
         <v>242</v>
       </c>
@@ -10140,7 +10202,7 @@
       <c r="AS43" s="7"/>
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
-      <c r="AV43" s="145"/>
+      <c r="AV43" s="114"/>
       <c r="AW43" s="105">
         <v>2</v>
       </c>
@@ -10152,18 +10214,18 @@
       <c r="C44" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="115"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="119"/>
       <c r="N44" s="15" t="s">
         <v>227</v>
       </c>
@@ -10208,7 +10270,7 @@
       <c r="AS44" s="7"/>
       <c r="AT44" s="7"/>
       <c r="AU44" s="7"/>
-      <c r="AV44" s="145"/>
+      <c r="AV44" s="114"/>
       <c r="AW44" s="105">
         <v>3</v>
       </c>
@@ -10220,18 +10282,18 @@
       <c r="C45" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="119"/>
       <c r="N45" s="15" t="s">
         <v>254</v>
       </c>
@@ -10276,7 +10338,7 @@
       <c r="AS45" s="7"/>
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
-      <c r="AV45" s="145"/>
+      <c r="AV45" s="114"/>
       <c r="AW45" s="105">
         <v>2</v>
       </c>
@@ -10288,18 +10350,18 @@
       <c r="C46" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="115"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
       <c r="N46" s="15" t="s">
         <v>259</v>
       </c>
@@ -10344,7 +10406,7 @@
       <c r="AS46" s="7"/>
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
-      <c r="AV46" s="145"/>
+      <c r="AV46" s="114"/>
       <c r="AW46" s="105">
         <v>1</v>
       </c>
@@ -10356,18 +10418,18 @@
       <c r="C47" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="114" t="s">
+      <c r="D47" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="115"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="119"/>
       <c r="N47" s="15" t="s">
         <v>257</v>
       </c>
@@ -10412,7 +10474,7 @@
       <c r="AS47" s="7"/>
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
-      <c r="AV47" s="145"/>
+      <c r="AV47" s="114"/>
       <c r="AW47" s="105">
         <v>1</v>
       </c>
@@ -10424,18 +10486,18 @@
       <c r="C48" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="114" t="s">
+      <c r="D48" s="118" t="s">
         <v>368</v>
       </c>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="115"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="119"/>
       <c r="N48" s="15" t="s">
         <v>243</v>
       </c>
@@ -10480,7 +10542,7 @@
       <c r="AS48" s="7"/>
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
-      <c r="AV48" s="145"/>
+      <c r="AV48" s="114"/>
       <c r="AW48" s="105">
         <v>2</v>
       </c>
@@ -10492,18 +10554,18 @@
       <c r="C49" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="114" t="s">
+      <c r="D49" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="115"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="119"/>
       <c r="N49" s="15" t="s">
         <v>272</v>
       </c>
@@ -10547,7 +10609,7 @@
       <c r="AS49" s="7"/>
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
-      <c r="AV49" s="145"/>
+      <c r="AV49" s="114"/>
       <c r="AW49" s="105">
         <v>2</v>
       </c>
@@ -10559,18 +10621,18 @@
       <c r="C50" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="118" t="s">
         <v>356</v>
       </c>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="115"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="119"/>
       <c r="N50" s="15" t="s">
         <v>357</v>
       </c>
@@ -10614,7 +10676,7 @@
       <c r="AS50" s="7"/>
       <c r="AT50" s="7"/>
       <c r="AU50" s="7"/>
-      <c r="AV50" s="145"/>
+      <c r="AV50" s="114"/>
       <c r="AW50" s="105">
         <v>1</v>
       </c>
@@ -10626,18 +10688,18 @@
       <c r="C51" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="114" t="s">
+      <c r="D51" s="118" t="s">
         <v>360</v>
       </c>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="115"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="119"/>
       <c r="N51" s="15" t="s">
         <v>361</v>
       </c>
@@ -10681,7 +10743,7 @@
       <c r="AS51" s="7"/>
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
-      <c r="AV51" s="145"/>
+      <c r="AV51" s="114"/>
       <c r="AW51" s="105">
         <v>1</v>
       </c>
@@ -10693,18 +10755,18 @@
       <c r="C52" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="118" t="s">
         <v>369</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="115"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="119"/>
       <c r="N52" s="15" t="s">
         <v>370</v>
       </c>
@@ -10748,7 +10810,7 @@
       <c r="AS52" s="7"/>
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
-      <c r="AV52" s="145"/>
+      <c r="AV52" s="114"/>
       <c r="AW52" s="105">
         <v>1</v>
       </c>
@@ -10760,18 +10822,18 @@
       <c r="C53" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D53" s="118" t="s">
         <v>388</v>
       </c>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="115"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="119"/>
       <c r="N53" s="15" t="s">
         <v>389</v>
       </c>
@@ -10815,7 +10877,7 @@
       <c r="AS53" s="7"/>
       <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
-      <c r="AV53" s="145"/>
+      <c r="AV53" s="114"/>
       <c r="AW53" s="105">
         <v>1</v>
       </c>
@@ -10827,18 +10889,18 @@
       <c r="C54" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="D54" s="114" t="s">
+      <c r="D54" s="118" t="s">
         <v>439</v>
       </c>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="115"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="119"/>
       <c r="N54" s="15" t="s">
         <v>440</v>
       </c>
@@ -10880,7 +10942,7 @@
       <c r="AS54" s="7"/>
       <c r="AT54" s="7"/>
       <c r="AU54" s="7"/>
-      <c r="AV54" s="145"/>
+      <c r="AV54" s="114"/>
       <c r="AW54" s="105">
         <v>2</v>
       </c>
@@ -10889,19 +10951,19 @@
       <c r="B55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="116" t="s">
+      <c r="C55" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="117"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="127"/>
       <c r="N55" s="38"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
@@ -10936,7 +10998,7 @@
       <c r="AS55" s="7"/>
       <c r="AT55" s="7"/>
       <c r="AU55" s="7"/>
-      <c r="AV55" s="145"/>
+      <c r="AV55" s="114"/>
       <c r="AW55" s="105"/>
     </row>
     <row r="56" spans="2:49" x14ac:dyDescent="0.3">
@@ -10946,18 +11008,18 @@
       <c r="C56" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="118" t="s">
+      <c r="D56" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="119"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="117"/>
       <c r="N56" s="39" t="s">
         <v>64</v>
       </c>
@@ -11002,7 +11064,7 @@
       <c r="AS56" s="7"/>
       <c r="AT56" s="7"/>
       <c r="AU56" s="7"/>
-      <c r="AV56" s="145"/>
+      <c r="AV56" s="114"/>
       <c r="AW56" s="105">
         <v>2</v>
       </c>
@@ -11014,18 +11076,18 @@
       <c r="C57" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="118" t="s">
+      <c r="D57" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="119"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="117"/>
       <c r="N57" s="39" t="s">
         <v>166</v>
       </c>
@@ -11070,7 +11132,7 @@
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
-      <c r="AV57" s="145"/>
+      <c r="AV57" s="114"/>
       <c r="AW57" s="105">
         <v>2</v>
       </c>
@@ -11082,18 +11144,18 @@
       <c r="C58" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="118" t="s">
+      <c r="D58" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="119"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="117"/>
       <c r="N58" s="39" t="s">
         <v>303</v>
       </c>
@@ -11135,7 +11197,7 @@
       <c r="AS58" s="8"/>
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
-      <c r="AV58" s="145"/>
+      <c r="AV58" s="114"/>
       <c r="AW58" s="105">
         <v>1</v>
       </c>
@@ -11144,21 +11206,21 @@
       <c r="B59" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="143" t="s">
+      <c r="C59" s="112" t="s">
         <v>428</v>
       </c>
-      <c r="D59" s="118" t="s">
+      <c r="D59" s="116" t="s">
         <v>431</v>
       </c>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="119"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="117"/>
       <c r="N59" s="39" t="s">
         <v>432</v>
       </c>
@@ -11200,7 +11262,7 @@
       <c r="AS59" s="11"/>
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
-      <c r="AV59" s="145"/>
+      <c r="AV59" s="114"/>
       <c r="AW59" s="105">
         <v>2</v>
       </c>
@@ -11209,21 +11271,21 @@
       <c r="B60" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="143" t="s">
+      <c r="C60" s="112" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="118" t="s">
+      <c r="D60" s="116" t="s">
         <v>454</v>
       </c>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="119"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="117"/>
       <c r="N60" s="39" t="s">
         <v>453</v>
       </c>
@@ -11265,7 +11327,7 @@
       <c r="AS60" s="11"/>
       <c r="AT60" s="11"/>
       <c r="AU60" s="7"/>
-      <c r="AV60" s="145"/>
+      <c r="AV60" s="114"/>
       <c r="AW60" s="105">
         <v>1</v>
       </c>
@@ -11277,18 +11339,18 @@
       <c r="C61" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="114" t="s">
+      <c r="D61" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="115"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="119"/>
       <c r="N61" s="15" t="s">
         <v>103</v>
       </c>
@@ -11333,7 +11395,7 @@
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
-      <c r="AV61" s="145"/>
+      <c r="AV61" s="114"/>
       <c r="AW61" s="105">
         <v>1</v>
       </c>
@@ -11345,18 +11407,18 @@
       <c r="C62" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="115"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="119"/>
       <c r="N62" s="15" t="s">
         <v>75</v>
       </c>
@@ -11399,7 +11461,7 @@
       <c r="AS62" s="7"/>
       <c r="AT62" s="7"/>
       <c r="AU62" s="7"/>
-      <c r="AV62" s="145"/>
+      <c r="AV62" s="114"/>
       <c r="AW62" s="105">
         <v>2</v>
       </c>
@@ -11411,18 +11473,18 @@
       <c r="C63" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="115"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="118"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="119"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
         <v>282</v>
@@ -11463,7 +11525,7 @@
       <c r="AS63" s="11"/>
       <c r="AT63" s="11"/>
       <c r="AU63" s="7"/>
-      <c r="AV63" s="145"/>
+      <c r="AV63" s="114"/>
       <c r="AW63" s="105">
         <v>2</v>
       </c>
@@ -11475,18 +11537,18 @@
       <c r="C64" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="114" t="s">
+      <c r="D64" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="114"/>
-      <c r="M64" s="115"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="119"/>
       <c r="N64" s="15"/>
       <c r="O64" s="17" t="s">
         <v>284</v>
@@ -11527,7 +11589,7 @@
       <c r="AS64" s="9"/>
       <c r="AT64" s="11"/>
       <c r="AU64" s="7"/>
-      <c r="AV64" s="145"/>
+      <c r="AV64" s="114"/>
       <c r="AW64" s="105">
         <v>2</v>
       </c>
@@ -11539,18 +11601,18 @@
       <c r="C65" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="114" t="s">
+      <c r="D65" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="115"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="118"/>
+      <c r="K65" s="118"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="119"/>
       <c r="N65" s="15"/>
       <c r="O65" s="17" t="s">
         <v>284</v>
@@ -11591,7 +11653,7 @@
       <c r="AS65" s="9"/>
       <c r="AT65" s="11"/>
       <c r="AU65" s="7"/>
-      <c r="AV65" s="145"/>
+      <c r="AV65" s="114"/>
       <c r="AW65" s="105">
         <v>2</v>
       </c>
@@ -11600,19 +11662,19 @@
       <c r="B66" s="37">
         <v>5</v>
       </c>
-      <c r="C66" s="116" t="s">
+      <c r="C66" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
-      <c r="L66" s="116"/>
-      <c r="M66" s="117"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="127"/>
       <c r="N66" s="40"/>
       <c r="O66" s="41"/>
       <c r="P66" s="41"/>
@@ -11647,7 +11709,7 @@
       <c r="AS66" s="7"/>
       <c r="AT66" s="7"/>
       <c r="AU66" s="7"/>
-      <c r="AV66" s="145"/>
+      <c r="AV66" s="114"/>
       <c r="AW66" s="105"/>
     </row>
     <row r="67" spans="2:49" x14ac:dyDescent="0.3">
@@ -11657,18 +11719,18 @@
       <c r="C67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="115"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="118"/>
+      <c r="K67" s="118"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="119"/>
       <c r="N67" s="15" t="s">
         <v>59</v>
       </c>
@@ -11713,7 +11775,7 @@
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
-      <c r="AV67" s="145"/>
+      <c r="AV67" s="114"/>
       <c r="AW67" s="105">
         <v>1</v>
       </c>
@@ -11725,18 +11787,18 @@
       <c r="C68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="114" t="s">
+      <c r="D68" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
-      <c r="L68" s="114"/>
-      <c r="M68" s="115"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="118"/>
+      <c r="K68" s="118"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="119"/>
       <c r="N68" s="15" t="s">
         <v>287</v>
       </c>
@@ -11781,7 +11843,7 @@
       <c r="AS68" s="7"/>
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
-      <c r="AV68" s="145"/>
+      <c r="AV68" s="114"/>
       <c r="AW68" s="105">
         <v>2</v>
       </c>
@@ -11793,18 +11855,18 @@
       <c r="C69" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="114" t="s">
+      <c r="D69" s="118" t="s">
         <v>344</v>
       </c>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="115"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="119"/>
       <c r="N69" s="15" t="s">
         <v>305</v>
       </c>
@@ -11849,7 +11911,7 @@
       <c r="AS69" s="7"/>
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
-      <c r="AV69" s="145"/>
+      <c r="AV69" s="114"/>
       <c r="AW69" s="105">
         <v>1</v>
       </c>
@@ -11861,18 +11923,18 @@
       <c r="C70" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D70" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="114"/>
-      <c r="M70" s="115"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="118"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="118"/>
+      <c r="M70" s="119"/>
       <c r="N70" s="15" t="s">
         <v>347</v>
       </c>
@@ -11917,7 +11979,7 @@
       <c r="AS70" s="7"/>
       <c r="AT70" s="7"/>
       <c r="AU70" s="7"/>
-      <c r="AV70" s="145"/>
+      <c r="AV70" s="114"/>
       <c r="AW70" s="105">
         <v>2</v>
       </c>
@@ -11929,18 +11991,18 @@
       <c r="C71" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="114"/>
-      <c r="J71" s="114"/>
-      <c r="K71" s="114"/>
-      <c r="L71" s="114"/>
-      <c r="M71" s="115"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="118"/>
+      <c r="J71" s="118"/>
+      <c r="K71" s="118"/>
+      <c r="L71" s="118"/>
+      <c r="M71" s="119"/>
       <c r="N71" s="15" t="s">
         <v>68</v>
       </c>
@@ -11985,7 +12047,7 @@
       <c r="AS71" s="7"/>
       <c r="AT71" s="7"/>
       <c r="AU71" s="7"/>
-      <c r="AV71" s="145"/>
+      <c r="AV71" s="114"/>
       <c r="AW71" s="105">
         <v>1</v>
       </c>
@@ -11997,18 +12059,18 @@
       <c r="C72" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="D72" s="114" t="s">
+      <c r="D72" s="118" t="s">
         <v>468</v>
       </c>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="114"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="114"/>
-      <c r="L72" s="114"/>
-      <c r="M72" s="115"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="118"/>
+      <c r="J72" s="118"/>
+      <c r="K72" s="118"/>
+      <c r="L72" s="118"/>
+      <c r="M72" s="119"/>
       <c r="N72" s="15" t="s">
         <v>408</v>
       </c>
@@ -12051,7 +12113,7 @@
       <c r="AS72" s="7"/>
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
-      <c r="AV72" s="145"/>
+      <c r="AV72" s="114"/>
       <c r="AW72" s="105">
         <v>2</v>
       </c>
@@ -12063,18 +12125,18 @@
       <c r="C73" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
-      <c r="J73" s="114"/>
-      <c r="K73" s="114"/>
-      <c r="L73" s="114"/>
-      <c r="M73" s="115"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="118"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="118"/>
+      <c r="L73" s="118"/>
+      <c r="M73" s="119"/>
       <c r="N73" s="15"/>
       <c r="O73" s="17" t="s">
         <v>234</v>
@@ -12115,7 +12177,7 @@
       <c r="AS73" s="7"/>
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
-      <c r="AV73" s="145"/>
+      <c r="AV73" s="114"/>
       <c r="AW73" s="105">
         <v>2</v>
       </c>
@@ -12127,18 +12189,18 @@
       <c r="C74" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="115"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+      <c r="J74" s="118"/>
+      <c r="K74" s="118"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="119"/>
       <c r="N74" s="15" t="s">
         <v>293</v>
       </c>
@@ -12183,7 +12245,7 @@
       <c r="AS74" s="7"/>
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
-      <c r="AV74" s="145"/>
+      <c r="AV74" s="114"/>
       <c r="AW74" s="105">
         <v>2</v>
       </c>
@@ -12195,18 +12257,18 @@
       <c r="C75" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="118" t="s">
         <v>411</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="115"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="118"/>
+      <c r="J75" s="118"/>
+      <c r="K75" s="118"/>
+      <c r="L75" s="118"/>
+      <c r="M75" s="119"/>
       <c r="N75" s="15" t="s">
         <v>412</v>
       </c>
@@ -12249,7 +12311,7 @@
       <c r="AS75" s="7"/>
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
-      <c r="AV75" s="145"/>
+      <c r="AV75" s="114"/>
       <c r="AW75" s="105">
         <v>1</v>
       </c>
@@ -12261,18 +12323,18 @@
       <c r="C76" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="D76" s="114" t="s">
+      <c r="D76" s="118" t="s">
         <v>435</v>
       </c>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="114"/>
-      <c r="L76" s="114"/>
-      <c r="M76" s="115"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="K76" s="118"/>
+      <c r="L76" s="118"/>
+      <c r="M76" s="119"/>
       <c r="N76" s="15" t="s">
         <v>436</v>
       </c>
@@ -12315,7 +12377,7 @@
       <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
-      <c r="AV76" s="145"/>
+      <c r="AV76" s="114"/>
       <c r="AW76" s="105">
         <v>2</v>
       </c>
@@ -12327,18 +12389,18 @@
       <c r="C77" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="D77" s="114" t="s">
+      <c r="D77" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="115"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="118"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
+      <c r="K77" s="118"/>
+      <c r="L77" s="118"/>
+      <c r="M77" s="119"/>
       <c r="N77" s="15" t="s">
         <v>443</v>
       </c>
@@ -12383,7 +12445,7 @@
       <c r="AS77" s="7"/>
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
-      <c r="AV77" s="145"/>
+      <c r="AV77" s="114"/>
       <c r="AW77" s="105">
         <v>1</v>
       </c>
@@ -12395,18 +12457,18 @@
       <c r="C78" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D78" s="118" t="s">
         <v>460</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="115"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="119"/>
       <c r="N78" s="15" t="s">
         <v>440</v>
       </c>
@@ -12448,7 +12510,7 @@
       <c r="AS78" s="7"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
-      <c r="AV78" s="145"/>
+      <c r="AV78" s="114"/>
       <c r="AW78" s="105">
         <v>1</v>
       </c>
@@ -12460,18 +12522,18 @@
       <c r="C79" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="114" t="s">
+      <c r="D79" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="115"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="118"/>
+      <c r="M79" s="119"/>
       <c r="N79" s="15" t="s">
         <v>456</v>
       </c>
@@ -12514,7 +12576,7 @@
       <c r="AS79" s="9"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
-      <c r="AV79" s="145"/>
+      <c r="AV79" s="114"/>
       <c r="AW79" s="105">
         <v>3</v>
       </c>
@@ -12526,18 +12588,18 @@
       <c r="C80" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="114"/>
-      <c r="K80" s="114"/>
-      <c r="L80" s="114"/>
-      <c r="M80" s="115"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="118"/>
+      <c r="J80" s="118"/>
+      <c r="K80" s="118"/>
+      <c r="L80" s="118"/>
+      <c r="M80" s="119"/>
       <c r="N80" s="15" t="s">
         <v>313</v>
       </c>
@@ -12582,7 +12644,7 @@
       <c r="AS80" s="7"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
-      <c r="AV80" s="145"/>
+      <c r="AV80" s="114"/>
       <c r="AW80" s="105">
         <v>1</v>
       </c>
@@ -12594,18 +12656,18 @@
       <c r="C81" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="D81" s="114" t="s">
+      <c r="D81" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="114"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="115"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+      <c r="J81" s="118"/>
+      <c r="K81" s="118"/>
+      <c r="L81" s="118"/>
+      <c r="M81" s="119"/>
       <c r="N81" s="15"/>
       <c r="O81" s="17" t="s">
         <v>295</v>
@@ -12655,19 +12717,19 @@
       <c r="B82" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="116" t="s">
+      <c r="C82" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="116"/>
-      <c r="G82" s="116"/>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="116"/>
-      <c r="K82" s="116"/>
-      <c r="L82" s="116"/>
-      <c r="M82" s="117"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="127"/>
       <c r="N82" s="38"/>
       <c r="O82" s="41"/>
       <c r="P82" s="41"/>
@@ -12702,7 +12764,7 @@
       <c r="AS82" s="7"/>
       <c r="AT82" s="7"/>
       <c r="AU82" s="7"/>
-      <c r="AV82" s="145"/>
+      <c r="AV82" s="114"/>
       <c r="AW82" s="105"/>
     </row>
     <row r="83" spans="2:49" x14ac:dyDescent="0.3">
@@ -12712,18 +12774,18 @@
       <c r="C83" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
-      <c r="L83" s="114"/>
-      <c r="M83" s="115"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="118"/>
+      <c r="J83" s="118"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="118"/>
+      <c r="M83" s="119"/>
       <c r="N83" s="15" t="s">
         <v>85</v>
       </c>
@@ -12768,7 +12830,7 @@
       <c r="AS83" s="7"/>
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
-      <c r="AV83" s="145"/>
+      <c r="AV83" s="114"/>
       <c r="AW83" s="105">
         <v>2</v>
       </c>
@@ -12780,18 +12842,18 @@
       <c r="C84" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="114" t="s">
+      <c r="D84" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="114"/>
-      <c r="M84" s="115"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="118"/>
+      <c r="K84" s="118"/>
+      <c r="L84" s="118"/>
+      <c r="M84" s="119"/>
       <c r="N84" s="15" t="s">
         <v>306</v>
       </c>
@@ -12836,7 +12898,7 @@
       <c r="AS84" s="7"/>
       <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
-      <c r="AV84" s="145"/>
+      <c r="AV84" s="114"/>
       <c r="AW84" s="105">
         <v>2</v>
       </c>
@@ -12848,18 +12910,18 @@
       <c r="C85" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="114" t="s">
+      <c r="D85" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="115"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="118"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118"/>
+      <c r="M85" s="119"/>
       <c r="N85" s="15" t="s">
         <v>383</v>
       </c>
@@ -12904,7 +12966,7 @@
       <c r="AS85" s="7"/>
       <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
-      <c r="AV85" s="145"/>
+      <c r="AV85" s="114"/>
       <c r="AW85" s="105">
         <v>2</v>
       </c>
@@ -12916,18 +12978,18 @@
       <c r="C86" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="114"/>
-      <c r="K86" s="114"/>
-      <c r="L86" s="114"/>
-      <c r="M86" s="115"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+      <c r="J86" s="118"/>
+      <c r="K86" s="118"/>
+      <c r="L86" s="118"/>
+      <c r="M86" s="119"/>
       <c r="N86" s="15" t="s">
         <v>382</v>
       </c>
@@ -12972,7 +13034,7 @@
       <c r="AS86" s="7"/>
       <c r="AT86" s="7"/>
       <c r="AU86" s="7"/>
-      <c r="AV86" s="145"/>
+      <c r="AV86" s="114"/>
       <c r="AW86" s="105">
         <v>2</v>
       </c>
@@ -12984,18 +13046,18 @@
       <c r="C87" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="115"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="118"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="118"/>
+      <c r="J87" s="118"/>
+      <c r="K87" s="118"/>
+      <c r="L87" s="118"/>
+      <c r="M87" s="119"/>
       <c r="N87" s="15" t="s">
         <v>328</v>
       </c>
@@ -13040,7 +13102,7 @@
       <c r="AS87" s="7"/>
       <c r="AT87" s="7"/>
       <c r="AU87" s="7"/>
-      <c r="AV87" s="145"/>
+      <c r="AV87" s="114"/>
       <c r="AW87" s="105">
         <v>2</v>
       </c>
@@ -13052,18 +13114,18 @@
       <c r="C88" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="114" t="s">
+      <c r="D88" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114"/>
-      <c r="K88" s="114"/>
-      <c r="L88" s="114"/>
-      <c r="M88" s="115"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+      <c r="M88" s="119"/>
       <c r="N88" s="15" t="s">
         <v>215</v>
       </c>
@@ -13108,7 +13170,7 @@
       <c r="AS88" s="7"/>
       <c r="AT88" s="7"/>
       <c r="AU88" s="7"/>
-      <c r="AV88" s="145"/>
+      <c r="AV88" s="114"/>
       <c r="AW88" s="105">
         <v>2</v>
       </c>
@@ -13120,18 +13182,18 @@
       <c r="C89" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D89" s="114" t="s">
+      <c r="D89" s="118" t="s">
         <v>338</v>
       </c>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="114"/>
-      <c r="H89" s="114"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="114"/>
-      <c r="K89" s="114"/>
-      <c r="L89" s="114"/>
-      <c r="M89" s="115"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="118"/>
+      <c r="K89" s="118"/>
+      <c r="L89" s="118"/>
+      <c r="M89" s="119"/>
       <c r="N89" s="15" t="s">
         <v>211</v>
       </c>
@@ -13176,7 +13238,7 @@
       <c r="AS89" s="7"/>
       <c r="AT89" s="7"/>
       <c r="AU89" s="7"/>
-      <c r="AV89" s="145"/>
+      <c r="AV89" s="114"/>
       <c r="AW89" s="105">
         <v>2</v>
       </c>
@@ -13188,18 +13250,18 @@
       <c r="C90" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D90" s="114" t="s">
+      <c r="D90" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="114"/>
-      <c r="I90" s="114"/>
-      <c r="J90" s="114"/>
-      <c r="K90" s="114"/>
-      <c r="L90" s="114"/>
-      <c r="M90" s="115"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="118"/>
+      <c r="K90" s="118"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="119"/>
       <c r="N90" s="15" t="s">
         <v>227</v>
       </c>
@@ -13244,7 +13306,7 @@
       <c r="AS90" s="7"/>
       <c r="AT90" s="7"/>
       <c r="AU90" s="7"/>
-      <c r="AV90" s="145"/>
+      <c r="AV90" s="114"/>
       <c r="AW90" s="105">
         <v>1</v>
       </c>
@@ -13256,18 +13318,18 @@
       <c r="C91" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="D91" s="114" t="s">
+      <c r="D91" s="118" t="s">
         <v>309</v>
       </c>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="114"/>
-      <c r="I91" s="114"/>
-      <c r="J91" s="114"/>
-      <c r="K91" s="114"/>
-      <c r="L91" s="114"/>
-      <c r="M91" s="115"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="119"/>
       <c r="N91" s="15" t="s">
         <v>310</v>
       </c>
@@ -13312,7 +13374,7 @@
       <c r="AS91" s="7"/>
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
-      <c r="AV91" s="145"/>
+      <c r="AV91" s="114"/>
       <c r="AW91" s="105">
         <v>2</v>
       </c>
@@ -13324,18 +13386,18 @@
       <c r="C92" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="D92" s="114" t="s">
+      <c r="D92" s="118" t="s">
         <v>352</v>
       </c>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="114"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="114"/>
-      <c r="K92" s="114"/>
-      <c r="L92" s="114"/>
-      <c r="M92" s="115"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="118"/>
+      <c r="H92" s="118"/>
+      <c r="I92" s="118"/>
+      <c r="J92" s="118"/>
+      <c r="K92" s="118"/>
+      <c r="L92" s="118"/>
+      <c r="M92" s="119"/>
       <c r="N92" s="15" t="s">
         <v>353</v>
       </c>
@@ -13380,7 +13442,7 @@
       <c r="AS92" s="7"/>
       <c r="AT92" s="7"/>
       <c r="AU92" s="7"/>
-      <c r="AV92" s="145"/>
+      <c r="AV92" s="114"/>
       <c r="AW92" s="105">
         <v>1</v>
       </c>
@@ -13392,18 +13454,18 @@
       <c r="C93" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="D93" s="114" t="s">
+      <c r="D93" s="118" t="s">
         <v>394</v>
       </c>
-      <c r="E93" s="114"/>
-      <c r="F93" s="114"/>
-      <c r="G93" s="114"/>
-      <c r="H93" s="114"/>
-      <c r="I93" s="114"/>
-      <c r="J93" s="114"/>
-      <c r="K93" s="114"/>
-      <c r="L93" s="114"/>
-      <c r="M93" s="115"/>
+      <c r="E93" s="118"/>
+      <c r="F93" s="118"/>
+      <c r="G93" s="118"/>
+      <c r="H93" s="118"/>
+      <c r="I93" s="118"/>
+      <c r="J93" s="118"/>
+      <c r="K93" s="118"/>
+      <c r="L93" s="118"/>
+      <c r="M93" s="119"/>
       <c r="N93" s="15" t="s">
         <v>396</v>
       </c>
@@ -13447,7 +13509,7 @@
       <c r="AS93" s="7"/>
       <c r="AT93" s="7"/>
       <c r="AU93" s="7"/>
-      <c r="AV93" s="145"/>
+      <c r="AV93" s="114"/>
       <c r="AW93" s="105">
         <v>1</v>
       </c>
@@ -13459,18 +13521,18 @@
       <c r="C94" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D94" s="114" t="s">
+      <c r="D94" s="118" t="s">
         <v>464</v>
       </c>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
-      <c r="G94" s="114"/>
-      <c r="H94" s="114"/>
-      <c r="I94" s="114"/>
-      <c r="J94" s="114"/>
-      <c r="K94" s="114"/>
-      <c r="L94" s="114"/>
-      <c r="M94" s="115"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="118"/>
+      <c r="H94" s="118"/>
+      <c r="I94" s="118"/>
+      <c r="J94" s="118"/>
+      <c r="K94" s="118"/>
+      <c r="L94" s="118"/>
+      <c r="M94" s="119"/>
       <c r="N94" s="15"/>
       <c r="O94" s="17" t="s">
         <v>470</v>
@@ -13509,7 +13571,7 @@
       <c r="AS94" s="9"/>
       <c r="AT94" s="7"/>
       <c r="AU94" s="7"/>
-      <c r="AV94" s="145"/>
+      <c r="AV94" s="114"/>
       <c r="AW94" s="105">
         <v>2</v>
       </c>
@@ -13521,18 +13583,18 @@
       <c r="C95" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="D95" s="114" t="s">
+      <c r="D95" s="118" t="s">
         <v>415</v>
       </c>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="114"/>
-      <c r="I95" s="114"/>
-      <c r="J95" s="114"/>
-      <c r="K95" s="114"/>
-      <c r="L95" s="114"/>
-      <c r="M95" s="115"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="118"/>
+      <c r="G95" s="118"/>
+      <c r="H95" s="118"/>
+      <c r="I95" s="118"/>
+      <c r="J95" s="118"/>
+      <c r="K95" s="118"/>
+      <c r="L95" s="118"/>
+      <c r="M95" s="119"/>
       <c r="N95" s="15" t="s">
         <v>417</v>
       </c>
@@ -13577,7 +13639,7 @@
       <c r="AS95" s="7"/>
       <c r="AT95" s="7"/>
       <c r="AU95" s="7"/>
-      <c r="AV95" s="145"/>
+      <c r="AV95" s="114"/>
       <c r="AW95" s="105">
         <v>1</v>
       </c>
@@ -13589,18 +13651,18 @@
       <c r="C96" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="114" t="s">
+      <c r="D96" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="114"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="115"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="118"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="118"/>
+      <c r="I96" s="118"/>
+      <c r="J96" s="118"/>
+      <c r="K96" s="118"/>
+      <c r="L96" s="118"/>
+      <c r="M96" s="119"/>
       <c r="N96" s="15" t="s">
         <v>467</v>
       </c>
@@ -13645,7 +13707,7 @@
       <c r="AS96" s="11"/>
       <c r="AT96" s="7"/>
       <c r="AU96" s="7"/>
-      <c r="AV96" s="145"/>
+      <c r="AV96" s="114"/>
       <c r="AW96" s="105">
         <v>2</v>
       </c>
@@ -13657,18 +13719,18 @@
       <c r="C97" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="114" t="s">
+      <c r="D97" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="114"/>
-      <c r="J97" s="114"/>
-      <c r="K97" s="114"/>
-      <c r="L97" s="114"/>
-      <c r="M97" s="115"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="119"/>
       <c r="N97" s="15" t="s">
         <v>430</v>
       </c>
@@ -13712,7 +13774,7 @@
       <c r="AS97" s="11"/>
       <c r="AT97" s="7"/>
       <c r="AU97" s="7"/>
-      <c r="AV97" s="145"/>
+      <c r="AV97" s="114"/>
       <c r="AW97" s="105">
         <v>2</v>
       </c>
@@ -13724,18 +13786,18 @@
       <c r="C98" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="114" t="s">
+      <c r="D98" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="114"/>
-      <c r="J98" s="114"/>
-      <c r="K98" s="114"/>
-      <c r="L98" s="114"/>
-      <c r="M98" s="115"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="118"/>
+      <c r="G98" s="118"/>
+      <c r="H98" s="118"/>
+      <c r="I98" s="118"/>
+      <c r="J98" s="118"/>
+      <c r="K98" s="118"/>
+      <c r="L98" s="118"/>
+      <c r="M98" s="119"/>
       <c r="N98" s="15" t="s">
         <v>450</v>
       </c>
@@ -13745,7 +13807,9 @@
       <c r="P98" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="Q98" s="19"/>
+      <c r="Q98" s="19">
+        <v>1</v>
+      </c>
       <c r="R98" s="80">
         <v>1</v>
       </c>
@@ -13778,7 +13842,7 @@
       <c r="AS98" s="11"/>
       <c r="AT98" s="7"/>
       <c r="AU98" s="7"/>
-      <c r="AV98" s="145"/>
+      <c r="AV98" s="114"/>
       <c r="AW98" s="105">
         <v>1</v>
       </c>
@@ -13787,19 +13851,19 @@
       <c r="B99" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="C99" s="142" t="s">
+      <c r="C99" s="125" t="s">
         <v>418</v>
       </c>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="117"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="126"/>
+      <c r="G99" s="126"/>
+      <c r="H99" s="126"/>
+      <c r="I99" s="126"/>
+      <c r="J99" s="126"/>
+      <c r="K99" s="126"/>
+      <c r="L99" s="126"/>
+      <c r="M99" s="127"/>
       <c r="N99" s="38"/>
       <c r="O99" s="41"/>
       <c r="P99" s="41"/>
@@ -13834,7 +13898,7 @@
       <c r="AS99" s="11"/>
       <c r="AT99" s="7"/>
       <c r="AU99" s="7"/>
-      <c r="AV99" s="145"/>
+      <c r="AV99" s="114"/>
       <c r="AW99" s="105"/>
     </row>
     <row r="100" spans="2:49" x14ac:dyDescent="0.3">
@@ -13844,18 +13908,18 @@
       <c r="C100" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="D100" s="112" t="s">
+      <c r="D100" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="112"/>
-      <c r="L100" s="112"/>
-      <c r="M100" s="113"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
+      <c r="G100" s="121"/>
+      <c r="H100" s="121"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="121"/>
+      <c r="K100" s="121"/>
+      <c r="L100" s="121"/>
+      <c r="M100" s="122"/>
       <c r="N100" s="92" t="s">
         <v>326</v>
       </c>
@@ -13900,7 +13964,7 @@
       <c r="AS100" s="11"/>
       <c r="AT100" s="7"/>
       <c r="AU100" s="7"/>
-      <c r="AV100" s="145"/>
+      <c r="AV100" s="114"/>
       <c r="AW100" s="105">
         <v>2</v>
       </c>
@@ -13912,18 +13976,18 @@
       <c r="C101" s="102" t="s">
         <v>445</v>
       </c>
-      <c r="D101" s="112" t="s">
+      <c r="D101" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="E101" s="112"/>
-      <c r="F101" s="112"/>
-      <c r="G101" s="112"/>
-      <c r="H101" s="112"/>
-      <c r="I101" s="112"/>
-      <c r="J101" s="112"/>
-      <c r="K101" s="112"/>
-      <c r="L101" s="112"/>
-      <c r="M101" s="113"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="121"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="121"/>
+      <c r="K101" s="121"/>
+      <c r="L101" s="121"/>
+      <c r="M101" s="122"/>
       <c r="N101" s="92" t="s">
         <v>448</v>
       </c>
@@ -13966,7 +14030,7 @@
       <c r="AS101" s="11"/>
       <c r="AT101" s="7"/>
       <c r="AU101" s="7"/>
-      <c r="AV101" s="145"/>
+      <c r="AV101" s="114"/>
       <c r="AW101" s="105">
         <v>1</v>
       </c>
@@ -13978,18 +14042,18 @@
       <c r="C102" s="102" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="112" t="s">
+      <c r="D102" s="121" t="s">
         <v>330</v>
       </c>
-      <c r="E102" s="112"/>
-      <c r="F102" s="112"/>
-      <c r="G102" s="112"/>
-      <c r="H102" s="112"/>
-      <c r="I102" s="112"/>
-      <c r="J102" s="112"/>
-      <c r="K102" s="112"/>
-      <c r="L102" s="112"/>
-      <c r="M102" s="113"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="121"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121"/>
+      <c r="K102" s="121"/>
+      <c r="L102" s="121"/>
+      <c r="M102" s="122"/>
       <c r="N102" s="92" t="s">
         <v>386</v>
       </c>
@@ -14032,7 +14096,7 @@
       <c r="AS102" s="9"/>
       <c r="AT102" s="7"/>
       <c r="AU102" s="7"/>
-      <c r="AV102" s="145"/>
+      <c r="AV102" s="114"/>
       <c r="AW102" s="105">
         <v>2</v>
       </c>
@@ -14044,18 +14108,18 @@
       <c r="C103" s="101" t="s">
         <v>419</v>
       </c>
-      <c r="D103" s="112" t="s">
+      <c r="D103" s="121" t="s">
         <v>420</v>
       </c>
-      <c r="E103" s="112"/>
-      <c r="F103" s="112"/>
-      <c r="G103" s="112"/>
-      <c r="H103" s="112"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="112"/>
-      <c r="K103" s="112"/>
-      <c r="L103" s="112"/>
-      <c r="M103" s="113"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
+      <c r="G103" s="121"/>
+      <c r="H103" s="121"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="121"/>
+      <c r="K103" s="121"/>
+      <c r="L103" s="121"/>
+      <c r="M103" s="122"/>
       <c r="N103" s="92" t="s">
         <v>423</v>
       </c>
@@ -14098,7 +14162,7 @@
       <c r="AS103" s="11"/>
       <c r="AT103" s="7"/>
       <c r="AU103" s="7"/>
-      <c r="AV103" s="145"/>
+      <c r="AV103" s="114"/>
       <c r="AW103" s="105">
         <v>1</v>
       </c>
@@ -14110,18 +14174,18 @@
       <c r="C104" s="102" t="s">
         <v>421</v>
       </c>
-      <c r="D104" s="112" t="s">
+      <c r="D104" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="E104" s="112"/>
-      <c r="F104" s="112"/>
-      <c r="G104" s="112"/>
-      <c r="H104" s="112"/>
-      <c r="I104" s="112"/>
-      <c r="J104" s="112"/>
-      <c r="K104" s="112"/>
-      <c r="L104" s="112"/>
-      <c r="M104" s="113"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="121"/>
+      <c r="H104" s="121"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="121"/>
+      <c r="K104" s="121"/>
+      <c r="L104" s="121"/>
+      <c r="M104" s="122"/>
       <c r="N104" s="92"/>
       <c r="O104" s="93"/>
       <c r="P104" s="93"/>
@@ -14156,7 +14220,7 @@
       <c r="AS104" s="11"/>
       <c r="AT104" s="9"/>
       <c r="AU104" s="9"/>
-      <c r="AV104" s="145"/>
+      <c r="AV104" s="114"/>
       <c r="AW104" s="105">
         <v>1</v>
       </c>
@@ -14165,19 +14229,19 @@
       <c r="B105" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="142" t="s">
+      <c r="C105" s="125" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="116"/>
-      <c r="E105" s="116"/>
-      <c r="F105" s="116"/>
-      <c r="G105" s="116"/>
-      <c r="H105" s="116"/>
-      <c r="I105" s="116"/>
-      <c r="J105" s="116"/>
-      <c r="K105" s="116"/>
-      <c r="L105" s="116"/>
-      <c r="M105" s="117"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="126"/>
+      <c r="F105" s="126"/>
+      <c r="G105" s="126"/>
+      <c r="H105" s="126"/>
+      <c r="I105" s="126"/>
+      <c r="J105" s="126"/>
+      <c r="K105" s="126"/>
+      <c r="L105" s="126"/>
+      <c r="M105" s="127"/>
       <c r="N105" s="38"/>
       <c r="O105" s="41"/>
       <c r="P105" s="41"/>
@@ -14212,7 +14276,7 @@
       <c r="AS105" s="11"/>
       <c r="AT105" s="7"/>
       <c r="AU105" s="7"/>
-      <c r="AV105" s="145"/>
+      <c r="AV105" s="114"/>
       <c r="AW105" s="105"/>
     </row>
     <row r="106" spans="2:49" x14ac:dyDescent="0.3">
@@ -14222,18 +14286,18 @@
       <c r="C106" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="D106" s="118" t="s">
+      <c r="D106" s="116" t="s">
         <v>377</v>
       </c>
-      <c r="E106" s="118"/>
-      <c r="F106" s="118"/>
-      <c r="G106" s="118"/>
-      <c r="H106" s="118"/>
-      <c r="I106" s="118"/>
-      <c r="J106" s="118"/>
-      <c r="K106" s="118"/>
-      <c r="L106" s="118"/>
-      <c r="M106" s="119"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="116"/>
+      <c r="G106" s="116"/>
+      <c r="H106" s="116"/>
+      <c r="I106" s="116"/>
+      <c r="J106" s="116"/>
+      <c r="K106" s="116"/>
+      <c r="L106" s="116"/>
+      <c r="M106" s="117"/>
       <c r="N106" s="92"/>
       <c r="O106" s="93" t="s">
         <v>380</v>
@@ -14274,7 +14338,7 @@
       <c r="AS106" s="11"/>
       <c r="AT106" s="8"/>
       <c r="AU106" s="8"/>
-      <c r="AV106" s="145"/>
+      <c r="AV106" s="114"/>
       <c r="AW106" s="105">
         <v>1</v>
       </c>
@@ -14286,18 +14350,18 @@
       <c r="C107" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="D107" s="112" t="s">
+      <c r="D107" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="E107" s="112"/>
-      <c r="F107" s="112"/>
-      <c r="G107" s="112"/>
-      <c r="H107" s="112"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-      <c r="L107" s="112"/>
-      <c r="M107" s="113"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="121"/>
+      <c r="L107" s="121"/>
+      <c r="M107" s="122"/>
       <c r="N107" s="92"/>
       <c r="O107" s="93" t="s">
         <v>269</v>
@@ -14350,18 +14414,18 @@
       <c r="C108" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="D108" s="112" t="s">
+      <c r="D108" s="121" t="s">
         <v>336</v>
       </c>
-      <c r="E108" s="112"/>
-      <c r="F108" s="112"/>
-      <c r="G108" s="112"/>
-      <c r="H108" s="112"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="112"/>
-      <c r="K108" s="112"/>
-      <c r="L108" s="112"/>
-      <c r="M108" s="113"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
+      <c r="G108" s="121"/>
+      <c r="H108" s="121"/>
+      <c r="I108" s="121"/>
+      <c r="J108" s="121"/>
+      <c r="K108" s="121"/>
+      <c r="L108" s="121"/>
+      <c r="M108" s="122"/>
       <c r="N108" s="92"/>
       <c r="O108" s="93" t="s">
         <v>378</v>
@@ -14402,7 +14466,7 @@
       <c r="AS108" s="11"/>
       <c r="AT108" s="11"/>
       <c r="AU108" s="11"/>
-      <c r="AV108" s="145"/>
+      <c r="AV108" s="114"/>
       <c r="AW108" s="105" t="s">
         <v>469</v>
       </c>
@@ -14411,19 +14475,19 @@
       <c r="B109" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C109" s="116" t="s">
+      <c r="C109" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="D109" s="116"/>
-      <c r="E109" s="116"/>
-      <c r="F109" s="116"/>
-      <c r="G109" s="116"/>
-      <c r="H109" s="116"/>
-      <c r="I109" s="116"/>
-      <c r="J109" s="116"/>
-      <c r="K109" s="116"/>
-      <c r="L109" s="116"/>
-      <c r="M109" s="117"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="126"/>
+      <c r="F109" s="126"/>
+      <c r="G109" s="126"/>
+      <c r="H109" s="126"/>
+      <c r="I109" s="126"/>
+      <c r="J109" s="126"/>
+      <c r="K109" s="126"/>
+      <c r="L109" s="126"/>
+      <c r="M109" s="127"/>
       <c r="N109" s="38"/>
       <c r="O109" s="41"/>
       <c r="P109" s="41"/>
@@ -14458,7 +14522,7 @@
       <c r="AS109" s="7"/>
       <c r="AT109" s="7"/>
       <c r="AU109" s="7"/>
-      <c r="AV109" s="145"/>
+      <c r="AV109" s="114"/>
       <c r="AW109" s="105"/>
     </row>
     <row r="110" spans="2:49" x14ac:dyDescent="0.3">
@@ -14468,18 +14532,18 @@
       <c r="C110" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="D110" s="118" t="s">
+      <c r="D110" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="E110" s="118"/>
-      <c r="F110" s="118"/>
-      <c r="G110" s="118"/>
-      <c r="H110" s="118"/>
-      <c r="I110" s="118"/>
-      <c r="J110" s="118"/>
-      <c r="K110" s="118"/>
-      <c r="L110" s="118"/>
-      <c r="M110" s="119"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
+      <c r="G110" s="116"/>
+      <c r="H110" s="116"/>
+      <c r="I110" s="116"/>
+      <c r="J110" s="116"/>
+      <c r="K110" s="116"/>
+      <c r="L110" s="116"/>
+      <c r="M110" s="117"/>
       <c r="N110" s="92" t="s">
         <v>267</v>
       </c>
@@ -14534,18 +14598,18 @@
       <c r="C111" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D111" s="114" t="s">
+      <c r="D111" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="114"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="114"/>
-      <c r="L111" s="114"/>
-      <c r="M111" s="115"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="118"/>
+      <c r="G111" s="118"/>
+      <c r="H111" s="118"/>
+      <c r="I111" s="118"/>
+      <c r="J111" s="118"/>
+      <c r="K111" s="118"/>
+      <c r="L111" s="118"/>
+      <c r="M111" s="119"/>
       <c r="N111" s="15"/>
       <c r="O111" s="17" t="s">
         <v>284</v>
@@ -14584,7 +14648,7 @@
       <c r="AS111" s="7"/>
       <c r="AT111" s="7"/>
       <c r="AU111" s="7"/>
-      <c r="AV111" s="145"/>
+      <c r="AV111" s="114"/>
       <c r="AW111" s="105">
         <v>1</v>
       </c>
@@ -14596,18 +14660,18 @@
       <c r="C112" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D112" s="114" t="s">
+      <c r="D112" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="114"/>
-      <c r="H112" s="114"/>
-      <c r="I112" s="114"/>
-      <c r="J112" s="114"/>
-      <c r="K112" s="114"/>
-      <c r="L112" s="114"/>
-      <c r="M112" s="115"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="118"/>
+      <c r="G112" s="118"/>
+      <c r="H112" s="118"/>
+      <c r="I112" s="118"/>
+      <c r="J112" s="118"/>
+      <c r="K112" s="118"/>
+      <c r="L112" s="118"/>
+      <c r="M112" s="119"/>
       <c r="N112" s="15"/>
       <c r="O112" s="17" t="s">
         <v>268</v>
@@ -14646,7 +14710,7 @@
       <c r="AS112" s="7"/>
       <c r="AT112" s="7"/>
       <c r="AU112" s="7"/>
-      <c r="AV112" s="145"/>
+      <c r="AV112" s="114"/>
       <c r="AW112" s="105">
         <v>1</v>
       </c>
@@ -14658,18 +14722,18 @@
       <c r="C113" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D113" s="114" t="s">
+      <c r="D113" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="E113" s="114"/>
-      <c r="F113" s="114"/>
-      <c r="G113" s="114"/>
-      <c r="H113" s="114"/>
-      <c r="I113" s="114"/>
-      <c r="J113" s="114"/>
-      <c r="K113" s="114"/>
-      <c r="L113" s="114"/>
-      <c r="M113" s="115"/>
+      <c r="E113" s="118"/>
+      <c r="F113" s="118"/>
+      <c r="G113" s="118"/>
+      <c r="H113" s="118"/>
+      <c r="I113" s="118"/>
+      <c r="J113" s="118"/>
+      <c r="K113" s="118"/>
+      <c r="L113" s="118"/>
+      <c r="M113" s="119"/>
       <c r="N113" s="15"/>
       <c r="O113" s="17" t="s">
         <v>286</v>
@@ -14708,7 +14772,7 @@
       <c r="AS113" s="8"/>
       <c r="AT113" s="8"/>
       <c r="AU113" s="7"/>
-      <c r="AV113" s="145"/>
+      <c r="AV113" s="114"/>
       <c r="AW113" s="105">
         <v>2</v>
       </c>
@@ -14720,18 +14784,18 @@
       <c r="C114" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D114" s="114" t="s">
+      <c r="D114" s="118" t="s">
         <v>208</v>
       </c>
-      <c r="E114" s="114"/>
-      <c r="F114" s="114"/>
-      <c r="G114" s="114"/>
-      <c r="H114" s="114"/>
-      <c r="I114" s="114"/>
-      <c r="J114" s="114"/>
-      <c r="K114" s="114"/>
-      <c r="L114" s="114"/>
-      <c r="M114" s="115"/>
+      <c r="E114" s="118"/>
+      <c r="F114" s="118"/>
+      <c r="G114" s="118"/>
+      <c r="H114" s="118"/>
+      <c r="I114" s="118"/>
+      <c r="J114" s="118"/>
+      <c r="K114" s="118"/>
+      <c r="L114" s="118"/>
+      <c r="M114" s="119"/>
       <c r="N114" s="15"/>
       <c r="O114" s="17" t="s">
         <v>295</v>
@@ -14770,7 +14834,7 @@
       <c r="AS114" s="7"/>
       <c r="AT114" s="8"/>
       <c r="AU114" s="7"/>
-      <c r="AV114" s="145"/>
+      <c r="AV114" s="114"/>
       <c r="AW114" s="105">
         <v>1</v>
       </c>
@@ -14782,18 +14846,18 @@
       <c r="C115" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="D115" s="120" t="s">
+      <c r="D115" s="145" t="s">
         <v>210</v>
       </c>
-      <c r="E115" s="120"/>
-      <c r="F115" s="120"/>
-      <c r="G115" s="120"/>
-      <c r="H115" s="120"/>
-      <c r="I115" s="120"/>
-      <c r="J115" s="120"/>
-      <c r="K115" s="120"/>
-      <c r="L115" s="120"/>
-      <c r="M115" s="121"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="145"/>
+      <c r="G115" s="145"/>
+      <c r="H115" s="145"/>
+      <c r="I115" s="145"/>
+      <c r="J115" s="145"/>
+      <c r="K115" s="145"/>
+      <c r="L115" s="145"/>
+      <c r="M115" s="146"/>
       <c r="N115" s="67"/>
       <c r="O115" s="68" t="s">
         <v>236</v>
@@ -14832,13 +14896,112 @@
       <c r="AS115" s="70"/>
       <c r="AT115" s="70"/>
       <c r="AU115" s="98"/>
-      <c r="AV115" s="146"/>
+      <c r="AV115" s="115"/>
       <c r="AW115" s="106">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="D103:M103"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="C82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="C66:M66"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D115:M115"/>
+    <mergeCell ref="C109:M109"/>
+    <mergeCell ref="D111:M111"/>
+    <mergeCell ref="D112:M112"/>
+    <mergeCell ref="D113:M113"/>
+    <mergeCell ref="D114:M114"/>
+    <mergeCell ref="D110:M110"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
     <mergeCell ref="D60:M60"/>
     <mergeCell ref="D78:M78"/>
     <mergeCell ref="D106:M106"/>
@@ -14863,105 +15026,6 @@
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D17:M17"/>
     <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D115:M115"/>
-    <mergeCell ref="C109:M109"/>
-    <mergeCell ref="D111:M111"/>
-    <mergeCell ref="D112:M112"/>
-    <mergeCell ref="D113:M113"/>
-    <mergeCell ref="D114:M114"/>
-    <mergeCell ref="D110:M110"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="C82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="C66:M66"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D101:M101"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="478">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1833,6 +1833,29 @@
   </si>
   <si>
     <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 이탈 및 탐색 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-16</t>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2730,10 +2753,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2742,29 +2765,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2776,6 +2799,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,22 +2834,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -4401,13 +4424,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>13324</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>87130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>132849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4959,13 +4982,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>16327</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5331,13 +5354,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>15682</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>84129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>129848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5393,13 +5416,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>6238</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>113104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>257095</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>167447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5455,13 +5478,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>5829</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>64939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>138792</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5579,13 +5602,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>16328</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>70756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5641,13 +5664,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>11152</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5703,13 +5726,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>258802</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>84198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>138793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5765,13 +5788,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>261523</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>59705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>59870</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6385,13 +6408,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>29653</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>89850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>13700</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>153995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6695,13 +6718,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>4795</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>86850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>132569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6757,13 +6780,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>4796</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>100459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6881,13 +6904,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>138794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7005,13 +7028,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>18768</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>78966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7067,13 +7090,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>7882</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>95294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>149680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7129,13 +7152,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>266416</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>81687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7453,11 +7476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA115"/>
+  <dimension ref="B1:BA116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <pane ySplit="6" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7515,13 +7538,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="120" t="s">
+      <c r="AY2" s="143" t="s">
         <v>342</v>
       </c>
-      <c r="AZ2" s="120" t="s">
+      <c r="AZ2" s="143" t="s">
         <v>340</v>
       </c>
-      <c r="BA2" s="120" t="s">
+      <c r="BA2" s="143" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7539,26 +7562,26 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="120"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="143"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="107">
-        <f>SUM(AW7:AW115)</f>
-        <v>162</v>
+        <f>SUM(AW7:AW116)</f>
+        <v>163</v>
       </c>
       <c r="AZ4" s="107">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW56+AW57+AW67+AW68+AW71+AW74+AW88+AW90+AW91+AW80+AW83+AW48+AW87+AW86+AW84+AW85+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW93+AW37+AW41+AW69+AW70+AW89+AW92+AW16+AW100+AW96+AW97+AW98</f>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW56+AW57+AW67+AW68+AW71+AW74+AW89+AW91+AW92+AW81+AW84+AW48+AW88+AW87+AW85+AW86+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW94+AW37+AW41+AW69+AW70+AW90+AW93+AW16+AW101+AW97+AW98+AW99</f>
         <v>107</v>
       </c>
       <c r="BA4" s="107">
         <f>AZ4/AY4*100</f>
-        <v>66.049382716049394</v>
+        <v>65.644171779141104</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="126" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="128" t="s">
@@ -7579,58 +7602,58 @@
       <c r="N5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="135" t="s">
+      <c r="O5" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="135" t="s">
+      <c r="P5" s="137" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="137" t="s">
+      <c r="R5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="134" t="s">
+      <c r="S5" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132" t="s">
+      <c r="T5" s="134"/>
+      <c r="U5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AI5" s="132"/>
-      <c r="AJ5" s="132"/>
-      <c r="AK5" s="132"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="132"/>
-      <c r="AN5" s="132"/>
-      <c r="AO5" s="132"/>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="123" t="s">
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="144" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="142"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="129"/>
       <c r="D6" s="129"/>
       <c r="E6" s="129"/>
@@ -7643,10 +7666,10 @@
       <c r="L6" s="129"/>
       <c r="M6" s="129"/>
       <c r="N6" s="129"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
       <c r="Q6" s="129"/>
-      <c r="R6" s="138"/>
+      <c r="R6" s="140"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -7737,25 +7760,25 @@
       <c r="AV6" s="94">
         <v>28</v>
       </c>
-      <c r="AW6" s="124"/>
+      <c r="AW6" s="145"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -8541,19 +8564,19 @@
       <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="121"/>
       <c r="N19" s="13"/>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
@@ -8598,18 +8621,18 @@
       <c r="C20" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="144"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
       <c r="N20" s="14" t="s">
         <v>10</v>
       </c>
@@ -9275,19 +9298,19 @@
       <c r="B30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="121"/>
       <c r="N30" s="13"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
@@ -10951,19 +10974,19 @@
       <c r="B55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="126" t="s">
+      <c r="C55" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="127"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="121"/>
       <c r="N55" s="38"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
@@ -11008,18 +11031,18 @@
       <c r="C56" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="117"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="123"/>
       <c r="N56" s="39" t="s">
         <v>64</v>
       </c>
@@ -11076,18 +11099,18 @@
       <c r="C57" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116"/>
-      <c r="M57" s="117"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="123"/>
       <c r="N57" s="39" t="s">
         <v>166</v>
       </c>
@@ -11144,18 +11167,18 @@
       <c r="C58" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="116" t="s">
+      <c r="D58" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="117"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="123"/>
       <c r="N58" s="39" t="s">
         <v>303</v>
       </c>
@@ -11209,18 +11232,18 @@
       <c r="C59" s="112" t="s">
         <v>428</v>
       </c>
-      <c r="D59" s="116" t="s">
+      <c r="D59" s="122" t="s">
         <v>431</v>
       </c>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="117"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="123"/>
       <c r="N59" s="39" t="s">
         <v>432</v>
       </c>
@@ -11274,18 +11297,18 @@
       <c r="C60" s="112" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="116" t="s">
+      <c r="D60" s="122" t="s">
         <v>454</v>
       </c>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="117"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="123"/>
       <c r="N60" s="39" t="s">
         <v>453</v>
       </c>
@@ -11662,19 +11685,19 @@
       <c r="B66" s="37">
         <v>5</v>
       </c>
-      <c r="C66" s="126" t="s">
+      <c r="C66" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
-      <c r="M66" s="127"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="120"/>
+      <c r="M66" s="121"/>
       <c r="N66" s="40"/>
       <c r="O66" s="41"/>
       <c r="P66" s="41"/>
@@ -12520,10 +12543,10 @@
         <v>438</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>181</v>
+        <v>472</v>
       </c>
       <c r="D79" s="118" t="s">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="E79" s="118"/>
       <c r="F79" s="118"/>
@@ -12535,15 +12558,15 @@
       <c r="L79" s="118"/>
       <c r="M79" s="119"/>
       <c r="N79" s="15" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q79" s="15"/>
+        <v>477</v>
+      </c>
+      <c r="Q79" s="19"/>
       <c r="R79" s="80">
         <v>1</v>
       </c>
@@ -12563,22 +12586,21 @@
       <c r="AF79" s="11"/>
       <c r="AG79" s="7"/>
       <c r="AH79" s="7"/>
-      <c r="AI79" s="42"/>
-      <c r="AJ79" s="46"/>
-      <c r="AK79" s="11"/>
-      <c r="AL79" s="11"/>
+      <c r="AI79" s="45"/>
+      <c r="AJ79" s="49"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
       <c r="AM79" s="11"/>
-      <c r="AN79" s="11"/>
       <c r="AO79" s="9"/>
-      <c r="AP79" s="44"/>
-      <c r="AQ79" s="48"/>
-      <c r="AR79" s="9"/>
-      <c r="AS79" s="9"/>
+      <c r="AP79" s="42"/>
+      <c r="AQ79" s="46"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
       <c r="AV79" s="114"/>
       <c r="AW79" s="105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:49" x14ac:dyDescent="0.3">
@@ -12586,10 +12608,10 @@
         <v>462</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D80" s="118" t="s">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="118"/>
@@ -12601,17 +12623,15 @@
       <c r="L80" s="118"/>
       <c r="M80" s="119"/>
       <c r="N80" s="15" t="s">
-        <v>313</v>
+        <v>456</v>
       </c>
       <c r="O80" s="17" t="s">
-        <v>314</v>
+        <v>457</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q80" s="19">
-        <v>1</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Q80" s="15"/>
       <c r="R80" s="80">
         <v>1</v>
       </c>
@@ -12633,31 +12653,31 @@
       <c r="AH80" s="7"/>
       <c r="AI80" s="42"/>
       <c r="AJ80" s="46"/>
-      <c r="AK80" s="9"/>
+      <c r="AK80" s="11"/>
       <c r="AL80" s="11"/>
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
-      <c r="AO80" s="11"/>
-      <c r="AP80" s="42"/>
-      <c r="AQ80" s="46"/>
-      <c r="AR80" s="7"/>
-      <c r="AS80" s="7"/>
+      <c r="AO80" s="9"/>
+      <c r="AP80" s="44"/>
+      <c r="AQ80" s="48"/>
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="9"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="114"/>
       <c r="AW80" s="105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B81" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="C81" s="89" t="s">
-        <v>184</v>
+      <c r="C81" s="54" t="s">
+        <v>193</v>
       </c>
       <c r="D81" s="118" t="s">
-        <v>185</v>
+        <v>316</v>
       </c>
       <c r="E81" s="118"/>
       <c r="F81" s="118"/>
@@ -12668,14 +12688,18 @@
       <c r="K81" s="118"/>
       <c r="L81" s="118"/>
       <c r="M81" s="119"/>
-      <c r="N81" s="15"/>
+      <c r="N81" s="15" t="s">
+        <v>313</v>
+      </c>
       <c r="O81" s="17" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q81" s="15"/>
+        <v>315</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>1</v>
+      </c>
       <c r="R81" s="80">
         <v>1</v>
       </c>
@@ -12697,44 +12721,52 @@
       <c r="AH81" s="7"/>
       <c r="AI81" s="42"/>
       <c r="AJ81" s="46"/>
-      <c r="AK81" s="7"/>
-      <c r="AL81" s="7"/>
-      <c r="AM81" s="7"/>
-      <c r="AN81" s="7"/>
-      <c r="AO81" s="7"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="11"/>
       <c r="AP81" s="42"/>
       <c r="AQ81" s="46"/>
       <c r="AR81" s="7"/>
       <c r="AS81" s="7"/>
-      <c r="AT81" s="10"/>
-      <c r="AU81" s="10"/>
-      <c r="AV81" s="97"/>
+      <c r="AT81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="114"/>
       <c r="AW81" s="105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B82" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
-      <c r="M82" s="127"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="81"/>
+      <c r="B82" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="118"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="118"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="118"/>
+      <c r="M82" s="119"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="80">
+        <v>1</v>
+      </c>
       <c r="S82" s="25"/>
       <c r="T82" s="7"/>
       <c r="U82" s="42"/>
@@ -12747,8 +12779,8 @@
       <c r="AB82" s="42"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
+      <c r="AE82" s="11"/>
+      <c r="AF82" s="11"/>
       <c r="AG82" s="7"/>
       <c r="AH82" s="7"/>
       <c r="AI82" s="42"/>
@@ -12762,45 +12794,35 @@
       <c r="AQ82" s="46"/>
       <c r="AR82" s="7"/>
       <c r="AS82" s="7"/>
-      <c r="AT82" s="7"/>
-      <c r="AU82" s="7"/>
-      <c r="AV82" s="114"/>
-      <c r="AW82" s="105"/>
+      <c r="AT82" s="10"/>
+      <c r="AU82" s="10"/>
+      <c r="AV82" s="97"/>
+      <c r="AW82" s="105">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B83" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="118"/>
-      <c r="J83" s="118"/>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118"/>
-      <c r="M83" s="119"/>
-      <c r="N83" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O83" s="17">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="P83" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q83" s="19">
-        <v>1</v>
-      </c>
-      <c r="R83" s="80">
-        <v>1</v>
-      </c>
+      <c r="B83" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="120"/>
+      <c r="G83" s="120"/>
+      <c r="H83" s="120"/>
+      <c r="I83" s="120"/>
+      <c r="J83" s="120"/>
+      <c r="K83" s="120"/>
+      <c r="L83" s="120"/>
+      <c r="M83" s="121"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="81"/>
       <c r="S83" s="25"/>
       <c r="T83" s="7"/>
       <c r="U83" s="42"/>
@@ -12813,12 +12835,12 @@
       <c r="AB83" s="42"/>
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
-      <c r="AE83" s="11"/>
-      <c r="AF83" s="8"/>
-      <c r="AG83" s="8"/>
-      <c r="AH83" s="11"/>
-      <c r="AI83" s="45"/>
-      <c r="AJ83" s="49"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="42"/>
+      <c r="AJ83" s="46"/>
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
@@ -12831,19 +12853,17 @@
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
       <c r="AV83" s="114"/>
-      <c r="AW83" s="105">
-        <v>2</v>
-      </c>
+      <c r="AW83" s="105"/>
     </row>
     <row r="84" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B84" s="36" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D84" s="118" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="118"/>
@@ -12855,13 +12875,13 @@
       <c r="L84" s="118"/>
       <c r="M84" s="119"/>
       <c r="N84" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>262</v>
+        <v>85</v>
+      </c>
+      <c r="O84" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Q84" s="19">
         <v>1</v>
@@ -12881,14 +12901,14 @@
       <c r="AB84" s="42"/>
       <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-      <c r="AF84" s="11"/>
-      <c r="AG84" s="11"/>
+      <c r="AE84" s="11"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="8"/>
       <c r="AH84" s="11"/>
       <c r="AI84" s="45"/>
       <c r="AJ84" s="49"/>
-      <c r="AK84" s="8"/>
-      <c r="AL84" s="8"/>
+      <c r="AK84" s="7"/>
+      <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
       <c r="AO84" s="7"/>
@@ -12905,13 +12925,13 @@
     </row>
     <row r="85" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B85" s="36" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D85" s="118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E85" s="118"/>
       <c r="F85" s="118"/>
@@ -12923,13 +12943,13 @@
       <c r="L85" s="118"/>
       <c r="M85" s="119"/>
       <c r="N85" s="15" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q85" s="19">
         <v>1</v>
@@ -12937,12 +12957,12 @@
       <c r="R85" s="80">
         <v>1</v>
       </c>
-      <c r="S85" s="27"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="45"/>
-      <c r="V85" s="49"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
@@ -12957,9 +12977,9 @@
       <c r="AJ85" s="49"/>
       <c r="AK85" s="8"/>
       <c r="AL85" s="8"/>
-      <c r="AM85" s="11"/>
-      <c r="AN85" s="11"/>
-      <c r="AO85" s="11"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
       <c r="AP85" s="42"/>
       <c r="AQ85" s="46"/>
       <c r="AR85" s="7"/>
@@ -12973,13 +12993,13 @@
     </row>
     <row r="86" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B86" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="D86" s="118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E86" s="118"/>
       <c r="F86" s="118"/>
@@ -12991,13 +13011,13 @@
       <c r="L86" s="118"/>
       <c r="M86" s="119"/>
       <c r="N86" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="P86" s="17" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q86" s="19">
         <v>1</v>
@@ -13018,14 +13038,14 @@
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
       <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-      <c r="AH86" s="7"/>
-      <c r="AI86" s="42"/>
-      <c r="AJ86" s="46"/>
-      <c r="AK86" s="7"/>
+      <c r="AF86" s="11"/>
+      <c r="AG86" s="11"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="45"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="8"/>
       <c r="AL86" s="8"/>
-      <c r="AM86" s="8"/>
+      <c r="AM86" s="11"/>
       <c r="AN86" s="11"/>
       <c r="AO86" s="11"/>
       <c r="AP86" s="42"/>
@@ -13041,13 +13061,13 @@
     </row>
     <row r="87" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B87" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="D87" s="118" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E87" s="118"/>
       <c r="F87" s="118"/>
@@ -13059,19 +13079,19 @@
       <c r="L87" s="118"/>
       <c r="M87" s="119"/>
       <c r="N87" s="15" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="P87" s="17" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="Q87" s="19">
         <v>1</v>
       </c>
       <c r="R87" s="80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87" s="27"/>
       <c r="T87" s="11"/>
@@ -13088,12 +13108,12 @@
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="7"/>
-      <c r="AH87" s="8"/>
-      <c r="AI87" s="43"/>
-      <c r="AJ87" s="47"/>
-      <c r="AK87" s="8"/>
-      <c r="AL87" s="7"/>
-      <c r="AM87" s="11"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="42"/>
+      <c r="AJ87" s="46"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
       <c r="AN87" s="11"/>
       <c r="AO87" s="11"/>
       <c r="AP87" s="42"/>
@@ -13109,13 +13129,13 @@
     </row>
     <row r="88" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B88" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="D88" s="118" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E88" s="118"/>
       <c r="F88" s="118"/>
@@ -13127,10 +13147,10 @@
       <c r="L88" s="118"/>
       <c r="M88" s="119"/>
       <c r="N88" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="O88" s="17">
-        <v>10.14</v>
+        <v>328</v>
+      </c>
+      <c r="O88" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="P88" s="17" t="s">
         <v>216</v>
@@ -13177,13 +13197,13 @@
     </row>
     <row r="89" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B89" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="54" t="s">
-        <v>193</v>
+        <v>122</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D89" s="118" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="E89" s="118"/>
       <c r="F89" s="118"/>
@@ -13195,13 +13215,13 @@
       <c r="L89" s="118"/>
       <c r="M89" s="119"/>
       <c r="N89" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O89" s="17">
-        <v>10.119999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="Q89" s="19">
         <v>1</v>
@@ -13222,13 +13242,13 @@
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
       <c r="AE89" s="7"/>
-      <c r="AF89" s="9"/>
-      <c r="AG89" s="9"/>
-      <c r="AH89" s="9"/>
-      <c r="AI89" s="44"/>
-      <c r="AJ89" s="48"/>
-      <c r="AK89" s="9"/>
-      <c r="AL89" s="9"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="43"/>
+      <c r="AJ89" s="47"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="7"/>
       <c r="AM89" s="11"/>
       <c r="AN89" s="11"/>
       <c r="AO89" s="11"/>
@@ -13245,13 +13265,13 @@
     </row>
     <row r="90" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B90" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="54" t="s">
         <v>193</v>
       </c>
       <c r="D90" s="118" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="E90" s="118"/>
       <c r="F90" s="118"/>
@@ -13263,19 +13283,19 @@
       <c r="L90" s="118"/>
       <c r="M90" s="119"/>
       <c r="N90" s="15" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="O90" s="17">
-        <v>10.15</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="Q90" s="19">
         <v>1</v>
       </c>
       <c r="R90" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S90" s="27"/>
       <c r="T90" s="11"/>
@@ -13290,13 +13310,13 @@
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
       <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
-      <c r="AG90" s="7"/>
-      <c r="AH90" s="7"/>
+      <c r="AF90" s="9"/>
+      <c r="AG90" s="9"/>
+      <c r="AH90" s="9"/>
       <c r="AI90" s="44"/>
-      <c r="AJ90" s="46"/>
-      <c r="AK90" s="7"/>
-      <c r="AL90" s="7"/>
+      <c r="AJ90" s="48"/>
+      <c r="AK90" s="9"/>
+      <c r="AL90" s="9"/>
       <c r="AM90" s="11"/>
       <c r="AN90" s="11"/>
       <c r="AO90" s="11"/>
@@ -13308,18 +13328,18 @@
       <c r="AU90" s="7"/>
       <c r="AV90" s="114"/>
       <c r="AW90" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B91" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="54" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="D91" s="118" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="E91" s="118"/>
       <c r="F91" s="118"/>
@@ -13331,19 +13351,19 @@
       <c r="L91" s="118"/>
       <c r="M91" s="119"/>
       <c r="N91" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="O91" s="17" t="s">
-        <v>304</v>
+        <v>227</v>
+      </c>
+      <c r="O91" s="17">
+        <v>10.15</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="Q91" s="19">
         <v>1</v>
       </c>
       <c r="R91" s="80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S91" s="27"/>
       <c r="T91" s="11"/>
@@ -13361,10 +13381,10 @@
       <c r="AF91" s="7"/>
       <c r="AG91" s="7"/>
       <c r="AH91" s="7"/>
-      <c r="AI91" s="45"/>
+      <c r="AI91" s="44"/>
       <c r="AJ91" s="46"/>
-      <c r="AK91" s="9"/>
-      <c r="AL91" s="9"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
       <c r="AM91" s="11"/>
       <c r="AN91" s="11"/>
       <c r="AO91" s="11"/>
@@ -13376,18 +13396,18 @@
       <c r="AU91" s="7"/>
       <c r="AV91" s="114"/>
       <c r="AW91" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B92" s="36" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C92" s="54" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="D92" s="118" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="E92" s="118"/>
       <c r="F92" s="118"/>
@@ -13399,19 +13419,19 @@
       <c r="L92" s="118"/>
       <c r="M92" s="119"/>
       <c r="N92" s="15" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="Q92" s="19">
         <v>1</v>
       </c>
       <c r="R92" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S92" s="27"/>
       <c r="T92" s="11"/>
@@ -13431,7 +13451,7 @@
       <c r="AH92" s="7"/>
       <c r="AI92" s="45"/>
       <c r="AJ92" s="46"/>
-      <c r="AK92" s="11"/>
+      <c r="AK92" s="9"/>
       <c r="AL92" s="9"/>
       <c r="AM92" s="11"/>
       <c r="AN92" s="11"/>
@@ -13444,18 +13464,18 @@
       <c r="AU92" s="7"/>
       <c r="AV92" s="114"/>
       <c r="AW92" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B93" s="36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C93" s="54" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="D93" s="118" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E93" s="118"/>
       <c r="F93" s="118"/>
@@ -13467,13 +13487,13 @@
       <c r="L93" s="118"/>
       <c r="M93" s="119"/>
       <c r="N93" s="15" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="Q93" s="19">
         <v>1</v>
@@ -13501,6 +13521,7 @@
       <c r="AJ93" s="46"/>
       <c r="AK93" s="11"/>
       <c r="AL93" s="9"/>
+      <c r="AM93" s="11"/>
       <c r="AN93" s="11"/>
       <c r="AO93" s="11"/>
       <c r="AP93" s="42"/>
@@ -13516,13 +13537,13 @@
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B94" s="36" t="s">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="C94" s="54" t="s">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="D94" s="118" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="E94" s="118"/>
       <c r="F94" s="118"/>
@@ -13533,15 +13554,21 @@
       <c r="K94" s="118"/>
       <c r="L94" s="118"/>
       <c r="M94" s="119"/>
-      <c r="N94" s="15"/>
+      <c r="N94" s="15" t="s">
+        <v>396</v>
+      </c>
       <c r="O94" s="17" t="s">
-        <v>470</v>
+        <v>294</v>
       </c>
       <c r="P94" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="80"/>
+        <v>397</v>
+      </c>
+      <c r="Q94" s="19">
+        <v>1</v>
+      </c>
+      <c r="R94" s="80">
+        <v>1</v>
+      </c>
       <c r="S94" s="27"/>
       <c r="T94" s="11"/>
       <c r="U94" s="45"/>
@@ -13558,33 +13585,32 @@
       <c r="AF94" s="7"/>
       <c r="AG94" s="7"/>
       <c r="AH94" s="7"/>
-      <c r="AI94" s="42"/>
+      <c r="AI94" s="45"/>
       <c r="AJ94" s="46"/>
-      <c r="AK94" s="7"/>
-      <c r="AL94" s="7"/>
-      <c r="AM94" s="11"/>
+      <c r="AK94" s="11"/>
+      <c r="AL94" s="9"/>
       <c r="AN94" s="11"/>
       <c r="AO94" s="11"/>
       <c r="AP94" s="42"/>
       <c r="AQ94" s="46"/>
-      <c r="AR94" s="9"/>
-      <c r="AS94" s="9"/>
+      <c r="AR94" s="7"/>
+      <c r="AS94" s="7"/>
       <c r="AT94" s="7"/>
       <c r="AU94" s="7"/>
       <c r="AV94" s="114"/>
       <c r="AW94" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B95" s="36" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>393</v>
+        <v>193</v>
       </c>
       <c r="D95" s="118" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="E95" s="118"/>
       <c r="F95" s="118"/>
@@ -13595,21 +13621,15 @@
       <c r="K95" s="118"/>
       <c r="L95" s="118"/>
       <c r="M95" s="119"/>
-      <c r="N95" s="15" t="s">
-        <v>417</v>
-      </c>
+      <c r="N95" s="15"/>
       <c r="O95" s="17" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q95" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="R95" s="80">
-        <v>2</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="80"/>
       <c r="S95" s="27"/>
       <c r="T95" s="11"/>
       <c r="U95" s="45"/>
@@ -13631,28 +13651,28 @@
       <c r="AK95" s="7"/>
       <c r="AL95" s="7"/>
       <c r="AM95" s="11"/>
-      <c r="AN95" s="9"/>
+      <c r="AN95" s="11"/>
       <c r="AO95" s="11"/>
       <c r="AP95" s="42"/>
       <c r="AQ95" s="46"/>
-      <c r="AR95" s="7"/>
-      <c r="AS95" s="7"/>
+      <c r="AR95" s="9"/>
+      <c r="AS95" s="9"/>
       <c r="AT95" s="7"/>
       <c r="AU95" s="7"/>
       <c r="AV95" s="114"/>
       <c r="AW95" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B96" s="36" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C96" s="54" t="s">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="D96" s="118" t="s">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="E96" s="118"/>
       <c r="F96" s="118"/>
@@ -13664,19 +13684,19 @@
       <c r="L96" s="118"/>
       <c r="M96" s="119"/>
       <c r="N96" s="15" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q96" s="19">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="Q96" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="R96" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S96" s="27"/>
       <c r="T96" s="11"/>
@@ -13703,24 +13723,24 @@
       <c r="AO96" s="11"/>
       <c r="AP96" s="42"/>
       <c r="AQ96" s="46"/>
-      <c r="AR96" s="11"/>
-      <c r="AS96" s="11"/>
+      <c r="AR96" s="7"/>
+      <c r="AS96" s="7"/>
       <c r="AT96" s="7"/>
       <c r="AU96" s="7"/>
       <c r="AV96" s="114"/>
       <c r="AW96" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B97" s="36" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C97" s="54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D97" s="118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E97" s="118"/>
       <c r="F97" s="118"/>
@@ -13732,7 +13752,7 @@
       <c r="L97" s="118"/>
       <c r="M97" s="119"/>
       <c r="N97" s="15" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="O97" s="17" t="s">
         <v>162</v>
@@ -13767,10 +13787,11 @@
       <c r="AK97" s="7"/>
       <c r="AL97" s="7"/>
       <c r="AM97" s="11"/>
-      <c r="AN97" s="22"/>
+      <c r="AN97" s="9"/>
       <c r="AO97" s="11"/>
       <c r="AP97" s="42"/>
       <c r="AQ97" s="46"/>
+      <c r="AR97" s="11"/>
       <c r="AS97" s="11"/>
       <c r="AT97" s="7"/>
       <c r="AU97" s="7"/>
@@ -13781,13 +13802,13 @@
     </row>
     <row r="98" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B98" s="36" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="C98" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D98" s="118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E98" s="118"/>
       <c r="F98" s="118"/>
@@ -13799,13 +13820,13 @@
       <c r="L98" s="118"/>
       <c r="M98" s="119"/>
       <c r="N98" s="15" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="O98" s="17" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>451</v>
+        <v>162</v>
       </c>
       <c r="Q98" s="19">
         <v>1</v>
@@ -13834,41 +13855,52 @@
       <c r="AK98" s="7"/>
       <c r="AL98" s="7"/>
       <c r="AM98" s="11"/>
-      <c r="AN98" s="11"/>
-      <c r="AO98" s="9"/>
+      <c r="AN98" s="22"/>
+      <c r="AO98" s="11"/>
       <c r="AP98" s="42"/>
       <c r="AQ98" s="46"/>
-      <c r="AR98" s="11"/>
       <c r="AS98" s="11"/>
       <c r="AT98" s="7"/>
       <c r="AU98" s="7"/>
       <c r="AV98" s="114"/>
       <c r="AW98" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B99" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="125" t="s">
-        <v>418</v>
-      </c>
-      <c r="D99" s="126"/>
-      <c r="E99" s="126"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-      <c r="M99" s="127"/>
-      <c r="N99" s="38"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="99"/>
-      <c r="R99" s="81"/>
+      <c r="B99" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="118"/>
+      <c r="F99" s="118"/>
+      <c r="G99" s="118"/>
+      <c r="H99" s="118"/>
+      <c r="I99" s="118"/>
+      <c r="J99" s="118"/>
+      <c r="K99" s="118"/>
+      <c r="L99" s="118"/>
+      <c r="M99" s="119"/>
+      <c r="N99" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="O99" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P99" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q99" s="19">
+        <v>1</v>
+      </c>
+      <c r="R99" s="80">
+        <v>1</v>
+      </c>
       <c r="S99" s="27"/>
       <c r="T99" s="11"/>
       <c r="U99" s="45"/>
@@ -13891,7 +13923,7 @@
       <c r="AL99" s="7"/>
       <c r="AM99" s="11"/>
       <c r="AN99" s="11"/>
-      <c r="AO99" s="11"/>
+      <c r="AO99" s="9"/>
       <c r="AP99" s="42"/>
       <c r="AQ99" s="46"/>
       <c r="AR99" s="11"/>
@@ -13899,42 +13931,32 @@
       <c r="AT99" s="7"/>
       <c r="AU99" s="7"/>
       <c r="AV99" s="114"/>
-      <c r="AW99" s="105"/>
+      <c r="AW99" s="105">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B100" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="C100" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="D100" s="121" t="s">
-        <v>325</v>
-      </c>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
-      <c r="G100" s="121"/>
-      <c r="H100" s="121"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="121"/>
-      <c r="K100" s="121"/>
-      <c r="L100" s="121"/>
-      <c r="M100" s="122"/>
-      <c r="N100" s="92" t="s">
-        <v>326</v>
-      </c>
-      <c r="O100" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="P100" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q100" s="100">
-        <v>1</v>
-      </c>
-      <c r="R100" s="94">
-        <v>2</v>
-      </c>
+      <c r="B100" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="D100" s="120"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="120"/>
+      <c r="G100" s="120"/>
+      <c r="H100" s="120"/>
+      <c r="I100" s="120"/>
+      <c r="J100" s="120"/>
+      <c r="K100" s="120"/>
+      <c r="L100" s="120"/>
+      <c r="M100" s="121"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="99"/>
+      <c r="R100" s="81"/>
       <c r="S100" s="27"/>
       <c r="T100" s="11"/>
       <c r="U100" s="45"/>
@@ -13953,10 +13975,10 @@
       <c r="AH100" s="7"/>
       <c r="AI100" s="42"/>
       <c r="AJ100" s="46"/>
-      <c r="AK100" s="8"/>
-      <c r="AL100" s="8"/>
-      <c r="AM100" s="8"/>
-      <c r="AN100" s="8"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="11"/>
+      <c r="AN100" s="11"/>
       <c r="AO100" s="11"/>
       <c r="AP100" s="42"/>
       <c r="AQ100" s="46"/>
@@ -13965,39 +13987,39 @@
       <c r="AT100" s="7"/>
       <c r="AU100" s="7"/>
       <c r="AV100" s="114"/>
-      <c r="AW100" s="105">
-        <v>2</v>
-      </c>
+      <c r="AW100" s="105"/>
     </row>
     <row r="101" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B101" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="C101" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="D101" s="121" t="s">
-        <v>446</v>
-      </c>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
-      <c r="G101" s="121"/>
-      <c r="H101" s="121"/>
-      <c r="I101" s="121"/>
-      <c r="J101" s="121"/>
-      <c r="K101" s="121"/>
-      <c r="L101" s="121"/>
-      <c r="M101" s="122"/>
+        <v>323</v>
+      </c>
+      <c r="C101" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="116"/>
+      <c r="K101" s="116"/>
+      <c r="L101" s="116"/>
+      <c r="M101" s="117"/>
       <c r="N101" s="92" t="s">
-        <v>448</v>
+        <v>326</v>
       </c>
       <c r="O101" s="93" t="s">
-        <v>441</v>
+        <v>327</v>
       </c>
       <c r="P101" s="93" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q101" s="100"/>
+        <v>162</v>
+      </c>
+      <c r="Q101" s="100">
+        <v>1</v>
+      </c>
       <c r="R101" s="94">
         <v>2</v>
       </c>
@@ -14019,49 +14041,49 @@
       <c r="AH101" s="7"/>
       <c r="AI101" s="42"/>
       <c r="AJ101" s="46"/>
-      <c r="AK101" s="11"/>
-      <c r="AL101" s="11"/>
-      <c r="AM101" s="11"/>
-      <c r="AN101" s="9"/>
-      <c r="AO101" s="9"/>
-      <c r="AP101" s="44"/>
-      <c r="AQ101" s="48"/>
-      <c r="AR101" s="9"/>
+      <c r="AK101" s="8"/>
+      <c r="AL101" s="8"/>
+      <c r="AM101" s="8"/>
+      <c r="AN101" s="8"/>
+      <c r="AO101" s="11"/>
+      <c r="AP101" s="42"/>
+      <c r="AQ101" s="46"/>
+      <c r="AR101" s="11"/>
       <c r="AS101" s="11"/>
       <c r="AT101" s="7"/>
       <c r="AU101" s="7"/>
       <c r="AV101" s="114"/>
       <c r="AW101" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B102" s="91" t="s">
-        <v>132</v>
+        <v>447</v>
       </c>
       <c r="C102" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="D102" s="121" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="121"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="121"/>
-      <c r="K102" s="121"/>
-      <c r="L102" s="121"/>
-      <c r="M102" s="122"/>
+        <v>445</v>
+      </c>
+      <c r="D102" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
+      <c r="H102" s="116"/>
+      <c r="I102" s="116"/>
+      <c r="J102" s="116"/>
+      <c r="K102" s="116"/>
+      <c r="L102" s="116"/>
+      <c r="M102" s="117"/>
       <c r="N102" s="92" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="O102" s="93" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="P102" s="93" t="s">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="Q102" s="100"/>
       <c r="R102" s="94">
@@ -14085,49 +14107,49 @@
       <c r="AH102" s="7"/>
       <c r="AI102" s="42"/>
       <c r="AJ102" s="46"/>
-      <c r="AK102" s="7"/>
-      <c r="AL102" s="24"/>
-      <c r="AM102" s="109"/>
+      <c r="AK102" s="11"/>
+      <c r="AL102" s="11"/>
+      <c r="AM102" s="11"/>
       <c r="AN102" s="9"/>
       <c r="AO102" s="9"/>
-      <c r="AP102" s="42"/>
-      <c r="AQ102" s="46"/>
+      <c r="AP102" s="44"/>
+      <c r="AQ102" s="48"/>
       <c r="AR102" s="9"/>
-      <c r="AS102" s="9"/>
+      <c r="AS102" s="11"/>
       <c r="AT102" s="7"/>
       <c r="AU102" s="7"/>
       <c r="AV102" s="114"/>
       <c r="AW102" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B103" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" s="101" t="s">
-        <v>419</v>
-      </c>
-      <c r="D103" s="121" t="s">
-        <v>420</v>
-      </c>
-      <c r="E103" s="121"/>
-      <c r="F103" s="121"/>
-      <c r="G103" s="121"/>
-      <c r="H103" s="121"/>
-      <c r="I103" s="121"/>
-      <c r="J103" s="121"/>
-      <c r="K103" s="121"/>
-      <c r="L103" s="121"/>
-      <c r="M103" s="122"/>
+        <v>132</v>
+      </c>
+      <c r="C103" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" s="116" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="116"/>
+      <c r="J103" s="116"/>
+      <c r="K103" s="116"/>
+      <c r="L103" s="116"/>
+      <c r="M103" s="117"/>
       <c r="N103" s="92" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="O103" s="93" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="P103" s="93" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="Q103" s="100"/>
       <c r="R103" s="94">
@@ -14153,44 +14175,52 @@
       <c r="AJ103" s="46"/>
       <c r="AK103" s="7"/>
       <c r="AL103" s="24"/>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="8"/>
-      <c r="AO103" s="11"/>
-      <c r="AP103" s="45"/>
-      <c r="AQ103" s="49"/>
-      <c r="AR103" s="11"/>
-      <c r="AS103" s="11"/>
+      <c r="AM103" s="109"/>
+      <c r="AN103" s="9"/>
+      <c r="AO103" s="9"/>
+      <c r="AP103" s="42"/>
+      <c r="AQ103" s="46"/>
+      <c r="AR103" s="9"/>
+      <c r="AS103" s="9"/>
       <c r="AT103" s="7"/>
       <c r="AU103" s="7"/>
       <c r="AV103" s="114"/>
       <c r="AW103" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B104" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="D104" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="121"/>
-      <c r="I104" s="121"/>
-      <c r="J104" s="121"/>
-      <c r="K104" s="121"/>
-      <c r="L104" s="121"/>
-      <c r="M104" s="122"/>
-      <c r="N104" s="92"/>
-      <c r="O104" s="93"/>
-      <c r="P104" s="93"/>
+        <v>133</v>
+      </c>
+      <c r="C104" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="D104" s="116" t="s">
+        <v>420</v>
+      </c>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="117"/>
+      <c r="N104" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="O104" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="P104" s="93" t="s">
+        <v>425</v>
+      </c>
       <c r="Q104" s="100"/>
-      <c r="R104" s="94"/>
+      <c r="R104" s="94">
+        <v>2</v>
+      </c>
       <c r="S104" s="27"/>
       <c r="T104" s="11"/>
       <c r="U104" s="45"/>
@@ -14212,41 +14242,43 @@
       <c r="AK104" s="7"/>
       <c r="AL104" s="24"/>
       <c r="AM104" s="24"/>
-      <c r="AN104" s="11"/>
+      <c r="AN104" s="8"/>
       <c r="AO104" s="11"/>
       <c r="AP104" s="45"/>
       <c r="AQ104" s="49"/>
       <c r="AR104" s="11"/>
       <c r="AS104" s="11"/>
-      <c r="AT104" s="9"/>
-      <c r="AU104" s="9"/>
+      <c r="AT104" s="7"/>
+      <c r="AU104" s="7"/>
       <c r="AV104" s="114"/>
       <c r="AW104" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B105" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="C105" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="D105" s="126"/>
-      <c r="E105" s="126"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="126"/>
-      <c r="J105" s="126"/>
-      <c r="K105" s="126"/>
-      <c r="L105" s="126"/>
-      <c r="M105" s="127"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="99"/>
-      <c r="R105" s="81"/>
+      <c r="B105" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="D105" s="116" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="116"/>
+      <c r="H105" s="116"/>
+      <c r="I105" s="116"/>
+      <c r="J105" s="116"/>
+      <c r="K105" s="116"/>
+      <c r="L105" s="116"/>
+      <c r="M105" s="117"/>
+      <c r="N105" s="92"/>
+      <c r="O105" s="93"/>
+      <c r="P105" s="93"/>
+      <c r="Q105" s="100"/>
+      <c r="R105" s="94"/>
       <c r="S105" s="27"/>
       <c r="T105" s="11"/>
       <c r="U105" s="45"/>
@@ -14270,45 +14302,39 @@
       <c r="AM105" s="24"/>
       <c r="AN105" s="11"/>
       <c r="AO105" s="11"/>
-      <c r="AP105" s="42"/>
-      <c r="AQ105" s="46"/>
+      <c r="AP105" s="45"/>
+      <c r="AQ105" s="49"/>
       <c r="AR105" s="11"/>
       <c r="AS105" s="11"/>
-      <c r="AT105" s="7"/>
-      <c r="AU105" s="7"/>
+      <c r="AT105" s="9"/>
+      <c r="AU105" s="9"/>
       <c r="AV105" s="114"/>
-      <c r="AW105" s="105"/>
+      <c r="AW105" s="105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B106" s="91" t="s">
-        <v>373</v>
-      </c>
-      <c r="C106" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="D106" s="116" t="s">
-        <v>377</v>
-      </c>
-      <c r="E106" s="116"/>
-      <c r="F106" s="116"/>
-      <c r="G106" s="116"/>
-      <c r="H106" s="116"/>
-      <c r="I106" s="116"/>
-      <c r="J106" s="116"/>
-      <c r="K106" s="116"/>
-      <c r="L106" s="116"/>
-      <c r="M106" s="117"/>
-      <c r="N106" s="92"/>
-      <c r="O106" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="P106" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q106" s="100"/>
-      <c r="R106" s="94">
-        <v>1</v>
-      </c>
+      <c r="B106" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" s="146" t="s">
+        <v>333</v>
+      </c>
+      <c r="D106" s="120"/>
+      <c r="E106" s="120"/>
+      <c r="F106" s="120"/>
+      <c r="G106" s="120"/>
+      <c r="H106" s="120"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="120"/>
+      <c r="K106" s="120"/>
+      <c r="L106" s="120"/>
+      <c r="M106" s="121"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="99"/>
+      <c r="R106" s="81"/>
       <c r="S106" s="27"/>
       <c r="T106" s="11"/>
       <c r="U106" s="45"/>
@@ -14336,38 +14362,36 @@
       <c r="AQ106" s="46"/>
       <c r="AR106" s="11"/>
       <c r="AS106" s="11"/>
-      <c r="AT106" s="8"/>
-      <c r="AU106" s="8"/>
+      <c r="AT106" s="7"/>
+      <c r="AU106" s="7"/>
       <c r="AV106" s="114"/>
-      <c r="AW106" s="105">
-        <v>1</v>
-      </c>
+      <c r="AW106" s="105"/>
     </row>
     <row r="107" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B107" s="91" t="s">
-        <v>374</v>
-      </c>
-      <c r="C107" s="103" t="s">
-        <v>334</v>
-      </c>
-      <c r="D107" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="E107" s="121"/>
-      <c r="F107" s="121"/>
-      <c r="G107" s="121"/>
-      <c r="H107" s="121"/>
-      <c r="I107" s="121"/>
-      <c r="J107" s="121"/>
-      <c r="K107" s="121"/>
-      <c r="L107" s="121"/>
-      <c r="M107" s="122"/>
+        <v>373</v>
+      </c>
+      <c r="C107" s="108" t="s">
+        <v>376</v>
+      </c>
+      <c r="D107" s="122" t="s">
+        <v>377</v>
+      </c>
+      <c r="E107" s="122"/>
+      <c r="F107" s="122"/>
+      <c r="G107" s="122"/>
+      <c r="H107" s="122"/>
+      <c r="I107" s="122"/>
+      <c r="J107" s="122"/>
+      <c r="K107" s="122"/>
+      <c r="L107" s="122"/>
+      <c r="M107" s="123"/>
       <c r="N107" s="92"/>
       <c r="O107" s="93" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="P107" s="93" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q107" s="100"/>
       <c r="R107" s="94">
@@ -14400,38 +14424,38 @@
       <c r="AQ107" s="46"/>
       <c r="AR107" s="11"/>
       <c r="AS107" s="11"/>
-      <c r="AT107" s="11"/>
-      <c r="AU107" s="7"/>
-      <c r="AV107" s="97"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="114"/>
       <c r="AW107" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B108" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="C108" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="E108" s="121"/>
-      <c r="F108" s="121"/>
-      <c r="G108" s="121"/>
-      <c r="H108" s="121"/>
-      <c r="I108" s="121"/>
-      <c r="J108" s="121"/>
-      <c r="K108" s="121"/>
-      <c r="L108" s="121"/>
-      <c r="M108" s="122"/>
+        <v>374</v>
+      </c>
+      <c r="C108" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="D108" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
+      <c r="G108" s="116"/>
+      <c r="H108" s="116"/>
+      <c r="I108" s="116"/>
+      <c r="J108" s="116"/>
+      <c r="K108" s="116"/>
+      <c r="L108" s="116"/>
+      <c r="M108" s="117"/>
       <c r="N108" s="92"/>
       <c r="O108" s="93" t="s">
-        <v>378</v>
+        <v>269</v>
       </c>
       <c r="P108" s="93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q108" s="100"/>
       <c r="R108" s="94">
@@ -14465,45 +14489,53 @@
       <c r="AR108" s="11"/>
       <c r="AS108" s="11"/>
       <c r="AT108" s="11"/>
-      <c r="AU108" s="11"/>
-      <c r="AV108" s="114"/>
-      <c r="AW108" s="105" t="s">
-        <v>469</v>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="97"/>
+      <c r="AW108" s="105">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B109" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C109" s="126" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="126"/>
-      <c r="E109" s="126"/>
-      <c r="F109" s="126"/>
-      <c r="G109" s="126"/>
-      <c r="H109" s="126"/>
-      <c r="I109" s="126"/>
-      <c r="J109" s="126"/>
-      <c r="K109" s="126"/>
-      <c r="L109" s="126"/>
-      <c r="M109" s="127"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="38"/>
-      <c r="R109" s="81"/>
-      <c r="S109" s="25"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="42"/>
-      <c r="V109" s="46"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
+      <c r="B109" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+      <c r="G109" s="116"/>
+      <c r="H109" s="116"/>
+      <c r="I109" s="116"/>
+      <c r="J109" s="116"/>
+      <c r="K109" s="116"/>
+      <c r="L109" s="116"/>
+      <c r="M109" s="117"/>
+      <c r="N109" s="92"/>
+      <c r="O109" s="93" t="s">
+        <v>378</v>
+      </c>
+      <c r="P109" s="93" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q109" s="100"/>
+      <c r="R109" s="94">
+        <v>1</v>
+      </c>
+      <c r="S109" s="27"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="45"/>
+      <c r="V109" s="49"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
       <c r="AA109" s="7"/>
       <c r="AB109" s="42"/>
-      <c r="AC109" s="46"/>
+      <c r="AC109" s="7"/>
       <c r="AD109" s="7"/>
       <c r="AE109" s="7"/>
       <c r="AF109" s="7"/>
@@ -14512,51 +14544,43 @@
       <c r="AI109" s="42"/>
       <c r="AJ109" s="46"/>
       <c r="AK109" s="7"/>
-      <c r="AL109" s="7"/>
-      <c r="AM109" s="7"/>
-      <c r="AN109" s="7"/>
-      <c r="AO109" s="7"/>
+      <c r="AL109" s="24"/>
+      <c r="AM109" s="24"/>
+      <c r="AN109" s="11"/>
+      <c r="AO109" s="11"/>
       <c r="AP109" s="42"/>
       <c r="AQ109" s="46"/>
-      <c r="AR109" s="7"/>
-      <c r="AS109" s="7"/>
-      <c r="AT109" s="7"/>
-      <c r="AU109" s="7"/>
+      <c r="AR109" s="11"/>
+      <c r="AS109" s="11"/>
+      <c r="AT109" s="11"/>
+      <c r="AU109" s="11"/>
       <c r="AV109" s="114"/>
-      <c r="AW109" s="105"/>
+      <c r="AW109" s="105" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="110" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B110" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D110" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="E110" s="116"/>
-      <c r="F110" s="116"/>
-      <c r="G110" s="116"/>
-      <c r="H110" s="116"/>
-      <c r="I110" s="116"/>
-      <c r="J110" s="116"/>
-      <c r="K110" s="116"/>
-      <c r="L110" s="116"/>
-      <c r="M110" s="117"/>
-      <c r="N110" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="O110" s="93" t="s">
-        <v>268</v>
-      </c>
-      <c r="P110" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q110" s="92"/>
-      <c r="R110" s="94">
-        <v>1</v>
-      </c>
+      <c r="B110" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="120"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="120"/>
+      <c r="G110" s="120"/>
+      <c r="H110" s="120"/>
+      <c r="I110" s="120"/>
+      <c r="J110" s="120"/>
+      <c r="K110" s="120"/>
+      <c r="L110" s="120"/>
+      <c r="M110" s="121"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="81"/>
       <c r="S110" s="25"/>
       <c r="T110" s="7"/>
       <c r="U110" s="42"/>
@@ -14582,43 +14606,45 @@
       <c r="AO110" s="7"/>
       <c r="AP110" s="42"/>
       <c r="AQ110" s="46"/>
-      <c r="AR110" s="8"/>
-      <c r="AS110" s="8"/>
-      <c r="AT110" s="8"/>
-      <c r="AU110" s="8"/>
-      <c r="AV110" s="96"/>
-      <c r="AW110" s="105">
-        <v>2</v>
-      </c>
+      <c r="AR110" s="7"/>
+      <c r="AS110" s="7"/>
+      <c r="AT110" s="7"/>
+      <c r="AU110" s="7"/>
+      <c r="AV110" s="114"/>
+      <c r="AW110" s="105"/>
     </row>
     <row r="111" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B111" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D111" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="E111" s="118"/>
-      <c r="F111" s="118"/>
-      <c r="G111" s="118"/>
-      <c r="H111" s="118"/>
-      <c r="I111" s="118"/>
-      <c r="J111" s="118"/>
-      <c r="K111" s="118"/>
-      <c r="L111" s="118"/>
-      <c r="M111" s="119"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="P111" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="80"/>
+      <c r="B111" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" s="122"/>
+      <c r="F111" s="122"/>
+      <c r="G111" s="122"/>
+      <c r="H111" s="122"/>
+      <c r="I111" s="122"/>
+      <c r="J111" s="122"/>
+      <c r="K111" s="122"/>
+      <c r="L111" s="122"/>
+      <c r="M111" s="123"/>
+      <c r="N111" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="O111" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="P111" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q111" s="92"/>
+      <c r="R111" s="94">
+        <v>1</v>
+      </c>
       <c r="S111" s="25"/>
       <c r="T111" s="7"/>
       <c r="U111" s="42"/>
@@ -14645,23 +14671,23 @@
       <c r="AP111" s="42"/>
       <c r="AQ111" s="46"/>
       <c r="AR111" s="8"/>
-      <c r="AS111" s="7"/>
-      <c r="AT111" s="7"/>
-      <c r="AU111" s="7"/>
-      <c r="AV111" s="114"/>
+      <c r="AS111" s="8"/>
+      <c r="AT111" s="8"/>
+      <c r="AU111" s="8"/>
+      <c r="AV111" s="96"/>
       <c r="AW111" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B112" s="91" t="s">
-        <v>132</v>
+      <c r="B112" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D112" s="118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E112" s="118"/>
       <c r="F112" s="118"/>
@@ -14674,7 +14700,7 @@
       <c r="M112" s="119"/>
       <c r="N112" s="15"/>
       <c r="O112" s="17" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="P112" s="17" t="s">
         <v>284</v>
@@ -14716,14 +14742,14 @@
       </c>
     </row>
     <row r="113" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B113" s="36" t="s">
-        <v>133</v>
+      <c r="B113" s="91" t="s">
+        <v>132</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D113" s="118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E113" s="118"/>
       <c r="F113" s="118"/>
@@ -14736,10 +14762,10 @@
       <c r="M113" s="119"/>
       <c r="N113" s="15"/>
       <c r="O113" s="17" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="P113" s="17" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q113" s="15"/>
       <c r="R113" s="80"/>
@@ -14768,24 +14794,24 @@
       <c r="AO113" s="7"/>
       <c r="AP113" s="42"/>
       <c r="AQ113" s="46"/>
-      <c r="AR113" s="7"/>
-      <c r="AS113" s="8"/>
-      <c r="AT113" s="8"/>
+      <c r="AR113" s="8"/>
+      <c r="AS113" s="7"/>
+      <c r="AT113" s="7"/>
       <c r="AU113" s="7"/>
       <c r="AV113" s="114"/>
       <c r="AW113" s="105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B114" s="91" t="s">
-        <v>134</v>
+      <c r="B114" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D114" s="118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E114" s="118"/>
       <c r="F114" s="118"/>
@@ -14798,10 +14824,10 @@
       <c r="M114" s="119"/>
       <c r="N114" s="15"/>
       <c r="O114" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="P114" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="P114" s="17" t="s">
-        <v>297</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="80"/>
@@ -14831,158 +14857,165 @@
       <c r="AP114" s="42"/>
       <c r="AQ114" s="46"/>
       <c r="AR114" s="7"/>
-      <c r="AS114" s="7"/>
+      <c r="AS114" s="8"/>
       <c r="AT114" s="8"/>
       <c r="AU114" s="7"/>
       <c r="AV114" s="114"/>
       <c r="AW114" s="105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="90" t="s">
+    <row r="115" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B115" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="E115" s="118"/>
+      <c r="F115" s="118"/>
+      <c r="G115" s="118"/>
+      <c r="H115" s="118"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="118"/>
+      <c r="K115" s="118"/>
+      <c r="L115" s="118"/>
+      <c r="M115" s="119"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="P115" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="80"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="42"/>
+      <c r="V115" s="46"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="42"/>
+      <c r="AC115" s="46"/>
+      <c r="AD115" s="7"/>
+      <c r="AE115" s="7"/>
+      <c r="AF115" s="7"/>
+      <c r="AG115" s="7"/>
+      <c r="AH115" s="7"/>
+      <c r="AI115" s="42"/>
+      <c r="AJ115" s="46"/>
+      <c r="AK115" s="7"/>
+      <c r="AL115" s="7"/>
+      <c r="AM115" s="7"/>
+      <c r="AN115" s="7"/>
+      <c r="AO115" s="7"/>
+      <c r="AP115" s="42"/>
+      <c r="AQ115" s="46"/>
+      <c r="AR115" s="7"/>
+      <c r="AS115" s="7"/>
+      <c r="AT115" s="8"/>
+      <c r="AU115" s="7"/>
+      <c r="AV115" s="114"/>
+      <c r="AW115" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="83" t="s">
+      <c r="C116" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="D115" s="145" t="s">
+      <c r="D116" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="E115" s="145"/>
-      <c r="F115" s="145"/>
-      <c r="G115" s="145"/>
-      <c r="H115" s="145"/>
-      <c r="I115" s="145"/>
-      <c r="J115" s="145"/>
-      <c r="K115" s="145"/>
-      <c r="L115" s="145"/>
-      <c r="M115" s="146"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="68" t="s">
+      <c r="E116" s="124"/>
+      <c r="F116" s="124"/>
+      <c r="G116" s="124"/>
+      <c r="H116" s="124"/>
+      <c r="I116" s="124"/>
+      <c r="J116" s="124"/>
+      <c r="K116" s="124"/>
+      <c r="L116" s="124"/>
+      <c r="M116" s="125"/>
+      <c r="N116" s="67"/>
+      <c r="O116" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P115" s="68" t="s">
+      <c r="P116" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="Q115" s="67"/>
-      <c r="R115" s="84"/>
-      <c r="S115" s="69"/>
-      <c r="T115" s="70"/>
-      <c r="U115" s="71"/>
-      <c r="V115" s="72"/>
-      <c r="W115" s="70"/>
-      <c r="X115" s="70"/>
-      <c r="Y115" s="70"/>
-      <c r="Z115" s="70"/>
-      <c r="AA115" s="70"/>
-      <c r="AB115" s="71"/>
-      <c r="AC115" s="72"/>
-      <c r="AD115" s="70"/>
-      <c r="AE115" s="70"/>
-      <c r="AF115" s="70"/>
-      <c r="AG115" s="70"/>
-      <c r="AH115" s="70"/>
-      <c r="AI115" s="71"/>
-      <c r="AJ115" s="72"/>
-      <c r="AK115" s="70"/>
-      <c r="AL115" s="70"/>
-      <c r="AM115" s="70"/>
-      <c r="AN115" s="70"/>
-      <c r="AO115" s="70"/>
-      <c r="AP115" s="71"/>
-      <c r="AQ115" s="72"/>
-      <c r="AR115" s="70"/>
-      <c r="AS115" s="70"/>
-      <c r="AT115" s="70"/>
-      <c r="AU115" s="98"/>
-      <c r="AV115" s="115"/>
-      <c r="AW115" s="106">
+      <c r="Q116" s="67"/>
+      <c r="R116" s="84"/>
+      <c r="S116" s="69"/>
+      <c r="T116" s="70"/>
+      <c r="U116" s="71"/>
+      <c r="V116" s="72"/>
+      <c r="W116" s="70"/>
+      <c r="X116" s="70"/>
+      <c r="Y116" s="70"/>
+      <c r="Z116" s="70"/>
+      <c r="AA116" s="70"/>
+      <c r="AB116" s="71"/>
+      <c r="AC116" s="72"/>
+      <c r="AD116" s="70"/>
+      <c r="AE116" s="70"/>
+      <c r="AF116" s="70"/>
+      <c r="AG116" s="70"/>
+      <c r="AH116" s="70"/>
+      <c r="AI116" s="71"/>
+      <c r="AJ116" s="72"/>
+      <c r="AK116" s="70"/>
+      <c r="AL116" s="70"/>
+      <c r="AM116" s="70"/>
+      <c r="AN116" s="70"/>
+      <c r="AO116" s="70"/>
+      <c r="AP116" s="71"/>
+      <c r="AQ116" s="72"/>
+      <c r="AR116" s="70"/>
+      <c r="AS116" s="70"/>
+      <c r="AT116" s="70"/>
+      <c r="AU116" s="98"/>
+      <c r="AV116" s="115"/>
+      <c r="AW116" s="106">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="124">
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D107:M107"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D109:M109"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="C100:M100"/>
+    <mergeCell ref="D101:M101"/>
     <mergeCell ref="D103:M103"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="C82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="C66:M66"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D101:M101"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D115:M115"/>
-    <mergeCell ref="C109:M109"/>
-    <mergeCell ref="D111:M111"/>
-    <mergeCell ref="D112:M112"/>
-    <mergeCell ref="D113:M113"/>
-    <mergeCell ref="D114:M114"/>
-    <mergeCell ref="D110:M110"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D90:M90"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="C106:M106"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D48:M48"/>
     <mergeCell ref="D41:M41"/>
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="D35:M35"/>
@@ -15002,36 +15035,92 @@
     <mergeCell ref="D52:M52"/>
     <mergeCell ref="D53:M53"/>
     <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D107:M107"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="C99:M99"/>
-    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D116:M116"/>
+    <mergeCell ref="C110:M110"/>
+    <mergeCell ref="D112:M112"/>
+    <mergeCell ref="D113:M113"/>
+    <mergeCell ref="D114:M114"/>
+    <mergeCell ref="D115:M115"/>
+    <mergeCell ref="D111:M111"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="C83:M83"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="C66:M66"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D77:M77"/>
     <mergeCell ref="D102:M102"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D48:M48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19 B30 P26:P29 B55 B82 B109 B7 O35 O41:O47 O62 O64:O65 O68:O70 O84:O87 O110:P115 O91:O94 P11:P15 O14:O15 B99 B105 P31:P47 P83:P94 P57:P60 P67:P72 O16:P18 O29 O48:P53 O72 O80:P81 O95:P95 O102:P103 O106:P108 P61:P65 O73:P74 O100:P100 O75:P75 O54:P54 O58:O60 O76:P79 O96:P98 O101:P101" numberStoredAsText="1"/>
+    <ignoredError sqref="B19 B30 P26:P29 B55 B83 B110 B7 O35 O41:O47 O62 O64:O65 O68:O70 O85:O88 O111:P116 O92:O95 P11:P15 O14:O15 B100 B106 P31:P47 P84:P95 P67:P72 O16:P18 O29 O72 O107:P109 P57:P65 O48:P54 O58:O60 O80:P82 O96:P99 O101:P104 O73:P79" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="485">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -701,11 +701,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 따라 이동</t>
+    <t>미니맵 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 완주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>선물 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 연출 리스트(1차 프로토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 이벤트 기획(1차 프로토)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -713,15 +747,567 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>VPS 연출용 에셋 확보(1차 프로토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미니맵 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니맵 구현</t>
+    <t>임시 인벤토리 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 획득, 인벤토리에 넣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 버리기, 선물 하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물에 따라 호감도 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 프로토 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용(선물, 특별 이벤트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 볼륨 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1챕터 전체 스토리 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1챕터 전체 스테이지 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터 별 필요 호감도 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 모드 전체 UI 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 시스템 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 기업미팅 보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>3차 기업 미팅 보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차 기업 미팅 보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR앱 초기 시작시 Camera 포지셔닝 방법 연구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>스마트폰 터치 레이캐스트 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>최재연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firebase R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글맵스 API를 이용한 건물 렌더링 기법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS데이터 활용. AR카메라와 맵의 회전각 보정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR 캐릭터 건물 출돌 판별 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressable 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occlusion culling 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleMap API 건물 렌더링 기능 + Occlusion 기능 결합 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 프로토 Gantt 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS 모듈 로직 수정 및 리팩토링, 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>3-15</t>
+  </si>
+  <si>
+    <t>3-16</t>
+  </si>
+  <si>
+    <t>3-17</t>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>3-19</t>
+  </si>
+  <si>
+    <t>10.20.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 리소스 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 UI 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 QA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정률</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -729,25 +1315,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1스테이지 완주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>선물 시스템 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 연출 리스트(1차 프로토)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별 이벤트 기획(1차 프로토)</t>
+    <t>비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 데이트 시나리오</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -755,31 +1327,144 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VPS 연출용 에셋 확보(1차 프로토)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1스테이지 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10</t>
   </si>
   <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>임시 인벤토리 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>AR공간내 오브젝트 가시거리 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
   </si>
   <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선물 획득, 인벤토리에 넣기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>기업미팅 대비 질문 리스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
   </si>
   <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선물 버리기, 선물 하기</t>
+    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMesh 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 TC 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -787,15 +1472,120 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선물에 따라 호감도 변화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 프로토 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용(선물, 특별 이벤트)</t>
+    <t>북쪽 방향 오차 줄이기 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-23</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 리팩토링, 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-16</t>
+  </si>
+  <si>
+    <t>최재연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토 기술 회의 및 피드백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 프로젝트 레포지토리 개설 및 프로젝트 파일 설정 후 배포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 관련 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-12</t>
+  </si>
+  <si>
+    <t>건물을 피해 선물이 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-17</t>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ 사운드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -803,31 +1593,113 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전체 볼륨 확정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1챕터 전체 스토리 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1챕터 전체 스테이지 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터 별 필요 호감도 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 모드 전체 UI 기획</t>
+    <t>1차 프로토 사운드 리스트 작성/ 리소스 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-24</t>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 리소스 애니메이션 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비메시의 이동경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-13</t>
+  </si>
+  <si>
+    <t>북쪽 방향 찾기 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 맵스 API에 MAPBOX API 추가 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 UI 매니저 및 스크립트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -835,15 +1707,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호감도 시스템 기획</t>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션 R&amp;D, 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 회전 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>지정 타이밍에 VPS연출 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 보행 중 캐릭터 위치선정 로직(스크립트) 작성 및 모듈화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 이탈 및 탐색 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-16</t>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오 매니저 선 구현/개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS이펙트 사전 구현 및 AR환경 테스트 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -851,123 +1862,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 기업미팅 보고서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>3차 기업 미팅 보고서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4차 기업 미팅 보고서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR앱 초기 시작시 Camera 포지셔닝 방법 연구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>스마트폰 터치 레이캐스트 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firebase R&amp;D</t>
+    <t>10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 기본상태 위치 지정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -975,887 +1882,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글맵스 API를 이용한 건물 렌더링 기법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS데이터 활용. AR카메라와 맵의 회전각 보정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR 캐릭터 건물 출돌 판별 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressable 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Occlusion culling 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleMap API 건물 렌더링 기능 + Occlusion 기능 결합 시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 프로토 Gantt 확정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS 모듈 로직 수정 및 리팩토링, 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-12</t>
-  </si>
-  <si>
-    <t>3-13</t>
-  </si>
-  <si>
-    <t>3-14</t>
-  </si>
-  <si>
-    <t>3-15</t>
-  </si>
-  <si>
-    <t>3-16</t>
-  </si>
-  <si>
-    <t>3-17</t>
-  </si>
-  <si>
-    <t>3-18</t>
-  </si>
-  <si>
-    <t>3-19</t>
-  </si>
-  <si>
-    <t>10.20.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 리소스 확보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-13</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로토타입 UI 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 및 UI 상호작용 스크립트 리팩토링 및 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 데이트 시나리오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 시스템 기획서에 맞게 인벤토리 구현사항 리팩토링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-14</t>
-  </si>
-  <si>
-    <t>AR공간내 오브젝트 가시거리 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google Map API 테스트앱에 각자 테스트 및 결과물 결합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-21</t>
-  </si>
-  <si>
-    <t>기업미팅 대비 질문 리스트 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoogleMap API 렌더링 맵에서의 NavMesh Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NavMesh 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-22</t>
-  </si>
-  <si>
-    <t>6-15</t>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 TC 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북쪽 방향 오차 줄이기 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-23</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 리팩토링, 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-16</t>
-  </si>
-  <si>
-    <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 기술 회의 및 피드백</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 프로젝트 레포지토리 개설 및 프로젝트 파일 설정 후 배포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-11</t>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-11</t>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니맵 관련 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-12</t>
-  </si>
-  <si>
-    <t>건물을 피해 선물이 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-17</t>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ 사운드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토 사운드 리스트 작성/ 리소스 확보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-24</t>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 리소스 애니메이션 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네비메시의 이동경로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-13</t>
-  </si>
-  <si>
-    <t>북쪽 방향 찾기 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 맵스 API에 MAPBOX API 추가 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 UI 매니저 및 스크립트 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최재연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 애니메이션 R&amp;D, 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니맵 회전 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-14</t>
-  </si>
-  <si>
-    <t>5-15</t>
-  </si>
-  <si>
-    <t>지정 타이밍에 VPS연출 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 보행 중 캐릭터 위치선정 로직(스크립트) 작성 및 모듈화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경로 이탈 및 탐색 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-16</t>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2404,7 +2431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,9 +2720,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2712,9 +2736,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2753,22 +2774,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,17 +2786,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2799,12 +2820,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2834,16 +2849,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -6904,13 +6925,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>138794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7028,13 +7049,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>18768</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>78966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7090,13 +7111,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>7882</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>95294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>149680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7152,13 +7173,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>266416</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>81687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7170,6 +7191,254 @@
         <a:xfrm>
           <a:off x="16499737" y="19920901"/>
           <a:ext cx="305083" cy="54386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38895</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>77726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>17609</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>132069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="직사각형 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16544359" y="15834797"/>
+          <a:ext cx="250857" cy="54343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>7516</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>62358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="직사각형 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15968695" y="14594787"/>
+          <a:ext cx="1325983" cy="60105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>255530</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>98016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>16327</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="직사각형 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17033137" y="21365980"/>
+          <a:ext cx="305083" cy="54386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>260608</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>143454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="직사각형 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16221787" y="12793199"/>
+          <a:ext cx="623856" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7476,11 +7745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA116"/>
+  <dimension ref="B1:BA117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7538,14 +7807,14 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="143" t="s">
-        <v>342</v>
-      </c>
-      <c r="AZ2" s="143" t="s">
-        <v>340</v>
-      </c>
-      <c r="BA2" s="143" t="s">
-        <v>341</v>
+      <c r="AY2" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ2" s="118" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA2" s="118" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.3">
@@ -7562,114 +7831,114 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="143"/>
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="118"/>
+      <c r="BA3" s="118"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AY4" s="107">
-        <f>SUM(AW7:AW116)</f>
+      <c r="AY4" s="105">
+        <f>SUM(AW7:AW117)</f>
         <v>163</v>
       </c>
-      <c r="AZ4" s="107">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW56+AW57+AW67+AW68+AW71+AW74+AW89+AW91+AW92+AW81+AW84+AW48+AW88+AW87+AW85+AW86+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW94+AW37+AW41+AW69+AW70+AW90+AW93+AW16+AW101+AW97+AW98+AW99</f>
-        <v>107</v>
-      </c>
-      <c r="BA4" s="107">
+      <c r="AZ4" s="105">
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW20+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW31+AW32+AW33+AW34+AW35+AW39+AW40+AW43+AW45+AW46+AW47+AW49+AW56+AW57+AW67+AW68+AW71+AW74+AW89+AW91+AW92+AW81+AW84+AW48+AW88+AW87+AW85+AW86+AW15+AW50+AW53+AW52+AW29+AW44+AW18+AW36+AW38+AW94+AW37+AW41+AW69+AW70+AW90+AW93+AW16+AW102+AW98+AW99+AW100+AW78+AW77+AW72+AW106+AW63</f>
+        <v>114</v>
+      </c>
+      <c r="BA4" s="105">
         <f>AZ4/AY4*100</f>
-        <v>65.644171779141104</v>
+        <v>69.938650306748457</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128" t="s">
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="137" t="s">
+      <c r="O5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="137" t="s">
+      <c r="P5" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="128" t="s">
+      <c r="Q5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="139" t="s">
+      <c r="R5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="136" t="s">
+      <c r="S5" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134" t="s">
+      <c r="T5" s="130"/>
+      <c r="U5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="144" t="s">
-        <v>343</v>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="131"/>
+      <c r="AW5" s="121" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="136"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -7760,25 +8029,25 @@
       <c r="AV6" s="94">
         <v>28</v>
       </c>
-      <c r="AW6" s="145"/>
+      <c r="AW6" s="122"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="142"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -7813,8 +8082,8 @@
       <c r="AS7" s="58"/>
       <c r="AT7" s="58"/>
       <c r="AU7" s="58"/>
-      <c r="AV7" s="113"/>
-      <c r="AW7" s="104"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="102"/>
     </row>
     <row r="8" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
@@ -7823,18 +8092,18 @@
       <c r="C8" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="131"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="129"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -7880,7 +8149,7 @@
       <c r="AT8" s="53"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="94"/>
-      <c r="AW8" s="105">
+      <c r="AW8" s="103">
         <v>1</v>
       </c>
     </row>
@@ -7891,18 +8160,18 @@
       <c r="C9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="131"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -7948,29 +8217,29 @@
       <c r="AT9" s="53"/>
       <c r="AU9" s="53"/>
       <c r="AV9" s="94"/>
-      <c r="AW9" s="105">
+      <c r="AW9" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="131"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -8016,29 +8285,29 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="94"/>
-      <c r="AW10" s="105">
+      <c r="AW10" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="131"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="50" t="s">
         <v>89</v>
       </c>
@@ -8063,9 +8332,9 @@
       <c r="Y11" s="53"/>
       <c r="Z11" s="53"/>
       <c r="AA11" s="54"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
       <c r="AE11" s="54"/>
       <c r="AF11" s="53"/>
       <c r="AG11" s="53"/>
@@ -8084,37 +8353,37 @@
       <c r="AT11" s="53"/>
       <c r="AU11" s="53"/>
       <c r="AV11" s="94"/>
-      <c r="AW11" s="105">
+      <c r="AW11" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="131"/>
+        <v>189</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O12" s="51">
         <v>10.130000000000001</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="52">
         <v>1</v>
@@ -8152,29 +8421,29 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
       <c r="AV12" s="94"/>
-      <c r="AW12" s="105">
+      <c r="AW12" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C13" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="131"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="50" t="s">
         <v>148</v>
       </c>
@@ -8220,37 +8489,37 @@
       <c r="AT13" s="53"/>
       <c r="AU13" s="53"/>
       <c r="AV13" s="94"/>
-      <c r="AW13" s="105">
+      <c r="AW13" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="D14" s="130" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
+        <v>313</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="52">
         <v>1</v>
@@ -8288,37 +8557,37 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
       <c r="AV14" s="94"/>
-      <c r="AW14" s="105">
+      <c r="AW14" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>351</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>364</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="131"/>
+        <v>345</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="50" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q15" s="52">
         <v>1</v>
@@ -8356,37 +8625,37 @@
       <c r="AT15" s="53"/>
       <c r="AU15" s="53"/>
       <c r="AV15" s="94"/>
-      <c r="AW15" s="105">
+      <c r="AW15" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="51" t="s">
         <v>224</v>
-      </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="O16" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>226</v>
       </c>
       <c r="Q16" s="52">
         <v>1</v>
@@ -8424,37 +8693,37 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="53"/>
       <c r="AV16" s="94"/>
-      <c r="AW16" s="105">
+      <c r="AW16" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
+        <v>227</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="O17" s="51" t="s">
-        <v>235</v>
-      </c>
       <c r="P17" s="51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="52"/>
       <c r="R17" s="77">
@@ -8489,37 +8758,37 @@
       <c r="AT17" s="53"/>
       <c r="AU17" s="6"/>
       <c r="AV17" s="94"/>
-      <c r="AW17" s="105">
+      <c r="AW17" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C18" s="86" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="128" t="s">
+        <v>392</v>
+      </c>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="130" t="s">
-        <v>402</v>
-      </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="50" t="s">
-        <v>403</v>
-      </c>
       <c r="O18" s="51" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="52">
         <v>1</v>
@@ -8556,7 +8825,7 @@
       <c r="AT18" s="53"/>
       <c r="AU18" s="53"/>
       <c r="AV18" s="94"/>
-      <c r="AW18" s="105">
+      <c r="AW18" s="103">
         <v>2</v>
       </c>
     </row>
@@ -8564,19 +8833,19 @@
       <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="125"/>
       <c r="N19" s="13"/>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
@@ -8611,8 +8880,8 @@
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="105"/>
+      <c r="AV19" s="112"/>
+      <c r="AW19" s="103"/>
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
@@ -8621,18 +8890,18 @@
       <c r="C20" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="142"/>
       <c r="N20" s="14" t="s">
         <v>10</v>
       </c>
@@ -8677,8 +8946,8 @@
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
-      <c r="AV20" s="114"/>
-      <c r="AW20" s="105">
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="103">
         <v>4</v>
       </c>
     </row>
@@ -8689,18 +8958,18 @@
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="119"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
       <c r="N21" s="15" t="s">
         <v>32</v>
       </c>
@@ -8745,8 +9014,8 @@
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="105">
+      <c r="AV21" s="112"/>
+      <c r="AW21" s="103">
         <v>2</v>
       </c>
     </row>
@@ -8757,18 +9026,18 @@
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
       <c r="N22" s="15" t="s">
         <v>33</v>
       </c>
@@ -8813,8 +9082,8 @@
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
-      <c r="AV22" s="114"/>
-      <c r="AW22" s="105">
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="103">
         <v>2</v>
       </c>
     </row>
@@ -8825,18 +9094,18 @@
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="119"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
       <c r="N23" s="15" t="s">
         <v>34</v>
       </c>
@@ -8881,8 +9150,8 @@
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="105">
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="103">
         <v>1</v>
       </c>
     </row>
@@ -8893,18 +9162,18 @@
       <c r="C24" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="119"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
       <c r="N24" s="15" t="s">
         <v>35</v>
       </c>
@@ -8949,8 +9218,8 @@
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="105">
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="103">
         <v>1</v>
       </c>
     </row>
@@ -8961,18 +9230,18 @@
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="119"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
       <c r="N25" s="15" t="s">
         <v>37</v>
       </c>
@@ -9017,8 +9286,8 @@
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
-      <c r="AV25" s="114"/>
-      <c r="AW25" s="105">
+      <c r="AV25" s="112"/>
+      <c r="AW25" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9029,18 +9298,18 @@
       <c r="C26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="119"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
       <c r="N26" s="15" t="s">
         <v>83</v>
       </c>
@@ -9085,8 +9354,8 @@
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
-      <c r="AV26" s="114"/>
-      <c r="AW26" s="105">
+      <c r="AV26" s="112"/>
+      <c r="AW26" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9097,18 +9366,18 @@
       <c r="C27" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="15" t="s">
         <v>138</v>
       </c>
@@ -9153,8 +9422,8 @@
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="105">
+      <c r="AV27" s="112"/>
+      <c r="AW27" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9165,18 +9434,18 @@
       <c r="C28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="119"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
       <c r="N28" s="15" t="s">
         <v>152</v>
       </c>
@@ -9221,38 +9490,38 @@
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
-      <c r="AV28" s="114"/>
-      <c r="AW28" s="105">
+      <c r="AV28" s="112"/>
+      <c r="AW28" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="D29" s="118" t="s">
-        <v>398</v>
-      </c>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
+        <v>383</v>
+      </c>
+      <c r="D29" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
       <c r="N29" s="15" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="19">
         <v>1</v>
@@ -9289,8 +9558,8 @@
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
-      <c r="AV29" s="114"/>
-      <c r="AW29" s="105">
+      <c r="AV29" s="112"/>
+      <c r="AW29" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9298,19 +9567,19 @@
       <c r="B30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="121"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="125"/>
       <c r="N30" s="13"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
@@ -9345,8 +9614,8 @@
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
-      <c r="AV30" s="114"/>
-      <c r="AW30" s="105"/>
+      <c r="AV30" s="112"/>
+      <c r="AW30" s="103"/>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
@@ -9355,18 +9624,18 @@
       <c r="C31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="119"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
       <c r="N31" s="15" t="s">
         <v>10</v>
       </c>
@@ -9411,8 +9680,8 @@
       <c r="AS31" s="7"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
-      <c r="AV31" s="114"/>
-      <c r="AW31" s="105">
+      <c r="AV31" s="112"/>
+      <c r="AW31" s="103">
         <v>7</v>
       </c>
     </row>
@@ -9423,18 +9692,18 @@
       <c r="C32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="119"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
       <c r="N32" s="15" t="s">
         <v>66</v>
       </c>
@@ -9479,8 +9748,8 @@
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
-      <c r="AV32" s="114"/>
-      <c r="AW32" s="105">
+      <c r="AV32" s="112"/>
+      <c r="AW32" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9491,18 +9760,18 @@
       <c r="C33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="119"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="115"/>
       <c r="N33" s="15" t="s">
         <v>10</v>
       </c>
@@ -9547,8 +9816,8 @@
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="105">
+      <c r="AV33" s="112"/>
+      <c r="AW33" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9559,18 +9828,18 @@
       <c r="C34" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
       <c r="N34" s="15" t="s">
         <v>94</v>
       </c>
@@ -9615,8 +9884,8 @@
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="105">
+      <c r="AV34" s="112"/>
+      <c r="AW34" s="103">
         <v>2</v>
       </c>
     </row>
@@ -9625,28 +9894,28 @@
         <v>96</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="118" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="119"/>
+        <v>193</v>
+      </c>
+      <c r="D35" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="115"/>
       <c r="N35" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="19">
         <v>1</v>
@@ -9683,8 +9952,8 @@
       <c r="AS35" s="7"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="105">
+      <c r="AV35" s="112"/>
+      <c r="AW35" s="103">
         <v>1</v>
       </c>
     </row>
@@ -9695,18 +9964,18 @@
       <c r="C36" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="118" t="s">
+      <c r="D36" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="119"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="115"/>
       <c r="N36" s="15" t="s">
         <v>98</v>
       </c>
@@ -9751,8 +10020,8 @@
       <c r="AS36" s="7"/>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
-      <c r="AV36" s="114"/>
-      <c r="AW36" s="105">
+      <c r="AV36" s="112"/>
+      <c r="AW36" s="103">
         <v>2</v>
       </c>
     </row>
@@ -9763,18 +10032,18 @@
       <c r="C37" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="118" t="s">
+      <c r="D37" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="119"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="115"/>
       <c r="N37" s="15" t="s">
         <v>103</v>
       </c>
@@ -9819,8 +10088,8 @@
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
-      <c r="AV37" s="114"/>
-      <c r="AW37" s="105">
+      <c r="AV37" s="112"/>
+      <c r="AW37" s="103">
         <v>3</v>
       </c>
     </row>
@@ -9831,18 +10100,18 @@
       <c r="C38" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="118" t="s">
+      <c r="D38" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="119"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="115"/>
       <c r="N38" s="15" t="s">
         <v>108</v>
       </c>
@@ -9887,8 +10156,8 @@
       <c r="AS38" s="7"/>
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
-      <c r="AV38" s="114"/>
-      <c r="AW38" s="105">
+      <c r="AV38" s="112"/>
+      <c r="AW38" s="103">
         <v>2</v>
       </c>
     </row>
@@ -9899,18 +10168,18 @@
       <c r="C39" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="118" t="s">
+      <c r="D39" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="119"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="115"/>
       <c r="N39" s="15" t="s">
         <v>142</v>
       </c>
@@ -9955,30 +10224,30 @@
       <c r="AS39" s="7"/>
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
-      <c r="AV39" s="114"/>
-      <c r="AW39" s="105">
+      <c r="AV39" s="112"/>
+      <c r="AW39" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C40" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="119"/>
+      <c r="D40" s="114" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="115"/>
       <c r="N40" s="15" t="s">
         <v>145</v>
       </c>
@@ -10023,38 +10292,38 @@
       <c r="AS40" s="7"/>
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
-      <c r="AV40" s="114"/>
-      <c r="AW40" s="105">
+      <c r="AV40" s="112"/>
+      <c r="AW40" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C41" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="115"/>
+      <c r="N41" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="O41" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="O41" s="17" t="s">
-        <v>249</v>
-      </c>
       <c r="P41" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="19">
         <v>1</v>
@@ -10091,38 +10360,38 @@
       <c r="AS41" s="7"/>
       <c r="AT41" s="7"/>
       <c r="AU41" s="7"/>
-      <c r="AV41" s="114"/>
-      <c r="AW41" s="105">
+      <c r="AV41" s="112"/>
+      <c r="AW41" s="103">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="118" t="s">
-        <v>261</v>
-      </c>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="119"/>
+        <v>191</v>
+      </c>
+      <c r="D42" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="115"/>
       <c r="N42" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="80">
@@ -10157,38 +10426,38 @@
       <c r="AS42" s="7"/>
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
-      <c r="AV42" s="114"/>
-      <c r="AW42" s="105">
+      <c r="AV42" s="112"/>
+      <c r="AW42" s="103">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="O43" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q43" s="19">
         <v>1</v>
@@ -10225,38 +10494,38 @@
       <c r="AS43" s="7"/>
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
-      <c r="AV43" s="114"/>
-      <c r="AW43" s="105">
+      <c r="AV43" s="112"/>
+      <c r="AW43" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="119"/>
+        <v>193</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="115"/>
       <c r="N44" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="19">
         <v>1</v>
@@ -10293,38 +10562,38 @@
       <c r="AS44" s="7"/>
       <c r="AT44" s="7"/>
       <c r="AU44" s="7"/>
-      <c r="AV44" s="114"/>
-      <c r="AW44" s="105">
+      <c r="AV44" s="112"/>
+      <c r="AW44" s="103">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="P45" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="P45" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="Q45" s="19">
         <v>1</v>
@@ -10361,38 +10630,38 @@
       <c r="AS45" s="7"/>
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
-      <c r="AV45" s="114"/>
-      <c r="AW45" s="105">
+      <c r="AV45" s="112"/>
+      <c r="AW45" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="O46" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="P46" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q46" s="19">
         <v>1</v>
@@ -10429,35 +10698,35 @@
       <c r="AS46" s="7"/>
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
-      <c r="AV46" s="114"/>
-      <c r="AW46" s="105">
+      <c r="AV46" s="112"/>
+      <c r="AW46" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B47" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="118" t="s">
-        <v>256</v>
-      </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="119"/>
+        <v>193</v>
+      </c>
+      <c r="D47" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="115"/>
       <c r="N47" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P47" s="17" t="s">
         <v>149</v>
@@ -10497,38 +10766,38 @@
       <c r="AS47" s="7"/>
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
-      <c r="AV47" s="114"/>
-      <c r="AW47" s="105">
+      <c r="AV47" s="112"/>
+      <c r="AW47" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="118" t="s">
-        <v>368</v>
-      </c>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="119"/>
+        <v>191</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>362</v>
+      </c>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="115"/>
       <c r="N48" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q48" s="19">
         <v>1</v>
@@ -10565,38 +10834,38 @@
       <c r="AS48" s="7"/>
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
-      <c r="AV48" s="114"/>
-      <c r="AW48" s="105">
+      <c r="AV48" s="112"/>
+      <c r="AW48" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" s="118" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="119"/>
+        <v>193</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="115"/>
       <c r="N49" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q49" s="19">
         <v>1</v>
@@ -10632,38 +10901,38 @@
       <c r="AS49" s="7"/>
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
-      <c r="AV49" s="114"/>
-      <c r="AW49" s="105">
+      <c r="AV49" s="112"/>
+      <c r="AW49" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C50" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="115"/>
+      <c r="N50" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="O50" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P50" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="O50" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="P50" s="17" t="s">
-        <v>362</v>
       </c>
       <c r="Q50" s="19">
         <v>1</v>
@@ -10699,41 +10968,41 @@
       <c r="AS50" s="7"/>
       <c r="AT50" s="7"/>
       <c r="AU50" s="7"/>
-      <c r="AV50" s="114"/>
-      <c r="AW50" s="105">
+      <c r="AV50" s="112"/>
+      <c r="AW50" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="D51" s="118" t="s">
-        <v>360</v>
-      </c>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="119"/>
+        <v>353</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="115"/>
       <c r="N51" s="15" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q51" s="19" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="R51" s="80">
         <v>1</v>
@@ -10766,38 +11035,38 @@
       <c r="AS51" s="7"/>
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
-      <c r="AV51" s="114"/>
-      <c r="AW51" s="105">
+      <c r="AV51" s="112"/>
+      <c r="AW51" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>367</v>
-      </c>
-      <c r="D52" s="118" t="s">
-        <v>369</v>
-      </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="119"/>
+        <v>361</v>
+      </c>
+      <c r="D52" s="114" t="s">
+        <v>363</v>
+      </c>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="115"/>
       <c r="N52" s="15" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q52" s="19">
         <v>1</v>
@@ -10833,38 +11102,38 @@
       <c r="AS52" s="7"/>
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
-      <c r="AV52" s="114"/>
-      <c r="AW52" s="105">
+      <c r="AV52" s="112"/>
+      <c r="AW52" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="D53" s="118" t="s">
-        <v>388</v>
-      </c>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="119"/>
+        <v>377</v>
+      </c>
+      <c r="D53" s="114" t="s">
+        <v>378</v>
+      </c>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="115"/>
       <c r="N53" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Q53" s="19">
         <v>1</v>
@@ -10900,38 +11169,38 @@
       <c r="AS53" s="7"/>
       <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
-      <c r="AV53" s="114"/>
-      <c r="AW53" s="105">
+      <c r="AV53" s="112"/>
+      <c r="AW53" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="C54" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="D54" s="118" t="s">
-        <v>439</v>
-      </c>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="119"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="115"/>
       <c r="N54" s="15" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="Q54" s="19"/>
       <c r="R54" s="80">
@@ -10965,8 +11234,8 @@
       <c r="AS54" s="7"/>
       <c r="AT54" s="7"/>
       <c r="AU54" s="7"/>
-      <c r="AV54" s="114"/>
-      <c r="AW54" s="105">
+      <c r="AV54" s="112"/>
+      <c r="AW54" s="103">
         <v>2</v>
       </c>
     </row>
@@ -10974,19 +11243,19 @@
       <c r="B55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="121"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="125"/>
       <c r="N55" s="38"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
@@ -11021,8 +11290,8 @@
       <c r="AS55" s="7"/>
       <c r="AT55" s="7"/>
       <c r="AU55" s="7"/>
-      <c r="AV55" s="114"/>
-      <c r="AW55" s="105"/>
+      <c r="AV55" s="112"/>
+      <c r="AW55" s="103"/>
     </row>
     <row r="56" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B56" s="36" t="s">
@@ -11031,18 +11300,18 @@
       <c r="C56" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D56" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="123"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="117"/>
       <c r="N56" s="39" t="s">
         <v>64</v>
       </c>
@@ -11087,8 +11356,8 @@
       <c r="AS56" s="7"/>
       <c r="AT56" s="7"/>
       <c r="AU56" s="7"/>
-      <c r="AV56" s="114"/>
-      <c r="AW56" s="105">
+      <c r="AV56" s="112"/>
+      <c r="AW56" s="103">
         <v>2</v>
       </c>
     </row>
@@ -11099,18 +11368,18 @@
       <c r="C57" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="122" t="s">
+      <c r="D57" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="123"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="117"/>
       <c r="N57" s="39" t="s">
         <v>166</v>
       </c>
@@ -11155,8 +11424,8 @@
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
-      <c r="AV57" s="114"/>
-      <c r="AW57" s="105">
+      <c r="AV57" s="112"/>
+      <c r="AW57" s="103">
         <v>2</v>
       </c>
     </row>
@@ -11165,28 +11434,28 @@
         <v>126</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>300</v>
-      </c>
-      <c r="D58" s="122" t="s">
-        <v>301</v>
-      </c>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="123"/>
+        <v>296</v>
+      </c>
+      <c r="D58" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="117"/>
       <c r="N58" s="39" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O58" s="56" t="s">
         <v>162</v>
       </c>
       <c r="P58" s="56" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="Q58" s="75"/>
       <c r="R58" s="82">
@@ -11220,8 +11489,8 @@
       <c r="AS58" s="8"/>
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
-      <c r="AV58" s="114"/>
-      <c r="AW58" s="105">
+      <c r="AV58" s="112"/>
+      <c r="AW58" s="103">
         <v>1</v>
       </c>
     </row>
@@ -11229,31 +11498,33 @@
       <c r="B59" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="112" t="s">
-        <v>428</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>431</v>
-      </c>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
-      <c r="M59" s="123"/>
+      <c r="C59" s="110" t="s">
+        <v>418</v>
+      </c>
+      <c r="D59" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="117"/>
       <c r="N59" s="39" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="O59" s="56" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P59" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q59" s="75"/>
+        <v>448</v>
+      </c>
+      <c r="Q59" s="75" t="s">
+        <v>476</v>
+      </c>
       <c r="R59" s="82">
         <v>2</v>
       </c>
@@ -11285,8 +11556,8 @@
       <c r="AS59" s="11"/>
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
-      <c r="AV59" s="114"/>
-      <c r="AW59" s="105">
+      <c r="AV59" s="112"/>
+      <c r="AW59" s="103">
         <v>2</v>
       </c>
     </row>
@@ -11294,31 +11565,33 @@
       <c r="B60" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="112" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="122" t="s">
-        <v>454</v>
-      </c>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="123"/>
+      <c r="C60" s="110" t="s">
+        <v>442</v>
+      </c>
+      <c r="D60" s="116" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="117"/>
       <c r="N60" s="39" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="O60" s="56" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P60" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q60" s="75"/>
+        <v>445</v>
+      </c>
+      <c r="Q60" s="75" t="s">
+        <v>477</v>
+      </c>
       <c r="R60" s="82">
         <v>2</v>
       </c>
@@ -11350,8 +11623,8 @@
       <c r="AS60" s="11"/>
       <c r="AT60" s="11"/>
       <c r="AU60" s="7"/>
-      <c r="AV60" s="114"/>
-      <c r="AW60" s="105">
+      <c r="AV60" s="112"/>
+      <c r="AW60" s="103">
         <v>1</v>
       </c>
     </row>
@@ -11362,18 +11635,18 @@
       <c r="C61" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="118" t="s">
+      <c r="D61" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="119"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="115"/>
       <c r="N61" s="15" t="s">
         <v>103</v>
       </c>
@@ -11384,7 +11657,7 @@
         <v>99</v>
       </c>
       <c r="Q61" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R61" s="80">
         <v>1</v>
@@ -11418,8 +11691,8 @@
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
-      <c r="AV61" s="114"/>
-      <c r="AW61" s="105">
+      <c r="AV61" s="112"/>
+      <c r="AW61" s="103">
         <v>1</v>
       </c>
     </row>
@@ -11430,23 +11703,23 @@
       <c r="C62" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="118" t="s">
+      <c r="D62" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="119"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="115"/>
       <c r="N62" s="15" t="s">
         <v>75</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P62" s="17" t="s">
         <v>73</v>
@@ -11484,8 +11757,8 @@
       <c r="AS62" s="7"/>
       <c r="AT62" s="7"/>
       <c r="AU62" s="7"/>
-      <c r="AV62" s="114"/>
-      <c r="AW62" s="105">
+      <c r="AV62" s="112"/>
+      <c r="AW62" s="103">
         <v>2</v>
       </c>
     </row>
@@ -11496,26 +11769,30 @@
       <c r="C63" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="118" t="s">
+      <c r="D63" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="119"/>
-      <c r="N63" s="15"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="115"/>
+      <c r="N63" s="15" t="s">
+        <v>467</v>
+      </c>
       <c r="O63" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q63" s="19"/>
+        <v>280</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>1</v>
+      </c>
       <c r="R63" s="80">
         <v>1</v>
       </c>
@@ -11548,36 +11825,36 @@
       <c r="AS63" s="11"/>
       <c r="AT63" s="11"/>
       <c r="AU63" s="7"/>
-      <c r="AV63" s="114"/>
-      <c r="AW63" s="105">
+      <c r="AV63" s="112"/>
+      <c r="AW63" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C64" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="118" t="s">
+      <c r="D64" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="119"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="115"/>
       <c r="N64" s="15"/>
       <c r="O64" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q64" s="19"/>
       <c r="R64" s="80">
@@ -11612,36 +11889,36 @@
       <c r="AS64" s="9"/>
       <c r="AT64" s="11"/>
       <c r="AU64" s="7"/>
-      <c r="AV64" s="114"/>
-      <c r="AW64" s="105">
+      <c r="AV64" s="112"/>
+      <c r="AW64" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C65" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="118" t="s">
+      <c r="D65" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="119"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="115"/>
       <c r="N65" s="15"/>
       <c r="O65" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="80">
@@ -11676,8 +11953,8 @@
       <c r="AS65" s="9"/>
       <c r="AT65" s="11"/>
       <c r="AU65" s="7"/>
-      <c r="AV65" s="114"/>
-      <c r="AW65" s="105">
+      <c r="AV65" s="112"/>
+      <c r="AW65" s="103">
         <v>2</v>
       </c>
     </row>
@@ -11685,19 +11962,19 @@
       <c r="B66" s="37">
         <v>5</v>
       </c>
-      <c r="C66" s="120" t="s">
+      <c r="C66" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="120"/>
-      <c r="L66" s="120"/>
-      <c r="M66" s="121"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="125"/>
       <c r="N66" s="40"/>
       <c r="O66" s="41"/>
       <c r="P66" s="41"/>
@@ -11732,8 +12009,8 @@
       <c r="AS66" s="7"/>
       <c r="AT66" s="7"/>
       <c r="AU66" s="7"/>
-      <c r="AV66" s="114"/>
-      <c r="AW66" s="105"/>
+      <c r="AV66" s="112"/>
+      <c r="AW66" s="103"/>
     </row>
     <row r="67" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
@@ -11742,18 +12019,18 @@
       <c r="C67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="118" t="s">
+      <c r="D67" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118"/>
-      <c r="M67" s="119"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="115"/>
       <c r="N67" s="15" t="s">
         <v>59</v>
       </c>
@@ -11798,8 +12075,8 @@
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
-      <c r="AV67" s="114"/>
-      <c r="AW67" s="105">
+      <c r="AV67" s="112"/>
+      <c r="AW67" s="103">
         <v>1</v>
       </c>
     </row>
@@ -11810,23 +12087,23 @@
       <c r="C68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="118" t="s">
+      <c r="D68" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="119"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="115"/>
       <c r="N68" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P68" s="17" t="s">
         <v>167</v>
@@ -11866,8 +12143,8 @@
       <c r="AS68" s="7"/>
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
-      <c r="AV68" s="114"/>
-      <c r="AW68" s="105">
+      <c r="AV68" s="112"/>
+      <c r="AW68" s="103">
         <v>2</v>
       </c>
     </row>
@@ -11878,26 +12155,26 @@
       <c r="C69" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="118" t="s">
-        <v>344</v>
-      </c>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="119"/>
+      <c r="D69" s="114" t="s">
+        <v>338</v>
+      </c>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="115"/>
       <c r="N69" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O69" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q69" s="19">
         <v>1</v>
@@ -11934,8 +12211,8 @@
       <c r="AS69" s="7"/>
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
-      <c r="AV69" s="114"/>
-      <c r="AW69" s="105">
+      <c r="AV69" s="112"/>
+      <c r="AW69" s="103">
         <v>1</v>
       </c>
     </row>
@@ -11944,28 +12221,28 @@
         <v>111</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D70" s="118" t="s">
-        <v>346</v>
-      </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="118"/>
-      <c r="I70" s="118"/>
-      <c r="J70" s="118"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="118"/>
-      <c r="M70" s="119"/>
+        <v>339</v>
+      </c>
+      <c r="D70" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="115"/>
       <c r="N70" s="15" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O70" s="17" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q70" s="19">
         <v>1</v>
@@ -12002,8 +12279,8 @@
       <c r="AS70" s="7"/>
       <c r="AT70" s="7"/>
       <c r="AU70" s="7"/>
-      <c r="AV70" s="114"/>
-      <c r="AW70" s="105">
+      <c r="AV70" s="112"/>
+      <c r="AW70" s="103">
         <v>2</v>
       </c>
     </row>
@@ -12014,18 +12291,18 @@
       <c r="C71" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="118" t="s">
+      <c r="D71" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="118"/>
-      <c r="I71" s="118"/>
-      <c r="J71" s="118"/>
-      <c r="K71" s="118"/>
-      <c r="L71" s="118"/>
-      <c r="M71" s="119"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="114"/>
+      <c r="L71" s="114"/>
+      <c r="M71" s="115"/>
       <c r="N71" s="15" t="s">
         <v>68</v>
       </c>
@@ -12070,8 +12347,8 @@
       <c r="AS71" s="7"/>
       <c r="AT71" s="7"/>
       <c r="AU71" s="7"/>
-      <c r="AV71" s="114"/>
-      <c r="AW71" s="105">
+      <c r="AV71" s="112"/>
+      <c r="AW71" s="103">
         <v>1</v>
       </c>
     </row>
@@ -12080,28 +12357,28 @@
         <v>114</v>
       </c>
       <c r="C72" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="D72" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="118"/>
-      <c r="I72" s="118"/>
-      <c r="J72" s="118"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="118"/>
-      <c r="M72" s="119"/>
+        <v>397</v>
+      </c>
+      <c r="D72" s="114" t="s">
+        <v>457</v>
+      </c>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="114"/>
+      <c r="L72" s="114"/>
+      <c r="M72" s="115"/>
       <c r="N72" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="80">
@@ -12136,36 +12413,38 @@
       <c r="AS72" s="7"/>
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
-      <c r="AV72" s="114"/>
-      <c r="AW72" s="105">
+      <c r="AV72" s="112"/>
+      <c r="AW72" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C73" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118"/>
-      <c r="M73" s="119"/>
-      <c r="N73" s="15"/>
+        <v>469</v>
+      </c>
+      <c r="D73" s="114" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
+      <c r="J73" s="114"/>
+      <c r="K73" s="114"/>
+      <c r="L73" s="114"/>
+      <c r="M73" s="115"/>
+      <c r="N73" s="15" t="s">
+        <v>483</v>
+      </c>
       <c r="O73" s="17" t="s">
-        <v>234</v>
+        <v>473</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>290</v>
+        <v>484</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="80">
@@ -12191,47 +12470,47 @@
       <c r="AJ73" s="46"/>
       <c r="AK73" s="7"/>
       <c r="AL73" s="7"/>
-      <c r="AM73" s="7"/>
-      <c r="AN73" s="9"/>
-      <c r="AO73" s="9"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
       <c r="AP73" s="42"/>
       <c r="AQ73" s="46"/>
-      <c r="AR73" s="7"/>
+      <c r="AR73" s="9"/>
       <c r="AS73" s="7"/>
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
-      <c r="AV73" s="114"/>
-      <c r="AW73" s="105">
-        <v>2</v>
+      <c r="AV73" s="112"/>
+      <c r="AW73" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
-      <c r="K74" s="118"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="119"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="115"/>
       <c r="N74" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q74" s="19">
         <v>1</v>
@@ -12268,38 +12547,38 @@
       <c r="AS74" s="7"/>
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
-      <c r="AV74" s="114"/>
-      <c r="AW74" s="105">
+      <c r="AV74" s="112"/>
+      <c r="AW74" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="D75" s="118" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="118"/>
-      <c r="K75" s="118"/>
-      <c r="L75" s="118"/>
-      <c r="M75" s="119"/>
+        <v>383</v>
+      </c>
+      <c r="D75" s="114" t="s">
+        <v>401</v>
+      </c>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="115"/>
       <c r="N75" s="15" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="O75" s="17" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="Q75" s="19"/>
       <c r="R75" s="80">
@@ -12328,44 +12607,44 @@
       <c r="AM75" s="9"/>
       <c r="AN75" s="9"/>
       <c r="AO75" s="9"/>
-      <c r="AP75" s="42"/>
-      <c r="AQ75" s="46"/>
-      <c r="AR75" s="7"/>
-      <c r="AS75" s="7"/>
+      <c r="AP75" s="44"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="9"/>
+      <c r="AS75" s="9"/>
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
-      <c r="AV75" s="114"/>
-      <c r="AW75" s="105">
+      <c r="AV75" s="112"/>
+      <c r="AW75" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="D76" s="118" t="s">
-        <v>435</v>
-      </c>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="118"/>
-      <c r="K76" s="118"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="119"/>
+        <v>424</v>
+      </c>
+      <c r="D76" s="114" t="s">
+        <v>425</v>
+      </c>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="114"/>
+      <c r="L76" s="114"/>
+      <c r="M76" s="115"/>
       <c r="N76" s="15" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="O76" s="17" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="Q76" s="19"/>
       <c r="R76" s="80">
@@ -12400,38 +12679,38 @@
       <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
-      <c r="AV76" s="114"/>
-      <c r="AW76" s="105">
+      <c r="AV76" s="112"/>
+      <c r="AW76" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="D77" s="118" t="s">
-        <v>442</v>
-      </c>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
-      <c r="K77" s="118"/>
-      <c r="L77" s="118"/>
-      <c r="M77" s="119"/>
+        <v>418</v>
+      </c>
+      <c r="D77" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="115"/>
       <c r="N77" s="15" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q77" s="19">
         <v>1</v>
@@ -12468,40 +12747,42 @@
       <c r="AS77" s="7"/>
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
-      <c r="AV77" s="114"/>
-      <c r="AW77" s="105">
+      <c r="AV77" s="112"/>
+      <c r="AW77" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="D78" s="118" t="s">
-        <v>460</v>
-      </c>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="119"/>
+        <v>449</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>450</v>
+      </c>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="115"/>
       <c r="N78" s="15" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q78" s="19"/>
+        <v>415</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>1</v>
+      </c>
       <c r="R78" s="80">
         <v>2</v>
       </c>
@@ -12533,38 +12814,38 @@
       <c r="AS78" s="7"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
-      <c r="AV78" s="114"/>
-      <c r="AW78" s="105">
+      <c r="AV78" s="112"/>
+      <c r="AW78" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="D79" s="118" t="s">
-        <v>473</v>
-      </c>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="119"/>
+        <v>460</v>
+      </c>
+      <c r="D79" s="114" t="s">
+        <v>461</v>
+      </c>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="115"/>
       <c r="N79" s="15" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>477</v>
+        <v>282</v>
       </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="80">
@@ -12592,44 +12873,44 @@
       <c r="AL79" s="7"/>
       <c r="AM79" s="11"/>
       <c r="AO79" s="9"/>
-      <c r="AP79" s="42"/>
-      <c r="AQ79" s="46"/>
-      <c r="AR79" s="7"/>
-      <c r="AS79" s="7"/>
+      <c r="AP79" s="44"/>
+      <c r="AQ79" s="48"/>
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="9"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
-      <c r="AV79" s="114"/>
-      <c r="AW79" s="105">
+      <c r="AV79" s="112"/>
+      <c r="AW79" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C80" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D80" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
-      <c r="K80" s="118"/>
-      <c r="L80" s="118"/>
-      <c r="M80" s="119"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="114"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="115"/>
       <c r="N80" s="15" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="O80" s="17" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="80">
@@ -12664,38 +12945,38 @@
       <c r="AS80" s="9"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
-      <c r="AV80" s="114"/>
-      <c r="AW80" s="105">
+      <c r="AV80" s="112"/>
+      <c r="AW80" s="103">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B81" s="36" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C81" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" s="118" t="s">
-        <v>316</v>
-      </c>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="119"/>
+        <v>191</v>
+      </c>
+      <c r="D81" s="114" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="115"/>
       <c r="N81" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O81" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q81" s="19">
         <v>1</v>
@@ -12732,36 +13013,36 @@
       <c r="AS81" s="7"/>
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
-      <c r="AV81" s="114"/>
-      <c r="AW81" s="105">
+      <c r="AV81" s="112"/>
+      <c r="AW81" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B82" s="36" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C82" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="118" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="118"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="118"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="119"/>
+        <v>182</v>
+      </c>
+      <c r="D82" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="115"/>
       <c r="N82" s="15"/>
       <c r="O82" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q82" s="15"/>
       <c r="R82" s="80">
@@ -12796,8 +13077,8 @@
       <c r="AS82" s="7"/>
       <c r="AT82" s="10"/>
       <c r="AU82" s="10"/>
-      <c r="AV82" s="97"/>
-      <c r="AW82" s="105">
+      <c r="AV82" s="96"/>
+      <c r="AW82" s="103">
         <v>3</v>
       </c>
     </row>
@@ -12805,19 +13086,19 @@
       <c r="B83" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="120"/>
-      <c r="I83" s="120"/>
-      <c r="J83" s="120"/>
-      <c r="K83" s="120"/>
-      <c r="L83" s="120"/>
-      <c r="M83" s="121"/>
+      <c r="C83" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
+      <c r="J83" s="124"/>
+      <c r="K83" s="124"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="125"/>
       <c r="N83" s="38"/>
       <c r="O83" s="41"/>
       <c r="P83" s="41"/>
@@ -12852,8 +13133,8 @@
       <c r="AS83" s="7"/>
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
-      <c r="AV83" s="114"/>
-      <c r="AW83" s="105"/>
+      <c r="AV83" s="112"/>
+      <c r="AW83" s="103"/>
     </row>
     <row r="84" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B84" s="36" t="s">
@@ -12862,18 +13143,18 @@
       <c r="C84" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D84" s="118" t="s">
+      <c r="D84" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118"/>
-      <c r="M84" s="119"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="115"/>
       <c r="N84" s="15" t="s">
         <v>85</v>
       </c>
@@ -12918,8 +13199,8 @@
       <c r="AS84" s="7"/>
       <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
-      <c r="AV84" s="114"/>
-      <c r="AW84" s="105">
+      <c r="AV84" s="112"/>
+      <c r="AW84" s="103">
         <v>2</v>
       </c>
     </row>
@@ -12930,26 +13211,26 @@
       <c r="C85" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="118"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="119"/>
+      <c r="D85" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="115"/>
       <c r="N85" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q85" s="19">
         <v>1</v>
@@ -12986,8 +13267,8 @@
       <c r="AS85" s="7"/>
       <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
-      <c r="AV85" s="114"/>
-      <c r="AW85" s="105">
+      <c r="AV85" s="112"/>
+      <c r="AW85" s="103">
         <v>2</v>
       </c>
     </row>
@@ -12998,26 +13279,26 @@
       <c r="C86" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="118"/>
-      <c r="L86" s="118"/>
-      <c r="M86" s="119"/>
+      <c r="D86" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="115"/>
       <c r="N86" s="15" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P86" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q86" s="19">
         <v>1</v>
@@ -13054,8 +13335,8 @@
       <c r="AS86" s="7"/>
       <c r="AT86" s="7"/>
       <c r="AU86" s="7"/>
-      <c r="AV86" s="114"/>
-      <c r="AW86" s="105">
+      <c r="AV86" s="112"/>
+      <c r="AW86" s="103">
         <v>2</v>
       </c>
     </row>
@@ -13064,28 +13345,28 @@
         <v>120</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="118"/>
-      <c r="H87" s="118"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="118"/>
-      <c r="L87" s="118"/>
-      <c r="M87" s="119"/>
+        <v>189</v>
+      </c>
+      <c r="D87" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="115"/>
       <c r="N87" s="15" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P87" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q87" s="19">
         <v>1</v>
@@ -13122,8 +13403,8 @@
       <c r="AS87" s="7"/>
       <c r="AT87" s="7"/>
       <c r="AU87" s="7"/>
-      <c r="AV87" s="114"/>
-      <c r="AW87" s="105">
+      <c r="AV87" s="112"/>
+      <c r="AW87" s="103">
         <v>2</v>
       </c>
     </row>
@@ -13134,26 +13415,26 @@
       <c r="C88" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118"/>
-      <c r="M88" s="119"/>
+      <c r="D88" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="115"/>
       <c r="N88" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O88" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q88" s="19">
         <v>1</v>
@@ -13190,8 +13471,8 @@
       <c r="AS88" s="7"/>
       <c r="AT88" s="7"/>
       <c r="AU88" s="7"/>
-      <c r="AV88" s="114"/>
-      <c r="AW88" s="105">
+      <c r="AV88" s="112"/>
+      <c r="AW88" s="103">
         <v>2</v>
       </c>
     </row>
@@ -13200,28 +13481,28 @@
         <v>122</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="115"/>
+      <c r="N89" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="D89" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118"/>
-      <c r="M89" s="119"/>
-      <c r="N89" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="O89" s="17">
         <v>10.14</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q89" s="19">
         <v>1</v>
@@ -13258,8 +13539,8 @@
       <c r="AS89" s="7"/>
       <c r="AT89" s="7"/>
       <c r="AU89" s="7"/>
-      <c r="AV89" s="114"/>
-      <c r="AW89" s="105">
+      <c r="AV89" s="112"/>
+      <c r="AW89" s="103">
         <v>2</v>
       </c>
     </row>
@@ -13268,28 +13549,28 @@
         <v>115</v>
       </c>
       <c r="C90" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D90" s="118" t="s">
-        <v>338</v>
-      </c>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="118"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="118"/>
-      <c r="L90" s="118"/>
-      <c r="M90" s="119"/>
+        <v>191</v>
+      </c>
+      <c r="D90" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="114"/>
+      <c r="J90" s="114"/>
+      <c r="K90" s="114"/>
+      <c r="L90" s="114"/>
+      <c r="M90" s="115"/>
       <c r="N90" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O90" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="P90" s="17" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q90" s="19">
         <v>1</v>
@@ -13326,8 +13607,8 @@
       <c r="AS90" s="7"/>
       <c r="AT90" s="7"/>
       <c r="AU90" s="7"/>
-      <c r="AV90" s="114"/>
-      <c r="AW90" s="105">
+      <c r="AV90" s="112"/>
+      <c r="AW90" s="103">
         <v>2</v>
       </c>
     </row>
@@ -13336,28 +13617,28 @@
         <v>116</v>
       </c>
       <c r="C91" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D91" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="118"/>
-      <c r="L91" s="118"/>
-      <c r="M91" s="119"/>
+        <v>191</v>
+      </c>
+      <c r="D91" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="114"/>
+      <c r="J91" s="114"/>
+      <c r="K91" s="114"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="115"/>
       <c r="N91" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O91" s="17">
         <v>10.15</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q91" s="19">
         <v>1</v>
@@ -13394,8 +13675,8 @@
       <c r="AS91" s="7"/>
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
-      <c r="AV91" s="114"/>
-      <c r="AW91" s="105">
+      <c r="AV91" s="112"/>
+      <c r="AW91" s="103">
         <v>1</v>
       </c>
     </row>
@@ -13404,28 +13685,28 @@
         <v>117</v>
       </c>
       <c r="C92" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="D92" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="E92" s="118"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="118"/>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118"/>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118"/>
-      <c r="M92" s="119"/>
+        <v>304</v>
+      </c>
+      <c r="D92" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="114"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="114"/>
+      <c r="J92" s="114"/>
+      <c r="K92" s="114"/>
+      <c r="L92" s="114"/>
+      <c r="M92" s="115"/>
       <c r="N92" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q92" s="19">
         <v>1</v>
@@ -13462,8 +13743,8 @@
       <c r="AS92" s="7"/>
       <c r="AT92" s="7"/>
       <c r="AU92" s="7"/>
-      <c r="AV92" s="114"/>
-      <c r="AW92" s="105">
+      <c r="AV92" s="112"/>
+      <c r="AW92" s="103">
         <v>2</v>
       </c>
     </row>
@@ -13472,28 +13753,28 @@
         <v>123</v>
       </c>
       <c r="C93" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="D93" s="118" t="s">
-        <v>352</v>
-      </c>
-      <c r="E93" s="118"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="118"/>
-      <c r="H93" s="118"/>
-      <c r="I93" s="118"/>
-      <c r="J93" s="118"/>
-      <c r="K93" s="118"/>
-      <c r="L93" s="118"/>
-      <c r="M93" s="119"/>
+        <v>345</v>
+      </c>
+      <c r="D93" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="114"/>
+      <c r="M93" s="115"/>
       <c r="N93" s="15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q93" s="19">
         <v>1</v>
@@ -13530,38 +13811,38 @@
       <c r="AS93" s="7"/>
       <c r="AT93" s="7"/>
       <c r="AU93" s="7"/>
-      <c r="AV93" s="114"/>
-      <c r="AW93" s="105">
+      <c r="AV93" s="112"/>
+      <c r="AW93" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B94" s="36" t="s">
-        <v>130</v>
+        <v>474</v>
       </c>
       <c r="C94" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="D94" s="118" t="s">
-        <v>394</v>
-      </c>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="118"/>
-      <c r="H94" s="118"/>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-      <c r="M94" s="119"/>
+        <v>383</v>
+      </c>
+      <c r="D94" s="114" t="s">
+        <v>384</v>
+      </c>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="114"/>
+      <c r="H94" s="114"/>
+      <c r="I94" s="114"/>
+      <c r="J94" s="114"/>
+      <c r="K94" s="114"/>
+      <c r="L94" s="114"/>
+      <c r="M94" s="115"/>
       <c r="N94" s="15" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="O94" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P94" s="17" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="Q94" s="19">
         <v>1</v>
@@ -13597,39 +13878,43 @@
       <c r="AS94" s="7"/>
       <c r="AT94" s="7"/>
       <c r="AU94" s="7"/>
-      <c r="AV94" s="114"/>
-      <c r="AW94" s="105">
+      <c r="AV94" s="112"/>
+      <c r="AW94" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B95" s="36" t="s">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="118" t="s">
-        <v>464</v>
-      </c>
-      <c r="E95" s="118"/>
-      <c r="F95" s="118"/>
-      <c r="G95" s="118"/>
-      <c r="H95" s="118"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="118"/>
-      <c r="K95" s="118"/>
-      <c r="L95" s="118"/>
-      <c r="M95" s="119"/>
-      <c r="N95" s="15"/>
+        <v>469</v>
+      </c>
+      <c r="D95" s="114" t="s">
+        <v>470</v>
+      </c>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="114"/>
+      <c r="J95" s="114"/>
+      <c r="K95" s="114"/>
+      <c r="L95" s="114"/>
+      <c r="M95" s="115"/>
+      <c r="N95" s="15" t="s">
+        <v>471</v>
+      </c>
       <c r="O95" s="17" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P95" s="17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q95" s="19"/>
-      <c r="R95" s="80"/>
+      <c r="R95" s="80">
+        <v>1</v>
+      </c>
       <c r="S95" s="27"/>
       <c r="T95" s="11"/>
       <c r="U95" s="45"/>
@@ -13646,58 +13931,50 @@
       <c r="AF95" s="7"/>
       <c r="AG95" s="7"/>
       <c r="AH95" s="7"/>
-      <c r="AI95" s="42"/>
+      <c r="AI95" s="45"/>
       <c r="AJ95" s="46"/>
-      <c r="AK95" s="7"/>
-      <c r="AL95" s="7"/>
-      <c r="AM95" s="11"/>
+      <c r="AK95" s="11"/>
       <c r="AN95" s="11"/>
       <c r="AO95" s="11"/>
-      <c r="AP95" s="42"/>
-      <c r="AQ95" s="46"/>
+      <c r="AP95" s="9"/>
+      <c r="AQ95" s="48"/>
       <c r="AR95" s="9"/>
-      <c r="AS95" s="9"/>
+      <c r="AS95" s="7"/>
       <c r="AT95" s="7"/>
       <c r="AU95" s="7"/>
-      <c r="AV95" s="114"/>
-      <c r="AW95" s="105">
-        <v>2</v>
+      <c r="AV95" s="112"/>
+      <c r="AW95" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B96" s="36" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="C96" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="D96" s="118" t="s">
-        <v>415</v>
-      </c>
-      <c r="E96" s="118"/>
-      <c r="F96" s="118"/>
-      <c r="G96" s="118"/>
-      <c r="H96" s="118"/>
-      <c r="I96" s="118"/>
-      <c r="J96" s="118"/>
-      <c r="K96" s="118"/>
-      <c r="L96" s="118"/>
-      <c r="M96" s="119"/>
-      <c r="N96" s="15" t="s">
-        <v>417</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D96" s="114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="114"/>
+      <c r="J96" s="114"/>
+      <c r="K96" s="114"/>
+      <c r="L96" s="114"/>
+      <c r="M96" s="115"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="17" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="P96" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q96" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="R96" s="80">
-        <v>2</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="80"/>
       <c r="S96" s="27"/>
       <c r="T96" s="11"/>
       <c r="U96" s="45"/>
@@ -13719,52 +13996,52 @@
       <c r="AK96" s="7"/>
       <c r="AL96" s="7"/>
       <c r="AM96" s="11"/>
-      <c r="AN96" s="9"/>
+      <c r="AN96" s="11"/>
       <c r="AO96" s="11"/>
       <c r="AP96" s="42"/>
       <c r="AQ96" s="46"/>
-      <c r="AR96" s="7"/>
-      <c r="AS96" s="7"/>
+      <c r="AR96" s="9"/>
+      <c r="AS96" s="9"/>
       <c r="AT96" s="7"/>
       <c r="AU96" s="7"/>
-      <c r="AV96" s="114"/>
-      <c r="AW96" s="105">
-        <v>1</v>
+      <c r="AV96" s="112"/>
+      <c r="AW96" s="103">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B97" s="36" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="C97" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="E97" s="118"/>
-      <c r="F97" s="118"/>
-      <c r="G97" s="118"/>
-      <c r="H97" s="118"/>
-      <c r="I97" s="118"/>
-      <c r="J97" s="118"/>
-      <c r="K97" s="118"/>
-      <c r="L97" s="118"/>
-      <c r="M97" s="119"/>
+        <v>383</v>
+      </c>
+      <c r="D97" s="114" t="s">
+        <v>405</v>
+      </c>
+      <c r="E97" s="114"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="114"/>
+      <c r="J97" s="114"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="114"/>
+      <c r="M97" s="115"/>
       <c r="N97" s="15" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="O97" s="17" t="s">
-        <v>162</v>
+        <v>403</v>
       </c>
       <c r="P97" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q97" s="19">
-        <v>1</v>
+        <v>403</v>
+      </c>
+      <c r="Q97" s="19" t="s">
+        <v>416</v>
       </c>
       <c r="R97" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S97" s="27"/>
       <c r="T97" s="11"/>
@@ -13791,36 +14068,36 @@
       <c r="AO97" s="11"/>
       <c r="AP97" s="42"/>
       <c r="AQ97" s="46"/>
-      <c r="AR97" s="11"/>
-      <c r="AS97" s="11"/>
+      <c r="AR97" s="7"/>
+      <c r="AS97" s="7"/>
       <c r="AT97" s="7"/>
       <c r="AU97" s="7"/>
-      <c r="AV97" s="114"/>
-      <c r="AW97" s="105">
-        <v>2</v>
+      <c r="AV97" s="112"/>
+      <c r="AW97" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B98" s="36" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C98" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="E98" s="118"/>
-      <c r="F98" s="118"/>
-      <c r="G98" s="118"/>
-      <c r="H98" s="118"/>
-      <c r="I98" s="118"/>
-      <c r="J98" s="118"/>
-      <c r="K98" s="118"/>
-      <c r="L98" s="118"/>
-      <c r="M98" s="119"/>
+        <v>193</v>
+      </c>
+      <c r="D98" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="114"/>
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="114"/>
+      <c r="J98" s="114"/>
+      <c r="K98" s="114"/>
+      <c r="L98" s="114"/>
+      <c r="M98" s="115"/>
       <c r="N98" s="15" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="O98" s="17" t="s">
         <v>162</v>
@@ -13855,45 +14132,46 @@
       <c r="AK98" s="7"/>
       <c r="AL98" s="7"/>
       <c r="AM98" s="11"/>
-      <c r="AN98" s="22"/>
+      <c r="AN98" s="9"/>
       <c r="AO98" s="11"/>
       <c r="AP98" s="42"/>
       <c r="AQ98" s="46"/>
+      <c r="AR98" s="11"/>
       <c r="AS98" s="11"/>
       <c r="AT98" s="7"/>
       <c r="AU98" s="7"/>
-      <c r="AV98" s="114"/>
-      <c r="AW98" s="105">
+      <c r="AV98" s="112"/>
+      <c r="AW98" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B99" s="36" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="C99" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E99" s="118"/>
-      <c r="F99" s="118"/>
-      <c r="G99" s="118"/>
-      <c r="H99" s="118"/>
-      <c r="I99" s="118"/>
-      <c r="J99" s="118"/>
-      <c r="K99" s="118"/>
-      <c r="L99" s="118"/>
-      <c r="M99" s="119"/>
+        <v>195</v>
+      </c>
+      <c r="D99" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="114"/>
+      <c r="F99" s="114"/>
+      <c r="G99" s="114"/>
+      <c r="H99" s="114"/>
+      <c r="I99" s="114"/>
+      <c r="J99" s="114"/>
+      <c r="K99" s="114"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="115"/>
       <c r="N99" s="15" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="O99" s="17" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="P99" s="17" t="s">
-        <v>451</v>
+        <v>162</v>
       </c>
       <c r="Q99" s="19">
         <v>1</v>
@@ -13922,41 +14200,52 @@
       <c r="AK99" s="7"/>
       <c r="AL99" s="7"/>
       <c r="AM99" s="11"/>
-      <c r="AN99" s="11"/>
-      <c r="AO99" s="9"/>
+      <c r="AN99" s="22"/>
+      <c r="AO99" s="11"/>
       <c r="AP99" s="42"/>
       <c r="AQ99" s="46"/>
-      <c r="AR99" s="11"/>
       <c r="AS99" s="11"/>
       <c r="AT99" s="7"/>
       <c r="AU99" s="7"/>
-      <c r="AV99" s="114"/>
-      <c r="AW99" s="105">
-        <v>1</v>
+      <c r="AV99" s="112"/>
+      <c r="AW99" s="103">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B100" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="C100" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="D100" s="120"/>
-      <c r="E100" s="120"/>
-      <c r="F100" s="120"/>
-      <c r="G100" s="120"/>
-      <c r="H100" s="120"/>
-      <c r="I100" s="120"/>
-      <c r="J100" s="120"/>
-      <c r="K100" s="120"/>
-      <c r="L100" s="120"/>
-      <c r="M100" s="121"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="99"/>
-      <c r="R100" s="81"/>
+      <c r="B100" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="114"/>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114"/>
+      <c r="J100" s="114"/>
+      <c r="K100" s="114"/>
+      <c r="L100" s="114"/>
+      <c r="M100" s="115"/>
+      <c r="N100" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="O100" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P100" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q100" s="19">
+        <v>1</v>
+      </c>
+      <c r="R100" s="80">
+        <v>1</v>
+      </c>
       <c r="S100" s="27"/>
       <c r="T100" s="11"/>
       <c r="U100" s="45"/>
@@ -13979,50 +14268,40 @@
       <c r="AL100" s="7"/>
       <c r="AM100" s="11"/>
       <c r="AN100" s="11"/>
-      <c r="AO100" s="11"/>
+      <c r="AO100" s="9"/>
       <c r="AP100" s="42"/>
       <c r="AQ100" s="46"/>
       <c r="AR100" s="11"/>
       <c r="AS100" s="11"/>
       <c r="AT100" s="7"/>
       <c r="AU100" s="7"/>
-      <c r="AV100" s="114"/>
-      <c r="AW100" s="105"/>
+      <c r="AV100" s="112"/>
+      <c r="AW100" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B101" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="116"/>
-      <c r="K101" s="116"/>
-      <c r="L101" s="116"/>
-      <c r="M101" s="117"/>
-      <c r="N101" s="92" t="s">
-        <v>326</v>
-      </c>
-      <c r="O101" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="P101" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q101" s="100">
-        <v>1</v>
-      </c>
-      <c r="R101" s="94">
-        <v>2</v>
-      </c>
+      <c r="B101" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C101" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="124"/>
+      <c r="J101" s="124"/>
+      <c r="K101" s="124"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="125"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="98"/>
+      <c r="R101" s="81"/>
       <c r="S101" s="27"/>
       <c r="T101" s="11"/>
       <c r="U101" s="45"/>
@@ -14041,10 +14320,10 @@
       <c r="AH101" s="7"/>
       <c r="AI101" s="42"/>
       <c r="AJ101" s="46"/>
-      <c r="AK101" s="8"/>
-      <c r="AL101" s="8"/>
-      <c r="AM101" s="8"/>
-      <c r="AN101" s="8"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="11"/>
+      <c r="AN101" s="11"/>
       <c r="AO101" s="11"/>
       <c r="AP101" s="42"/>
       <c r="AQ101" s="46"/>
@@ -14052,40 +14331,40 @@
       <c r="AS101" s="11"/>
       <c r="AT101" s="7"/>
       <c r="AU101" s="7"/>
-      <c r="AV101" s="114"/>
-      <c r="AW101" s="105">
-        <v>2</v>
-      </c>
+      <c r="AV101" s="112"/>
+      <c r="AW101" s="103"/>
     </row>
     <row r="102" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B102" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="C102" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="D102" s="116" t="s">
-        <v>446</v>
-      </c>
-      <c r="E102" s="116"/>
-      <c r="F102" s="116"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="116"/>
-      <c r="I102" s="116"/>
-      <c r="J102" s="116"/>
-      <c r="K102" s="116"/>
-      <c r="L102" s="116"/>
-      <c r="M102" s="117"/>
+        <v>319</v>
+      </c>
+      <c r="C102" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D102" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119"/>
+      <c r="I102" s="119"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="120"/>
       <c r="N102" s="92" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="O102" s="93" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="P102" s="93" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q102" s="100"/>
+        <v>162</v>
+      </c>
+      <c r="Q102" s="99">
+        <v>1</v>
+      </c>
       <c r="R102" s="94">
         <v>2</v>
       </c>
@@ -14107,51 +14386,51 @@
       <c r="AH102" s="7"/>
       <c r="AI102" s="42"/>
       <c r="AJ102" s="46"/>
-      <c r="AK102" s="11"/>
-      <c r="AL102" s="11"/>
-      <c r="AM102" s="11"/>
-      <c r="AN102" s="9"/>
-      <c r="AO102" s="9"/>
-      <c r="AP102" s="44"/>
-      <c r="AQ102" s="48"/>
-      <c r="AR102" s="9"/>
+      <c r="AK102" s="8"/>
+      <c r="AL102" s="8"/>
+      <c r="AM102" s="8"/>
+      <c r="AN102" s="8"/>
+      <c r="AO102" s="11"/>
+      <c r="AP102" s="42"/>
+      <c r="AQ102" s="46"/>
+      <c r="AR102" s="11"/>
       <c r="AS102" s="11"/>
       <c r="AT102" s="7"/>
       <c r="AU102" s="7"/>
-      <c r="AV102" s="114"/>
-      <c r="AW102" s="105">
-        <v>1</v>
+      <c r="AV102" s="112"/>
+      <c r="AW102" s="103">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B103" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="D103" s="116" t="s">
-        <v>330</v>
-      </c>
-      <c r="E103" s="116"/>
-      <c r="F103" s="116"/>
-      <c r="G103" s="116"/>
-      <c r="H103" s="116"/>
-      <c r="I103" s="116"/>
-      <c r="J103" s="116"/>
-      <c r="K103" s="116"/>
-      <c r="L103" s="116"/>
-      <c r="M103" s="117"/>
+        <v>437</v>
+      </c>
+      <c r="C103" s="101" t="s">
+        <v>435</v>
+      </c>
+      <c r="D103" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="E103" s="119"/>
+      <c r="F103" s="119"/>
+      <c r="G103" s="119"/>
+      <c r="H103" s="119"/>
+      <c r="I103" s="119"/>
+      <c r="J103" s="119"/>
+      <c r="K103" s="119"/>
+      <c r="L103" s="119"/>
+      <c r="M103" s="120"/>
       <c r="N103" s="92" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="O103" s="93" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="P103" s="93" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q103" s="100"/>
+        <v>439</v>
+      </c>
+      <c r="Q103" s="99"/>
       <c r="R103" s="94">
         <v>2</v>
       </c>
@@ -14173,51 +14452,51 @@
       <c r="AH103" s="7"/>
       <c r="AI103" s="42"/>
       <c r="AJ103" s="46"/>
-      <c r="AK103" s="7"/>
-      <c r="AL103" s="24"/>
-      <c r="AM103" s="109"/>
+      <c r="AK103" s="11"/>
+      <c r="AL103" s="11"/>
+      <c r="AM103" s="11"/>
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
-      <c r="AP103" s="42"/>
-      <c r="AQ103" s="46"/>
+      <c r="AP103" s="44"/>
+      <c r="AQ103" s="48"/>
       <c r="AR103" s="9"/>
-      <c r="AS103" s="9"/>
+      <c r="AS103" s="11"/>
       <c r="AT103" s="7"/>
       <c r="AU103" s="7"/>
-      <c r="AV103" s="114"/>
-      <c r="AW103" s="105">
-        <v>2</v>
+      <c r="AV103" s="112"/>
+      <c r="AW103" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B104" s="91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104" s="101" t="s">
-        <v>419</v>
-      </c>
-      <c r="D104" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="E104" s="116"/>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="116"/>
-      <c r="M104" s="117"/>
+        <v>325</v>
+      </c>
+      <c r="D104" s="119" t="s">
+        <v>326</v>
+      </c>
+      <c r="E104" s="119"/>
+      <c r="F104" s="119"/>
+      <c r="G104" s="119"/>
+      <c r="H104" s="119"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="119"/>
+      <c r="K104" s="119"/>
+      <c r="L104" s="119"/>
+      <c r="M104" s="120"/>
       <c r="N104" s="92" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="O104" s="93" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="P104" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q104" s="100"/>
+        <v>327</v>
+      </c>
+      <c r="Q104" s="99"/>
       <c r="R104" s="94">
         <v>2</v>
       </c>
@@ -14241,44 +14520,52 @@
       <c r="AJ104" s="46"/>
       <c r="AK104" s="7"/>
       <c r="AL104" s="24"/>
-      <c r="AM104" s="24"/>
-      <c r="AN104" s="8"/>
-      <c r="AO104" s="11"/>
-      <c r="AP104" s="45"/>
-      <c r="AQ104" s="49"/>
-      <c r="AR104" s="11"/>
-      <c r="AS104" s="11"/>
+      <c r="AM104" s="107"/>
+      <c r="AN104" s="9"/>
+      <c r="AO104" s="9"/>
+      <c r="AP104" s="44"/>
+      <c r="AQ104" s="48"/>
+      <c r="AR104" s="9"/>
+      <c r="AS104" s="9"/>
       <c r="AT104" s="7"/>
       <c r="AU104" s="7"/>
-      <c r="AV104" s="114"/>
-      <c r="AW104" s="105">
-        <v>1</v>
+      <c r="AV104" s="112"/>
+      <c r="AW104" s="103">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B105" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="D105" s="116" t="s">
-        <v>422</v>
-      </c>
-      <c r="E105" s="116"/>
-      <c r="F105" s="116"/>
-      <c r="G105" s="116"/>
-      <c r="H105" s="116"/>
-      <c r="I105" s="116"/>
-      <c r="J105" s="116"/>
-      <c r="K105" s="116"/>
-      <c r="L105" s="116"/>
-      <c r="M105" s="117"/>
-      <c r="N105" s="92"/>
-      <c r="O105" s="93"/>
-      <c r="P105" s="93"/>
-      <c r="Q105" s="100"/>
-      <c r="R105" s="94"/>
+        <v>133</v>
+      </c>
+      <c r="C105" s="100" t="s">
+        <v>409</v>
+      </c>
+      <c r="D105" s="119" t="s">
+        <v>410</v>
+      </c>
+      <c r="E105" s="119"/>
+      <c r="F105" s="119"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="119"/>
+      <c r="I105" s="119"/>
+      <c r="J105" s="119"/>
+      <c r="K105" s="119"/>
+      <c r="L105" s="119"/>
+      <c r="M105" s="120"/>
+      <c r="N105" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="O105" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="P105" s="93" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q105" s="99"/>
+      <c r="R105" s="94">
+        <v>2</v>
+      </c>
       <c r="S105" s="27"/>
       <c r="T105" s="11"/>
       <c r="U105" s="45"/>
@@ -14300,41 +14587,53 @@
       <c r="AK105" s="7"/>
       <c r="AL105" s="24"/>
       <c r="AM105" s="24"/>
-      <c r="AN105" s="11"/>
+      <c r="AN105" s="8"/>
       <c r="AO105" s="11"/>
       <c r="AP105" s="45"/>
       <c r="AQ105" s="49"/>
       <c r="AR105" s="11"/>
       <c r="AS105" s="11"/>
-      <c r="AT105" s="9"/>
-      <c r="AU105" s="9"/>
-      <c r="AV105" s="114"/>
-      <c r="AW105" s="105">
+      <c r="AT105" s="7"/>
+      <c r="AU105" s="7"/>
+      <c r="AV105" s="112"/>
+      <c r="AW105" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B106" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="C106" s="146" t="s">
-        <v>333</v>
-      </c>
-      <c r="D106" s="120"/>
-      <c r="E106" s="120"/>
-      <c r="F106" s="120"/>
-      <c r="G106" s="120"/>
-      <c r="H106" s="120"/>
-      <c r="I106" s="120"/>
-      <c r="J106" s="120"/>
-      <c r="K106" s="120"/>
-      <c r="L106" s="120"/>
-      <c r="M106" s="121"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="99"/>
-      <c r="R106" s="81"/>
+      <c r="B106" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="D106" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="E106" s="119"/>
+      <c r="F106" s="119"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="119"/>
+      <c r="I106" s="119"/>
+      <c r="J106" s="119"/>
+      <c r="K106" s="119"/>
+      <c r="L106" s="119"/>
+      <c r="M106" s="120"/>
+      <c r="N106" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="O106" s="93" t="s">
+        <v>468</v>
+      </c>
+      <c r="P106" s="93" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q106" s="99">
+        <v>1</v>
+      </c>
+      <c r="R106" s="94">
+        <v>2</v>
+      </c>
       <c r="S106" s="27"/>
       <c r="T106" s="11"/>
       <c r="U106" s="45"/>
@@ -14358,45 +14657,41 @@
       <c r="AM106" s="24"/>
       <c r="AN106" s="11"/>
       <c r="AO106" s="11"/>
-      <c r="AP106" s="42"/>
-      <c r="AQ106" s="46"/>
+      <c r="AP106" s="45"/>
+      <c r="AQ106" s="48"/>
       <c r="AR106" s="11"/>
       <c r="AS106" s="11"/>
       <c r="AT106" s="7"/>
       <c r="AU106" s="7"/>
-      <c r="AV106" s="114"/>
-      <c r="AW106" s="105"/>
+      <c r="AV106" s="112"/>
+      <c r="AW106" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B107" s="91" t="s">
-        <v>373</v>
-      </c>
-      <c r="C107" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="D107" s="122" t="s">
-        <v>377</v>
-      </c>
-      <c r="E107" s="122"/>
-      <c r="F107" s="122"/>
-      <c r="G107" s="122"/>
-      <c r="H107" s="122"/>
-      <c r="I107" s="122"/>
-      <c r="J107" s="122"/>
-      <c r="K107" s="122"/>
-      <c r="L107" s="122"/>
-      <c r="M107" s="123"/>
+        <v>135</v>
+      </c>
+      <c r="C107" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="E107" s="119"/>
+      <c r="F107" s="119"/>
+      <c r="G107" s="119"/>
+      <c r="H107" s="119"/>
+      <c r="I107" s="119"/>
+      <c r="J107" s="119"/>
+      <c r="K107" s="119"/>
+      <c r="L107" s="119"/>
+      <c r="M107" s="120"/>
       <c r="N107" s="92"/>
-      <c r="O107" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="P107" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q107" s="100"/>
-      <c r="R107" s="94">
-        <v>1</v>
-      </c>
+      <c r="O107" s="93"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="99"/>
+      <c r="R107" s="94"/>
       <c r="S107" s="27"/>
       <c r="T107" s="11"/>
       <c r="U107" s="45"/>
@@ -14420,47 +14715,39 @@
       <c r="AM107" s="24"/>
       <c r="AN107" s="11"/>
       <c r="AO107" s="11"/>
-      <c r="AP107" s="42"/>
-      <c r="AQ107" s="46"/>
+      <c r="AP107" s="45"/>
+      <c r="AQ107" s="49"/>
       <c r="AR107" s="11"/>
       <c r="AS107" s="11"/>
-      <c r="AT107" s="8"/>
-      <c r="AU107" s="8"/>
-      <c r="AV107" s="114"/>
-      <c r="AW107" s="105">
+      <c r="AT107" s="9"/>
+      <c r="AU107" s="9"/>
+      <c r="AV107" s="112"/>
+      <c r="AW107" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B108" s="91" t="s">
-        <v>374</v>
-      </c>
-      <c r="C108" s="103" t="s">
-        <v>334</v>
-      </c>
-      <c r="D108" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="E108" s="116"/>
-      <c r="F108" s="116"/>
-      <c r="G108" s="116"/>
-      <c r="H108" s="116"/>
-      <c r="I108" s="116"/>
-      <c r="J108" s="116"/>
-      <c r="K108" s="116"/>
-      <c r="L108" s="116"/>
-      <c r="M108" s="117"/>
-      <c r="N108" s="92"/>
-      <c r="O108" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="P108" s="93" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q108" s="100"/>
-      <c r="R108" s="94">
-        <v>1</v>
-      </c>
+      <c r="B108" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="123" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="124"/>
+      <c r="E108" s="124"/>
+      <c r="F108" s="124"/>
+      <c r="G108" s="124"/>
+      <c r="H108" s="124"/>
+      <c r="I108" s="124"/>
+      <c r="J108" s="124"/>
+      <c r="K108" s="124"/>
+      <c r="L108" s="124"/>
+      <c r="M108" s="125"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="98"/>
+      <c r="R108" s="81"/>
       <c r="S108" s="27"/>
       <c r="T108" s="11"/>
       <c r="U108" s="45"/>
@@ -14488,22 +14775,20 @@
       <c r="AQ108" s="46"/>
       <c r="AR108" s="11"/>
       <c r="AS108" s="11"/>
-      <c r="AT108" s="11"/>
+      <c r="AT108" s="7"/>
       <c r="AU108" s="7"/>
-      <c r="AV108" s="97"/>
-      <c r="AW108" s="105">
-        <v>1</v>
-      </c>
+      <c r="AV108" s="112"/>
+      <c r="AW108" s="103"/>
     </row>
     <row r="109" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B109" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="101" t="s">
-        <v>324</v>
+        <v>367</v>
+      </c>
+      <c r="C109" s="106" t="s">
+        <v>369</v>
       </c>
       <c r="D109" s="116" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E109" s="116"/>
       <c r="F109" s="116"/>
@@ -14514,14 +14799,16 @@
       <c r="K109" s="116"/>
       <c r="L109" s="116"/>
       <c r="M109" s="117"/>
-      <c r="N109" s="92"/>
+      <c r="N109" s="92" t="s">
+        <v>478</v>
+      </c>
       <c r="O109" s="93" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="P109" s="93" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q109" s="100"/>
+        <v>282</v>
+      </c>
+      <c r="Q109" s="99"/>
       <c r="R109" s="94">
         <v>1</v>
       </c>
@@ -14550,48 +14837,54 @@
       <c r="AO109" s="11"/>
       <c r="AP109" s="42"/>
       <c r="AQ109" s="46"/>
-      <c r="AR109" s="11"/>
-      <c r="AS109" s="11"/>
-      <c r="AT109" s="11"/>
-      <c r="AU109" s="11"/>
-      <c r="AV109" s="114"/>
-      <c r="AW109" s="105" t="s">
-        <v>469</v>
+      <c r="AR109" s="8"/>
+      <c r="AS109" s="8"/>
+      <c r="AV109" s="112"/>
+      <c r="AW109" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B110" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="120"/>
-      <c r="E110" s="120"/>
-      <c r="F110" s="120"/>
-      <c r="G110" s="120"/>
-      <c r="H110" s="120"/>
-      <c r="I110" s="120"/>
-      <c r="J110" s="120"/>
-      <c r="K110" s="120"/>
-      <c r="L110" s="120"/>
-      <c r="M110" s="121"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="81"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="42"/>
-      <c r="V110" s="46"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
+      <c r="B110" s="91" t="s">
+        <v>368</v>
+      </c>
+      <c r="C110" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="E110" s="119"/>
+      <c r="F110" s="119"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="119"/>
+      <c r="I110" s="119"/>
+      <c r="J110" s="119"/>
+      <c r="K110" s="119"/>
+      <c r="L110" s="119"/>
+      <c r="M110" s="120"/>
+      <c r="N110" s="92"/>
+      <c r="O110" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="P110" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q110" s="99"/>
+      <c r="R110" s="94">
+        <v>1</v>
+      </c>
+      <c r="S110" s="27"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="45"/>
+      <c r="V110" s="49"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="11"/>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
       <c r="AA110" s="7"/>
       <c r="AB110" s="42"/>
-      <c r="AC110" s="46"/>
+      <c r="AC110" s="7"/>
       <c r="AD110" s="7"/>
       <c r="AE110" s="7"/>
       <c r="AF110" s="7"/>
@@ -14600,51 +14893,43 @@
       <c r="AI110" s="42"/>
       <c r="AJ110" s="46"/>
       <c r="AK110" s="7"/>
-      <c r="AL110" s="7"/>
-      <c r="AM110" s="7"/>
-      <c r="AN110" s="7"/>
-      <c r="AO110" s="7"/>
+      <c r="AL110" s="24"/>
+      <c r="AM110" s="24"/>
+      <c r="AN110" s="11"/>
+      <c r="AO110" s="11"/>
       <c r="AP110" s="42"/>
       <c r="AQ110" s="46"/>
-      <c r="AR110" s="7"/>
-      <c r="AS110" s="7"/>
-      <c r="AT110" s="7"/>
-      <c r="AU110" s="7"/>
-      <c r="AV110" s="114"/>
-      <c r="AW110" s="105"/>
+      <c r="AR110" s="11"/>
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="11"/>
+      <c r="AU110" s="11"/>
+      <c r="AV110" s="112"/>
+      <c r="AW110" s="103" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="111" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B111" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="C111" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="122"/>
-      <c r="I111" s="122"/>
-      <c r="J111" s="122"/>
-      <c r="K111" s="122"/>
-      <c r="L111" s="122"/>
-      <c r="M111" s="123"/>
-      <c r="N111" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="O111" s="93" t="s">
-        <v>268</v>
-      </c>
-      <c r="P111" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q111" s="92"/>
-      <c r="R111" s="94">
-        <v>1</v>
-      </c>
+      <c r="B111" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
+      <c r="J111" s="124"/>
+      <c r="K111" s="124"/>
+      <c r="L111" s="124"/>
+      <c r="M111" s="125"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="38"/>
+      <c r="R111" s="81"/>
       <c r="S111" s="25"/>
       <c r="T111" s="7"/>
       <c r="U111" s="42"/>
@@ -14670,43 +14955,45 @@
       <c r="AO111" s="7"/>
       <c r="AP111" s="42"/>
       <c r="AQ111" s="46"/>
-      <c r="AR111" s="8"/>
-      <c r="AS111" s="8"/>
-      <c r="AT111" s="8"/>
-      <c r="AU111" s="8"/>
-      <c r="AV111" s="96"/>
-      <c r="AW111" s="105">
-        <v>2</v>
-      </c>
+      <c r="AR111" s="7"/>
+      <c r="AS111" s="7"/>
+      <c r="AT111" s="7"/>
+      <c r="AU111" s="7"/>
+      <c r="AV111" s="112"/>
+      <c r="AW111" s="103"/>
     </row>
     <row r="112" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
+      <c r="G112" s="116"/>
+      <c r="H112" s="116"/>
+      <c r="I112" s="116"/>
+      <c r="J112" s="116"/>
+      <c r="K112" s="116"/>
+      <c r="L112" s="116"/>
+      <c r="M112" s="117"/>
+      <c r="N112" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D112" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="E112" s="118"/>
-      <c r="F112" s="118"/>
-      <c r="G112" s="118"/>
-      <c r="H112" s="118"/>
-      <c r="I112" s="118"/>
-      <c r="J112" s="118"/>
-      <c r="K112" s="118"/>
-      <c r="L112" s="118"/>
-      <c r="M112" s="119"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="P112" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="80"/>
+      <c r="O112" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="P112" s="93" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q112" s="92"/>
+      <c r="R112" s="94">
+        <v>1</v>
+      </c>
       <c r="S112" s="25"/>
       <c r="T112" s="7"/>
       <c r="U112" s="42"/>
@@ -14733,39 +15020,39 @@
       <c r="AP112" s="42"/>
       <c r="AQ112" s="46"/>
       <c r="AR112" s="8"/>
-      <c r="AS112" s="7"/>
-      <c r="AT112" s="7"/>
-      <c r="AU112" s="7"/>
-      <c r="AV112" s="114"/>
-      <c r="AW112" s="105">
-        <v>1</v>
+      <c r="AS112" s="8"/>
+      <c r="AT112" s="11"/>
+      <c r="AU112" s="11"/>
+      <c r="AV112" s="112"/>
+      <c r="AW112" s="103">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B113" s="91" t="s">
-        <v>132</v>
+      <c r="B113" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D113" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="E113" s="118"/>
-      <c r="F113" s="118"/>
-      <c r="G113" s="118"/>
-      <c r="H113" s="118"/>
-      <c r="I113" s="118"/>
-      <c r="J113" s="118"/>
-      <c r="K113" s="118"/>
-      <c r="L113" s="118"/>
-      <c r="M113" s="119"/>
+        <v>201</v>
+      </c>
+      <c r="D113" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
+      <c r="G113" s="114"/>
+      <c r="H113" s="114"/>
+      <c r="I113" s="114"/>
+      <c r="J113" s="114"/>
+      <c r="K113" s="114"/>
+      <c r="L113" s="114"/>
+      <c r="M113" s="115"/>
       <c r="N113" s="15"/>
       <c r="O113" s="17" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P113" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q113" s="15"/>
       <c r="R113" s="80"/>
@@ -14798,36 +15085,36 @@
       <c r="AS113" s="7"/>
       <c r="AT113" s="7"/>
       <c r="AU113" s="7"/>
-      <c r="AV113" s="114"/>
-      <c r="AW113" s="105">
+      <c r="AV113" s="112"/>
+      <c r="AW113" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B114" s="36" t="s">
-        <v>133</v>
+      <c r="B114" s="91" t="s">
+        <v>132</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D114" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="E114" s="118"/>
-      <c r="F114" s="118"/>
-      <c r="G114" s="118"/>
-      <c r="H114" s="118"/>
-      <c r="I114" s="118"/>
-      <c r="J114" s="118"/>
-      <c r="K114" s="118"/>
-      <c r="L114" s="118"/>
-      <c r="M114" s="119"/>
+        <v>189</v>
+      </c>
+      <c r="D114" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="114"/>
+      <c r="F114" s="114"/>
+      <c r="G114" s="114"/>
+      <c r="H114" s="114"/>
+      <c r="I114" s="114"/>
+      <c r="J114" s="114"/>
+      <c r="K114" s="114"/>
+      <c r="L114" s="114"/>
+      <c r="M114" s="115"/>
       <c r="N114" s="15"/>
       <c r="O114" s="17" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="P114" s="17" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="80"/>
@@ -14856,40 +15143,40 @@
       <c r="AO114" s="7"/>
       <c r="AP114" s="42"/>
       <c r="AQ114" s="46"/>
-      <c r="AR114" s="7"/>
-      <c r="AS114" s="8"/>
-      <c r="AT114" s="8"/>
+      <c r="AR114" s="8"/>
+      <c r="AS114" s="7"/>
+      <c r="AT114" s="7"/>
       <c r="AU114" s="7"/>
-      <c r="AV114" s="114"/>
-      <c r="AW114" s="105">
-        <v>2</v>
+      <c r="AV114" s="112"/>
+      <c r="AW114" s="103">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B115" s="91" t="s">
-        <v>134</v>
+      <c r="B115" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="E115" s="118"/>
-      <c r="F115" s="118"/>
-      <c r="G115" s="118"/>
-      <c r="H115" s="118"/>
-      <c r="I115" s="118"/>
-      <c r="J115" s="118"/>
-      <c r="K115" s="118"/>
-      <c r="L115" s="118"/>
-      <c r="M115" s="119"/>
+        <v>204</v>
+      </c>
+      <c r="D115" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" s="114"/>
+      <c r="F115" s="114"/>
+      <c r="G115" s="114"/>
+      <c r="H115" s="114"/>
+      <c r="I115" s="114"/>
+      <c r="J115" s="114"/>
+      <c r="K115" s="114"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="115"/>
       <c r="N115" s="15"/>
       <c r="O115" s="17" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="P115" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q115" s="15"/>
       <c r="R115" s="80"/>
@@ -14919,182 +15206,146 @@
       <c r="AP115" s="42"/>
       <c r="AQ115" s="46"/>
       <c r="AR115" s="7"/>
-      <c r="AS115" s="7"/>
+      <c r="AS115" s="8"/>
       <c r="AT115" s="8"/>
       <c r="AU115" s="7"/>
-      <c r="AV115" s="114"/>
-      <c r="AW115" s="105">
-        <v>1</v>
+      <c r="AV115" s="112"/>
+      <c r="AW115" s="103">
+        <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="90" t="s">
+    <row r="116" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B116" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="E116" s="114"/>
+      <c r="F116" s="114"/>
+      <c r="G116" s="114"/>
+      <c r="H116" s="114"/>
+      <c r="I116" s="114"/>
+      <c r="J116" s="114"/>
+      <c r="K116" s="114"/>
+      <c r="L116" s="114"/>
+      <c r="M116" s="115"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="P116" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="80"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="42"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="42"/>
+      <c r="AC116" s="46"/>
+      <c r="AD116" s="7"/>
+      <c r="AE116" s="7"/>
+      <c r="AF116" s="7"/>
+      <c r="AG116" s="7"/>
+      <c r="AH116" s="7"/>
+      <c r="AI116" s="42"/>
+      <c r="AJ116" s="46"/>
+      <c r="AK116" s="7"/>
+      <c r="AL116" s="7"/>
+      <c r="AM116" s="7"/>
+      <c r="AN116" s="7"/>
+      <c r="AO116" s="7"/>
+      <c r="AP116" s="42"/>
+      <c r="AQ116" s="46"/>
+      <c r="AR116" s="7"/>
+      <c r="AS116" s="7"/>
+      <c r="AT116" s="8"/>
+      <c r="AU116" s="7"/>
+      <c r="AV116" s="112"/>
+      <c r="AW116" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C116" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="124" t="s">
-        <v>210</v>
-      </c>
-      <c r="E116" s="124"/>
-      <c r="F116" s="124"/>
-      <c r="G116" s="124"/>
-      <c r="H116" s="124"/>
-      <c r="I116" s="124"/>
-      <c r="J116" s="124"/>
-      <c r="K116" s="124"/>
-      <c r="L116" s="124"/>
-      <c r="M116" s="125"/>
-      <c r="N116" s="67"/>
-      <c r="O116" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="P116" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q116" s="67"/>
-      <c r="R116" s="84"/>
-      <c r="S116" s="69"/>
-      <c r="T116" s="70"/>
-      <c r="U116" s="71"/>
-      <c r="V116" s="72"/>
-      <c r="W116" s="70"/>
-      <c r="X116" s="70"/>
-      <c r="Y116" s="70"/>
-      <c r="Z116" s="70"/>
-      <c r="AA116" s="70"/>
-      <c r="AB116" s="71"/>
-      <c r="AC116" s="72"/>
-      <c r="AD116" s="70"/>
-      <c r="AE116" s="70"/>
-      <c r="AF116" s="70"/>
-      <c r="AG116" s="70"/>
-      <c r="AH116" s="70"/>
-      <c r="AI116" s="71"/>
-      <c r="AJ116" s="72"/>
-      <c r="AK116" s="70"/>
-      <c r="AL116" s="70"/>
-      <c r="AM116" s="70"/>
-      <c r="AN116" s="70"/>
-      <c r="AO116" s="70"/>
-      <c r="AP116" s="71"/>
-      <c r="AQ116" s="72"/>
-      <c r="AR116" s="70"/>
-      <c r="AS116" s="70"/>
-      <c r="AT116" s="70"/>
-      <c r="AU116" s="98"/>
-      <c r="AV116" s="115"/>
-      <c r="AW116" s="106">
+      <c r="C117" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" s="143" t="s">
+        <v>208</v>
+      </c>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
+      <c r="G117" s="143"/>
+      <c r="H117" s="143"/>
+      <c r="I117" s="143"/>
+      <c r="J117" s="143"/>
+      <c r="K117" s="143"/>
+      <c r="L117" s="143"/>
+      <c r="M117" s="144"/>
+      <c r="N117" s="67"/>
+      <c r="O117" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="P117" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q117" s="67"/>
+      <c r="R117" s="84"/>
+      <c r="S117" s="69"/>
+      <c r="T117" s="70"/>
+      <c r="U117" s="71"/>
+      <c r="V117" s="72"/>
+      <c r="W117" s="70"/>
+      <c r="X117" s="70"/>
+      <c r="Y117" s="70"/>
+      <c r="Z117" s="70"/>
+      <c r="AA117" s="70"/>
+      <c r="AB117" s="71"/>
+      <c r="AC117" s="72"/>
+      <c r="AD117" s="70"/>
+      <c r="AE117" s="70"/>
+      <c r="AF117" s="70"/>
+      <c r="AG117" s="70"/>
+      <c r="AH117" s="70"/>
+      <c r="AI117" s="71"/>
+      <c r="AJ117" s="72"/>
+      <c r="AK117" s="70"/>
+      <c r="AL117" s="70"/>
+      <c r="AM117" s="70"/>
+      <c r="AN117" s="70"/>
+      <c r="AO117" s="70"/>
+      <c r="AP117" s="71"/>
+      <c r="AQ117" s="72"/>
+      <c r="AR117" s="70"/>
+      <c r="AS117" s="70"/>
+      <c r="AT117" s="70"/>
+      <c r="AU117" s="97"/>
+      <c r="AV117" s="113"/>
+      <c r="AW117" s="104">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D78:M78"/>
+  <mergeCells count="125">
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="D105:M105"/>
     <mergeCell ref="D107:M107"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D109:M109"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="C100:M100"/>
-    <mergeCell ref="D101:M101"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="C106:M106"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D116:M116"/>
-    <mergeCell ref="C110:M110"/>
-    <mergeCell ref="D112:M112"/>
-    <mergeCell ref="D113:M113"/>
-    <mergeCell ref="D114:M114"/>
-    <mergeCell ref="D115:M115"/>
-    <mergeCell ref="D111:M111"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D90:M90"/>
     <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="D105:M105"/>
     <mergeCell ref="D96:M96"/>
-    <mergeCell ref="D95:M95"/>
     <mergeCell ref="D92:M92"/>
     <mergeCell ref="D86:M86"/>
     <mergeCell ref="D65:M65"/>
@@ -15114,13 +15365,112 @@
     <mergeCell ref="D75:M75"/>
     <mergeCell ref="D76:M76"/>
     <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D103:M103"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D117:M117"/>
+    <mergeCell ref="C111:M111"/>
+    <mergeCell ref="D113:M113"/>
+    <mergeCell ref="D114:M114"/>
+    <mergeCell ref="D115:M115"/>
+    <mergeCell ref="D116:M116"/>
+    <mergeCell ref="D112:M112"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D90:M90"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D110:M110"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="C101:M101"/>
     <mergeCell ref="D102:M102"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="C108:M108"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D109:M109"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19 B30 P26:P29 B55 B83 B110 B7 O35 O41:O47 O62 O64:O65 O68:O70 O85:O88 O111:P116 O92:O95 P11:P15 O14:O15 B100 B106 P31:P47 P84:P95 P67:P72 O16:P18 O29 O72 O107:P109 P57:P65 O48:P54 O58:O60 O80:P82 O96:P99 O101:P104 O73:P79" numberStoredAsText="1"/>
+    <ignoredError sqref="B19 B30 P26:P29 B55 B83 B111 B7 O35 O41:O47 O62 O64:O65 O68:O70 O85:O88 P11:P15 O14:O15 B101 B108 P31:P47 O96:P100 P67:P73 O17:P18 O29 O72:O73 P57:P65 O48:P54 O58:O60 P84:P95 O92:O95 O102:P106 O109:P110 O112:P117 O74:P82 O16:P16" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="815">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3119,7 +3119,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리 인게임 결합</t>
+    <t>10.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3127,46 +3127,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>6-18</t>
+  </si>
+  <si>
+    <t>전체 개발 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 초기화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작시 구성요소(높이, 포지션체커, 캐릭터) 결합 후 확인(테스트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리/ 산책모드 인게임 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게임 시작시 구성요소(높이, 포지션체커, 케릭터) 결합 후 확인(테스트)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-18</t>
-  </si>
-  <si>
-    <t>전체 개발 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 초기화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-26</t>
+    <t>10.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4354,10 +4366,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4366,13 +4378,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4387,6 +4414,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4399,49 +4453,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,12 +4487,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -10272,13 +10284,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>268774</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>78686</xdr:rowOff>
+      <xdr:rowOff>78687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>234042</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>138791</xdr:rowOff>
+      <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10287,8 +10299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16502095" y="16652186"/>
-          <a:ext cx="1325983" cy="60105"/>
+          <a:off x="16502095" y="16856294"/>
+          <a:ext cx="1404905" cy="57386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10481,6 +10493,130 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>12959</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="직사각형 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16518423" y="17280837"/>
+          <a:ext cx="1361363" cy="54664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>271858</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>100736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="직사각형 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17865894" y="23205665"/>
+          <a:ext cx="305083" cy="54386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -11037,8 +11173,8 @@
   <dimension ref="B1:BA126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11096,13 +11232,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="177" t="s">
+      <c r="AY2" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="AZ2" s="177" t="s">
+      <c r="AZ2" s="195" t="s">
         <v>317</v>
       </c>
-      <c r="BA2" s="177" t="s">
+      <c r="BA2" s="195" t="s">
         <v>318</v>
       </c>
     </row>
@@ -11120,9 +11256,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="177"/>
-      <c r="AZ3" s="177"/>
-      <c r="BA3" s="177"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="101">
@@ -11130,104 +11266,104 @@
         <v>177</v>
       </c>
       <c r="AZ4" s="101">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW29+AW30+AW33+AW34+AW35+AW36+AW37+AW41+AW42+AW45+AW47+AW48+AW49+AW51+AW60+AW61+AW72+AW73+AW76+AW79+AW97+AW99+AW100+AW86+AW92+AW50+AW96+AW95+AW93+AW94+AW15+AW52+AW54+AW53+AW31+AW46+AW18+AW38+AW40+AW102+AW39+AW43+AW74+AW75+AW98+AW101+AW16+AW110+AW105+AW106+AW107+AW82+AW81+AW77+AW113+AW67+AW121+AW122+AW84+AW56+AW83+AW68+AW55+AW62+AW63+AW64+AW65+AW66+AW78+AW103+AW87+AW88+AW104+AW123+AW112+AW117+AW19+AW80+AW89+AW120</f>
-        <v>146</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW29+AW30+AW33+AW34+AW35+AW36+AW37+AW41+AW42+AW45+AW47+AW48+AW49+AW51+AW60+AW61+AW72+AW73+AW76+AW79+AW97+AW99+AW100+AW86+AW92+AW50+AW96+AW95+AW93+AW94+AW15+AW52+AW54+AW53+AW31+AW46+AW18+AW38+AW40+AW102+AW39+AW43+AW74+AW75+AW98+AW101+AW16+AW110+AW105+AW106+AW107+AW82+AW81+AW77+AW113+AW67+AW121+AW122+AW84+AW56+AW83+AW68+AW55+AW62+AW63+AW64+AW65+AW66+AW78+AW103+AW87+AW88+AW104+AW123+AW112+AW117+AW19+AW80+AW89+AW120+AW85+AW114</f>
+        <v>150</v>
       </c>
       <c r="BA4" s="101">
         <f>AZ4/AY4*100</f>
-        <v>82.485875706214685</v>
+        <v>84.745762711864401</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="178" t="s">
+      <c r="C5" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="186" t="s">
+      <c r="O5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="186" t="s">
+      <c r="P5" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="178" t="s">
+      <c r="Q5" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="182" t="s">
+      <c r="R5" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="190" t="s">
+      <c r="S5" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188" t="s">
+      <c r="T5" s="190"/>
+      <c r="U5" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
-      <c r="AJ5" s="188"/>
-      <c r="AK5" s="188"/>
-      <c r="AL5" s="188"/>
-      <c r="AM5" s="188"/>
-      <c r="AN5" s="188"/>
-      <c r="AO5" s="188"/>
-      <c r="AP5" s="188"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="188"/>
-      <c r="AS5" s="188"/>
-      <c r="AT5" s="188"/>
-      <c r="AU5" s="188"/>
-      <c r="AV5" s="189"/>
-      <c r="AW5" s="191" t="s">
+      <c r="V5" s="190"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="190"/>
+      <c r="AI5" s="190"/>
+      <c r="AJ5" s="190"/>
+      <c r="AK5" s="190"/>
+      <c r="AL5" s="190"/>
+      <c r="AM5" s="190"/>
+      <c r="AN5" s="190"/>
+      <c r="AO5" s="190"/>
+      <c r="AP5" s="190"/>
+      <c r="AQ5" s="190"/>
+      <c r="AR5" s="190"/>
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="193" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="196"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="183"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="197"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -11318,25 +11454,25 @@
       <c r="AV6" s="164">
         <v>28</v>
       </c>
-      <c r="AW6" s="192"/>
+      <c r="AW6" s="194"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="146" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="185"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="199"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -11381,18 +11517,18 @@
       <c r="C8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="181"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="186"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -11449,18 +11585,18 @@
       <c r="C9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="181"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="186"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -11517,18 +11653,18 @@
       <c r="C10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="181"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="186"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -11585,18 +11721,18 @@
       <c r="C11" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="181"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
       <c r="N11" s="50" t="s">
         <v>88</v>
       </c>
@@ -11653,18 +11789,18 @@
       <c r="C12" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="181"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
       <c r="N12" s="50" t="s">
         <v>208</v>
       </c>
@@ -11721,18 +11857,18 @@
       <c r="C13" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="186"/>
       <c r="N13" s="50" t="s">
         <v>147</v>
       </c>
@@ -11789,18 +11925,18 @@
       <c r="C14" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="185" t="s">
         <v>299</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="181"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="185"/>
+      <c r="M14" s="186"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -11857,18 +11993,18 @@
       <c r="C15" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="180" t="s">
+      <c r="D15" s="185" t="s">
         <v>337</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="186"/>
       <c r="N15" s="50" t="s">
         <v>352</v>
       </c>
@@ -11925,18 +12061,18 @@
       <c r="C16" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="181"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="186"/>
       <c r="N16" s="50" t="s">
         <v>214</v>
       </c>
@@ -11993,18 +12129,18 @@
       <c r="C17" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="180" t="s">
+      <c r="D17" s="185" t="s">
         <v>773</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="181"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="186"/>
       <c r="N17" s="50" t="s">
         <v>221</v>
       </c>
@@ -12058,18 +12194,18 @@
       <c r="C18" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="185" t="s">
         <v>369</v>
       </c>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="181"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="186"/>
       <c r="N18" s="50" t="s">
         <v>370</v>
       </c>
@@ -12125,18 +12261,18 @@
       <c r="C19" s="85" t="s">
         <v>686</v>
       </c>
-      <c r="D19" s="180" t="s">
+      <c r="D19" s="185" t="s">
         <v>694</v>
       </c>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="181"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="186"/>
       <c r="N19" s="50" t="s">
         <v>691</v>
       </c>
@@ -12191,18 +12327,18 @@
       <c r="C20" s="85" t="s">
         <v>686</v>
       </c>
-      <c r="D20" s="180" t="s">
+      <c r="D20" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="181"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="186"/>
       <c r="N20" s="50" t="s">
         <v>697</v>
       </c>
@@ -12252,19 +12388,19 @@
       <c r="B21" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="194"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="172"/>
       <c r="N21" s="13"/>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
@@ -12309,18 +12445,18 @@
       <c r="C22" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="198"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="188"/>
       <c r="N22" s="14" t="s">
         <v>10</v>
       </c>
@@ -12377,18 +12513,18 @@
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="172"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="176"/>
       <c r="N23" s="15" t="s">
         <v>32</v>
       </c>
@@ -12445,18 +12581,18 @@
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="172"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="176"/>
       <c r="N24" s="15" t="s">
         <v>33</v>
       </c>
@@ -12513,18 +12649,18 @@
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="171" t="s">
+      <c r="D25" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="172"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="176"/>
       <c r="N25" s="15" t="s">
         <v>34</v>
       </c>
@@ -12581,18 +12717,18 @@
       <c r="C26" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="172"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="176"/>
       <c r="N26" s="15" t="s">
         <v>35</v>
       </c>
@@ -12649,18 +12785,18 @@
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="171" t="s">
+      <c r="D27" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="172"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="176"/>
       <c r="N27" s="15" t="s">
         <v>37</v>
       </c>
@@ -12717,18 +12853,18 @@
       <c r="C28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="171" t="s">
+      <c r="D28" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="172"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="176"/>
       <c r="N28" s="15" t="s">
         <v>83</v>
       </c>
@@ -12785,18 +12921,18 @@
       <c r="C29" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="171" t="s">
+      <c r="D29" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="172"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="176"/>
       <c r="N29" s="15" t="s">
         <v>137</v>
       </c>
@@ -12853,18 +12989,18 @@
       <c r="C30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="172"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="176"/>
       <c r="N30" s="15" t="s">
         <v>151</v>
       </c>
@@ -12921,18 +13057,18 @@
       <c r="C31" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="D31" s="171" t="s">
+      <c r="D31" s="175" t="s">
         <v>365</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="172"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="176"/>
       <c r="N31" s="15" t="s">
         <v>367</v>
       </c>
@@ -12986,19 +13122,19 @@
       <c r="B32" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="193" t="s">
-        <v>805</v>
-      </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="194"/>
+      <c r="C32" s="171" t="s">
+        <v>802</v>
+      </c>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="172"/>
       <c r="N32" s="13"/>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
@@ -13043,18 +13179,18 @@
       <c r="C33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="172"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="176"/>
       <c r="N33" s="15" t="s">
         <v>10</v>
       </c>
@@ -13111,18 +13247,18 @@
       <c r="C34" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="171" t="s">
+      <c r="D34" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="171"/>
-      <c r="M34" s="172"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="176"/>
       <c r="N34" s="15" t="s">
         <v>66</v>
       </c>
@@ -13179,18 +13315,18 @@
       <c r="C35" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="171" t="s">
+      <c r="D35" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="172"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="176"/>
       <c r="N35" s="15" t="s">
         <v>10</v>
       </c>
@@ -13247,18 +13383,18 @@
       <c r="C36" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="171" t="s">
+      <c r="D36" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="172"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="176"/>
       <c r="N36" s="15" t="s">
         <v>93</v>
       </c>
@@ -13315,18 +13451,18 @@
       <c r="C37" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="171" t="s">
+      <c r="D37" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="172"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="175"/>
+      <c r="M37" s="176"/>
       <c r="N37" s="15" t="s">
         <v>225</v>
       </c>
@@ -13383,18 +13519,18 @@
       <c r="C38" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="171" t="s">
+      <c r="D38" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="172"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="176"/>
       <c r="N38" s="15" t="s">
         <v>97</v>
       </c>
@@ -13451,18 +13587,18 @@
       <c r="C39" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="171" t="s">
+      <c r="D39" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="172"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="176"/>
       <c r="N39" s="15" t="s">
         <v>102</v>
       </c>
@@ -13519,18 +13655,18 @@
       <c r="C40" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="171" t="s">
+      <c r="D40" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="172"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="176"/>
       <c r="N40" s="15" t="s">
         <v>107</v>
       </c>
@@ -13587,18 +13723,18 @@
       <c r="C41" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="171" t="s">
+      <c r="D41" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="172"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="176"/>
       <c r="N41" s="15" t="s">
         <v>141</v>
       </c>
@@ -13655,18 +13791,18 @@
       <c r="C42" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="171" t="s">
+      <c r="D42" s="175" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="172"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="176"/>
       <c r="N42" s="15" t="s">
         <v>144</v>
       </c>
@@ -13723,18 +13859,18 @@
       <c r="C43" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="171" t="s">
+      <c r="D43" s="175" t="s">
         <v>234</v>
       </c>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-      <c r="M43" s="172"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="176"/>
       <c r="N43" s="15" t="s">
         <v>235</v>
       </c>
@@ -13791,18 +13927,18 @@
       <c r="C44" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="171" t="s">
+      <c r="D44" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="172"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="175"/>
+      <c r="M44" s="176"/>
       <c r="N44" s="15" t="s">
         <v>216</v>
       </c>
@@ -13857,18 +13993,18 @@
       <c r="C45" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="171" t="s">
+      <c r="D45" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="172"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="175"/>
+      <c r="L45" s="175"/>
+      <c r="M45" s="176"/>
       <c r="N45" s="15" t="s">
         <v>229</v>
       </c>
@@ -13925,18 +14061,18 @@
       <c r="C46" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="171" t="s">
+      <c r="D46" s="175" t="s">
         <v>238</v>
       </c>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="172"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="176"/>
       <c r="N46" s="15" t="s">
         <v>216</v>
       </c>
@@ -13993,18 +14129,18 @@
       <c r="C47" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="171" t="s">
+      <c r="D47" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="172"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="176"/>
       <c r="N47" s="15" t="s">
         <v>241</v>
       </c>
@@ -14061,18 +14197,18 @@
       <c r="C48" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="171" t="s">
+      <c r="D48" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="172"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="175"/>
+      <c r="M48" s="176"/>
       <c r="N48" s="15" t="s">
         <v>246</v>
       </c>
@@ -14129,18 +14265,18 @@
       <c r="C49" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="171" t="s">
+      <c r="D49" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
-      <c r="M49" s="172"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="176"/>
       <c r="N49" s="15" t="s">
         <v>244</v>
       </c>
@@ -14197,18 +14333,18 @@
       <c r="C50" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="171" t="s">
+      <c r="D50" s="175" t="s">
         <v>341</v>
       </c>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="172"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="176"/>
       <c r="N50" s="15" t="s">
         <v>230</v>
       </c>
@@ -14265,18 +14401,18 @@
       <c r="C51" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="171" t="s">
+      <c r="D51" s="175" t="s">
         <v>255</v>
       </c>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="172"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="175"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="176"/>
       <c r="N51" s="15" t="s">
         <v>256</v>
       </c>
@@ -14332,18 +14468,18 @@
       <c r="C52" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="D52" s="171" t="s">
+      <c r="D52" s="175" t="s">
         <v>332</v>
       </c>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="171"/>
-      <c r="M52" s="172"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="176"/>
       <c r="N52" s="15" t="s">
         <v>333</v>
       </c>
@@ -14399,18 +14535,18 @@
       <c r="C53" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="D53" s="171" t="s">
+      <c r="D53" s="175" t="s">
         <v>342</v>
       </c>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="172"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="176"/>
       <c r="N53" s="15" t="s">
         <v>343</v>
       </c>
@@ -14466,18 +14602,18 @@
       <c r="C54" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="D54" s="171" t="s">
+      <c r="D54" s="175" t="s">
         <v>355</v>
       </c>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
-      <c r="G54" s="171"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="171"/>
-      <c r="M54" s="172"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="175"/>
+      <c r="M54" s="176"/>
       <c r="N54" s="15" t="s">
         <v>356</v>
       </c>
@@ -14533,18 +14669,18 @@
       <c r="C55" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="D55" s="171" t="s">
+      <c r="D55" s="175" t="s">
         <v>398</v>
       </c>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
-      <c r="M55" s="172"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="175"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="175"/>
+      <c r="I55" s="175"/>
+      <c r="J55" s="175"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="175"/>
+      <c r="M55" s="176"/>
       <c r="N55" s="15" t="s">
         <v>399</v>
       </c>
@@ -14600,18 +14736,18 @@
       <c r="C56" s="54" t="s">
         <v>681</v>
       </c>
-      <c r="D56" s="171" t="s">
+      <c r="D56" s="175" t="s">
         <v>682</v>
       </c>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="171"/>
-      <c r="L56" s="171"/>
-      <c r="M56" s="172"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="175"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="175"/>
+      <c r="I56" s="175"/>
+      <c r="J56" s="175"/>
+      <c r="K56" s="175"/>
+      <c r="L56" s="175"/>
+      <c r="M56" s="176"/>
       <c r="N56" s="15" t="s">
         <v>683</v>
       </c>
@@ -14667,20 +14803,20 @@
       <c r="C57" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="D57" s="171" t="s">
-        <v>802</v>
-      </c>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="171"/>
-      <c r="K57" s="171"/>
-      <c r="L57" s="171"/>
-      <c r="M57" s="172"/>
+      <c r="D57" s="175" t="s">
+        <v>809</v>
+      </c>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="175"/>
+      <c r="I57" s="175"/>
+      <c r="J57" s="175"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="176"/>
       <c r="N57" s="15" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="O57" s="17" t="s">
         <v>790</v>
@@ -14726,31 +14862,31 @@
     </row>
     <row r="58" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B58" s="149" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C58" s="54" t="s">
+        <v>803</v>
+      </c>
+      <c r="D58" s="175" t="s">
+        <v>804</v>
+      </c>
+      <c r="E58" s="175"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="175"/>
+      <c r="H58" s="175"/>
+      <c r="I58" s="175"/>
+      <c r="J58" s="175"/>
+      <c r="K58" s="175"/>
+      <c r="L58" s="175"/>
+      <c r="M58" s="176"/>
+      <c r="N58" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="O58" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D58" s="171" t="s">
+      <c r="P58" s="17" t="s">
         <v>807</v>
-      </c>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="171"/>
-      <c r="K58" s="171"/>
-      <c r="L58" s="171"/>
-      <c r="M58" s="172"/>
-      <c r="N58" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="O58" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="P58" s="17" t="s">
-        <v>810</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="80">
@@ -14792,19 +14928,19 @@
       <c r="B59" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="193" t="s">
+      <c r="C59" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="193"/>
-      <c r="G59" s="193"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="193"/>
-      <c r="J59" s="193"/>
-      <c r="K59" s="193"/>
-      <c r="L59" s="193"/>
-      <c r="M59" s="194"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="172"/>
       <c r="N59" s="38"/>
       <c r="O59" s="41"/>
       <c r="P59" s="41"/>
@@ -15186,18 +15322,18 @@
       <c r="C65" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="171" t="s">
+      <c r="D65" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="171"/>
-      <c r="F65" s="171"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="171"/>
-      <c r="L65" s="171"/>
-      <c r="M65" s="172"/>
+      <c r="E65" s="175"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="175"/>
+      <c r="H65" s="175"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="175"/>
+      <c r="K65" s="175"/>
+      <c r="L65" s="175"/>
+      <c r="M65" s="176"/>
       <c r="N65" s="15" t="s">
         <v>102</v>
       </c>
@@ -15254,18 +15390,18 @@
       <c r="C66" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="171" t="s">
+      <c r="D66" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="171"/>
-      <c r="F66" s="171"/>
-      <c r="G66" s="171"/>
-      <c r="H66" s="171"/>
-      <c r="I66" s="171"/>
-      <c r="J66" s="171"/>
-      <c r="K66" s="171"/>
-      <c r="L66" s="171"/>
-      <c r="M66" s="172"/>
+      <c r="E66" s="175"/>
+      <c r="F66" s="175"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="175"/>
+      <c r="L66" s="175"/>
+      <c r="M66" s="176"/>
       <c r="N66" s="15" t="s">
         <v>75</v>
       </c>
@@ -15322,18 +15458,18 @@
       <c r="C67" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="171" t="s">
+      <c r="D67" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="171"/>
-      <c r="F67" s="171"/>
-      <c r="G67" s="171"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="171"/>
-      <c r="J67" s="171"/>
-      <c r="K67" s="171"/>
-      <c r="L67" s="171"/>
-      <c r="M67" s="172"/>
+      <c r="E67" s="175"/>
+      <c r="F67" s="175"/>
+      <c r="G67" s="175"/>
+      <c r="H67" s="175"/>
+      <c r="I67" s="175"/>
+      <c r="J67" s="175"/>
+      <c r="K67" s="175"/>
+      <c r="L67" s="175"/>
+      <c r="M67" s="176"/>
       <c r="N67" s="15" t="s">
         <v>431</v>
       </c>
@@ -15390,18 +15526,18 @@
       <c r="C68" s="54" t="s">
         <v>686</v>
       </c>
-      <c r="D68" s="171" t="s">
+      <c r="D68" s="175" t="s">
         <v>690</v>
       </c>
-      <c r="E68" s="171"/>
-      <c r="F68" s="171"/>
-      <c r="G68" s="171"/>
-      <c r="H68" s="171"/>
-      <c r="I68" s="171"/>
-      <c r="J68" s="171"/>
-      <c r="K68" s="171"/>
-      <c r="L68" s="171"/>
-      <c r="M68" s="172"/>
+      <c r="E68" s="175"/>
+      <c r="F68" s="175"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="175"/>
+      <c r="I68" s="175"/>
+      <c r="J68" s="175"/>
+      <c r="K68" s="175"/>
+      <c r="L68" s="175"/>
+      <c r="M68" s="176"/>
       <c r="N68" s="15" t="s">
         <v>691</v>
       </c>
@@ -15456,18 +15592,18 @@
       <c r="C69" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="171" t="s">
+      <c r="D69" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="E69" s="171"/>
-      <c r="F69" s="171"/>
-      <c r="G69" s="171"/>
-      <c r="H69" s="171"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="171"/>
-      <c r="K69" s="171"/>
-      <c r="L69" s="171"/>
-      <c r="M69" s="172"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
+      <c r="I69" s="175"/>
+      <c r="J69" s="175"/>
+      <c r="K69" s="175"/>
+      <c r="L69" s="175"/>
+      <c r="M69" s="176"/>
       <c r="N69" s="15"/>
       <c r="O69" s="17" t="s">
         <v>268</v>
@@ -15520,18 +15656,18 @@
       <c r="C70" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="171" t="s">
+      <c r="D70" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="171"/>
-      <c r="F70" s="171"/>
-      <c r="G70" s="171"/>
-      <c r="H70" s="171"/>
-      <c r="I70" s="171"/>
-      <c r="J70" s="171"/>
-      <c r="K70" s="171"/>
-      <c r="L70" s="171"/>
-      <c r="M70" s="172"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="175"/>
+      <c r="H70" s="175"/>
+      <c r="I70" s="175"/>
+      <c r="J70" s="175"/>
+      <c r="K70" s="175"/>
+      <c r="L70" s="175"/>
+      <c r="M70" s="176"/>
       <c r="N70" s="15"/>
       <c r="O70" s="17" t="s">
         <v>268</v>
@@ -15581,19 +15717,19 @@
       <c r="B71" s="150">
         <v>5</v>
       </c>
-      <c r="C71" s="193" t="s">
+      <c r="C71" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="193"/>
-      <c r="E71" s="193"/>
-      <c r="F71" s="193"/>
-      <c r="G71" s="193"/>
-      <c r="H71" s="193"/>
-      <c r="I71" s="193"/>
-      <c r="J71" s="193"/>
-      <c r="K71" s="193"/>
-      <c r="L71" s="193"/>
-      <c r="M71" s="194"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="171"/>
+      <c r="G71" s="171"/>
+      <c r="H71" s="171"/>
+      <c r="I71" s="171"/>
+      <c r="J71" s="171"/>
+      <c r="K71" s="171"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="172"/>
       <c r="N71" s="40"/>
       <c r="O71" s="41"/>
       <c r="P71" s="41"/>
@@ -15638,18 +15774,18 @@
       <c r="C72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="171" t="s">
+      <c r="D72" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="171"/>
-      <c r="F72" s="171"/>
-      <c r="G72" s="171"/>
-      <c r="H72" s="171"/>
-      <c r="I72" s="171"/>
-      <c r="J72" s="171"/>
-      <c r="K72" s="171"/>
-      <c r="L72" s="171"/>
-      <c r="M72" s="172"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="175"/>
+      <c r="I72" s="175"/>
+      <c r="J72" s="175"/>
+      <c r="K72" s="175"/>
+      <c r="L72" s="175"/>
+      <c r="M72" s="176"/>
       <c r="N72" s="15" t="s">
         <v>59</v>
       </c>
@@ -15706,18 +15842,18 @@
       <c r="C73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="171" t="s">
+      <c r="D73" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="171"/>
-      <c r="F73" s="171"/>
-      <c r="G73" s="171"/>
-      <c r="H73" s="171"/>
-      <c r="I73" s="171"/>
-      <c r="J73" s="171"/>
-      <c r="K73" s="171"/>
-      <c r="L73" s="171"/>
-      <c r="M73" s="172"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="175"/>
+      <c r="G73" s="175"/>
+      <c r="H73" s="175"/>
+      <c r="I73" s="175"/>
+      <c r="J73" s="175"/>
+      <c r="K73" s="175"/>
+      <c r="L73" s="175"/>
+      <c r="M73" s="176"/>
       <c r="N73" s="15" t="s">
         <v>271</v>
       </c>
@@ -15774,18 +15910,18 @@
       <c r="C74" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="171" t="s">
+      <c r="D74" s="175" t="s">
         <v>321</v>
       </c>
-      <c r="E74" s="171"/>
-      <c r="F74" s="171"/>
-      <c r="G74" s="171"/>
-      <c r="H74" s="171"/>
-      <c r="I74" s="171"/>
-      <c r="J74" s="171"/>
-      <c r="K74" s="171"/>
-      <c r="L74" s="171"/>
-      <c r="M74" s="172"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="175"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="175"/>
+      <c r="I74" s="175"/>
+      <c r="J74" s="175"/>
+      <c r="K74" s="175"/>
+      <c r="L74" s="175"/>
+      <c r="M74" s="176"/>
       <c r="N74" s="15" t="s">
         <v>286</v>
       </c>
@@ -15842,18 +15978,18 @@
       <c r="C75" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D75" s="171" t="s">
+      <c r="D75" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="E75" s="171"/>
-      <c r="F75" s="171"/>
-      <c r="G75" s="171"/>
-      <c r="H75" s="171"/>
-      <c r="I75" s="171"/>
-      <c r="J75" s="171"/>
-      <c r="K75" s="171"/>
-      <c r="L75" s="171"/>
-      <c r="M75" s="172"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="175"/>
+      <c r="I75" s="175"/>
+      <c r="J75" s="175"/>
+      <c r="K75" s="175"/>
+      <c r="L75" s="175"/>
+      <c r="M75" s="176"/>
       <c r="N75" s="15" t="s">
         <v>324</v>
       </c>
@@ -15910,18 +16046,18 @@
       <c r="C76" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="171" t="s">
+      <c r="D76" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="171"/>
-      <c r="F76" s="171"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="171"/>
-      <c r="J76" s="171"/>
-      <c r="K76" s="171"/>
-      <c r="L76" s="171"/>
-      <c r="M76" s="172"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="175"/>
+      <c r="I76" s="175"/>
+      <c r="J76" s="175"/>
+      <c r="K76" s="175"/>
+      <c r="L76" s="175"/>
+      <c r="M76" s="176"/>
       <c r="N76" s="15" t="s">
         <v>68</v>
       </c>
@@ -15978,18 +16114,18 @@
       <c r="C77" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="D77" s="171" t="s">
+      <c r="D77" s="175" t="s">
         <v>421</v>
       </c>
-      <c r="E77" s="171"/>
-      <c r="F77" s="171"/>
-      <c r="G77" s="171"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="171"/>
-      <c r="K77" s="171"/>
-      <c r="L77" s="171"/>
-      <c r="M77" s="172"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="175"/>
+      <c r="G77" s="175"/>
+      <c r="H77" s="175"/>
+      <c r="I77" s="175"/>
+      <c r="J77" s="175"/>
+      <c r="K77" s="175"/>
+      <c r="L77" s="175"/>
+      <c r="M77" s="176"/>
       <c r="N77" s="15" t="s">
         <v>375</v>
       </c>
@@ -16046,18 +16182,18 @@
       <c r="C78" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="D78" s="171" t="s">
+      <c r="D78" s="175" t="s">
         <v>443</v>
       </c>
-      <c r="E78" s="171"/>
-      <c r="F78" s="171"/>
-      <c r="G78" s="171"/>
-      <c r="H78" s="171"/>
-      <c r="I78" s="171"/>
-      <c r="J78" s="171"/>
-      <c r="K78" s="171"/>
-      <c r="L78" s="171"/>
-      <c r="M78" s="172"/>
+      <c r="E78" s="175"/>
+      <c r="F78" s="175"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="175"/>
+      <c r="I78" s="175"/>
+      <c r="J78" s="175"/>
+      <c r="K78" s="175"/>
+      <c r="L78" s="175"/>
+      <c r="M78" s="176"/>
       <c r="N78" s="15" t="s">
         <v>444</v>
       </c>
@@ -16114,18 +16250,18 @@
       <c r="C79" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="171" t="s">
+      <c r="D79" s="175" t="s">
         <v>179</v>
       </c>
-      <c r="E79" s="171"/>
-      <c r="F79" s="171"/>
-      <c r="G79" s="171"/>
-      <c r="H79" s="171"/>
-      <c r="I79" s="171"/>
-      <c r="J79" s="171"/>
-      <c r="K79" s="171"/>
-      <c r="L79" s="171"/>
-      <c r="M79" s="172"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175"/>
+      <c r="I79" s="175"/>
+      <c r="J79" s="175"/>
+      <c r="K79" s="175"/>
+      <c r="L79" s="175"/>
+      <c r="M79" s="176"/>
       <c r="N79" s="15" t="s">
         <v>276</v>
       </c>
@@ -16182,18 +16318,18 @@
       <c r="C80" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="D80" s="171" t="s">
+      <c r="D80" s="175" t="s">
         <v>378</v>
       </c>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
-      <c r="G80" s="171"/>
-      <c r="H80" s="171"/>
-      <c r="I80" s="171"/>
-      <c r="J80" s="171"/>
-      <c r="K80" s="171"/>
-      <c r="L80" s="171"/>
-      <c r="M80" s="172"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175"/>
+      <c r="I80" s="175"/>
+      <c r="J80" s="175"/>
+      <c r="K80" s="175"/>
+      <c r="L80" s="175"/>
+      <c r="M80" s="176"/>
       <c r="N80" s="15" t="s">
         <v>379</v>
       </c>
@@ -16250,18 +16386,18 @@
       <c r="C81" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="D81" s="171" t="s">
+      <c r="D81" s="175" t="s">
         <v>401</v>
       </c>
-      <c r="E81" s="171"/>
-      <c r="F81" s="171"/>
-      <c r="G81" s="171"/>
-      <c r="H81" s="171"/>
-      <c r="I81" s="171"/>
-      <c r="J81" s="171"/>
-      <c r="K81" s="171"/>
-      <c r="L81" s="171"/>
-      <c r="M81" s="172"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="175"/>
+      <c r="I81" s="175"/>
+      <c r="J81" s="175"/>
+      <c r="K81" s="175"/>
+      <c r="L81" s="175"/>
+      <c r="M81" s="176"/>
       <c r="N81" s="15" t="s">
         <v>402</v>
       </c>
@@ -16318,18 +16454,18 @@
       <c r="C82" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="D82" s="171" t="s">
+      <c r="D82" s="175" t="s">
         <v>414</v>
       </c>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
-      <c r="G82" s="171"/>
-      <c r="H82" s="171"/>
-      <c r="I82" s="171"/>
-      <c r="J82" s="171"/>
-      <c r="K82" s="171"/>
-      <c r="L82" s="171"/>
-      <c r="M82" s="172"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="175"/>
+      <c r="G82" s="175"/>
+      <c r="H82" s="175"/>
+      <c r="I82" s="175"/>
+      <c r="J82" s="175"/>
+      <c r="K82" s="175"/>
+      <c r="L82" s="175"/>
+      <c r="M82" s="176"/>
       <c r="N82" s="15" t="s">
         <v>399</v>
       </c>
@@ -16385,18 +16521,18 @@
       <c r="C83" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="D83" s="171" t="s">
+      <c r="D83" s="175" t="s">
         <v>425</v>
       </c>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
-      <c r="G83" s="171"/>
-      <c r="H83" s="171"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="171"/>
-      <c r="K83" s="171"/>
-      <c r="L83" s="171"/>
-      <c r="M83" s="172"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="175"/>
+      <c r="I83" s="175"/>
+      <c r="J83" s="175"/>
+      <c r="K83" s="175"/>
+      <c r="L83" s="175"/>
+      <c r="M83" s="176"/>
       <c r="N83" s="15" t="s">
         <v>427</v>
       </c>
@@ -16452,18 +16588,18 @@
       <c r="C84" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="D84" s="171" t="s">
+      <c r="D84" s="175" t="s">
         <v>566</v>
       </c>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
-      <c r="G84" s="171"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="171"/>
-      <c r="K84" s="171"/>
-      <c r="L84" s="171"/>
-      <c r="M84" s="172"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="175"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="175"/>
+      <c r="K84" s="175"/>
+      <c r="L84" s="175"/>
+      <c r="M84" s="176"/>
       <c r="N84" s="15" t="s">
         <v>567</v>
       </c>
@@ -16519,18 +16655,18 @@
       <c r="C85" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="171" t="s">
+      <c r="D85" s="175" t="s">
         <v>180</v>
       </c>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
-      <c r="G85" s="171"/>
-      <c r="H85" s="171"/>
-      <c r="I85" s="171"/>
-      <c r="J85" s="171"/>
-      <c r="K85" s="171"/>
-      <c r="L85" s="171"/>
-      <c r="M85" s="172"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="175"/>
+      <c r="I85" s="175"/>
+      <c r="J85" s="175"/>
+      <c r="K85" s="175"/>
+      <c r="L85" s="175"/>
+      <c r="M85" s="176"/>
       <c r="N85" s="15" t="s">
         <v>410</v>
       </c>
@@ -16540,7 +16676,9 @@
       <c r="P85" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="Q85" s="15"/>
+      <c r="Q85" s="19">
+        <v>1</v>
+      </c>
       <c r="R85" s="80">
         <v>1</v>
       </c>
@@ -16585,18 +16723,18 @@
       <c r="C86" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D86" s="171" t="s">
+      <c r="D86" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="171"/>
-      <c r="K86" s="171"/>
-      <c r="L86" s="171"/>
-      <c r="M86" s="172"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="175"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="175"/>
+      <c r="K86" s="175"/>
+      <c r="L86" s="175"/>
+      <c r="M86" s="176"/>
       <c r="N86" s="15" t="s">
         <v>294</v>
       </c>
@@ -16653,18 +16791,18 @@
       <c r="C87" s="54" t="s">
         <v>699</v>
       </c>
-      <c r="D87" s="171" t="s">
+      <c r="D87" s="175" t="s">
         <v>700</v>
       </c>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
-      <c r="H87" s="171"/>
-      <c r="I87" s="171"/>
-      <c r="J87" s="171"/>
-      <c r="K87" s="171"/>
-      <c r="L87" s="171"/>
-      <c r="M87" s="172"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
+      <c r="G87" s="175"/>
+      <c r="H87" s="175"/>
+      <c r="I87" s="175"/>
+      <c r="J87" s="175"/>
+      <c r="K87" s="175"/>
+      <c r="L87" s="175"/>
+      <c r="M87" s="176"/>
       <c r="N87" s="15" t="s">
         <v>701</v>
       </c>
@@ -16720,18 +16858,18 @@
       <c r="C88" s="54" t="s">
         <v>686</v>
       </c>
-      <c r="D88" s="171" t="s">
+      <c r="D88" s="175" t="s">
         <v>687</v>
       </c>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-      <c r="G88" s="171"/>
-      <c r="H88" s="171"/>
-      <c r="I88" s="171"/>
-      <c r="J88" s="171"/>
-      <c r="K88" s="171"/>
-      <c r="L88" s="171"/>
-      <c r="M88" s="172"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="175"/>
+      <c r="L88" s="175"/>
+      <c r="M88" s="176"/>
       <c r="N88" s="15" t="s">
         <v>688</v>
       </c>
@@ -16787,18 +16925,18 @@
       <c r="C89" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="D89" s="171" t="s">
+      <c r="D89" s="175" t="s">
         <v>778</v>
       </c>
-      <c r="E89" s="171"/>
-      <c r="F89" s="171"/>
-      <c r="G89" s="171"/>
-      <c r="H89" s="171"/>
-      <c r="I89" s="171"/>
-      <c r="J89" s="171"/>
-      <c r="K89" s="171"/>
-      <c r="L89" s="171"/>
-      <c r="M89" s="172"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
+      <c r="G89" s="175"/>
+      <c r="H89" s="175"/>
+      <c r="I89" s="175"/>
+      <c r="J89" s="175"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="175"/>
+      <c r="M89" s="176"/>
       <c r="N89" s="15" t="s">
         <v>779</v>
       </c>
@@ -16854,18 +16992,18 @@
       <c r="C90" s="54" t="s">
         <v>793</v>
       </c>
-      <c r="D90" s="171" t="s">
+      <c r="D90" s="175" t="s">
         <v>794</v>
       </c>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="171"/>
-      <c r="L90" s="171"/>
-      <c r="M90" s="172"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="175"/>
+      <c r="M90" s="176"/>
       <c r="N90" s="15" t="s">
         <v>795</v>
       </c>
@@ -16915,19 +17053,19 @@
       <c r="B91" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="193" t="s">
+      <c r="C91" s="171" t="s">
         <v>197</v>
       </c>
-      <c r="D91" s="193"/>
-      <c r="E91" s="193"/>
-      <c r="F91" s="193"/>
-      <c r="G91" s="193"/>
-      <c r="H91" s="193"/>
-      <c r="I91" s="193"/>
-      <c r="J91" s="193"/>
-      <c r="K91" s="193"/>
-      <c r="L91" s="193"/>
-      <c r="M91" s="194"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="171"/>
+      <c r="F91" s="171"/>
+      <c r="G91" s="171"/>
+      <c r="H91" s="171"/>
+      <c r="I91" s="171"/>
+      <c r="J91" s="171"/>
+      <c r="K91" s="171"/>
+      <c r="L91" s="171"/>
+      <c r="M91" s="172"/>
       <c r="N91" s="38"/>
       <c r="O91" s="41"/>
       <c r="P91" s="41"/>
@@ -16972,18 +17110,18 @@
       <c r="C92" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D92" s="171" t="s">
+      <c r="D92" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="E92" s="171"/>
-      <c r="F92" s="171"/>
-      <c r="G92" s="171"/>
-      <c r="H92" s="171"/>
-      <c r="I92" s="171"/>
-      <c r="J92" s="171"/>
-      <c r="K92" s="171"/>
-      <c r="L92" s="171"/>
-      <c r="M92" s="172"/>
+      <c r="E92" s="175"/>
+      <c r="F92" s="175"/>
+      <c r="G92" s="175"/>
+      <c r="H92" s="175"/>
+      <c r="I92" s="175"/>
+      <c r="J92" s="175"/>
+      <c r="K92" s="175"/>
+      <c r="L92" s="175"/>
+      <c r="M92" s="176"/>
       <c r="N92" s="15" t="s">
         <v>85</v>
       </c>
@@ -17040,18 +17178,18 @@
       <c r="C93" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="171" t="s">
+      <c r="D93" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="E93" s="171"/>
-      <c r="F93" s="171"/>
-      <c r="G93" s="171"/>
-      <c r="H93" s="171"/>
-      <c r="I93" s="171"/>
-      <c r="J93" s="171"/>
-      <c r="K93" s="171"/>
-      <c r="L93" s="171"/>
-      <c r="M93" s="172"/>
+      <c r="E93" s="175"/>
+      <c r="F93" s="175"/>
+      <c r="G93" s="175"/>
+      <c r="H93" s="175"/>
+      <c r="I93" s="175"/>
+      <c r="J93" s="175"/>
+      <c r="K93" s="175"/>
+      <c r="L93" s="175"/>
+      <c r="M93" s="176"/>
       <c r="N93" s="15" t="s">
         <v>287</v>
       </c>
@@ -17108,18 +17246,18 @@
       <c r="C94" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D94" s="171" t="s">
+      <c r="D94" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="171"/>
-      <c r="F94" s="171"/>
-      <c r="G94" s="171"/>
-      <c r="H94" s="171"/>
-      <c r="I94" s="171"/>
-      <c r="J94" s="171"/>
-      <c r="K94" s="171"/>
-      <c r="L94" s="171"/>
-      <c r="M94" s="172"/>
+      <c r="E94" s="175"/>
+      <c r="F94" s="175"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="175"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="175"/>
+      <c r="K94" s="175"/>
+      <c r="L94" s="175"/>
+      <c r="M94" s="176"/>
       <c r="N94" s="15" t="s">
         <v>350</v>
       </c>
@@ -17176,18 +17314,18 @@
       <c r="C95" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D95" s="171" t="s">
+      <c r="D95" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="E95" s="171"/>
-      <c r="F95" s="171"/>
-      <c r="G95" s="171"/>
-      <c r="H95" s="171"/>
-      <c r="I95" s="171"/>
-      <c r="J95" s="171"/>
-      <c r="K95" s="171"/>
-      <c r="L95" s="171"/>
-      <c r="M95" s="172"/>
+      <c r="E95" s="175"/>
+      <c r="F95" s="175"/>
+      <c r="G95" s="175"/>
+      <c r="H95" s="175"/>
+      <c r="I95" s="175"/>
+      <c r="J95" s="175"/>
+      <c r="K95" s="175"/>
+      <c r="L95" s="175"/>
+      <c r="M95" s="176"/>
       <c r="N95" s="15" t="s">
         <v>349</v>
       </c>
@@ -17244,18 +17382,18 @@
       <c r="C96" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="171" t="s">
+      <c r="D96" s="175" t="s">
         <v>183</v>
       </c>
-      <c r="E96" s="171"/>
-      <c r="F96" s="171"/>
-      <c r="G96" s="171"/>
-      <c r="H96" s="171"/>
-      <c r="I96" s="171"/>
-      <c r="J96" s="171"/>
-      <c r="K96" s="171"/>
-      <c r="L96" s="171"/>
-      <c r="M96" s="172"/>
+      <c r="E96" s="175"/>
+      <c r="F96" s="175"/>
+      <c r="G96" s="175"/>
+      <c r="H96" s="175"/>
+      <c r="I96" s="175"/>
+      <c r="J96" s="175"/>
+      <c r="K96" s="175"/>
+      <c r="L96" s="175"/>
+      <c r="M96" s="176"/>
       <c r="N96" s="15" t="s">
         <v>309</v>
       </c>
@@ -17312,18 +17450,18 @@
       <c r="C97" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D97" s="171" t="s">
+      <c r="D97" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="E97" s="171"/>
-      <c r="F97" s="171"/>
-      <c r="G97" s="171"/>
-      <c r="H97" s="171"/>
-      <c r="I97" s="171"/>
-      <c r="J97" s="171"/>
-      <c r="K97" s="171"/>
-      <c r="L97" s="171"/>
-      <c r="M97" s="172"/>
+      <c r="E97" s="175"/>
+      <c r="F97" s="175"/>
+      <c r="G97" s="175"/>
+      <c r="H97" s="175"/>
+      <c r="I97" s="175"/>
+      <c r="J97" s="175"/>
+      <c r="K97" s="175"/>
+      <c r="L97" s="175"/>
+      <c r="M97" s="176"/>
       <c r="N97" s="15" t="s">
         <v>204</v>
       </c>
@@ -17380,18 +17518,18 @@
       <c r="C98" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="171" t="s">
+      <c r="D98" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="E98" s="171"/>
-      <c r="F98" s="171"/>
-      <c r="G98" s="171"/>
-      <c r="H98" s="171"/>
-      <c r="I98" s="171"/>
-      <c r="J98" s="171"/>
-      <c r="K98" s="171"/>
-      <c r="L98" s="171"/>
-      <c r="M98" s="172"/>
+      <c r="E98" s="175"/>
+      <c r="F98" s="175"/>
+      <c r="G98" s="175"/>
+      <c r="H98" s="175"/>
+      <c r="I98" s="175"/>
+      <c r="J98" s="175"/>
+      <c r="K98" s="175"/>
+      <c r="L98" s="175"/>
+      <c r="M98" s="176"/>
       <c r="N98" s="15" t="s">
         <v>200</v>
       </c>
@@ -17448,18 +17586,18 @@
       <c r="C99" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D99" s="171" t="s">
+      <c r="D99" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="E99" s="171"/>
-      <c r="F99" s="171"/>
-      <c r="G99" s="171"/>
-      <c r="H99" s="171"/>
-      <c r="I99" s="171"/>
-      <c r="J99" s="171"/>
-      <c r="K99" s="171"/>
-      <c r="L99" s="171"/>
-      <c r="M99" s="172"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="175"/>
+      <c r="I99" s="175"/>
+      <c r="J99" s="175"/>
+      <c r="K99" s="175"/>
+      <c r="L99" s="175"/>
+      <c r="M99" s="176"/>
       <c r="N99" s="15" t="s">
         <v>216</v>
       </c>
@@ -17516,18 +17654,18 @@
       <c r="C100" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="171" t="s">
+      <c r="D100" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="171"/>
-      <c r="F100" s="171"/>
-      <c r="G100" s="171"/>
-      <c r="H100" s="171"/>
-      <c r="I100" s="171"/>
-      <c r="J100" s="171"/>
-      <c r="K100" s="171"/>
-      <c r="L100" s="171"/>
-      <c r="M100" s="172"/>
+      <c r="E100" s="175"/>
+      <c r="F100" s="175"/>
+      <c r="G100" s="175"/>
+      <c r="H100" s="175"/>
+      <c r="I100" s="175"/>
+      <c r="J100" s="175"/>
+      <c r="K100" s="175"/>
+      <c r="L100" s="175"/>
+      <c r="M100" s="176"/>
       <c r="N100" s="15" t="s">
         <v>291</v>
       </c>
@@ -17584,18 +17722,18 @@
       <c r="C101" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="D101" s="171" t="s">
+      <c r="D101" s="175" t="s">
         <v>329</v>
       </c>
-      <c r="E101" s="171"/>
-      <c r="F101" s="171"/>
-      <c r="G101" s="171"/>
-      <c r="H101" s="171"/>
-      <c r="I101" s="171"/>
-      <c r="J101" s="171"/>
-      <c r="K101" s="171"/>
-      <c r="L101" s="171"/>
-      <c r="M101" s="172"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="175"/>
+      <c r="G101" s="175"/>
+      <c r="H101" s="175"/>
+      <c r="I101" s="175"/>
+      <c r="J101" s="175"/>
+      <c r="K101" s="175"/>
+      <c r="L101" s="175"/>
+      <c r="M101" s="176"/>
       <c r="N101" s="15" t="s">
         <v>330</v>
       </c>
@@ -17652,18 +17790,18 @@
       <c r="C102" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="D102" s="171" t="s">
+      <c r="D102" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="E102" s="171"/>
-      <c r="F102" s="171"/>
-      <c r="G102" s="171"/>
-      <c r="H102" s="171"/>
-      <c r="I102" s="171"/>
-      <c r="J102" s="171"/>
-      <c r="K102" s="171"/>
-      <c r="L102" s="171"/>
-      <c r="M102" s="172"/>
+      <c r="E102" s="175"/>
+      <c r="F102" s="175"/>
+      <c r="G102" s="175"/>
+      <c r="H102" s="175"/>
+      <c r="I102" s="175"/>
+      <c r="J102" s="175"/>
+      <c r="K102" s="175"/>
+      <c r="L102" s="175"/>
+      <c r="M102" s="176"/>
       <c r="N102" s="15" t="s">
         <v>363</v>
       </c>
@@ -17719,18 +17857,18 @@
       <c r="C103" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="D103" s="171" t="s">
+      <c r="D103" s="175" t="s">
         <v>434</v>
       </c>
-      <c r="E103" s="171"/>
-      <c r="F103" s="171"/>
-      <c r="G103" s="171"/>
-      <c r="H103" s="171"/>
-      <c r="I103" s="171"/>
-      <c r="J103" s="171"/>
-      <c r="K103" s="171"/>
-      <c r="L103" s="171"/>
-      <c r="M103" s="172"/>
+      <c r="E103" s="175"/>
+      <c r="F103" s="175"/>
+      <c r="G103" s="175"/>
+      <c r="H103" s="175"/>
+      <c r="I103" s="175"/>
+      <c r="J103" s="175"/>
+      <c r="K103" s="175"/>
+      <c r="L103" s="175"/>
+      <c r="M103" s="176"/>
       <c r="N103" s="15" t="s">
         <v>435</v>
       </c>
@@ -17785,18 +17923,18 @@
       <c r="C104" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D104" s="171" t="s">
+      <c r="D104" s="175" t="s">
         <v>418</v>
       </c>
-      <c r="E104" s="171"/>
-      <c r="F104" s="171"/>
-      <c r="G104" s="171"/>
-      <c r="H104" s="171"/>
-      <c r="I104" s="171"/>
-      <c r="J104" s="171"/>
-      <c r="K104" s="171"/>
-      <c r="L104" s="171"/>
-      <c r="M104" s="172"/>
+      <c r="E104" s="175"/>
+      <c r="F104" s="175"/>
+      <c r="G104" s="175"/>
+      <c r="H104" s="175"/>
+      <c r="I104" s="175"/>
+      <c r="J104" s="175"/>
+      <c r="K104" s="175"/>
+      <c r="L104" s="175"/>
+      <c r="M104" s="176"/>
       <c r="N104" s="15" t="s">
         <v>703</v>
       </c>
@@ -17853,18 +17991,18 @@
       <c r="C105" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="171" t="s">
+      <c r="D105" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="E105" s="171"/>
-      <c r="F105" s="171"/>
-      <c r="G105" s="171"/>
-      <c r="H105" s="171"/>
-      <c r="I105" s="171"/>
-      <c r="J105" s="171"/>
-      <c r="K105" s="171"/>
-      <c r="L105" s="171"/>
-      <c r="M105" s="172"/>
+      <c r="E105" s="175"/>
+      <c r="F105" s="175"/>
+      <c r="G105" s="175"/>
+      <c r="H105" s="175"/>
+      <c r="I105" s="175"/>
+      <c r="J105" s="175"/>
+      <c r="K105" s="175"/>
+      <c r="L105" s="175"/>
+      <c r="M105" s="176"/>
       <c r="N105" s="15" t="s">
         <v>420</v>
       </c>
@@ -17921,18 +18059,18 @@
       <c r="C106" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="D106" s="171" t="s">
+      <c r="D106" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="E106" s="171"/>
-      <c r="F106" s="171"/>
-      <c r="G106" s="171"/>
-      <c r="H106" s="171"/>
-      <c r="I106" s="171"/>
-      <c r="J106" s="171"/>
-      <c r="K106" s="171"/>
-      <c r="L106" s="171"/>
-      <c r="M106" s="172"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="175"/>
+      <c r="G106" s="175"/>
+      <c r="H106" s="175"/>
+      <c r="I106" s="175"/>
+      <c r="J106" s="175"/>
+      <c r="K106" s="175"/>
+      <c r="L106" s="175"/>
+      <c r="M106" s="176"/>
       <c r="N106" s="15" t="s">
         <v>393</v>
       </c>
@@ -17988,18 +18126,18 @@
       <c r="C107" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D107" s="171" t="s">
+      <c r="D107" s="175" t="s">
         <v>195</v>
       </c>
-      <c r="E107" s="171"/>
-      <c r="F107" s="171"/>
-      <c r="G107" s="171"/>
-      <c r="H107" s="171"/>
-      <c r="I107" s="171"/>
-      <c r="J107" s="171"/>
-      <c r="K107" s="171"/>
-      <c r="L107" s="171"/>
-      <c r="M107" s="172"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="175"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="175"/>
+      <c r="I107" s="175"/>
+      <c r="J107" s="175"/>
+      <c r="K107" s="175"/>
+      <c r="L107" s="175"/>
+      <c r="M107" s="176"/>
       <c r="N107" s="15" t="s">
         <v>404</v>
       </c>
@@ -18051,31 +18189,31 @@
     </row>
     <row r="108" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B108" s="149" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C108" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="D108" s="171" t="s">
-        <v>799</v>
-      </c>
-      <c r="E108" s="171"/>
-      <c r="F108" s="171"/>
-      <c r="G108" s="171"/>
-      <c r="H108" s="171"/>
-      <c r="I108" s="171"/>
-      <c r="J108" s="171"/>
-      <c r="K108" s="171"/>
-      <c r="L108" s="171"/>
-      <c r="M108" s="172"/>
+      <c r="D108" s="175" t="s">
+        <v>810</v>
+      </c>
+      <c r="E108" s="175"/>
+      <c r="F108" s="175"/>
+      <c r="G108" s="175"/>
+      <c r="H108" s="175"/>
+      <c r="I108" s="175"/>
+      <c r="J108" s="175"/>
+      <c r="K108" s="175"/>
+      <c r="L108" s="175"/>
+      <c r="M108" s="176"/>
       <c r="N108" s="15" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="O108" s="17" t="s">
         <v>797</v>
       </c>
       <c r="P108" s="17" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="Q108" s="19"/>
       <c r="R108" s="80">
@@ -18118,19 +18256,19 @@
       <c r="B109" s="148" t="s">
         <v>303</v>
       </c>
-      <c r="C109" s="193" t="s">
+      <c r="C109" s="171" t="s">
         <v>382</v>
       </c>
-      <c r="D109" s="193"/>
-      <c r="E109" s="193"/>
-      <c r="F109" s="193"/>
-      <c r="G109" s="193"/>
-      <c r="H109" s="193"/>
-      <c r="I109" s="193"/>
-      <c r="J109" s="193"/>
-      <c r="K109" s="193"/>
-      <c r="L109" s="193"/>
-      <c r="M109" s="194"/>
+      <c r="D109" s="171"/>
+      <c r="E109" s="171"/>
+      <c r="F109" s="171"/>
+      <c r="G109" s="171"/>
+      <c r="H109" s="171"/>
+      <c r="I109" s="171"/>
+      <c r="J109" s="171"/>
+      <c r="K109" s="171"/>
+      <c r="L109" s="171"/>
+      <c r="M109" s="172"/>
       <c r="N109" s="38"/>
       <c r="O109" s="41"/>
       <c r="P109" s="41"/>
@@ -18175,18 +18313,18 @@
       <c r="C110" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="D110" s="175" t="s">
+      <c r="D110" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="E110" s="175"/>
-      <c r="F110" s="175"/>
-      <c r="G110" s="175"/>
-      <c r="H110" s="175"/>
-      <c r="I110" s="175"/>
-      <c r="J110" s="175"/>
-      <c r="K110" s="175"/>
-      <c r="L110" s="175"/>
-      <c r="M110" s="176"/>
+      <c r="E110" s="177"/>
+      <c r="F110" s="177"/>
+      <c r="G110" s="177"/>
+      <c r="H110" s="177"/>
+      <c r="I110" s="177"/>
+      <c r="J110" s="177"/>
+      <c r="K110" s="177"/>
+      <c r="L110" s="177"/>
+      <c r="M110" s="178"/>
       <c r="N110" s="90" t="s">
         <v>307</v>
       </c>
@@ -18243,18 +18381,18 @@
       <c r="C111" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="D111" s="175" t="s">
+      <c r="D111" s="177" t="s">
         <v>311</v>
       </c>
-      <c r="E111" s="175"/>
-      <c r="F111" s="175"/>
-      <c r="G111" s="175"/>
-      <c r="H111" s="175"/>
-      <c r="I111" s="175"/>
-      <c r="J111" s="175"/>
-      <c r="K111" s="175"/>
-      <c r="L111" s="175"/>
-      <c r="M111" s="176"/>
+      <c r="E111" s="177"/>
+      <c r="F111" s="177"/>
+      <c r="G111" s="177"/>
+      <c r="H111" s="177"/>
+      <c r="I111" s="177"/>
+      <c r="J111" s="177"/>
+      <c r="K111" s="177"/>
+      <c r="L111" s="177"/>
+      <c r="M111" s="178"/>
       <c r="N111" s="90" t="s">
         <v>353</v>
       </c>
@@ -18309,18 +18447,18 @@
       <c r="C112" s="96" t="s">
         <v>383</v>
       </c>
-      <c r="D112" s="175" t="s">
+      <c r="D112" s="177" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="175"/>
-      <c r="F112" s="175"/>
-      <c r="G112" s="175"/>
-      <c r="H112" s="175"/>
-      <c r="I112" s="175"/>
-      <c r="J112" s="175"/>
-      <c r="K112" s="175"/>
-      <c r="L112" s="175"/>
-      <c r="M112" s="176"/>
+      <c r="E112" s="177"/>
+      <c r="F112" s="177"/>
+      <c r="G112" s="177"/>
+      <c r="H112" s="177"/>
+      <c r="I112" s="177"/>
+      <c r="J112" s="177"/>
+      <c r="K112" s="177"/>
+      <c r="L112" s="177"/>
+      <c r="M112" s="178"/>
       <c r="N112" s="90" t="s">
         <v>387</v>
       </c>
@@ -18377,18 +18515,18 @@
       <c r="C113" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="D113" s="175" t="s">
+      <c r="D113" s="177" t="s">
         <v>430</v>
       </c>
-      <c r="E113" s="175"/>
-      <c r="F113" s="175"/>
-      <c r="G113" s="175"/>
-      <c r="H113" s="175"/>
-      <c r="I113" s="175"/>
-      <c r="J113" s="175"/>
-      <c r="K113" s="175"/>
-      <c r="L113" s="175"/>
-      <c r="M113" s="176"/>
+      <c r="E113" s="177"/>
+      <c r="F113" s="177"/>
+      <c r="G113" s="177"/>
+      <c r="H113" s="177"/>
+      <c r="I113" s="177"/>
+      <c r="J113" s="177"/>
+      <c r="K113" s="177"/>
+      <c r="L113" s="177"/>
+      <c r="M113" s="178"/>
       <c r="N113" s="90" t="s">
         <v>431</v>
       </c>
@@ -18445,18 +18583,18 @@
       <c r="C114" s="97" t="s">
         <v>787</v>
       </c>
-      <c r="D114" s="175" t="s">
+      <c r="D114" s="177" t="s">
         <v>789</v>
       </c>
-      <c r="E114" s="175"/>
-      <c r="F114" s="175"/>
-      <c r="G114" s="175"/>
-      <c r="H114" s="175"/>
-      <c r="I114" s="175"/>
-      <c r="J114" s="175"/>
-      <c r="K114" s="175"/>
-      <c r="L114" s="175"/>
-      <c r="M114" s="176"/>
+      <c r="E114" s="177"/>
+      <c r="F114" s="177"/>
+      <c r="G114" s="177"/>
+      <c r="H114" s="177"/>
+      <c r="I114" s="177"/>
+      <c r="J114" s="177"/>
+      <c r="K114" s="177"/>
+      <c r="L114" s="177"/>
+      <c r="M114" s="178"/>
       <c r="N114" s="90" t="s">
         <v>788</v>
       </c>
@@ -18466,7 +18604,9 @@
       <c r="P114" s="91" t="s">
         <v>790</v>
       </c>
-      <c r="Q114" s="95"/>
+      <c r="Q114" s="95">
+        <v>1</v>
+      </c>
       <c r="R114" s="92">
         <v>1</v>
       </c>
@@ -18496,7 +18636,7 @@
       <c r="AP114" s="45"/>
       <c r="AR114" s="11"/>
       <c r="AS114" s="11"/>
-      <c r="AT114" s="48"/>
+      <c r="AT114" s="9"/>
       <c r="AU114" s="7"/>
       <c r="AV114" s="165"/>
       <c r="AW114" s="99">
@@ -18510,23 +18650,31 @@
       <c r="C115" s="97" t="s">
         <v>385</v>
       </c>
-      <c r="D115" s="175" t="s">
+      <c r="D115" s="177" t="s">
         <v>386</v>
       </c>
-      <c r="E115" s="175"/>
-      <c r="F115" s="175"/>
-      <c r="G115" s="175"/>
-      <c r="H115" s="175"/>
-      <c r="I115" s="175"/>
-      <c r="J115" s="175"/>
-      <c r="K115" s="175"/>
-      <c r="L115" s="175"/>
-      <c r="M115" s="176"/>
-      <c r="N115" s="90"/>
-      <c r="O115" s="91"/>
-      <c r="P115" s="91"/>
+      <c r="E115" s="177"/>
+      <c r="F115" s="177"/>
+      <c r="G115" s="177"/>
+      <c r="H115" s="177"/>
+      <c r="I115" s="177"/>
+      <c r="J115" s="177"/>
+      <c r="K115" s="177"/>
+      <c r="L115" s="177"/>
+      <c r="M115" s="178"/>
+      <c r="N115" s="90" t="s">
+        <v>811</v>
+      </c>
+      <c r="O115" s="91" t="s">
+        <v>812</v>
+      </c>
+      <c r="P115" s="91" t="s">
+        <v>813</v>
+      </c>
       <c r="Q115" s="95"/>
-      <c r="R115" s="92"/>
+      <c r="R115" s="92">
+        <v>2</v>
+      </c>
       <c r="S115" s="27"/>
       <c r="T115" s="11"/>
       <c r="U115" s="45"/>
@@ -18554,7 +18702,7 @@
       <c r="AQ115" s="49"/>
       <c r="AR115" s="11"/>
       <c r="AS115" s="11"/>
-      <c r="AT115" s="9"/>
+      <c r="AT115" s="11"/>
       <c r="AU115" s="9"/>
       <c r="AV115" s="165"/>
       <c r="AW115" s="99">
@@ -18565,19 +18713,19 @@
       <c r="B116" s="148" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="193" t="s">
+      <c r="C116" s="171" t="s">
         <v>313</v>
       </c>
-      <c r="D116" s="193"/>
-      <c r="E116" s="193"/>
-      <c r="F116" s="193"/>
-      <c r="G116" s="193"/>
-      <c r="H116" s="193"/>
-      <c r="I116" s="193"/>
-      <c r="J116" s="193"/>
-      <c r="K116" s="193"/>
-      <c r="L116" s="193"/>
-      <c r="M116" s="194"/>
+      <c r="D116" s="171"/>
+      <c r="E116" s="171"/>
+      <c r="F116" s="171"/>
+      <c r="G116" s="171"/>
+      <c r="H116" s="171"/>
+      <c r="I116" s="171"/>
+      <c r="J116" s="171"/>
+      <c r="K116" s="171"/>
+      <c r="L116" s="171"/>
+      <c r="M116" s="172"/>
       <c r="N116" s="38"/>
       <c r="O116" s="41"/>
       <c r="P116" s="41"/>
@@ -18751,19 +18899,19 @@
       <c r="B119" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="C119" s="193" t="s">
+      <c r="C119" s="171" t="s">
         <v>196</v>
       </c>
-      <c r="D119" s="193"/>
-      <c r="E119" s="193"/>
-      <c r="F119" s="193"/>
-      <c r="G119" s="193"/>
-      <c r="H119" s="193"/>
-      <c r="I119" s="193"/>
-      <c r="J119" s="193"/>
-      <c r="K119" s="193"/>
-      <c r="L119" s="193"/>
-      <c r="M119" s="194"/>
+      <c r="D119" s="171"/>
+      <c r="E119" s="171"/>
+      <c r="F119" s="171"/>
+      <c r="G119" s="171"/>
+      <c r="H119" s="171"/>
+      <c r="I119" s="171"/>
+      <c r="J119" s="171"/>
+      <c r="K119" s="171"/>
+      <c r="L119" s="171"/>
+      <c r="M119" s="172"/>
       <c r="N119" s="38"/>
       <c r="O119" s="41"/>
       <c r="P119" s="41"/>
@@ -18876,18 +19024,18 @@
       <c r="C121" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D121" s="171" t="s">
+      <c r="D121" s="175" t="s">
         <v>199</v>
       </c>
-      <c r="E121" s="171"/>
-      <c r="F121" s="171"/>
-      <c r="G121" s="171"/>
-      <c r="H121" s="171"/>
-      <c r="I121" s="171"/>
-      <c r="J121" s="171"/>
-      <c r="K121" s="171"/>
-      <c r="L121" s="171"/>
-      <c r="M121" s="172"/>
+      <c r="E121" s="175"/>
+      <c r="F121" s="175"/>
+      <c r="G121" s="175"/>
+      <c r="H121" s="175"/>
+      <c r="I121" s="175"/>
+      <c r="J121" s="175"/>
+      <c r="K121" s="175"/>
+      <c r="L121" s="175"/>
+      <c r="M121" s="176"/>
       <c r="N121" s="15" t="s">
         <v>570</v>
       </c>
@@ -18944,18 +19092,18 @@
       <c r="C122" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D122" s="171" t="s">
+      <c r="D122" s="175" t="s">
         <v>709</v>
       </c>
-      <c r="E122" s="171"/>
-      <c r="F122" s="171"/>
-      <c r="G122" s="171"/>
-      <c r="H122" s="171"/>
-      <c r="I122" s="171"/>
-      <c r="J122" s="171"/>
-      <c r="K122" s="171"/>
-      <c r="L122" s="171"/>
-      <c r="M122" s="172"/>
+      <c r="E122" s="175"/>
+      <c r="F122" s="175"/>
+      <c r="G122" s="175"/>
+      <c r="H122" s="175"/>
+      <c r="I122" s="175"/>
+      <c r="J122" s="175"/>
+      <c r="K122" s="175"/>
+      <c r="L122" s="175"/>
+      <c r="M122" s="176"/>
       <c r="N122" s="15" t="s">
         <v>570</v>
       </c>
@@ -19012,18 +19160,18 @@
       <c r="C123" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="D123" s="171" t="s">
+      <c r="D123" s="175" t="s">
         <v>710</v>
       </c>
-      <c r="E123" s="171"/>
-      <c r="F123" s="171"/>
-      <c r="G123" s="171"/>
-      <c r="H123" s="171"/>
-      <c r="I123" s="171"/>
-      <c r="J123" s="171"/>
-      <c r="K123" s="171"/>
-      <c r="L123" s="171"/>
-      <c r="M123" s="172"/>
+      <c r="E123" s="175"/>
+      <c r="F123" s="175"/>
+      <c r="G123" s="175"/>
+      <c r="H123" s="175"/>
+      <c r="I123" s="175"/>
+      <c r="J123" s="175"/>
+      <c r="K123" s="175"/>
+      <c r="L123" s="175"/>
+      <c r="M123" s="176"/>
       <c r="N123" s="15" t="s">
         <v>712</v>
       </c>
@@ -19080,18 +19228,18 @@
       <c r="C124" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="D124" s="171" t="s">
+      <c r="D124" s="175" t="s">
         <v>775</v>
       </c>
-      <c r="E124" s="171"/>
-      <c r="F124" s="171"/>
-      <c r="G124" s="171"/>
-      <c r="H124" s="171"/>
-      <c r="I124" s="171"/>
-      <c r="J124" s="171"/>
-      <c r="K124" s="171"/>
-      <c r="L124" s="171"/>
-      <c r="M124" s="172"/>
+      <c r="E124" s="175"/>
+      <c r="F124" s="175"/>
+      <c r="G124" s="175"/>
+      <c r="H124" s="175"/>
+      <c r="I124" s="175"/>
+      <c r="J124" s="175"/>
+      <c r="K124" s="175"/>
+      <c r="L124" s="175"/>
+      <c r="M124" s="176"/>
       <c r="N124" s="15" t="s">
         <v>27</v>
       </c>
@@ -19146,18 +19294,18 @@
       <c r="C125" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="D125" s="171" t="s">
+      <c r="D125" s="175" t="s">
         <v>746</v>
       </c>
-      <c r="E125" s="171"/>
-      <c r="F125" s="171"/>
-      <c r="G125" s="171"/>
-      <c r="H125" s="171"/>
-      <c r="I125" s="171"/>
-      <c r="J125" s="171"/>
-      <c r="K125" s="171"/>
-      <c r="L125" s="171"/>
-      <c r="M125" s="172"/>
+      <c r="E125" s="175"/>
+      <c r="F125" s="175"/>
+      <c r="G125" s="175"/>
+      <c r="H125" s="175"/>
+      <c r="I125" s="175"/>
+      <c r="J125" s="175"/>
+      <c r="K125" s="175"/>
+      <c r="L125" s="175"/>
+      <c r="M125" s="176"/>
       <c r="N125" s="15" t="s">
         <v>716</v>
       </c>
@@ -19212,18 +19360,18 @@
       <c r="C126" s="168" t="s">
         <v>742</v>
       </c>
-      <c r="D126" s="199" t="s">
+      <c r="D126" s="179" t="s">
         <v>743</v>
       </c>
-      <c r="E126" s="199"/>
-      <c r="F126" s="199"/>
-      <c r="G126" s="199"/>
-      <c r="H126" s="199"/>
-      <c r="I126" s="199"/>
-      <c r="J126" s="199"/>
-      <c r="K126" s="199"/>
-      <c r="L126" s="199"/>
-      <c r="M126" s="200"/>
+      <c r="E126" s="179"/>
+      <c r="F126" s="179"/>
+      <c r="G126" s="179"/>
+      <c r="H126" s="179"/>
+      <c r="I126" s="179"/>
+      <c r="J126" s="179"/>
+      <c r="K126" s="179"/>
+      <c r="L126" s="179"/>
+      <c r="M126" s="180"/>
       <c r="N126" s="67" t="s">
         <v>744</v>
       </c>
@@ -19273,6 +19421,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D118:M118"/>
+    <mergeCell ref="D114:M114"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="C91:M91"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D123:M123"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D126:M126"/>
+    <mergeCell ref="C119:M119"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="D122:M122"/>
+    <mergeCell ref="D124:M124"/>
+    <mergeCell ref="D125:M125"/>
+    <mergeCell ref="D120:M120"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D107:M107"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="C109:M109"/>
+    <mergeCell ref="D110:M110"/>
     <mergeCell ref="C116:M116"/>
     <mergeCell ref="D117:M117"/>
     <mergeCell ref="D70:M70"/>
@@ -19297,122 +19555,12 @@
     <mergeCell ref="D77:M77"/>
     <mergeCell ref="D80:M80"/>
     <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D126:M126"/>
-    <mergeCell ref="C119:M119"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="D122:M122"/>
-    <mergeCell ref="D124:M124"/>
-    <mergeCell ref="D125:M125"/>
-    <mergeCell ref="D120:M120"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D107:M107"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D105:M105"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="C109:M109"/>
-    <mergeCell ref="D110:M110"/>
-    <mergeCell ref="C91:M91"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D123:M123"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D118:M118"/>
-    <mergeCell ref="D114:M114"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="U5:AV5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B21 B32 P28:P31 B59 B91 B119 B7 O37 O43:O49 O66 O73:O75 O93:O96 P11:P15 O14:O15 B109 B116 P33:P49 P72:P78 O31 O77:O78 O62:O64 P92:P103 O100:O103 O117:P117 O50:P52 P61:P67 O68:P70 O104:P107 O110:P113 O120:P126 O16:P20 O79:P88 O89:P89 O118:P118 O114:P114 O90:P90 O108:P108 O57:P57 O53:P56 O58:P58" numberStoredAsText="1"/>
+    <ignoredError sqref="B21 B32 P28:P31 B59 B91 B119 B7 O37 O43:O49 O66 O73:O75 O93:O96 P11:P15 O14:O15 B109 B116 P33:P49 P72:P78 O31 O77:O78 O62:O64 P92:P103 O100:O103 O117:P117 O50:P52 P61:P67 O68:P70 O104:P107 O110:P113 O120:P126 O16:P20 O79:P88 O89:P89 O118:P118 O114:P114 O90:P90 O108:P108 O57:P57 O53:P56 O58:P58 O115:P115" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -19460,13 +19608,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="BK2" s="177" t="s">
+      <c r="BK2" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="177" t="s">
+      <c r="BL2" s="195" t="s">
         <v>317</v>
       </c>
-      <c r="BM2" s="177" t="s">
+      <c r="BM2" s="195" t="s">
         <v>318</v>
       </c>
     </row>
@@ -19474,9 +19622,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="177"/>
-      <c r="BL3" s="177"/>
-      <c r="BM3" s="177"/>
+      <c r="BK3" s="195"/>
+      <c r="BL3" s="195"/>
+      <c r="BM3" s="195"/>
     </row>
     <row r="4" spans="2:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BK4" s="101">
@@ -19490,109 +19638,109 @@
       </c>
     </row>
     <row r="5" spans="2:65" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="178" t="s">
+      <c r="C5" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="186" t="s">
+      <c r="O5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="186" t="s">
+      <c r="P5" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="178" t="s">
+      <c r="Q5" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="182" t="s">
+      <c r="R5" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="203" t="s">
+      <c r="S5" s="205" t="s">
         <v>450</v>
       </c>
-      <c r="T5" s="204"/>
-      <c r="U5" s="205"/>
-      <c r="V5" s="206" t="s">
+      <c r="T5" s="206"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="208" t="s">
         <v>452</v>
       </c>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="204"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="204"/>
-      <c r="AF5" s="204"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="204"/>
-      <c r="AI5" s="204"/>
-      <c r="AJ5" s="204"/>
-      <c r="AK5" s="204"/>
-      <c r="AL5" s="204"/>
-      <c r="AM5" s="204"/>
-      <c r="AN5" s="204"/>
-      <c r="AO5" s="204"/>
-      <c r="AP5" s="204"/>
-      <c r="AQ5" s="204"/>
-      <c r="AR5" s="204"/>
-      <c r="AS5" s="204"/>
-      <c r="AT5" s="204"/>
-      <c r="AU5" s="204"/>
-      <c r="AV5" s="204"/>
-      <c r="AW5" s="204"/>
-      <c r="AX5" s="204"/>
-      <c r="AY5" s="204"/>
-      <c r="AZ5" s="206" t="s">
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="206"/>
+      <c r="AT5" s="206"/>
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="208" t="s">
         <v>482</v>
       </c>
-      <c r="BA5" s="204"/>
-      <c r="BB5" s="204"/>
-      <c r="BC5" s="204"/>
-      <c r="BD5" s="204"/>
-      <c r="BE5" s="204"/>
-      <c r="BF5" s="204"/>
-      <c r="BG5" s="204"/>
-      <c r="BH5" s="207"/>
-      <c r="BI5" s="191" t="s">
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="206"/>
+      <c r="BE5" s="206"/>
+      <c r="BF5" s="206"/>
+      <c r="BG5" s="206"/>
+      <c r="BH5" s="209"/>
+      <c r="BI5" s="193" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:65" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="196"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="183"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="197"/>
       <c r="S6" s="118" t="s">
         <v>484</v>
       </c>
@@ -19719,25 +19867,25 @@
       <c r="BH6" s="156" t="s">
         <v>458</v>
       </c>
-      <c r="BI6" s="202"/>
+      <c r="BI6" s="204"/>
     </row>
     <row r="7" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="208" t="s">
+      <c r="C7" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="209"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="211"/>
       <c r="N7" s="66"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -19794,18 +19942,18 @@
       <c r="C8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="185" t="s">
         <v>446</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="181"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="186"/>
       <c r="N8" s="50" t="s">
         <v>447</v>
       </c>
@@ -19872,18 +20020,18 @@
       <c r="C9" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="185" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="181"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="186"/>
       <c r="N9" s="50" t="s">
         <v>447</v>
       </c>
@@ -19950,18 +20098,18 @@
       <c r="C10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="185" t="s">
         <v>487</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="181"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="186"/>
       <c r="N10" s="50" t="s">
         <v>447</v>
       </c>
@@ -20028,18 +20176,18 @@
       <c r="C11" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="185" t="s">
         <v>490</v>
       </c>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="181"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
       <c r="N11" s="50" t="s">
         <v>447</v>
       </c>
@@ -20106,18 +20254,18 @@
       <c r="C12" s="86" t="s">
         <v>492</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="181"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="186"/>
       <c r="N12" s="50" t="s">
         <v>447</v>
       </c>
@@ -20181,19 +20329,19 @@
       <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="194"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="172"/>
       <c r="N13" s="13"/>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
@@ -20482,18 +20630,18 @@
       <c r="C17" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="197" t="s">
+      <c r="D17" s="187" t="s">
         <v>735</v>
       </c>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="198"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="188"/>
       <c r="N17" s="14" t="s">
         <v>29</v>
       </c>
@@ -20560,18 +20708,18 @@
       <c r="C18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="197" t="s">
+      <c r="D18" s="187" t="s">
         <v>738</v>
       </c>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="198"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="188"/>
       <c r="N18" s="14" t="s">
         <v>10</v>
       </c>
@@ -20638,18 +20786,18 @@
       <c r="C19" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="197" t="s">
+      <c r="D19" s="187" t="s">
         <v>498</v>
       </c>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="198"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
       <c r="N19" s="14" t="s">
         <v>10</v>
       </c>
@@ -20712,19 +20860,19 @@
       <c r="B20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="194"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="172"/>
       <c r="N20" s="13"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
@@ -20781,18 +20929,18 @@
       <c r="C21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="171" t="s">
+      <c r="D21" s="175" t="s">
         <v>609</v>
       </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="172"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="176"/>
       <c r="N21" s="15"/>
       <c r="O21" s="17" t="s">
         <v>619</v>
@@ -20857,18 +21005,18 @@
       <c r="C22" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="175" t="s">
         <v>610</v>
       </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="172"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="176"/>
       <c r="N22" s="15"/>
       <c r="O22" s="17" t="s">
         <v>588</v>
@@ -20933,18 +21081,18 @@
       <c r="C23" s="54" t="s">
         <v>611</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="175" t="s">
         <v>612</v>
       </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="172"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="176"/>
       <c r="N23" s="15"/>
       <c r="O23" s="17" t="s">
         <v>588</v>
@@ -21009,18 +21157,18 @@
       <c r="C24" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="175" t="s">
         <v>613</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="172"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="176"/>
       <c r="N24" s="15"/>
       <c r="O24" s="17" t="s">
         <v>622</v>
@@ -21085,18 +21233,18 @@
       <c r="C25" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="D25" s="171" t="s">
+      <c r="D25" s="175" t="s">
         <v>615</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="172"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="176"/>
       <c r="N25" s="15"/>
       <c r="O25" s="17" t="s">
         <v>623</v>
@@ -21161,18 +21309,18 @@
       <c r="C26" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="175" t="s">
         <v>740</v>
       </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="172"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="176"/>
       <c r="N26" s="15"/>
       <c r="O26" s="17" t="s">
         <v>624</v>
@@ -21234,19 +21382,19 @@
       <c r="B27" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="193" t="s">
+      <c r="C27" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="194"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="172"/>
       <c r="N27" s="38"/>
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
@@ -21832,19 +21980,19 @@
       <c r="B35" s="37">
         <v>5</v>
       </c>
-      <c r="C35" s="193" t="s">
+      <c r="C35" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="194"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="172"/>
       <c r="N35" s="40"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
@@ -21977,18 +22125,18 @@
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="171" t="s">
+      <c r="D37" s="175" t="s">
         <v>631</v>
       </c>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="172"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="175"/>
+      <c r="M37" s="176"/>
       <c r="N37" s="15"/>
       <c r="O37" s="17" t="s">
         <v>588</v>
@@ -22053,18 +22201,18 @@
       <c r="C38" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D38" s="171" t="s">
+      <c r="D38" s="175" t="s">
         <v>630</v>
       </c>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="172"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="176"/>
       <c r="N38" s="15"/>
       <c r="O38" s="17" t="s">
         <v>620</v>
@@ -22129,18 +22277,18 @@
       <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="171" t="s">
+      <c r="D39" s="175" t="s">
         <v>629</v>
       </c>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="172"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="176"/>
       <c r="N39" s="15"/>
       <c r="O39" s="17" t="s">
         <v>638</v>
@@ -22205,18 +22353,18 @@
       <c r="C40" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D40" s="171" t="s">
+      <c r="D40" s="175" t="s">
         <v>628</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="172"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="176"/>
       <c r="N40" s="15"/>
       <c r="O40" s="17" t="s">
         <v>639</v>
@@ -22281,18 +22429,18 @@
       <c r="C41" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D41" s="171" t="s">
+      <c r="D41" s="175" t="s">
         <v>632</v>
       </c>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="172"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="176"/>
       <c r="N41" s="15"/>
       <c r="O41" s="17" t="s">
         <v>623</v>
@@ -22357,18 +22505,18 @@
       <c r="C42" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D42" s="171" t="s">
+      <c r="D42" s="175" t="s">
         <v>627</v>
       </c>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="172"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="176"/>
       <c r="N42" s="15"/>
       <c r="O42" s="17" t="s">
         <v>623</v>
@@ -22433,18 +22581,18 @@
       <c r="C43" s="54" t="s">
         <v>504</v>
       </c>
-      <c r="D43" s="171" t="s">
+      <c r="D43" s="175" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-      <c r="M43" s="172"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="176"/>
       <c r="N43" s="15"/>
       <c r="O43" s="17" t="s">
         <v>624</v>
@@ -22509,18 +22657,18 @@
       <c r="C44" s="54" t="s">
         <v>504</v>
       </c>
-      <c r="D44" s="171" t="s">
+      <c r="D44" s="175" t="s">
         <v>519</v>
       </c>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="172"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="175"/>
+      <c r="M44" s="176"/>
       <c r="N44" s="15"/>
       <c r="O44" s="17" t="s">
         <v>642</v>
@@ -22585,18 +22733,18 @@
       <c r="C45" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="D45" s="171" t="s">
+      <c r="D45" s="175" t="s">
         <v>647</v>
       </c>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="172"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="175"/>
+      <c r="L45" s="175"/>
+      <c r="M45" s="176"/>
       <c r="N45" s="15"/>
       <c r="O45" s="17" t="s">
         <v>643</v>
@@ -22661,18 +22809,18 @@
       <c r="C46" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="171" t="s">
+      <c r="D46" s="175" t="s">
         <v>648</v>
       </c>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="172"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="176"/>
       <c r="N46" s="15"/>
       <c r="O46" s="17" t="s">
         <v>506</v>
@@ -22735,18 +22883,18 @@
       <c r="C47" s="54" t="s">
         <v>521</v>
       </c>
-      <c r="D47" s="171" t="s">
+      <c r="D47" s="175" t="s">
         <v>649</v>
       </c>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="172"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="176"/>
       <c r="N47" s="15"/>
       <c r="O47" s="17" t="s">
         <v>516</v>
@@ -22811,18 +22959,18 @@
       <c r="C48" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="D48" s="171" t="s">
+      <c r="D48" s="175" t="s">
         <v>646</v>
       </c>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="172"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="175"/>
+      <c r="M48" s="176"/>
       <c r="N48" s="15"/>
       <c r="O48" s="17" t="s">
         <v>760</v>
@@ -22885,18 +23033,18 @@
       <c r="C49" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="D49" s="171" t="s">
+      <c r="D49" s="175" t="s">
         <v>653</v>
       </c>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
-      <c r="M49" s="172"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="176"/>
       <c r="N49" s="15"/>
       <c r="O49" s="17" t="s">
         <v>762</v>
@@ -22961,18 +23109,18 @@
       <c r="C50" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="171" t="s">
+      <c r="D50" s="175" t="s">
         <v>524</v>
       </c>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="172"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="176"/>
       <c r="N50" s="15"/>
       <c r="O50" s="17" t="s">
         <v>654</v>
@@ -23037,18 +23185,18 @@
       <c r="C51" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="171" t="s">
+      <c r="D51" s="175" t="s">
         <v>525</v>
       </c>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="172"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="175"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="176"/>
       <c r="N51" s="15"/>
       <c r="O51" s="17" t="s">
         <v>655</v>
@@ -23113,18 +23261,18 @@
       <c r="C52" s="88" t="s">
         <v>522</v>
       </c>
-      <c r="D52" s="171" t="s">
+      <c r="D52" s="175" t="s">
         <v>523</v>
       </c>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="171"/>
-      <c r="M52" s="172"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="176"/>
       <c r="N52" s="15"/>
       <c r="O52" s="17" t="s">
         <v>657</v>
@@ -23186,19 +23334,19 @@
       <c r="B53" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="193" t="s">
+      <c r="C53" s="171" t="s">
         <v>526</v>
       </c>
-      <c r="D53" s="193"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="193"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="193"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="193"/>
-      <c r="L53" s="193"/>
-      <c r="M53" s="194"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="172"/>
       <c r="N53" s="38"/>
       <c r="O53" s="41"/>
       <c r="P53" s="41"/>
@@ -23255,18 +23403,18 @@
       <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="171" t="s">
+      <c r="D54" s="175" t="s">
         <v>529</v>
       </c>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
-      <c r="G54" s="171"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="171"/>
-      <c r="M54" s="172"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="175"/>
+      <c r="M54" s="176"/>
       <c r="N54" s="15"/>
       <c r="O54" s="17" t="s">
         <v>589</v>
@@ -23331,18 +23479,18 @@
       <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="171" t="s">
+      <c r="D55" s="175" t="s">
         <v>530</v>
       </c>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
-      <c r="M55" s="172"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="175"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="175"/>
+      <c r="I55" s="175"/>
+      <c r="J55" s="175"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="175"/>
+      <c r="M55" s="176"/>
       <c r="N55" s="15"/>
       <c r="O55" s="17" t="s">
         <v>588</v>
@@ -23407,18 +23555,18 @@
       <c r="C56" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D56" s="171" t="s">
+      <c r="D56" s="175" t="s">
         <v>532</v>
       </c>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="171"/>
-      <c r="L56" s="171"/>
-      <c r="M56" s="172"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="175"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="175"/>
+      <c r="I56" s="175"/>
+      <c r="J56" s="175"/>
+      <c r="K56" s="175"/>
+      <c r="L56" s="175"/>
+      <c r="M56" s="176"/>
       <c r="N56" s="15"/>
       <c r="O56" s="17" t="s">
         <v>661</v>
@@ -23483,18 +23631,18 @@
       <c r="C57" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D57" s="171" t="s">
+      <c r="D57" s="175" t="s">
         <v>533</v>
       </c>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="171"/>
-      <c r="K57" s="171"/>
-      <c r="L57" s="171"/>
-      <c r="M57" s="172"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="175"/>
+      <c r="I57" s="175"/>
+      <c r="J57" s="175"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="176"/>
       <c r="N57" s="15"/>
       <c r="O57" s="17" t="s">
         <v>588</v>
@@ -23559,18 +23707,18 @@
       <c r="C58" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D58" s="171" t="s">
+      <c r="D58" s="175" t="s">
         <v>534</v>
       </c>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="171"/>
-      <c r="K58" s="171"/>
-      <c r="L58" s="171"/>
-      <c r="M58" s="172"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="175"/>
+      <c r="H58" s="175"/>
+      <c r="I58" s="175"/>
+      <c r="J58" s="175"/>
+      <c r="K58" s="175"/>
+      <c r="L58" s="175"/>
+      <c r="M58" s="176"/>
       <c r="N58" s="15"/>
       <c r="O58" s="17" t="s">
         <v>626</v>
@@ -23635,18 +23783,18 @@
       <c r="C59" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="171" t="s">
+      <c r="D59" s="175" t="s">
         <v>535</v>
       </c>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="171"/>
-      <c r="L59" s="171"/>
-      <c r="M59" s="172"/>
+      <c r="E59" s="175"/>
+      <c r="F59" s="175"/>
+      <c r="G59" s="175"/>
+      <c r="H59" s="175"/>
+      <c r="I59" s="175"/>
+      <c r="J59" s="175"/>
+      <c r="K59" s="175"/>
+      <c r="L59" s="175"/>
+      <c r="M59" s="176"/>
       <c r="N59" s="15"/>
       <c r="O59" s="17" t="s">
         <v>620</v>
@@ -23711,18 +23859,18 @@
       <c r="C60" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="D60" s="171" t="s">
+      <c r="D60" s="175" t="s">
         <v>537</v>
       </c>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="171"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="171"/>
-      <c r="K60" s="171"/>
-      <c r="L60" s="171"/>
-      <c r="M60" s="172"/>
+      <c r="E60" s="175"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="175"/>
+      <c r="H60" s="175"/>
+      <c r="I60" s="175"/>
+      <c r="J60" s="175"/>
+      <c r="K60" s="175"/>
+      <c r="L60" s="175"/>
+      <c r="M60" s="176"/>
       <c r="N60" s="15"/>
       <c r="O60" s="17" t="s">
         <v>636</v>
@@ -23787,18 +23935,18 @@
       <c r="C61" s="54" t="s">
         <v>504</v>
       </c>
-      <c r="D61" s="171" t="s">
+      <c r="D61" s="175" t="s">
         <v>538</v>
       </c>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="171"/>
-      <c r="M61" s="172"/>
+      <c r="E61" s="175"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="175"/>
+      <c r="H61" s="175"/>
+      <c r="I61" s="175"/>
+      <c r="J61" s="175"/>
+      <c r="K61" s="175"/>
+      <c r="L61" s="175"/>
+      <c r="M61" s="176"/>
       <c r="N61" s="15"/>
       <c r="O61" s="17" t="s">
         <v>643</v>
@@ -23863,18 +24011,18 @@
       <c r="C62" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="D62" s="171" t="s">
+      <c r="D62" s="175" t="s">
         <v>539</v>
       </c>
-      <c r="E62" s="171"/>
-      <c r="F62" s="171"/>
-      <c r="G62" s="171"/>
-      <c r="H62" s="171"/>
-      <c r="I62" s="171"/>
-      <c r="J62" s="171"/>
-      <c r="K62" s="171"/>
-      <c r="L62" s="171"/>
-      <c r="M62" s="172"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="175"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="175"/>
+      <c r="M62" s="176"/>
       <c r="N62" s="15"/>
       <c r="O62" s="17" t="s">
         <v>669</v>
@@ -23938,18 +24086,18 @@
       <c r="C63" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="D63" s="171" t="s">
+      <c r="D63" s="175" t="s">
         <v>540</v>
       </c>
-      <c r="E63" s="171"/>
-      <c r="F63" s="171"/>
-      <c r="G63" s="171"/>
-      <c r="H63" s="171"/>
-      <c r="I63" s="171"/>
-      <c r="J63" s="171"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="171"/>
-      <c r="M63" s="172"/>
+      <c r="E63" s="175"/>
+      <c r="F63" s="175"/>
+      <c r="G63" s="175"/>
+      <c r="H63" s="175"/>
+      <c r="I63" s="175"/>
+      <c r="J63" s="175"/>
+      <c r="K63" s="175"/>
+      <c r="L63" s="175"/>
+      <c r="M63" s="176"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
         <v>663</v>
@@ -24011,19 +24159,19 @@
       <c r="B64" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="C64" s="201" t="s">
+      <c r="C64" s="203" t="s">
         <v>528</v>
       </c>
-      <c r="D64" s="193"/>
-      <c r="E64" s="193"/>
-      <c r="F64" s="193"/>
-      <c r="G64" s="193"/>
-      <c r="H64" s="193"/>
-      <c r="I64" s="193"/>
-      <c r="J64" s="193"/>
-      <c r="K64" s="193"/>
-      <c r="L64" s="193"/>
-      <c r="M64" s="194"/>
+      <c r="D64" s="171"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="171"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="171"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="172"/>
       <c r="N64" s="38"/>
       <c r="O64" s="41"/>
       <c r="P64" s="41"/>
@@ -24609,19 +24757,19 @@
       <c r="B72" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C72" s="201" t="s">
+      <c r="C72" s="203" t="s">
         <v>382</v>
       </c>
-      <c r="D72" s="193"/>
-      <c r="E72" s="193"/>
-      <c r="F72" s="193"/>
-      <c r="G72" s="193"/>
-      <c r="H72" s="193"/>
-      <c r="I72" s="193"/>
-      <c r="J72" s="193"/>
-      <c r="K72" s="193"/>
-      <c r="L72" s="193"/>
-      <c r="M72" s="194"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="171"/>
+      <c r="F72" s="171"/>
+      <c r="G72" s="171"/>
+      <c r="H72" s="171"/>
+      <c r="I72" s="171"/>
+      <c r="J72" s="171"/>
+      <c r="K72" s="171"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="172"/>
       <c r="N72" s="38"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41"/>
@@ -24678,18 +24826,18 @@
       <c r="C73" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="175" t="s">
+      <c r="D73" s="177" t="s">
         <v>550</v>
       </c>
-      <c r="E73" s="175"/>
-      <c r="F73" s="175"/>
-      <c r="G73" s="175"/>
-      <c r="H73" s="175"/>
-      <c r="I73" s="175"/>
-      <c r="J73" s="175"/>
-      <c r="K73" s="175"/>
-      <c r="L73" s="175"/>
-      <c r="M73" s="176"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="177"/>
+      <c r="K73" s="177"/>
+      <c r="L73" s="177"/>
+      <c r="M73" s="178"/>
       <c r="N73" s="90"/>
       <c r="O73" s="91" t="s">
         <v>644</v>
@@ -24754,18 +24902,18 @@
       <c r="C74" s="96" t="s">
         <v>555</v>
       </c>
-      <c r="D74" s="175" t="s">
+      <c r="D74" s="177" t="s">
         <v>556</v>
       </c>
-      <c r="E74" s="175"/>
-      <c r="F74" s="175"/>
-      <c r="G74" s="175"/>
-      <c r="H74" s="175"/>
-      <c r="I74" s="175"/>
-      <c r="J74" s="175"/>
-      <c r="K74" s="175"/>
-      <c r="L74" s="175"/>
-      <c r="M74" s="176"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="177"/>
+      <c r="I74" s="177"/>
+      <c r="J74" s="177"/>
+      <c r="K74" s="177"/>
+      <c r="L74" s="177"/>
+      <c r="M74" s="178"/>
       <c r="N74" s="90"/>
       <c r="O74" s="91" t="s">
         <v>650</v>
@@ -24830,18 +24978,18 @@
       <c r="C75" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="175" t="s">
+      <c r="D75" s="177" t="s">
         <v>551</v>
       </c>
-      <c r="E75" s="175"/>
-      <c r="F75" s="175"/>
-      <c r="G75" s="175"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="175"/>
-      <c r="J75" s="175"/>
-      <c r="K75" s="175"/>
-      <c r="L75" s="175"/>
-      <c r="M75" s="176"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
+      <c r="I75" s="177"/>
+      <c r="J75" s="177"/>
+      <c r="K75" s="177"/>
+      <c r="L75" s="177"/>
+      <c r="M75" s="178"/>
       <c r="N75" s="90"/>
       <c r="O75" s="91" t="s">
         <v>652</v>
@@ -24906,18 +25054,18 @@
       <c r="C76" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="175" t="s">
+      <c r="D76" s="177" t="s">
         <v>552</v>
       </c>
-      <c r="E76" s="175"/>
-      <c r="F76" s="175"/>
-      <c r="G76" s="175"/>
-      <c r="H76" s="175"/>
-      <c r="I76" s="175"/>
-      <c r="J76" s="175"/>
-      <c r="K76" s="175"/>
-      <c r="L76" s="175"/>
-      <c r="M76" s="176"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="177"/>
+      <c r="I76" s="177"/>
+      <c r="J76" s="177"/>
+      <c r="K76" s="177"/>
+      <c r="L76" s="177"/>
+      <c r="M76" s="178"/>
       <c r="N76" s="90"/>
       <c r="O76" s="91" t="s">
         <v>654</v>
@@ -24982,18 +25130,18 @@
       <c r="C77" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="175" t="s">
+      <c r="D77" s="177" t="s">
         <v>553</v>
       </c>
-      <c r="E77" s="175"/>
-      <c r="F77" s="175"/>
-      <c r="G77" s="175"/>
-      <c r="H77" s="175"/>
-      <c r="I77" s="175"/>
-      <c r="J77" s="175"/>
-      <c r="K77" s="175"/>
-      <c r="L77" s="175"/>
-      <c r="M77" s="176"/>
+      <c r="E77" s="177"/>
+      <c r="F77" s="177"/>
+      <c r="G77" s="177"/>
+      <c r="H77" s="177"/>
+      <c r="I77" s="177"/>
+      <c r="J77" s="177"/>
+      <c r="K77" s="177"/>
+      <c r="L77" s="177"/>
+      <c r="M77" s="178"/>
       <c r="N77" s="90"/>
       <c r="O77" s="91" t="s">
         <v>668</v>
@@ -25058,18 +25206,18 @@
       <c r="C78" s="96" t="s">
         <v>531</v>
       </c>
-      <c r="D78" s="175" t="s">
+      <c r="D78" s="177" t="s">
         <v>554</v>
       </c>
-      <c r="E78" s="175"/>
-      <c r="F78" s="175"/>
-      <c r="G78" s="175"/>
-      <c r="H78" s="175"/>
-      <c r="I78" s="175"/>
-      <c r="J78" s="175"/>
-      <c r="K78" s="175"/>
-      <c r="L78" s="175"/>
-      <c r="M78" s="176"/>
+      <c r="E78" s="177"/>
+      <c r="F78" s="177"/>
+      <c r="G78" s="177"/>
+      <c r="H78" s="177"/>
+      <c r="I78" s="177"/>
+      <c r="J78" s="177"/>
+      <c r="K78" s="177"/>
+      <c r="L78" s="177"/>
+      <c r="M78" s="178"/>
       <c r="N78" s="90"/>
       <c r="O78" s="91" t="s">
         <v>668</v>
@@ -25134,18 +25282,18 @@
       <c r="C79" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="175" t="s">
+      <c r="D79" s="177" t="s">
         <v>557</v>
       </c>
-      <c r="E79" s="175"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="175"/>
-      <c r="H79" s="175"/>
-      <c r="I79" s="175"/>
-      <c r="J79" s="175"/>
-      <c r="K79" s="175"/>
-      <c r="L79" s="175"/>
-      <c r="M79" s="176"/>
+      <c r="E79" s="177"/>
+      <c r="F79" s="177"/>
+      <c r="G79" s="177"/>
+      <c r="H79" s="177"/>
+      <c r="I79" s="177"/>
+      <c r="J79" s="177"/>
+      <c r="K79" s="177"/>
+      <c r="L79" s="177"/>
+      <c r="M79" s="178"/>
       <c r="N79" s="90"/>
       <c r="O79" s="91" t="s">
         <v>675</v>
@@ -25210,18 +25358,18 @@
       <c r="C80" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="175" t="s">
+      <c r="D80" s="177" t="s">
         <v>386</v>
       </c>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="175"/>
-      <c r="I80" s="175"/>
-      <c r="J80" s="175"/>
-      <c r="K80" s="175"/>
-      <c r="L80" s="175"/>
-      <c r="M80" s="176"/>
+      <c r="E80" s="177"/>
+      <c r="F80" s="177"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="177"/>
+      <c r="I80" s="177"/>
+      <c r="J80" s="177"/>
+      <c r="K80" s="177"/>
+      <c r="L80" s="177"/>
+      <c r="M80" s="178"/>
       <c r="N80" s="90"/>
       <c r="O80" s="91" t="s">
         <v>669</v>
@@ -25283,19 +25431,19 @@
       <c r="B81" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C81" s="201" t="s">
+      <c r="C81" s="203" t="s">
         <v>560</v>
       </c>
-      <c r="D81" s="193"/>
-      <c r="E81" s="193"/>
-      <c r="F81" s="193"/>
-      <c r="G81" s="193"/>
-      <c r="H81" s="193"/>
-      <c r="I81" s="193"/>
-      <c r="J81" s="193"/>
-      <c r="K81" s="193"/>
-      <c r="L81" s="193"/>
-      <c r="M81" s="194"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="171"/>
+      <c r="G81" s="171"/>
+      <c r="H81" s="171"/>
+      <c r="I81" s="171"/>
+      <c r="J81" s="171"/>
+      <c r="K81" s="171"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="172"/>
       <c r="N81" s="38"/>
       <c r="O81" s="41"/>
       <c r="P81" s="41"/>
@@ -25428,18 +25576,18 @@
       <c r="C83" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="175" t="s">
+      <c r="D83" s="177" t="s">
         <v>562</v>
       </c>
-      <c r="E83" s="175"/>
-      <c r="F83" s="175"/>
-      <c r="G83" s="175"/>
-      <c r="H83" s="175"/>
-      <c r="I83" s="175"/>
-      <c r="J83" s="175"/>
-      <c r="K83" s="175"/>
-      <c r="L83" s="175"/>
-      <c r="M83" s="176"/>
+      <c r="E83" s="177"/>
+      <c r="F83" s="177"/>
+      <c r="G83" s="177"/>
+      <c r="H83" s="177"/>
+      <c r="I83" s="177"/>
+      <c r="J83" s="177"/>
+      <c r="K83" s="177"/>
+      <c r="L83" s="177"/>
+      <c r="M83" s="178"/>
       <c r="N83" s="90"/>
       <c r="O83" s="91" t="s">
         <v>652</v>
@@ -25504,18 +25652,18 @@
       <c r="C84" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="D84" s="175" t="s">
+      <c r="D84" s="177" t="s">
         <v>564</v>
       </c>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="175"/>
-      <c r="I84" s="175"/>
-      <c r="J84" s="175"/>
-      <c r="K84" s="175"/>
-      <c r="L84" s="175"/>
-      <c r="M84" s="176"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="177"/>
+      <c r="G84" s="177"/>
+      <c r="H84" s="177"/>
+      <c r="I84" s="177"/>
+      <c r="J84" s="177"/>
+      <c r="K84" s="177"/>
+      <c r="L84" s="177"/>
+      <c r="M84" s="178"/>
       <c r="N84" s="90"/>
       <c r="O84" s="91" t="s">
         <v>672</v>
@@ -25580,18 +25728,18 @@
       <c r="C85" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="D85" s="175" t="s">
+      <c r="D85" s="177" t="s">
         <v>579</v>
       </c>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
-      <c r="G85" s="175"/>
-      <c r="H85" s="175"/>
-      <c r="I85" s="175"/>
-      <c r="J85" s="175"/>
-      <c r="K85" s="175"/>
-      <c r="L85" s="175"/>
-      <c r="M85" s="176"/>
+      <c r="E85" s="177"/>
+      <c r="F85" s="177"/>
+      <c r="G85" s="177"/>
+      <c r="H85" s="177"/>
+      <c r="I85" s="177"/>
+      <c r="J85" s="177"/>
+      <c r="K85" s="177"/>
+      <c r="L85" s="177"/>
+      <c r="M85" s="178"/>
       <c r="N85" s="90"/>
       <c r="O85" s="91" t="s">
         <v>679</v>
@@ -25653,19 +25801,19 @@
       <c r="B86" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="C86" s="201" t="s">
+      <c r="C86" s="203" t="s">
         <v>584</v>
       </c>
-      <c r="D86" s="193"/>
-      <c r="E86" s="193"/>
-      <c r="F86" s="193"/>
-      <c r="G86" s="193"/>
-      <c r="H86" s="193"/>
-      <c r="I86" s="193"/>
-      <c r="J86" s="193"/>
-      <c r="K86" s="193"/>
-      <c r="L86" s="193"/>
-      <c r="M86" s="194"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
+      <c r="G86" s="171"/>
+      <c r="H86" s="171"/>
+      <c r="I86" s="171"/>
+      <c r="J86" s="171"/>
+      <c r="K86" s="171"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="172"/>
       <c r="N86" s="38"/>
       <c r="O86" s="41"/>
       <c r="P86" s="41"/>
@@ -25722,18 +25870,18 @@
       <c r="C87" s="96" t="s">
         <v>585</v>
       </c>
-      <c r="D87" s="175" t="s">
+      <c r="D87" s="177" t="s">
         <v>586</v>
       </c>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
-      <c r="G87" s="175"/>
-      <c r="H87" s="175"/>
-      <c r="I87" s="175"/>
-      <c r="J87" s="175"/>
-      <c r="K87" s="175"/>
-      <c r="L87" s="175"/>
-      <c r="M87" s="176"/>
+      <c r="E87" s="177"/>
+      <c r="F87" s="177"/>
+      <c r="G87" s="177"/>
+      <c r="H87" s="177"/>
+      <c r="I87" s="177"/>
+      <c r="J87" s="177"/>
+      <c r="K87" s="177"/>
+      <c r="L87" s="177"/>
+      <c r="M87" s="178"/>
       <c r="N87" s="90" t="s">
         <v>587</v>
       </c>
@@ -25800,18 +25948,18 @@
       <c r="C88" s="97" t="s">
         <v>763</v>
       </c>
-      <c r="D88" s="175" t="s">
+      <c r="D88" s="177" t="s">
         <v>764</v>
       </c>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
-      <c r="G88" s="175"/>
-      <c r="H88" s="175"/>
-      <c r="I88" s="175"/>
-      <c r="J88" s="175"/>
-      <c r="K88" s="175"/>
-      <c r="L88" s="175"/>
-      <c r="M88" s="176"/>
+      <c r="E88" s="177"/>
+      <c r="F88" s="177"/>
+      <c r="G88" s="177"/>
+      <c r="H88" s="177"/>
+      <c r="I88" s="177"/>
+      <c r="J88" s="177"/>
+      <c r="K88" s="177"/>
+      <c r="L88" s="177"/>
+      <c r="M88" s="178"/>
       <c r="N88" s="90"/>
       <c r="O88" s="91" t="s">
         <v>765</v>
@@ -25876,18 +26024,18 @@
       <c r="C89" s="96" t="s">
         <v>585</v>
       </c>
-      <c r="D89" s="175" t="s">
+      <c r="D89" s="177" t="s">
         <v>590</v>
       </c>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
-      <c r="G89" s="175"/>
-      <c r="H89" s="175"/>
-      <c r="I89" s="175"/>
-      <c r="J89" s="175"/>
-      <c r="K89" s="175"/>
-      <c r="L89" s="175"/>
-      <c r="M89" s="176"/>
+      <c r="E89" s="177"/>
+      <c r="F89" s="177"/>
+      <c r="G89" s="177"/>
+      <c r="H89" s="177"/>
+      <c r="I89" s="177"/>
+      <c r="J89" s="177"/>
+      <c r="K89" s="177"/>
+      <c r="L89" s="177"/>
+      <c r="M89" s="178"/>
       <c r="N89" s="90"/>
       <c r="O89" s="91" t="s">
         <v>607</v>
@@ -25952,18 +26100,18 @@
       <c r="C90" s="96" t="s">
         <v>591</v>
       </c>
-      <c r="D90" s="175" t="s">
+      <c r="D90" s="177" t="s">
         <v>592</v>
       </c>
-      <c r="E90" s="175"/>
-      <c r="F90" s="175"/>
-      <c r="G90" s="175"/>
-      <c r="H90" s="175"/>
-      <c r="I90" s="175"/>
-      <c r="J90" s="175"/>
-      <c r="K90" s="175"/>
-      <c r="L90" s="175"/>
-      <c r="M90" s="176"/>
+      <c r="E90" s="177"/>
+      <c r="F90" s="177"/>
+      <c r="G90" s="177"/>
+      <c r="H90" s="177"/>
+      <c r="I90" s="177"/>
+      <c r="J90" s="177"/>
+      <c r="K90" s="177"/>
+      <c r="L90" s="177"/>
+      <c r="M90" s="178"/>
       <c r="N90" s="90" t="s">
         <v>596</v>
       </c>
@@ -26030,18 +26178,18 @@
       <c r="C91" s="97" t="s">
         <v>749</v>
       </c>
-      <c r="D91" s="175" t="s">
+      <c r="D91" s="177" t="s">
         <v>767</v>
       </c>
-      <c r="E91" s="175"/>
-      <c r="F91" s="175"/>
-      <c r="G91" s="175"/>
-      <c r="H91" s="175"/>
-      <c r="I91" s="175"/>
-      <c r="J91" s="175"/>
-      <c r="K91" s="175"/>
-      <c r="L91" s="175"/>
-      <c r="M91" s="176"/>
+      <c r="E91" s="177"/>
+      <c r="F91" s="177"/>
+      <c r="G91" s="177"/>
+      <c r="H91" s="177"/>
+      <c r="I91" s="177"/>
+      <c r="J91" s="177"/>
+      <c r="K91" s="177"/>
+      <c r="L91" s="177"/>
+      <c r="M91" s="178"/>
       <c r="N91" s="90"/>
       <c r="O91" s="91" t="s">
         <v>768</v>
@@ -26104,18 +26252,18 @@
       <c r="C92" s="135" t="s">
         <v>597</v>
       </c>
-      <c r="D92" s="175" t="s">
+      <c r="D92" s="177" t="s">
         <v>598</v>
       </c>
-      <c r="E92" s="175"/>
-      <c r="F92" s="175"/>
-      <c r="G92" s="175"/>
-      <c r="H92" s="175"/>
-      <c r="I92" s="175"/>
-      <c r="J92" s="175"/>
-      <c r="K92" s="175"/>
-      <c r="L92" s="175"/>
-      <c r="M92" s="176"/>
+      <c r="E92" s="177"/>
+      <c r="F92" s="177"/>
+      <c r="G92" s="177"/>
+      <c r="H92" s="177"/>
+      <c r="I92" s="177"/>
+      <c r="J92" s="177"/>
+      <c r="K92" s="177"/>
+      <c r="L92" s="177"/>
+      <c r="M92" s="178"/>
       <c r="N92" s="90"/>
       <c r="O92" s="91" t="s">
         <v>599</v>
@@ -26180,18 +26328,18 @@
       <c r="C93" s="138" t="s">
         <v>601</v>
       </c>
-      <c r="D93" s="210" t="s">
+      <c r="D93" s="201" t="s">
         <v>602</v>
       </c>
-      <c r="E93" s="210"/>
-      <c r="F93" s="210"/>
-      <c r="G93" s="210"/>
-      <c r="H93" s="210"/>
-      <c r="I93" s="210"/>
-      <c r="J93" s="210"/>
-      <c r="K93" s="210"/>
-      <c r="L93" s="210"/>
-      <c r="M93" s="211"/>
+      <c r="E93" s="201"/>
+      <c r="F93" s="201"/>
+      <c r="G93" s="201"/>
+      <c r="H93" s="201"/>
+      <c r="I93" s="201"/>
+      <c r="J93" s="201"/>
+      <c r="K93" s="201"/>
+      <c r="L93" s="201"/>
+      <c r="M93" s="202"/>
       <c r="N93" s="139"/>
       <c r="O93" s="140" t="s">
         <v>603</v>
@@ -26251,6 +26399,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="C81:M81"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="C64:M64"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AY5"/>
+    <mergeCell ref="AZ5:BH5"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D12:M12"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:M6"/>
@@ -26275,84 +26501,6 @@
     <mergeCell ref="D90:M90"/>
     <mergeCell ref="C20:M20"/>
     <mergeCell ref="D21:M21"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AY5"/>
-    <mergeCell ref="AZ5:BH5"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="C72:M72"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="C64:M64"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="C53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D88:M88"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="C81:M81"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D61:M61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -10363,9 +10363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
+      <xdr:colOff>258535</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>121683</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10375,7 +10375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15955088" y="16037143"/>
-          <a:ext cx="1900205" cy="45719"/>
+          <a:ext cx="1897483" cy="60107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10754,6 +10754,130 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>7517</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>62357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="직사각형 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15968696" y="22554964"/>
+          <a:ext cx="2360126" cy="60108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>270310</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>79348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>138794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="직사각형 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17864346" y="25225348"/>
+          <a:ext cx="548840" cy="59446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -11310,8 +11434,8 @@
   <dimension ref="B1:BA126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11403,12 +11527,12 @@
         <v>175</v>
       </c>
       <c r="AZ4" s="101">
-        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW29+AW32+AW33+AW34+AW35+AW36+AW40+AW41+AW44+AW46+AW47+AW48+AW50+AW59+AW60+AW71+AW72+AW75+AW78+AW96+AW98+AW99+AW85+AW91+AW49+AW95+AW94+AW92+AW93+AW15+AW51+AW53+AW52+AW30+AW45+AW18+AW37+AW39+AW101+AW38+AW42+AW73+AW74+AW97+AW100+AW16+AW110+AW104+AW105+AW106+AW81+AW80+AW76+AW113+AW66+AW121+AW122+AW83+AW55+AW82+AW67+AW54+AW61+AW62+AW63+AW64+AW65+AW77+AW102+AW86+AW87+AW103+AW123+AW112+AW117+AW19+AW79+AW88+AW120+AW84+AW114+AW108+AW68</f>
-        <v>153</v>
+        <f>AW8+AW9+AW10+AW11+AW12+AW13+AW14+AW21+AW22+AW23+AW24+AW25+AW26+AW27+AW28+AW29+AW32+AW33+AW34+AW35+AW36+AW40+AW41+AW44+AW46+AW47+AW48+AW50+AW59+AW60+AW71+AW72+AW75+AW78+AW96+AW98+AW99+AW85+AW91+AW49+AW95+AW94+AW92+AW93+AW15+AW51+AW53+AW52+AW30+AW45+AW18+AW37+AW39+AW101+AW38+AW42+AW73+AW74+AW97+AW100+AW16+AW110+AW104+AW105+AW106+AW81+AW80+AW76+AW113+AW66+AW121+AW122+AW83+AW55+AW82+AW67+AW54+AW61+AW62+AW63+AW64+AW65+AW77+AW102+AW86+AW87+AW103+AW123+AW112+AW117+AW19+AW79+AW88+AW120+AW84+AW114+AW108+AW68+AW111+AW124</f>
+        <v>157</v>
       </c>
       <c r="BA4" s="101">
         <f>AZ4/AY4*100</f>
-        <v>87.428571428571431</v>
+        <v>89.714285714285708</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18546,7 +18670,9 @@
       <c r="P111" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="Q111" s="95"/>
+      <c r="Q111" s="95">
+        <v>1</v>
+      </c>
       <c r="R111" s="92">
         <v>2</v>
       </c>
@@ -19393,7 +19519,9 @@
       <c r="P124" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="Q124" s="15"/>
+      <c r="Q124" s="19">
+        <v>1</v>
+      </c>
       <c r="R124" s="80">
         <v>2</v>
       </c>

--- a/01.일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/01.일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="858">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3348,6 +3348,10 @@
   </si>
   <si>
     <t>11.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4561,19 +4565,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4588,6 +4607,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4600,49 +4646,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4676,12 +4686,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -12401,6 +12405,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12710</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687639" y="3792696"/>
+          <a:ext cx="749290" cy="58125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12729,13 +12795,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="181" t="s">
+      <c r="AY2" s="199" t="s">
         <v>319</v>
       </c>
-      <c r="AZ2" s="181" t="s">
+      <c r="AZ2" s="199" t="s">
         <v>317</v>
       </c>
-      <c r="BA2" s="181" t="s">
+      <c r="BA2" s="199" t="s">
         <v>318</v>
       </c>
     </row>
@@ -12753,9 +12819,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="181"/>
-      <c r="BA3" s="181"/>
+      <c r="AY3" s="199"/>
+      <c r="AZ3" s="199"/>
+      <c r="BA3" s="199"/>
     </row>
     <row r="4" spans="2:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AY4" s="101">
@@ -12772,95 +12838,95 @@
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="182" t="s">
+      <c r="C5" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182" t="s">
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="190" t="s">
+      <c r="O5" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="190" t="s">
+      <c r="P5" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="182" t="s">
+      <c r="Q5" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="186" t="s">
+      <c r="R5" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="194" t="s">
+      <c r="S5" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192" t="s">
+      <c r="T5" s="194"/>
+      <c r="U5" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="192"/>
-      <c r="AA5" s="192"/>
-      <c r="AB5" s="192"/>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="192"/>
-      <c r="AE5" s="192"/>
-      <c r="AF5" s="192"/>
-      <c r="AG5" s="192"/>
-      <c r="AH5" s="192"/>
-      <c r="AI5" s="192"/>
-      <c r="AJ5" s="192"/>
-      <c r="AK5" s="192"/>
-      <c r="AL5" s="192"/>
-      <c r="AM5" s="192"/>
-      <c r="AN5" s="192"/>
-      <c r="AO5" s="192"/>
-      <c r="AP5" s="192"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="192"/>
-      <c r="AS5" s="192"/>
-      <c r="AT5" s="192"/>
-      <c r="AU5" s="192"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="195" t="s">
+      <c r="V5" s="194"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="194"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="194"/>
+      <c r="AG5" s="194"/>
+      <c r="AH5" s="194"/>
+      <c r="AI5" s="194"/>
+      <c r="AJ5" s="194"/>
+      <c r="AK5" s="194"/>
+      <c r="AL5" s="194"/>
+      <c r="AM5" s="194"/>
+      <c r="AN5" s="194"/>
+      <c r="AO5" s="194"/>
+      <c r="AP5" s="194"/>
+      <c r="AQ5" s="194"/>
+      <c r="AR5" s="194"/>
+      <c r="AS5" s="194"/>
+      <c r="AT5" s="194"/>
+      <c r="AU5" s="194"/>
+      <c r="AV5" s="204"/>
+      <c r="AW5" s="197" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:53" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="200"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="187"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="201"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -12951,25 +13017,25 @@
       <c r="AV6" s="158">
         <v>28</v>
       </c>
-      <c r="AW6" s="196"/>
+      <c r="AW6" s="198"/>
     </row>
     <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="189"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -13014,18 +13080,18 @@
       <c r="C8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="190"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -13082,18 +13148,18 @@
       <c r="C9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="185"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="190"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -13150,18 +13216,18 @@
       <c r="C10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="185"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="190"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -13218,18 +13284,18 @@
       <c r="C11" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="184" t="s">
+      <c r="D11" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="185"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="190"/>
       <c r="N11" s="50" t="s">
         <v>88</v>
       </c>
@@ -13286,18 +13352,18 @@
       <c r="C12" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="189" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="185"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="190"/>
       <c r="N12" s="50" t="s">
         <v>208</v>
       </c>
@@ -13354,18 +13420,18 @@
       <c r="C13" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="189" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="185"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="190"/>
       <c r="N13" s="50" t="s">
         <v>147</v>
       </c>
@@ -13422,18 +13488,18 @@
       <c r="C14" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="184" t="s">
+      <c r="D14" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="185"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="50" t="s">
         <v>32</v>
       </c>
@@ -13490,18 +13556,18 @@
       <c r="C15" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="184" t="s">
+      <c r="D15" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="185"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="190"/>
       <c r="N15" s="50" t="s">
         <v>352</v>
       </c>
@@ -13558,18 +13624,18 @@
       <c r="C16" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="184" t="s">
+      <c r="D16" s="189" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="185"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="190"/>
       <c r="N16" s="50" t="s">
         <v>214</v>
       </c>
@@ -13626,18 +13692,18 @@
       <c r="C17" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="184" t="s">
+      <c r="D17" s="189" t="s">
         <v>751</v>
       </c>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="185"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="190"/>
       <c r="N17" s="50" t="s">
         <v>221</v>
       </c>
@@ -13694,18 +13760,18 @@
       <c r="C18" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="D18" s="184" t="s">
+      <c r="D18" s="189" t="s">
         <v>369</v>
       </c>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="185"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="190"/>
       <c r="N18" s="50" t="s">
         <v>370</v>
       </c>
@@ -13762,18 +13828,18 @@
       <c r="C19" s="85" t="s">
         <v>680</v>
       </c>
-      <c r="D19" s="184" t="s">
+      <c r="D19" s="189" t="s">
         <v>688</v>
       </c>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="190"/>
       <c r="N19" s="50" t="s">
         <v>685</v>
       </c>
@@ -13827,19 +13893,19 @@
       <c r="B20" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="198"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="180"/>
       <c r="N20" s="13"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
@@ -13884,18 +13950,18 @@
       <c r="C21" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="201" t="s">
+      <c r="D21" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="202"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="192"/>
       <c r="N21" s="14" t="s">
         <v>10</v>
       </c>
@@ -14561,19 +14627,19 @@
       <c r="B31" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="197" t="s">
+      <c r="C31" s="179" t="s">
         <v>780</v>
       </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="198"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="180"/>
       <c r="N31" s="13"/>
       <c r="O31" s="55"/>
       <c r="P31" s="55"/>
@@ -16383,19 +16449,19 @@
       <c r="B58" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="197" t="s">
+      <c r="C58" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="197"/>
-      <c r="E58" s="197"/>
-      <c r="F58" s="197"/>
-      <c r="G58" s="197"/>
-      <c r="H58" s="197"/>
-      <c r="I58" s="197"/>
-      <c r="J58" s="197"/>
-      <c r="K58" s="197"/>
-      <c r="L58" s="197"/>
-      <c r="M58" s="198"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="179"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="179"/>
+      <c r="M58" s="180"/>
       <c r="N58" s="38"/>
       <c r="O58" s="41"/>
       <c r="P58" s="41"/>
@@ -16440,18 +16506,18 @@
       <c r="C59" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="177" t="s">
+      <c r="D59" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="177"/>
-      <c r="F59" s="177"/>
-      <c r="G59" s="177"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="177"/>
-      <c r="J59" s="177"/>
-      <c r="K59" s="177"/>
-      <c r="L59" s="177"/>
-      <c r="M59" s="178"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
+      <c r="K59" s="183"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="184"/>
       <c r="N59" s="39" t="s">
         <v>64</v>
       </c>
@@ -16508,18 +16574,18 @@
       <c r="C60" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="177" t="s">
+      <c r="D60" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="E60" s="177"/>
-      <c r="F60" s="177"/>
-      <c r="G60" s="177"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="177"/>
-      <c r="J60" s="177"/>
-      <c r="K60" s="177"/>
-      <c r="L60" s="177"/>
-      <c r="M60" s="178"/>
+      <c r="E60" s="183"/>
+      <c r="F60" s="183"/>
+      <c r="G60" s="183"/>
+      <c r="H60" s="183"/>
+      <c r="I60" s="183"/>
+      <c r="J60" s="183"/>
+      <c r="K60" s="183"/>
+      <c r="L60" s="183"/>
+      <c r="M60" s="184"/>
       <c r="N60" s="39" t="s">
         <v>165</v>
       </c>
@@ -16576,18 +16642,18 @@
       <c r="C61" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="D61" s="177" t="s">
+      <c r="D61" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="E61" s="177"/>
-      <c r="F61" s="177"/>
-      <c r="G61" s="177"/>
-      <c r="H61" s="177"/>
-      <c r="I61" s="177"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="177"/>
-      <c r="M61" s="178"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="183"/>
+      <c r="J61" s="183"/>
+      <c r="K61" s="183"/>
+      <c r="L61" s="183"/>
+      <c r="M61" s="184"/>
       <c r="N61" s="39" t="s">
         <v>284</v>
       </c>
@@ -16644,18 +16710,18 @@
       <c r="C62" s="106" t="s">
         <v>391</v>
       </c>
-      <c r="D62" s="177" t="s">
+      <c r="D62" s="183" t="s">
         <v>394</v>
       </c>
-      <c r="E62" s="177"/>
-      <c r="F62" s="177"/>
-      <c r="G62" s="177"/>
-      <c r="H62" s="177"/>
-      <c r="I62" s="177"/>
-      <c r="J62" s="177"/>
-      <c r="K62" s="177"/>
-      <c r="L62" s="177"/>
-      <c r="M62" s="178"/>
+      <c r="E62" s="183"/>
+      <c r="F62" s="183"/>
+      <c r="G62" s="183"/>
+      <c r="H62" s="183"/>
+      <c r="I62" s="183"/>
+      <c r="J62" s="183"/>
+      <c r="K62" s="183"/>
+      <c r="L62" s="183"/>
+      <c r="M62" s="184"/>
       <c r="N62" s="39" t="s">
         <v>395</v>
       </c>
@@ -16712,18 +16778,18 @@
       <c r="C63" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="D63" s="177" t="s">
+      <c r="D63" s="183" t="s">
         <v>408</v>
       </c>
-      <c r="E63" s="177"/>
-      <c r="F63" s="177"/>
-      <c r="G63" s="177"/>
-      <c r="H63" s="177"/>
-      <c r="I63" s="177"/>
-      <c r="J63" s="177"/>
-      <c r="K63" s="177"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="178"/>
+      <c r="E63" s="183"/>
+      <c r="F63" s="183"/>
+      <c r="G63" s="183"/>
+      <c r="H63" s="183"/>
+      <c r="I63" s="183"/>
+      <c r="J63" s="183"/>
+      <c r="K63" s="183"/>
+      <c r="L63" s="183"/>
+      <c r="M63" s="184"/>
       <c r="N63" s="39" t="s">
         <v>407</v>
       </c>
@@ -17185,19 +17251,19 @@
       <c r="B70" s="149">
         <v>5</v>
       </c>
-      <c r="C70" s="197" t="s">
+      <c r="C70" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="197"/>
-      <c r="G70" s="197"/>
-      <c r="H70" s="197"/>
-      <c r="I70" s="197"/>
-      <c r="J70" s="197"/>
-      <c r="K70" s="197"/>
-      <c r="L70" s="197"/>
-      <c r="M70" s="198"/>
+      <c r="D70" s="179"/>
+      <c r="E70" s="179"/>
+      <c r="F70" s="179"/>
+      <c r="G70" s="179"/>
+      <c r="H70" s="179"/>
+      <c r="I70" s="179"/>
+      <c r="J70" s="179"/>
+      <c r="K70" s="179"/>
+      <c r="L70" s="179"/>
+      <c r="M70" s="180"/>
       <c r="N70" s="40"/>
       <c r="O70" s="41"/>
       <c r="P70" s="41"/>
@@ -18531,19 +18597,19 @@
       <c r="B90" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="197" t="s">
+      <c r="C90" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D90" s="197"/>
-      <c r="E90" s="197"/>
-      <c r="F90" s="197"/>
-      <c r="G90" s="197"/>
-      <c r="H90" s="197"/>
-      <c r="I90" s="197"/>
-      <c r="J90" s="197"/>
-      <c r="K90" s="197"/>
-      <c r="L90" s="197"/>
-      <c r="M90" s="198"/>
+      <c r="D90" s="179"/>
+      <c r="E90" s="179"/>
+      <c r="F90" s="179"/>
+      <c r="G90" s="179"/>
+      <c r="H90" s="179"/>
+      <c r="I90" s="179"/>
+      <c r="J90" s="179"/>
+      <c r="K90" s="179"/>
+      <c r="L90" s="179"/>
+      <c r="M90" s="180"/>
       <c r="N90" s="38"/>
       <c r="O90" s="41"/>
       <c r="P90" s="41"/>
@@ -19809,19 +19875,19 @@
       <c r="B109" s="147" t="s">
         <v>303</v>
       </c>
-      <c r="C109" s="197" t="s">
+      <c r="C109" s="179" t="s">
         <v>382</v>
       </c>
-      <c r="D109" s="197"/>
-      <c r="E109" s="197"/>
-      <c r="F109" s="197"/>
-      <c r="G109" s="197"/>
-      <c r="H109" s="197"/>
-      <c r="I109" s="197"/>
-      <c r="J109" s="197"/>
-      <c r="K109" s="197"/>
-      <c r="L109" s="197"/>
-      <c r="M109" s="198"/>
+      <c r="D109" s="179"/>
+      <c r="E109" s="179"/>
+      <c r="F109" s="179"/>
+      <c r="G109" s="179"/>
+      <c r="H109" s="179"/>
+      <c r="I109" s="179"/>
+      <c r="J109" s="179"/>
+      <c r="K109" s="179"/>
+      <c r="L109" s="179"/>
+      <c r="M109" s="180"/>
       <c r="N109" s="38"/>
       <c r="O109" s="41"/>
       <c r="P109" s="41"/>
@@ -19866,18 +19932,18 @@
       <c r="C110" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="D110" s="179" t="s">
+      <c r="D110" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="E110" s="179"/>
-      <c r="F110" s="179"/>
-      <c r="G110" s="179"/>
-      <c r="H110" s="179"/>
-      <c r="I110" s="179"/>
-      <c r="J110" s="179"/>
-      <c r="K110" s="179"/>
-      <c r="L110" s="179"/>
-      <c r="M110" s="180"/>
+      <c r="E110" s="177"/>
+      <c r="F110" s="177"/>
+      <c r="G110" s="177"/>
+      <c r="H110" s="177"/>
+      <c r="I110" s="177"/>
+      <c r="J110" s="177"/>
+      <c r="K110" s="177"/>
+      <c r="L110" s="177"/>
+      <c r="M110" s="178"/>
       <c r="N110" s="90" t="s">
         <v>307</v>
       </c>
@@ -19934,18 +20000,18 @@
       <c r="C111" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="D111" s="179" t="s">
+      <c r="D111" s="177" t="s">
         <v>311</v>
       </c>
-      <c r="E111" s="179"/>
-      <c r="F111" s="179"/>
-      <c r="G111" s="179"/>
-      <c r="H111" s="179"/>
-      <c r="I111" s="179"/>
-      <c r="J111" s="179"/>
-      <c r="K111" s="179"/>
-      <c r="L111" s="179"/>
-      <c r="M111" s="180"/>
+      <c r="E111" s="177"/>
+      <c r="F111" s="177"/>
+      <c r="G111" s="177"/>
+      <c r="H111" s="177"/>
+      <c r="I111" s="177"/>
+      <c r="J111" s="177"/>
+      <c r="K111" s="177"/>
+      <c r="L111" s="177"/>
+      <c r="M111" s="178"/>
       <c r="N111" s="90" t="s">
         <v>353</v>
       </c>
@@ -20002,18 +20068,18 @@
       <c r="C112" s="96" t="s">
         <v>383</v>
       </c>
-      <c r="D112" s="179" t="s">
+      <c r="D112" s="177" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="179"/>
-      <c r="F112" s="179"/>
-      <c r="G112" s="179"/>
-      <c r="H112" s="179"/>
-      <c r="I112" s="179"/>
-      <c r="J112" s="179"/>
-      <c r="K112" s="179"/>
-      <c r="L112" s="179"/>
-      <c r="M112" s="180"/>
+      <c r="E112" s="177"/>
+      <c r="F112" s="177"/>
+      <c r="G112" s="177"/>
+      <c r="H112" s="177"/>
+      <c r="I112" s="177"/>
+      <c r="J112" s="177"/>
+      <c r="K112" s="177"/>
+      <c r="L112" s="177"/>
+      <c r="M112" s="178"/>
       <c r="N112" s="90" t="s">
         <v>387</v>
       </c>
@@ -20070,18 +20136,18 @@
       <c r="C113" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="D113" s="179" t="s">
+      <c r="D113" s="177" t="s">
         <v>430</v>
       </c>
-      <c r="E113" s="179"/>
-      <c r="F113" s="179"/>
-      <c r="G113" s="179"/>
-      <c r="H113" s="179"/>
-      <c r="I113" s="179"/>
-      <c r="J113" s="179"/>
-      <c r="K113" s="179"/>
-      <c r="L113" s="179"/>
-      <c r="M113" s="180"/>
+      <c r="E113" s="177"/>
+      <c r="F113" s="177"/>
+      <c r="G113" s="177"/>
+      <c r="H113" s="177"/>
+      <c r="I113" s="177"/>
+      <c r="J113" s="177"/>
+      <c r="K113" s="177"/>
+      <c r="L113" s="177"/>
+      <c r="M113" s="178"/>
       <c r="N113" s="90" t="s">
         <v>431</v>
       </c>
@@ -20138,18 +20204,18 @@
       <c r="C114" s="97" t="s">
         <v>765</v>
       </c>
-      <c r="D114" s="179" t="s">
+      <c r="D114" s="177" t="s">
         <v>767</v>
       </c>
-      <c r="E114" s="179"/>
-      <c r="F114" s="179"/>
-      <c r="G114" s="179"/>
-      <c r="H114" s="179"/>
-      <c r="I114" s="179"/>
-      <c r="J114" s="179"/>
-      <c r="K114" s="179"/>
-      <c r="L114" s="179"/>
-      <c r="M114" s="180"/>
+      <c r="E114" s="177"/>
+      <c r="F114" s="177"/>
+      <c r="G114" s="177"/>
+      <c r="H114" s="177"/>
+      <c r="I114" s="177"/>
+      <c r="J114" s="177"/>
+      <c r="K114" s="177"/>
+      <c r="L114" s="177"/>
+      <c r="M114" s="178"/>
       <c r="N114" s="90" t="s">
         <v>766</v>
       </c>
@@ -20206,18 +20272,18 @@
       <c r="C115" s="97" t="s">
         <v>385</v>
       </c>
-      <c r="D115" s="179" t="s">
+      <c r="D115" s="177" t="s">
         <v>386</v>
       </c>
-      <c r="E115" s="179"/>
-      <c r="F115" s="179"/>
-      <c r="G115" s="179"/>
-      <c r="H115" s="179"/>
-      <c r="I115" s="179"/>
-      <c r="J115" s="179"/>
-      <c r="K115" s="179"/>
-      <c r="L115" s="179"/>
-      <c r="M115" s="180"/>
+      <c r="E115" s="177"/>
+      <c r="F115" s="177"/>
+      <c r="G115" s="177"/>
+      <c r="H115" s="177"/>
+      <c r="I115" s="177"/>
+      <c r="J115" s="177"/>
+      <c r="K115" s="177"/>
+      <c r="L115" s="177"/>
+      <c r="M115" s="178"/>
       <c r="N115" s="90" t="s">
         <v>789</v>
       </c>
@@ -20271,19 +20337,19 @@
       <c r="B116" s="147" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="197" t="s">
+      <c r="C116" s="179" t="s">
         <v>313</v>
       </c>
-      <c r="D116" s="197"/>
-      <c r="E116" s="197"/>
-      <c r="F116" s="197"/>
-      <c r="G116" s="197"/>
-      <c r="H116" s="197"/>
-      <c r="I116" s="197"/>
-      <c r="J116" s="197"/>
-      <c r="K116" s="197"/>
-      <c r="L116" s="197"/>
-      <c r="M116" s="198"/>
+      <c r="D116" s="179"/>
+      <c r="E116" s="179"/>
+      <c r="F116" s="179"/>
+      <c r="G116" s="179"/>
+      <c r="H116" s="179"/>
+      <c r="I116" s="179"/>
+      <c r="J116" s="179"/>
+      <c r="K116" s="179"/>
+      <c r="L116" s="179"/>
+      <c r="M116" s="180"/>
       <c r="N116" s="38"/>
       <c r="O116" s="41"/>
       <c r="P116" s="41"/>
@@ -20328,18 +20394,18 @@
       <c r="C117" s="102" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="177" t="s">
+      <c r="D117" s="183" t="s">
         <v>348</v>
       </c>
-      <c r="E117" s="177"/>
-      <c r="F117" s="177"/>
-      <c r="G117" s="177"/>
-      <c r="H117" s="177"/>
-      <c r="I117" s="177"/>
-      <c r="J117" s="177"/>
-      <c r="K117" s="177"/>
-      <c r="L117" s="177"/>
-      <c r="M117" s="178"/>
+      <c r="E117" s="183"/>
+      <c r="F117" s="183"/>
+      <c r="G117" s="183"/>
+      <c r="H117" s="183"/>
+      <c r="I117" s="183"/>
+      <c r="J117" s="183"/>
+      <c r="K117" s="183"/>
+      <c r="L117" s="183"/>
+      <c r="M117" s="184"/>
       <c r="N117" s="90" t="s">
         <v>440</v>
       </c>
@@ -20396,18 +20462,18 @@
       <c r="C118" s="162" t="s">
         <v>761</v>
       </c>
-      <c r="D118" s="177" t="s">
+      <c r="D118" s="183" t="s">
         <v>762</v>
       </c>
-      <c r="E118" s="177"/>
-      <c r="F118" s="177"/>
-      <c r="G118" s="177"/>
-      <c r="H118" s="177"/>
-      <c r="I118" s="177"/>
-      <c r="J118" s="177"/>
-      <c r="K118" s="177"/>
-      <c r="L118" s="177"/>
-      <c r="M118" s="178"/>
+      <c r="E118" s="183"/>
+      <c r="F118" s="183"/>
+      <c r="G118" s="183"/>
+      <c r="H118" s="183"/>
+      <c r="I118" s="183"/>
+      <c r="J118" s="183"/>
+      <c r="K118" s="183"/>
+      <c r="L118" s="183"/>
+      <c r="M118" s="184"/>
       <c r="N118" s="90" t="s">
         <v>763</v>
       </c>
@@ -20461,19 +20527,19 @@
       <c r="B119" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="C119" s="197" t="s">
+      <c r="C119" s="179" t="s">
         <v>196</v>
       </c>
-      <c r="D119" s="197"/>
-      <c r="E119" s="197"/>
-      <c r="F119" s="197"/>
-      <c r="G119" s="197"/>
-      <c r="H119" s="197"/>
-      <c r="I119" s="197"/>
-      <c r="J119" s="197"/>
-      <c r="K119" s="197"/>
-      <c r="L119" s="197"/>
-      <c r="M119" s="198"/>
+      <c r="D119" s="179"/>
+      <c r="E119" s="179"/>
+      <c r="F119" s="179"/>
+      <c r="G119" s="179"/>
+      <c r="H119" s="179"/>
+      <c r="I119" s="179"/>
+      <c r="J119" s="179"/>
+      <c r="K119" s="179"/>
+      <c r="L119" s="179"/>
+      <c r="M119" s="180"/>
       <c r="N119" s="38"/>
       <c r="O119" s="41"/>
       <c r="P119" s="41"/>
@@ -20518,18 +20584,18 @@
       <c r="C120" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="D120" s="177" t="s">
+      <c r="D120" s="183" t="s">
         <v>252</v>
       </c>
-      <c r="E120" s="177"/>
-      <c r="F120" s="177"/>
-      <c r="G120" s="177"/>
-      <c r="H120" s="177"/>
-      <c r="I120" s="177"/>
-      <c r="J120" s="177"/>
-      <c r="K120" s="177"/>
-      <c r="L120" s="177"/>
-      <c r="M120" s="178"/>
+      <c r="E120" s="183"/>
+      <c r="F120" s="183"/>
+      <c r="G120" s="183"/>
+      <c r="H120" s="183"/>
+      <c r="I120" s="183"/>
+      <c r="J120" s="183"/>
+      <c r="K120" s="183"/>
+      <c r="L120" s="183"/>
+      <c r="M120" s="184"/>
       <c r="N120" s="90" t="s">
         <v>253</v>
       </c>
@@ -20858,18 +20924,18 @@
       <c r="C125" s="171" t="s">
         <v>703</v>
       </c>
-      <c r="D125" s="203" t="s">
+      <c r="D125" s="181" t="s">
         <v>727</v>
       </c>
-      <c r="E125" s="203"/>
-      <c r="F125" s="203"/>
-      <c r="G125" s="203"/>
-      <c r="H125" s="203"/>
-      <c r="I125" s="203"/>
-      <c r="J125" s="203"/>
-      <c r="K125" s="203"/>
-      <c r="L125" s="203"/>
-      <c r="M125" s="204"/>
+      <c r="E125" s="181"/>
+      <c r="F125" s="181"/>
+      <c r="G125" s="181"/>
+      <c r="H125" s="181"/>
+      <c r="I125" s="181"/>
+      <c r="J125" s="181"/>
+      <c r="K125" s="181"/>
+      <c r="L125" s="181"/>
+      <c r="M125" s="182"/>
       <c r="N125" s="67" t="s">
         <v>706</v>
       </c>
@@ -20921,60 +20987,57 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D89:M89"/>
-    <mergeCell ref="D96:M96"/>
-    <mergeCell ref="D92:M92"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D113:M113"/>
-    <mergeCell ref="D102:M102"/>
-    <mergeCell ref="D112:M112"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="D99:M99"/>
-    <mergeCell ref="D93:M93"/>
-    <mergeCell ref="D100:M100"/>
-    <mergeCell ref="D101:M101"/>
-    <mergeCell ref="D111:M111"/>
-    <mergeCell ref="C70:M70"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D124:M124"/>
-    <mergeCell ref="D125:M125"/>
-    <mergeCell ref="D120:M120"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D105:M105"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="D95:M95"/>
-    <mergeCell ref="D98:M98"/>
-    <mergeCell ref="D97:M97"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="C109:M109"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="C116:M116"/>
-    <mergeCell ref="D117:M117"/>
-    <mergeCell ref="D115:M115"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="C119:M119"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="D122:M122"/>
-    <mergeCell ref="D110:M110"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="C90:M90"/>
-    <mergeCell ref="D91:M91"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="D123:M123"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -20999,61 +21062,64 @@
     <mergeCell ref="D38:M38"/>
     <mergeCell ref="D39:M39"/>
     <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="C58:M58"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="D122:M122"/>
+    <mergeCell ref="D110:M110"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="C90:M90"/>
+    <mergeCell ref="D91:M91"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D86:M86"/>
     <mergeCell ref="D88:M88"/>
     <mergeCell ref="D118:M118"/>
     <mergeCell ref="D114:M114"/>
     <mergeCell ref="D107:M107"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="D124:M124"/>
+    <mergeCell ref="D125:M125"/>
+    <mergeCell ref="D120:M120"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="D95:M95"/>
+    <mergeCell ref="D98:M98"/>
+    <mergeCell ref="D97:M97"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="C109:M109"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="C116:M116"/>
+    <mergeCell ref="D117:M117"/>
+    <mergeCell ref="D115:M115"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="C119:M119"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D89:M89"/>
+    <mergeCell ref="D96:M96"/>
+    <mergeCell ref="D92:M92"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D113:M113"/>
+    <mergeCell ref="D102:M102"/>
+    <mergeCell ref="D112:M112"/>
+    <mergeCell ref="D103:M103"/>
+    <mergeCell ref="D99:M99"/>
+    <mergeCell ref="D93:M93"/>
+    <mergeCell ref="D100:M100"/>
+    <mergeCell ref="D101:M101"/>
+    <mergeCell ref="D111:M111"/>
+    <mergeCell ref="C70:M70"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D72:M72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21071,7 +21137,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21107,13 +21173,13 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="BK2" s="181" t="s">
+      <c r="BK2" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="181" t="s">
+      <c r="BL2" s="199" t="s">
         <v>317</v>
       </c>
-      <c r="BM2" s="181" t="s">
+      <c r="BM2" s="199" t="s">
         <v>318</v>
       </c>
     </row>
@@ -21121,9 +21187,9 @@
       <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="181"/>
-      <c r="BL3" s="181"/>
-      <c r="BM3" s="181"/>
+      <c r="BK3" s="199"/>
+      <c r="BL3" s="199"/>
+      <c r="BM3" s="199"/>
     </row>
     <row r="4" spans="2:65" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BK4" s="101">
@@ -21131,118 +21197,118 @@
         <v>115</v>
       </c>
       <c r="BL4" s="101">
-        <f>BI17+BI18+BI96+BI97+BI13+BI23+BI95+BI50</f>
-        <v>9</v>
+        <f>BI17+BI18+BI96+BI97+BI13+BI23+BI95+BI50+BI19</f>
+        <v>10</v>
       </c>
       <c r="BM4" s="101">
         <f>BL4/BK4*100</f>
-        <v>7.8260869565217401</v>
+        <v>8.695652173913043</v>
       </c>
     </row>
     <row r="5" spans="2:65" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="182" t="s">
+      <c r="C5" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182" t="s">
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="190" t="s">
+      <c r="O5" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="190" t="s">
+      <c r="P5" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="206" t="s">
+      <c r="Q5" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="186" t="s">
+      <c r="R5" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="209" t="s">
+      <c r="S5" s="211" t="s">
         <v>450</v>
       </c>
-      <c r="T5" s="210"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="212" t="s">
+      <c r="T5" s="212"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="214" t="s">
         <v>452</v>
       </c>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="210"/>
-      <c r="AQ5" s="210"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="210"/>
-      <c r="AU5" s="210"/>
-      <c r="AV5" s="210"/>
-      <c r="AW5" s="210"/>
-      <c r="AX5" s="210"/>
-      <c r="AY5" s="210"/>
-      <c r="AZ5" s="212" t="s">
+      <c r="W5" s="212"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="212"/>
+      <c r="Z5" s="212"/>
+      <c r="AA5" s="212"/>
+      <c r="AB5" s="212"/>
+      <c r="AC5" s="212"/>
+      <c r="AD5" s="212"/>
+      <c r="AE5" s="212"/>
+      <c r="AF5" s="212"/>
+      <c r="AG5" s="212"/>
+      <c r="AH5" s="212"/>
+      <c r="AI5" s="212"/>
+      <c r="AJ5" s="212"/>
+      <c r="AK5" s="212"/>
+      <c r="AL5" s="212"/>
+      <c r="AM5" s="212"/>
+      <c r="AN5" s="212"/>
+      <c r="AO5" s="212"/>
+      <c r="AP5" s="212"/>
+      <c r="AQ5" s="212"/>
+      <c r="AR5" s="212"/>
+      <c r="AS5" s="212"/>
+      <c r="AT5" s="212"/>
+      <c r="AU5" s="212"/>
+      <c r="AV5" s="212"/>
+      <c r="AW5" s="212"/>
+      <c r="AX5" s="212"/>
+      <c r="AY5" s="212"/>
+      <c r="AZ5" s="214" t="s">
         <v>482</v>
       </c>
-      <c r="BA5" s="210"/>
-      <c r="BB5" s="210"/>
-      <c r="BC5" s="210"/>
-      <c r="BD5" s="210"/>
-      <c r="BE5" s="210"/>
-      <c r="BF5" s="210"/>
-      <c r="BG5" s="210"/>
-      <c r="BH5" s="213"/>
-      <c r="BI5" s="195" t="s">
+      <c r="BA5" s="212"/>
+      <c r="BB5" s="212"/>
+      <c r="BC5" s="212"/>
+      <c r="BD5" s="212"/>
+      <c r="BE5" s="212"/>
+      <c r="BF5" s="212"/>
+      <c r="BG5" s="212"/>
+      <c r="BH5" s="215"/>
+      <c r="BI5" s="197" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:65" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="200"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="187"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="201"/>
       <c r="S6" s="118" t="s">
         <v>484</v>
       </c>
@@ -21369,25 +21435,25 @@
       <c r="BH6" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="BI6" s="208"/>
+      <c r="BI6" s="210"/>
     </row>
     <row r="7" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="C7" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
       <c r="N7" s="66"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -21444,18 +21510,18 @@
       <c r="C8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="189" t="s">
         <v>446</v>
       </c>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="190"/>
       <c r="N8" s="50" t="s">
         <v>447</v>
       </c>
@@ -21522,18 +21588,18 @@
       <c r="C9" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="189" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="185"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="190"/>
       <c r="N9" s="50" t="s">
         <v>447</v>
       </c>
@@ -21600,18 +21666,18 @@
       <c r="C10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="189" t="s">
         <v>487</v>
       </c>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="185"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="190"/>
       <c r="N10" s="50" t="s">
         <v>447</v>
       </c>
@@ -21678,18 +21744,18 @@
       <c r="C11" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="184" t="s">
+      <c r="D11" s="189" t="s">
         <v>490</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="185"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="190"/>
       <c r="N11" s="50" t="s">
         <v>447</v>
       </c>
@@ -21756,18 +21822,18 @@
       <c r="C12" s="86" t="s">
         <v>492</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="189" t="s">
         <v>493</v>
       </c>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="185"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="190"/>
       <c r="N12" s="50" t="s">
         <v>447</v>
       </c>
@@ -21834,18 +21900,18 @@
       <c r="C13" s="84" t="s">
         <v>810</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="189" t="s">
         <v>811</v>
       </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="185"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="190"/>
       <c r="N13" s="50" t="s">
         <v>812</v>
       </c>
@@ -21914,18 +21980,18 @@
       <c r="C14" s="84" t="s">
         <v>810</v>
       </c>
-      <c r="D14" s="184" t="s">
+      <c r="D14" s="189" t="s">
         <v>817</v>
       </c>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="185"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="190"/>
       <c r="N14" s="50" t="s">
         <v>815</v>
       </c>
@@ -21988,19 +22054,19 @@
       <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="197" t="s">
+      <c r="C15" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="198"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
       <c r="N15" s="13"/>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
@@ -22057,18 +22123,18 @@
       <c r="C16" s="87" t="s">
         <v>703</v>
       </c>
-      <c r="D16" s="177" t="s">
+      <c r="D16" s="183" t="s">
         <v>722</v>
       </c>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="178"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="184"/>
       <c r="N16" s="39" t="s">
         <v>32</v>
       </c>
@@ -22135,18 +22201,18 @@
       <c r="C17" s="154" t="s">
         <v>714</v>
       </c>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="183" t="s">
         <v>715</v>
       </c>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="178"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="184"/>
       <c r="N17" s="39" t="s">
         <v>716</v>
       </c>
@@ -22215,18 +22281,18 @@
       <c r="C18" s="87" t="s">
         <v>703</v>
       </c>
-      <c r="D18" s="177" t="s">
+      <c r="D18" s="183" t="s">
         <v>719</v>
       </c>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="178"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="184"/>
       <c r="N18" s="39" t="s">
         <v>720</v>
       </c>
@@ -22295,20 +22361,20 @@
       <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="201" t="s">
+      <c r="D19" s="191" t="s">
         <v>723</v>
       </c>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="202"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="192"/>
       <c r="N19" s="14" t="s">
-        <v>29</v>
+        <v>857</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>724</v>
@@ -22316,7 +22382,9 @@
       <c r="P19" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="Q19" s="18"/>
+      <c r="Q19" s="18">
+        <v>1</v>
+      </c>
       <c r="R19" s="79">
         <v>1</v>
       </c>
@@ -22373,18 +22441,18 @@
       <c r="C20" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="201" t="s">
+      <c r="D20" s="191" t="s">
         <v>725</v>
       </c>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="202"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="192"/>
       <c r="N20" s="14" t="s">
         <v>10</v>
       </c>
@@ -22450,18 +22518,18 @@
       <c r="C21" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="201" t="s">
+      <c r="D21" s="191" t="s">
         <v>498</v>
       </c>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="202"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="192"/>
       <c r="N21" s="14" t="s">
         <v>10</v>
       </c>
@@ -22523,19 +22591,19 @@
       <c r="B22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="197" t="s">
+      <c r="C22" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="198"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="180"/>
       <c r="N22" s="13"/>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
@@ -22592,18 +22660,18 @@
       <c r="C23" s="106" t="s">
         <v>825</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="183" t="s">
         <v>826</v>
       </c>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="178"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="184"/>
       <c r="N23" s="39" t="s">
         <v>827</v>
       </c>
@@ -22672,18 +22740,18 @@
       <c r="C24" s="106" t="s">
         <v>825</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="183" t="s">
         <v>833</v>
       </c>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="178"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="184"/>
       <c r="N24" s="39" t="s">
         <v>835</v>
       </c>
@@ -22750,18 +22818,18 @@
       <c r="C25" s="106" t="s">
         <v>853</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="183" t="s">
         <v>854</v>
       </c>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="178"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="184"/>
       <c r="N25" s="39" t="s">
         <v>855</v>
       </c>
@@ -22828,18 +22896,18 @@
       <c r="C26" s="106" t="s">
         <v>849</v>
       </c>
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="183" t="s">
         <v>850</v>
       </c>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="178"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="184"/>
       <c r="N26" s="39" t="s">
         <v>851</v>
       </c>
@@ -23359,19 +23427,19 @@
       <c r="B33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="197" t="s">
+      <c r="C33" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="180"/>
       <c r="N33" s="38"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
@@ -23428,18 +23496,18 @@
       <c r="C34" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="183" t="s">
         <v>500</v>
       </c>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="178"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="184"/>
       <c r="N34" s="39"/>
       <c r="O34" s="56" t="s">
         <v>497</v>
@@ -23504,18 +23572,18 @@
       <c r="C35" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="177" t="s">
+      <c r="D35" s="183" t="s">
         <v>729</v>
       </c>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="177"/>
-      <c r="L35" s="177"/>
-      <c r="M35" s="178"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="184"/>
       <c r="N35" s="39"/>
       <c r="O35" s="56" t="s">
         <v>496</v>
@@ -23580,18 +23648,18 @@
       <c r="C36" s="106" t="s">
         <v>825</v>
       </c>
-      <c r="D36" s="177" t="s">
+      <c r="D36" s="183" t="s">
         <v>838</v>
       </c>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="177"/>
-      <c r="M36" s="178"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="39" t="s">
         <v>839</v>
       </c>
@@ -23658,18 +23726,18 @@
       <c r="C37" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D37" s="177" t="s">
+      <c r="D37" s="183" t="s">
         <v>512</v>
       </c>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="178"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="184"/>
       <c r="N37" s="39"/>
       <c r="O37" s="56" t="s">
         <v>514</v>
@@ -23734,18 +23802,18 @@
       <c r="C38" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="177" t="s">
+      <c r="D38" s="183" t="s">
         <v>513</v>
       </c>
-      <c r="E38" s="177"/>
-      <c r="F38" s="177"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="177"/>
-      <c r="M38" s="178"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="184"/>
       <c r="N38" s="39"/>
       <c r="O38" s="56" t="s">
         <v>516</v>
@@ -23810,18 +23878,18 @@
       <c r="C39" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="183" t="s">
         <v>503</v>
       </c>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="177"/>
-      <c r="M39" s="178"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="39"/>
       <c r="O39" s="56" t="s">
         <v>506</v>
@@ -23886,18 +23954,18 @@
       <c r="C40" s="106" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="177" t="s">
+      <c r="D40" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="177"/>
-      <c r="M40" s="178"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="184"/>
       <c r="N40" s="39"/>
       <c r="O40" s="56" t="s">
         <v>507</v>
@@ -23962,18 +24030,18 @@
       <c r="C41" s="106" t="s">
         <v>730</v>
       </c>
-      <c r="D41" s="177" t="s">
+      <c r="D41" s="183" t="s">
         <v>731</v>
       </c>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="178"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="184"/>
       <c r="N41" s="39"/>
       <c r="O41" s="56" t="s">
         <v>732</v>
@@ -24035,19 +24103,19 @@
       <c r="B42" s="37">
         <v>5</v>
       </c>
-      <c r="C42" s="197" t="s">
+      <c r="C42" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="197"/>
-      <c r="K42" s="197"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="198"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="179"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="179"/>
+      <c r="M42" s="180"/>
       <c r="N42" s="40"/>
       <c r="O42" s="41"/>
       <c r="P42" s="41"/>
@@ -24104,18 +24172,18 @@
       <c r="C43" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="D43" s="177" t="s">
+      <c r="D43" s="183" t="s">
         <v>818</v>
       </c>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="177"/>
-      <c r="L43" s="177"/>
-      <c r="M43" s="178"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="184"/>
       <c r="N43" s="90" t="s">
         <v>819</v>
       </c>
@@ -25475,19 +25543,19 @@
       <c r="B61" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="197" t="s">
+      <c r="C61" s="179" t="s">
         <v>526</v>
       </c>
-      <c r="D61" s="197"/>
-      <c r="E61" s="197"/>
-      <c r="F61" s="197"/>
-      <c r="G61" s="197"/>
-      <c r="H61" s="197"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="197"/>
-      <c r="L61" s="197"/>
-      <c r="M61" s="198"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="179"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="179"/>
+      <c r="M61" s="180"/>
       <c r="N61" s="38"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41"/>
@@ -26302,19 +26370,19 @@
       <c r="B72" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="C72" s="205" t="s">
+      <c r="C72" s="207" t="s">
         <v>528</v>
       </c>
-      <c r="D72" s="197"/>
-      <c r="E72" s="197"/>
-      <c r="F72" s="197"/>
-      <c r="G72" s="197"/>
-      <c r="H72" s="197"/>
-      <c r="I72" s="197"/>
-      <c r="J72" s="197"/>
-      <c r="K72" s="197"/>
-      <c r="L72" s="197"/>
-      <c r="M72" s="198"/>
+      <c r="D72" s="179"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
+      <c r="G72" s="179"/>
+      <c r="H72" s="179"/>
+      <c r="I72" s="179"/>
+      <c r="J72" s="179"/>
+      <c r="K72" s="179"/>
+      <c r="L72" s="179"/>
+      <c r="M72" s="180"/>
       <c r="N72" s="38"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41"/>
@@ -26371,18 +26439,18 @@
       <c r="C73" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="177" t="s">
+      <c r="D73" s="183" t="s">
         <v>734</v>
       </c>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="177"/>
-      <c r="H73" s="177"/>
-      <c r="I73" s="177"/>
-      <c r="J73" s="177"/>
-      <c r="K73" s="177"/>
-      <c r="L73" s="177"/>
-      <c r="M73" s="178"/>
+      <c r="E73" s="183"/>
+      <c r="F73" s="183"/>
+      <c r="G73" s="183"/>
+      <c r="H73" s="183"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="183"/>
+      <c r="K73" s="183"/>
+      <c r="L73" s="183"/>
+      <c r="M73" s="184"/>
       <c r="N73" s="90" t="s">
         <v>805</v>
       </c>
@@ -26447,18 +26515,18 @@
       <c r="C74" s="133" t="s">
         <v>542</v>
       </c>
-      <c r="D74" s="177" t="s">
+      <c r="D74" s="183" t="s">
         <v>543</v>
       </c>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="177"/>
-      <c r="J74" s="177"/>
-      <c r="K74" s="177"/>
-      <c r="L74" s="177"/>
-      <c r="M74" s="178"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="183"/>
+      <c r="G74" s="183"/>
+      <c r="H74" s="183"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="183"/>
+      <c r="K74" s="183"/>
+      <c r="L74" s="183"/>
+      <c r="M74" s="184"/>
       <c r="N74" s="90"/>
       <c r="O74" s="91" t="s">
         <v>660</v>
@@ -26523,18 +26591,18 @@
       <c r="C75" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="177" t="s">
+      <c r="D75" s="183" t="s">
         <v>544</v>
       </c>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="177"/>
-      <c r="J75" s="177"/>
-      <c r="K75" s="177"/>
-      <c r="L75" s="177"/>
-      <c r="M75" s="178"/>
+      <c r="E75" s="183"/>
+      <c r="F75" s="183"/>
+      <c r="G75" s="183"/>
+      <c r="H75" s="183"/>
+      <c r="I75" s="183"/>
+      <c r="J75" s="183"/>
+      <c r="K75" s="183"/>
+      <c r="L75" s="183"/>
+      <c r="M75" s="184"/>
       <c r="N75" s="90"/>
       <c r="O75" s="91" t="s">
         <v>622</v>
@@ -26599,18 +26667,18 @@
       <c r="C76" s="133" t="s">
         <v>703</v>
       </c>
-      <c r="D76" s="177" t="s">
+      <c r="D76" s="183" t="s">
         <v>735</v>
       </c>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="177"/>
-      <c r="J76" s="177"/>
-      <c r="K76" s="177"/>
-      <c r="L76" s="177"/>
-      <c r="M76" s="178"/>
+      <c r="E76" s="183"/>
+      <c r="F76" s="183"/>
+      <c r="G76" s="183"/>
+      <c r="H76" s="183"/>
+      <c r="I76" s="183"/>
+      <c r="J76" s="183"/>
+      <c r="K76" s="183"/>
+      <c r="L76" s="183"/>
+      <c r="M76" s="184"/>
       <c r="N76" s="90"/>
       <c r="O76" s="91" t="s">
         <v>736</v>
@@ -26675,18 +26743,18 @@
       <c r="C77" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="177" t="s">
+      <c r="D77" s="183" t="s">
         <v>545</v>
       </c>
-      <c r="E77" s="177"/>
-      <c r="F77" s="177"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="177"/>
-      <c r="I77" s="177"/>
-      <c r="J77" s="177"/>
-      <c r="K77" s="177"/>
-      <c r="L77" s="177"/>
-      <c r="M77" s="178"/>
+      <c r="E77" s="183"/>
+      <c r="F77" s="183"/>
+      <c r="G77" s="183"/>
+      <c r="H77" s="183"/>
+      <c r="I77" s="183"/>
+      <c r="J77" s="183"/>
+      <c r="K77" s="183"/>
+      <c r="L77" s="183"/>
+      <c r="M77" s="184"/>
       <c r="N77" s="90"/>
       <c r="O77" s="91" t="s">
         <v>649</v>
@@ -26751,18 +26819,18 @@
       <c r="C78" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="177" t="s">
+      <c r="D78" s="183" t="s">
         <v>546</v>
       </c>
-      <c r="E78" s="177"/>
-      <c r="F78" s="177"/>
-      <c r="G78" s="177"/>
-      <c r="H78" s="177"/>
-      <c r="I78" s="177"/>
-      <c r="J78" s="177"/>
-      <c r="K78" s="177"/>
-      <c r="L78" s="177"/>
-      <c r="M78" s="178"/>
+      <c r="E78" s="183"/>
+      <c r="F78" s="183"/>
+      <c r="G78" s="183"/>
+      <c r="H78" s="183"/>
+      <c r="I78" s="183"/>
+      <c r="J78" s="183"/>
+      <c r="K78" s="183"/>
+      <c r="L78" s="183"/>
+      <c r="M78" s="184"/>
       <c r="N78" s="90"/>
       <c r="O78" s="91" t="s">
         <v>663</v>
@@ -26827,18 +26895,18 @@
       <c r="C79" s="134" t="s">
         <v>547</v>
       </c>
-      <c r="D79" s="177" t="s">
+      <c r="D79" s="183" t="s">
         <v>548</v>
       </c>
-      <c r="E79" s="177"/>
-      <c r="F79" s="177"/>
-      <c r="G79" s="177"/>
-      <c r="H79" s="177"/>
-      <c r="I79" s="177"/>
-      <c r="J79" s="177"/>
-      <c r="K79" s="177"/>
-      <c r="L79" s="177"/>
-      <c r="M79" s="178"/>
+      <c r="E79" s="183"/>
+      <c r="F79" s="183"/>
+      <c r="G79" s="183"/>
+      <c r="H79" s="183"/>
+      <c r="I79" s="183"/>
+      <c r="J79" s="183"/>
+      <c r="K79" s="183"/>
+      <c r="L79" s="183"/>
+      <c r="M79" s="184"/>
       <c r="N79" s="90"/>
       <c r="O79" s="91" t="s">
         <v>665</v>
@@ -26900,19 +26968,19 @@
       <c r="B80" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C80" s="205" t="s">
+      <c r="C80" s="207" t="s">
         <v>382</v>
       </c>
-      <c r="D80" s="197"/>
-      <c r="E80" s="197"/>
-      <c r="F80" s="197"/>
-      <c r="G80" s="197"/>
-      <c r="H80" s="197"/>
-      <c r="I80" s="197"/>
-      <c r="J80" s="197"/>
-      <c r="K80" s="197"/>
-      <c r="L80" s="197"/>
-      <c r="M80" s="198"/>
+      <c r="D80" s="179"/>
+      <c r="E80" s="179"/>
+      <c r="F80" s="179"/>
+      <c r="G80" s="179"/>
+      <c r="H80" s="179"/>
+      <c r="I80" s="179"/>
+      <c r="J80" s="179"/>
+      <c r="K80" s="179"/>
+      <c r="L80" s="179"/>
+      <c r="M80" s="180"/>
       <c r="N80" s="38"/>
       <c r="O80" s="41"/>
       <c r="P80" s="41"/>
@@ -26969,18 +27037,18 @@
       <c r="C81" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="179" t="s">
+      <c r="D81" s="177" t="s">
         <v>550</v>
       </c>
-      <c r="E81" s="179"/>
-      <c r="F81" s="179"/>
-      <c r="G81" s="179"/>
-      <c r="H81" s="179"/>
-      <c r="I81" s="179"/>
-      <c r="J81" s="179"/>
-      <c r="K81" s="179"/>
-      <c r="L81" s="179"/>
-      <c r="M81" s="180"/>
+      <c r="E81" s="177"/>
+      <c r="F81" s="177"/>
+      <c r="G81" s="177"/>
+      <c r="H81" s="177"/>
+      <c r="I81" s="177"/>
+      <c r="J81" s="177"/>
+      <c r="K81" s="177"/>
+      <c r="L81" s="177"/>
+      <c r="M81" s="178"/>
       <c r="N81" s="90"/>
       <c r="O81" s="91" t="s">
         <v>639</v>
@@ -27045,18 +27113,18 @@
       <c r="C82" s="96" t="s">
         <v>555</v>
       </c>
-      <c r="D82" s="179" t="s">
+      <c r="D82" s="177" t="s">
         <v>556</v>
       </c>
-      <c r="E82" s="179"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="179"/>
-      <c r="H82" s="179"/>
-      <c r="I82" s="179"/>
-      <c r="J82" s="179"/>
-      <c r="K82" s="179"/>
-      <c r="L82" s="179"/>
-      <c r="M82" s="180"/>
+      <c r="E82" s="177"/>
+      <c r="F82" s="177"/>
+      <c r="G82" s="177"/>
+      <c r="H82" s="177"/>
+      <c r="I82" s="177"/>
+      <c r="J82" s="177"/>
+      <c r="K82" s="177"/>
+      <c r="L82" s="177"/>
+      <c r="M82" s="178"/>
       <c r="N82" s="90"/>
       <c r="O82" s="91" t="s">
         <v>645</v>
@@ -27121,18 +27189,18 @@
       <c r="C83" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="179" t="s">
+      <c r="D83" s="177" t="s">
         <v>551</v>
       </c>
-      <c r="E83" s="179"/>
-      <c r="F83" s="179"/>
-      <c r="G83" s="179"/>
-      <c r="H83" s="179"/>
-      <c r="I83" s="179"/>
-      <c r="J83" s="179"/>
-      <c r="K83" s="179"/>
-      <c r="L83" s="179"/>
-      <c r="M83" s="180"/>
+      <c r="E83" s="177"/>
+      <c r="F83" s="177"/>
+      <c r="G83" s="177"/>
+      <c r="H83" s="177"/>
+      <c r="I83" s="177"/>
+      <c r="J83" s="177"/>
+      <c r="K83" s="177"/>
+      <c r="L83" s="177"/>
+      <c r="M83" s="178"/>
       <c r="N83" s="90" t="s">
         <v>842</v>
       </c>
@@ -27198,18 +27266,18 @@
       <c r="C84" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="179" t="s">
+      <c r="D84" s="177" t="s">
         <v>552</v>
       </c>
-      <c r="E84" s="179"/>
-      <c r="F84" s="179"/>
-      <c r="G84" s="179"/>
-      <c r="H84" s="179"/>
-      <c r="I84" s="179"/>
-      <c r="J84" s="179"/>
-      <c r="K84" s="179"/>
-      <c r="L84" s="179"/>
-      <c r="M84" s="180"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="177"/>
+      <c r="G84" s="177"/>
+      <c r="H84" s="177"/>
+      <c r="I84" s="177"/>
+      <c r="J84" s="177"/>
+      <c r="K84" s="177"/>
+      <c r="L84" s="177"/>
+      <c r="M84" s="178"/>
       <c r="N84" s="90"/>
       <c r="O84" s="91" t="s">
         <v>649</v>
@@ -27274,18 +27342,18 @@
       <c r="C85" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="179" t="s">
+      <c r="D85" s="177" t="s">
         <v>553</v>
       </c>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="179"/>
-      <c r="H85" s="179"/>
-      <c r="I85" s="179"/>
-      <c r="J85" s="179"/>
-      <c r="K85" s="179"/>
-      <c r="L85" s="179"/>
-      <c r="M85" s="180"/>
+      <c r="E85" s="177"/>
+      <c r="F85" s="177"/>
+      <c r="G85" s="177"/>
+      <c r="H85" s="177"/>
+      <c r="I85" s="177"/>
+      <c r="J85" s="177"/>
+      <c r="K85" s="177"/>
+      <c r="L85" s="177"/>
+      <c r="M85" s="178"/>
       <c r="N85" s="90"/>
       <c r="O85" s="91" t="s">
         <v>662</v>
@@ -27350,18 +27418,18 @@
       <c r="C86" s="96" t="s">
         <v>531</v>
       </c>
-      <c r="D86" s="179" t="s">
+      <c r="D86" s="177" t="s">
         <v>554</v>
       </c>
-      <c r="E86" s="179"/>
-      <c r="F86" s="179"/>
-      <c r="G86" s="179"/>
-      <c r="H86" s="179"/>
-      <c r="I86" s="179"/>
-      <c r="J86" s="179"/>
-      <c r="K86" s="179"/>
-      <c r="L86" s="179"/>
-      <c r="M86" s="180"/>
+      <c r="E86" s="177"/>
+      <c r="F86" s="177"/>
+      <c r="G86" s="177"/>
+      <c r="H86" s="177"/>
+      <c r="I86" s="177"/>
+      <c r="J86" s="177"/>
+      <c r="K86" s="177"/>
+      <c r="L86" s="177"/>
+      <c r="M86" s="178"/>
       <c r="N86" s="90"/>
       <c r="O86" s="91" t="s">
         <v>662</v>
@@ -27426,18 +27494,18 @@
       <c r="C87" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="179" t="s">
+      <c r="D87" s="177" t="s">
         <v>557</v>
       </c>
-      <c r="E87" s="179"/>
-      <c r="F87" s="179"/>
-      <c r="G87" s="179"/>
-      <c r="H87" s="179"/>
-      <c r="I87" s="179"/>
-      <c r="J87" s="179"/>
-      <c r="K87" s="179"/>
-      <c r="L87" s="179"/>
-      <c r="M87" s="180"/>
+      <c r="E87" s="177"/>
+      <c r="F87" s="177"/>
+      <c r="G87" s="177"/>
+      <c r="H87" s="177"/>
+      <c r="I87" s="177"/>
+      <c r="J87" s="177"/>
+      <c r="K87" s="177"/>
+      <c r="L87" s="177"/>
+      <c r="M87" s="178"/>
       <c r="N87" s="90"/>
       <c r="O87" s="91" t="s">
         <v>669</v>
@@ -27502,18 +27570,18 @@
       <c r="C88" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="179" t="s">
+      <c r="D88" s="177" t="s">
         <v>386</v>
       </c>
-      <c r="E88" s="179"/>
-      <c r="F88" s="179"/>
-      <c r="G88" s="179"/>
-      <c r="H88" s="179"/>
-      <c r="I88" s="179"/>
-      <c r="J88" s="179"/>
-      <c r="K88" s="179"/>
-      <c r="L88" s="179"/>
-      <c r="M88" s="180"/>
+      <c r="E88" s="177"/>
+      <c r="F88" s="177"/>
+      <c r="G88" s="177"/>
+      <c r="H88" s="177"/>
+      <c r="I88" s="177"/>
+      <c r="J88" s="177"/>
+      <c r="K88" s="177"/>
+      <c r="L88" s="177"/>
+      <c r="M88" s="178"/>
       <c r="N88" s="90"/>
       <c r="O88" s="91" t="s">
         <v>663</v>
@@ -27575,19 +27643,19 @@
       <c r="B89" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C89" s="205" t="s">
+      <c r="C89" s="207" t="s">
         <v>560</v>
       </c>
-      <c r="D89" s="197"/>
-      <c r="E89" s="197"/>
-      <c r="F89" s="197"/>
-      <c r="G89" s="197"/>
-      <c r="H89" s="197"/>
-      <c r="I89" s="197"/>
-      <c r="J89" s="197"/>
-      <c r="K89" s="197"/>
-      <c r="L89" s="197"/>
-      <c r="M89" s="198"/>
+      <c r="D89" s="179"/>
+      <c r="E89" s="179"/>
+      <c r="F89" s="179"/>
+      <c r="G89" s="179"/>
+      <c r="H89" s="179"/>
+      <c r="I89" s="179"/>
+      <c r="J89" s="179"/>
+      <c r="K89" s="179"/>
+      <c r="L89" s="179"/>
+      <c r="M89" s="180"/>
       <c r="N89" s="38"/>
       <c r="O89" s="41"/>
       <c r="P89" s="41"/>
@@ -27644,18 +27712,18 @@
       <c r="C90" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="177" t="s">
+      <c r="D90" s="183" t="s">
         <v>561</v>
       </c>
-      <c r="E90" s="177"/>
-      <c r="F90" s="177"/>
-      <c r="G90" s="177"/>
-      <c r="H90" s="177"/>
-      <c r="I90" s="177"/>
-      <c r="J90" s="177"/>
-      <c r="K90" s="177"/>
-      <c r="L90" s="177"/>
-      <c r="M90" s="178"/>
+      <c r="E90" s="183"/>
+      <c r="F90" s="183"/>
+      <c r="G90" s="183"/>
+      <c r="H90" s="183"/>
+      <c r="I90" s="183"/>
+      <c r="J90" s="183"/>
+      <c r="K90" s="183"/>
+      <c r="L90" s="183"/>
+      <c r="M90" s="184"/>
       <c r="N90" s="90"/>
       <c r="O90" s="91" t="s">
         <v>639</v>
@@ -27720,18 +27788,18 @@
       <c r="C91" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="179" t="s">
+      <c r="D91" s="177" t="s">
         <v>562</v>
       </c>
-      <c r="E91" s="179"/>
-      <c r="F91" s="179"/>
-      <c r="G91" s="179"/>
-      <c r="H91" s="179"/>
-      <c r="I91" s="179"/>
-      <c r="J91" s="179"/>
-      <c r="K91" s="179"/>
-      <c r="L91" s="179"/>
-      <c r="M91" s="180"/>
+      <c r="E91" s="177"/>
+      <c r="F91" s="177"/>
+      <c r="G91" s="177"/>
+      <c r="H91" s="177"/>
+      <c r="I91" s="177"/>
+      <c r="J91" s="177"/>
+      <c r="K91" s="177"/>
+      <c r="L91" s="177"/>
+      <c r="M91" s="178"/>
       <c r="N91" s="90"/>
       <c r="O91" s="91" t="s">
         <v>647</v>
@@ -27796,18 +27864,18 @@
       <c r="C92" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="D92" s="179" t="s">
+      <c r="D92" s="177" t="s">
         <v>564</v>
       </c>
-      <c r="E92" s="179"/>
-      <c r="F92" s="179"/>
-      <c r="G92" s="179"/>
-      <c r="H92" s="179"/>
-      <c r="I92" s="179"/>
-      <c r="J92" s="179"/>
-      <c r="K92" s="179"/>
-      <c r="L92" s="179"/>
-      <c r="M92" s="180"/>
+      <c r="E92" s="177"/>
+      <c r="F92" s="177"/>
+      <c r="G92" s="177"/>
+      <c r="H92" s="177"/>
+      <c r="I92" s="177"/>
+      <c r="J92" s="177"/>
+      <c r="K92" s="177"/>
+      <c r="L92" s="177"/>
+      <c r="M92" s="178"/>
       <c r="N92" s="90"/>
       <c r="O92" s="91" t="s">
         <v>666</v>
@@ -27872,18 +27940,18 @@
       <c r="C93" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="D93" s="179" t="s">
+      <c r="D93" s="177" t="s">
         <v>579</v>
       </c>
-      <c r="E93" s="179"/>
-      <c r="F93" s="179"/>
-      <c r="G93" s="179"/>
-      <c r="H93" s="179"/>
-      <c r="I93" s="179"/>
-      <c r="J93" s="179"/>
-      <c r="K93" s="179"/>
-      <c r="L93" s="179"/>
-      <c r="M93" s="180"/>
+      <c r="E93" s="177"/>
+      <c r="F93" s="177"/>
+      <c r="G93" s="177"/>
+      <c r="H93" s="177"/>
+      <c r="I93" s="177"/>
+      <c r="J93" s="177"/>
+      <c r="K93" s="177"/>
+      <c r="L93" s="177"/>
+      <c r="M93" s="178"/>
       <c r="N93" s="90"/>
       <c r="O93" s="91" t="s">
         <v>673</v>
@@ -27945,19 +28013,19 @@
       <c r="B94" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="C94" s="205" t="s">
+      <c r="C94" s="207" t="s">
         <v>583</v>
       </c>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
-      <c r="G94" s="197"/>
-      <c r="H94" s="197"/>
-      <c r="I94" s="197"/>
-      <c r="J94" s="197"/>
-      <c r="K94" s="197"/>
-      <c r="L94" s="197"/>
-      <c r="M94" s="198"/>
+      <c r="D94" s="179"/>
+      <c r="E94" s="179"/>
+      <c r="F94" s="179"/>
+      <c r="G94" s="179"/>
+      <c r="H94" s="179"/>
+      <c r="I94" s="179"/>
+      <c r="J94" s="179"/>
+      <c r="K94" s="179"/>
+      <c r="L94" s="179"/>
+      <c r="M94" s="180"/>
       <c r="N94" s="38"/>
       <c r="O94" s="41"/>
       <c r="P94" s="41"/>
@@ -28014,18 +28082,18 @@
       <c r="C95" s="162" t="s">
         <v>825</v>
       </c>
-      <c r="D95" s="177" t="s">
+      <c r="D95" s="183" t="s">
         <v>831</v>
       </c>
-      <c r="E95" s="177"/>
-      <c r="F95" s="177"/>
-      <c r="G95" s="177"/>
-      <c r="H95" s="177"/>
-      <c r="I95" s="177"/>
-      <c r="J95" s="177"/>
-      <c r="K95" s="177"/>
-      <c r="L95" s="177"/>
-      <c r="M95" s="178"/>
+      <c r="E95" s="183"/>
+      <c r="F95" s="183"/>
+      <c r="G95" s="183"/>
+      <c r="H95" s="183"/>
+      <c r="I95" s="183"/>
+      <c r="J95" s="183"/>
+      <c r="K95" s="183"/>
+      <c r="L95" s="183"/>
+      <c r="M95" s="184"/>
       <c r="N95" s="90" t="s">
         <v>832</v>
       </c>
@@ -28094,18 +28162,18 @@
       <c r="C96" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="179" t="s">
+      <c r="D96" s="177" t="s">
         <v>585</v>
       </c>
-      <c r="E96" s="179"/>
-      <c r="F96" s="179"/>
-      <c r="G96" s="179"/>
-      <c r="H96" s="179"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="179"/>
-      <c r="K96" s="179"/>
-      <c r="L96" s="179"/>
-      <c r="M96" s="180"/>
+      <c r="E96" s="177"/>
+      <c r="F96" s="177"/>
+      <c r="G96" s="177"/>
+      <c r="H96" s="177"/>
+      <c r="I96" s="177"/>
+      <c r="J96" s="177"/>
+      <c r="K96" s="177"/>
+      <c r="L96" s="177"/>
+      <c r="M96" s="178"/>
       <c r="N96" s="90" t="s">
         <v>586</v>
       </c>
@@ -28174,18 +28242,18 @@
       <c r="C97" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="D97" s="179" t="s">
+      <c r="D97" s="177" t="s">
         <v>808</v>
       </c>
-      <c r="E97" s="179"/>
-      <c r="F97" s="179"/>
-      <c r="G97" s="179"/>
-      <c r="H97" s="179"/>
-      <c r="I97" s="179"/>
-      <c r="J97" s="179"/>
-      <c r="K97" s="179"/>
-      <c r="L97" s="179"/>
-      <c r="M97" s="180"/>
+      <c r="E97" s="177"/>
+      <c r="F97" s="177"/>
+      <c r="G97" s="177"/>
+      <c r="H97" s="177"/>
+      <c r="I97" s="177"/>
+      <c r="J97" s="177"/>
+      <c r="K97" s="177"/>
+      <c r="L97" s="177"/>
+      <c r="M97" s="178"/>
       <c r="N97" s="90" t="s">
         <v>807</v>
       </c>
@@ -28254,18 +28322,18 @@
       <c r="C98" s="96" t="s">
         <v>584</v>
       </c>
-      <c r="D98" s="179" t="s">
+      <c r="D98" s="177" t="s">
         <v>589</v>
       </c>
-      <c r="E98" s="179"/>
-      <c r="F98" s="179"/>
-      <c r="G98" s="179"/>
-      <c r="H98" s="179"/>
-      <c r="I98" s="179"/>
-      <c r="J98" s="179"/>
-      <c r="K98" s="179"/>
-      <c r="L98" s="179"/>
-      <c r="M98" s="180"/>
+      <c r="E98" s="177"/>
+      <c r="F98" s="177"/>
+      <c r="G98" s="177"/>
+      <c r="H98" s="177"/>
+      <c r="I98" s="177"/>
+      <c r="J98" s="177"/>
+      <c r="K98" s="177"/>
+      <c r="L98" s="177"/>
+      <c r="M98" s="178"/>
       <c r="N98" s="90"/>
       <c r="O98" s="91" t="s">
         <v>606</v>
@@ -28330,18 +28398,18 @@
       <c r="C99" s="96" t="s">
         <v>590</v>
       </c>
-      <c r="D99" s="179" t="s">
+      <c r="D99" s="177" t="s">
         <v>591</v>
       </c>
-      <c r="E99" s="179"/>
-      <c r="F99" s="179"/>
-      <c r="G99" s="179"/>
-      <c r="H99" s="179"/>
-      <c r="I99" s="179"/>
-      <c r="J99" s="179"/>
-      <c r="K99" s="179"/>
-      <c r="L99" s="179"/>
-      <c r="M99" s="180"/>
+      <c r="E99" s="177"/>
+      <c r="F99" s="177"/>
+      <c r="G99" s="177"/>
+      <c r="H99" s="177"/>
+      <c r="I99" s="177"/>
+      <c r="J99" s="177"/>
+      <c r="K99" s="177"/>
+      <c r="L99" s="177"/>
+      <c r="M99" s="178"/>
       <c r="N99" s="90" t="s">
         <v>595</v>
       </c>
@@ -28408,18 +28476,18 @@
       <c r="C100" s="97" t="s">
         <v>730</v>
       </c>
-      <c r="D100" s="179" t="s">
+      <c r="D100" s="177" t="s">
         <v>745</v>
       </c>
-      <c r="E100" s="179"/>
-      <c r="F100" s="179"/>
-      <c r="G100" s="179"/>
-      <c r="H100" s="179"/>
-      <c r="I100" s="179"/>
-      <c r="J100" s="179"/>
-      <c r="K100" s="179"/>
-      <c r="L100" s="179"/>
-      <c r="M100" s="180"/>
+      <c r="E100" s="177"/>
+      <c r="F100" s="177"/>
+      <c r="G100" s="177"/>
+      <c r="H100" s="177"/>
+      <c r="I100" s="177"/>
+      <c r="J100" s="177"/>
+      <c r="K100" s="177"/>
+      <c r="L100" s="177"/>
+      <c r="M100" s="178"/>
       <c r="N100" s="90"/>
       <c r="O100" s="91" t="s">
         <v>746</v>
@@ -28484,18 +28552,18 @@
       <c r="C101" s="135" t="s">
         <v>596</v>
       </c>
-      <c r="D101" s="179" t="s">
+      <c r="D101" s="177" t="s">
         <v>597</v>
       </c>
-      <c r="E101" s="179"/>
-      <c r="F101" s="179"/>
-      <c r="G101" s="179"/>
-      <c r="H101" s="179"/>
-      <c r="I101" s="179"/>
-      <c r="J101" s="179"/>
-      <c r="K101" s="179"/>
-      <c r="L101" s="179"/>
-      <c r="M101" s="180"/>
+      <c r="E101" s="177"/>
+      <c r="F101" s="177"/>
+      <c r="G101" s="177"/>
+      <c r="H101" s="177"/>
+      <c r="I101" s="177"/>
+      <c r="J101" s="177"/>
+      <c r="K101" s="177"/>
+      <c r="L101" s="177"/>
+      <c r="M101" s="178"/>
       <c r="N101" s="90"/>
       <c r="O101" s="91" t="s">
         <v>598</v>
@@ -28560,18 +28628,18 @@
       <c r="C102" s="138" t="s">
         <v>600</v>
       </c>
-      <c r="D102" s="216" t="s">
+      <c r="D102" s="205" t="s">
         <v>601</v>
       </c>
-      <c r="E102" s="216"/>
-      <c r="F102" s="216"/>
-      <c r="G102" s="216"/>
-      <c r="H102" s="216"/>
-      <c r="I102" s="216"/>
-      <c r="J102" s="216"/>
-      <c r="K102" s="216"/>
-      <c r="L102" s="216"/>
-      <c r="M102" s="217"/>
+      <c r="E102" s="205"/>
+      <c r="F102" s="205"/>
+      <c r="G102" s="205"/>
+      <c r="H102" s="205"/>
+      <c r="I102" s="205"/>
+      <c r="J102" s="205"/>
+      <c r="K102" s="205"/>
+      <c r="L102" s="205"/>
+      <c r="M102" s="206"/>
       <c r="N102" 